--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1311">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5894,18 +5894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5924,7 +5912,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5934,15 +5940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5962,6 +5959,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="120"/>
-      <c r="B3" s="97"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="119"/>
       <c r="D3" s="84">
         <v>2</v>
@@ -8910,7 +8910,7 @@
         <v>1040</v>
       </c>
       <c r="H3" s="120"/>
-      <c r="I3" s="97"/>
+      <c r="I3" s="102"/>
       <c r="J3" s="119"/>
       <c r="K3" s="84">
         <v>2</v>
@@ -8922,7 +8922,7 @@
         <v>1121</v>
       </c>
       <c r="O3" s="120"/>
-      <c r="P3" s="97"/>
+      <c r="P3" s="102"/>
       <c r="Q3" s="119"/>
       <c r="R3" s="84">
         <v>2</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="120"/>
-      <c r="B4" s="97"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="119"/>
       <c r="D4" s="84">
         <v>3</v>
@@ -8948,7 +8948,7 @@
         <v>1041</v>
       </c>
       <c r="H4" s="120"/>
-      <c r="I4" s="97"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="119"/>
       <c r="K4" s="84">
         <v>3</v>
@@ -8960,7 +8960,7 @@
         <v>1122</v>
       </c>
       <c r="O4" s="120"/>
-      <c r="P4" s="97"/>
+      <c r="P4" s="102"/>
       <c r="Q4" s="119"/>
       <c r="R4" s="84">
         <v>3</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
       <c r="A5" s="120"/>
-      <c r="B5" s="97"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="119"/>
       <c r="D5" s="84">
         <v>4</v>
@@ -8986,7 +8986,7 @@
         <v>1042</v>
       </c>
       <c r="H5" s="120"/>
-      <c r="I5" s="97"/>
+      <c r="I5" s="102"/>
       <c r="J5" s="119"/>
       <c r="K5" s="84">
         <v>4</v>
@@ -8994,7 +8994,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" s="120"/>
-      <c r="P5" s="97"/>
+      <c r="P5" s="102"/>
       <c r="Q5" s="119"/>
       <c r="R5" s="84">
         <v>4</v>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="120"/>
-      <c r="B6" s="97"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="119"/>
       <c r="D6" s="84">
         <v>5</v>
@@ -9012,7 +9012,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="H6" s="120"/>
-      <c r="I6" s="97"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="119"/>
       <c r="K6" s="84">
         <v>5</v>
@@ -9020,7 +9020,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="O6" s="120"/>
-      <c r="P6" s="97"/>
+      <c r="P6" s="102"/>
       <c r="Q6" s="119"/>
       <c r="R6" s="84">
         <v>5</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="120"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="119"/>
       <c r="D7" s="84">
         <v>6</v>
@@ -9038,7 +9038,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="120"/>
-      <c r="I7" s="97"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="119"/>
       <c r="K7" s="84">
         <v>6</v>
@@ -9046,7 +9046,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="O7" s="120"/>
-      <c r="P7" s="97"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="84">
         <v>6</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="120"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="119"/>
       <c r="D8" s="84">
         <v>7</v>
@@ -9068,7 +9068,7 @@
         <v>1049</v>
       </c>
       <c r="H8" s="120"/>
-      <c r="I8" s="97"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="119"/>
       <c r="K8" s="84">
         <v>7</v>
@@ -9080,7 +9080,7 @@
         <v>1123</v>
       </c>
       <c r="O8" s="120"/>
-      <c r="P8" s="97"/>
+      <c r="P8" s="102"/>
       <c r="Q8" s="119"/>
       <c r="R8" s="84">
         <v>7</v>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="120"/>
-      <c r="B9" s="97"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="119"/>
       <c r="D9" s="84">
         <v>8</v>
@@ -9106,7 +9106,7 @@
         <v>1050</v>
       </c>
       <c r="H9" s="120"/>
-      <c r="I9" s="97"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="119"/>
       <c r="K9" s="84">
         <v>8</v>
@@ -9118,7 +9118,7 @@
         <v>1124</v>
       </c>
       <c r="O9" s="120"/>
-      <c r="P9" s="97"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="84">
         <v>8</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="120"/>
-      <c r="B10" s="97"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="119"/>
       <c r="D10" s="84">
         <v>9</v>
@@ -9144,7 +9144,7 @@
         <v>1043</v>
       </c>
       <c r="H10" s="120"/>
-      <c r="I10" s="97"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="119"/>
       <c r="K10" s="84">
         <v>9</v>
@@ -9152,7 +9152,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="O10" s="120"/>
-      <c r="P10" s="97"/>
+      <c r="P10" s="102"/>
       <c r="Q10" s="119"/>
       <c r="R10" s="84">
         <v>9</v>
@@ -9162,7 +9162,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="120"/>
-      <c r="B11" s="97"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="119"/>
       <c r="D11" s="84">
         <v>10</v>
@@ -9174,7 +9174,7 @@
         <v>1043</v>
       </c>
       <c r="H11" s="120"/>
-      <c r="I11" s="97"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="119"/>
       <c r="K11" s="84">
         <v>10</v>
@@ -9182,7 +9182,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="O11" s="120"/>
-      <c r="P11" s="97"/>
+      <c r="P11" s="102"/>
       <c r="Q11" s="119"/>
       <c r="R11" s="84">
         <v>10</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="120"/>
-      <c r="B12" s="97"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="119"/>
       <c r="D12" s="84">
         <v>11</v>
@@ -9204,7 +9204,7 @@
         <v>1044</v>
       </c>
       <c r="H12" s="120"/>
-      <c r="I12" s="97"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="119"/>
       <c r="K12" s="84">
         <v>11</v>
@@ -9212,7 +9212,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" s="120"/>
-      <c r="P12" s="97"/>
+      <c r="P12" s="102"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="84">
         <v>11</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="120"/>
-      <c r="B13" s="97"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="119"/>
       <c r="D13" s="84">
         <v>12</v>
@@ -9234,7 +9234,7 @@
         <v>1044</v>
       </c>
       <c r="H13" s="120"/>
-      <c r="I13" s="97"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="119"/>
       <c r="K13" s="84">
         <v>12</v>
@@ -9242,7 +9242,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="O13" s="120"/>
-      <c r="P13" s="97"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="119"/>
       <c r="R13" s="84">
         <v>12</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="120"/>
-      <c r="B14" s="97"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="119"/>
       <c r="D14" s="84">
         <v>13</v>
@@ -9260,7 +9260,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14" s="120"/>
-      <c r="I14" s="97"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="119"/>
       <c r="K14" s="84">
         <v>13</v>
@@ -9272,7 +9272,7 @@
         <v>1125</v>
       </c>
       <c r="O14" s="120"/>
-      <c r="P14" s="97"/>
+      <c r="P14" s="102"/>
       <c r="Q14" s="119"/>
       <c r="R14" s="84">
         <v>13</v>
@@ -9286,7 +9286,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="120"/>
-      <c r="B15" s="97"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="119"/>
       <c r="D15" s="84">
         <v>14</v>
@@ -9298,7 +9298,7 @@
         <v>1045</v>
       </c>
       <c r="H15" s="120"/>
-      <c r="I15" s="97"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="119"/>
       <c r="K15" s="84">
         <v>14</v>
@@ -9310,7 +9310,7 @@
         <v>1126</v>
       </c>
       <c r="O15" s="120"/>
-      <c r="P15" s="97"/>
+      <c r="P15" s="102"/>
       <c r="Q15" s="119"/>
       <c r="R15" s="84">
         <v>14</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="120"/>
-      <c r="B16" s="97"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="119"/>
       <c r="D16" s="84">
         <v>15</v>
@@ -9336,7 +9336,7 @@
         <v>1045</v>
       </c>
       <c r="H16" s="120"/>
-      <c r="I16" s="97"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="119"/>
       <c r="K16" s="84">
         <v>15</v>
@@ -9348,7 +9348,7 @@
         <v>1127</v>
       </c>
       <c r="O16" s="120"/>
-      <c r="P16" s="97"/>
+      <c r="P16" s="102"/>
       <c r="Q16" s="119"/>
       <c r="R16" s="84">
         <v>15</v>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="120"/>
-      <c r="B17" s="97"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="119"/>
       <c r="D17" s="84">
         <v>16</v>
@@ -9374,7 +9374,7 @@
         <v>1046</v>
       </c>
       <c r="H17" s="120"/>
-      <c r="I17" s="97"/>
+      <c r="I17" s="102"/>
       <c r="J17" s="119"/>
       <c r="K17" s="84">
         <v>16</v>
@@ -9386,7 +9386,7 @@
         <v>1128</v>
       </c>
       <c r="O17" s="120"/>
-      <c r="P17" s="97"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="119"/>
       <c r="R17" s="84">
         <v>16</v>
@@ -9400,7 +9400,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="120"/>
-      <c r="B18" s="97"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="119"/>
       <c r="D18" s="84">
         <v>17</v>
@@ -9412,7 +9412,7 @@
         <v>1047</v>
       </c>
       <c r="H18" s="120"/>
-      <c r="I18" s="97"/>
+      <c r="I18" s="102"/>
       <c r="J18" s="119"/>
       <c r="K18" s="84">
         <v>17</v>
@@ -9424,7 +9424,7 @@
         <v>1133</v>
       </c>
       <c r="O18" s="120"/>
-      <c r="P18" s="97"/>
+      <c r="P18" s="102"/>
       <c r="Q18" s="119"/>
       <c r="R18" s="84">
         <v>17</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="120"/>
-      <c r="B19" s="97"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="119"/>
       <c r="D19" s="84">
         <v>18</v>
@@ -9450,7 +9450,7 @@
         <v>1048</v>
       </c>
       <c r="H19" s="120"/>
-      <c r="I19" s="97"/>
+      <c r="I19" s="102"/>
       <c r="J19" s="119"/>
       <c r="K19" s="84">
         <v>18</v>
@@ -9462,7 +9462,7 @@
         <v>1134</v>
       </c>
       <c r="O19" s="120"/>
-      <c r="P19" s="97"/>
+      <c r="P19" s="102"/>
       <c r="Q19" s="119"/>
       <c r="R19" s="84">
         <v>18</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="120"/>
-      <c r="B20" s="97"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="119"/>
       <c r="D20" s="84">
         <v>19</v>
@@ -9488,7 +9488,7 @@
         <v>1048</v>
       </c>
       <c r="H20" s="120"/>
-      <c r="I20" s="97"/>
+      <c r="I20" s="102"/>
       <c r="J20" s="119"/>
       <c r="K20" s="84">
         <v>19</v>
@@ -9500,7 +9500,7 @@
         <v>1135</v>
       </c>
       <c r="O20" s="120"/>
-      <c r="P20" s="97"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="119"/>
       <c r="R20" s="84">
         <v>19</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="120"/>
-      <c r="B21" s="97"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="119"/>
       <c r="D21" s="84">
         <v>20</v>
@@ -9526,7 +9526,7 @@
         <v>1051</v>
       </c>
       <c r="H21" s="120"/>
-      <c r="I21" s="97"/>
+      <c r="I21" s="102"/>
       <c r="J21" s="119"/>
       <c r="K21" s="84">
         <v>20</v>
@@ -9538,7 +9538,7 @@
         <v>1136</v>
       </c>
       <c r="O21" s="120"/>
-      <c r="P21" s="97"/>
+      <c r="P21" s="102"/>
       <c r="Q21" s="119"/>
       <c r="R21" s="84">
         <v>20</v>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="120"/>
-      <c r="B22" s="97"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="119"/>
       <c r="D22" s="84">
         <v>21</v>
@@ -9564,7 +9564,7 @@
         <v>1052</v>
       </c>
       <c r="H22" s="120"/>
-      <c r="I22" s="97"/>
+      <c r="I22" s="102"/>
       <c r="J22" s="119"/>
       <c r="K22" s="84">
         <v>21</v>
@@ -9576,7 +9576,7 @@
         <v>1129</v>
       </c>
       <c r="O22" s="120"/>
-      <c r="P22" s="97"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="119"/>
       <c r="R22" s="84">
         <v>21</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="120"/>
-      <c r="B23" s="97"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="119"/>
       <c r="D23" s="84">
         <v>22</v>
@@ -9598,7 +9598,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="120"/>
-      <c r="I23" s="97"/>
+      <c r="I23" s="102"/>
       <c r="J23" s="119"/>
       <c r="K23" s="84">
         <v>22</v>
@@ -9610,7 +9610,7 @@
         <v>1130</v>
       </c>
       <c r="O23" s="120"/>
-      <c r="P23" s="97"/>
+      <c r="P23" s="102"/>
       <c r="Q23" s="119"/>
       <c r="R23" s="84">
         <v>22</v>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="120"/>
-      <c r="B24" s="97"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="119"/>
       <c r="D24" s="84">
         <v>23</v>
@@ -9632,7 +9632,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="120"/>
-      <c r="I24" s="97"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="119"/>
       <c r="K24" s="84">
         <v>23</v>
@@ -9640,7 +9640,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="O24" s="120"/>
-      <c r="P24" s="97"/>
+      <c r="P24" s="102"/>
       <c r="Q24" s="119"/>
       <c r="R24" s="84">
         <v>23</v>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="120"/>
-      <c r="B25" s="97"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="119"/>
       <c r="D25" s="84">
         <v>24</v>
@@ -9658,7 +9658,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="120"/>
-      <c r="I25" s="97"/>
+      <c r="I25" s="102"/>
       <c r="J25" s="119"/>
       <c r="K25" s="84">
         <v>24</v>
@@ -9666,7 +9666,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="O25" s="120"/>
-      <c r="P25" s="97"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="119"/>
       <c r="R25" s="84">
         <v>24</v>
@@ -9676,7 +9676,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="120"/>
-      <c r="B26" s="97"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="119"/>
       <c r="D26" s="84">
         <v>25</v>
@@ -9684,7 +9684,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="120"/>
-      <c r="I26" s="97"/>
+      <c r="I26" s="102"/>
       <c r="J26" s="119"/>
       <c r="K26" s="84">
         <v>25</v>
@@ -9696,7 +9696,7 @@
         <v>1132</v>
       </c>
       <c r="O26" s="120"/>
-      <c r="P26" s="97"/>
+      <c r="P26" s="102"/>
       <c r="Q26" s="119"/>
       <c r="R26" s="84">
         <v>25</v>
@@ -10438,7 +10438,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10461,7 +10461,7 @@
       <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="102" t="s">
         <v>1219</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10470,136 +10470,136 @@
       <c r="C2" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="102" t="s">
         <v>1186</v>
       </c>
       <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="97"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="D3" s="97"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="97"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="97"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="102" t="s">
         <v>1196</v>
       </c>
       <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="97"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="97"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="97"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="102" t="s">
         <v>1209</v>
       </c>
       <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="97"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="D9" s="97"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="97"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="D10" s="97"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="97"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="102" t="s">
         <v>1210</v>
       </c>
       <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="97"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="1" t="s">
         <v>1204</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="D12" s="97"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="97"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="D13" s="97"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5">
@@ -10814,6 +10814,10 @@
         <v>1310</v>
       </c>
       <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
     </row>
     <row r="39" spans="6:9">
       <c r="F39" s="1"/>
@@ -10900,7 +10904,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="102" t="s">
         <v>1218</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10914,7 +10918,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="97"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="1" t="s">
         <v>1212</v>
       </c>
@@ -10926,7 +10930,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="97"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="1" t="s">
         <v>1213</v>
       </c>
@@ -10936,7 +10940,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="97"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="1" t="s">
         <v>1214</v>
       </c>
@@ -10948,7 +10952,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="102" t="s">
         <v>1251</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10962,7 +10966,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="97"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="1" t="s">
         <v>1212</v>
       </c>
@@ -10980,7 +10984,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="102" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -10994,7 +10998,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="97"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="1" t="s">
         <v>1212</v>
       </c>
@@ -11617,17 +11621,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="96"/>
+      <c r="G1" s="104"/>
       <c r="H1" s="16" t="s">
         <v>239</v>
       </c>
@@ -11636,13 +11640,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
       <c r="H2" s="16" t="s">
         <v>240</v>
       </c>
@@ -11651,13 +11655,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -11671,10 +11675,10 @@
       <c r="C4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="15" t="s">
         <v>46</v>
       </c>
@@ -11689,7 +11693,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="99" t="s">
         <v>568</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -11698,10 +11702,10 @@
       <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="102" t="s">
         <v>564</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="15">
         <v>1</v>
       </c>
@@ -11717,17 +11721,17 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="104"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="16" t="s">
         <v>569</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="102" t="s">
         <v>571</v>
       </c>
-      <c r="E6" s="97"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="16">
         <v>2</v>
       </c>
@@ -11743,17 +11747,17 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="104"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="102" t="s">
         <v>565</v>
       </c>
-      <c r="E7" s="97"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="15">
         <v>1</v>
       </c>
@@ -11769,17 +11773,17 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="104"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="102" t="s">
         <v>566</v>
       </c>
-      <c r="E8" s="97"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="15">
         <v>1</v>
       </c>
@@ -11795,17 +11799,17 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="104"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>567</v>
       </c>
-      <c r="E9" s="97"/>
+      <c r="E9" s="102"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
@@ -11821,17 +11825,17 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="104"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="97"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="15">
         <v>1</v>
       </c>
@@ -11847,17 +11851,17 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="104"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="16" t="s">
         <v>242</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="97"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="16">
         <v>1</v>
       </c>
@@ -11873,17 +11877,17 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="104"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="97"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="16">
         <v>1</v>
       </c>
@@ -11899,17 +11903,17 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="104"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="16" t="s">
         <v>244</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="97"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="16">
         <v>1</v>
       </c>
@@ -11925,17 +11929,17 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="104"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="97"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="15">
         <v>2</v>
       </c>
@@ -11951,17 +11955,17 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="104"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="97"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="15">
         <v>1</v>
       </c>
@@ -11977,15 +11981,15 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="104"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="97"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="15">
         <v>2</v>
       </c>
@@ -12001,15 +12005,15 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="104"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="97"/>
+      <c r="E17" s="102"/>
       <c r="F17" s="15">
         <v>10</v>
       </c>
@@ -12025,17 +12029,17 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="104"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="97"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="15">
         <v>1</v>
       </c>
@@ -12051,17 +12055,17 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="104"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="15" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="15">
         <v>1</v>
       </c>
@@ -12077,17 +12081,17 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="104"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="15" t="s">
         <v>151</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="97"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="15">
         <v>1</v>
       </c>
@@ -12103,17 +12107,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="104"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="15" t="s">
         <v>154</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="97"/>
+      <c r="E21" s="102"/>
       <c r="F21" s="15">
         <v>1</v>
       </c>
@@ -12129,17 +12133,17 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="104"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="97"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="15">
         <v>1</v>
       </c>
@@ -12155,15 +12159,15 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="104"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="97"/>
+      <c r="E23" s="102"/>
       <c r="F23" s="15">
         <v>4</v>
       </c>
@@ -12179,17 +12183,17 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="104"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="102">
         <v>30296</v>
       </c>
-      <c r="E24" s="97"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="15">
         <v>2</v>
       </c>
@@ -12205,17 +12209,17 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="104"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="97"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="15">
         <v>1</v>
       </c>
@@ -12231,17 +12235,17 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="104"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="97"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="15">
         <v>1</v>
       </c>
@@ -12257,13 +12261,13 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="104"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
       <c r="F27" s="15">
         <v>1</v>
       </c>
@@ -12279,17 +12283,17 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="105"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="97"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="15">
         <v>1</v>
       </c>
@@ -12308,15 +12312,15 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="96" t="s">
         <v>228</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -12325,10 +12329,10 @@
       <c r="C30" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="97"/>
+      <c r="E30" s="102"/>
       <c r="F30" s="15">
         <v>1</v>
       </c>
@@ -12344,17 +12348,17 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="101"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="97" t="s">
+      <c r="D31" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="97"/>
+      <c r="E31" s="102"/>
       <c r="F31" s="15">
         <v>1</v>
       </c>
@@ -12370,17 +12374,17 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="101"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="97"/>
+      <c r="E32" s="102"/>
       <c r="F32" s="15">
         <v>1</v>
       </c>
@@ -12396,17 +12400,17 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="101"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="97"/>
+      <c r="E33" s="102"/>
       <c r="F33" s="15">
         <v>1</v>
       </c>
@@ -12422,17 +12426,17 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="101"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="97" t="s">
+      <c r="D34" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="97"/>
+      <c r="E34" s="102"/>
       <c r="F34" s="15">
         <v>2</v>
       </c>
@@ -12448,17 +12452,17 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="101"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="97" t="s">
+      <c r="D35" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="97"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="15">
         <v>2</v>
       </c>
@@ -12474,17 +12478,17 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="101"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="97" t="s">
+      <c r="D36" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="97"/>
+      <c r="E36" s="102"/>
       <c r="F36" s="15">
         <v>4</v>
       </c>
@@ -12500,17 +12504,17 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="101"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="97" t="s">
+      <c r="D37" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="97"/>
+      <c r="E37" s="102"/>
       <c r="F37" s="15">
         <v>4</v>
       </c>
@@ -12526,17 +12530,17 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="101"/>
+      <c r="A38" s="97"/>
       <c r="B38" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="97" t="s">
+      <c r="D38" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="97"/>
+      <c r="E38" s="102"/>
       <c r="F38" s="15">
         <v>1</v>
       </c>
@@ -12552,17 +12556,17 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="101"/>
+      <c r="A39" s="97"/>
       <c r="B39" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="97" t="s">
+      <c r="D39" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="97"/>
+      <c r="E39" s="102"/>
       <c r="F39" s="15">
         <v>1</v>
       </c>
@@ -12578,17 +12582,17 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="101"/>
+      <c r="A40" s="97"/>
       <c r="B40" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="97" t="s">
+      <c r="D40" s="102" t="s">
         <v>401</v>
       </c>
-      <c r="E40" s="97"/>
+      <c r="E40" s="102"/>
       <c r="F40" s="15">
         <v>4</v>
       </c>
@@ -12607,17 +12611,17 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="102"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="102" t="s">
         <v>580</v>
       </c>
-      <c r="E41" s="97"/>
+      <c r="E41" s="102"/>
       <c r="F41" s="15">
         <v>4</v>
       </c>
@@ -12636,15 +12640,15 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="96" t="s">
         <v>229</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -12653,10 +12657,10 @@
       <c r="C43" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="97" t="s">
+      <c r="D43" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="97"/>
+      <c r="E43" s="102"/>
       <c r="F43" s="15">
         <v>6</v>
       </c>
@@ -12672,17 +12676,17 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="101"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="97" t="s">
+      <c r="D44" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="97"/>
+      <c r="E44" s="102"/>
       <c r="F44" s="15">
         <v>1</v>
       </c>
@@ -12698,17 +12702,17 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="101"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="97" t="s">
+      <c r="D45" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="97"/>
+      <c r="E45" s="102"/>
       <c r="F45" s="15">
         <v>1</v>
       </c>
@@ -12724,17 +12728,17 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="102"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="97" t="s">
+      <c r="D46" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="E46" s="97"/>
+      <c r="E46" s="102"/>
       <c r="F46" s="15">
         <v>1</v>
       </c>
@@ -12753,15 +12757,15 @@
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="12"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="96" t="s">
         <v>573</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -12770,10 +12774,10 @@
       <c r="C48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="97" t="s">
+      <c r="D48" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="97"/>
+      <c r="E48" s="102"/>
       <c r="F48" s="15">
         <v>1</v>
       </c>
@@ -12789,15 +12793,15 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="101"/>
+      <c r="A49" s="97"/>
       <c r="B49" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="97" t="s">
+      <c r="D49" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="97"/>
+      <c r="E49" s="102"/>
       <c r="F49" s="15">
         <v>6</v>
       </c>
@@ -12813,17 +12817,17 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="101"/>
+      <c r="A50" s="97"/>
       <c r="B50" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="97"/>
+      <c r="E50" s="102"/>
       <c r="F50" s="15">
         <v>8</v>
       </c>
@@ -12839,17 +12843,17 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="101"/>
+      <c r="A51" s="97"/>
       <c r="B51" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="97" t="s">
+      <c r="D51" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="97"/>
+      <c r="E51" s="102"/>
       <c r="F51" s="15">
         <v>4</v>
       </c>
@@ -12865,17 +12869,17 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="101"/>
+      <c r="A52" s="97"/>
       <c r="B52" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="97" t="s">
+      <c r="D52" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="97"/>
+      <c r="E52" s="102"/>
       <c r="F52" s="15">
         <v>4</v>
       </c>
@@ -12891,13 +12895,13 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="101"/>
+      <c r="A53" s="97"/>
       <c r="B53" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
       <c r="F53" s="15">
         <v>4</v>
       </c>
@@ -12913,13 +12917,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="101"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="15"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
       <c r="F54" s="15">
         <v>4</v>
       </c>
@@ -12935,17 +12939,17 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="101"/>
+      <c r="A55" s="97"/>
       <c r="B55" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="97" t="s">
+      <c r="D55" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="97"/>
+      <c r="E55" s="102"/>
       <c r="F55" s="15">
         <v>1</v>
       </c>
@@ -12961,13 +12965,13 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="101"/>
+      <c r="A56" s="97"/>
       <c r="B56" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="15"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
       <c r="F56" s="15">
         <v>1</v>
       </c>
@@ -12983,15 +12987,15 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="101"/>
+      <c r="A57" s="97"/>
       <c r="B57" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="15"/>
-      <c r="D57" s="97" t="s">
+      <c r="D57" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="E57" s="97"/>
+      <c r="E57" s="102"/>
       <c r="F57" s="15">
         <v>3</v>
       </c>
@@ -13007,15 +13011,15 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="101"/>
+      <c r="A58" s="97"/>
       <c r="B58" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="15"/>
-      <c r="D58" s="97" t="s">
+      <c r="D58" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="97"/>
+      <c r="E58" s="102"/>
       <c r="F58" s="15">
         <v>12</v>
       </c>
@@ -13031,15 +13035,15 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="101"/>
+      <c r="A59" s="97"/>
       <c r="B59" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="15"/>
-      <c r="D59" s="97" t="s">
+      <c r="D59" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="97"/>
+      <c r="E59" s="102"/>
       <c r="F59" s="15">
         <v>15</v>
       </c>
@@ -13055,17 +13059,17 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="101"/>
+      <c r="A60" s="97"/>
       <c r="B60" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="97" t="s">
+      <c r="D60" s="102" t="s">
         <v>575</v>
       </c>
-      <c r="E60" s="97"/>
+      <c r="E60" s="102"/>
       <c r="F60" s="15">
         <v>1</v>
       </c>
@@ -13081,17 +13085,17 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="101"/>
+      <c r="A61" s="97"/>
       <c r="B61" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="102" t="s">
         <v>576</v>
       </c>
-      <c r="E61" s="97"/>
+      <c r="E61" s="102"/>
       <c r="F61" s="15">
         <v>2</v>
       </c>
@@ -13107,17 +13111,17 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="101"/>
+      <c r="A62" s="97"/>
       <c r="B62" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D62" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="97"/>
+      <c r="E62" s="102"/>
       <c r="F62" s="15">
         <v>4</v>
       </c>
@@ -13133,17 +13137,17 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="101"/>
+      <c r="A63" s="97"/>
       <c r="B63" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="97" t="s">
+      <c r="D63" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="97"/>
+      <c r="E63" s="102"/>
       <c r="F63" s="15">
         <v>6</v>
       </c>
@@ -13159,17 +13163,17 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="101"/>
+      <c r="A64" s="97"/>
       <c r="B64" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="97" t="s">
+      <c r="D64" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="97"/>
+      <c r="E64" s="102"/>
       <c r="F64" s="15">
         <v>2</v>
       </c>
@@ -13185,17 +13189,17 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="101"/>
+      <c r="A65" s="97"/>
       <c r="B65" s="15" t="s">
         <v>206</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="97" t="s">
+      <c r="D65" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="97"/>
+      <c r="E65" s="102"/>
       <c r="F65" s="15">
         <v>2</v>
       </c>
@@ -13211,17 +13215,17 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="101"/>
+      <c r="A66" s="97"/>
       <c r="B66" s="15" t="s">
         <v>213</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="97" t="s">
+      <c r="D66" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="E66" s="97"/>
+      <c r="E66" s="102"/>
       <c r="F66" s="15">
         <v>4</v>
       </c>
@@ -13237,17 +13241,17 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="101"/>
+      <c r="A67" s="97"/>
       <c r="B67" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="97" t="s">
+      <c r="D67" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="97"/>
+      <c r="E67" s="102"/>
       <c r="F67" s="15">
         <v>4</v>
       </c>
@@ -13263,17 +13267,17 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="101"/>
+      <c r="A68" s="97"/>
       <c r="B68" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="97" t="s">
+      <c r="D68" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="E68" s="97"/>
+      <c r="E68" s="102"/>
       <c r="F68" s="15">
         <v>4</v>
       </c>
@@ -13289,17 +13293,17 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="101"/>
+      <c r="A69" s="97"/>
       <c r="B69" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="97" t="s">
+      <c r="D69" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="E69" s="97"/>
+      <c r="E69" s="102"/>
       <c r="F69" s="15">
         <v>4</v>
       </c>
@@ -13315,15 +13319,15 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="101"/>
+      <c r="A70" s="97"/>
       <c r="B70" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="15"/>
-      <c r="D70" s="97" t="s">
+      <c r="D70" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="97"/>
+      <c r="E70" s="102"/>
       <c r="F70" s="15">
         <v>8</v>
       </c>
@@ -13339,15 +13343,15 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="101"/>
+      <c r="A71" s="97"/>
       <c r="B71" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C71" s="15"/>
-      <c r="D71" s="97" t="s">
+      <c r="D71" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="97"/>
+      <c r="E71" s="102"/>
       <c r="F71" s="15">
         <v>1</v>
       </c>
@@ -13363,15 +13367,15 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="101"/>
+      <c r="A72" s="97"/>
       <c r="B72" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C72" s="15"/>
-      <c r="D72" s="97" t="s">
+      <c r="D72" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="E72" s="97"/>
+      <c r="E72" s="102"/>
       <c r="F72" s="15">
         <v>1</v>
       </c>
@@ -13387,15 +13391,15 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="101"/>
+      <c r="A73" s="97"/>
       <c r="B73" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C73" s="15"/>
-      <c r="D73" s="97" t="s">
+      <c r="D73" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="97"/>
+      <c r="E73" s="102"/>
       <c r="F73" s="15">
         <v>1</v>
       </c>
@@ -13411,15 +13415,15 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="101"/>
+      <c r="A74" s="97"/>
       <c r="B74" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C74" s="15"/>
-      <c r="D74" s="97" t="s">
+      <c r="D74" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="97"/>
+      <c r="E74" s="102"/>
       <c r="F74" s="15">
         <v>1</v>
       </c>
@@ -13435,15 +13439,15 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="101"/>
+      <c r="A75" s="97"/>
       <c r="B75" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C75" s="15"/>
-      <c r="D75" s="97" t="s">
+      <c r="D75" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="97"/>
+      <c r="E75" s="102"/>
       <c r="F75" s="15">
         <v>2</v>
       </c>
@@ -13459,15 +13463,15 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="101"/>
+      <c r="A76" s="97"/>
       <c r="B76" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C76" s="15"/>
-      <c r="D76" s="97" t="s">
+      <c r="D76" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="97"/>
+      <c r="E76" s="102"/>
       <c r="F76" s="15">
         <v>2</v>
       </c>
@@ -13483,17 +13487,17 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="101"/>
+      <c r="A77" s="97"/>
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="97" t="s">
+      <c r="D77" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="97"/>
+      <c r="E77" s="102"/>
       <c r="F77" s="15">
         <v>3</v>
       </c>
@@ -13509,15 +13513,15 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="101"/>
+      <c r="A78" s="97"/>
       <c r="B78" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C78" s="15"/>
-      <c r="D78" s="97" t="s">
+      <c r="D78" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="E78" s="97"/>
+      <c r="E78" s="102"/>
       <c r="F78" s="15">
         <v>4</v>
       </c>
@@ -13533,17 +13537,17 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="101"/>
+      <c r="A79" s="97"/>
       <c r="B79" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="97" t="s">
+      <c r="D79" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="97"/>
+      <c r="E79" s="102"/>
       <c r="F79" s="15">
         <v>2</v>
       </c>
@@ -13559,17 +13563,17 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="101"/>
+      <c r="A80" s="97"/>
       <c r="B80" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="97" t="s">
+      <c r="D80" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="97"/>
+      <c r="E80" s="102"/>
       <c r="F80" s="15">
         <v>3</v>
       </c>
@@ -13585,17 +13589,17 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="101"/>
+      <c r="A81" s="97"/>
       <c r="B81" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="97" t="s">
+      <c r="D81" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="97"/>
+      <c r="E81" s="102"/>
       <c r="F81" s="15">
         <v>1</v>
       </c>
@@ -13611,17 +13615,17 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="101"/>
+      <c r="A82" s="97"/>
       <c r="B82" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="97" t="s">
+      <c r="D82" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="E82" s="97"/>
+      <c r="E82" s="102"/>
       <c r="F82" s="15">
         <v>2</v>
       </c>
@@ -13637,17 +13641,17 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="101"/>
+      <c r="A83" s="97"/>
       <c r="B83" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="97" t="s">
+      <c r="D83" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="E83" s="97"/>
+      <c r="E83" s="102"/>
       <c r="F83" s="15">
         <v>2</v>
       </c>
@@ -13663,17 +13667,17 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="101"/>
+      <c r="A84" s="97"/>
       <c r="B84" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="97" t="s">
+      <c r="D84" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="E84" s="97"/>
+      <c r="E84" s="102"/>
       <c r="F84" s="15">
         <v>1</v>
       </c>
@@ -13692,17 +13696,17 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="101"/>
+      <c r="A85" s="97"/>
       <c r="B85" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="97" t="s">
+      <c r="D85" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="E85" s="97"/>
+      <c r="E85" s="102"/>
       <c r="F85" s="16">
         <v>3</v>
       </c>
@@ -13721,17 +13725,17 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="101"/>
+      <c r="A86" s="97"/>
       <c r="B86" s="16" t="s">
         <v>236</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="97" t="s">
+      <c r="D86" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="E86" s="97"/>
+      <c r="E86" s="102"/>
       <c r="F86" s="16">
         <v>3</v>
       </c>
@@ -13750,17 +13754,17 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="101"/>
+      <c r="A87" s="97"/>
       <c r="B87" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="97" t="s">
+      <c r="D87" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="E87" s="97"/>
+      <c r="E87" s="102"/>
       <c r="F87" s="15">
         <v>1</v>
       </c>
@@ -13779,17 +13783,17 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="102"/>
+      <c r="A88" s="98"/>
       <c r="B88" s="15" t="s">
         <v>197</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="97">
+      <c r="D88" s="102">
         <v>620105</v>
       </c>
-      <c r="E88" s="97"/>
+      <c r="E88" s="102"/>
       <c r="F88" s="15">
         <v>1</v>
       </c>
@@ -13815,8 +13819,8 @@
       <c r="C89" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
+      <c r="D89" s="102"/>
+      <c r="E89" s="102"/>
       <c r="F89" s="16">
         <v>4</v>
       </c>
@@ -13838,25 +13842,25 @@
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
-      <c r="D90" s="98"/>
-      <c r="E90" s="98"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="103"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="12"/>
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="100" t="s">
+      <c r="A91" s="96" t="s">
         <v>574</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="15"/>
-      <c r="D91" s="97" t="s">
+      <c r="D91" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="E91" s="97"/>
+      <c r="E91" s="102"/>
       <c r="F91" s="15">
         <v>1</v>
       </c>
@@ -13872,15 +13876,15 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="101"/>
+      <c r="A92" s="97"/>
       <c r="B92" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C92" s="15"/>
-      <c r="D92" s="97" t="s">
+      <c r="D92" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="E92" s="97"/>
+      <c r="E92" s="102"/>
       <c r="F92" s="15">
         <v>1</v>
       </c>
@@ -13896,15 +13900,15 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="101"/>
+      <c r="A93" s="97"/>
       <c r="B93" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C93" s="15"/>
-      <c r="D93" s="97" t="s">
+      <c r="D93" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="97"/>
+      <c r="E93" s="102"/>
       <c r="F93" s="15">
         <v>1</v>
       </c>
@@ -13920,15 +13924,15 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="101"/>
+      <c r="A94" s="97"/>
       <c r="B94" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C94" s="15"/>
-      <c r="D94" s="97" t="s">
+      <c r="D94" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="E94" s="97"/>
+      <c r="E94" s="102"/>
       <c r="F94" s="15">
         <v>5</v>
       </c>
@@ -13944,17 +13948,17 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="101"/>
+      <c r="A95" s="97"/>
       <c r="B95" s="15" t="s">
         <v>186</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="97" t="s">
+      <c r="D95" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="E95" s="97"/>
+      <c r="E95" s="102"/>
       <c r="F95" s="15">
         <v>2</v>
       </c>
@@ -13970,17 +13974,17 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="102"/>
+      <c r="A96" s="98"/>
       <c r="B96" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="97" t="s">
+      <c r="D96" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="E96" s="97"/>
+      <c r="E96" s="102"/>
       <c r="F96" s="15">
         <v>9</v>
       </c>
@@ -13999,25 +14003,25 @@
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
-      <c r="D97" s="98"/>
-      <c r="E97" s="98"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="12"/>
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="100" t="s">
+      <c r="A98" s="96" t="s">
         <v>230</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C98" s="15"/>
-      <c r="D98" s="97" t="s">
+      <c r="D98" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E98" s="97"/>
+      <c r="E98" s="102"/>
       <c r="F98" s="15">
         <v>2</v>
       </c>
@@ -14033,15 +14037,15 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="101"/>
+      <c r="A99" s="97"/>
       <c r="B99" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C99" s="15"/>
-      <c r="D99" s="97" t="s">
+      <c r="D99" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="E99" s="97"/>
+      <c r="E99" s="102"/>
       <c r="F99" s="15">
         <v>2</v>
       </c>
@@ -14057,15 +14061,15 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="101"/>
+      <c r="A100" s="97"/>
       <c r="B100" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C100" s="15"/>
-      <c r="D100" s="97" t="s">
+      <c r="D100" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="E100" s="97"/>
+      <c r="E100" s="102"/>
       <c r="F100" s="15">
         <v>2</v>
       </c>
@@ -14081,13 +14085,13 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="101"/>
+      <c r="A101" s="97"/>
       <c r="B101" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C101" s="15"/>
-      <c r="D101" s="97"/>
-      <c r="E101" s="97"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="102"/>
       <c r="F101" s="15">
         <v>1</v>
       </c>
@@ -14103,13 +14107,13 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="101"/>
+      <c r="A102" s="97"/>
       <c r="B102" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C102" s="15"/>
-      <c r="D102" s="97"/>
-      <c r="E102" s="97"/>
+      <c r="D102" s="102"/>
+      <c r="E102" s="102"/>
       <c r="F102" s="15">
         <v>1</v>
       </c>
@@ -14125,13 +14129,13 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="101"/>
+      <c r="A103" s="97"/>
       <c r="B103" s="15" t="s">
         <v>164</v>
       </c>
       <c r="C103" s="15"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="97"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
       <c r="F103" s="15"/>
       <c r="G103" s="15" t="s">
         <v>178</v>
@@ -14145,13 +14149,13 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="101"/>
+      <c r="A104" s="97"/>
       <c r="B104" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C104" s="15"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
+      <c r="D104" s="102"/>
+      <c r="E104" s="102"/>
       <c r="F104" s="15"/>
       <c r="G104" s="15" t="s">
         <v>178</v>
@@ -14165,13 +14169,13 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="101"/>
+      <c r="A105" s="97"/>
       <c r="B105" s="15" t="s">
         <v>166</v>
       </c>
       <c r="C105" s="15"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="97"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="102"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15" t="s">
         <v>178</v>
@@ -14185,13 +14189,13 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="101"/>
+      <c r="A106" s="97"/>
       <c r="B106" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C106" s="15"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15" t="s">
         <v>178</v>
@@ -14205,13 +14209,13 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="101"/>
+      <c r="A107" s="97"/>
       <c r="B107" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C107" s="15"/>
-      <c r="D107" s="97"/>
-      <c r="E107" s="97"/>
+      <c r="D107" s="102"/>
+      <c r="E107" s="102"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
         <v>178</v>
@@ -14225,13 +14229,13 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="101"/>
+      <c r="A108" s="97"/>
       <c r="B108" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C108" s="15"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="97"/>
+      <c r="D108" s="102"/>
+      <c r="E108" s="102"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15" t="s">
         <v>178</v>
@@ -14245,13 +14249,13 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="101"/>
+      <c r="A109" s="97"/>
       <c r="B109" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C109" s="15"/>
-      <c r="D109" s="97"/>
-      <c r="E109" s="97"/>
+      <c r="D109" s="102"/>
+      <c r="E109" s="102"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15" t="s">
         <v>178</v>
@@ -14265,13 +14269,13 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="101"/>
+      <c r="A110" s="97"/>
       <c r="B110" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C110" s="15"/>
-      <c r="D110" s="97"/>
-      <c r="E110" s="97"/>
+      <c r="D110" s="102"/>
+      <c r="E110" s="102"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15" t="s">
         <v>61</v>
@@ -14285,13 +14289,13 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="101"/>
+      <c r="A111" s="97"/>
       <c r="B111" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="15"/>
-      <c r="D111" s="97"/>
-      <c r="E111" s="97"/>
+      <c r="D111" s="102"/>
+      <c r="E111" s="102"/>
       <c r="F111" s="15"/>
       <c r="G111" s="15" t="s">
         <v>61</v>
@@ -14305,13 +14309,13 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="101"/>
+      <c r="A112" s="97"/>
       <c r="B112" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C112" s="15"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="97"/>
+      <c r="D112" s="102"/>
+      <c r="E112" s="102"/>
       <c r="F112" s="15"/>
       <c r="G112" s="15" t="s">
         <v>61</v>
@@ -14325,13 +14329,13 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="101"/>
+      <c r="A113" s="97"/>
       <c r="B113" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C113" s="15"/>
-      <c r="D113" s="97"/>
-      <c r="E113" s="97"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="102"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15" t="s">
         <v>61</v>
@@ -14345,13 +14349,13 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="101"/>
+      <c r="A114" s="97"/>
       <c r="B114" s="15" t="s">
         <v>175</v>
       </c>
       <c r="C114" s="15"/>
-      <c r="D114" s="97"/>
-      <c r="E114" s="97"/>
+      <c r="D114" s="102"/>
+      <c r="E114" s="102"/>
       <c r="F114" s="15"/>
       <c r="G114" s="15" t="s">
         <v>61</v>
@@ -14365,13 +14369,13 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="101"/>
+      <c r="A115" s="97"/>
       <c r="B115" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C115" s="15"/>
-      <c r="D115" s="97"/>
-      <c r="E115" s="97"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="102"/>
       <c r="F115" s="15"/>
       <c r="G115" s="15" t="s">
         <v>61</v>
@@ -14385,13 +14389,13 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="101"/>
+      <c r="A116" s="97"/>
       <c r="B116" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C116" s="15"/>
-      <c r="D116" s="97"/>
-      <c r="E116" s="97"/>
+      <c r="D116" s="102"/>
+      <c r="E116" s="102"/>
       <c r="F116" s="15"/>
       <c r="G116" s="15" t="s">
         <v>178</v>
@@ -14405,13 +14409,13 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="101"/>
+      <c r="A117" s="97"/>
       <c r="B117" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C117" s="15"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="97"/>
+      <c r="D117" s="102"/>
+      <c r="E117" s="102"/>
       <c r="F117" s="15"/>
       <c r="G117" s="15" t="s">
         <v>178</v>
@@ -14425,13 +14429,13 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="102"/>
+      <c r="A118" s="98"/>
       <c r="B118" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C118" s="15"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97"/>
+      <c r="D118" s="102"/>
+      <c r="E118" s="102"/>
       <c r="F118" s="15">
         <v>1</v>
       </c>
@@ -14448,6 +14452,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D101:E101"/>
     <mergeCell ref="A98:A118"/>
     <mergeCell ref="A5:A28"/>
     <mergeCell ref="A30:A41"/>
@@ -14472,105 +14575,6 @@
     <mergeCell ref="D114:E114"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:G3"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -14594,8 +14598,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15235,7 +15239,7 @@
       <c r="H32" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="I32" s="97" t="s">
+      <c r="I32" s="102" t="s">
         <v>537</v>
       </c>
     </row>
@@ -15262,7 +15266,7 @@
       <c r="H33" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="I33" s="97"/>
+      <c r="I33" s="102"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
@@ -15287,7 +15291,7 @@
       <c r="H34" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="I34" s="97"/>
+      <c r="I34" s="102"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6">
@@ -15312,7 +15316,7 @@
       <c r="H35" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="I35" s="97"/>
+      <c r="I35" s="102"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6">
@@ -15335,7 +15339,7 @@
         <v>381</v>
       </c>
       <c r="H36" s="24"/>
-      <c r="I36" s="97"/>
+      <c r="I36" s="102"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6">
@@ -15358,7 +15362,7 @@
         <v>382</v>
       </c>
       <c r="H37" s="24"/>
-      <c r="I37" s="97"/>
+      <c r="I37" s="102"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6">
@@ -15383,7 +15387,7 @@
       <c r="H38" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="I38" s="97"/>
+      <c r="I38" s="102"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6">
@@ -15408,7 +15412,7 @@
       <c r="H39" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="I39" s="97"/>
+      <c r="I39" s="102"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
@@ -15433,7 +15437,7 @@
       <c r="H40" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="I40" s="97"/>
+      <c r="I40" s="102"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6">
@@ -15458,7 +15462,7 @@
       <c r="H41" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="I41" s="97"/>
+      <c r="I41" s="102"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6">
@@ -15483,7 +15487,7 @@
       <c r="H42" s="25" t="s">
         <v>925</v>
       </c>
-      <c r="I42" s="97"/>
+      <c r="I42" s="102"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6">
@@ -15508,7 +15512,7 @@
       <c r="H43" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="I43" s="97"/>
+      <c r="I43" s="102"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
@@ -15533,7 +15537,7 @@
       <c r="H44" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="I44" s="97"/>
+      <c r="I44" s="102"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6">
@@ -15558,7 +15562,7 @@
       <c r="H45" s="24" t="s">
         <v>928</v>
       </c>
-      <c r="I45" s="97"/>
+      <c r="I45" s="102"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
@@ -15583,7 +15587,7 @@
       <c r="H46" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="I46" s="97"/>
+      <c r="I46" s="102"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6">
@@ -15608,7 +15612,7 @@
       <c r="H47" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="I47" s="97"/>
+      <c r="I47" s="102"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
@@ -15633,7 +15637,7 @@
       <c r="H48" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="I48" s="97"/>
+      <c r="I48" s="102"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6">
@@ -15658,7 +15662,7 @@
       <c r="H49" s="24" t="s">
         <v>932</v>
       </c>
-      <c r="I49" s="97"/>
+      <c r="I49" s="102"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6">
@@ -15683,7 +15687,7 @@
       <c r="H50" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="I50" s="97"/>
+      <c r="I50" s="102"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6">
@@ -15708,7 +15712,7 @@
       <c r="H51" s="24" t="s">
         <v>934</v>
       </c>
-      <c r="I51" s="97"/>
+      <c r="I51" s="102"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6">
@@ -15733,7 +15737,7 @@
       <c r="H52" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="I52" s="97"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6">
@@ -15758,7 +15762,7 @@
       <c r="H53" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="I53" s="97"/>
+      <c r="I53" s="102"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6">
@@ -15783,7 +15787,7 @@
       <c r="H54" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="I54" s="97"/>
+      <c r="I54" s="102"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6">
@@ -15808,7 +15812,7 @@
       <c r="H55" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="I55" s="97"/>
+      <c r="I55" s="102"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6">
@@ -15827,7 +15831,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="97"/>
+      <c r="I56" s="102"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6">
@@ -15846,7 +15850,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="97"/>
+      <c r="I57" s="102"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6">
@@ -15865,7 +15869,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="97"/>
+      <c r="I58" s="102"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6">
@@ -15884,7 +15888,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="97"/>
+      <c r="I59" s="102"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6">
@@ -15901,7 +15905,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="97"/>
+      <c r="I60" s="102"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6">
@@ -15920,7 +15924,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="97"/>
+      <c r="I61" s="102"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6">
@@ -15939,7 +15943,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="97"/>
+      <c r="I62" s="102"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6">
@@ -15956,7 +15960,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="97"/>
+      <c r="I63" s="102"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6">
@@ -15975,7 +15979,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="97"/>
+      <c r="I64" s="102"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6">
@@ -15994,7 +15998,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="97"/>
+      <c r="I65" s="102"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6">
@@ -16013,7 +16017,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="97"/>
+      <c r="I66" s="102"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6">
@@ -16032,7 +16036,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="97"/>
+      <c r="I67" s="102"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="34">
@@ -16057,7 +16061,7 @@
       <c r="H68" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="I68" s="97" t="s">
+      <c r="I68" s="102" t="s">
         <v>536</v>
       </c>
     </row>
@@ -16084,7 +16088,7 @@
       <c r="H69" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="I69" s="97"/>
+      <c r="I69" s="102"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="34">
@@ -16109,7 +16113,7 @@
       <c r="H70" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="I70" s="97"/>
+      <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="34">
@@ -16134,7 +16138,7 @@
       <c r="H71" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="I71" s="97"/>
+      <c r="I71" s="102"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="34">
@@ -16159,7 +16163,7 @@
       <c r="H72" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="I72" s="97"/>
+      <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="34">
@@ -16184,7 +16188,7 @@
       <c r="H73" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="I73" s="97"/>
+      <c r="I73" s="102"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="34">
@@ -16209,7 +16213,7 @@
       <c r="H74" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="I74" s="97"/>
+      <c r="I74" s="102"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="34">
@@ -16232,7 +16236,7 @@
         <v>426</v>
       </c>
       <c r="H75" s="32"/>
-      <c r="I75" s="97"/>
+      <c r="I75" s="102"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="34">
@@ -16251,7 +16255,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="97" t="s">
+      <c r="I76" s="102" t="s">
         <v>854</v>
       </c>
     </row>
@@ -16272,7 +16276,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="97"/>
+      <c r="I77" s="102"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="34">
@@ -16291,7 +16295,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="97"/>
+      <c r="I78" s="102"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="34">
@@ -16310,7 +16314,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="97"/>
+      <c r="I79" s="102"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="34">
@@ -16329,7 +16333,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="97"/>
+      <c r="I80" s="102"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="34">
@@ -16341,14 +16345,12 @@
       <c r="C81" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D81" s="24" t="s">
-        <v>481</v>
-      </c>
+      <c r="D81" s="24"/>
       <c r="E81" s="24"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="97"/>
+      <c r="I81" s="102"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="34">
@@ -16367,7 +16369,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="97"/>
+      <c r="I82" s="102"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="34">
@@ -16386,7 +16388,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="97"/>
+      <c r="I83" s="102"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="34">
@@ -16405,7 +16407,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="97"/>
+      <c r="I84" s="102"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="34">
@@ -16424,7 +16426,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="97"/>
+      <c r="I85" s="102"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="34">
@@ -16443,7 +16445,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="97"/>
+      <c r="I86" s="102"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="34">
@@ -16462,7 +16464,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="97"/>
+      <c r="I87" s="102"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="34">
@@ -16481,7 +16483,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="97"/>
+      <c r="I88" s="102"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="34">
@@ -16500,7 +16502,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="97"/>
+      <c r="I89" s="102"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="34">
@@ -16517,7 +16519,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="97"/>
+      <c r="I90" s="102"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="34">
@@ -16534,7 +16536,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="97"/>
+      <c r="I91" s="102"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="34">
@@ -16553,7 +16555,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="100" t="s">
+      <c r="I92" s="96" t="s">
         <v>855</v>
       </c>
     </row>
@@ -16574,7 +16576,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="101"/>
+      <c r="I93" s="97"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="34">
@@ -16593,7 +16595,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="101"/>
+      <c r="I94" s="97"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="34">
@@ -16612,7 +16614,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="101"/>
+      <c r="I95" s="97"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="34">
@@ -16631,7 +16633,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="101"/>
+      <c r="I96" s="97"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="34">
@@ -16650,7 +16652,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="101"/>
+      <c r="I97" s="97"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="34">
@@ -16667,7 +16669,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="101"/>
+      <c r="I98" s="97"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="34">
@@ -16684,7 +16686,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="32"/>
-      <c r="I99" s="101"/>
+      <c r="I99" s="97"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="34">
@@ -16701,7 +16703,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="101"/>
+      <c r="I100" s="97"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="34">
@@ -16718,7 +16720,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="101"/>
+      <c r="I101" s="97"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="34">
@@ -16735,7 +16737,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="101"/>
+      <c r="I102" s="97"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="34">
@@ -16752,7 +16754,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="101"/>
+      <c r="I103" s="97"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="34">
@@ -16769,7 +16771,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="101"/>
+      <c r="I104" s="97"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="34">
@@ -16786,7 +16788,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="101"/>
+      <c r="I105" s="97"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="34">
@@ -16803,7 +16805,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="101"/>
+      <c r="I106" s="97"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="34">
@@ -16820,7 +16822,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="32"/>
-      <c r="I107" s="102"/>
+      <c r="I107" s="98"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="79"/>
@@ -16870,7 +16872,7 @@
       <c r="D112" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E112" s="100" t="s">
+      <c r="E112" s="96" t="s">
         <v>534</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -16882,7 +16884,7 @@
       <c r="H112" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I112" s="97" t="s">
+      <c r="I112" s="102" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16899,7 +16901,7 @@
       <c r="D113" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="E113" s="101"/>
+      <c r="E113" s="97"/>
       <c r="F113" s="1" t="s">
         <v>530</v>
       </c>
@@ -16909,7 +16911,7 @@
       <c r="H113" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="I113" s="97"/>
+      <c r="I113" s="102"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6">
@@ -16924,7 +16926,7 @@
       <c r="D114" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E114" s="101"/>
+      <c r="E114" s="97"/>
       <c r="F114" s="1" t="s">
         <v>310</v>
       </c>
@@ -16934,7 +16936,7 @@
       <c r="H114" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="I114" s="97"/>
+      <c r="I114" s="102"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6">
@@ -16949,7 +16951,7 @@
       <c r="D115" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="E115" s="101"/>
+      <c r="E115" s="97"/>
       <c r="F115" s="1" t="s">
         <v>312</v>
       </c>
@@ -16959,7 +16961,7 @@
       <c r="H115" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="I115" s="97"/>
+      <c r="I115" s="102"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6">
@@ -16974,7 +16976,7 @@
       <c r="D116" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="E116" s="101"/>
+      <c r="E116" s="97"/>
       <c r="F116" s="1" t="s">
         <v>314</v>
       </c>
@@ -16982,7 +16984,7 @@
         <v>516</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="97"/>
+      <c r="I116" s="102"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6">
@@ -16997,7 +16999,7 @@
       <c r="D117" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="E117" s="101"/>
+      <c r="E117" s="97"/>
       <c r="F117" s="1" t="s">
         <v>316</v>
       </c>
@@ -17005,7 +17007,7 @@
         <v>517</v>
       </c>
       <c r="H117" s="30"/>
-      <c r="I117" s="97"/>
+      <c r="I117" s="102"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6">
@@ -17020,7 +17022,7 @@
       <c r="D118" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E118" s="101"/>
+      <c r="E118" s="97"/>
       <c r="F118" s="1" t="s">
         <v>318</v>
       </c>
@@ -17028,7 +17030,7 @@
         <v>518</v>
       </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="97"/>
+      <c r="I118" s="102"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6">
@@ -17043,7 +17045,7 @@
       <c r="D119" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="E119" s="101"/>
+      <c r="E119" s="97"/>
       <c r="F119" s="1" t="s">
         <v>320</v>
       </c>
@@ -17051,7 +17053,7 @@
         <v>519</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="97"/>
+      <c r="I119" s="102"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6">
@@ -17066,7 +17068,7 @@
       <c r="D120" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="E120" s="101"/>
+      <c r="E120" s="97"/>
       <c r="F120" s="1" t="s">
         <v>322</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>520</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="97"/>
+      <c r="I120" s="102"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6">
@@ -17089,7 +17091,7 @@
       <c r="D121" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="E121" s="101"/>
+      <c r="E121" s="97"/>
       <c r="F121" s="1" t="s">
         <v>324</v>
       </c>
@@ -17097,7 +17099,7 @@
         <v>521</v>
       </c>
       <c r="H121" s="4"/>
-      <c r="I121" s="97"/>
+      <c r="I121" s="102"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6">
@@ -17110,7 +17112,7 @@
         <v>508</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="101"/>
+      <c r="E122" s="97"/>
       <c r="F122" s="1" t="s">
         <v>326</v>
       </c>
@@ -17118,7 +17120,7 @@
         <v>522</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="97"/>
+      <c r="I122" s="102"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6">
@@ -17131,7 +17133,7 @@
         <v>509</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="101"/>
+      <c r="E123" s="97"/>
       <c r="F123" s="1" t="s">
         <v>328</v>
       </c>
@@ -17139,7 +17141,7 @@
         <v>523</v>
       </c>
       <c r="H123" s="4"/>
-      <c r="I123" s="97"/>
+      <c r="I123" s="102"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6">
@@ -17152,7 +17154,7 @@
         <v>510</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="101"/>
+      <c r="E124" s="97"/>
       <c r="F124" s="1" t="s">
         <v>330</v>
       </c>
@@ -17160,7 +17162,7 @@
         <v>524</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="97"/>
+      <c r="I124" s="102"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6">
@@ -17173,7 +17175,7 @@
         <v>511</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="101"/>
+      <c r="E125" s="97"/>
       <c r="F125" s="1" t="s">
         <v>332</v>
       </c>
@@ -17181,7 +17183,7 @@
         <v>525</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="I125" s="97"/>
+      <c r="I125" s="102"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6">
@@ -17194,7 +17196,7 @@
         <v>512</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="101"/>
+      <c r="E126" s="97"/>
       <c r="F126" s="1" t="s">
         <v>334</v>
       </c>
@@ -17202,7 +17204,7 @@
         <v>526</v>
       </c>
       <c r="H126" s="4"/>
-      <c r="I126" s="97"/>
+      <c r="I126" s="102"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6">
@@ -17215,7 +17217,7 @@
         <v>513</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="101"/>
+      <c r="E127" s="97"/>
       <c r="F127" s="1" t="s">
         <v>336</v>
       </c>
@@ -17223,7 +17225,7 @@
         <v>527</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="97"/>
+      <c r="I127" s="102"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6">
@@ -17236,7 +17238,7 @@
         <v>529</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="102"/>
+      <c r="E128" s="98"/>
       <c r="F128" s="1" t="s">
         <v>531</v>
       </c>
@@ -17244,7 +17246,7 @@
         <v>533</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="97"/>
+      <c r="I128" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17653,12 +17655,12 @@
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
@@ -17672,10 +17674,10 @@
       <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="114" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="41" t="s">
         <v>590</v>
       </c>
@@ -17689,20 +17691,20 @@
       </c>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="115" t="s">
         <v>593</v>
       </c>
-      <c r="K3" s="116"/>
+      <c r="K3" s="115"/>
       <c r="L3" s="45">
         <v>20170306</v>
       </c>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>594</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="45" t="s">
         <v>595</v>
       </c>
@@ -17714,18 +17716,18 @@
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="115" t="s">
         <v>597</v>
       </c>
-      <c r="K4" s="116"/>
+      <c r="K4" s="115"/>
       <c r="L4" s="42"/>
       <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>598</v>
       </c>
-      <c r="B5" s="118"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="50"/>
@@ -17735,10 +17737,10 @@
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="115" t="s">
         <v>600</v>
       </c>
-      <c r="K5" s="116"/>
+      <c r="K5" s="115"/>
       <c r="L5" s="49"/>
       <c r="M5" s="53"/>
     </row>
@@ -17764,14 +17766,14 @@
       <c r="B7" s="57" t="s">
         <v>602</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="118" t="s">
         <v>603</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110" t="s">
+      <c r="D7" s="118"/>
+      <c r="E7" s="118" t="s">
         <v>604</v>
       </c>
-      <c r="F7" s="110"/>
+      <c r="F7" s="118"/>
       <c r="G7" s="58" t="s">
         <v>605</v>
       </c>
@@ -17787,17 +17789,17 @@
       <c r="K7" s="59" t="s">
         <v>609</v>
       </c>
-      <c r="L7" s="111" t="s">
+      <c r="L7" s="107" t="s">
         <v>610</v>
       </c>
-      <c r="M7" s="111"/>
+      <c r="M7" s="107"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="60">
         <v>1</v>
       </c>
       <c r="B8" s="61"/>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="108" t="s">
         <v>611</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -17831,7 +17833,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="61"/>
-      <c r="C9" s="112"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="61" t="s">
         <v>617</v>
       </c>
@@ -17861,7 +17863,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="61"/>
-      <c r="C10" s="112"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="68" t="s">
         <v>621</v>
       </c>
@@ -17891,7 +17893,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="61"/>
-      <c r="C11" s="112"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="68" t="s">
         <v>625</v>
       </c>
@@ -17921,7 +17923,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="61"/>
-      <c r="C12" s="112"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="68" t="s">
         <v>625</v>
       </c>
@@ -17950,7 +17952,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="61"/>
-      <c r="C13" s="112"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="61" t="s">
         <v>628</v>
       </c>
@@ -17979,7 +17981,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="61"/>
-      <c r="C14" s="112"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="61" t="s">
         <v>632</v>
       </c>
@@ -18006,7 +18008,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="61"/>
-      <c r="C15" s="112"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="61" t="s">
         <v>635</v>
       </c>
@@ -18033,7 +18035,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="61"/>
-      <c r="C16" s="112"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="61" t="s">
         <v>637</v>
       </c>
@@ -18060,7 +18062,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="61"/>
-      <c r="C17" s="112"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="61" t="s">
         <v>639</v>
       </c>
@@ -18089,7 +18091,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="61"/>
-      <c r="C18" s="112"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="70" t="s">
         <v>642</v>
       </c>
@@ -18116,7 +18118,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="61"/>
-      <c r="C19" s="112"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="70" t="s">
         <v>644</v>
       </c>
@@ -18141,7 +18143,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="61"/>
-      <c r="C20" s="112"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="70" t="s">
         <v>647</v>
       </c>
@@ -18168,7 +18170,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="61"/>
-      <c r="C21" s="112"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="70" t="s">
         <v>647</v>
       </c>
@@ -18195,7 +18197,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="61"/>
-      <c r="C22" s="112"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="71" t="s">
         <v>649</v>
       </c>
@@ -18224,7 +18226,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="61"/>
-      <c r="C23" s="112"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="70" t="s">
         <v>652</v>
       </c>
@@ -18253,7 +18255,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="61"/>
-      <c r="C24" s="112"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="70" t="s">
         <v>654</v>
       </c>
@@ -18282,7 +18284,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="61"/>
-      <c r="C25" s="112"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="70" t="s">
         <v>657</v>
       </c>
@@ -18311,7 +18313,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="61"/>
-      <c r="C26" s="112"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="70" t="s">
         <v>659</v>
       </c>
@@ -18340,7 +18342,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="61"/>
-      <c r="C27" s="112"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="70" t="s">
         <v>662</v>
       </c>
@@ -18367,7 +18369,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="61"/>
-      <c r="C28" s="112"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="70" t="s">
         <v>664</v>
       </c>
@@ -18396,7 +18398,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="61"/>
-      <c r="C29" s="112"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="70" t="s">
         <v>667</v>
       </c>
@@ -18423,7 +18425,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="61"/>
-      <c r="C30" s="112"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="73" t="s">
         <v>670</v>
       </c>
@@ -18452,7 +18454,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="61"/>
-      <c r="C31" s="112"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="73" t="s">
         <v>673</v>
       </c>
@@ -18477,7 +18479,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="61"/>
-      <c r="C32" s="112"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="73" t="s">
         <v>674</v>
       </c>
@@ -18506,7 +18508,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="61"/>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="109" t="s">
         <v>677</v>
       </c>
       <c r="D33" s="73" t="s">
@@ -18537,7 +18539,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="61"/>
-      <c r="C34" s="107"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="73" t="s">
         <v>681</v>
       </c>
@@ -18566,7 +18568,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="61"/>
-      <c r="C35" s="107"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="73" t="s">
         <v>678</v>
       </c>
@@ -18595,7 +18597,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="61"/>
-      <c r="C36" s="107"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="73" t="s">
         <v>681</v>
       </c>
@@ -18624,7 +18626,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="61"/>
-      <c r="C37" s="107"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="73" t="s">
         <v>678</v>
       </c>
@@ -18653,7 +18655,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="61"/>
-      <c r="C38" s="107"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="73" t="s">
         <v>681</v>
       </c>
@@ -18682,7 +18684,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="61"/>
-      <c r="C39" s="107"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="73" t="s">
         <v>687</v>
       </c>
@@ -18711,7 +18713,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="61"/>
-      <c r="C40" s="107"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="73" t="s">
         <v>689</v>
       </c>
@@ -18740,7 +18742,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="61"/>
-      <c r="C41" s="107"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="73" t="s">
         <v>691</v>
       </c>
@@ -18769,7 +18771,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="61"/>
-      <c r="C42" s="107"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="73" t="s">
         <v>695</v>
       </c>
@@ -18798,7 +18800,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="61"/>
-      <c r="C43" s="107"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="73" t="s">
         <v>697</v>
       </c>
@@ -18829,7 +18831,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="61"/>
-      <c r="C44" s="107"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="69" t="s">
         <v>700</v>
       </c>
@@ -18858,7 +18860,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="61"/>
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="110" t="s">
         <v>702</v>
       </c>
       <c r="D45" s="69" t="s">
@@ -18887,7 +18889,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="61"/>
-      <c r="C46" s="109"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="69" t="s">
         <v>706</v>
       </c>
@@ -18914,7 +18916,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="61"/>
-      <c r="C47" s="109"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="69" t="s">
         <v>708</v>
       </c>
@@ -18943,7 +18945,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="61"/>
-      <c r="C48" s="109"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="69" t="s">
         <v>710</v>
       </c>
@@ -18972,7 +18974,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="61"/>
-      <c r="C49" s="107" t="s">
+      <c r="C49" s="109" t="s">
         <v>713</v>
       </c>
       <c r="D49" s="69" t="s">
@@ -19001,7 +19003,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="61"/>
-      <c r="C50" s="107"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="69" t="s">
         <v>716</v>
       </c>
@@ -19026,7 +19028,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="61"/>
-      <c r="C51" s="107"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="69" t="s">
         <v>718</v>
       </c>
@@ -19053,7 +19055,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="61"/>
-      <c r="C52" s="107"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="69" t="s">
         <v>718</v>
       </c>
@@ -19080,7 +19082,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="61"/>
-      <c r="C53" s="107"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="69" t="s">
         <v>721</v>
       </c>
@@ -19107,7 +19109,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="61"/>
-      <c r="C54" s="107"/>
+      <c r="C54" s="109"/>
       <c r="D54" s="69" t="s">
         <v>723</v>
       </c>
@@ -19130,7 +19132,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="61"/>
-      <c r="C55" s="107"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="69" t="s">
         <v>724</v>
       </c>
@@ -19153,7 +19155,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="61"/>
-      <c r="C56" s="107"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="69" t="s">
         <v>725</v>
       </c>
@@ -19180,7 +19182,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="61"/>
-      <c r="C57" s="107"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="69" t="s">
         <v>727</v>
       </c>
@@ -19203,7 +19205,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="61"/>
-      <c r="C58" s="107"/>
+      <c r="C58" s="109"/>
       <c r="D58" s="69" t="s">
         <v>728</v>
       </c>
@@ -19230,7 +19232,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="61"/>
-      <c r="C59" s="107"/>
+      <c r="C59" s="109"/>
       <c r="D59" s="69" t="s">
         <v>730</v>
       </c>
@@ -19255,7 +19257,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="61"/>
-      <c r="C60" s="107"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="69" t="s">
         <v>732</v>
       </c>
@@ -19280,7 +19282,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="61"/>
-      <c r="C61" s="107"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="69" t="s">
         <v>821</v>
       </c>
@@ -19311,7 +19313,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="61"/>
-      <c r="C62" s="107"/>
+      <c r="C62" s="109"/>
       <c r="D62" s="69" t="s">
         <v>734</v>
       </c>
@@ -19338,7 +19340,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="61"/>
-      <c r="C63" s="107"/>
+      <c r="C63" s="109"/>
       <c r="D63" s="69" t="s">
         <v>737</v>
       </c>
@@ -19365,7 +19367,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="61"/>
-      <c r="C64" s="107"/>
+      <c r="C64" s="109"/>
       <c r="D64" s="69" t="s">
         <v>740</v>
       </c>
@@ -19392,7 +19394,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="61"/>
-      <c r="C65" s="107"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="69" t="s">
         <v>742</v>
       </c>
@@ -19419,7 +19421,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="61"/>
-      <c r="C66" s="107"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="69" t="s">
         <v>744</v>
       </c>
@@ -19446,7 +19448,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="61"/>
-      <c r="C67" s="107"/>
+      <c r="C67" s="109"/>
       <c r="D67" s="69" t="s">
         <v>746</v>
       </c>
@@ -19473,7 +19475,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="61"/>
-      <c r="C68" s="107"/>
+      <c r="C68" s="109"/>
       <c r="D68" s="69" t="s">
         <v>748</v>
       </c>
@@ -19500,7 +19502,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="61"/>
-      <c r="C69" s="107"/>
+      <c r="C69" s="109"/>
       <c r="D69" s="69" t="s">
         <v>750</v>
       </c>
@@ -19529,7 +19531,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="61"/>
-      <c r="C70" s="107"/>
+      <c r="C70" s="109"/>
       <c r="D70" s="69" t="s">
         <v>753</v>
       </c>
@@ -19560,7 +19562,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="61"/>
-      <c r="C71" s="107"/>
+      <c r="C71" s="109"/>
       <c r="D71" s="69" t="s">
         <v>754</v>
       </c>
@@ -19585,7 +19587,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="61"/>
-      <c r="C72" s="107"/>
+      <c r="C72" s="109"/>
       <c r="D72" s="69" t="s">
         <v>756</v>
       </c>
@@ -19612,7 +19614,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="61"/>
-      <c r="C73" s="107"/>
+      <c r="C73" s="109"/>
       <c r="D73" s="69" t="s">
         <v>758</v>
       </c>
@@ -19639,7 +19641,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="61"/>
-      <c r="C74" s="107"/>
+      <c r="C74" s="109"/>
       <c r="D74" s="69" t="s">
         <v>759</v>
       </c>
@@ -19666,7 +19668,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="61"/>
-      <c r="C75" s="107"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="69" t="s">
         <v>761</v>
       </c>
@@ -19693,7 +19695,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="61"/>
-      <c r="C76" s="107"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="69" t="s">
         <v>761</v>
       </c>
@@ -19720,7 +19722,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="61"/>
-      <c r="C77" s="107"/>
+      <c r="C77" s="109"/>
       <c r="D77" s="69" t="s">
         <v>1232</v>
       </c>
@@ -19747,7 +19749,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="61"/>
-      <c r="C78" s="107"/>
+      <c r="C78" s="109"/>
       <c r="D78" s="69" t="s">
         <v>758</v>
       </c>
@@ -19774,7 +19776,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="61"/>
-      <c r="C79" s="107"/>
+      <c r="C79" s="109"/>
       <c r="D79" s="69" t="s">
         <v>764</v>
       </c>
@@ -19803,7 +19805,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="61"/>
-      <c r="C80" s="107"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="69" t="s">
         <v>766</v>
       </c>
@@ -19832,7 +19834,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="61"/>
-      <c r="C81" s="107"/>
+      <c r="C81" s="109"/>
       <c r="D81" s="69" t="s">
         <v>766</v>
       </c>
@@ -19861,7 +19863,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="61"/>
-      <c r="C82" s="107"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="69" t="s">
         <v>766</v>
       </c>
@@ -19890,7 +19892,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="61"/>
-      <c r="C83" s="107"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="69" t="s">
         <v>771</v>
       </c>
@@ -19919,7 +19921,7 @@
         <v>78</v>
       </c>
       <c r="B84" s="61"/>
-      <c r="C84" s="107"/>
+      <c r="C84" s="109"/>
       <c r="D84" s="69" t="s">
         <v>771</v>
       </c>
@@ -19948,7 +19950,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="61"/>
-      <c r="C85" s="107"/>
+      <c r="C85" s="109"/>
       <c r="D85" s="69" t="s">
         <v>771</v>
       </c>
@@ -19977,7 +19979,7 @@
         <v>80</v>
       </c>
       <c r="B86" s="61"/>
-      <c r="C86" s="107"/>
+      <c r="C86" s="109"/>
       <c r="D86" s="69" t="s">
         <v>894</v>
       </c>
@@ -20008,7 +20010,7 @@
         <v>81</v>
       </c>
       <c r="B87" s="61"/>
-      <c r="C87" s="107"/>
+      <c r="C87" s="109"/>
       <c r="D87" s="69" t="s">
         <v>895</v>
       </c>
@@ -20039,7 +20041,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="61"/>
-      <c r="C88" s="107"/>
+      <c r="C88" s="109"/>
       <c r="D88" s="69" t="s">
         <v>779</v>
       </c>
@@ -20070,7 +20072,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="61"/>
-      <c r="C89" s="107"/>
+      <c r="C89" s="109"/>
       <c r="D89" s="69" t="s">
         <v>783</v>
       </c>
@@ -20101,7 +20103,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="61"/>
-      <c r="C90" s="107"/>
+      <c r="C90" s="109"/>
       <c r="D90" s="69" t="s">
         <v>785</v>
       </c>
@@ -20130,7 +20132,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="61"/>
-      <c r="C91" s="108" t="s">
+      <c r="C91" s="110" t="s">
         <v>788</v>
       </c>
       <c r="D91" s="69" t="s">
@@ -20157,7 +20159,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="61"/>
-      <c r="C92" s="109"/>
+      <c r="C92" s="111"/>
       <c r="D92" s="69" t="s">
         <v>789</v>
       </c>
@@ -20182,7 +20184,7 @@
         <v>87</v>
       </c>
       <c r="B93" s="61"/>
-      <c r="C93" s="109"/>
+      <c r="C93" s="111"/>
       <c r="D93" s="69" t="s">
         <v>789</v>
       </c>
@@ -20207,7 +20209,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="61"/>
-      <c r="C94" s="109"/>
+      <c r="C94" s="111"/>
       <c r="D94" s="69" t="s">
         <v>789</v>
       </c>
@@ -20232,7 +20234,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="61"/>
-      <c r="C95" s="109"/>
+      <c r="C95" s="111"/>
       <c r="D95" s="69" t="s">
         <v>792</v>
       </c>
@@ -20259,7 +20261,7 @@
         <v>90</v>
       </c>
       <c r="B96" s="61"/>
-      <c r="C96" s="109"/>
+      <c r="C96" s="111"/>
       <c r="D96" s="69" t="s">
         <v>794</v>
       </c>
@@ -20286,7 +20288,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="61"/>
-      <c r="C97" s="107" t="s">
+      <c r="C97" s="109" t="s">
         <v>797</v>
       </c>
       <c r="D97" s="69" t="s">
@@ -20313,7 +20315,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="61"/>
-      <c r="C98" s="107"/>
+      <c r="C98" s="109"/>
       <c r="D98" s="69" t="s">
         <v>798</v>
       </c>
@@ -20338,7 +20340,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="61"/>
-      <c r="C99" s="107"/>
+      <c r="C99" s="109"/>
       <c r="D99" s="69" t="s">
         <v>800</v>
       </c>
@@ -20365,7 +20367,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="61"/>
-      <c r="C100" s="107"/>
+      <c r="C100" s="109"/>
       <c r="D100" s="69" t="s">
         <v>801</v>
       </c>
@@ -20388,7 +20390,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="61"/>
-      <c r="C101" s="107"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="69" t="s">
         <v>802</v>
       </c>
@@ -20411,7 +20413,7 @@
         <v>96</v>
       </c>
       <c r="B102" s="61"/>
-      <c r="C102" s="107"/>
+      <c r="C102" s="109"/>
       <c r="D102" s="69" t="s">
         <v>803</v>
       </c>
@@ -20432,7 +20434,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="61"/>
-      <c r="C103" s="107"/>
+      <c r="C103" s="109"/>
       <c r="D103" s="69" t="s">
         <v>805</v>
       </c>
@@ -20453,7 +20455,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="61"/>
-      <c r="C104" s="107"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="69" t="s">
         <v>806</v>
       </c>
@@ -20474,7 +20476,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="61"/>
-      <c r="C105" s="107"/>
+      <c r="C105" s="109"/>
       <c r="D105" s="69" t="s">
         <v>807</v>
       </c>
@@ -20495,7 +20497,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="61"/>
-      <c r="C106" s="107"/>
+      <c r="C106" s="109"/>
       <c r="D106" s="69" t="s">
         <v>808</v>
       </c>
@@ -20516,7 +20518,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="61"/>
-      <c r="C107" s="107"/>
+      <c r="C107" s="109"/>
       <c r="D107" s="69" t="s">
         <v>809</v>
       </c>
@@ -20537,7 +20539,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="61"/>
-      <c r="C108" s="107"/>
+      <c r="C108" s="109"/>
       <c r="D108" s="69" t="s">
         <v>810</v>
       </c>
@@ -20558,7 +20560,7 @@
         <v>103</v>
       </c>
       <c r="B109" s="61"/>
-      <c r="C109" s="107"/>
+      <c r="C109" s="109"/>
       <c r="D109" s="69" t="s">
         <v>811</v>
       </c>
@@ -20579,7 +20581,7 @@
         <v>104</v>
       </c>
       <c r="B110" s="61"/>
-      <c r="C110" s="107"/>
+      <c r="C110" s="109"/>
       <c r="D110" s="69" t="s">
         <v>812</v>
       </c>
@@ -20600,7 +20602,7 @@
         <v>105</v>
       </c>
       <c r="B111" s="61"/>
-      <c r="C111" s="107"/>
+      <c r="C111" s="109"/>
       <c r="D111" s="69" t="s">
         <v>813</v>
       </c>
@@ -20621,7 +20623,7 @@
         <v>106</v>
       </c>
       <c r="B112" s="61"/>
-      <c r="C112" s="107"/>
+      <c r="C112" s="109"/>
       <c r="D112" s="69" t="s">
         <v>814</v>
       </c>
@@ -20642,7 +20644,7 @@
         <v>107</v>
       </c>
       <c r="B113" s="61"/>
-      <c r="C113" s="107"/>
+      <c r="C113" s="109"/>
       <c r="D113" s="69" t="s">
         <v>815</v>
       </c>
@@ -20663,7 +20665,7 @@
         <v>108</v>
       </c>
       <c r="B114" s="61"/>
-      <c r="C114" s="107"/>
+      <c r="C114" s="109"/>
       <c r="D114" s="69" t="s">
         <v>816</v>
       </c>
@@ -20684,7 +20686,7 @@
         <v>109</v>
       </c>
       <c r="B115" s="61"/>
-      <c r="C115" s="107"/>
+      <c r="C115" s="109"/>
       <c r="D115" s="69" t="s">
         <v>817</v>
       </c>
@@ -20705,7 +20707,7 @@
         <v>110</v>
       </c>
       <c r="B116" s="61"/>
-      <c r="C116" s="107"/>
+      <c r="C116" s="109"/>
       <c r="D116" s="69" t="s">
         <v>818</v>
       </c>
@@ -20726,7 +20728,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="61"/>
-      <c r="C117" s="107"/>
+      <c r="C117" s="109"/>
       <c r="D117" s="69" t="s">
         <v>819</v>
       </c>
@@ -20751,6 +20753,11 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="C49:C90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C97:C117"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C32"/>
     <mergeCell ref="C33:C44"/>
@@ -20762,11 +20769,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C49:C90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C97:C117"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -20807,7 +20809,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="102" t="s">
         <v>887</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -20818,7 +20820,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="97"/>
+      <c r="A2" s="102"/>
       <c r="B2" s="1" t="s">
         <v>885</v>
       </c>
@@ -20827,7 +20829,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="97"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="1" t="s">
         <v>886</v>
       </c>
@@ -20836,7 +20838,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="102" t="s">
         <v>886</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -20847,7 +20849,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="97"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="1" t="s">
         <v>888</v>
       </c>
@@ -20856,7 +20858,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="97"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="1" t="s">
         <v>889</v>
       </c>
@@ -20865,7 +20867,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="97"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="1" t="s">
         <v>890</v>
       </c>
@@ -20874,7 +20876,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="102" t="s">
         <v>891</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -20885,7 +20887,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="97"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="1" t="s">
         <v>893</v>
       </c>
@@ -20943,7 +20945,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="100">
+      <c r="A3" s="96">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -20958,7 +20960,7 @@
       <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="101"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -20973,7 +20975,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="101"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -20988,7 +20990,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="101"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -21003,7 +21005,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="101"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -21018,7 +21020,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="101"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -21033,7 +21035,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="101"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -21048,7 +21050,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="101"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -21059,7 +21061,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="101"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -21070,7 +21072,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="102"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -21105,7 +21107,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="100">
+      <c r="A15" s="96">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -21120,7 +21122,7 @@
       <c r="E15" s="82"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="101"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -21135,7 +21137,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="101"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -21150,7 +21152,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="101"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -21165,7 +21167,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="101"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -21180,7 +21182,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="101"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -21195,7 +21197,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="101"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -21210,7 +21212,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="101"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -21221,7 +21223,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="101"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -21232,7 +21234,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="102"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -21267,7 +21269,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="100">
+      <c r="A27" s="96">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -21282,7 +21284,7 @@
       <c r="E27" s="82"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="101"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -21297,7 +21299,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="101"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -21312,7 +21314,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="101"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -21327,7 +21329,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="101"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -21342,7 +21344,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="101"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -21357,7 +21359,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="101"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -21372,7 +21374,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="101"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -21387,7 +21389,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="101"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -21398,7 +21400,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="102"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -21433,7 +21435,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="100">
+      <c r="A39" s="96">
         <v>4</v>
       </c>
       <c r="B39" s="1">
@@ -21448,7 +21450,7 @@
       <c r="E39" s="82"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="101"/>
+      <c r="A40" s="97"/>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -21463,7 +21465,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="101"/>
+      <c r="A41" s="97"/>
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -21478,7 +21480,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="101"/>
+      <c r="A42" s="97"/>
       <c r="B42" s="1">
         <v>4</v>
       </c>
@@ -21493,7 +21495,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="101"/>
+      <c r="A43" s="97"/>
       <c r="B43" s="1">
         <v>5</v>
       </c>
@@ -21508,7 +21510,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="101"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="1">
         <v>6</v>
       </c>
@@ -21523,7 +21525,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="101"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="1">
         <v>7</v>
       </c>
@@ -21534,7 +21536,7 @@
       <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="101"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -21545,7 +21547,7 @@
       <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="101"/>
+      <c r="A47" s="97"/>
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -21556,7 +21558,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="102"/>
+      <c r="A48" s="98"/>
       <c r="B48" s="1">
         <v>10</v>
       </c>
@@ -21591,7 +21593,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="100">
+      <c r="A51" s="96">
         <v>5</v>
       </c>
       <c r="B51" s="1">
@@ -21606,7 +21608,7 @@
       <c r="E51" s="82"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="101"/>
+      <c r="A52" s="97"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -21621,7 +21623,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="101"/>
+      <c r="A53" s="97"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -21636,7 +21638,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="101"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -21651,7 +21653,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="101"/>
+      <c r="A55" s="97"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -21666,7 +21668,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="101"/>
+      <c r="A56" s="97"/>
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -21681,7 +21683,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="101"/>
+      <c r="A57" s="97"/>
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -21696,7 +21698,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="101"/>
+      <c r="A58" s="97"/>
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -21711,7 +21713,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="101"/>
+      <c r="A59" s="97"/>
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -21726,7 +21728,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="102"/>
+      <c r="A60" s="98"/>
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -21761,7 +21763,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="100">
+      <c r="A63" s="96">
         <v>6</v>
       </c>
       <c r="B63" s="1">
@@ -21776,7 +21778,7 @@
       <c r="E63" s="82"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="101"/>
+      <c r="A64" s="97"/>
       <c r="B64" s="1">
         <v>2</v>
       </c>
@@ -21791,7 +21793,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="101"/>
+      <c r="A65" s="97"/>
       <c r="B65" s="1">
         <v>3</v>
       </c>
@@ -21806,7 +21808,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="101"/>
+      <c r="A66" s="97"/>
       <c r="B66" s="1">
         <v>4</v>
       </c>
@@ -21821,7 +21823,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="101"/>
+      <c r="A67" s="97"/>
       <c r="B67" s="1">
         <v>5</v>
       </c>
@@ -21836,7 +21838,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="101"/>
+      <c r="A68" s="97"/>
       <c r="B68" s="1">
         <v>6</v>
       </c>
@@ -21851,7 +21853,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="101"/>
+      <c r="A69" s="97"/>
       <c r="B69" s="1">
         <v>7</v>
       </c>
@@ -21866,7 +21868,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="101"/>
+      <c r="A70" s="97"/>
       <c r="B70" s="1">
         <v>8</v>
       </c>
@@ -21881,7 +21883,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="101"/>
+      <c r="A71" s="97"/>
       <c r="B71" s="1">
         <v>9</v>
       </c>
@@ -21896,7 +21898,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="102"/>
+      <c r="A72" s="98"/>
       <c r="B72" s="1">
         <v>10</v>
       </c>
@@ -21931,7 +21933,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="100">
+      <c r="A75" s="96">
         <v>7</v>
       </c>
       <c r="B75" s="1">
@@ -21946,7 +21948,7 @@
       <c r="E75" s="82"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="101"/>
+      <c r="A76" s="97"/>
       <c r="B76" s="1">
         <v>2</v>
       </c>
@@ -21961,7 +21963,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="101"/>
+      <c r="A77" s="97"/>
       <c r="B77" s="1">
         <v>3</v>
       </c>
@@ -21976,7 +21978,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="101"/>
+      <c r="A78" s="97"/>
       <c r="B78" s="1">
         <v>4</v>
       </c>
@@ -21991,7 +21993,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="101"/>
+      <c r="A79" s="97"/>
       <c r="B79" s="1">
         <v>5</v>
       </c>
@@ -22006,7 +22008,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="101"/>
+      <c r="A80" s="97"/>
       <c r="B80" s="1">
         <v>6</v>
       </c>
@@ -22021,7 +22023,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="101"/>
+      <c r="A81" s="97"/>
       <c r="B81" s="1">
         <v>7</v>
       </c>
@@ -22036,7 +22038,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="101"/>
+      <c r="A82" s="97"/>
       <c r="B82" s="1">
         <v>8</v>
       </c>
@@ -22051,7 +22053,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="101"/>
+      <c r="A83" s="97"/>
       <c r="B83" s="1">
         <v>9</v>
       </c>
@@ -22066,7 +22068,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="102"/>
+      <c r="A84" s="98"/>
       <c r="B84" s="1">
         <v>10</v>
       </c>
@@ -22101,7 +22103,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="100">
+      <c r="A87" s="96">
         <v>8</v>
       </c>
       <c r="B87" s="1">
@@ -22116,7 +22118,7 @@
       <c r="E87" s="82"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="101"/>
+      <c r="A88" s="97"/>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -22131,7 +22133,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="101"/>
+      <c r="A89" s="97"/>
       <c r="B89" s="1">
         <v>3</v>
       </c>
@@ -22146,7 +22148,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="101"/>
+      <c r="A90" s="97"/>
       <c r="B90" s="1">
         <v>4</v>
       </c>
@@ -22161,7 +22163,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="101"/>
+      <c r="A91" s="97"/>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -22176,7 +22178,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="101"/>
+      <c r="A92" s="97"/>
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -22191,7 +22193,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="101"/>
+      <c r="A93" s="97"/>
       <c r="B93" s="1">
         <v>7</v>
       </c>
@@ -22206,7 +22208,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="101"/>
+      <c r="A94" s="97"/>
       <c r="B94" s="1">
         <v>8</v>
       </c>
@@ -22217,7 +22219,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="101"/>
+      <c r="A95" s="97"/>
       <c r="B95" s="1">
         <v>9</v>
       </c>
@@ -22228,7 +22230,7 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="102"/>
+      <c r="A96" s="98"/>
       <c r="B96" s="1">
         <v>10</v>
       </c>
@@ -22263,7 +22265,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="100">
+      <c r="A99" s="96">
         <v>9</v>
       </c>
       <c r="B99" s="1">
@@ -22278,7 +22280,7 @@
       <c r="E99" s="82"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="101"/>
+      <c r="A100" s="97"/>
       <c r="B100" s="1">
         <v>2</v>
       </c>
@@ -22293,7 +22295,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="101"/>
+      <c r="A101" s="97"/>
       <c r="B101" s="1">
         <v>3</v>
       </c>
@@ -22308,7 +22310,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="101"/>
+      <c r="A102" s="97"/>
       <c r="B102" s="1">
         <v>4</v>
       </c>
@@ -22323,7 +22325,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="101"/>
+      <c r="A103" s="97"/>
       <c r="B103" s="1">
         <v>5</v>
       </c>
@@ -22338,7 +22340,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="101"/>
+      <c r="A104" s="97"/>
       <c r="B104" s="1">
         <v>6</v>
       </c>
@@ -22353,7 +22355,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="101"/>
+      <c r="A105" s="97"/>
       <c r="B105" s="1">
         <v>7</v>
       </c>
@@ -22368,7 +22370,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="101"/>
+      <c r="A106" s="97"/>
       <c r="B106" s="1">
         <v>8</v>
       </c>
@@ -22379,7 +22381,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="101"/>
+      <c r="A107" s="97"/>
       <c r="B107" s="1">
         <v>9</v>
       </c>
@@ -22390,7 +22392,7 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="102"/>
+      <c r="A108" s="98"/>
       <c r="B108" s="1">
         <v>10</v>
       </c>
@@ -22425,7 +22427,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="100">
+      <c r="A111" s="96">
         <v>10</v>
       </c>
       <c r="B111" s="1">
@@ -22440,7 +22442,7 @@
       <c r="E111" s="82"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="101"/>
+      <c r="A112" s="97"/>
       <c r="B112" s="1">
         <v>2</v>
       </c>
@@ -22455,7 +22457,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="101"/>
+      <c r="A113" s="97"/>
       <c r="B113" s="1">
         <v>3</v>
       </c>
@@ -22470,7 +22472,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="101"/>
+      <c r="A114" s="97"/>
       <c r="B114" s="1">
         <v>4</v>
       </c>
@@ -22485,7 +22487,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="101"/>
+      <c r="A115" s="97"/>
       <c r="B115" s="1">
         <v>5</v>
       </c>
@@ -22500,7 +22502,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="101"/>
+      <c r="A116" s="97"/>
       <c r="B116" s="1">
         <v>6</v>
       </c>
@@ -22515,7 +22517,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="101"/>
+      <c r="A117" s="97"/>
       <c r="B117" s="1">
         <v>7</v>
       </c>
@@ -22530,7 +22532,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="101"/>
+      <c r="A118" s="97"/>
       <c r="B118" s="1">
         <v>8</v>
       </c>
@@ -22545,7 +22547,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="101"/>
+      <c r="A119" s="97"/>
       <c r="B119" s="1">
         <v>9</v>
       </c>
@@ -22556,7 +22558,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="102"/>
+      <c r="A120" s="98"/>
       <c r="B120" s="1">
         <v>10</v>
       </c>
@@ -22591,7 +22593,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="100">
+      <c r="A123" s="96">
         <v>11</v>
       </c>
       <c r="B123" s="1">
@@ -22606,7 +22608,7 @@
       <c r="E123" s="82"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="101"/>
+      <c r="A124" s="97"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -22621,7 +22623,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="101"/>
+      <c r="A125" s="97"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -22636,7 +22638,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="101"/>
+      <c r="A126" s="97"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -22651,7 +22653,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="101"/>
+      <c r="A127" s="97"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -22666,7 +22668,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="101"/>
+      <c r="A128" s="97"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -22681,7 +22683,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="101"/>
+      <c r="A129" s="97"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -22696,7 +22698,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="101"/>
+      <c r="A130" s="97"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -22707,7 +22709,7 @@
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="101"/>
+      <c r="A131" s="97"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -22718,7 +22720,7 @@
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="102"/>
+      <c r="A132" s="98"/>
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -22753,7 +22755,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="100">
+      <c r="A135" s="96">
         <v>12</v>
       </c>
       <c r="B135" s="1">
@@ -22768,7 +22770,7 @@
       <c r="E135" s="82"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="101"/>
+      <c r="A136" s="97"/>
       <c r="B136" s="1">
         <v>2</v>
       </c>
@@ -22783,7 +22785,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="101"/>
+      <c r="A137" s="97"/>
       <c r="B137" s="1">
         <v>3</v>
       </c>
@@ -22798,7 +22800,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="101"/>
+      <c r="A138" s="97"/>
       <c r="B138" s="1">
         <v>4</v>
       </c>
@@ -22813,7 +22815,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="101"/>
+      <c r="A139" s="97"/>
       <c r="B139" s="1">
         <v>5</v>
       </c>
@@ -22828,7 +22830,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="101"/>
+      <c r="A140" s="97"/>
       <c r="B140" s="1">
         <v>6</v>
       </c>
@@ -22843,7 +22845,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="101"/>
+      <c r="A141" s="97"/>
       <c r="B141" s="1">
         <v>7</v>
       </c>
@@ -22858,7 +22860,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="101"/>
+      <c r="A142" s="97"/>
       <c r="B142" s="1">
         <v>8</v>
       </c>
@@ -22869,7 +22871,7 @@
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="101"/>
+      <c r="A143" s="97"/>
       <c r="B143" s="1">
         <v>9</v>
       </c>
@@ -22880,7 +22882,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="102"/>
+      <c r="A144" s="98"/>
       <c r="B144" s="1">
         <v>10</v>
       </c>
@@ -22915,7 +22917,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="97">
+      <c r="A147" s="102">
         <v>13</v>
       </c>
       <c r="B147" s="1">
@@ -22928,7 +22930,7 @@
       <c r="E147" s="82"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="97"/>
+      <c r="A148" s="102"/>
       <c r="B148" s="1">
         <v>2</v>
       </c>
@@ -22941,7 +22943,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="97"/>
+      <c r="A149" s="102"/>
       <c r="B149" s="1">
         <v>3</v>
       </c>
@@ -22954,7 +22956,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="97"/>
+      <c r="A150" s="102"/>
       <c r="B150" s="1">
         <v>4</v>
       </c>
@@ -22967,7 +22969,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="97"/>
+      <c r="A151" s="102"/>
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -22980,7 +22982,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="97"/>
+      <c r="A152" s="102"/>
       <c r="B152" s="1">
         <v>6</v>
       </c>
@@ -23006,7 +23008,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="97">
+      <c r="A155" s="102">
         <v>14</v>
       </c>
       <c r="B155" s="1">
@@ -23019,7 +23021,7 @@
       <c r="E155" s="82"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="97"/>
+      <c r="A156" s="102"/>
       <c r="B156" s="1">
         <v>2</v>
       </c>
@@ -23032,7 +23034,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="97"/>
+      <c r="A157" s="102"/>
       <c r="B157" s="1">
         <v>3</v>
       </c>
@@ -23045,7 +23047,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="97"/>
+      <c r="A158" s="102"/>
       <c r="B158" s="1">
         <v>4</v>
       </c>
@@ -23058,7 +23060,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="97"/>
+      <c r="A159" s="102"/>
       <c r="B159" s="1">
         <v>5</v>
       </c>
@@ -23071,7 +23073,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="97"/>
+      <c r="A160" s="102"/>
       <c r="B160" s="1">
         <v>6</v>
       </c>
@@ -23097,7 +23099,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="97">
+      <c r="A163" s="102">
         <v>15</v>
       </c>
       <c r="B163" s="1">
@@ -23110,7 +23112,7 @@
       <c r="E163" s="82"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="97"/>
+      <c r="A164" s="102"/>
       <c r="B164" s="1">
         <v>2</v>
       </c>
@@ -23123,7 +23125,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="97"/>
+      <c r="A165" s="102"/>
       <c r="B165" s="1">
         <v>3</v>
       </c>
@@ -23136,7 +23138,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="97"/>
+      <c r="A166" s="102"/>
       <c r="B166" s="1">
         <v>4</v>
       </c>
@@ -23149,7 +23151,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="97"/>
+      <c r="A167" s="102"/>
       <c r="B167" s="1">
         <v>5</v>
       </c>
@@ -23162,7 +23164,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="97"/>
+      <c r="A168" s="102"/>
       <c r="B168" s="1">
         <v>6</v>
       </c>
@@ -23188,7 +23190,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="97">
+      <c r="A171" s="102">
         <v>16</v>
       </c>
       <c r="B171" s="1">
@@ -23201,7 +23203,7 @@
       <c r="E171" s="82"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="97"/>
+      <c r="A172" s="102"/>
       <c r="B172" s="1">
         <v>2</v>
       </c>
@@ -23214,7 +23216,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="97"/>
+      <c r="A173" s="102"/>
       <c r="B173" s="1">
         <v>3</v>
       </c>
@@ -23227,7 +23229,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="97"/>
+      <c r="A174" s="102"/>
       <c r="B174" s="1">
         <v>4</v>
       </c>
@@ -23240,7 +23242,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="97"/>
+      <c r="A175" s="102"/>
       <c r="B175" s="1">
         <v>5</v>
       </c>
@@ -23253,7 +23255,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="97"/>
+      <c r="A176" s="102"/>
       <c r="B176" s="1">
         <v>6</v>
       </c>
@@ -23279,7 +23281,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="100">
+      <c r="A179" s="96">
         <v>17</v>
       </c>
       <c r="B179" s="1">
@@ -23294,7 +23296,7 @@
       <c r="E179" s="82"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="101"/>
+      <c r="A180" s="97"/>
       <c r="B180" s="1">
         <v>2</v>
       </c>
@@ -23309,7 +23311,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="101"/>
+      <c r="A181" s="97"/>
       <c r="B181" s="1">
         <v>3</v>
       </c>
@@ -23324,7 +23326,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="101"/>
+      <c r="A182" s="97"/>
       <c r="B182" s="1">
         <v>4</v>
       </c>
@@ -23339,7 +23341,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="101"/>
+      <c r="A183" s="97"/>
       <c r="B183" s="1">
         <v>5</v>
       </c>
@@ -23354,7 +23356,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="101"/>
+      <c r="A184" s="97"/>
       <c r="B184" s="1">
         <v>6</v>
       </c>
@@ -23369,7 +23371,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="101"/>
+      <c r="A185" s="97"/>
       <c r="B185" s="1">
         <v>7</v>
       </c>
@@ -23384,7 +23386,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="101"/>
+      <c r="A186" s="97"/>
       <c r="B186" s="1">
         <v>8</v>
       </c>
@@ -23399,7 +23401,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="101"/>
+      <c r="A187" s="97"/>
       <c r="B187" s="1">
         <v>9</v>
       </c>
@@ -23414,7 +23416,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="102"/>
+      <c r="A188" s="98"/>
       <c r="B188" s="1">
         <v>10</v>
       </c>
@@ -23428,6 +23430,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A147:A152"/>
     <mergeCell ref="A155:A160"/>
     <mergeCell ref="A163:A168"/>
     <mergeCell ref="A179:A188"/>
@@ -23444,7 +23447,6 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A147:A152"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="1317">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5045,11 +5045,35 @@
     <t>M1049</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>与机械手通信【读】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与机械手通信【写】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
@@ -5894,6 +5918,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5912,25 +5948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5940,6 +5958,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5959,9 +5986,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6058,7 +6082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6101,7 +6125,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6139,10 +6163,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8240,7 +8264,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8363,7 +8387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8437,7 +8461,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8472,7 +8495,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8648,7 +8670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8762,7 +8784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -8898,7 +8920,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="120"/>
-      <c r="B3" s="102"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="119"/>
       <c r="D3" s="84">
         <v>2</v>
@@ -8910,7 +8932,7 @@
         <v>1040</v>
       </c>
       <c r="H3" s="120"/>
-      <c r="I3" s="102"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="119"/>
       <c r="K3" s="84">
         <v>2</v>
@@ -8922,7 +8944,7 @@
         <v>1121</v>
       </c>
       <c r="O3" s="120"/>
-      <c r="P3" s="102"/>
+      <c r="P3" s="97"/>
       <c r="Q3" s="119"/>
       <c r="R3" s="84">
         <v>2</v>
@@ -8936,7 +8958,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="120"/>
-      <c r="B4" s="102"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="119"/>
       <c r="D4" s="84">
         <v>3</v>
@@ -8948,7 +8970,7 @@
         <v>1041</v>
       </c>
       <c r="H4" s="120"/>
-      <c r="I4" s="102"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="119"/>
       <c r="K4" s="84">
         <v>3</v>
@@ -8960,7 +8982,7 @@
         <v>1122</v>
       </c>
       <c r="O4" s="120"/>
-      <c r="P4" s="102"/>
+      <c r="P4" s="97"/>
       <c r="Q4" s="119"/>
       <c r="R4" s="84">
         <v>3</v>
@@ -8974,7 +8996,7 @@
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
       <c r="A5" s="120"/>
-      <c r="B5" s="102"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="119"/>
       <c r="D5" s="84">
         <v>4</v>
@@ -8986,7 +9008,7 @@
         <v>1042</v>
       </c>
       <c r="H5" s="120"/>
-      <c r="I5" s="102"/>
+      <c r="I5" s="97"/>
       <c r="J5" s="119"/>
       <c r="K5" s="84">
         <v>4</v>
@@ -8994,7 +9016,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" s="120"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="97"/>
       <c r="Q5" s="119"/>
       <c r="R5" s="84">
         <v>4</v>
@@ -9004,7 +9026,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="120"/>
-      <c r="B6" s="102"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="119"/>
       <c r="D6" s="84">
         <v>5</v>
@@ -9012,7 +9034,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="H6" s="120"/>
-      <c r="I6" s="102"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="119"/>
       <c r="K6" s="84">
         <v>5</v>
@@ -9020,7 +9042,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="O6" s="120"/>
-      <c r="P6" s="102"/>
+      <c r="P6" s="97"/>
       <c r="Q6" s="119"/>
       <c r="R6" s="84">
         <v>5</v>
@@ -9030,7 +9052,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="120"/>
-      <c r="B7" s="102"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="119"/>
       <c r="D7" s="84">
         <v>6</v>
@@ -9038,7 +9060,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="120"/>
-      <c r="I7" s="102"/>
+      <c r="I7" s="97"/>
       <c r="J7" s="119"/>
       <c r="K7" s="84">
         <v>6</v>
@@ -9046,7 +9068,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="O7" s="120"/>
-      <c r="P7" s="102"/>
+      <c r="P7" s="97"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="84">
         <v>6</v>
@@ -9056,7 +9078,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="120"/>
-      <c r="B8" s="102"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="119"/>
       <c r="D8" s="84">
         <v>7</v>
@@ -9068,7 +9090,7 @@
         <v>1049</v>
       </c>
       <c r="H8" s="120"/>
-      <c r="I8" s="102"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="119"/>
       <c r="K8" s="84">
         <v>7</v>
@@ -9080,7 +9102,7 @@
         <v>1123</v>
       </c>
       <c r="O8" s="120"/>
-      <c r="P8" s="102"/>
+      <c r="P8" s="97"/>
       <c r="Q8" s="119"/>
       <c r="R8" s="84">
         <v>7</v>
@@ -9094,7 +9116,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="120"/>
-      <c r="B9" s="102"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="119"/>
       <c r="D9" s="84">
         <v>8</v>
@@ -9106,7 +9128,7 @@
         <v>1050</v>
       </c>
       <c r="H9" s="120"/>
-      <c r="I9" s="102"/>
+      <c r="I9" s="97"/>
       <c r="J9" s="119"/>
       <c r="K9" s="84">
         <v>8</v>
@@ -9118,7 +9140,7 @@
         <v>1124</v>
       </c>
       <c r="O9" s="120"/>
-      <c r="P9" s="102"/>
+      <c r="P9" s="97"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="84">
         <v>8</v>
@@ -9132,7 +9154,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="120"/>
-      <c r="B10" s="102"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="119"/>
       <c r="D10" s="84">
         <v>9</v>
@@ -9144,7 +9166,7 @@
         <v>1043</v>
       </c>
       <c r="H10" s="120"/>
-      <c r="I10" s="102"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="119"/>
       <c r="K10" s="84">
         <v>9</v>
@@ -9152,7 +9174,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="O10" s="120"/>
-      <c r="P10" s="102"/>
+      <c r="P10" s="97"/>
       <c r="Q10" s="119"/>
       <c r="R10" s="84">
         <v>9</v>
@@ -9162,7 +9184,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="120"/>
-      <c r="B11" s="102"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="119"/>
       <c r="D11" s="84">
         <v>10</v>
@@ -9174,7 +9196,7 @@
         <v>1043</v>
       </c>
       <c r="H11" s="120"/>
-      <c r="I11" s="102"/>
+      <c r="I11" s="97"/>
       <c r="J11" s="119"/>
       <c r="K11" s="84">
         <v>10</v>
@@ -9182,7 +9204,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="O11" s="120"/>
-      <c r="P11" s="102"/>
+      <c r="P11" s="97"/>
       <c r="Q11" s="119"/>
       <c r="R11" s="84">
         <v>10</v>
@@ -9192,7 +9214,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="120"/>
-      <c r="B12" s="102"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="119"/>
       <c r="D12" s="84">
         <v>11</v>
@@ -9204,7 +9226,7 @@
         <v>1044</v>
       </c>
       <c r="H12" s="120"/>
-      <c r="I12" s="102"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="119"/>
       <c r="K12" s="84">
         <v>11</v>
@@ -9212,7 +9234,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" s="120"/>
-      <c r="P12" s="102"/>
+      <c r="P12" s="97"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="84">
         <v>11</v>
@@ -9222,7 +9244,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="120"/>
-      <c r="B13" s="102"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="119"/>
       <c r="D13" s="84">
         <v>12</v>
@@ -9234,7 +9256,7 @@
         <v>1044</v>
       </c>
       <c r="H13" s="120"/>
-      <c r="I13" s="102"/>
+      <c r="I13" s="97"/>
       <c r="J13" s="119"/>
       <c r="K13" s="84">
         <v>12</v>
@@ -9242,7 +9264,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="O13" s="120"/>
-      <c r="P13" s="102"/>
+      <c r="P13" s="97"/>
       <c r="Q13" s="119"/>
       <c r="R13" s="84">
         <v>12</v>
@@ -9252,7 +9274,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="120"/>
-      <c r="B14" s="102"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="119"/>
       <c r="D14" s="84">
         <v>13</v>
@@ -9260,7 +9282,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14" s="120"/>
-      <c r="I14" s="102"/>
+      <c r="I14" s="97"/>
       <c r="J14" s="119"/>
       <c r="K14" s="84">
         <v>13</v>
@@ -9272,7 +9294,7 @@
         <v>1125</v>
       </c>
       <c r="O14" s="120"/>
-      <c r="P14" s="102"/>
+      <c r="P14" s="97"/>
       <c r="Q14" s="119"/>
       <c r="R14" s="84">
         <v>13</v>
@@ -9286,7 +9308,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="120"/>
-      <c r="B15" s="102"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="119"/>
       <c r="D15" s="84">
         <v>14</v>
@@ -9298,7 +9320,7 @@
         <v>1045</v>
       </c>
       <c r="H15" s="120"/>
-      <c r="I15" s="102"/>
+      <c r="I15" s="97"/>
       <c r="J15" s="119"/>
       <c r="K15" s="84">
         <v>14</v>
@@ -9310,7 +9332,7 @@
         <v>1126</v>
       </c>
       <c r="O15" s="120"/>
-      <c r="P15" s="102"/>
+      <c r="P15" s="97"/>
       <c r="Q15" s="119"/>
       <c r="R15" s="84">
         <v>14</v>
@@ -9324,7 +9346,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="120"/>
-      <c r="B16" s="102"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="119"/>
       <c r="D16" s="84">
         <v>15</v>
@@ -9336,7 +9358,7 @@
         <v>1045</v>
       </c>
       <c r="H16" s="120"/>
-      <c r="I16" s="102"/>
+      <c r="I16" s="97"/>
       <c r="J16" s="119"/>
       <c r="K16" s="84">
         <v>15</v>
@@ -9348,7 +9370,7 @@
         <v>1127</v>
       </c>
       <c r="O16" s="120"/>
-      <c r="P16" s="102"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="119"/>
       <c r="R16" s="84">
         <v>15</v>
@@ -9362,7 +9384,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="120"/>
-      <c r="B17" s="102"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="119"/>
       <c r="D17" s="84">
         <v>16</v>
@@ -9374,7 +9396,7 @@
         <v>1046</v>
       </c>
       <c r="H17" s="120"/>
-      <c r="I17" s="102"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="119"/>
       <c r="K17" s="84">
         <v>16</v>
@@ -9386,7 +9408,7 @@
         <v>1128</v>
       </c>
       <c r="O17" s="120"/>
-      <c r="P17" s="102"/>
+      <c r="P17" s="97"/>
       <c r="Q17" s="119"/>
       <c r="R17" s="84">
         <v>16</v>
@@ -9400,7 +9422,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="120"/>
-      <c r="B18" s="102"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="119"/>
       <c r="D18" s="84">
         <v>17</v>
@@ -9412,7 +9434,7 @@
         <v>1047</v>
       </c>
       <c r="H18" s="120"/>
-      <c r="I18" s="102"/>
+      <c r="I18" s="97"/>
       <c r="J18" s="119"/>
       <c r="K18" s="84">
         <v>17</v>
@@ -9424,7 +9446,7 @@
         <v>1133</v>
       </c>
       <c r="O18" s="120"/>
-      <c r="P18" s="102"/>
+      <c r="P18" s="97"/>
       <c r="Q18" s="119"/>
       <c r="R18" s="84">
         <v>17</v>
@@ -9438,7 +9460,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="120"/>
-      <c r="B19" s="102"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="119"/>
       <c r="D19" s="84">
         <v>18</v>
@@ -9450,7 +9472,7 @@
         <v>1048</v>
       </c>
       <c r="H19" s="120"/>
-      <c r="I19" s="102"/>
+      <c r="I19" s="97"/>
       <c r="J19" s="119"/>
       <c r="K19" s="84">
         <v>18</v>
@@ -9462,7 +9484,7 @@
         <v>1134</v>
       </c>
       <c r="O19" s="120"/>
-      <c r="P19" s="102"/>
+      <c r="P19" s="97"/>
       <c r="Q19" s="119"/>
       <c r="R19" s="84">
         <v>18</v>
@@ -9476,7 +9498,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="120"/>
-      <c r="B20" s="102"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="119"/>
       <c r="D20" s="84">
         <v>19</v>
@@ -9488,7 +9510,7 @@
         <v>1048</v>
       </c>
       <c r="H20" s="120"/>
-      <c r="I20" s="102"/>
+      <c r="I20" s="97"/>
       <c r="J20" s="119"/>
       <c r="K20" s="84">
         <v>19</v>
@@ -9500,7 +9522,7 @@
         <v>1135</v>
       </c>
       <c r="O20" s="120"/>
-      <c r="P20" s="102"/>
+      <c r="P20" s="97"/>
       <c r="Q20" s="119"/>
       <c r="R20" s="84">
         <v>19</v>
@@ -9514,7 +9536,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="120"/>
-      <c r="B21" s="102"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="119"/>
       <c r="D21" s="84">
         <v>20</v>
@@ -9526,7 +9548,7 @@
         <v>1051</v>
       </c>
       <c r="H21" s="120"/>
-      <c r="I21" s="102"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="119"/>
       <c r="K21" s="84">
         <v>20</v>
@@ -9538,7 +9560,7 @@
         <v>1136</v>
       </c>
       <c r="O21" s="120"/>
-      <c r="P21" s="102"/>
+      <c r="P21" s="97"/>
       <c r="Q21" s="119"/>
       <c r="R21" s="84">
         <v>20</v>
@@ -9552,7 +9574,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="120"/>
-      <c r="B22" s="102"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="119"/>
       <c r="D22" s="84">
         <v>21</v>
@@ -9564,7 +9586,7 @@
         <v>1052</v>
       </c>
       <c r="H22" s="120"/>
-      <c r="I22" s="102"/>
+      <c r="I22" s="97"/>
       <c r="J22" s="119"/>
       <c r="K22" s="84">
         <v>21</v>
@@ -9576,7 +9598,7 @@
         <v>1129</v>
       </c>
       <c r="O22" s="120"/>
-      <c r="P22" s="102"/>
+      <c r="P22" s="97"/>
       <c r="Q22" s="119"/>
       <c r="R22" s="84">
         <v>21</v>
@@ -9590,7 +9612,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="120"/>
-      <c r="B23" s="102"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="119"/>
       <c r="D23" s="84">
         <v>22</v>
@@ -9598,7 +9620,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="120"/>
-      <c r="I23" s="102"/>
+      <c r="I23" s="97"/>
       <c r="J23" s="119"/>
       <c r="K23" s="84">
         <v>22</v>
@@ -9610,7 +9632,7 @@
         <v>1130</v>
       </c>
       <c r="O23" s="120"/>
-      <c r="P23" s="102"/>
+      <c r="P23" s="97"/>
       <c r="Q23" s="119"/>
       <c r="R23" s="84">
         <v>22</v>
@@ -9624,7 +9646,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="120"/>
-      <c r="B24" s="102"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="119"/>
       <c r="D24" s="84">
         <v>23</v>
@@ -9632,7 +9654,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="120"/>
-      <c r="I24" s="102"/>
+      <c r="I24" s="97"/>
       <c r="J24" s="119"/>
       <c r="K24" s="84">
         <v>23</v>
@@ -9640,7 +9662,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="O24" s="120"/>
-      <c r="P24" s="102"/>
+      <c r="P24" s="97"/>
       <c r="Q24" s="119"/>
       <c r="R24" s="84">
         <v>23</v>
@@ -9650,7 +9672,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="120"/>
-      <c r="B25" s="102"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="119"/>
       <c r="D25" s="84">
         <v>24</v>
@@ -9658,7 +9680,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="120"/>
-      <c r="I25" s="102"/>
+      <c r="I25" s="97"/>
       <c r="J25" s="119"/>
       <c r="K25" s="84">
         <v>24</v>
@@ -9666,7 +9688,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="O25" s="120"/>
-      <c r="P25" s="102"/>
+      <c r="P25" s="97"/>
       <c r="Q25" s="119"/>
       <c r="R25" s="84">
         <v>24</v>
@@ -9676,7 +9698,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="120"/>
-      <c r="B26" s="102"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="119"/>
       <c r="D26" s="84">
         <v>25</v>
@@ -9684,7 +9706,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="120"/>
-      <c r="I26" s="102"/>
+      <c r="I26" s="97"/>
       <c r="J26" s="119"/>
       <c r="K26" s="84">
         <v>25</v>
@@ -9696,7 +9718,7 @@
         <v>1132</v>
       </c>
       <c r="O26" s="120"/>
-      <c r="P26" s="102"/>
+      <c r="P26" s="97"/>
       <c r="Q26" s="119"/>
       <c r="R26" s="84">
         <v>25</v>
@@ -10434,11 +10456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10461,7 +10483,7 @@
       <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="97" t="s">
         <v>1219</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10470,136 +10492,136 @@
       <c r="C2" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="97" t="s">
         <v>1186</v>
       </c>
       <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="102"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="D3" s="102"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="102"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="102"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="97" t="s">
         <v>1196</v>
       </c>
       <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="102"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="D6" s="102"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="102"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="D7" s="102"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="102"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="97" t="s">
         <v>1209</v>
       </c>
       <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="102"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="102"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="102"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="97" t="s">
         <v>1210</v>
       </c>
       <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="102"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="1" t="s">
         <v>1204</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="102"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5">
@@ -10816,8 +10838,26 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>1316</v>
+      </c>
     </row>
     <row r="39" spans="6:9">
       <c r="F39" s="1"/>
@@ -10889,7 +10929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10904,7 +10944,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="97" t="s">
         <v>1218</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10918,7 +10958,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="102"/>
+      <c r="A2" s="97"/>
       <c r="B2" s="1" t="s">
         <v>1212</v>
       </c>
@@ -10930,7 +10970,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="102"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="1" t="s">
         <v>1213</v>
       </c>
@@ -10940,7 +10980,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="102"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="1" t="s">
         <v>1214</v>
       </c>
@@ -10952,7 +10992,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="97" t="s">
         <v>1251</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10966,7 +11006,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="102"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="1" t="s">
         <v>1212</v>
       </c>
@@ -10984,7 +11024,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="97" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -10998,7 +11038,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="102"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="1" t="s">
         <v>1212</v>
       </c>
@@ -11028,7 +11068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11262,7 +11302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11355,7 +11395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11581,7 +11621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11601,7 +11641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11621,17 +11661,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="96" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="96"/>
       <c r="H1" s="16" t="s">
         <v>239</v>
       </c>
@@ -11640,13 +11680,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="16" t="s">
         <v>240</v>
       </c>
@@ -11655,13 +11695,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -11675,10 +11715,10 @@
       <c r="C4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="15" t="s">
         <v>46</v>
       </c>
@@ -11693,7 +11733,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="103" t="s">
         <v>568</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -11702,10 +11742,10 @@
       <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="E5" s="102"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="15">
         <v>1</v>
       </c>
@@ -11721,17 +11761,17 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="100"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="16" t="s">
         <v>569</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="E6" s="102"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="16">
         <v>2</v>
       </c>
@@ -11747,17 +11787,17 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="100"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="E7" s="102"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="15">
         <v>1</v>
       </c>
@@ -11773,17 +11813,17 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="100"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="15">
         <v>1</v>
       </c>
@@ -11799,17 +11839,17 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="100"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="E9" s="102"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
@@ -11825,17 +11865,17 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="100"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="102"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="15">
         <v>1</v>
       </c>
@@ -11851,17 +11891,17 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="100"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="16" t="s">
         <v>242</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="102"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="16">
         <v>1</v>
       </c>
@@ -11877,17 +11917,17 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="100"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="102"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="16">
         <v>1</v>
       </c>
@@ -11903,17 +11943,17 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="100"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="16" t="s">
         <v>244</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="102"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="16">
         <v>1</v>
       </c>
@@ -11929,17 +11969,17 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="100"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="102"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="15">
         <v>2</v>
       </c>
@@ -11955,17 +11995,17 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="100"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="102"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="15">
         <v>1</v>
       </c>
@@ -11981,15 +12021,15 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="100"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="102"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="15">
         <v>2</v>
       </c>
@@ -12005,15 +12045,15 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="100"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="102"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="15">
         <v>10</v>
       </c>
@@ -12029,17 +12069,17 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="100"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="102"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="15">
         <v>1</v>
       </c>
@@ -12055,17 +12095,17 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="100"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="15" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="102"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="15">
         <v>1</v>
       </c>
@@ -12081,17 +12121,17 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="100"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="15" t="s">
         <v>151</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="102"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="15">
         <v>1</v>
       </c>
@@ -12107,17 +12147,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="100"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="15" t="s">
         <v>154</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="102"/>
+      <c r="E21" s="97"/>
       <c r="F21" s="15">
         <v>1</v>
       </c>
@@ -12133,17 +12173,17 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="100"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="102"/>
+      <c r="E22" s="97"/>
       <c r="F22" s="15">
         <v>1</v>
       </c>
@@ -12159,15 +12199,15 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="100"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="102"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="15">
         <v>4</v>
       </c>
@@ -12183,17 +12223,17 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="100"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="102">
+      <c r="D24" s="97">
         <v>30296</v>
       </c>
-      <c r="E24" s="102"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="15">
         <v>2</v>
       </c>
@@ -12209,17 +12249,17 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="100"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="102"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="15">
         <v>1</v>
       </c>
@@ -12235,17 +12275,17 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="100"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="102"/>
+      <c r="E26" s="97"/>
       <c r="F26" s="15">
         <v>1</v>
       </c>
@@ -12261,13 +12301,13 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="100"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="15">
         <v>1</v>
       </c>
@@ -12283,17 +12323,17 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="101"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="102"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="15">
         <v>1</v>
       </c>
@@ -12312,15 +12352,15 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="100" t="s">
         <v>228</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -12329,10 +12369,10 @@
       <c r="C30" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="102"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="15">
         <v>1</v>
       </c>
@@ -12348,17 +12388,17 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="97"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="102"/>
+      <c r="E31" s="97"/>
       <c r="F31" s="15">
         <v>1</v>
       </c>
@@ -12374,17 +12414,17 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="97"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="102"/>
+      <c r="E32" s="97"/>
       <c r="F32" s="15">
         <v>1</v>
       </c>
@@ -12400,17 +12440,17 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="97"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="102"/>
+      <c r="E33" s="97"/>
       <c r="F33" s="15">
         <v>1</v>
       </c>
@@ -12426,17 +12466,17 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="97"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="102"/>
+      <c r="E34" s="97"/>
       <c r="F34" s="15">
         <v>2</v>
       </c>
@@ -12452,17 +12492,17 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="97"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="102"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="15">
         <v>2</v>
       </c>
@@ -12478,17 +12518,17 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="97"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="102"/>
+      <c r="E36" s="97"/>
       <c r="F36" s="15">
         <v>4</v>
       </c>
@@ -12504,17 +12544,17 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="97"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="102"/>
+      <c r="E37" s="97"/>
       <c r="F37" s="15">
         <v>4</v>
       </c>
@@ -12530,17 +12570,17 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="97"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="102" t="s">
+      <c r="D38" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="102"/>
+      <c r="E38" s="97"/>
       <c r="F38" s="15">
         <v>1</v>
       </c>
@@ -12556,17 +12596,17 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="97"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="102"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="15">
         <v>1</v>
       </c>
@@ -12582,17 +12622,17 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="97"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="97" t="s">
         <v>401</v>
       </c>
-      <c r="E40" s="102"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="15">
         <v>4</v>
       </c>
@@ -12611,17 +12651,17 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="98"/>
+      <c r="A41" s="102"/>
       <c r="B41" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="97" t="s">
         <v>580</v>
       </c>
-      <c r="E41" s="102"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="15">
         <v>4</v>
       </c>
@@ -12640,15 +12680,15 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="100" t="s">
         <v>229</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -12657,10 +12697,10 @@
       <c r="C43" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="102" t="s">
+      <c r="D43" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="102"/>
+      <c r="E43" s="97"/>
       <c r="F43" s="15">
         <v>6</v>
       </c>
@@ -12676,17 +12716,17 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="97"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="102"/>
+      <c r="E44" s="97"/>
       <c r="F44" s="15">
         <v>1</v>
       </c>
@@ -12702,17 +12742,17 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="97"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="102" t="s">
+      <c r="D45" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="102"/>
+      <c r="E45" s="97"/>
       <c r="F45" s="15">
         <v>1</v>
       </c>
@@ -12728,17 +12768,17 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="98"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="D46" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="E46" s="102"/>
+      <c r="E46" s="97"/>
       <c r="F46" s="15">
         <v>1</v>
       </c>
@@ -12757,15 +12797,15 @@
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="12"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="100" t="s">
         <v>573</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -12774,10 +12814,10 @@
       <c r="C48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="102"/>
+      <c r="E48" s="97"/>
       <c r="F48" s="15">
         <v>1</v>
       </c>
@@ -12793,15 +12833,15 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="97"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="102" t="s">
+      <c r="D49" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="102"/>
+      <c r="E49" s="97"/>
       <c r="F49" s="15">
         <v>6</v>
       </c>
@@ -12817,17 +12857,17 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="97"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="102"/>
+      <c r="E50" s="97"/>
       <c r="F50" s="15">
         <v>8</v>
       </c>
@@ -12843,17 +12883,17 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="97"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="102"/>
+      <c r="E51" s="97"/>
       <c r="F51" s="15">
         <v>4</v>
       </c>
@@ -12869,17 +12909,17 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="97"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="102"/>
+      <c r="E52" s="97"/>
       <c r="F52" s="15">
         <v>4</v>
       </c>
@@ -12895,13 +12935,13 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="97"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
       <c r="F53" s="15">
         <v>4</v>
       </c>
@@ -12917,13 +12957,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="97"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="15"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
       <c r="F54" s="15">
         <v>4</v>
       </c>
@@ -12939,17 +12979,17 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="97"/>
+      <c r="A55" s="101"/>
       <c r="B55" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="102" t="s">
+      <c r="D55" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="102"/>
+      <c r="E55" s="97"/>
       <c r="F55" s="15">
         <v>1</v>
       </c>
@@ -12965,13 +13005,13 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="97"/>
+      <c r="A56" s="101"/>
       <c r="B56" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="15"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
       <c r="F56" s="15">
         <v>1</v>
       </c>
@@ -12987,15 +13027,15 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="97"/>
+      <c r="A57" s="101"/>
       <c r="B57" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="15"/>
-      <c r="D57" s="102" t="s">
+      <c r="D57" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="E57" s="102"/>
+      <c r="E57" s="97"/>
       <c r="F57" s="15">
         <v>3</v>
       </c>
@@ -13011,15 +13051,15 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="97"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="15"/>
-      <c r="D58" s="102" t="s">
+      <c r="D58" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="102"/>
+      <c r="E58" s="97"/>
       <c r="F58" s="15">
         <v>12</v>
       </c>
@@ -13035,15 +13075,15 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="97"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="15"/>
-      <c r="D59" s="102" t="s">
+      <c r="D59" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="102"/>
+      <c r="E59" s="97"/>
       <c r="F59" s="15">
         <v>15</v>
       </c>
@@ -13059,17 +13099,17 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="97"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="102" t="s">
+      <c r="D60" s="97" t="s">
         <v>575</v>
       </c>
-      <c r="E60" s="102"/>
+      <c r="E60" s="97"/>
       <c r="F60" s="15">
         <v>1</v>
       </c>
@@ -13085,17 +13125,17 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="97"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="102" t="s">
+      <c r="D61" s="97" t="s">
         <v>576</v>
       </c>
-      <c r="E61" s="102"/>
+      <c r="E61" s="97"/>
       <c r="F61" s="15">
         <v>2</v>
       </c>
@@ -13111,17 +13151,17 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="97"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D62" s="102" t="s">
+      <c r="D62" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="102"/>
+      <c r="E62" s="97"/>
       <c r="F62" s="15">
         <v>4</v>
       </c>
@@ -13137,17 +13177,17 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="97"/>
+      <c r="A63" s="101"/>
       <c r="B63" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="102" t="s">
+      <c r="D63" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="102"/>
+      <c r="E63" s="97"/>
       <c r="F63" s="15">
         <v>6</v>
       </c>
@@ -13163,17 +13203,17 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="97"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="102" t="s">
+      <c r="D64" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="102"/>
+      <c r="E64" s="97"/>
       <c r="F64" s="15">
         <v>2</v>
       </c>
@@ -13189,17 +13229,17 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="97"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="15" t="s">
         <v>206</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="102" t="s">
+      <c r="D65" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="102"/>
+      <c r="E65" s="97"/>
       <c r="F65" s="15">
         <v>2</v>
       </c>
@@ -13215,17 +13255,17 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="97"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="15" t="s">
         <v>213</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="102" t="s">
+      <c r="D66" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="E66" s="102"/>
+      <c r="E66" s="97"/>
       <c r="F66" s="15">
         <v>4</v>
       </c>
@@ -13241,17 +13281,17 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="97"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="102" t="s">
+      <c r="D67" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="102"/>
+      <c r="E67" s="97"/>
       <c r="F67" s="15">
         <v>4</v>
       </c>
@@ -13267,17 +13307,17 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="97"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="102" t="s">
+      <c r="D68" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="E68" s="102"/>
+      <c r="E68" s="97"/>
       <c r="F68" s="15">
         <v>4</v>
       </c>
@@ -13293,17 +13333,17 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="97"/>
+      <c r="A69" s="101"/>
       <c r="B69" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="102" t="s">
+      <c r="D69" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="E69" s="102"/>
+      <c r="E69" s="97"/>
       <c r="F69" s="15">
         <v>4</v>
       </c>
@@ -13319,15 +13359,15 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="97"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="15"/>
-      <c r="D70" s="102" t="s">
+      <c r="D70" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="102"/>
+      <c r="E70" s="97"/>
       <c r="F70" s="15">
         <v>8</v>
       </c>
@@ -13343,15 +13383,15 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="97"/>
+      <c r="A71" s="101"/>
       <c r="B71" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C71" s="15"/>
-      <c r="D71" s="102" t="s">
+      <c r="D71" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="102"/>
+      <c r="E71" s="97"/>
       <c r="F71" s="15">
         <v>1</v>
       </c>
@@ -13367,15 +13407,15 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="97"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C72" s="15"/>
-      <c r="D72" s="102" t="s">
+      <c r="D72" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="E72" s="102"/>
+      <c r="E72" s="97"/>
       <c r="F72" s="15">
         <v>1</v>
       </c>
@@ -13391,15 +13431,15 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="97"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C73" s="15"/>
-      <c r="D73" s="102" t="s">
+      <c r="D73" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="102"/>
+      <c r="E73" s="97"/>
       <c r="F73" s="15">
         <v>1</v>
       </c>
@@ -13415,15 +13455,15 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="97"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C74" s="15"/>
-      <c r="D74" s="102" t="s">
+      <c r="D74" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="102"/>
+      <c r="E74" s="97"/>
       <c r="F74" s="15">
         <v>1</v>
       </c>
@@ -13439,15 +13479,15 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="97"/>
+      <c r="A75" s="101"/>
       <c r="B75" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C75" s="15"/>
-      <c r="D75" s="102" t="s">
+      <c r="D75" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="102"/>
+      <c r="E75" s="97"/>
       <c r="F75" s="15">
         <v>2</v>
       </c>
@@ -13463,15 +13503,15 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="97"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C76" s="15"/>
-      <c r="D76" s="102" t="s">
+      <c r="D76" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="102"/>
+      <c r="E76" s="97"/>
       <c r="F76" s="15">
         <v>2</v>
       </c>
@@ -13487,17 +13527,17 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="97"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="102" t="s">
+      <c r="D77" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="102"/>
+      <c r="E77" s="97"/>
       <c r="F77" s="15">
         <v>3</v>
       </c>
@@ -13513,15 +13553,15 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="97"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C78" s="15"/>
-      <c r="D78" s="102" t="s">
+      <c r="D78" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="E78" s="102"/>
+      <c r="E78" s="97"/>
       <c r="F78" s="15">
         <v>4</v>
       </c>
@@ -13537,17 +13577,17 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="97"/>
+      <c r="A79" s="101"/>
       <c r="B79" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="102" t="s">
+      <c r="D79" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="102"/>
+      <c r="E79" s="97"/>
       <c r="F79" s="15">
         <v>2</v>
       </c>
@@ -13563,17 +13603,17 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="97"/>
+      <c r="A80" s="101"/>
       <c r="B80" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="102" t="s">
+      <c r="D80" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="102"/>
+      <c r="E80" s="97"/>
       <c r="F80" s="15">
         <v>3</v>
       </c>
@@ -13589,17 +13629,17 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="97"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="102" t="s">
+      <c r="D81" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="102"/>
+      <c r="E81" s="97"/>
       <c r="F81" s="15">
         <v>1</v>
       </c>
@@ -13615,17 +13655,17 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="97"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="102" t="s">
+      <c r="D82" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="E82" s="102"/>
+      <c r="E82" s="97"/>
       <c r="F82" s="15">
         <v>2</v>
       </c>
@@ -13641,17 +13681,17 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="97"/>
+      <c r="A83" s="101"/>
       <c r="B83" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="102" t="s">
+      <c r="D83" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="E83" s="102"/>
+      <c r="E83" s="97"/>
       <c r="F83" s="15">
         <v>2</v>
       </c>
@@ -13667,17 +13707,17 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="97"/>
+      <c r="A84" s="101"/>
       <c r="B84" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="102" t="s">
+      <c r="D84" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="E84" s="102"/>
+      <c r="E84" s="97"/>
       <c r="F84" s="15">
         <v>1</v>
       </c>
@@ -13696,17 +13736,17 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="97"/>
+      <c r="A85" s="101"/>
       <c r="B85" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="102" t="s">
+      <c r="D85" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="E85" s="102"/>
+      <c r="E85" s="97"/>
       <c r="F85" s="16">
         <v>3</v>
       </c>
@@ -13725,17 +13765,17 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="97"/>
+      <c r="A86" s="101"/>
       <c r="B86" s="16" t="s">
         <v>236</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="102" t="s">
+      <c r="D86" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="E86" s="102"/>
+      <c r="E86" s="97"/>
       <c r="F86" s="16">
         <v>3</v>
       </c>
@@ -13754,17 +13794,17 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="97"/>
+      <c r="A87" s="101"/>
       <c r="B87" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="102" t="s">
+      <c r="D87" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="E87" s="102"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="15">
         <v>1</v>
       </c>
@@ -13783,17 +13823,17 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="98"/>
+      <c r="A88" s="102"/>
       <c r="B88" s="15" t="s">
         <v>197</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="102">
+      <c r="D88" s="97">
         <v>620105</v>
       </c>
-      <c r="E88" s="102"/>
+      <c r="E88" s="97"/>
       <c r="F88" s="15">
         <v>1</v>
       </c>
@@ -13819,8 +13859,8 @@
       <c r="C89" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="102"/>
-      <c r="E89" s="102"/>
+      <c r="D89" s="97"/>
+      <c r="E89" s="97"/>
       <c r="F89" s="16">
         <v>4</v>
       </c>
@@ -13842,25 +13882,25 @@
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="98"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="12"/>
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="96" t="s">
+      <c r="A91" s="100" t="s">
         <v>574</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="15"/>
-      <c r="D91" s="102" t="s">
+      <c r="D91" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="E91" s="102"/>
+      <c r="E91" s="97"/>
       <c r="F91" s="15">
         <v>1</v>
       </c>
@@ -13876,15 +13916,15 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="97"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C92" s="15"/>
-      <c r="D92" s="102" t="s">
+      <c r="D92" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="E92" s="102"/>
+      <c r="E92" s="97"/>
       <c r="F92" s="15">
         <v>1</v>
       </c>
@@ -13900,15 +13940,15 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="97"/>
+      <c r="A93" s="101"/>
       <c r="B93" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C93" s="15"/>
-      <c r="D93" s="102" t="s">
+      <c r="D93" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="102"/>
+      <c r="E93" s="97"/>
       <c r="F93" s="15">
         <v>1</v>
       </c>
@@ -13924,15 +13964,15 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="97"/>
+      <c r="A94" s="101"/>
       <c r="B94" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C94" s="15"/>
-      <c r="D94" s="102" t="s">
+      <c r="D94" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="E94" s="102"/>
+      <c r="E94" s="97"/>
       <c r="F94" s="15">
         <v>5</v>
       </c>
@@ -13948,17 +13988,17 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="97"/>
+      <c r="A95" s="101"/>
       <c r="B95" s="15" t="s">
         <v>186</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="102" t="s">
+      <c r="D95" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="E95" s="102"/>
+      <c r="E95" s="97"/>
       <c r="F95" s="15">
         <v>2</v>
       </c>
@@ -13974,17 +14014,17 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="98"/>
+      <c r="A96" s="102"/>
       <c r="B96" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="102" t="s">
+      <c r="D96" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="E96" s="102"/>
+      <c r="E96" s="97"/>
       <c r="F96" s="15">
         <v>9</v>
       </c>
@@ -14003,25 +14043,25 @@
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="103"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="12"/>
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="96" t="s">
+      <c r="A98" s="100" t="s">
         <v>230</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C98" s="15"/>
-      <c r="D98" s="102" t="s">
+      <c r="D98" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="E98" s="102"/>
+      <c r="E98" s="97"/>
       <c r="F98" s="15">
         <v>2</v>
       </c>
@@ -14037,15 +14077,15 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="97"/>
+      <c r="A99" s="101"/>
       <c r="B99" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C99" s="15"/>
-      <c r="D99" s="102" t="s">
+      <c r="D99" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="E99" s="102"/>
+      <c r="E99" s="97"/>
       <c r="F99" s="15">
         <v>2</v>
       </c>
@@ -14061,15 +14101,15 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="97"/>
+      <c r="A100" s="101"/>
       <c r="B100" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C100" s="15"/>
-      <c r="D100" s="102" t="s">
+      <c r="D100" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="E100" s="102"/>
+      <c r="E100" s="97"/>
       <c r="F100" s="15">
         <v>2</v>
       </c>
@@ -14085,13 +14125,13 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="97"/>
+      <c r="A101" s="101"/>
       <c r="B101" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C101" s="15"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="102"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
       <c r="F101" s="15">
         <v>1</v>
       </c>
@@ -14107,13 +14147,13 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="97"/>
+      <c r="A102" s="101"/>
       <c r="B102" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C102" s="15"/>
-      <c r="D102" s="102"/>
-      <c r="E102" s="102"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="97"/>
       <c r="F102" s="15">
         <v>1</v>
       </c>
@@ -14129,13 +14169,13 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="97"/>
+      <c r="A103" s="101"/>
       <c r="B103" s="15" t="s">
         <v>164</v>
       </c>
       <c r="C103" s="15"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
+      <c r="D103" s="97"/>
+      <c r="E103" s="97"/>
       <c r="F103" s="15"/>
       <c r="G103" s="15" t="s">
         <v>178</v>
@@ -14149,13 +14189,13 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="97"/>
+      <c r="A104" s="101"/>
       <c r="B104" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C104" s="15"/>
-      <c r="D104" s="102"/>
-      <c r="E104" s="102"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="97"/>
       <c r="F104" s="15"/>
       <c r="G104" s="15" t="s">
         <v>178</v>
@@ -14169,13 +14209,13 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="97"/>
+      <c r="A105" s="101"/>
       <c r="B105" s="15" t="s">
         <v>166</v>
       </c>
       <c r="C105" s="15"/>
-      <c r="D105" s="102"/>
-      <c r="E105" s="102"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="97"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15" t="s">
         <v>178</v>
@@ -14189,13 +14229,13 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="97"/>
+      <c r="A106" s="101"/>
       <c r="B106" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C106" s="15"/>
-      <c r="D106" s="102"/>
-      <c r="E106" s="102"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="97"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15" t="s">
         <v>178</v>
@@ -14209,13 +14249,13 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="97"/>
+      <c r="A107" s="101"/>
       <c r="B107" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C107" s="15"/>
-      <c r="D107" s="102"/>
-      <c r="E107" s="102"/>
+      <c r="D107" s="97"/>
+      <c r="E107" s="97"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
         <v>178</v>
@@ -14229,13 +14269,13 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="97"/>
+      <c r="A108" s="101"/>
       <c r="B108" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C108" s="15"/>
-      <c r="D108" s="102"/>
-      <c r="E108" s="102"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="97"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15" t="s">
         <v>178</v>
@@ -14249,13 +14289,13 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="97"/>
+      <c r="A109" s="101"/>
       <c r="B109" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C109" s="15"/>
-      <c r="D109" s="102"/>
-      <c r="E109" s="102"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="97"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15" t="s">
         <v>178</v>
@@ -14269,13 +14309,13 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="97"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C110" s="15"/>
-      <c r="D110" s="102"/>
-      <c r="E110" s="102"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="97"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15" t="s">
         <v>61</v>
@@ -14289,13 +14329,13 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="97"/>
+      <c r="A111" s="101"/>
       <c r="B111" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="15"/>
-      <c r="D111" s="102"/>
-      <c r="E111" s="102"/>
+      <c r="D111" s="97"/>
+      <c r="E111" s="97"/>
       <c r="F111" s="15"/>
       <c r="G111" s="15" t="s">
         <v>61</v>
@@ -14309,13 +14349,13 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="97"/>
+      <c r="A112" s="101"/>
       <c r="B112" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C112" s="15"/>
-      <c r="D112" s="102"/>
-      <c r="E112" s="102"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="97"/>
       <c r="F112" s="15"/>
       <c r="G112" s="15" t="s">
         <v>61</v>
@@ -14329,13 +14369,13 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="97"/>
+      <c r="A113" s="101"/>
       <c r="B113" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C113" s="15"/>
-      <c r="D113" s="102"/>
-      <c r="E113" s="102"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="97"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15" t="s">
         <v>61</v>
@@ -14349,13 +14389,13 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="97"/>
+      <c r="A114" s="101"/>
       <c r="B114" s="15" t="s">
         <v>175</v>
       </c>
       <c r="C114" s="15"/>
-      <c r="D114" s="102"/>
-      <c r="E114" s="102"/>
+      <c r="D114" s="97"/>
+      <c r="E114" s="97"/>
       <c r="F114" s="15"/>
       <c r="G114" s="15" t="s">
         <v>61</v>
@@ -14369,13 +14409,13 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="97"/>
+      <c r="A115" s="101"/>
       <c r="B115" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C115" s="15"/>
-      <c r="D115" s="102"/>
-      <c r="E115" s="102"/>
+      <c r="D115" s="97"/>
+      <c r="E115" s="97"/>
       <c r="F115" s="15"/>
       <c r="G115" s="15" t="s">
         <v>61</v>
@@ -14389,13 +14429,13 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="97"/>
+      <c r="A116" s="101"/>
       <c r="B116" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C116" s="15"/>
-      <c r="D116" s="102"/>
-      <c r="E116" s="102"/>
+      <c r="D116" s="97"/>
+      <c r="E116" s="97"/>
       <c r="F116" s="15"/>
       <c r="G116" s="15" t="s">
         <v>178</v>
@@ -14409,13 +14449,13 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="97"/>
+      <c r="A117" s="101"/>
       <c r="B117" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C117" s="15"/>
-      <c r="D117" s="102"/>
-      <c r="E117" s="102"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="97"/>
       <c r="F117" s="15"/>
       <c r="G117" s="15" t="s">
         <v>178</v>
@@ -14429,13 +14469,13 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="98"/>
+      <c r="A118" s="102"/>
       <c r="B118" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C118" s="15"/>
-      <c r="D118" s="102"/>
-      <c r="E118" s="102"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="97"/>
       <c r="F118" s="15">
         <v>1</v>
       </c>
@@ -14452,6 +14492,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="A98:A118"/>
+    <mergeCell ref="A5:A28"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A48:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="D11:E11"/>
@@ -14476,105 +14615,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A98:A118"/>
-    <mergeCell ref="A5:A28"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A48:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -14592,14 +14632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15239,7 +15279,7 @@
       <c r="H32" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="I32" s="102" t="s">
+      <c r="I32" s="97" t="s">
         <v>537</v>
       </c>
     </row>
@@ -15266,7 +15306,7 @@
       <c r="H33" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="I33" s="102"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
@@ -15291,7 +15331,7 @@
       <c r="H34" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="I34" s="102"/>
+      <c r="I34" s="97"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6">
@@ -15316,7 +15356,7 @@
       <c r="H35" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="I35" s="102"/>
+      <c r="I35" s="97"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6">
@@ -15339,7 +15379,7 @@
         <v>381</v>
       </c>
       <c r="H36" s="24"/>
-      <c r="I36" s="102"/>
+      <c r="I36" s="97"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6">
@@ -15362,7 +15402,7 @@
         <v>382</v>
       </c>
       <c r="H37" s="24"/>
-      <c r="I37" s="102"/>
+      <c r="I37" s="97"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6">
@@ -15387,7 +15427,7 @@
       <c r="H38" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="I38" s="102"/>
+      <c r="I38" s="97"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6">
@@ -15412,7 +15452,7 @@
       <c r="H39" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="I39" s="102"/>
+      <c r="I39" s="97"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
@@ -15437,7 +15477,7 @@
       <c r="H40" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="I40" s="102"/>
+      <c r="I40" s="97"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6">
@@ -15462,7 +15502,7 @@
       <c r="H41" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="I41" s="102"/>
+      <c r="I41" s="97"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6">
@@ -15487,7 +15527,7 @@
       <c r="H42" s="25" t="s">
         <v>925</v>
       </c>
-      <c r="I42" s="102"/>
+      <c r="I42" s="97"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6">
@@ -15512,7 +15552,7 @@
       <c r="H43" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="I43" s="102"/>
+      <c r="I43" s="97"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
@@ -15537,7 +15577,7 @@
       <c r="H44" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="I44" s="102"/>
+      <c r="I44" s="97"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6">
@@ -15562,7 +15602,7 @@
       <c r="H45" s="24" t="s">
         <v>928</v>
       </c>
-      <c r="I45" s="102"/>
+      <c r="I45" s="97"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
@@ -15587,7 +15627,7 @@
       <c r="H46" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="I46" s="102"/>
+      <c r="I46" s="97"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6">
@@ -15612,7 +15652,7 @@
       <c r="H47" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="I47" s="102"/>
+      <c r="I47" s="97"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
@@ -15637,7 +15677,7 @@
       <c r="H48" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="I48" s="102"/>
+      <c r="I48" s="97"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6">
@@ -15662,7 +15702,7 @@
       <c r="H49" s="24" t="s">
         <v>932</v>
       </c>
-      <c r="I49" s="102"/>
+      <c r="I49" s="97"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6">
@@ -15687,7 +15727,7 @@
       <c r="H50" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="I50" s="102"/>
+      <c r="I50" s="97"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6">
@@ -15712,7 +15752,7 @@
       <c r="H51" s="24" t="s">
         <v>934</v>
       </c>
-      <c r="I51" s="102"/>
+      <c r="I51" s="97"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6">
@@ -15737,7 +15777,7 @@
       <c r="H52" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="I52" s="102"/>
+      <c r="I52" s="97"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6">
@@ -15762,7 +15802,7 @@
       <c r="H53" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="I53" s="102"/>
+      <c r="I53" s="97"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6">
@@ -15787,7 +15827,7 @@
       <c r="H54" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="I54" s="102"/>
+      <c r="I54" s="97"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6">
@@ -15812,7 +15852,7 @@
       <c r="H55" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="I55" s="102"/>
+      <c r="I55" s="97"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6">
@@ -15831,7 +15871,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="102"/>
+      <c r="I56" s="97"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6">
@@ -15850,7 +15890,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="102"/>
+      <c r="I57" s="97"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6">
@@ -15869,7 +15909,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="102"/>
+      <c r="I58" s="97"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6">
@@ -15888,7 +15928,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="102"/>
+      <c r="I59" s="97"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6">
@@ -15905,7 +15945,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="102"/>
+      <c r="I60" s="97"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6">
@@ -15924,7 +15964,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="102"/>
+      <c r="I61" s="97"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6">
@@ -15943,7 +15983,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="102"/>
+      <c r="I62" s="97"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6">
@@ -15960,7 +16000,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="102"/>
+      <c r="I63" s="97"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6">
@@ -15979,7 +16019,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="102"/>
+      <c r="I64" s="97"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6">
@@ -15998,7 +16038,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="102"/>
+      <c r="I65" s="97"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6">
@@ -16017,7 +16057,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="102"/>
+      <c r="I66" s="97"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6">
@@ -16036,7 +16076,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="102"/>
+      <c r="I67" s="97"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="34">
@@ -16061,7 +16101,7 @@
       <c r="H68" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="I68" s="102" t="s">
+      <c r="I68" s="97" t="s">
         <v>536</v>
       </c>
     </row>
@@ -16088,7 +16128,7 @@
       <c r="H69" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="I69" s="102"/>
+      <c r="I69" s="97"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="34">
@@ -16113,7 +16153,7 @@
       <c r="H70" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="I70" s="102"/>
+      <c r="I70" s="97"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="34">
@@ -16138,7 +16178,7 @@
       <c r="H71" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="I71" s="102"/>
+      <c r="I71" s="97"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="34">
@@ -16163,7 +16203,7 @@
       <c r="H72" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="I72" s="102"/>
+      <c r="I72" s="97"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="34">
@@ -16188,7 +16228,7 @@
       <c r="H73" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="I73" s="102"/>
+      <c r="I73" s="97"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="34">
@@ -16213,7 +16253,7 @@
       <c r="H74" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="I74" s="102"/>
+      <c r="I74" s="97"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="34">
@@ -16236,7 +16276,7 @@
         <v>426</v>
       </c>
       <c r="H75" s="32"/>
-      <c r="I75" s="102"/>
+      <c r="I75" s="97"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="34">
@@ -16255,7 +16295,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="102" t="s">
+      <c r="I76" s="97" t="s">
         <v>854</v>
       </c>
     </row>
@@ -16276,7 +16316,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="102"/>
+      <c r="I77" s="97"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="34">
@@ -16295,7 +16335,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="102"/>
+      <c r="I78" s="97"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="34">
@@ -16314,7 +16354,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="102"/>
+      <c r="I79" s="97"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="34">
@@ -16333,7 +16373,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="102"/>
+      <c r="I80" s="97"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="34">
@@ -16350,7 +16390,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="102"/>
+      <c r="I81" s="97"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="34">
@@ -16369,7 +16409,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="102"/>
+      <c r="I82" s="97"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="34">
@@ -16388,7 +16428,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="102"/>
+      <c r="I83" s="97"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="34">
@@ -16407,7 +16447,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="102"/>
+      <c r="I84" s="97"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="34">
@@ -16426,7 +16466,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="102"/>
+      <c r="I85" s="97"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="34">
@@ -16445,7 +16485,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="102"/>
+      <c r="I86" s="97"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="34">
@@ -16464,7 +16504,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="102"/>
+      <c r="I87" s="97"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="34">
@@ -16483,7 +16523,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="102"/>
+      <c r="I88" s="97"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="34">
@@ -16502,7 +16542,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="102"/>
+      <c r="I89" s="97"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="34">
@@ -16519,7 +16559,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="102"/>
+      <c r="I90" s="97"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="34">
@@ -16536,7 +16576,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="102"/>
+      <c r="I91" s="97"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="34">
@@ -16555,7 +16595,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="96" t="s">
+      <c r="I92" s="100" t="s">
         <v>855</v>
       </c>
     </row>
@@ -16576,7 +16616,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="97"/>
+      <c r="I93" s="101"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="34">
@@ -16595,7 +16635,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="97"/>
+      <c r="I94" s="101"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="34">
@@ -16614,7 +16654,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="97"/>
+      <c r="I95" s="101"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="34">
@@ -16633,7 +16673,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="97"/>
+      <c r="I96" s="101"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="34">
@@ -16652,7 +16692,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="97"/>
+      <c r="I97" s="101"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="34">
@@ -16669,7 +16709,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="97"/>
+      <c r="I98" s="101"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="34">
@@ -16686,7 +16726,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="32"/>
-      <c r="I99" s="97"/>
+      <c r="I99" s="101"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="34">
@@ -16703,7 +16743,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="97"/>
+      <c r="I100" s="101"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="34">
@@ -16720,7 +16760,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="97"/>
+      <c r="I101" s="101"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="34">
@@ -16737,7 +16777,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="97"/>
+      <c r="I102" s="101"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="34">
@@ -16754,7 +16794,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="97"/>
+      <c r="I103" s="101"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="34">
@@ -16771,7 +16811,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="97"/>
+      <c r="I104" s="101"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="34">
@@ -16788,7 +16828,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="97"/>
+      <c r="I105" s="101"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="34">
@@ -16805,7 +16845,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="97"/>
+      <c r="I106" s="101"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="34">
@@ -16822,7 +16862,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="32"/>
-      <c r="I107" s="98"/>
+      <c r="I107" s="102"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="79"/>
@@ -16872,7 +16912,7 @@
       <c r="D112" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E112" s="96" t="s">
+      <c r="E112" s="100" t="s">
         <v>534</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -16884,7 +16924,7 @@
       <c r="H112" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I112" s="102" t="s">
+      <c r="I112" s="97" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16901,7 +16941,7 @@
       <c r="D113" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="E113" s="97"/>
+      <c r="E113" s="101"/>
       <c r="F113" s="1" t="s">
         <v>530</v>
       </c>
@@ -16911,7 +16951,7 @@
       <c r="H113" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="I113" s="102"/>
+      <c r="I113" s="97"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6">
@@ -16926,7 +16966,7 @@
       <c r="D114" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E114" s="97"/>
+      <c r="E114" s="101"/>
       <c r="F114" s="1" t="s">
         <v>310</v>
       </c>
@@ -16936,7 +16976,7 @@
       <c r="H114" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="I114" s="102"/>
+      <c r="I114" s="97"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6">
@@ -16951,7 +16991,7 @@
       <c r="D115" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="E115" s="97"/>
+      <c r="E115" s="101"/>
       <c r="F115" s="1" t="s">
         <v>312</v>
       </c>
@@ -16961,7 +17001,7 @@
       <c r="H115" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="I115" s="102"/>
+      <c r="I115" s="97"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6">
@@ -16976,7 +17016,7 @@
       <c r="D116" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="E116" s="97"/>
+      <c r="E116" s="101"/>
       <c r="F116" s="1" t="s">
         <v>314</v>
       </c>
@@ -16984,7 +17024,7 @@
         <v>516</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="102"/>
+      <c r="I116" s="97"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6">
@@ -16999,7 +17039,7 @@
       <c r="D117" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="E117" s="97"/>
+      <c r="E117" s="101"/>
       <c r="F117" s="1" t="s">
         <v>316</v>
       </c>
@@ -17007,7 +17047,7 @@
         <v>517</v>
       </c>
       <c r="H117" s="30"/>
-      <c r="I117" s="102"/>
+      <c r="I117" s="97"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6">
@@ -17022,7 +17062,7 @@
       <c r="D118" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E118" s="97"/>
+      <c r="E118" s="101"/>
       <c r="F118" s="1" t="s">
         <v>318</v>
       </c>
@@ -17030,7 +17070,7 @@
         <v>518</v>
       </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="102"/>
+      <c r="I118" s="97"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6">
@@ -17045,7 +17085,7 @@
       <c r="D119" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="E119" s="97"/>
+      <c r="E119" s="101"/>
       <c r="F119" s="1" t="s">
         <v>320</v>
       </c>
@@ -17053,7 +17093,7 @@
         <v>519</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="102"/>
+      <c r="I119" s="97"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6">
@@ -17068,7 +17108,7 @@
       <c r="D120" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="E120" s="97"/>
+      <c r="E120" s="101"/>
       <c r="F120" s="1" t="s">
         <v>322</v>
       </c>
@@ -17076,7 +17116,7 @@
         <v>520</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="102"/>
+      <c r="I120" s="97"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6">
@@ -17091,7 +17131,7 @@
       <c r="D121" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="E121" s="97"/>
+      <c r="E121" s="101"/>
       <c r="F121" s="1" t="s">
         <v>324</v>
       </c>
@@ -17099,7 +17139,7 @@
         <v>521</v>
       </c>
       <c r="H121" s="4"/>
-      <c r="I121" s="102"/>
+      <c r="I121" s="97"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6">
@@ -17112,7 +17152,7 @@
         <v>508</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="97"/>
+      <c r="E122" s="101"/>
       <c r="F122" s="1" t="s">
         <v>326</v>
       </c>
@@ -17120,7 +17160,7 @@
         <v>522</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="102"/>
+      <c r="I122" s="97"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6">
@@ -17133,7 +17173,7 @@
         <v>509</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="97"/>
+      <c r="E123" s="101"/>
       <c r="F123" s="1" t="s">
         <v>328</v>
       </c>
@@ -17141,7 +17181,7 @@
         <v>523</v>
       </c>
       <c r="H123" s="4"/>
-      <c r="I123" s="102"/>
+      <c r="I123" s="97"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6">
@@ -17154,7 +17194,7 @@
         <v>510</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="97"/>
+      <c r="E124" s="101"/>
       <c r="F124" s="1" t="s">
         <v>330</v>
       </c>
@@ -17162,7 +17202,7 @@
         <v>524</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="102"/>
+      <c r="I124" s="97"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6">
@@ -17175,7 +17215,7 @@
         <v>511</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="97"/>
+      <c r="E125" s="101"/>
       <c r="F125" s="1" t="s">
         <v>332</v>
       </c>
@@ -17183,7 +17223,7 @@
         <v>525</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="I125" s="102"/>
+      <c r="I125" s="97"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6">
@@ -17196,7 +17236,7 @@
         <v>512</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="97"/>
+      <c r="E126" s="101"/>
       <c r="F126" s="1" t="s">
         <v>334</v>
       </c>
@@ -17204,7 +17244,7 @@
         <v>526</v>
       </c>
       <c r="H126" s="4"/>
-      <c r="I126" s="102"/>
+      <c r="I126" s="97"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6">
@@ -17217,7 +17257,7 @@
         <v>513</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="97"/>
+      <c r="E127" s="101"/>
       <c r="F127" s="1" t="s">
         <v>336</v>
       </c>
@@ -17225,7 +17265,7 @@
         <v>527</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="102"/>
+      <c r="I127" s="97"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6">
@@ -17238,7 +17278,7 @@
         <v>529</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="98"/>
+      <c r="E128" s="102"/>
       <c r="F128" s="1" t="s">
         <v>531</v>
       </c>
@@ -17246,7 +17286,7 @@
         <v>533</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="102"/>
+      <c r="I128" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17267,7 +17307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -17609,7 +17649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17655,12 +17695,12 @@
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
@@ -17674,10 +17714,10 @@
       <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="115" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="41" t="s">
         <v>590</v>
       </c>
@@ -17691,20 +17731,20 @@
       </c>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="116" t="s">
         <v>593</v>
       </c>
-      <c r="K3" s="115"/>
+      <c r="K3" s="116"/>
       <c r="L3" s="45">
         <v>20170306</v>
       </c>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>594</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="45" t="s">
         <v>595</v>
       </c>
@@ -17716,18 +17756,18 @@
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="115" t="s">
+      <c r="J4" s="116" t="s">
         <v>597</v>
       </c>
-      <c r="K4" s="115"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="42"/>
       <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="117" t="s">
         <v>598</v>
       </c>
-      <c r="B5" s="117"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="50"/>
@@ -17737,10 +17777,10 @@
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="116" t="s">
         <v>600</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="116"/>
       <c r="L5" s="49"/>
       <c r="M5" s="53"/>
     </row>
@@ -17766,14 +17806,14 @@
       <c r="B7" s="57" t="s">
         <v>602</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="110" t="s">
         <v>603</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="110" t="s">
         <v>604</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="58" t="s">
         <v>605</v>
       </c>
@@ -17789,17 +17829,17 @@
       <c r="K7" s="59" t="s">
         <v>609</v>
       </c>
-      <c r="L7" s="107" t="s">
+      <c r="L7" s="111" t="s">
         <v>610</v>
       </c>
-      <c r="M7" s="107"/>
+      <c r="M7" s="111"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="60">
         <v>1</v>
       </c>
       <c r="B8" s="61"/>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="112" t="s">
         <v>611</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -17833,7 +17873,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="61"/>
-      <c r="C9" s="108"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="61" t="s">
         <v>617</v>
       </c>
@@ -17863,7 +17903,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="61"/>
-      <c r="C10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="68" t="s">
         <v>621</v>
       </c>
@@ -17893,7 +17933,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="61"/>
-      <c r="C11" s="108"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="68" t="s">
         <v>625</v>
       </c>
@@ -17923,7 +17963,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="61"/>
-      <c r="C12" s="108"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="68" t="s">
         <v>625</v>
       </c>
@@ -17952,7 +17992,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="61"/>
-      <c r="C13" s="108"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="61" t="s">
         <v>628</v>
       </c>
@@ -17981,7 +18021,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="61"/>
-      <c r="C14" s="108"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="61" t="s">
         <v>632</v>
       </c>
@@ -18008,7 +18048,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="61"/>
-      <c r="C15" s="108"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="61" t="s">
         <v>635</v>
       </c>
@@ -18035,7 +18075,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="61"/>
-      <c r="C16" s="108"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="61" t="s">
         <v>637</v>
       </c>
@@ -18062,7 +18102,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="61"/>
-      <c r="C17" s="108"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="61" t="s">
         <v>639</v>
       </c>
@@ -18091,7 +18131,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="61"/>
-      <c r="C18" s="108"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="70" t="s">
         <v>642</v>
       </c>
@@ -18118,7 +18158,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="61"/>
-      <c r="C19" s="108"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="70" t="s">
         <v>644</v>
       </c>
@@ -18143,7 +18183,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="61"/>
-      <c r="C20" s="108"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="70" t="s">
         <v>647</v>
       </c>
@@ -18170,7 +18210,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="61"/>
-      <c r="C21" s="108"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="70" t="s">
         <v>647</v>
       </c>
@@ -18197,7 +18237,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="61"/>
-      <c r="C22" s="108"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="71" t="s">
         <v>649</v>
       </c>
@@ -18226,7 +18266,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="61"/>
-      <c r="C23" s="108"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="70" t="s">
         <v>652</v>
       </c>
@@ -18255,7 +18295,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="61"/>
-      <c r="C24" s="108"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="70" t="s">
         <v>654</v>
       </c>
@@ -18284,7 +18324,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="61"/>
-      <c r="C25" s="108"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="70" t="s">
         <v>657</v>
       </c>
@@ -18313,7 +18353,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="61"/>
-      <c r="C26" s="108"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="70" t="s">
         <v>659</v>
       </c>
@@ -18342,7 +18382,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="61"/>
-      <c r="C27" s="108"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="70" t="s">
         <v>662</v>
       </c>
@@ -18369,7 +18409,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="61"/>
-      <c r="C28" s="108"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="70" t="s">
         <v>664</v>
       </c>
@@ -18398,7 +18438,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="61"/>
-      <c r="C29" s="108"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="70" t="s">
         <v>667</v>
       </c>
@@ -18425,7 +18465,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="61"/>
-      <c r="C30" s="108"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="73" t="s">
         <v>670</v>
       </c>
@@ -18454,7 +18494,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="61"/>
-      <c r="C31" s="108"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="73" t="s">
         <v>673</v>
       </c>
@@ -18479,7 +18519,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="61"/>
-      <c r="C32" s="108"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="73" t="s">
         <v>674</v>
       </c>
@@ -18508,7 +18548,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="61"/>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="107" t="s">
         <v>677</v>
       </c>
       <c r="D33" s="73" t="s">
@@ -18539,7 +18579,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="61"/>
-      <c r="C34" s="109"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="73" t="s">
         <v>681</v>
       </c>
@@ -18568,7 +18608,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="61"/>
-      <c r="C35" s="109"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="73" t="s">
         <v>678</v>
       </c>
@@ -18597,7 +18637,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="61"/>
-      <c r="C36" s="109"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="73" t="s">
         <v>681</v>
       </c>
@@ -18626,7 +18666,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="61"/>
-      <c r="C37" s="109"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="73" t="s">
         <v>678</v>
       </c>
@@ -18655,7 +18695,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="61"/>
-      <c r="C38" s="109"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="73" t="s">
         <v>681</v>
       </c>
@@ -18684,7 +18724,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="61"/>
-      <c r="C39" s="109"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="73" t="s">
         <v>687</v>
       </c>
@@ -18713,7 +18753,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="61"/>
-      <c r="C40" s="109"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="73" t="s">
         <v>689</v>
       </c>
@@ -18742,7 +18782,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="61"/>
-      <c r="C41" s="109"/>
+      <c r="C41" s="107"/>
       <c r="D41" s="73" t="s">
         <v>691</v>
       </c>
@@ -18771,7 +18811,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="61"/>
-      <c r="C42" s="109"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="73" t="s">
         <v>695</v>
       </c>
@@ -18800,7 +18840,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="61"/>
-      <c r="C43" s="109"/>
+      <c r="C43" s="107"/>
       <c r="D43" s="73" t="s">
         <v>697</v>
       </c>
@@ -18831,7 +18871,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="61"/>
-      <c r="C44" s="109"/>
+      <c r="C44" s="107"/>
       <c r="D44" s="69" t="s">
         <v>700</v>
       </c>
@@ -18860,7 +18900,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="61"/>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="108" t="s">
         <v>702</v>
       </c>
       <c r="D45" s="69" t="s">
@@ -18889,7 +18929,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="61"/>
-      <c r="C46" s="111"/>
+      <c r="C46" s="109"/>
       <c r="D46" s="69" t="s">
         <v>706</v>
       </c>
@@ -18916,7 +18956,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="61"/>
-      <c r="C47" s="111"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="69" t="s">
         <v>708</v>
       </c>
@@ -18945,7 +18985,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="61"/>
-      <c r="C48" s="111"/>
+      <c r="C48" s="109"/>
       <c r="D48" s="69" t="s">
         <v>710</v>
       </c>
@@ -18974,7 +19014,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="61"/>
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="107" t="s">
         <v>713</v>
       </c>
       <c r="D49" s="69" t="s">
@@ -19003,7 +19043,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="61"/>
-      <c r="C50" s="109"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="69" t="s">
         <v>716</v>
       </c>
@@ -19028,7 +19068,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="61"/>
-      <c r="C51" s="109"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="69" t="s">
         <v>718</v>
       </c>
@@ -19055,7 +19095,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="61"/>
-      <c r="C52" s="109"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="69" t="s">
         <v>718</v>
       </c>
@@ -19082,7 +19122,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="61"/>
-      <c r="C53" s="109"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="69" t="s">
         <v>721</v>
       </c>
@@ -19109,7 +19149,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="61"/>
-      <c r="C54" s="109"/>
+      <c r="C54" s="107"/>
       <c r="D54" s="69" t="s">
         <v>723</v>
       </c>
@@ -19132,7 +19172,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="61"/>
-      <c r="C55" s="109"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="69" t="s">
         <v>724</v>
       </c>
@@ -19155,7 +19195,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="61"/>
-      <c r="C56" s="109"/>
+      <c r="C56" s="107"/>
       <c r="D56" s="69" t="s">
         <v>725</v>
       </c>
@@ -19182,7 +19222,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="61"/>
-      <c r="C57" s="109"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="69" t="s">
         <v>727</v>
       </c>
@@ -19205,7 +19245,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="61"/>
-      <c r="C58" s="109"/>
+      <c r="C58" s="107"/>
       <c r="D58" s="69" t="s">
         <v>728</v>
       </c>
@@ -19232,7 +19272,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="61"/>
-      <c r="C59" s="109"/>
+      <c r="C59" s="107"/>
       <c r="D59" s="69" t="s">
         <v>730</v>
       </c>
@@ -19257,7 +19297,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="61"/>
-      <c r="C60" s="109"/>
+      <c r="C60" s="107"/>
       <c r="D60" s="69" t="s">
         <v>732</v>
       </c>
@@ -19282,7 +19322,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="61"/>
-      <c r="C61" s="109"/>
+      <c r="C61" s="107"/>
       <c r="D61" s="69" t="s">
         <v>821</v>
       </c>
@@ -19313,7 +19353,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="61"/>
-      <c r="C62" s="109"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="69" t="s">
         <v>734</v>
       </c>
@@ -19340,7 +19380,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="61"/>
-      <c r="C63" s="109"/>
+      <c r="C63" s="107"/>
       <c r="D63" s="69" t="s">
         <v>737</v>
       </c>
@@ -19367,7 +19407,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="61"/>
-      <c r="C64" s="109"/>
+      <c r="C64" s="107"/>
       <c r="D64" s="69" t="s">
         <v>740</v>
       </c>
@@ -19394,7 +19434,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="61"/>
-      <c r="C65" s="109"/>
+      <c r="C65" s="107"/>
       <c r="D65" s="69" t="s">
         <v>742</v>
       </c>
@@ -19421,7 +19461,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="61"/>
-      <c r="C66" s="109"/>
+      <c r="C66" s="107"/>
       <c r="D66" s="69" t="s">
         <v>744</v>
       </c>
@@ -19448,7 +19488,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="61"/>
-      <c r="C67" s="109"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="69" t="s">
         <v>746</v>
       </c>
@@ -19475,7 +19515,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="61"/>
-      <c r="C68" s="109"/>
+      <c r="C68" s="107"/>
       <c r="D68" s="69" t="s">
         <v>748</v>
       </c>
@@ -19502,7 +19542,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="61"/>
-      <c r="C69" s="109"/>
+      <c r="C69" s="107"/>
       <c r="D69" s="69" t="s">
         <v>750</v>
       </c>
@@ -19531,7 +19571,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="61"/>
-      <c r="C70" s="109"/>
+      <c r="C70" s="107"/>
       <c r="D70" s="69" t="s">
         <v>753</v>
       </c>
@@ -19562,7 +19602,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="61"/>
-      <c r="C71" s="109"/>
+      <c r="C71" s="107"/>
       <c r="D71" s="69" t="s">
         <v>754</v>
       </c>
@@ -19587,7 +19627,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="61"/>
-      <c r="C72" s="109"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="69" t="s">
         <v>756</v>
       </c>
@@ -19614,7 +19654,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="61"/>
-      <c r="C73" s="109"/>
+      <c r="C73" s="107"/>
       <c r="D73" s="69" t="s">
         <v>758</v>
       </c>
@@ -19641,7 +19681,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="61"/>
-      <c r="C74" s="109"/>
+      <c r="C74" s="107"/>
       <c r="D74" s="69" t="s">
         <v>759</v>
       </c>
@@ -19668,7 +19708,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="61"/>
-      <c r="C75" s="109"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="69" t="s">
         <v>761</v>
       </c>
@@ -19695,7 +19735,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="61"/>
-      <c r="C76" s="109"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="69" t="s">
         <v>761</v>
       </c>
@@ -19722,7 +19762,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="61"/>
-      <c r="C77" s="109"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="69" t="s">
         <v>1232</v>
       </c>
@@ -19749,7 +19789,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="61"/>
-      <c r="C78" s="109"/>
+      <c r="C78" s="107"/>
       <c r="D78" s="69" t="s">
         <v>758</v>
       </c>
@@ -19776,7 +19816,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="61"/>
-      <c r="C79" s="109"/>
+      <c r="C79" s="107"/>
       <c r="D79" s="69" t="s">
         <v>764</v>
       </c>
@@ -19805,7 +19845,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="61"/>
-      <c r="C80" s="109"/>
+      <c r="C80" s="107"/>
       <c r="D80" s="69" t="s">
         <v>766</v>
       </c>
@@ -19834,7 +19874,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="61"/>
-      <c r="C81" s="109"/>
+      <c r="C81" s="107"/>
       <c r="D81" s="69" t="s">
         <v>766</v>
       </c>
@@ -19863,7 +19903,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="61"/>
-      <c r="C82" s="109"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="69" t="s">
         <v>766</v>
       </c>
@@ -19892,7 +19932,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="61"/>
-      <c r="C83" s="109"/>
+      <c r="C83" s="107"/>
       <c r="D83" s="69" t="s">
         <v>771</v>
       </c>
@@ -19921,7 +19961,7 @@
         <v>78</v>
       </c>
       <c r="B84" s="61"/>
-      <c r="C84" s="109"/>
+      <c r="C84" s="107"/>
       <c r="D84" s="69" t="s">
         <v>771</v>
       </c>
@@ -19950,7 +19990,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="61"/>
-      <c r="C85" s="109"/>
+      <c r="C85" s="107"/>
       <c r="D85" s="69" t="s">
         <v>771</v>
       </c>
@@ -19979,7 +20019,7 @@
         <v>80</v>
       </c>
       <c r="B86" s="61"/>
-      <c r="C86" s="109"/>
+      <c r="C86" s="107"/>
       <c r="D86" s="69" t="s">
         <v>894</v>
       </c>
@@ -20010,7 +20050,7 @@
         <v>81</v>
       </c>
       <c r="B87" s="61"/>
-      <c r="C87" s="109"/>
+      <c r="C87" s="107"/>
       <c r="D87" s="69" t="s">
         <v>895</v>
       </c>
@@ -20041,7 +20081,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="61"/>
-      <c r="C88" s="109"/>
+      <c r="C88" s="107"/>
       <c r="D88" s="69" t="s">
         <v>779</v>
       </c>
@@ -20072,7 +20112,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="61"/>
-      <c r="C89" s="109"/>
+      <c r="C89" s="107"/>
       <c r="D89" s="69" t="s">
         <v>783</v>
       </c>
@@ -20103,7 +20143,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="61"/>
-      <c r="C90" s="109"/>
+      <c r="C90" s="107"/>
       <c r="D90" s="69" t="s">
         <v>785</v>
       </c>
@@ -20132,7 +20172,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="61"/>
-      <c r="C91" s="110" t="s">
+      <c r="C91" s="108" t="s">
         <v>788</v>
       </c>
       <c r="D91" s="69" t="s">
@@ -20159,7 +20199,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="61"/>
-      <c r="C92" s="111"/>
+      <c r="C92" s="109"/>
       <c r="D92" s="69" t="s">
         <v>789</v>
       </c>
@@ -20184,7 +20224,7 @@
         <v>87</v>
       </c>
       <c r="B93" s="61"/>
-      <c r="C93" s="111"/>
+      <c r="C93" s="109"/>
       <c r="D93" s="69" t="s">
         <v>789</v>
       </c>
@@ -20209,7 +20249,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="61"/>
-      <c r="C94" s="111"/>
+      <c r="C94" s="109"/>
       <c r="D94" s="69" t="s">
         <v>789</v>
       </c>
@@ -20234,7 +20274,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="61"/>
-      <c r="C95" s="111"/>
+      <c r="C95" s="109"/>
       <c r="D95" s="69" t="s">
         <v>792</v>
       </c>
@@ -20261,7 +20301,7 @@
         <v>90</v>
       </c>
       <c r="B96" s="61"/>
-      <c r="C96" s="111"/>
+      <c r="C96" s="109"/>
       <c r="D96" s="69" t="s">
         <v>794</v>
       </c>
@@ -20288,7 +20328,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="61"/>
-      <c r="C97" s="109" t="s">
+      <c r="C97" s="107" t="s">
         <v>797</v>
       </c>
       <c r="D97" s="69" t="s">
@@ -20315,7 +20355,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="61"/>
-      <c r="C98" s="109"/>
+      <c r="C98" s="107"/>
       <c r="D98" s="69" t="s">
         <v>798</v>
       </c>
@@ -20340,7 +20380,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="61"/>
-      <c r="C99" s="109"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="69" t="s">
         <v>800</v>
       </c>
@@ -20367,7 +20407,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="61"/>
-      <c r="C100" s="109"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="69" t="s">
         <v>801</v>
       </c>
@@ -20390,7 +20430,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="61"/>
-      <c r="C101" s="109"/>
+      <c r="C101" s="107"/>
       <c r="D101" s="69" t="s">
         <v>802</v>
       </c>
@@ -20413,7 +20453,7 @@
         <v>96</v>
       </c>
       <c r="B102" s="61"/>
-      <c r="C102" s="109"/>
+      <c r="C102" s="107"/>
       <c r="D102" s="69" t="s">
         <v>803</v>
       </c>
@@ -20434,7 +20474,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="61"/>
-      <c r="C103" s="109"/>
+      <c r="C103" s="107"/>
       <c r="D103" s="69" t="s">
         <v>805</v>
       </c>
@@ -20455,7 +20495,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="61"/>
-      <c r="C104" s="109"/>
+      <c r="C104" s="107"/>
       <c r="D104" s="69" t="s">
         <v>806</v>
       </c>
@@ -20476,7 +20516,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="61"/>
-      <c r="C105" s="109"/>
+      <c r="C105" s="107"/>
       <c r="D105" s="69" t="s">
         <v>807</v>
       </c>
@@ -20497,7 +20537,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="61"/>
-      <c r="C106" s="109"/>
+      <c r="C106" s="107"/>
       <c r="D106" s="69" t="s">
         <v>808</v>
       </c>
@@ -20518,7 +20558,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="61"/>
-      <c r="C107" s="109"/>
+      <c r="C107" s="107"/>
       <c r="D107" s="69" t="s">
         <v>809</v>
       </c>
@@ -20539,7 +20579,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="61"/>
-      <c r="C108" s="109"/>
+      <c r="C108" s="107"/>
       <c r="D108" s="69" t="s">
         <v>810</v>
       </c>
@@ -20560,7 +20600,7 @@
         <v>103</v>
       </c>
       <c r="B109" s="61"/>
-      <c r="C109" s="109"/>
+      <c r="C109" s="107"/>
       <c r="D109" s="69" t="s">
         <v>811</v>
       </c>
@@ -20581,7 +20621,7 @@
         <v>104</v>
       </c>
       <c r="B110" s="61"/>
-      <c r="C110" s="109"/>
+      <c r="C110" s="107"/>
       <c r="D110" s="69" t="s">
         <v>812</v>
       </c>
@@ -20602,7 +20642,7 @@
         <v>105</v>
       </c>
       <c r="B111" s="61"/>
-      <c r="C111" s="109"/>
+      <c r="C111" s="107"/>
       <c r="D111" s="69" t="s">
         <v>813</v>
       </c>
@@ -20623,7 +20663,7 @@
         <v>106</v>
       </c>
       <c r="B112" s="61"/>
-      <c r="C112" s="109"/>
+      <c r="C112" s="107"/>
       <c r="D112" s="69" t="s">
         <v>814</v>
       </c>
@@ -20644,7 +20684,7 @@
         <v>107</v>
       </c>
       <c r="B113" s="61"/>
-      <c r="C113" s="109"/>
+      <c r="C113" s="107"/>
       <c r="D113" s="69" t="s">
         <v>815</v>
       </c>
@@ -20665,7 +20705,7 @@
         <v>108</v>
       </c>
       <c r="B114" s="61"/>
-      <c r="C114" s="109"/>
+      <c r="C114" s="107"/>
       <c r="D114" s="69" t="s">
         <v>816</v>
       </c>
@@ -20686,7 +20726,7 @@
         <v>109</v>
       </c>
       <c r="B115" s="61"/>
-      <c r="C115" s="109"/>
+      <c r="C115" s="107"/>
       <c r="D115" s="69" t="s">
         <v>817</v>
       </c>
@@ -20707,7 +20747,7 @@
         <v>110</v>
       </c>
       <c r="B116" s="61"/>
-      <c r="C116" s="109"/>
+      <c r="C116" s="107"/>
       <c r="D116" s="69" t="s">
         <v>818</v>
       </c>
@@ -20728,7 +20768,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="61"/>
-      <c r="C117" s="109"/>
+      <c r="C117" s="107"/>
       <c r="D117" s="69" t="s">
         <v>819</v>
       </c>
@@ -20753,11 +20793,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="C49:C90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C97:C117"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C32"/>
     <mergeCell ref="C33:C44"/>
@@ -20769,6 +20804,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C49:C90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C97:C117"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -20794,7 +20834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20809,7 +20849,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="97" t="s">
         <v>887</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -20820,7 +20860,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="102"/>
+      <c r="A2" s="97"/>
       <c r="B2" s="1" t="s">
         <v>885</v>
       </c>
@@ -20829,7 +20869,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="102"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="1" t="s">
         <v>886</v>
       </c>
@@ -20838,7 +20878,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="97" t="s">
         <v>886</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -20849,7 +20889,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="102"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="1" t="s">
         <v>888</v>
       </c>
@@ -20858,7 +20898,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="102"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="1" t="s">
         <v>889</v>
       </c>
@@ -20867,7 +20907,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="102"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="1" t="s">
         <v>890</v>
       </c>
@@ -20876,7 +20916,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="97" t="s">
         <v>891</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -20887,7 +20927,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="102"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="1" t="s">
         <v>893</v>
       </c>
@@ -20907,7 +20947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -20945,7 +20985,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="96">
+      <c r="A3" s="100">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -20960,7 +21000,7 @@
       <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="97"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -20975,7 +21015,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="97"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -20990,7 +21030,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="97"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -21005,7 +21045,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="97"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -21020,7 +21060,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="97"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -21035,7 +21075,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="97"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -21050,7 +21090,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="97"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -21061,7 +21101,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="97"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -21072,7 +21112,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="98"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -21107,7 +21147,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="96">
+      <c r="A15" s="100">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -21122,7 +21162,7 @@
       <c r="E15" s="82"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="97"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -21137,7 +21177,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="97"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -21152,7 +21192,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="97"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -21167,7 +21207,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="97"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -21182,7 +21222,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="97"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -21197,7 +21237,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="97"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -21212,7 +21252,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="97"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -21223,7 +21263,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="97"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -21234,7 +21274,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="98"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -21269,7 +21309,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="96">
+      <c r="A27" s="100">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -21284,7 +21324,7 @@
       <c r="E27" s="82"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="97"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -21299,7 +21339,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="97"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -21314,7 +21354,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="97"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -21329,7 +21369,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="97"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -21344,7 +21384,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="97"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -21359,7 +21399,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="97"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -21374,7 +21414,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="97"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -21389,7 +21429,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="97"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -21400,7 +21440,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="98"/>
+      <c r="A36" s="102"/>
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -21435,7 +21475,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="96">
+      <c r="A39" s="100">
         <v>4</v>
       </c>
       <c r="B39" s="1">
@@ -21450,7 +21490,7 @@
       <c r="E39" s="82"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="97"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -21465,7 +21505,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="97"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -21480,7 +21520,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="97"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="1">
         <v>4</v>
       </c>
@@ -21495,7 +21535,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="97"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="1">
         <v>5</v>
       </c>
@@ -21510,7 +21550,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="97"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="1">
         <v>6</v>
       </c>
@@ -21525,7 +21565,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="97"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="1">
         <v>7</v>
       </c>
@@ -21536,7 +21576,7 @@
       <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="97"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -21547,7 +21587,7 @@
       <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="97"/>
+      <c r="A47" s="101"/>
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -21558,7 +21598,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="98"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="1">
         <v>10</v>
       </c>
@@ -21593,7 +21633,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="96">
+      <c r="A51" s="100">
         <v>5</v>
       </c>
       <c r="B51" s="1">
@@ -21608,7 +21648,7 @@
       <c r="E51" s="82"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="97"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -21623,7 +21663,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="97"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -21638,7 +21678,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="97"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -21653,7 +21693,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="97"/>
+      <c r="A55" s="101"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -21668,7 +21708,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="97"/>
+      <c r="A56" s="101"/>
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -21683,7 +21723,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="97"/>
+      <c r="A57" s="101"/>
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -21698,7 +21738,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="97"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -21713,7 +21753,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="97"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -21728,7 +21768,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="98"/>
+      <c r="A60" s="102"/>
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -21763,7 +21803,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="96">
+      <c r="A63" s="100">
         <v>6</v>
       </c>
       <c r="B63" s="1">
@@ -21778,7 +21818,7 @@
       <c r="E63" s="82"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="97"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="1">
         <v>2</v>
       </c>
@@ -21793,7 +21833,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="97"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="1">
         <v>3</v>
       </c>
@@ -21808,7 +21848,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="97"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="1">
         <v>4</v>
       </c>
@@ -21823,7 +21863,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="97"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="1">
         <v>5</v>
       </c>
@@ -21838,7 +21878,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="97"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="1">
         <v>6</v>
       </c>
@@ -21853,7 +21893,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="97"/>
+      <c r="A69" s="101"/>
       <c r="B69" s="1">
         <v>7</v>
       </c>
@@ -21868,7 +21908,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="97"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="1">
         <v>8</v>
       </c>
@@ -21883,7 +21923,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="97"/>
+      <c r="A71" s="101"/>
       <c r="B71" s="1">
         <v>9</v>
       </c>
@@ -21898,7 +21938,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="98"/>
+      <c r="A72" s="102"/>
       <c r="B72" s="1">
         <v>10</v>
       </c>
@@ -21933,7 +21973,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="96">
+      <c r="A75" s="100">
         <v>7</v>
       </c>
       <c r="B75" s="1">
@@ -21948,7 +21988,7 @@
       <c r="E75" s="82"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="97"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="1">
         <v>2</v>
       </c>
@@ -21963,7 +22003,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="97"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="1">
         <v>3</v>
       </c>
@@ -21978,7 +22018,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="97"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="1">
         <v>4</v>
       </c>
@@ -21993,7 +22033,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="97"/>
+      <c r="A79" s="101"/>
       <c r="B79" s="1">
         <v>5</v>
       </c>
@@ -22008,7 +22048,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="97"/>
+      <c r="A80" s="101"/>
       <c r="B80" s="1">
         <v>6</v>
       </c>
@@ -22023,7 +22063,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="97"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="1">
         <v>7</v>
       </c>
@@ -22038,7 +22078,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="97"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="1">
         <v>8</v>
       </c>
@@ -22053,7 +22093,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="97"/>
+      <c r="A83" s="101"/>
       <c r="B83" s="1">
         <v>9</v>
       </c>
@@ -22068,7 +22108,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="98"/>
+      <c r="A84" s="102"/>
       <c r="B84" s="1">
         <v>10</v>
       </c>
@@ -22103,7 +22143,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="96">
+      <c r="A87" s="100">
         <v>8</v>
       </c>
       <c r="B87" s="1">
@@ -22118,7 +22158,7 @@
       <c r="E87" s="82"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="97"/>
+      <c r="A88" s="101"/>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -22133,7 +22173,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="97"/>
+      <c r="A89" s="101"/>
       <c r="B89" s="1">
         <v>3</v>
       </c>
@@ -22148,7 +22188,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="97"/>
+      <c r="A90" s="101"/>
       <c r="B90" s="1">
         <v>4</v>
       </c>
@@ -22163,7 +22203,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="97"/>
+      <c r="A91" s="101"/>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -22178,7 +22218,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="97"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -22193,7 +22233,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="97"/>
+      <c r="A93" s="101"/>
       <c r="B93" s="1">
         <v>7</v>
       </c>
@@ -22208,7 +22248,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="97"/>
+      <c r="A94" s="101"/>
       <c r="B94" s="1">
         <v>8</v>
       </c>
@@ -22219,7 +22259,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="97"/>
+      <c r="A95" s="101"/>
       <c r="B95" s="1">
         <v>9</v>
       </c>
@@ -22230,7 +22270,7 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="98"/>
+      <c r="A96" s="102"/>
       <c r="B96" s="1">
         <v>10</v>
       </c>
@@ -22265,7 +22305,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="96">
+      <c r="A99" s="100">
         <v>9</v>
       </c>
       <c r="B99" s="1">
@@ -22280,7 +22320,7 @@
       <c r="E99" s="82"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="97"/>
+      <c r="A100" s="101"/>
       <c r="B100" s="1">
         <v>2</v>
       </c>
@@ -22295,7 +22335,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="97"/>
+      <c r="A101" s="101"/>
       <c r="B101" s="1">
         <v>3</v>
       </c>
@@ -22310,7 +22350,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="97"/>
+      <c r="A102" s="101"/>
       <c r="B102" s="1">
         <v>4</v>
       </c>
@@ -22325,7 +22365,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="97"/>
+      <c r="A103" s="101"/>
       <c r="B103" s="1">
         <v>5</v>
       </c>
@@ -22340,7 +22380,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="97"/>
+      <c r="A104" s="101"/>
       <c r="B104" s="1">
         <v>6</v>
       </c>
@@ -22355,7 +22395,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="97"/>
+      <c r="A105" s="101"/>
       <c r="B105" s="1">
         <v>7</v>
       </c>
@@ -22370,7 +22410,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="97"/>
+      <c r="A106" s="101"/>
       <c r="B106" s="1">
         <v>8</v>
       </c>
@@ -22381,7 +22421,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="97"/>
+      <c r="A107" s="101"/>
       <c r="B107" s="1">
         <v>9</v>
       </c>
@@ -22392,7 +22432,7 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="98"/>
+      <c r="A108" s="102"/>
       <c r="B108" s="1">
         <v>10</v>
       </c>
@@ -22427,7 +22467,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="96">
+      <c r="A111" s="100">
         <v>10</v>
       </c>
       <c r="B111" s="1">
@@ -22442,7 +22482,7 @@
       <c r="E111" s="82"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="97"/>
+      <c r="A112" s="101"/>
       <c r="B112" s="1">
         <v>2</v>
       </c>
@@ -22457,7 +22497,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="97"/>
+      <c r="A113" s="101"/>
       <c r="B113" s="1">
         <v>3</v>
       </c>
@@ -22472,7 +22512,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="97"/>
+      <c r="A114" s="101"/>
       <c r="B114" s="1">
         <v>4</v>
       </c>
@@ -22487,7 +22527,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="97"/>
+      <c r="A115" s="101"/>
       <c r="B115" s="1">
         <v>5</v>
       </c>
@@ -22502,7 +22542,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="97"/>
+      <c r="A116" s="101"/>
       <c r="B116" s="1">
         <v>6</v>
       </c>
@@ -22517,7 +22557,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="97"/>
+      <c r="A117" s="101"/>
       <c r="B117" s="1">
         <v>7</v>
       </c>
@@ -22532,7 +22572,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="97"/>
+      <c r="A118" s="101"/>
       <c r="B118" s="1">
         <v>8</v>
       </c>
@@ -22547,7 +22587,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="97"/>
+      <c r="A119" s="101"/>
       <c r="B119" s="1">
         <v>9</v>
       </c>
@@ -22558,7 +22598,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="98"/>
+      <c r="A120" s="102"/>
       <c r="B120" s="1">
         <v>10</v>
       </c>
@@ -22593,7 +22633,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="96">
+      <c r="A123" s="100">
         <v>11</v>
       </c>
       <c r="B123" s="1">
@@ -22608,7 +22648,7 @@
       <c r="E123" s="82"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="97"/>
+      <c r="A124" s="101"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -22623,7 +22663,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="97"/>
+      <c r="A125" s="101"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -22638,7 +22678,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="97"/>
+      <c r="A126" s="101"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -22653,7 +22693,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="97"/>
+      <c r="A127" s="101"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -22668,7 +22708,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="97"/>
+      <c r="A128" s="101"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -22683,7 +22723,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="97"/>
+      <c r="A129" s="101"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -22698,7 +22738,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="97"/>
+      <c r="A130" s="101"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -22709,7 +22749,7 @@
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="97"/>
+      <c r="A131" s="101"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -22720,7 +22760,7 @@
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="98"/>
+      <c r="A132" s="102"/>
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -22755,7 +22795,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="96">
+      <c r="A135" s="100">
         <v>12</v>
       </c>
       <c r="B135" s="1">
@@ -22770,7 +22810,7 @@
       <c r="E135" s="82"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="97"/>
+      <c r="A136" s="101"/>
       <c r="B136" s="1">
         <v>2</v>
       </c>
@@ -22785,7 +22825,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="97"/>
+      <c r="A137" s="101"/>
       <c r="B137" s="1">
         <v>3</v>
       </c>
@@ -22800,7 +22840,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="97"/>
+      <c r="A138" s="101"/>
       <c r="B138" s="1">
         <v>4</v>
       </c>
@@ -22815,7 +22855,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="97"/>
+      <c r="A139" s="101"/>
       <c r="B139" s="1">
         <v>5</v>
       </c>
@@ -22830,7 +22870,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="97"/>
+      <c r="A140" s="101"/>
       <c r="B140" s="1">
         <v>6</v>
       </c>
@@ -22845,7 +22885,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="97"/>
+      <c r="A141" s="101"/>
       <c r="B141" s="1">
         <v>7</v>
       </c>
@@ -22860,7 +22900,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="97"/>
+      <c r="A142" s="101"/>
       <c r="B142" s="1">
         <v>8</v>
       </c>
@@ -22871,7 +22911,7 @@
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="97"/>
+      <c r="A143" s="101"/>
       <c r="B143" s="1">
         <v>9</v>
       </c>
@@ -22882,7 +22922,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="98"/>
+      <c r="A144" s="102"/>
       <c r="B144" s="1">
         <v>10</v>
       </c>
@@ -22917,7 +22957,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="102">
+      <c r="A147" s="97">
         <v>13</v>
       </c>
       <c r="B147" s="1">
@@ -22930,7 +22970,7 @@
       <c r="E147" s="82"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="102"/>
+      <c r="A148" s="97"/>
       <c r="B148" s="1">
         <v>2</v>
       </c>
@@ -22943,7 +22983,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="102"/>
+      <c r="A149" s="97"/>
       <c r="B149" s="1">
         <v>3</v>
       </c>
@@ -22956,7 +22996,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="102"/>
+      <c r="A150" s="97"/>
       <c r="B150" s="1">
         <v>4</v>
       </c>
@@ -22969,7 +23009,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="102"/>
+      <c r="A151" s="97"/>
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -22982,7 +23022,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="102"/>
+      <c r="A152" s="97"/>
       <c r="B152" s="1">
         <v>6</v>
       </c>
@@ -23008,7 +23048,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="102">
+      <c r="A155" s="97">
         <v>14</v>
       </c>
       <c r="B155" s="1">
@@ -23021,7 +23061,7 @@
       <c r="E155" s="82"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="102"/>
+      <c r="A156" s="97"/>
       <c r="B156" s="1">
         <v>2</v>
       </c>
@@ -23034,7 +23074,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="102"/>
+      <c r="A157" s="97"/>
       <c r="B157" s="1">
         <v>3</v>
       </c>
@@ -23047,7 +23087,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="102"/>
+      <c r="A158" s="97"/>
       <c r="B158" s="1">
         <v>4</v>
       </c>
@@ -23060,7 +23100,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="102"/>
+      <c r="A159" s="97"/>
       <c r="B159" s="1">
         <v>5</v>
       </c>
@@ -23073,7 +23113,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="102"/>
+      <c r="A160" s="97"/>
       <c r="B160" s="1">
         <v>6</v>
       </c>
@@ -23099,7 +23139,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="102">
+      <c r="A163" s="97">
         <v>15</v>
       </c>
       <c r="B163" s="1">
@@ -23112,7 +23152,7 @@
       <c r="E163" s="82"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="102"/>
+      <c r="A164" s="97"/>
       <c r="B164" s="1">
         <v>2</v>
       </c>
@@ -23125,7 +23165,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="102"/>
+      <c r="A165" s="97"/>
       <c r="B165" s="1">
         <v>3</v>
       </c>
@@ -23138,7 +23178,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="102"/>
+      <c r="A166" s="97"/>
       <c r="B166" s="1">
         <v>4</v>
       </c>
@@ -23151,7 +23191,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="102"/>
+      <c r="A167" s="97"/>
       <c r="B167" s="1">
         <v>5</v>
       </c>
@@ -23164,7 +23204,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="102"/>
+      <c r="A168" s="97"/>
       <c r="B168" s="1">
         <v>6</v>
       </c>
@@ -23190,7 +23230,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="102">
+      <c r="A171" s="97">
         <v>16</v>
       </c>
       <c r="B171" s="1">
@@ -23203,7 +23243,7 @@
       <c r="E171" s="82"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="102"/>
+      <c r="A172" s="97"/>
       <c r="B172" s="1">
         <v>2</v>
       </c>
@@ -23216,7 +23256,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="102"/>
+      <c r="A173" s="97"/>
       <c r="B173" s="1">
         <v>3</v>
       </c>
@@ -23229,7 +23269,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="102"/>
+      <c r="A174" s="97"/>
       <c r="B174" s="1">
         <v>4</v>
       </c>
@@ -23242,7 +23282,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="102"/>
+      <c r="A175" s="97"/>
       <c r="B175" s="1">
         <v>5</v>
       </c>
@@ -23255,7 +23295,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="102"/>
+      <c r="A176" s="97"/>
       <c r="B176" s="1">
         <v>6</v>
       </c>
@@ -23281,7 +23321,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="96">
+      <c r="A179" s="100">
         <v>17</v>
       </c>
       <c r="B179" s="1">
@@ -23296,7 +23336,7 @@
       <c r="E179" s="82"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="97"/>
+      <c r="A180" s="101"/>
       <c r="B180" s="1">
         <v>2</v>
       </c>
@@ -23311,7 +23351,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="97"/>
+      <c r="A181" s="101"/>
       <c r="B181" s="1">
         <v>3</v>
       </c>
@@ -23326,7 +23366,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="97"/>
+      <c r="A182" s="101"/>
       <c r="B182" s="1">
         <v>4</v>
       </c>
@@ -23341,7 +23381,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="97"/>
+      <c r="A183" s="101"/>
       <c r="B183" s="1">
         <v>5</v>
       </c>
@@ -23356,7 +23396,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="97"/>
+      <c r="A184" s="101"/>
       <c r="B184" s="1">
         <v>6</v>
       </c>
@@ -23371,7 +23411,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="97"/>
+      <c r="A185" s="101"/>
       <c r="B185" s="1">
         <v>7</v>
       </c>
@@ -23386,7 +23426,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="97"/>
+      <c r="A186" s="101"/>
       <c r="B186" s="1">
         <v>8</v>
       </c>
@@ -23401,7 +23441,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="97"/>
+      <c r="A187" s="101"/>
       <c r="B187" s="1">
         <v>9</v>
       </c>
@@ -23416,7 +23456,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="98"/>
+      <c r="A188" s="102"/>
       <c r="B188" s="1">
         <v>10</v>
       </c>
@@ -23430,16 +23470,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -23447,6 +23477,16 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1484">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3556,10 +3556,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>矫正气缸，上料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>真空吸1，上料，产品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5593,6 +5589,26 @@
   </si>
   <si>
     <t>运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矫正气缸，上料</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘到位光纤，上料，产品盘2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘到位光纤，上料，空盘2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘到位光纤，下料，产品盘2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘到位光纤，下料，空盘2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9171,20 +9187,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9198,7 +9214,54 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="114300" y="114300"/>
+          <a:off x="762000" y="15897225"/>
+          <a:ext cx="9753600" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1647825" y="26022300"/>
           <a:ext cx="9753600" cy="7315200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9219,66 +9282,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7715250"/>
-          <a:ext cx="9753600" cy="7315200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9292,7 +9308,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="15259050"/>
+          <a:off x="485775" y="34251900"/>
           <a:ext cx="9753600" cy="7315200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9744,107 +9760,107 @@
     <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="141" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D2" s="84">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H2" s="141" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I2" s="140" t="s">
         <v>1116</v>
       </c>
-      <c r="I2" s="140" t="s">
-        <v>1117</v>
-      </c>
       <c r="J2" s="140" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="K2" s="84">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O2" s="141" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="P2" s="140" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Q2" s="140" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R2" s="84">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9855,10 +9871,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H3" s="141"/>
       <c r="I3" s="118"/>
@@ -9867,10 +9883,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="O3" s="141"/>
       <c r="P3" s="118"/>
@@ -9879,10 +9895,10 @@
         <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9893,10 +9909,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H4" s="141"/>
       <c r="I4" s="118"/>
@@ -9905,10 +9921,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O4" s="141"/>
       <c r="P4" s="118"/>
@@ -9917,10 +9933,10 @@
         <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
@@ -9931,10 +9947,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H5" s="141"/>
       <c r="I5" s="118"/>
@@ -10013,10 +10029,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H8" s="141"/>
       <c r="I8" s="118"/>
@@ -10025,10 +10041,10 @@
         <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="O8" s="141"/>
       <c r="P8" s="118"/>
@@ -10037,10 +10053,10 @@
         <v>7</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -10051,10 +10067,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H9" s="141"/>
       <c r="I9" s="118"/>
@@ -10063,10 +10079,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O9" s="141"/>
       <c r="P9" s="118"/>
@@ -10075,10 +10091,10 @@
         <v>8</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -10089,10 +10105,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H10" s="141"/>
       <c r="I10" s="118"/>
@@ -10119,10 +10135,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H11" s="141"/>
       <c r="I11" s="118"/>
@@ -10149,10 +10165,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H12" s="141"/>
       <c r="I12" s="118"/>
@@ -10179,10 +10195,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H13" s="141"/>
       <c r="I13" s="118"/>
@@ -10217,10 +10233,10 @@
         <v>13</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O14" s="141"/>
       <c r="P14" s="118"/>
@@ -10229,10 +10245,10 @@
         <v>13</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -10243,10 +10259,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H15" s="141"/>
       <c r="I15" s="118"/>
@@ -10255,10 +10271,10 @@
         <v>14</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O15" s="141"/>
       <c r="P15" s="118"/>
@@ -10267,10 +10283,10 @@
         <v>14</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -10281,10 +10297,10 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H16" s="141"/>
       <c r="I16" s="118"/>
@@ -10293,10 +10309,10 @@
         <v>15</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O16" s="141"/>
       <c r="P16" s="118"/>
@@ -10305,10 +10321,10 @@
         <v>15</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -10319,10 +10335,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H17" s="141"/>
       <c r="I17" s="118"/>
@@ -10331,10 +10347,10 @@
         <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O17" s="141"/>
       <c r="P17" s="118"/>
@@ -10343,10 +10359,10 @@
         <v>16</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -10357,10 +10373,10 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H18" s="141"/>
       <c r="I18" s="118"/>
@@ -10369,10 +10385,10 @@
         <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O18" s="141"/>
       <c r="P18" s="118"/>
@@ -10381,10 +10397,10 @@
         <v>17</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -10395,10 +10411,10 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H19" s="141"/>
       <c r="I19" s="118"/>
@@ -10407,10 +10423,10 @@
         <v>18</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O19" s="141"/>
       <c r="P19" s="118"/>
@@ -10419,10 +10435,10 @@
         <v>18</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -10433,10 +10449,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H20" s="141"/>
       <c r="I20" s="118"/>
@@ -10445,10 +10461,10 @@
         <v>19</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O20" s="141"/>
       <c r="P20" s="118"/>
@@ -10457,10 +10473,10 @@
         <v>19</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -10471,10 +10487,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H21" s="141"/>
       <c r="I21" s="118"/>
@@ -10483,10 +10499,10 @@
         <v>20</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O21" s="141"/>
       <c r="P21" s="118"/>
@@ -10495,10 +10511,10 @@
         <v>20</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -10509,10 +10525,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H22" s="141"/>
       <c r="I22" s="118"/>
@@ -10521,10 +10537,10 @@
         <v>21</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O22" s="141"/>
       <c r="P22" s="118"/>
@@ -10533,10 +10549,10 @@
         <v>21</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -10555,10 +10571,10 @@
         <v>22</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O23" s="141"/>
       <c r="P23" s="118"/>
@@ -10567,10 +10583,10 @@
         <v>22</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -10641,10 +10657,10 @@
         <v>25</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O26" s="141"/>
       <c r="P26" s="118"/>
@@ -10653,48 +10669,48 @@
         <v>25</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1">
       <c r="A29" s="141" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B29" s="140" t="s">
         <v>1050</v>
       </c>
-      <c r="B29" s="140" t="s">
-        <v>1051</v>
-      </c>
       <c r="C29" s="140" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D29" s="84">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1">
@@ -10705,10 +10721,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" customHeight="1">
@@ -10722,7 +10738,7 @@
         <v>259</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="13.5" customHeight="1">
@@ -10736,7 +10752,7 @@
         <v>261</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
@@ -10750,7 +10766,7 @@
         <v>263</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
@@ -10764,7 +10780,7 @@
         <v>265</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
@@ -10778,7 +10794,7 @@
         <v>267</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
@@ -10792,7 +10808,7 @@
         <v>269</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
@@ -10806,7 +10822,7 @@
         <v>271</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
@@ -10817,10 +10833,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
@@ -10834,7 +10850,7 @@
         <v>309</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
@@ -10848,7 +10864,7 @@
         <v>311</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
@@ -10862,7 +10878,7 @@
         <v>313</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
@@ -10876,7 +10892,7 @@
         <v>315</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
@@ -10890,7 +10906,7 @@
         <v>317</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
@@ -10911,10 +10927,10 @@
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
@@ -10925,10 +10941,10 @@
         <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
@@ -10939,10 +10955,10 @@
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
@@ -10956,7 +10972,7 @@
         <v>275</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
@@ -10970,7 +10986,7 @@
         <v>277</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
@@ -10984,7 +11000,7 @@
         <v>279</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
@@ -10998,7 +11014,7 @@
         <v>281</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
@@ -11012,7 +11028,7 @@
         <v>283</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
@@ -11026,7 +11042,7 @@
         <v>285</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -11040,7 +11056,7 @@
         <v>287</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -11051,10 +11067,10 @@
         <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -11065,10 +11081,10 @@
         <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -11079,10 +11095,10 @@
         <v>29</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -11093,10 +11109,10 @@
         <v>30</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -11107,10 +11123,10 @@
         <v>31</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -11131,10 +11147,10 @@
         <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -11145,10 +11161,10 @@
         <v>34</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -11159,10 +11175,10 @@
         <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -11176,7 +11192,7 @@
         <v>291</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -11190,7 +11206,7 @@
         <v>293</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -11204,7 +11220,7 @@
         <v>295</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -11218,7 +11234,7 @@
         <v>297</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -11232,7 +11248,7 @@
         <v>299</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11246,7 +11262,7 @@
         <v>301</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -11260,7 +11276,7 @@
         <v>303</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -11271,10 +11287,10 @@
         <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11285,10 +11301,10 @@
         <v>44</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -11299,10 +11315,10 @@
         <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11313,10 +11329,10 @@
         <v>46</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11327,10 +11343,10 @@
         <v>47</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11403,36 +11419,36 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="118" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D2" s="118" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="118"/>
       <c r="B3" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D3" s="118"/>
       <c r="E3" s="81"/>
@@ -11440,10 +11456,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="118"/>
       <c r="B4" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D4" s="118"/>
       <c r="E4" s="81"/>
@@ -11451,23 +11467,23 @@
     <row r="5" spans="1:5">
       <c r="A5" s="118"/>
       <c r="B5" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1188</v>
-      </c>
       <c r="D5" s="118" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="118"/>
       <c r="B6" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1190</v>
       </c>
       <c r="D6" s="118"/>
       <c r="E6" s="81"/>
@@ -11475,10 +11491,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="118"/>
       <c r="B7" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1192</v>
       </c>
       <c r="D7" s="118"/>
       <c r="E7" s="81"/>
@@ -11486,23 +11502,23 @@
     <row r="8" spans="1:5">
       <c r="A8" s="118"/>
       <c r="B8" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D8" s="118" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="118"/>
       <c r="B9" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D9" s="118"/>
       <c r="E9" s="81"/>
@@ -11510,10 +11526,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="118"/>
       <c r="B10" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D10" s="118"/>
       <c r="E10" s="81"/>
@@ -11521,23 +11537,23 @@
     <row r="11" spans="1:5">
       <c r="A11" s="118"/>
       <c r="B11" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="118"/>
       <c r="B12" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="81"/>
@@ -11545,309 +11561,309 @@
     <row r="13" spans="1:5">
       <c r="A13" s="118"/>
       <c r="B13" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D13" s="118"/>
       <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>1219</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1220</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="79"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>1221</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1222</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="79"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>1225</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="79"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>1226</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>1227</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1228</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="79"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>1240</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1241</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="79"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>1242</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>1243</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1244</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>1249</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1250</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="79"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>1252</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1253</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="79"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>1255</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>1256</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="79"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1279</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1280</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>1281</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1282</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>1283</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1284</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>1292</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1293</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>1294</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1295</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>1302</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1303</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>1298</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>1299</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>1305</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>1306</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="23" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>1307</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>1308</v>
-      </c>
       <c r="C31" s="23" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="23" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>1311</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="23" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>1470</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="88" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I39" s="88" t="s">
         <v>1235</v>
-      </c>
-      <c r="I39" s="88" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="F40" s="88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G40" s="88" t="s">
         <v>1231</v>
-      </c>
-      <c r="G40" s="88" t="s">
-        <v>1232</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" ht="27">
       <c r="F41" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="89" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="2:9">
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="89"/>
     </row>
     <row r="43" spans="2:9" ht="27">
       <c r="F43" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="89" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -11882,34 +11898,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="118" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C1" s="1">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="118"/>
       <c r="B2" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C2" s="1">
         <v>5000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="118"/>
       <c r="B3" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -11919,39 +11935,39 @@
     <row r="4" spans="1:4">
       <c r="A4" s="118"/>
       <c r="B4" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="118" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C6" s="1">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="118"/>
       <c r="B7" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11965,25 +11981,25 @@
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C10" s="1">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="118"/>
       <c r="B11" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C11" s="1">
         <v>10000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12022,11 +12038,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="A1" s="142" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1" s="143"/>
       <c r="C1" s="90" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D1" s="90">
         <v>20170308</v>
@@ -12040,16 +12056,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="91" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B3" s="91" t="s">
         <v>1265</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="C3" s="91" t="s">
         <v>1266</v>
       </c>
-      <c r="C3" s="91" t="s">
-        <v>1267</v>
-      </c>
       <c r="D3" s="91" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12057,13 +12073,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12071,13 +12087,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12085,13 +12101,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12099,13 +12115,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12113,13 +12129,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C8" s="90">
         <v>2</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12127,13 +12143,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C9" s="90">
         <v>2</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12141,13 +12157,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C10" s="90">
         <v>4</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12155,13 +12171,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C11" s="90">
         <v>4</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12169,13 +12185,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C12" s="90">
         <v>1</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12183,13 +12199,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C13" s="90">
         <v>1</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12243,7 +12259,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12256,7 +12272,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="146" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
@@ -12270,13 +12286,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="92" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>1286</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="C3" s="116" t="s">
         <v>1287</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>1288</v>
       </c>
       <c r="D3" s="116"/>
     </row>
@@ -12285,7 +12301,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="93">
@@ -12297,7 +12313,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C5" s="93">
         <v>42805</v>
@@ -12311,7 +12327,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C6" s="93">
         <v>42807</v>
@@ -12336,7 +12352,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12348,24 +12364,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="91" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C1" s="91" t="s">
         <v>1318</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C1" s="91" t="s">
+      <c r="D1" s="91" t="s">
         <v>1319</v>
-      </c>
-      <c r="D1" s="91" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -12376,10 +12392,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1321</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1322</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -12390,10 +12406,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1323</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1324</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -12404,10 +12420,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -12418,16 +12434,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -12459,14 +12475,14 @@
     <row r="1" spans="1:8" ht="14.25" thickBot="1">
       <c r="A1" s="111"/>
       <c r="B1" s="112" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C1" s="113" t="s">
         <v>1333</v>
-      </c>
-      <c r="C1" s="113" t="s">
-        <v>1334</v>
       </c>
       <c r="D1" s="113"/>
       <c r="E1" s="113" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="113"/>
       <c r="G1" s="113"/>
@@ -12480,19 +12496,19 @@
         <v>512</v>
       </c>
       <c r="C2" s="103" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E2" s="103">
         <v>512</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G2" s="108" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H2" s="147"/>
     </row>
@@ -12504,14 +12520,14 @@
         <v>513</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="94">
         <v>513</v>
       </c>
       <c r="F3" s="94" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G3" s="109"/>
       <c r="H3" s="148"/>
@@ -12524,17 +12540,17 @@
         <v>514</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D4" s="94"/>
       <c r="E4" s="94">
         <v>514</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G4" s="109" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H4" s="148"/>
     </row>
@@ -12546,14 +12562,14 @@
         <v>515</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="94">
         <v>515</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G5" s="109"/>
       <c r="H5" s="148"/>
@@ -12566,14 +12582,14 @@
         <v>516</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D6" s="94"/>
       <c r="E6" s="94">
         <v>516</v>
       </c>
       <c r="F6" s="94" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G6" s="109"/>
       <c r="H6" s="148"/>
@@ -12586,14 +12602,14 @@
         <v>517</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="94">
         <v>517</v>
       </c>
       <c r="F7" s="94" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G7" s="109"/>
       <c r="H7" s="148"/>
@@ -12606,14 +12622,14 @@
         <v>518</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D8" s="94"/>
       <c r="E8" s="94">
         <v>518</v>
       </c>
       <c r="F8" s="94" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G8" s="109"/>
       <c r="H8" s="148"/>
@@ -12626,14 +12642,14 @@
         <v>519</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="94">
         <v>519</v>
       </c>
       <c r="F9" s="94" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="148"/>
@@ -12646,17 +12662,17 @@
         <v>520</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D10" s="94"/>
       <c r="E10" s="94">
         <v>520</v>
       </c>
       <c r="F10" s="94" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G10" s="109" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H10" s="148"/>
     </row>
@@ -12668,14 +12684,14 @@
         <v>521</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D11" s="94"/>
       <c r="E11" s="94">
         <v>521</v>
       </c>
       <c r="F11" s="94" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G11" s="109"/>
       <c r="H11" s="148"/>
@@ -12688,14 +12704,14 @@
         <v>522</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D12" s="94"/>
       <c r="E12" s="94">
         <v>522</v>
       </c>
       <c r="F12" s="94" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G12" s="109"/>
       <c r="H12" s="148"/>
@@ -12708,14 +12724,14 @@
         <v>523</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D13" s="94"/>
       <c r="E13" s="94">
         <v>523</v>
       </c>
       <c r="F13" s="94" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G13" s="109"/>
       <c r="H13" s="148"/>
@@ -12728,16 +12744,16 @@
         <v>524</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E14" s="94">
         <v>524</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G14" s="109"/>
       <c r="H14" s="148"/>
@@ -12750,14 +12766,14 @@
         <v>525</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D15" s="94"/>
       <c r="E15" s="94">
         <v>525</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="148"/>
@@ -12770,14 +12786,14 @@
         <v>526</v>
       </c>
       <c r="C16" s="94" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D16" s="94"/>
       <c r="E16" s="94">
         <v>526</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G16" s="109"/>
       <c r="H16" s="148"/>
@@ -12790,14 +12806,14 @@
         <v>527</v>
       </c>
       <c r="C17" s="106" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D17" s="106"/>
       <c r="E17" s="106">
         <v>527</v>
       </c>
       <c r="F17" s="106" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G17" s="110"/>
       <c r="H17" s="149"/>
@@ -12810,17 +12826,17 @@
         <v>528</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D18" s="103"/>
       <c r="E18" s="103">
         <v>528</v>
       </c>
       <c r="F18" s="103" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H18" s="147"/>
     </row>
@@ -12832,17 +12848,17 @@
         <v>529</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94">
         <v>529</v>
       </c>
       <c r="F19" s="94" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G19" s="109" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H19" s="148"/>
     </row>
@@ -12854,14 +12870,14 @@
         <v>530</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D20" s="94"/>
       <c r="E20" s="94">
         <v>530</v>
       </c>
       <c r="F20" s="94" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G20" s="109"/>
       <c r="H20" s="148"/>
@@ -12874,14 +12890,14 @@
         <v>531</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D21" s="94"/>
       <c r="E21" s="94">
         <v>531</v>
       </c>
       <c r="F21" s="94" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G21" s="109"/>
       <c r="H21" s="148"/>
@@ -12894,14 +12910,14 @@
         <v>532</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D22" s="94"/>
       <c r="E22" s="94">
         <v>532</v>
       </c>
       <c r="F22" s="94" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G22" s="109"/>
       <c r="H22" s="148"/>
@@ -12914,14 +12930,14 @@
         <v>533</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D23" s="94"/>
       <c r="E23" s="94">
         <v>533</v>
       </c>
       <c r="F23" s="94" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G23" s="109"/>
       <c r="H23" s="148"/>
@@ -12934,14 +12950,14 @@
         <v>534</v>
       </c>
       <c r="C24" s="94" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D24" s="94"/>
       <c r="E24" s="94">
         <v>534</v>
       </c>
       <c r="F24" s="94" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G24" s="109"/>
       <c r="H24" s="148"/>
@@ -12954,16 +12970,16 @@
         <v>535</v>
       </c>
       <c r="C25" s="94" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E25" s="94">
         <v>535</v>
       </c>
       <c r="F25" s="94" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G25" s="109"/>
       <c r="H25" s="148"/>
@@ -12976,16 +12992,16 @@
         <v>536</v>
       </c>
       <c r="C26" s="94" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D26" s="94" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E26" s="94">
         <v>536</v>
       </c>
       <c r="F26" s="94" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G26" s="109"/>
       <c r="H26" s="148"/>
@@ -12998,16 +13014,16 @@
         <v>537</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D27" s="94" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E27" s="94">
         <v>537</v>
       </c>
       <c r="F27" s="94" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G27" s="109"/>
       <c r="H27" s="148"/>
@@ -13020,16 +13036,16 @@
         <v>538</v>
       </c>
       <c r="C28" s="94" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E28" s="94">
         <v>538</v>
       </c>
       <c r="F28" s="94" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G28" s="109"/>
       <c r="H28" s="148"/>
@@ -13042,16 +13058,16 @@
         <v>539</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D29" s="94" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E29" s="94">
         <v>539</v>
       </c>
       <c r="F29" s="94" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G29" s="109"/>
       <c r="H29" s="148"/>
@@ -13064,16 +13080,16 @@
         <v>540</v>
       </c>
       <c r="C30" s="94" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E30" s="94">
         <v>540</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G30" s="109"/>
       <c r="H30" s="148"/>
@@ -13086,14 +13102,14 @@
         <v>541</v>
       </c>
       <c r="C31" s="94" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D31" s="94"/>
       <c r="E31" s="94">
         <v>541</v>
       </c>
       <c r="F31" s="94" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G31" s="109"/>
       <c r="H31" s="148"/>
@@ -13106,14 +13122,14 @@
         <v>542</v>
       </c>
       <c r="C32" s="94" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D32" s="94"/>
       <c r="E32" s="94">
         <v>542</v>
       </c>
       <c r="F32" s="94" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G32" s="109"/>
       <c r="H32" s="148"/>
@@ -13126,14 +13142,14 @@
         <v>543</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D33" s="106"/>
       <c r="E33" s="106">
         <v>543</v>
       </c>
       <c r="F33" s="106" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G33" s="110"/>
       <c r="H33" s="149"/>
@@ -13146,14 +13162,14 @@
         <v>544</v>
       </c>
       <c r="C34" s="103" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D34" s="103"/>
       <c r="E34" s="103">
         <v>544</v>
       </c>
       <c r="F34" s="103" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G34" s="108"/>
       <c r="H34" s="147"/>
@@ -13166,14 +13182,14 @@
         <v>545</v>
       </c>
       <c r="C35" s="94" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D35" s="94"/>
       <c r="E35" s="94">
         <v>545</v>
       </c>
       <c r="F35" s="94" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G35" s="109"/>
       <c r="H35" s="148"/>
@@ -13186,14 +13202,14 @@
         <v>546</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D36" s="94"/>
       <c r="E36" s="94">
         <v>546</v>
       </c>
       <c r="F36" s="94" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G36" s="109"/>
       <c r="H36" s="148"/>
@@ -13206,14 +13222,14 @@
         <v>547</v>
       </c>
       <c r="C37" s="94" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D37" s="94"/>
       <c r="E37" s="94">
         <v>547</v>
       </c>
       <c r="F37" s="94" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G37" s="109"/>
       <c r="H37" s="148"/>
@@ -13226,14 +13242,14 @@
         <v>548</v>
       </c>
       <c r="C38" s="94" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D38" s="94"/>
       <c r="E38" s="94">
         <v>548</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G38" s="109"/>
       <c r="H38" s="148"/>
@@ -13246,14 +13262,14 @@
         <v>549</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D39" s="94"/>
       <c r="E39" s="94">
         <v>549</v>
       </c>
       <c r="F39" s="94" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G39" s="109"/>
       <c r="H39" s="148"/>
@@ -13266,14 +13282,14 @@
         <v>550</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D40" s="94"/>
       <c r="E40" s="94">
         <v>550</v>
       </c>
       <c r="F40" s="94" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G40" s="109"/>
       <c r="H40" s="148"/>
@@ -13286,14 +13302,14 @@
         <v>551</v>
       </c>
       <c r="C41" s="94" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D41" s="94"/>
       <c r="E41" s="94">
         <v>551</v>
       </c>
       <c r="F41" s="94" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G41" s="109"/>
       <c r="H41" s="148"/>
@@ -13306,14 +13322,14 @@
         <v>552</v>
       </c>
       <c r="C42" s="94" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D42" s="94"/>
       <c r="E42" s="94">
         <v>552</v>
       </c>
       <c r="F42" s="94" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G42" s="109"/>
       <c r="H42" s="148"/>
@@ -13326,14 +13342,14 @@
         <v>553</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D43" s="94"/>
       <c r="E43" s="94">
         <v>553</v>
       </c>
       <c r="F43" s="94" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G43" s="109"/>
       <c r="H43" s="148"/>
@@ -13346,14 +13362,14 @@
         <v>554</v>
       </c>
       <c r="C44" s="94" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D44" s="94"/>
       <c r="E44" s="94">
         <v>554</v>
       </c>
       <c r="F44" s="94" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G44" s="109"/>
       <c r="H44" s="148"/>
@@ -13366,14 +13382,14 @@
         <v>555</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D45" s="94"/>
       <c r="E45" s="94">
         <v>555</v>
       </c>
       <c r="F45" s="94" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G45" s="109"/>
       <c r="H45" s="148"/>
@@ -13386,14 +13402,14 @@
         <v>556</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D46" s="94"/>
       <c r="E46" s="94">
         <v>556</v>
       </c>
       <c r="F46" s="94" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G46" s="109"/>
       <c r="H46" s="148"/>
@@ -13406,14 +13422,14 @@
         <v>557</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D47" s="94"/>
       <c r="E47" s="94">
         <v>557</v>
       </c>
       <c r="F47" s="94" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G47" s="109"/>
       <c r="H47" s="148"/>
@@ -13426,14 +13442,14 @@
         <v>558</v>
       </c>
       <c r="C48" s="94" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D48" s="94"/>
       <c r="E48" s="94">
         <v>558</v>
       </c>
       <c r="F48" s="94" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G48" s="109"/>
       <c r="H48" s="148"/>
@@ -13446,14 +13462,14 @@
         <v>559</v>
       </c>
       <c r="C49" s="106" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D49" s="106"/>
       <c r="E49" s="106">
         <v>559</v>
       </c>
       <c r="F49" s="106" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G49" s="110"/>
       <c r="H49" s="149"/>
@@ -13466,14 +13482,14 @@
         <v>560</v>
       </c>
       <c r="C50" s="103" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D50" s="103"/>
       <c r="E50" s="103">
         <v>560</v>
       </c>
       <c r="F50" s="103" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G50" s="108"/>
       <c r="H50" s="147"/>
@@ -13486,14 +13502,14 @@
         <v>561</v>
       </c>
       <c r="C51" s="94" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D51" s="94"/>
       <c r="E51" s="94">
         <v>561</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G51" s="109"/>
       <c r="H51" s="148"/>
@@ -13506,14 +13522,14 @@
         <v>562</v>
       </c>
       <c r="C52" s="94" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D52" s="94"/>
       <c r="E52" s="94">
         <v>562</v>
       </c>
       <c r="F52" s="94" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G52" s="109"/>
       <c r="H52" s="148"/>
@@ -13526,14 +13542,14 @@
         <v>563</v>
       </c>
       <c r="C53" s="94" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D53" s="94"/>
       <c r="E53" s="94">
         <v>563</v>
       </c>
       <c r="F53" s="94" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G53" s="109"/>
       <c r="H53" s="148"/>
@@ -13546,14 +13562,14 @@
         <v>564</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D54" s="94"/>
       <c r="E54" s="94">
         <v>564</v>
       </c>
       <c r="F54" s="94" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G54" s="109"/>
       <c r="H54" s="148"/>
@@ -13566,14 +13582,14 @@
         <v>565</v>
       </c>
       <c r="C55" s="94" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D55" s="94"/>
       <c r="E55" s="94">
         <v>565</v>
       </c>
       <c r="F55" s="94" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G55" s="109"/>
       <c r="H55" s="148"/>
@@ -13586,14 +13602,14 @@
         <v>566</v>
       </c>
       <c r="C56" s="94" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D56" s="94"/>
       <c r="E56" s="94">
         <v>566</v>
       </c>
       <c r="F56" s="94" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G56" s="109"/>
       <c r="H56" s="148"/>
@@ -13606,14 +13622,14 @@
         <v>567</v>
       </c>
       <c r="C57" s="94" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="94">
         <v>567</v>
       </c>
       <c r="F57" s="94" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G57" s="109"/>
       <c r="H57" s="148"/>
@@ -13626,14 +13642,14 @@
         <v>568</v>
       </c>
       <c r="C58" s="94" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="94">
         <v>568</v>
       </c>
       <c r="F58" s="94" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G58" s="109"/>
       <c r="H58" s="148"/>
@@ -13646,14 +13662,14 @@
         <v>569</v>
       </c>
       <c r="C59" s="94" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="94">
         <v>569</v>
       </c>
       <c r="F59" s="94" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G59" s="109"/>
       <c r="H59" s="148"/>
@@ -13666,14 +13682,14 @@
         <v>570</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="94">
         <v>570</v>
       </c>
       <c r="F60" s="94" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G60" s="109"/>
       <c r="H60" s="148"/>
@@ -13686,14 +13702,14 @@
         <v>571</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="94">
         <v>571</v>
       </c>
       <c r="F61" s="94" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G61" s="109"/>
       <c r="H61" s="148"/>
@@ -13706,14 +13722,14 @@
         <v>572</v>
       </c>
       <c r="C62" s="94" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="94">
         <v>572</v>
       </c>
       <c r="F62" s="94" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G62" s="109"/>
       <c r="H62" s="148"/>
@@ -13726,14 +13742,14 @@
         <v>573</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="94">
         <v>573</v>
       </c>
       <c r="F63" s="94" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G63" s="109"/>
       <c r="H63" s="148"/>
@@ -13746,14 +13762,14 @@
         <v>574</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="94">
         <v>574</v>
       </c>
       <c r="F64" s="94" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G64" s="109"/>
       <c r="H64" s="148"/>
@@ -13766,14 +13782,14 @@
         <v>575</v>
       </c>
       <c r="C65" s="106" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D65" s="107"/>
       <c r="E65" s="106">
         <v>575</v>
       </c>
       <c r="F65" s="106" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G65" s="110"/>
       <c r="H65" s="149"/>
@@ -13947,8 +13963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="P95" sqref="P95"/>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="P231" sqref="P231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14193,7 +14209,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
@@ -17204,8 +17220,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17286,7 +17302,7 @@
         <v>307</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -17300,7 +17316,7 @@
         <v>259</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -17310,7 +17326,7 @@
         <v>309</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -17324,7 +17340,7 @@
         <v>261</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -17334,7 +17350,7 @@
         <v>311</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -17348,7 +17364,7 @@
         <v>263</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -17358,7 +17374,7 @@
         <v>313</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -17382,7 +17398,7 @@
         <v>315</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -17405,7 +17421,9 @@
       <c r="G9" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="25" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6">
@@ -17564,7 +17582,7 @@
         <v>331</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -17588,7 +17606,7 @@
         <v>333</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -17833,7 +17851,7 @@
         <v>341</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="1" t="s">
@@ -18131,7 +18149,7 @@
         <v>353</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="1" t="s">
@@ -18156,7 +18174,7 @@
         <v>354</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="1" t="s">
@@ -18181,7 +18199,7 @@
         <v>355</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="1" t="s">
@@ -18206,7 +18224,7 @@
         <v>356</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
@@ -18231,7 +18249,7 @@
         <v>357</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
@@ -18241,7 +18259,7 @@
         <v>393</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I48" s="118"/>
     </row>
@@ -18256,7 +18274,7 @@
         <v>358</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
@@ -18281,7 +18299,7 @@
         <v>359</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
@@ -18306,7 +18324,7 @@
         <v>360</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
@@ -18331,7 +18349,7 @@
         <v>361</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
@@ -18356,7 +18374,7 @@
         <v>836</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="4" t="s">
@@ -18365,9 +18383,7 @@
       <c r="G53" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>933</v>
-      </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="118"/>
     </row>
     <row r="54" spans="1:9">
@@ -18381,7 +18397,7 @@
         <v>363</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="4" t="s">
@@ -18391,7 +18407,7 @@
         <v>399</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I54" s="118"/>
     </row>
@@ -18406,7 +18422,7 @@
         <v>364</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="4" t="s">
@@ -18416,7 +18432,7 @@
         <v>400</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I55" s="118"/>
     </row>
@@ -18431,7 +18447,7 @@
         <v>365</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="1"/>
@@ -18450,7 +18466,7 @@
         <v>366</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="1"/>
@@ -18469,7 +18485,7 @@
         <v>367</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="1"/>
@@ -18488,7 +18504,7 @@
         <v>368</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="1"/>
@@ -18524,7 +18540,7 @@
         <v>370</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="1"/>
@@ -18543,7 +18559,7 @@
         <v>371</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="1"/>
@@ -18579,7 +18595,7 @@
         <v>373</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="1"/>
@@ -18598,7 +18614,7 @@
         <v>374</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="1"/>
@@ -18617,7 +18633,7 @@
         <v>375</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="1"/>
@@ -18636,7 +18652,7 @@
         <v>376</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="1"/>
@@ -18655,7 +18671,7 @@
         <v>452</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="1" t="s">
@@ -18665,7 +18681,7 @@
         <v>419</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I68" s="118" t="s">
         <v>536</v>
@@ -18682,7 +18698,7 @@
         <v>453</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
@@ -18692,7 +18708,7 @@
         <v>420</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I69" s="118"/>
     </row>
@@ -18707,7 +18723,7 @@
         <v>454</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
@@ -18717,7 +18733,7 @@
         <v>421</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I70" s="118"/>
     </row>
@@ -18732,7 +18748,7 @@
         <v>455</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
@@ -18742,7 +18758,7 @@
         <v>422</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I71" s="118"/>
     </row>
@@ -18757,7 +18773,7 @@
         <v>456</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
@@ -18767,7 +18783,7 @@
         <v>423</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I72" s="118"/>
     </row>
@@ -18782,7 +18798,7 @@
         <v>457</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -18792,7 +18808,7 @@
         <v>424</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I73" s="118"/>
     </row>
@@ -18807,7 +18823,7 @@
         <v>458</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -18817,7 +18833,7 @@
         <v>425</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I74" s="118"/>
     </row>
@@ -18832,7 +18848,7 @@
         <v>459</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -18855,7 +18871,7 @@
         <v>464</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="1"/>
@@ -18876,7 +18892,7 @@
         <v>465</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="1"/>
@@ -18895,7 +18911,7 @@
         <v>466</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="1"/>
@@ -18914,7 +18930,7 @@
         <v>467</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="1"/>
@@ -18933,7 +18949,7 @@
         <v>468</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="1"/>
@@ -18969,7 +18985,7 @@
         <v>470</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="1"/>
@@ -18988,7 +19004,7 @@
         <v>471</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="1"/>
@@ -19007,7 +19023,7 @@
         <v>472</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="1"/>
@@ -19026,7 +19042,7 @@
         <v>473</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -19045,7 +19061,7 @@
         <v>474</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="1"/>
@@ -19064,7 +19080,7 @@
         <v>475</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="1"/>
@@ -19083,7 +19099,7 @@
         <v>476</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="1"/>
@@ -19102,7 +19118,7 @@
         <v>477</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="1"/>
@@ -19155,7 +19171,7 @@
         <v>838</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="1"/>
@@ -19176,7 +19192,7 @@
         <v>839</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -19195,7 +19211,7 @@
         <v>840</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -19214,7 +19230,7 @@
         <v>841</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -19233,7 +19249,7 @@
         <v>842</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -19252,7 +19268,7 @@
         <v>843</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -19304,7 +19320,9 @@
       <c r="C100" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="D100" s="24"/>
+      <c r="D100" s="4" t="s">
+        <v>1480</v>
+      </c>
       <c r="E100" s="24"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -19321,7 +19339,9 @@
       <c r="C101" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="D101" s="24"/>
+      <c r="D101" s="4" t="s">
+        <v>1481</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -19338,7 +19358,9 @@
       <c r="C102" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="D102" s="24"/>
+      <c r="D102" s="4" t="s">
+        <v>1482</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -19355,7 +19377,9 @@
       <c r="C103" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="D103" s="24"/>
+      <c r="D103" s="4" t="s">
+        <v>1483</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -19502,10 +19526,10 @@
         <v>528</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E113" s="122"/>
       <c r="F113" s="1" t="s">
@@ -19515,7 +19539,7 @@
         <v>532</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I113" s="118"/>
     </row>
@@ -19530,7 +19554,7 @@
         <v>500</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E114" s="122"/>
       <c r="F114" s="1" t="s">
@@ -19540,7 +19564,7 @@
         <v>514</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I114" s="118"/>
     </row>
@@ -19555,7 +19579,7 @@
         <v>501</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E115" s="122"/>
       <c r="F115" s="1" t="s">
@@ -19565,7 +19589,7 @@
         <v>515</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I115" s="118"/>
     </row>
@@ -19580,7 +19604,7 @@
         <v>502</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E116" s="122"/>
       <c r="F116" s="1" t="s">
@@ -19603,7 +19627,7 @@
         <v>503</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E117" s="122"/>
       <c r="F117" s="1" t="s">
@@ -19626,7 +19650,7 @@
         <v>504</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E118" s="122"/>
       <c r="F118" s="1" t="s">
@@ -19649,7 +19673,7 @@
         <v>505</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E119" s="122"/>
       <c r="F119" s="1" t="s">
@@ -19672,7 +19696,7 @@
         <v>506</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E120" s="122"/>
       <c r="F120" s="1" t="s">
@@ -19695,7 +19719,7 @@
         <v>507</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E121" s="122"/>
       <c r="F121" s="1" t="s">
@@ -20256,7 +20280,7 @@
         <v>586</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="M1" s="36"/>
     </row>
@@ -20426,7 +20450,7 @@
       </c>
       <c r="J8" s="61"/>
       <c r="K8" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L8" s="66" t="s">
         <v>616</v>
@@ -20458,7 +20482,7 @@
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L9" s="66"/>
       <c r="M9" s="63"/>
@@ -20488,7 +20512,7 @@
       </c>
       <c r="J10" s="61"/>
       <c r="K10" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L10" s="62"/>
       <c r="M10" s="63"/>
@@ -20518,7 +20542,7 @@
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L11" s="62"/>
       <c r="M11" s="63"/>
@@ -20548,7 +20572,7 @@
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L12" s="62"/>
       <c r="M12" s="63"/>
@@ -20577,7 +20601,7 @@
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L13" s="62"/>
       <c r="M13" s="63"/>
@@ -20687,7 +20711,7 @@
       </c>
       <c r="J17" s="61"/>
       <c r="K17" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L17" s="62"/>
       <c r="M17" s="63"/>
@@ -20766,7 +20790,7 @@
       </c>
       <c r="J20" s="61"/>
       <c r="K20" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="63"/>
@@ -20781,7 +20805,7 @@
         <v>647</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="61"/>
@@ -20793,7 +20817,7 @@
       </c>
       <c r="J21" s="61"/>
       <c r="K21" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L21" s="62"/>
       <c r="M21" s="63"/>
@@ -20822,7 +20846,7 @@
       </c>
       <c r="J22" s="61"/>
       <c r="K22" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L22" s="62"/>
       <c r="M22" s="63"/>
@@ -20851,7 +20875,7 @@
       </c>
       <c r="J23" s="61"/>
       <c r="K23" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L23" s="62"/>
       <c r="M23" s="63"/>
@@ -20880,7 +20904,7 @@
       </c>
       <c r="J24" s="61"/>
       <c r="K24" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L24" s="62"/>
       <c r="M24" s="63"/>
@@ -20909,7 +20933,7 @@
       </c>
       <c r="J25" s="61"/>
       <c r="K25" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L25" s="62"/>
       <c r="M25" s="63"/>
@@ -20938,7 +20962,7 @@
       </c>
       <c r="J26" s="61"/>
       <c r="K26" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L26" s="62"/>
       <c r="M26" s="63"/>
@@ -20950,7 +20974,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="133"/>
       <c r="D27" s="70" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E27" s="62" t="s">
         <v>662</v>
@@ -20965,7 +20989,7 @@
       </c>
       <c r="J27" s="61"/>
       <c r="K27" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L27" s="62"/>
       <c r="M27" s="63"/>
@@ -20975,10 +20999,10 @@
       <c r="B28" s="61"/>
       <c r="C28" s="133"/>
       <c r="D28" s="95" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E28" s="96" t="s">
         <v>1314</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>1315</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="98"/>
@@ -21017,7 +21041,7 @@
       </c>
       <c r="J29" s="61"/>
       <c r="K29" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L29" s="62"/>
       <c r="M29" s="63"/>
@@ -21073,7 +21097,7 @@
       </c>
       <c r="J31" s="69"/>
       <c r="K31" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L31" s="62"/>
       <c r="M31" s="63"/>
@@ -21098,7 +21122,7 @@
       </c>
       <c r="J32" s="69"/>
       <c r="K32" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L32" s="62"/>
       <c r="M32" s="63"/>
@@ -21127,7 +21151,7 @@
       </c>
       <c r="J33" s="69"/>
       <c r="K33" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L33" s="62"/>
       <c r="M33" s="63"/>
@@ -21158,7 +21182,7 @@
       </c>
       <c r="J34" s="69"/>
       <c r="K34" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L34" s="62"/>
       <c r="M34" s="63"/>
@@ -21187,7 +21211,7 @@
       </c>
       <c r="J35" s="69"/>
       <c r="K35" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L35" s="62"/>
       <c r="M35" s="63"/>
@@ -21216,7 +21240,7 @@
       </c>
       <c r="J36" s="69"/>
       <c r="K36" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L36" s="62"/>
       <c r="M36" s="63"/>
@@ -21245,7 +21269,7 @@
       </c>
       <c r="J37" s="69"/>
       <c r="K37" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L37" s="62"/>
       <c r="M37" s="63"/>
@@ -21274,7 +21298,7 @@
       </c>
       <c r="J38" s="69"/>
       <c r="K38" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L38" s="62"/>
       <c r="M38" s="63"/>
@@ -21303,7 +21327,7 @@
       </c>
       <c r="J39" s="69"/>
       <c r="K39" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L39" s="62"/>
       <c r="M39" s="63"/>
@@ -21332,7 +21356,7 @@
       </c>
       <c r="J40" s="69"/>
       <c r="K40" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L40" s="62"/>
       <c r="M40" s="63"/>
@@ -21361,7 +21385,7 @@
       </c>
       <c r="J41" s="69"/>
       <c r="K41" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L41" s="62"/>
       <c r="M41" s="63"/>
@@ -21390,7 +21414,7 @@
       </c>
       <c r="J42" s="69"/>
       <c r="K42" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L42" s="62"/>
       <c r="M42" s="63"/>
@@ -21419,7 +21443,7 @@
       </c>
       <c r="J43" s="69"/>
       <c r="K43" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L43" s="62"/>
       <c r="M43" s="63"/>
@@ -21448,7 +21472,7 @@
       </c>
       <c r="J44" s="69"/>
       <c r="K44" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L44" s="78" t="s">
         <v>818</v>
@@ -21479,7 +21503,7 @@
       </c>
       <c r="J45" s="69"/>
       <c r="K45" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L45" s="62"/>
       <c r="M45" s="63"/>
@@ -21550,7 +21574,7 @@
         <v>707</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F48" s="75"/>
       <c r="G48" s="69" t="s">
@@ -21564,7 +21588,7 @@
       </c>
       <c r="J48" s="69"/>
       <c r="K48" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L48" s="62"/>
       <c r="M48" s="63"/>
@@ -21593,7 +21617,7 @@
       </c>
       <c r="J49" s="69"/>
       <c r="K49" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L49" s="62"/>
       <c r="M49" s="63"/>
@@ -21851,7 +21875,7 @@
       </c>
       <c r="J59" s="69"/>
       <c r="K59" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L59" s="62"/>
       <c r="M59" s="63"/>
@@ -21930,7 +21954,7 @@
       </c>
       <c r="J62" s="69"/>
       <c r="K62" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L62" s="78" t="s">
         <v>820</v>
@@ -22150,7 +22174,7 @@
       </c>
       <c r="J70" s="69"/>
       <c r="K70" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L70" s="62"/>
       <c r="M70" s="63"/>
@@ -22165,11 +22189,11 @@
         <v>752</v>
       </c>
       <c r="E71" s="74" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F71" s="75"/>
       <c r="G71" s="69" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H71" s="69">
         <v>8</v>
@@ -22179,10 +22203,10 @@
       </c>
       <c r="J71" s="69"/>
       <c r="K71" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L71" s="78" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="M71" s="63"/>
     </row>
@@ -22233,7 +22257,7 @@
       </c>
       <c r="J73" s="69"/>
       <c r="K73" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L73" s="62"/>
       <c r="M73" s="63"/>
@@ -22260,7 +22284,7 @@
       </c>
       <c r="J74" s="69"/>
       <c r="K74" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L74" s="62"/>
       <c r="M74" s="63"/>
@@ -22287,7 +22311,7 @@
       </c>
       <c r="J75" s="69"/>
       <c r="K75" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L75" s="62"/>
       <c r="M75" s="63"/>
@@ -22314,7 +22338,7 @@
       </c>
       <c r="J76" s="69"/>
       <c r="K76" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L76" s="62"/>
       <c r="M76" s="63"/>
@@ -22329,7 +22353,7 @@
         <v>760</v>
       </c>
       <c r="E77" s="96" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F77" s="97"/>
       <c r="G77" s="98"/>
@@ -22341,7 +22365,7 @@
       </c>
       <c r="J77" s="98"/>
       <c r="K77" s="100" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L77" s="96"/>
       <c r="M77" s="97"/>
@@ -22353,10 +22377,10 @@
       <c r="B78" s="61"/>
       <c r="C78" s="128"/>
       <c r="D78" s="98" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E78" s="96" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F78" s="97"/>
       <c r="G78" s="98"/>
@@ -22368,7 +22392,7 @@
       </c>
       <c r="J78" s="98"/>
       <c r="K78" s="100" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L78" s="96"/>
       <c r="M78" s="97"/>
@@ -22395,7 +22419,7 @@
       </c>
       <c r="J79" s="69"/>
       <c r="K79" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L79" s="62"/>
       <c r="M79" s="63"/>
@@ -22424,7 +22448,7 @@
       </c>
       <c r="J80" s="69"/>
       <c r="K80" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L80" s="62"/>
       <c r="M80" s="63"/>
@@ -22453,7 +22477,7 @@
       </c>
       <c r="J81" s="69"/>
       <c r="K81" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L81" s="62"/>
       <c r="M81" s="63"/>
@@ -22482,7 +22506,7 @@
       </c>
       <c r="J82" s="69"/>
       <c r="K82" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L82" s="62"/>
       <c r="M82" s="63"/>
@@ -22511,7 +22535,7 @@
       </c>
       <c r="J83" s="69"/>
       <c r="K83" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L83" s="62"/>
       <c r="M83" s="63"/>
@@ -22540,7 +22564,7 @@
       </c>
       <c r="J84" s="69"/>
       <c r="K84" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L84" s="62"/>
       <c r="M84" s="63"/>
@@ -22569,7 +22593,7 @@
       </c>
       <c r="J85" s="69"/>
       <c r="K85" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L85" s="62"/>
       <c r="M85" s="63"/>
@@ -22598,7 +22622,7 @@
       </c>
       <c r="J86" s="69"/>
       <c r="K86" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L86" s="62"/>
       <c r="M86" s="63"/>
@@ -22627,7 +22651,7 @@
       </c>
       <c r="J87" s="69"/>
       <c r="K87" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L87" s="66" t="s">
         <v>774</v>
@@ -22658,7 +22682,7 @@
       </c>
       <c r="J88" s="69"/>
       <c r="K88" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L88" s="66" t="s">
         <v>776</v>
@@ -22689,7 +22713,7 @@
       </c>
       <c r="J89" s="69"/>
       <c r="K89" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L89" s="66" t="s">
         <v>780</v>
@@ -22720,7 +22744,7 @@
       </c>
       <c r="J90" s="69"/>
       <c r="K90" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L90" s="66" t="s">
         <v>782</v>
@@ -22749,7 +22773,7 @@
       </c>
       <c r="J91" s="69"/>
       <c r="K91" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L91" s="66" t="s">
         <v>785</v>
@@ -22768,7 +22792,7 @@
         <v>787</v>
       </c>
       <c r="E92" s="74" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F92" s="75"/>
       <c r="G92" s="69"/>
@@ -22793,7 +22817,7 @@
         <v>787</v>
       </c>
       <c r="E93" s="74" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F93" s="75"/>
       <c r="G93" s="69"/>
@@ -22986,7 +23010,7 @@
       </c>
       <c r="J100" s="69"/>
       <c r="K100" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L100" s="62"/>
       <c r="M100" s="63"/>
@@ -22999,7 +23023,7 @@
         <v>798</v>
       </c>
       <c r="E101" s="96" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F101" s="97"/>
       <c r="G101" s="98"/>
@@ -23011,7 +23035,7 @@
       </c>
       <c r="J101" s="98"/>
       <c r="K101" s="100" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L101" s="96"/>
       <c r="M101" s="97"/>
@@ -23564,8 +23588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24843,7 +24867,7 @@
         <v>532</v>
       </c>
       <c r="E92" s="87" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -24858,7 +24882,7 @@
         <v>514</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -25976,7 +26000,7 @@
         <v>259</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -25991,7 +26015,7 @@
         <v>307</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -26006,7 +26030,7 @@
         <v>309</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -26021,7 +26045,7 @@
         <v>311</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -26036,7 +26060,7 @@
         <v>313</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -26051,7 +26075,7 @@
         <v>331</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -26066,7 +26090,7 @@
         <v>333</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -26084,7 +26108,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A147:A152"/>
     <mergeCell ref="A155:A160"/>
     <mergeCell ref="A163:A168"/>
     <mergeCell ref="A179:A188"/>
@@ -26101,6 +26124,7 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A147:A152"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -6705,6 +6705,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6723,25 +6735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6751,6 +6745,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6770,9 +6773,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9864,7 +9864,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="140"/>
-      <c r="B3" s="122"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="139"/>
       <c r="D3" s="83">
         <v>2</v>
@@ -9876,7 +9876,7 @@
         <v>1036</v>
       </c>
       <c r="H3" s="140"/>
-      <c r="I3" s="122"/>
+      <c r="I3" s="117"/>
       <c r="J3" s="139"/>
       <c r="K3" s="83">
         <v>2</v>
@@ -9888,7 +9888,7 @@
         <v>1117</v>
       </c>
       <c r="O3" s="140"/>
-      <c r="P3" s="122"/>
+      <c r="P3" s="117"/>
       <c r="Q3" s="139"/>
       <c r="R3" s="83">
         <v>2</v>
@@ -9902,7 +9902,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="140"/>
-      <c r="B4" s="122"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="139"/>
       <c r="D4" s="83">
         <v>3</v>
@@ -9914,7 +9914,7 @@
         <v>1037</v>
       </c>
       <c r="H4" s="140"/>
-      <c r="I4" s="122"/>
+      <c r="I4" s="117"/>
       <c r="J4" s="139"/>
       <c r="K4" s="83">
         <v>3</v>
@@ -9926,7 +9926,7 @@
         <v>1118</v>
       </c>
       <c r="O4" s="140"/>
-      <c r="P4" s="122"/>
+      <c r="P4" s="117"/>
       <c r="Q4" s="139"/>
       <c r="R4" s="83">
         <v>3</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
       <c r="A5" s="140"/>
-      <c r="B5" s="122"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="139"/>
       <c r="D5" s="83">
         <v>4</v>
@@ -9952,7 +9952,7 @@
         <v>1038</v>
       </c>
       <c r="H5" s="140"/>
-      <c r="I5" s="122"/>
+      <c r="I5" s="117"/>
       <c r="J5" s="139"/>
       <c r="K5" s="83">
         <v>4</v>
@@ -9960,7 +9960,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" s="140"/>
-      <c r="P5" s="122"/>
+      <c r="P5" s="117"/>
       <c r="Q5" s="139"/>
       <c r="R5" s="83">
         <v>4</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="140"/>
-      <c r="B6" s="122"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="139"/>
       <c r="D6" s="83">
         <v>5</v>
@@ -9978,7 +9978,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="H6" s="140"/>
-      <c r="I6" s="122"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="139"/>
       <c r="K6" s="83">
         <v>5</v>
@@ -9986,7 +9986,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="O6" s="140"/>
-      <c r="P6" s="122"/>
+      <c r="P6" s="117"/>
       <c r="Q6" s="139"/>
       <c r="R6" s="83">
         <v>5</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="140"/>
-      <c r="B7" s="122"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="139"/>
       <c r="D7" s="83">
         <v>6</v>
@@ -10004,7 +10004,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="140"/>
-      <c r="I7" s="122"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="139"/>
       <c r="K7" s="83">
         <v>6</v>
@@ -10012,7 +10012,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="O7" s="140"/>
-      <c r="P7" s="122"/>
+      <c r="P7" s="117"/>
       <c r="Q7" s="139"/>
       <c r="R7" s="83">
         <v>6</v>
@@ -10022,7 +10022,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="140"/>
-      <c r="B8" s="122"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="139"/>
       <c r="D8" s="83">
         <v>7</v>
@@ -10034,7 +10034,7 @@
         <v>1045</v>
       </c>
       <c r="H8" s="140"/>
-      <c r="I8" s="122"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="139"/>
       <c r="K8" s="83">
         <v>7</v>
@@ -10046,7 +10046,7 @@
         <v>1119</v>
       </c>
       <c r="O8" s="140"/>
-      <c r="P8" s="122"/>
+      <c r="P8" s="117"/>
       <c r="Q8" s="139"/>
       <c r="R8" s="83">
         <v>7</v>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="140"/>
-      <c r="B9" s="122"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="139"/>
       <c r="D9" s="83">
         <v>8</v>
@@ -10072,7 +10072,7 @@
         <v>1046</v>
       </c>
       <c r="H9" s="140"/>
-      <c r="I9" s="122"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="139"/>
       <c r="K9" s="83">
         <v>8</v>
@@ -10084,7 +10084,7 @@
         <v>1120</v>
       </c>
       <c r="O9" s="140"/>
-      <c r="P9" s="122"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="139"/>
       <c r="R9" s="83">
         <v>8</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="140"/>
-      <c r="B10" s="122"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="139"/>
       <c r="D10" s="83">
         <v>9</v>
@@ -10110,7 +10110,7 @@
         <v>1039</v>
       </c>
       <c r="H10" s="140"/>
-      <c r="I10" s="122"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="139"/>
       <c r="K10" s="83">
         <v>9</v>
@@ -10118,7 +10118,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="O10" s="140"/>
-      <c r="P10" s="122"/>
+      <c r="P10" s="117"/>
       <c r="Q10" s="139"/>
       <c r="R10" s="83">
         <v>9</v>
@@ -10128,7 +10128,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="140"/>
-      <c r="B11" s="122"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="139"/>
       <c r="D11" s="83">
         <v>10</v>
@@ -10140,7 +10140,7 @@
         <v>1039</v>
       </c>
       <c r="H11" s="140"/>
-      <c r="I11" s="122"/>
+      <c r="I11" s="117"/>
       <c r="J11" s="139"/>
       <c r="K11" s="83">
         <v>10</v>
@@ -10148,7 +10148,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="O11" s="140"/>
-      <c r="P11" s="122"/>
+      <c r="P11" s="117"/>
       <c r="Q11" s="139"/>
       <c r="R11" s="83">
         <v>10</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="140"/>
-      <c r="B12" s="122"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="139"/>
       <c r="D12" s="83">
         <v>11</v>
@@ -10170,7 +10170,7 @@
         <v>1040</v>
       </c>
       <c r="H12" s="140"/>
-      <c r="I12" s="122"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="139"/>
       <c r="K12" s="83">
         <v>11</v>
@@ -10178,7 +10178,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" s="140"/>
-      <c r="P12" s="122"/>
+      <c r="P12" s="117"/>
       <c r="Q12" s="139"/>
       <c r="R12" s="83">
         <v>11</v>
@@ -10188,7 +10188,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="140"/>
-      <c r="B13" s="122"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="139"/>
       <c r="D13" s="83">
         <v>12</v>
@@ -10200,7 +10200,7 @@
         <v>1040</v>
       </c>
       <c r="H13" s="140"/>
-      <c r="I13" s="122"/>
+      <c r="I13" s="117"/>
       <c r="J13" s="139"/>
       <c r="K13" s="83">
         <v>12</v>
@@ -10208,7 +10208,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="O13" s="140"/>
-      <c r="P13" s="122"/>
+      <c r="P13" s="117"/>
       <c r="Q13" s="139"/>
       <c r="R13" s="83">
         <v>12</v>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="140"/>
-      <c r="B14" s="122"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="139"/>
       <c r="D14" s="83">
         <v>13</v>
@@ -10226,7 +10226,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14" s="140"/>
-      <c r="I14" s="122"/>
+      <c r="I14" s="117"/>
       <c r="J14" s="139"/>
       <c r="K14" s="83">
         <v>13</v>
@@ -10238,7 +10238,7 @@
         <v>1121</v>
       </c>
       <c r="O14" s="140"/>
-      <c r="P14" s="122"/>
+      <c r="P14" s="117"/>
       <c r="Q14" s="139"/>
       <c r="R14" s="83">
         <v>13</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="140"/>
-      <c r="B15" s="122"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="139"/>
       <c r="D15" s="83">
         <v>14</v>
@@ -10264,7 +10264,7 @@
         <v>1041</v>
       </c>
       <c r="H15" s="140"/>
-      <c r="I15" s="122"/>
+      <c r="I15" s="117"/>
       <c r="J15" s="139"/>
       <c r="K15" s="83">
         <v>14</v>
@@ -10276,7 +10276,7 @@
         <v>1122</v>
       </c>
       <c r="O15" s="140"/>
-      <c r="P15" s="122"/>
+      <c r="P15" s="117"/>
       <c r="Q15" s="139"/>
       <c r="R15" s="83">
         <v>14</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="140"/>
-      <c r="B16" s="122"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="139"/>
       <c r="D16" s="83">
         <v>15</v>
@@ -10302,7 +10302,7 @@
         <v>1041</v>
       </c>
       <c r="H16" s="140"/>
-      <c r="I16" s="122"/>
+      <c r="I16" s="117"/>
       <c r="J16" s="139"/>
       <c r="K16" s="83">
         <v>15</v>
@@ -10314,7 +10314,7 @@
         <v>1123</v>
       </c>
       <c r="O16" s="140"/>
-      <c r="P16" s="122"/>
+      <c r="P16" s="117"/>
       <c r="Q16" s="139"/>
       <c r="R16" s="83">
         <v>15</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="140"/>
-      <c r="B17" s="122"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="139"/>
       <c r="D17" s="83">
         <v>16</v>
@@ -10340,7 +10340,7 @@
         <v>1042</v>
       </c>
       <c r="H17" s="140"/>
-      <c r="I17" s="122"/>
+      <c r="I17" s="117"/>
       <c r="J17" s="139"/>
       <c r="K17" s="83">
         <v>16</v>
@@ -10352,7 +10352,7 @@
         <v>1124</v>
       </c>
       <c r="O17" s="140"/>
-      <c r="P17" s="122"/>
+      <c r="P17" s="117"/>
       <c r="Q17" s="139"/>
       <c r="R17" s="83">
         <v>16</v>
@@ -10366,7 +10366,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="140"/>
-      <c r="B18" s="122"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="139"/>
       <c r="D18" s="83">
         <v>17</v>
@@ -10378,7 +10378,7 @@
         <v>1043</v>
       </c>
       <c r="H18" s="140"/>
-      <c r="I18" s="122"/>
+      <c r="I18" s="117"/>
       <c r="J18" s="139"/>
       <c r="K18" s="83">
         <v>17</v>
@@ -10390,7 +10390,7 @@
         <v>1129</v>
       </c>
       <c r="O18" s="140"/>
-      <c r="P18" s="122"/>
+      <c r="P18" s="117"/>
       <c r="Q18" s="139"/>
       <c r="R18" s="83">
         <v>17</v>
@@ -10404,7 +10404,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="140"/>
-      <c r="B19" s="122"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="139"/>
       <c r="D19" s="83">
         <v>18</v>
@@ -10416,7 +10416,7 @@
         <v>1044</v>
       </c>
       <c r="H19" s="140"/>
-      <c r="I19" s="122"/>
+      <c r="I19" s="117"/>
       <c r="J19" s="139"/>
       <c r="K19" s="83">
         <v>18</v>
@@ -10428,7 +10428,7 @@
         <v>1130</v>
       </c>
       <c r="O19" s="140"/>
-      <c r="P19" s="122"/>
+      <c r="P19" s="117"/>
       <c r="Q19" s="139"/>
       <c r="R19" s="83">
         <v>18</v>
@@ -10442,7 +10442,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="140"/>
-      <c r="B20" s="122"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="139"/>
       <c r="D20" s="83">
         <v>19</v>
@@ -10454,7 +10454,7 @@
         <v>1044</v>
       </c>
       <c r="H20" s="140"/>
-      <c r="I20" s="122"/>
+      <c r="I20" s="117"/>
       <c r="J20" s="139"/>
       <c r="K20" s="83">
         <v>19</v>
@@ -10466,7 +10466,7 @@
         <v>1131</v>
       </c>
       <c r="O20" s="140"/>
-      <c r="P20" s="122"/>
+      <c r="P20" s="117"/>
       <c r="Q20" s="139"/>
       <c r="R20" s="83">
         <v>19</v>
@@ -10480,7 +10480,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="140"/>
-      <c r="B21" s="122"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="139"/>
       <c r="D21" s="83">
         <v>20</v>
@@ -10492,7 +10492,7 @@
         <v>1047</v>
       </c>
       <c r="H21" s="140"/>
-      <c r="I21" s="122"/>
+      <c r="I21" s="117"/>
       <c r="J21" s="139"/>
       <c r="K21" s="83">
         <v>20</v>
@@ -10504,7 +10504,7 @@
         <v>1132</v>
       </c>
       <c r="O21" s="140"/>
-      <c r="P21" s="122"/>
+      <c r="P21" s="117"/>
       <c r="Q21" s="139"/>
       <c r="R21" s="83">
         <v>20</v>
@@ -10518,7 +10518,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="140"/>
-      <c r="B22" s="122"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="139"/>
       <c r="D22" s="83">
         <v>21</v>
@@ -10530,7 +10530,7 @@
         <v>1048</v>
       </c>
       <c r="H22" s="140"/>
-      <c r="I22" s="122"/>
+      <c r="I22" s="117"/>
       <c r="J22" s="139"/>
       <c r="K22" s="83">
         <v>21</v>
@@ -10542,7 +10542,7 @@
         <v>1125</v>
       </c>
       <c r="O22" s="140"/>
-      <c r="P22" s="122"/>
+      <c r="P22" s="117"/>
       <c r="Q22" s="139"/>
       <c r="R22" s="83">
         <v>21</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="140"/>
-      <c r="B23" s="122"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="139"/>
       <c r="D23" s="83">
         <v>22</v>
@@ -10564,7 +10564,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="140"/>
-      <c r="I23" s="122"/>
+      <c r="I23" s="117"/>
       <c r="J23" s="139"/>
       <c r="K23" s="83">
         <v>22</v>
@@ -10576,7 +10576,7 @@
         <v>1126</v>
       </c>
       <c r="O23" s="140"/>
-      <c r="P23" s="122"/>
+      <c r="P23" s="117"/>
       <c r="Q23" s="139"/>
       <c r="R23" s="83">
         <v>22</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="140"/>
-      <c r="B24" s="122"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="139"/>
       <c r="D24" s="83">
         <v>23</v>
@@ -10598,7 +10598,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="140"/>
-      <c r="I24" s="122"/>
+      <c r="I24" s="117"/>
       <c r="J24" s="139"/>
       <c r="K24" s="83">
         <v>23</v>
@@ -10606,7 +10606,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="O24" s="140"/>
-      <c r="P24" s="122"/>
+      <c r="P24" s="117"/>
       <c r="Q24" s="139"/>
       <c r="R24" s="83">
         <v>23</v>
@@ -10616,7 +10616,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="140"/>
-      <c r="B25" s="122"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="139"/>
       <c r="D25" s="83">
         <v>24</v>
@@ -10624,7 +10624,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="140"/>
-      <c r="I25" s="122"/>
+      <c r="I25" s="117"/>
       <c r="J25" s="139"/>
       <c r="K25" s="83">
         <v>24</v>
@@ -10632,7 +10632,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="O25" s="140"/>
-      <c r="P25" s="122"/>
+      <c r="P25" s="117"/>
       <c r="Q25" s="139"/>
       <c r="R25" s="83">
         <v>24</v>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="140"/>
-      <c r="B26" s="122"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="139"/>
       <c r="D26" s="83">
         <v>25</v>
@@ -10650,7 +10650,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="140"/>
-      <c r="I26" s="122"/>
+      <c r="I26" s="117"/>
       <c r="J26" s="139"/>
       <c r="K26" s="83">
         <v>25</v>
@@ -10662,7 +10662,7 @@
         <v>1128</v>
       </c>
       <c r="O26" s="140"/>
-      <c r="P26" s="122"/>
+      <c r="P26" s="117"/>
       <c r="Q26" s="139"/>
       <c r="R26" s="83">
         <v>25</v>
@@ -11427,7 +11427,7 @@
       <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="117" t="s">
         <v>1215</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -11436,136 +11436,136 @@
       <c r="C2" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>1182</v>
       </c>
       <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="122"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="122"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="D4" s="122"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="122"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="117" t="s">
         <v>1192</v>
       </c>
       <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="122"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="122"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D7" s="122"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="122"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="117" t="s">
         <v>1205</v>
       </c>
       <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="122"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D9" s="122"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="122"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="D10" s="122"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="122"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="117" t="s">
         <v>1206</v>
       </c>
       <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="1" t="s">
         <v>1200</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D12" s="122"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="80"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="122"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="1" t="s">
         <v>1201</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="D13" s="122"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5">
@@ -11896,7 +11896,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="117" t="s">
         <v>1214</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -11910,7 +11910,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="122"/>
+      <c r="A2" s="117"/>
       <c r="B2" s="1" t="s">
         <v>1208</v>
       </c>
@@ -11922,7 +11922,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="122"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="1" t="s">
         <v>1209</v>
       </c>
@@ -11932,7 +11932,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="122"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="1" t="s">
         <v>1210</v>
       </c>
@@ -11944,7 +11944,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="117" t="s">
         <v>1246</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11958,7 +11958,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="122"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="1" t="s">
         <v>1208</v>
       </c>
@@ -11976,7 +11976,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="117" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -11990,7 +11990,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="122"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="1" t="s">
         <v>1208</v>
       </c>
@@ -14242,17 +14242,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="116" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="16" t="s">
         <v>239</v>
       </c>
@@ -14261,13 +14261,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="16" t="s">
         <v>240</v>
       </c>
@@ -14276,13 +14276,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -14296,10 +14296,10 @@
       <c r="C4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="125"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="15" t="s">
         <v>46</v>
       </c>
@@ -14314,7 +14314,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="123" t="s">
         <v>568</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -14323,10 +14323,10 @@
       <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="117" t="s">
         <v>564</v>
       </c>
-      <c r="E5" s="122"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="15">
         <v>1</v>
       </c>
@@ -14342,17 +14342,17 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="120"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="16" t="s">
         <v>569</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="E6" s="122"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="16">
         <v>2</v>
       </c>
@@ -14368,17 +14368,17 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="120"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="117" t="s">
         <v>565</v>
       </c>
-      <c r="E7" s="122"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="15">
         <v>1</v>
       </c>
@@ -14394,17 +14394,17 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="120"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="E8" s="122"/>
+      <c r="E8" s="117"/>
       <c r="F8" s="15">
         <v>1</v>
       </c>
@@ -14420,17 +14420,17 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="120"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="117" t="s">
         <v>567</v>
       </c>
-      <c r="E9" s="122"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
@@ -14446,17 +14446,17 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="120"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="122"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="15">
         <v>1</v>
       </c>
@@ -14472,17 +14472,17 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="120"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="16" t="s">
         <v>242</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="122"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="16">
         <v>1</v>
       </c>
@@ -14498,17 +14498,17 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="120"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="122"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="16">
         <v>1</v>
       </c>
@@ -14524,17 +14524,17 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="120"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="16" t="s">
         <v>244</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="122"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="16">
         <v>1</v>
       </c>
@@ -14550,17 +14550,17 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="120"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="122"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="15">
         <v>2</v>
       </c>
@@ -14576,17 +14576,17 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="120"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="122"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="15">
         <v>1</v>
       </c>
@@ -14602,15 +14602,15 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="120"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="122"/>
+      <c r="E16" s="117"/>
       <c r="F16" s="15">
         <v>2</v>
       </c>
@@ -14626,15 +14626,15 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="120"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="122"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="15">
         <v>10</v>
       </c>
@@ -14650,17 +14650,17 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="120"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="122"/>
+      <c r="E18" s="117"/>
       <c r="F18" s="15">
         <v>1</v>
       </c>
@@ -14676,17 +14676,17 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="120"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="15" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="15">
         <v>1</v>
       </c>
@@ -14702,17 +14702,17 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="120"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="15" t="s">
         <v>151</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="122"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="15">
         <v>1</v>
       </c>
@@ -14728,17 +14728,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="120"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="15" t="s">
         <v>154</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="15">
         <v>1</v>
       </c>
@@ -14754,17 +14754,17 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="120"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="122"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="15">
         <v>1</v>
       </c>
@@ -14780,15 +14780,15 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="120"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="15">
         <v>4</v>
       </c>
@@ -14804,17 +14804,17 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="120"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="122">
+      <c r="D24" s="117">
         <v>30296</v>
       </c>
-      <c r="E24" s="122"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="15">
         <v>2</v>
       </c>
@@ -14830,17 +14830,17 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="120"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="122"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="15">
         <v>1</v>
       </c>
@@ -14856,17 +14856,17 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="120"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="122"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="15">
         <v>1</v>
       </c>
@@ -14882,13 +14882,13 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="120"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="15">
         <v>1</v>
       </c>
@@ -14904,17 +14904,17 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="121"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="122"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="15">
         <v>1</v>
       </c>
@@ -14933,15 +14933,15 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="120" t="s">
         <v>228</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -14950,10 +14950,10 @@
       <c r="C30" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D30" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="122"/>
+      <c r="E30" s="117"/>
       <c r="F30" s="15">
         <v>1</v>
       </c>
@@ -14969,17 +14969,17 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="117"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="122"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="15">
         <v>1</v>
       </c>
@@ -14995,17 +14995,17 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="117"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="122" t="s">
+      <c r="D32" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="122"/>
+      <c r="E32" s="117"/>
       <c r="F32" s="15">
         <v>1</v>
       </c>
@@ -15021,17 +15021,17 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="117"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="122"/>
+      <c r="E33" s="117"/>
       <c r="F33" s="15">
         <v>1</v>
       </c>
@@ -15047,17 +15047,17 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="117"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="122"/>
+      <c r="E34" s="117"/>
       <c r="F34" s="15">
         <v>2</v>
       </c>
@@ -15073,17 +15073,17 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="117"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="122" t="s">
+      <c r="D35" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="122"/>
+      <c r="E35" s="117"/>
       <c r="F35" s="15">
         <v>2</v>
       </c>
@@ -15099,17 +15099,17 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="117"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="122"/>
+      <c r="E36" s="117"/>
       <c r="F36" s="15">
         <v>4</v>
       </c>
@@ -15125,17 +15125,17 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="117"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="122"/>
+      <c r="E37" s="117"/>
       <c r="F37" s="15">
         <v>4</v>
       </c>
@@ -15151,17 +15151,17 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="117"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="122"/>
+      <c r="E38" s="117"/>
       <c r="F38" s="15">
         <v>1</v>
       </c>
@@ -15177,17 +15177,17 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="117"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="122" t="s">
+      <c r="D39" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="122"/>
+      <c r="E39" s="117"/>
       <c r="F39" s="15">
         <v>1</v>
       </c>
@@ -15203,17 +15203,17 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="117"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="D40" s="117" t="s">
         <v>401</v>
       </c>
-      <c r="E40" s="122"/>
+      <c r="E40" s="117"/>
       <c r="F40" s="15">
         <v>4</v>
       </c>
@@ -15232,17 +15232,17 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="118"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="122" t="s">
+      <c r="D41" s="117" t="s">
         <v>580</v>
       </c>
-      <c r="E41" s="122"/>
+      <c r="E41" s="117"/>
       <c r="F41" s="15">
         <v>4</v>
       </c>
@@ -15261,15 +15261,15 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="116" t="s">
+      <c r="A43" s="120" t="s">
         <v>229</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -15278,10 +15278,10 @@
       <c r="C43" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="122" t="s">
+      <c r="D43" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="122"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="15">
         <v>6</v>
       </c>
@@ -15297,17 +15297,17 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="117"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="122" t="s">
+      <c r="D44" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="122"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="15">
         <v>1</v>
       </c>
@@ -15323,17 +15323,17 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="117"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="122" t="s">
+      <c r="D45" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="122"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="15">
         <v>1</v>
       </c>
@@ -15349,17 +15349,17 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="118"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="122" t="s">
+      <c r="D46" s="117" t="s">
         <v>578</v>
       </c>
-      <c r="E46" s="122"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="15">
         <v>1</v>
       </c>
@@ -15378,15 +15378,15 @@
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="12"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="120" t="s">
         <v>573</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -15395,10 +15395,10 @@
       <c r="C48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="122" t="s">
+      <c r="D48" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="122"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="15">
         <v>1</v>
       </c>
@@ -15414,15 +15414,15 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="117"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="122" t="s">
+      <c r="D49" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="122"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="15">
         <v>6</v>
       </c>
@@ -15438,17 +15438,17 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="117"/>
+      <c r="A50" s="121"/>
       <c r="B50" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="122" t="s">
+      <c r="D50" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="122"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="15">
         <v>8</v>
       </c>
@@ -15464,17 +15464,17 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="117"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="122" t="s">
+      <c r="D51" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="122"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="15">
         <v>4</v>
       </c>
@@ -15490,17 +15490,17 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="117"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="122" t="s">
+      <c r="D52" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="122"/>
+      <c r="E52" s="117"/>
       <c r="F52" s="15">
         <v>4</v>
       </c>
@@ -15516,13 +15516,13 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="117"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="15">
         <v>4</v>
       </c>
@@ -15538,13 +15538,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="117"/>
+      <c r="A54" s="121"/>
       <c r="B54" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="15"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="15">
         <v>4</v>
       </c>
@@ -15560,17 +15560,17 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="117"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="122" t="s">
+      <c r="D55" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="122"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="15">
         <v>1</v>
       </c>
@@ -15586,13 +15586,13 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="117"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="15"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="15">
         <v>1</v>
       </c>
@@ -15608,15 +15608,15 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="117"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="15"/>
-      <c r="D57" s="122" t="s">
+      <c r="D57" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="E57" s="122"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="15">
         <v>3</v>
       </c>
@@ -15632,15 +15632,15 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="117"/>
+      <c r="A58" s="121"/>
       <c r="B58" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="15"/>
-      <c r="D58" s="122" t="s">
+      <c r="D58" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="122"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="15">
         <v>12</v>
       </c>
@@ -15656,15 +15656,15 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="117"/>
+      <c r="A59" s="121"/>
       <c r="B59" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="15"/>
-      <c r="D59" s="122" t="s">
+      <c r="D59" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="122"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="15">
         <v>15</v>
       </c>
@@ -15680,17 +15680,17 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="117"/>
+      <c r="A60" s="121"/>
       <c r="B60" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="122" t="s">
+      <c r="D60" s="117" t="s">
         <v>575</v>
       </c>
-      <c r="E60" s="122"/>
+      <c r="E60" s="117"/>
       <c r="F60" s="15">
         <v>1</v>
       </c>
@@ -15706,17 +15706,17 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="117"/>
+      <c r="A61" s="121"/>
       <c r="B61" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="122" t="s">
+      <c r="D61" s="117" t="s">
         <v>576</v>
       </c>
-      <c r="E61" s="122"/>
+      <c r="E61" s="117"/>
       <c r="F61" s="15">
         <v>2</v>
       </c>
@@ -15732,17 +15732,17 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="117"/>
+      <c r="A62" s="121"/>
       <c r="B62" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D62" s="122" t="s">
+      <c r="D62" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="122"/>
+      <c r="E62" s="117"/>
       <c r="F62" s="15">
         <v>4</v>
       </c>
@@ -15758,17 +15758,17 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="117"/>
+      <c r="A63" s="121"/>
       <c r="B63" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="122" t="s">
+      <c r="D63" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="122"/>
+      <c r="E63" s="117"/>
       <c r="F63" s="15">
         <v>6</v>
       </c>
@@ -15784,17 +15784,17 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="117"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="122" t="s">
+      <c r="D64" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="122"/>
+      <c r="E64" s="117"/>
       <c r="F64" s="15">
         <v>2</v>
       </c>
@@ -15810,17 +15810,17 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="117"/>
+      <c r="A65" s="121"/>
       <c r="B65" s="15" t="s">
         <v>206</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="122" t="s">
+      <c r="D65" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="122"/>
+      <c r="E65" s="117"/>
       <c r="F65" s="15">
         <v>2</v>
       </c>
@@ -15836,17 +15836,17 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="117"/>
+      <c r="A66" s="121"/>
       <c r="B66" s="15" t="s">
         <v>213</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="122" t="s">
+      <c r="D66" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="E66" s="122"/>
+      <c r="E66" s="117"/>
       <c r="F66" s="15">
         <v>4</v>
       </c>
@@ -15862,17 +15862,17 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="117"/>
+      <c r="A67" s="121"/>
       <c r="B67" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="122" t="s">
+      <c r="D67" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="122"/>
+      <c r="E67" s="117"/>
       <c r="F67" s="15">
         <v>4</v>
       </c>
@@ -15888,17 +15888,17 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="117"/>
+      <c r="A68" s="121"/>
       <c r="B68" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="122" t="s">
+      <c r="D68" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="E68" s="122"/>
+      <c r="E68" s="117"/>
       <c r="F68" s="15">
         <v>4</v>
       </c>
@@ -15914,17 +15914,17 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="117"/>
+      <c r="A69" s="121"/>
       <c r="B69" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="122" t="s">
+      <c r="D69" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="E69" s="122"/>
+      <c r="E69" s="117"/>
       <c r="F69" s="15">
         <v>4</v>
       </c>
@@ -15940,15 +15940,15 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="117"/>
+      <c r="A70" s="121"/>
       <c r="B70" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="15"/>
-      <c r="D70" s="122" t="s">
+      <c r="D70" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="122"/>
+      <c r="E70" s="117"/>
       <c r="F70" s="15">
         <v>8</v>
       </c>
@@ -15964,15 +15964,15 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="117"/>
+      <c r="A71" s="121"/>
       <c r="B71" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C71" s="15"/>
-      <c r="D71" s="122" t="s">
+      <c r="D71" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="122"/>
+      <c r="E71" s="117"/>
       <c r="F71" s="15">
         <v>1</v>
       </c>
@@ -15988,15 +15988,15 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="117"/>
+      <c r="A72" s="121"/>
       <c r="B72" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C72" s="15"/>
-      <c r="D72" s="122" t="s">
+      <c r="D72" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="E72" s="122"/>
+      <c r="E72" s="117"/>
       <c r="F72" s="15">
         <v>1</v>
       </c>
@@ -16012,15 +16012,15 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="117"/>
+      <c r="A73" s="121"/>
       <c r="B73" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C73" s="15"/>
-      <c r="D73" s="122" t="s">
+      <c r="D73" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="122"/>
+      <c r="E73" s="117"/>
       <c r="F73" s="15">
         <v>1</v>
       </c>
@@ -16036,15 +16036,15 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="117"/>
+      <c r="A74" s="121"/>
       <c r="B74" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C74" s="15"/>
-      <c r="D74" s="122" t="s">
+      <c r="D74" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="122"/>
+      <c r="E74" s="117"/>
       <c r="F74" s="15">
         <v>1</v>
       </c>
@@ -16060,15 +16060,15 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="117"/>
+      <c r="A75" s="121"/>
       <c r="B75" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C75" s="15"/>
-      <c r="D75" s="122" t="s">
+      <c r="D75" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="122"/>
+      <c r="E75" s="117"/>
       <c r="F75" s="15">
         <v>2</v>
       </c>
@@ -16084,15 +16084,15 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="117"/>
+      <c r="A76" s="121"/>
       <c r="B76" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C76" s="15"/>
-      <c r="D76" s="122" t="s">
+      <c r="D76" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="122"/>
+      <c r="E76" s="117"/>
       <c r="F76" s="15">
         <v>2</v>
       </c>
@@ -16108,17 +16108,17 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="117"/>
+      <c r="A77" s="121"/>
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="122" t="s">
+      <c r="D77" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="122"/>
+      <c r="E77" s="117"/>
       <c r="F77" s="15">
         <v>3</v>
       </c>
@@ -16134,15 +16134,15 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="117"/>
+      <c r="A78" s="121"/>
       <c r="B78" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C78" s="15"/>
-      <c r="D78" s="122" t="s">
+      <c r="D78" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="E78" s="122"/>
+      <c r="E78" s="117"/>
       <c r="F78" s="15">
         <v>4</v>
       </c>
@@ -16158,17 +16158,17 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="117"/>
+      <c r="A79" s="121"/>
       <c r="B79" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="122" t="s">
+      <c r="D79" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="122"/>
+      <c r="E79" s="117"/>
       <c r="F79" s="15">
         <v>2</v>
       </c>
@@ -16184,17 +16184,17 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="117"/>
+      <c r="A80" s="121"/>
       <c r="B80" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="122" t="s">
+      <c r="D80" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="122"/>
+      <c r="E80" s="117"/>
       <c r="F80" s="15">
         <v>3</v>
       </c>
@@ -16210,17 +16210,17 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="117"/>
+      <c r="A81" s="121"/>
       <c r="B81" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="122" t="s">
+      <c r="D81" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="122"/>
+      <c r="E81" s="117"/>
       <c r="F81" s="15">
         <v>1</v>
       </c>
@@ -16236,17 +16236,17 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="117"/>
+      <c r="A82" s="121"/>
       <c r="B82" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="122" t="s">
+      <c r="D82" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="E82" s="122"/>
+      <c r="E82" s="117"/>
       <c r="F82" s="15">
         <v>2</v>
       </c>
@@ -16262,17 +16262,17 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="117"/>
+      <c r="A83" s="121"/>
       <c r="B83" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="122" t="s">
+      <c r="D83" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="E83" s="122"/>
+      <c r="E83" s="117"/>
       <c r="F83" s="15">
         <v>2</v>
       </c>
@@ -16288,17 +16288,17 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="117"/>
+      <c r="A84" s="121"/>
       <c r="B84" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="122" t="s">
+      <c r="D84" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="E84" s="122"/>
+      <c r="E84" s="117"/>
       <c r="F84" s="15">
         <v>1</v>
       </c>
@@ -16317,17 +16317,17 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="117"/>
+      <c r="A85" s="121"/>
       <c r="B85" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="122" t="s">
+      <c r="D85" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="E85" s="122"/>
+      <c r="E85" s="117"/>
       <c r="F85" s="16">
         <v>3</v>
       </c>
@@ -16346,17 +16346,17 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="117"/>
+      <c r="A86" s="121"/>
       <c r="B86" s="16" t="s">
         <v>236</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="122" t="s">
+      <c r="D86" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="E86" s="122"/>
+      <c r="E86" s="117"/>
       <c r="F86" s="16">
         <v>3</v>
       </c>
@@ -16375,17 +16375,17 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="117"/>
+      <c r="A87" s="121"/>
       <c r="B87" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="122" t="s">
+      <c r="D87" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="E87" s="122"/>
+      <c r="E87" s="117"/>
       <c r="F87" s="15">
         <v>1</v>
       </c>
@@ -16404,17 +16404,17 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="118"/>
+      <c r="A88" s="122"/>
       <c r="B88" s="15" t="s">
         <v>197</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="122">
+      <c r="D88" s="117">
         <v>620105</v>
       </c>
-      <c r="E88" s="122"/>
+      <c r="E88" s="117"/>
       <c r="F88" s="15">
         <v>1</v>
       </c>
@@ -16440,8 +16440,8 @@
       <c r="C89" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="122"/>
-      <c r="E89" s="122"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
       <c r="F89" s="16">
         <v>4</v>
       </c>
@@ -16463,25 +16463,25 @@
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="123"/>
+      <c r="D90" s="118"/>
+      <c r="E90" s="118"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="12"/>
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="116" t="s">
+      <c r="A91" s="120" t="s">
         <v>574</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="15"/>
-      <c r="D91" s="122" t="s">
+      <c r="D91" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="E91" s="122"/>
+      <c r="E91" s="117"/>
       <c r="F91" s="15">
         <v>1</v>
       </c>
@@ -16497,15 +16497,15 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="117"/>
+      <c r="A92" s="121"/>
       <c r="B92" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C92" s="15"/>
-      <c r="D92" s="122" t="s">
+      <c r="D92" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="E92" s="122"/>
+      <c r="E92" s="117"/>
       <c r="F92" s="15">
         <v>1</v>
       </c>
@@ -16521,15 +16521,15 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="117"/>
+      <c r="A93" s="121"/>
       <c r="B93" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C93" s="15"/>
-      <c r="D93" s="122" t="s">
+      <c r="D93" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="122"/>
+      <c r="E93" s="117"/>
       <c r="F93" s="15">
         <v>1</v>
       </c>
@@ -16545,15 +16545,15 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="117"/>
+      <c r="A94" s="121"/>
       <c r="B94" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C94" s="15"/>
-      <c r="D94" s="122" t="s">
+      <c r="D94" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="E94" s="122"/>
+      <c r="E94" s="117"/>
       <c r="F94" s="15">
         <v>5</v>
       </c>
@@ -16569,17 +16569,17 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="117"/>
+      <c r="A95" s="121"/>
       <c r="B95" s="15" t="s">
         <v>186</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="122" t="s">
+      <c r="D95" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="E95" s="122"/>
+      <c r="E95" s="117"/>
       <c r="F95" s="15">
         <v>2</v>
       </c>
@@ -16595,17 +16595,17 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="118"/>
+      <c r="A96" s="122"/>
       <c r="B96" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="122" t="s">
+      <c r="D96" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="E96" s="122"/>
+      <c r="E96" s="117"/>
       <c r="F96" s="15">
         <v>9</v>
       </c>
@@ -16624,25 +16624,25 @@
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="12"/>
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="120" t="s">
         <v>230</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C98" s="15"/>
-      <c r="D98" s="122" t="s">
+      <c r="D98" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="E98" s="122"/>
+      <c r="E98" s="117"/>
       <c r="F98" s="15">
         <v>2</v>
       </c>
@@ -16658,15 +16658,15 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="117"/>
+      <c r="A99" s="121"/>
       <c r="B99" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C99" s="15"/>
-      <c r="D99" s="122" t="s">
+      <c r="D99" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="E99" s="122"/>
+      <c r="E99" s="117"/>
       <c r="F99" s="15">
         <v>2</v>
       </c>
@@ -16682,15 +16682,15 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="117"/>
+      <c r="A100" s="121"/>
       <c r="B100" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C100" s="15"/>
-      <c r="D100" s="122" t="s">
+      <c r="D100" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="E100" s="122"/>
+      <c r="E100" s="117"/>
       <c r="F100" s="15">
         <v>2</v>
       </c>
@@ -16706,13 +16706,13 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="117"/>
+      <c r="A101" s="121"/>
       <c r="B101" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C101" s="15"/>
-      <c r="D101" s="122"/>
-      <c r="E101" s="122"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="117"/>
       <c r="F101" s="15">
         <v>1</v>
       </c>
@@ -16728,13 +16728,13 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="117"/>
+      <c r="A102" s="121"/>
       <c r="B102" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C102" s="15"/>
-      <c r="D102" s="122"/>
-      <c r="E102" s="122"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
       <c r="F102" s="15">
         <v>1</v>
       </c>
@@ -16750,13 +16750,13 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="117"/>
+      <c r="A103" s="121"/>
       <c r="B103" s="15" t="s">
         <v>164</v>
       </c>
       <c r="C103" s="15"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
+      <c r="D103" s="117"/>
+      <c r="E103" s="117"/>
       <c r="F103" s="15"/>
       <c r="G103" s="15" t="s">
         <v>178</v>
@@ -16770,13 +16770,13 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="117"/>
+      <c r="A104" s="121"/>
       <c r="B104" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C104" s="15"/>
-      <c r="D104" s="122"/>
-      <c r="E104" s="122"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="117"/>
       <c r="F104" s="15"/>
       <c r="G104" s="15" t="s">
         <v>178</v>
@@ -16790,13 +16790,13 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="117"/>
+      <c r="A105" s="121"/>
       <c r="B105" s="15" t="s">
         <v>166</v>
       </c>
       <c r="C105" s="15"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="122"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15" t="s">
         <v>178</v>
@@ -16810,13 +16810,13 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="117"/>
+      <c r="A106" s="121"/>
       <c r="B106" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C106" s="15"/>
-      <c r="D106" s="122"/>
-      <c r="E106" s="122"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="117"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15" t="s">
         <v>178</v>
@@ -16830,13 +16830,13 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="117"/>
+      <c r="A107" s="121"/>
       <c r="B107" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C107" s="15"/>
-      <c r="D107" s="122"/>
-      <c r="E107" s="122"/>
+      <c r="D107" s="117"/>
+      <c r="E107" s="117"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
         <v>178</v>
@@ -16850,13 +16850,13 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="117"/>
+      <c r="A108" s="121"/>
       <c r="B108" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C108" s="15"/>
-      <c r="D108" s="122"/>
-      <c r="E108" s="122"/>
+      <c r="D108" s="117"/>
+      <c r="E108" s="117"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15" t="s">
         <v>178</v>
@@ -16870,13 +16870,13 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="117"/>
+      <c r="A109" s="121"/>
       <c r="B109" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C109" s="15"/>
-      <c r="D109" s="122"/>
-      <c r="E109" s="122"/>
+      <c r="D109" s="117"/>
+      <c r="E109" s="117"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15" t="s">
         <v>178</v>
@@ -16890,13 +16890,13 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="117"/>
+      <c r="A110" s="121"/>
       <c r="B110" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C110" s="15"/>
-      <c r="D110" s="122"/>
-      <c r="E110" s="122"/>
+      <c r="D110" s="117"/>
+      <c r="E110" s="117"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15" t="s">
         <v>61</v>
@@ -16910,13 +16910,13 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="117"/>
+      <c r="A111" s="121"/>
       <c r="B111" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="15"/>
-      <c r="D111" s="122"/>
-      <c r="E111" s="122"/>
+      <c r="D111" s="117"/>
+      <c r="E111" s="117"/>
       <c r="F111" s="15"/>
       <c r="G111" s="15" t="s">
         <v>61</v>
@@ -16930,13 +16930,13 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="117"/>
+      <c r="A112" s="121"/>
       <c r="B112" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C112" s="15"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
+      <c r="D112" s="117"/>
+      <c r="E112" s="117"/>
       <c r="F112" s="15"/>
       <c r="G112" s="15" t="s">
         <v>61</v>
@@ -16950,13 +16950,13 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="117"/>
+      <c r="A113" s="121"/>
       <c r="B113" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C113" s="15"/>
-      <c r="D113" s="122"/>
-      <c r="E113" s="122"/>
+      <c r="D113" s="117"/>
+      <c r="E113" s="117"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15" t="s">
         <v>61</v>
@@ -16970,13 +16970,13 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="117"/>
+      <c r="A114" s="121"/>
       <c r="B114" s="15" t="s">
         <v>175</v>
       </c>
       <c r="C114" s="15"/>
-      <c r="D114" s="122"/>
-      <c r="E114" s="122"/>
+      <c r="D114" s="117"/>
+      <c r="E114" s="117"/>
       <c r="F114" s="15"/>
       <c r="G114" s="15" t="s">
         <v>61</v>
@@ -16990,13 +16990,13 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="117"/>
+      <c r="A115" s="121"/>
       <c r="B115" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C115" s="15"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
+      <c r="D115" s="117"/>
+      <c r="E115" s="117"/>
       <c r="F115" s="15"/>
       <c r="G115" s="15" t="s">
         <v>61</v>
@@ -17010,13 +17010,13 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="117"/>
+      <c r="A116" s="121"/>
       <c r="B116" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C116" s="15"/>
-      <c r="D116" s="122"/>
-      <c r="E116" s="122"/>
+      <c r="D116" s="117"/>
+      <c r="E116" s="117"/>
       <c r="F116" s="15"/>
       <c r="G116" s="15" t="s">
         <v>178</v>
@@ -17030,13 +17030,13 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="117"/>
+      <c r="A117" s="121"/>
       <c r="B117" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C117" s="15"/>
-      <c r="D117" s="122"/>
-      <c r="E117" s="122"/>
+      <c r="D117" s="117"/>
+      <c r="E117" s="117"/>
       <c r="F117" s="15"/>
       <c r="G117" s="15" t="s">
         <v>178</v>
@@ -17050,13 +17050,13 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="118"/>
+      <c r="A118" s="122"/>
       <c r="B118" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C118" s="15"/>
-      <c r="D118" s="122"/>
-      <c r="E118" s="122"/>
+      <c r="D118" s="117"/>
+      <c r="E118" s="117"/>
       <c r="F118" s="15">
         <v>1</v>
       </c>
@@ -17073,6 +17073,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="A98:A118"/>
+    <mergeCell ref="A5:A28"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A48:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="D11:E11"/>
@@ -17097,105 +17196,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A98:A118"/>
-    <mergeCell ref="A5:A28"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A48:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -17219,8 +17219,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17862,7 +17862,7 @@
       <c r="H32" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="I32" s="122" t="s">
+      <c r="I32" s="117" t="s">
         <v>537</v>
       </c>
     </row>
@@ -17889,7 +17889,7 @@
       <c r="H33" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="I33" s="122"/>
+      <c r="I33" s="117"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
@@ -17914,7 +17914,7 @@
       <c r="H34" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="I34" s="122"/>
+      <c r="I34" s="117"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6">
@@ -17939,7 +17939,7 @@
       <c r="H35" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="I35" s="122"/>
+      <c r="I35" s="117"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6">
@@ -17962,7 +17962,7 @@
         <v>381</v>
       </c>
       <c r="H36" s="24"/>
-      <c r="I36" s="122"/>
+      <c r="I36" s="117"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6">
@@ -17985,7 +17985,7 @@
         <v>382</v>
       </c>
       <c r="H37" s="24"/>
-      <c r="I37" s="122"/>
+      <c r="I37" s="117"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6">
@@ -18010,7 +18010,7 @@
       <c r="H38" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="I38" s="122"/>
+      <c r="I38" s="117"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6">
@@ -18035,7 +18035,7 @@
       <c r="H39" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="I39" s="122"/>
+      <c r="I39" s="117"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
@@ -18060,7 +18060,7 @@
       <c r="H40" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="I40" s="122"/>
+      <c r="I40" s="117"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6">
@@ -18085,7 +18085,7 @@
       <c r="H41" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="I41" s="122"/>
+      <c r="I41" s="117"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6">
@@ -18110,7 +18110,7 @@
       <c r="H42" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="I42" s="122"/>
+      <c r="I42" s="117"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6">
@@ -18135,7 +18135,7 @@
       <c r="H43" s="25" t="s">
         <v>924</v>
       </c>
-      <c r="I43" s="122"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
@@ -18160,7 +18160,7 @@
       <c r="H44" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="I44" s="122"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6">
@@ -18185,7 +18185,7 @@
       <c r="H45" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="I45" s="122"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
@@ -18210,7 +18210,7 @@
       <c r="H46" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="I46" s="122"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6">
@@ -18235,7 +18235,7 @@
       <c r="H47" s="24" t="s">
         <v>928</v>
       </c>
-      <c r="I47" s="122"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
@@ -18260,7 +18260,7 @@
       <c r="H48" s="24" t="s">
         <v>1471</v>
       </c>
-      <c r="I48" s="122"/>
+      <c r="I48" s="117"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6">
@@ -18285,7 +18285,7 @@
       <c r="H49" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="I49" s="122"/>
+      <c r="I49" s="117"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6">
@@ -18310,7 +18310,7 @@
       <c r="H50" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="I50" s="122"/>
+      <c r="I50" s="117"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6">
@@ -18335,7 +18335,7 @@
       <c r="H51" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="I51" s="122"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6">
@@ -18360,7 +18360,7 @@
       <c r="H52" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="I52" s="122"/>
+      <c r="I52" s="117"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6">
@@ -18383,7 +18383,7 @@
         <v>398</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="122"/>
+      <c r="I53" s="117"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6">
@@ -18408,7 +18408,7 @@
       <c r="H54" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="I54" s="122"/>
+      <c r="I54" s="117"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6">
@@ -18433,7 +18433,7 @@
       <c r="H55" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="I55" s="122"/>
+      <c r="I55" s="117"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6">
@@ -18452,7 +18452,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="122"/>
+      <c r="I56" s="117"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6">
@@ -18471,7 +18471,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="122"/>
+      <c r="I57" s="117"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6">
@@ -18490,7 +18490,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="122"/>
+      <c r="I58" s="117"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6">
@@ -18509,7 +18509,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="122"/>
+      <c r="I59" s="117"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6">
@@ -18528,7 +18528,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="122"/>
+      <c r="I60" s="117"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6">
@@ -18547,7 +18547,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="122"/>
+      <c r="I61" s="117"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6">
@@ -18566,7 +18566,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="122"/>
+      <c r="I62" s="117"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6">
@@ -18585,7 +18585,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="122"/>
+      <c r="I63" s="117"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6">
@@ -18604,7 +18604,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="122"/>
+      <c r="I64" s="117"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6">
@@ -18623,7 +18623,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="122"/>
+      <c r="I65" s="117"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6">
@@ -18642,7 +18642,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="122"/>
+      <c r="I66" s="117"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6">
@@ -18661,7 +18661,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="122"/>
+      <c r="I67" s="117"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="33">
@@ -18686,7 +18686,7 @@
       <c r="H68" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="I68" s="122" t="s">
+      <c r="I68" s="117" t="s">
         <v>536</v>
       </c>
     </row>
@@ -18713,7 +18713,7 @@
       <c r="H69" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="I69" s="122"/>
+      <c r="I69" s="117"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="33">
@@ -18738,7 +18738,7 @@
       <c r="H70" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="I70" s="122"/>
+      <c r="I70" s="117"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="33">
@@ -18763,7 +18763,7 @@
       <c r="H71" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="I71" s="122"/>
+      <c r="I71" s="117"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="33">
@@ -18788,7 +18788,7 @@
       <c r="H72" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="I72" s="122"/>
+      <c r="I72" s="117"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="33">
@@ -18813,7 +18813,7 @@
       <c r="H73" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="I73" s="122"/>
+      <c r="I73" s="117"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="33">
@@ -18838,7 +18838,7 @@
       <c r="H74" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="I74" s="122"/>
+      <c r="I74" s="117"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="33">
@@ -18861,7 +18861,7 @@
         <v>426</v>
       </c>
       <c r="H75" s="31"/>
-      <c r="I75" s="122"/>
+      <c r="I75" s="117"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="33">
@@ -18880,7 +18880,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="122" t="s">
+      <c r="I76" s="117" t="s">
         <v>852</v>
       </c>
     </row>
@@ -18901,7 +18901,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="122"/>
+      <c r="I77" s="117"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="33">
@@ -18920,7 +18920,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="122"/>
+      <c r="I78" s="117"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="33">
@@ -18939,7 +18939,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="122"/>
+      <c r="I79" s="117"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="33">
@@ -18958,7 +18958,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="122"/>
+      <c r="I80" s="117"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="33">
@@ -18975,7 +18975,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="122"/>
+      <c r="I81" s="117"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="33">
@@ -18994,7 +18994,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="122"/>
+      <c r="I82" s="117"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="33">
@@ -19013,7 +19013,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="122"/>
+      <c r="I83" s="117"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="33">
@@ -19032,7 +19032,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="122"/>
+      <c r="I84" s="117"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="33">
@@ -19051,7 +19051,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="122"/>
+      <c r="I85" s="117"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="33">
@@ -19070,7 +19070,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="122"/>
+      <c r="I86" s="117"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="33">
@@ -19089,7 +19089,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="122"/>
+      <c r="I87" s="117"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="33">
@@ -19108,7 +19108,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="122"/>
+      <c r="I88" s="117"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="33">
@@ -19127,7 +19127,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="122"/>
+      <c r="I89" s="117"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="33">
@@ -19146,7 +19146,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="122"/>
+      <c r="I90" s="117"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="33">
@@ -19165,7 +19165,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="122"/>
+      <c r="I91" s="117"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="33">
@@ -19184,7 +19184,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="116" t="s">
+      <c r="I92" s="120" t="s">
         <v>853</v>
       </c>
     </row>
@@ -19205,7 +19205,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="117"/>
+      <c r="I93" s="121"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="33">
@@ -19224,7 +19224,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="117"/>
+      <c r="I94" s="121"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="33">
@@ -19243,7 +19243,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="117"/>
+      <c r="I95" s="121"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="33">
@@ -19262,7 +19262,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="117"/>
+      <c r="I96" s="121"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="33">
@@ -19281,7 +19281,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="117"/>
+      <c r="I97" s="121"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="33">
@@ -19298,7 +19298,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="117"/>
+      <c r="I98" s="121"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="33">
@@ -19315,7 +19315,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="31"/>
-      <c r="I99" s="117"/>
+      <c r="I99" s="121"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="33">
@@ -19332,7 +19332,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="117"/>
+      <c r="I100" s="121"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="33">
@@ -19349,7 +19349,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="117"/>
+      <c r="I101" s="121"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="33">
@@ -19366,7 +19366,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="117"/>
+      <c r="I102" s="121"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="33">
@@ -19383,7 +19383,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="117"/>
+      <c r="I103" s="121"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="33">
@@ -19400,7 +19400,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="117"/>
+      <c r="I104" s="121"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="33">
@@ -19417,7 +19417,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="117"/>
+      <c r="I105" s="121"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="33">
@@ -19434,7 +19434,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="117"/>
+      <c r="I106" s="121"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="33">
@@ -19451,7 +19451,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="31"/>
-      <c r="I107" s="118"/>
+      <c r="I107" s="122"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="78"/>
@@ -19501,7 +19501,7 @@
       <c r="D112" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E112" s="116" t="s">
+      <c r="E112" s="120" t="s">
         <v>534</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -19513,7 +19513,7 @@
       <c r="H112" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I112" s="122" t="s">
+      <c r="I112" s="117" t="s">
         <v>535</v>
       </c>
     </row>
@@ -19530,7 +19530,7 @@
       <c r="D113" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="E113" s="117"/>
+      <c r="E113" s="121"/>
       <c r="F113" s="1" t="s">
         <v>530</v>
       </c>
@@ -19540,7 +19540,7 @@
       <c r="H113" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="I113" s="122"/>
+      <c r="I113" s="117"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6">
@@ -19555,7 +19555,7 @@
       <c r="D114" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="E114" s="117"/>
+      <c r="E114" s="121"/>
       <c r="F114" s="1" t="s">
         <v>310</v>
       </c>
@@ -19565,7 +19565,7 @@
       <c r="H114" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="I114" s="122"/>
+      <c r="I114" s="117"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6">
@@ -19580,7 +19580,7 @@
       <c r="D115" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="E115" s="117"/>
+      <c r="E115" s="121"/>
       <c r="F115" s="1" t="s">
         <v>312</v>
       </c>
@@ -19590,7 +19590,7 @@
       <c r="H115" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="I115" s="122"/>
+      <c r="I115" s="117"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6">
@@ -19605,7 +19605,7 @@
       <c r="D116" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="E116" s="117"/>
+      <c r="E116" s="121"/>
       <c r="F116" s="1" t="s">
         <v>314</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>516</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="122"/>
+      <c r="I116" s="117"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6">
@@ -19628,7 +19628,7 @@
       <c r="D117" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="E117" s="117"/>
+      <c r="E117" s="121"/>
       <c r="F117" s="1" t="s">
         <v>316</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>517</v>
       </c>
       <c r="H117" s="30"/>
-      <c r="I117" s="122"/>
+      <c r="I117" s="117"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6">
@@ -19651,7 +19651,7 @@
       <c r="D118" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E118" s="117"/>
+      <c r="E118" s="121"/>
       <c r="F118" s="1" t="s">
         <v>318</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>518</v>
       </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="122"/>
+      <c r="I118" s="117"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6">
@@ -19674,7 +19674,7 @@
       <c r="D119" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="E119" s="117"/>
+      <c r="E119" s="121"/>
       <c r="F119" s="1" t="s">
         <v>320</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>519</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="122"/>
+      <c r="I119" s="117"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6">
@@ -19697,7 +19697,7 @@
       <c r="D120" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="E120" s="117"/>
+      <c r="E120" s="121"/>
       <c r="F120" s="1" t="s">
         <v>322</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>520</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="122"/>
+      <c r="I120" s="117"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6">
@@ -19720,7 +19720,7 @@
       <c r="D121" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="E121" s="117"/>
+      <c r="E121" s="121"/>
       <c r="F121" s="1" t="s">
         <v>324</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>521</v>
       </c>
       <c r="H121" s="4"/>
-      <c r="I121" s="122"/>
+      <c r="I121" s="117"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6">
@@ -19741,7 +19741,7 @@
         <v>508</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="117"/>
+      <c r="E122" s="121"/>
       <c r="F122" s="1" t="s">
         <v>326</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>522</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="122"/>
+      <c r="I122" s="117"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6">
@@ -19762,7 +19762,7 @@
         <v>509</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="117"/>
+      <c r="E123" s="121"/>
       <c r="F123" s="1" t="s">
         <v>328</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>523</v>
       </c>
       <c r="H123" s="4"/>
-      <c r="I123" s="122"/>
+      <c r="I123" s="117"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6">
@@ -19783,7 +19783,7 @@
         <v>510</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="117"/>
+      <c r="E124" s="121"/>
       <c r="F124" s="1" t="s">
         <v>330</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>524</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="122"/>
+      <c r="I124" s="117"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6">
@@ -19804,7 +19804,7 @@
         <v>511</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="117"/>
+      <c r="E125" s="121"/>
       <c r="F125" s="1" t="s">
         <v>332</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>525</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="I125" s="122"/>
+      <c r="I125" s="117"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6">
@@ -19825,7 +19825,7 @@
         <v>512</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="117"/>
+      <c r="E126" s="121"/>
       <c r="F126" s="1" t="s">
         <v>334</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>526</v>
       </c>
       <c r="H126" s="4"/>
-      <c r="I126" s="122"/>
+      <c r="I126" s="117"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6">
@@ -19846,7 +19846,7 @@
         <v>513</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="117"/>
+      <c r="E127" s="121"/>
       <c r="F127" s="1" t="s">
         <v>336</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>527</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="122"/>
+      <c r="I127" s="117"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6">
@@ -19867,7 +19867,7 @@
         <v>529</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="118"/>
+      <c r="E128" s="122"/>
       <c r="F128" s="1" t="s">
         <v>531</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>533</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="122"/>
+      <c r="I128" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -20284,12 +20284,12 @@
       <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
@@ -20303,10 +20303,10 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="135" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="135"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="40" t="s">
         <v>590</v>
       </c>
@@ -20320,20 +20320,20 @@
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="136" t="s">
         <v>593</v>
       </c>
-      <c r="K3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="44">
         <v>20170306</v>
       </c>
       <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>594</v>
       </c>
-      <c r="B4" s="135"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="44" t="s">
         <v>595</v>
       </c>
@@ -20345,18 +20345,18 @@
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="135" t="s">
+      <c r="J4" s="136" t="s">
         <v>597</v>
       </c>
-      <c r="K4" s="135"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="41"/>
       <c r="M4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="137" t="s">
         <v>598</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
       <c r="E5" s="49"/>
@@ -20366,10 +20366,10 @@
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="136" t="s">
         <v>600</v>
       </c>
-      <c r="K5" s="135"/>
+      <c r="K5" s="136"/>
       <c r="L5" s="48"/>
       <c r="M5" s="52"/>
     </row>
@@ -20395,14 +20395,14 @@
       <c r="B7" s="56" t="s">
         <v>602</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="130" t="s">
         <v>603</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="130" t="s">
         <v>604</v>
       </c>
-      <c r="F7" s="138"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="57" t="s">
         <v>605</v>
       </c>
@@ -20418,17 +20418,17 @@
       <c r="K7" s="58" t="s">
         <v>609</v>
       </c>
-      <c r="L7" s="127" t="s">
+      <c r="L7" s="131" t="s">
         <v>610</v>
       </c>
-      <c r="M7" s="127"/>
+      <c r="M7" s="131"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="59">
         <v>1</v>
       </c>
       <c r="B8" s="60"/>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="132" t="s">
         <v>611</v>
       </c>
       <c r="D8" s="60" t="s">
@@ -20462,7 +20462,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="60"/>
-      <c r="C9" s="128"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="60" t="s">
         <v>617</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="60"/>
-      <c r="C10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="67" t="s">
         <v>621</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="60"/>
-      <c r="C11" s="128"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="67" t="s">
         <v>625</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="60"/>
-      <c r="C12" s="128"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="67" t="s">
         <v>625</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="60"/>
-      <c r="C13" s="128"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="60" t="s">
         <v>628</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="60"/>
-      <c r="C14" s="128"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="60" t="s">
         <v>632</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="60" t="s">
         <v>635</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="60"/>
-      <c r="C16" s="128"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="60" t="s">
         <v>637</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="60"/>
-      <c r="C17" s="128"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="60" t="s">
         <v>639</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="60"/>
-      <c r="C18" s="128"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="69" t="s">
         <v>642</v>
       </c>
@@ -20747,7 +20747,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="60"/>
-      <c r="C19" s="128"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="69" t="s">
         <v>644</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="60"/>
-      <c r="C20" s="128"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="69" t="s">
         <v>647</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="60"/>
-      <c r="C21" s="128"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="69" t="s">
         <v>647</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="60"/>
-      <c r="C22" s="128"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="70" t="s">
         <v>649</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="60"/>
-      <c r="C23" s="128"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="69" t="s">
         <v>652</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="60"/>
-      <c r="C24" s="128"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="69" t="s">
         <v>654</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="60"/>
-      <c r="C25" s="128"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="69" t="s">
         <v>657</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="60"/>
-      <c r="C26" s="128"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="69" t="s">
         <v>659</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="60"/>
-      <c r="C27" s="128"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="69" t="s">
         <v>1312</v>
       </c>
@@ -20996,7 +20996,7 @@
     <row r="28" spans="1:13">
       <c r="A28" s="59"/>
       <c r="B28" s="60"/>
-      <c r="C28" s="128"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="94" t="s">
         <v>1313</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="60"/>
-      <c r="C29" s="128"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="69" t="s">
         <v>663</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="60"/>
-      <c r="C30" s="128"/>
+      <c r="C30" s="132"/>
       <c r="D30" s="69" t="s">
         <v>666</v>
       </c>
@@ -21077,7 +21077,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="60"/>
-      <c r="C31" s="128"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="72" t="s">
         <v>669</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="60"/>
-      <c r="C32" s="128"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="72" t="s">
         <v>672</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="60"/>
-      <c r="C33" s="128"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="72" t="s">
         <v>673</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="60"/>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="127" t="s">
         <v>676</v>
       </c>
       <c r="D34" s="72" t="s">
@@ -21191,7 +21191,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="60"/>
-      <c r="C35" s="129"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="72" t="s">
         <v>680</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="60"/>
-      <c r="C36" s="129"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="72" t="s">
         <v>677</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="60"/>
-      <c r="C37" s="129"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="72" t="s">
         <v>680</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="60"/>
-      <c r="C38" s="129"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="72" t="s">
         <v>677</v>
       </c>
@@ -21307,7 +21307,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="60"/>
-      <c r="C39" s="129"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="72" t="s">
         <v>680</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="60"/>
-      <c r="C40" s="129"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="72" t="s">
         <v>686</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="60"/>
-      <c r="C41" s="129"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="72" t="s">
         <v>688</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="60"/>
-      <c r="C42" s="129"/>
+      <c r="C42" s="127"/>
       <c r="D42" s="72" t="s">
         <v>690</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="60"/>
-      <c r="C43" s="129"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="72" t="s">
         <v>694</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="60"/>
-      <c r="C44" s="129"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="72" t="s">
         <v>696</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="60"/>
-      <c r="C45" s="129"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="68" t="s">
         <v>699</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="60"/>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="128" t="s">
         <v>701</v>
       </c>
       <c r="D46" s="68" t="s">
@@ -21541,7 +21541,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="60"/>
-      <c r="C47" s="131"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="68" t="s">
         <v>705</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="60"/>
-      <c r="C48" s="131"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="68" t="s">
         <v>707</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="60"/>
-      <c r="C49" s="131"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="68" t="s">
         <v>709</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="60"/>
-      <c r="C50" s="129" t="s">
+      <c r="C50" s="127" t="s">
         <v>712</v>
       </c>
       <c r="D50" s="68" t="s">
@@ -21655,7 +21655,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="60"/>
-      <c r="C51" s="129"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="68" t="s">
         <v>715</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="60"/>
-      <c r="C52" s="129"/>
+      <c r="C52" s="127"/>
       <c r="D52" s="68" t="s">
         <v>717</v>
       </c>
@@ -21707,7 +21707,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="60"/>
-      <c r="C53" s="129"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="68" t="s">
         <v>717</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="60"/>
-      <c r="C54" s="129"/>
+      <c r="C54" s="127"/>
       <c r="D54" s="68" t="s">
         <v>720</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="60"/>
-      <c r="C55" s="129"/>
+      <c r="C55" s="127"/>
       <c r="D55" s="68" t="s">
         <v>722</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="60"/>
-      <c r="C56" s="129"/>
+      <c r="C56" s="127"/>
       <c r="D56" s="68" t="s">
         <v>723</v>
       </c>
@@ -21807,7 +21807,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="60"/>
-      <c r="C57" s="129"/>
+      <c r="C57" s="127"/>
       <c r="D57" s="68" t="s">
         <v>724</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="60"/>
-      <c r="C58" s="129"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="68" t="s">
         <v>726</v>
       </c>
@@ -21857,7 +21857,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="60"/>
-      <c r="C59" s="129"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="68" t="s">
         <v>727</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="60"/>
-      <c r="C60" s="129"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="68" t="s">
         <v>729</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="60"/>
-      <c r="C61" s="129"/>
+      <c r="C61" s="127"/>
       <c r="D61" s="68" t="s">
         <v>731</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="60"/>
-      <c r="C62" s="129"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="68" t="s">
         <v>819</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="60"/>
-      <c r="C63" s="129"/>
+      <c r="C63" s="127"/>
       <c r="D63" s="68" t="s">
         <v>733</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="60"/>
-      <c r="C64" s="129"/>
+      <c r="C64" s="127"/>
       <c r="D64" s="68" t="s">
         <v>736</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="60"/>
-      <c r="C65" s="129"/>
+      <c r="C65" s="127"/>
       <c r="D65" s="68" t="s">
         <v>739</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="60"/>
-      <c r="C66" s="129"/>
+      <c r="C66" s="127"/>
       <c r="D66" s="68" t="s">
         <v>741</v>
       </c>
@@ -22073,7 +22073,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="60"/>
-      <c r="C67" s="129"/>
+      <c r="C67" s="127"/>
       <c r="D67" s="68" t="s">
         <v>743</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="60"/>
-      <c r="C68" s="129"/>
+      <c r="C68" s="127"/>
       <c r="D68" s="68" t="s">
         <v>745</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="60"/>
-      <c r="C69" s="129"/>
+      <c r="C69" s="127"/>
       <c r="D69" s="68" t="s">
         <v>747</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="60"/>
-      <c r="C70" s="129"/>
+      <c r="C70" s="127"/>
       <c r="D70" s="68" t="s">
         <v>749</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="60"/>
-      <c r="C71" s="129"/>
+      <c r="C71" s="127"/>
       <c r="D71" s="68" t="s">
         <v>752</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="60"/>
-      <c r="C72" s="129"/>
+      <c r="C72" s="127"/>
       <c r="D72" s="68" t="s">
         <v>753</v>
       </c>
@@ -22239,7 +22239,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="60"/>
-      <c r="C73" s="129"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="68" t="s">
         <v>755</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="60"/>
-      <c r="C74" s="129"/>
+      <c r="C74" s="127"/>
       <c r="D74" s="68" t="s">
         <v>757</v>
       </c>
@@ -22293,7 +22293,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="60"/>
-      <c r="C75" s="129"/>
+      <c r="C75" s="127"/>
       <c r="D75" s="68" t="s">
         <v>758</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="60"/>
-      <c r="C76" s="129"/>
+      <c r="C76" s="127"/>
       <c r="D76" s="68" t="s">
         <v>760</v>
       </c>
@@ -22347,7 +22347,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="60"/>
-      <c r="C77" s="129"/>
+      <c r="C77" s="127"/>
       <c r="D77" s="97" t="s">
         <v>760</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="60"/>
-      <c r="C78" s="129"/>
+      <c r="C78" s="127"/>
       <c r="D78" s="97" t="s">
         <v>1316</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="60"/>
-      <c r="C79" s="129"/>
+      <c r="C79" s="127"/>
       <c r="D79" s="68" t="s">
         <v>757</v>
       </c>
@@ -22428,7 +22428,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="60"/>
-      <c r="C80" s="129"/>
+      <c r="C80" s="127"/>
       <c r="D80" s="68" t="s">
         <v>762</v>
       </c>
@@ -22457,7 +22457,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="60"/>
-      <c r="C81" s="129"/>
+      <c r="C81" s="127"/>
       <c r="D81" s="68" t="s">
         <v>764</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="60"/>
-      <c r="C82" s="129"/>
+      <c r="C82" s="127"/>
       <c r="D82" s="68" t="s">
         <v>764</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="60"/>
-      <c r="C83" s="129"/>
+      <c r="C83" s="127"/>
       <c r="D83" s="68" t="s">
         <v>764</v>
       </c>
@@ -22544,7 +22544,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="60"/>
-      <c r="C84" s="129"/>
+      <c r="C84" s="127"/>
       <c r="D84" s="68" t="s">
         <v>769</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="60"/>
-      <c r="C85" s="129"/>
+      <c r="C85" s="127"/>
       <c r="D85" s="68" t="s">
         <v>769</v>
       </c>
@@ -22602,7 +22602,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="60"/>
-      <c r="C86" s="129"/>
+      <c r="C86" s="127"/>
       <c r="D86" s="68" t="s">
         <v>769</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="60"/>
-      <c r="C87" s="129"/>
+      <c r="C87" s="127"/>
       <c r="D87" s="68" t="s">
         <v>892</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="60"/>
-      <c r="C88" s="129"/>
+      <c r="C88" s="127"/>
       <c r="D88" s="68" t="s">
         <v>893</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="60"/>
-      <c r="C89" s="129"/>
+      <c r="C89" s="127"/>
       <c r="D89" s="68" t="s">
         <v>777</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="60"/>
-      <c r="C90" s="129"/>
+      <c r="C90" s="127"/>
       <c r="D90" s="68" t="s">
         <v>781</v>
       </c>
@@ -22755,7 +22755,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="60"/>
-      <c r="C91" s="129"/>
+      <c r="C91" s="127"/>
       <c r="D91" s="68" t="s">
         <v>783</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="60"/>
-      <c r="C92" s="130" t="s">
+      <c r="C92" s="128" t="s">
         <v>786</v>
       </c>
       <c r="D92" s="68" t="s">
@@ -22811,7 +22811,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="60"/>
-      <c r="C93" s="131"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="68" t="s">
         <v>787</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="60"/>
-      <c r="C94" s="131"/>
+      <c r="C94" s="129"/>
       <c r="D94" s="68" t="s">
         <v>787</v>
       </c>
@@ -22861,7 +22861,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="60"/>
-      <c r="C95" s="131"/>
+      <c r="C95" s="129"/>
       <c r="D95" s="68" t="s">
         <v>787</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="60"/>
-      <c r="C96" s="131"/>
+      <c r="C96" s="129"/>
       <c r="D96" s="68" t="s">
         <v>790</v>
       </c>
@@ -22913,7 +22913,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="60"/>
-      <c r="C97" s="131"/>
+      <c r="C97" s="129"/>
       <c r="D97" s="68" t="s">
         <v>792</v>
       </c>
@@ -22940,7 +22940,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="60"/>
-      <c r="C98" s="129" t="s">
+      <c r="C98" s="127" t="s">
         <v>795</v>
       </c>
       <c r="D98" s="68" t="s">
@@ -22967,7 +22967,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="60"/>
-      <c r="C99" s="129"/>
+      <c r="C99" s="127"/>
       <c r="D99" s="68" t="s">
         <v>796</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="60"/>
-      <c r="C100" s="129"/>
+      <c r="C100" s="127"/>
       <c r="D100" s="68" t="s">
         <v>798</v>
       </c>
@@ -23017,7 +23017,7 @@
     <row r="101" spans="1:13">
       <c r="A101" s="59"/>
       <c r="B101" s="60"/>
-      <c r="C101" s="129"/>
+      <c r="C101" s="127"/>
       <c r="D101" s="97" t="s">
         <v>798</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="60"/>
-      <c r="C102" s="129"/>
+      <c r="C102" s="127"/>
       <c r="D102" s="68" t="s">
         <v>799</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="60"/>
-      <c r="C103" s="129"/>
+      <c r="C103" s="127"/>
       <c r="D103" s="68" t="s">
         <v>800</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="60"/>
-      <c r="C104" s="129"/>
+      <c r="C104" s="127"/>
       <c r="D104" s="68" t="s">
         <v>801</v>
       </c>
@@ -23111,7 +23111,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="60"/>
-      <c r="C105" s="129"/>
+      <c r="C105" s="127"/>
       <c r="D105" s="68" t="s">
         <v>803</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="60"/>
-      <c r="C106" s="129"/>
+      <c r="C106" s="127"/>
       <c r="D106" s="68" t="s">
         <v>804</v>
       </c>
@@ -23153,7 +23153,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="60"/>
-      <c r="C107" s="129"/>
+      <c r="C107" s="127"/>
       <c r="D107" s="68" t="s">
         <v>805</v>
       </c>
@@ -23174,7 +23174,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="60"/>
-      <c r="C108" s="129"/>
+      <c r="C108" s="127"/>
       <c r="D108" s="68" t="s">
         <v>806</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="60"/>
-      <c r="C109" s="129"/>
+      <c r="C109" s="127"/>
       <c r="D109" s="68" t="s">
         <v>807</v>
       </c>
@@ -23216,7 +23216,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="60"/>
-      <c r="C110" s="129"/>
+      <c r="C110" s="127"/>
       <c r="D110" s="68" t="s">
         <v>808</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="60"/>
-      <c r="C111" s="129"/>
+      <c r="C111" s="127"/>
       <c r="D111" s="68" t="s">
         <v>809</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="60"/>
-      <c r="C112" s="129"/>
+      <c r="C112" s="127"/>
       <c r="D112" s="68" t="s">
         <v>810</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="60"/>
-      <c r="C113" s="129"/>
+      <c r="C113" s="127"/>
       <c r="D113" s="68" t="s">
         <v>811</v>
       </c>
@@ -23300,7 +23300,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="60"/>
-      <c r="C114" s="129"/>
+      <c r="C114" s="127"/>
       <c r="D114" s="68" t="s">
         <v>812</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="60"/>
-      <c r="C115" s="129"/>
+      <c r="C115" s="127"/>
       <c r="D115" s="68" t="s">
         <v>813</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="60"/>
-      <c r="C116" s="129"/>
+      <c r="C116" s="127"/>
       <c r="D116" s="68" t="s">
         <v>814</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="60"/>
-      <c r="C117" s="129"/>
+      <c r="C117" s="127"/>
       <c r="D117" s="68" t="s">
         <v>815</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="60"/>
-      <c r="C118" s="129"/>
+      <c r="C118" s="127"/>
       <c r="D118" s="68" t="s">
         <v>816</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="60"/>
-      <c r="C119" s="129"/>
+      <c r="C119" s="127"/>
       <c r="D119" s="68" t="s">
         <v>817</v>
       </c>
@@ -23430,11 +23430,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -23446,6 +23441,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -23486,7 +23486,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="117" t="s">
         <v>885</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -23497,7 +23497,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="122"/>
+      <c r="A2" s="117"/>
       <c r="B2" s="1" t="s">
         <v>883</v>
       </c>
@@ -23506,7 +23506,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="122"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="1" t="s">
         <v>884</v>
       </c>
@@ -23515,7 +23515,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="117" t="s">
         <v>884</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -23526,7 +23526,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="122"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="1" t="s">
         <v>886</v>
       </c>
@@ -23535,7 +23535,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="122"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="1" t="s">
         <v>887</v>
       </c>
@@ -23544,7 +23544,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="122"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="1" t="s">
         <v>888</v>
       </c>
@@ -23553,7 +23553,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="117" t="s">
         <v>889</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -23564,7 +23564,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="122"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="1" t="s">
         <v>891</v>
       </c>
@@ -23622,7 +23622,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="116">
+      <c r="A3" s="120">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -23637,7 +23637,7 @@
       <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="117"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -23652,7 +23652,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="117"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -23667,7 +23667,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="117"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -23682,7 +23682,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="117"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -23697,7 +23697,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="117"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -23712,7 +23712,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="117"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -23727,7 +23727,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="117"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -23738,7 +23738,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="117"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -23749,7 +23749,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="118"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -23784,7 +23784,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="116">
+      <c r="A15" s="120">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -23799,7 +23799,7 @@
       <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="117"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -23814,7 +23814,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="117"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -23829,7 +23829,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="117"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -23844,7 +23844,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="117"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -23859,7 +23859,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="117"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -23874,7 +23874,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="117"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -23889,7 +23889,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="117"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -23900,7 +23900,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="117"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -23911,7 +23911,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="118"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -23946,7 +23946,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="116">
+      <c r="A27" s="120">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -23961,7 +23961,7 @@
       <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="117"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -23976,7 +23976,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="117"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -23991,7 +23991,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="117"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -24006,7 +24006,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="117"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -24021,7 +24021,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="117"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -24036,7 +24036,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="117"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -24051,7 +24051,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="117"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -24066,7 +24066,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="117"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -24077,7 +24077,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="118"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -24112,7 +24112,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="116">
+      <c r="A39" s="120">
         <v>4</v>
       </c>
       <c r="B39" s="1">
@@ -24127,7 +24127,7 @@
       <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="117"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -24142,7 +24142,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="117"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -24157,7 +24157,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="117"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="1">
         <v>4</v>
       </c>
@@ -24172,7 +24172,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="117"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="1">
         <v>5</v>
       </c>
@@ -24187,7 +24187,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="117"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="1">
         <v>6</v>
       </c>
@@ -24202,7 +24202,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="117"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="1">
         <v>7</v>
       </c>
@@ -24213,7 +24213,7 @@
       <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="117"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -24224,7 +24224,7 @@
       <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="117"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -24235,7 +24235,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="118"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="1">
         <v>10</v>
       </c>
@@ -24270,7 +24270,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="116">
+      <c r="A51" s="120">
         <v>5</v>
       </c>
       <c r="B51" s="1">
@@ -24285,7 +24285,7 @@
       <c r="E51" s="81"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="117"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -24300,7 +24300,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="117"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -24315,7 +24315,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="117"/>
+      <c r="A54" s="121"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -24330,7 +24330,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="117"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -24345,7 +24345,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="117"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -24360,7 +24360,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="117"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -24375,7 +24375,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="117"/>
+      <c r="A58" s="121"/>
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -24390,7 +24390,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="117"/>
+      <c r="A59" s="121"/>
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -24405,7 +24405,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="118"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -24440,7 +24440,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="116">
+      <c r="A63" s="120">
         <v>6</v>
       </c>
       <c r="B63" s="1">
@@ -24455,7 +24455,7 @@
       <c r="E63" s="81"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="117"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="1">
         <v>2</v>
       </c>
@@ -24470,7 +24470,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="117"/>
+      <c r="A65" s="121"/>
       <c r="B65" s="1">
         <v>3</v>
       </c>
@@ -24485,7 +24485,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="117"/>
+      <c r="A66" s="121"/>
       <c r="B66" s="1">
         <v>4</v>
       </c>
@@ -24500,7 +24500,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="117"/>
+      <c r="A67" s="121"/>
       <c r="B67" s="1">
         <v>5</v>
       </c>
@@ -24515,7 +24515,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="117"/>
+      <c r="A68" s="121"/>
       <c r="B68" s="1">
         <v>6</v>
       </c>
@@ -24530,7 +24530,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="117"/>
+      <c r="A69" s="121"/>
       <c r="B69" s="1">
         <v>7</v>
       </c>
@@ -24545,7 +24545,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="117"/>
+      <c r="A70" s="121"/>
       <c r="B70" s="1">
         <v>8</v>
       </c>
@@ -24560,7 +24560,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="117"/>
+      <c r="A71" s="121"/>
       <c r="B71" s="1">
         <v>9</v>
       </c>
@@ -24575,7 +24575,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="118"/>
+      <c r="A72" s="122"/>
       <c r="B72" s="1">
         <v>10</v>
       </c>
@@ -24610,7 +24610,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="116">
+      <c r="A75" s="120">
         <v>7</v>
       </c>
       <c r="B75" s="1">
@@ -24625,7 +24625,7 @@
       <c r="E75" s="81"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="117"/>
+      <c r="A76" s="121"/>
       <c r="B76" s="1">
         <v>2</v>
       </c>
@@ -24640,7 +24640,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="117"/>
+      <c r="A77" s="121"/>
       <c r="B77" s="1">
         <v>3</v>
       </c>
@@ -24655,7 +24655,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="117"/>
+      <c r="A78" s="121"/>
       <c r="B78" s="1">
         <v>4</v>
       </c>
@@ -24670,7 +24670,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="117"/>
+      <c r="A79" s="121"/>
       <c r="B79" s="1">
         <v>5</v>
       </c>
@@ -24685,7 +24685,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="117"/>
+      <c r="A80" s="121"/>
       <c r="B80" s="1">
         <v>6</v>
       </c>
@@ -24700,7 +24700,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="117"/>
+      <c r="A81" s="121"/>
       <c r="B81" s="1">
         <v>7</v>
       </c>
@@ -24715,7 +24715,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="117"/>
+      <c r="A82" s="121"/>
       <c r="B82" s="1">
         <v>8</v>
       </c>
@@ -24730,7 +24730,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="117"/>
+      <c r="A83" s="121"/>
       <c r="B83" s="1">
         <v>9</v>
       </c>
@@ -24745,7 +24745,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="118"/>
+      <c r="A84" s="122"/>
       <c r="B84" s="1">
         <v>10</v>
       </c>
@@ -24780,7 +24780,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="116">
+      <c r="A87" s="120">
         <v>8</v>
       </c>
       <c r="B87" s="1">
@@ -24795,7 +24795,7 @@
       <c r="E87" s="81"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="117"/>
+      <c r="A88" s="121"/>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -24810,7 +24810,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="117"/>
+      <c r="A89" s="121"/>
       <c r="B89" s="1">
         <v>3</v>
       </c>
@@ -24825,7 +24825,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="117"/>
+      <c r="A90" s="121"/>
       <c r="B90" s="1">
         <v>4</v>
       </c>
@@ -24840,7 +24840,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="117"/>
+      <c r="A91" s="121"/>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -24855,7 +24855,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="117"/>
+      <c r="A92" s="121"/>
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -24870,7 +24870,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="117"/>
+      <c r="A93" s="121"/>
       <c r="B93" s="1">
         <v>7</v>
       </c>
@@ -24885,7 +24885,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="117"/>
+      <c r="A94" s="121"/>
       <c r="B94" s="1">
         <v>8</v>
       </c>
@@ -24896,7 +24896,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="117"/>
+      <c r="A95" s="121"/>
       <c r="B95" s="1">
         <v>9</v>
       </c>
@@ -24907,7 +24907,7 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="118"/>
+      <c r="A96" s="122"/>
       <c r="B96" s="1">
         <v>10</v>
       </c>
@@ -24942,7 +24942,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="116">
+      <c r="A99" s="120">
         <v>9</v>
       </c>
       <c r="B99" s="1">
@@ -24957,7 +24957,7 @@
       <c r="E99" s="81"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="117"/>
+      <c r="A100" s="121"/>
       <c r="B100" s="1">
         <v>2</v>
       </c>
@@ -24972,7 +24972,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="117"/>
+      <c r="A101" s="121"/>
       <c r="B101" s="1">
         <v>3</v>
       </c>
@@ -24987,7 +24987,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="117"/>
+      <c r="A102" s="121"/>
       <c r="B102" s="1">
         <v>4</v>
       </c>
@@ -25002,7 +25002,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="117"/>
+      <c r="A103" s="121"/>
       <c r="B103" s="1">
         <v>5</v>
       </c>
@@ -25017,7 +25017,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="117"/>
+      <c r="A104" s="121"/>
       <c r="B104" s="1">
         <v>6</v>
       </c>
@@ -25032,7 +25032,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="117"/>
+      <c r="A105" s="121"/>
       <c r="B105" s="1">
         <v>7</v>
       </c>
@@ -25047,7 +25047,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="117"/>
+      <c r="A106" s="121"/>
       <c r="B106" s="1">
         <v>8</v>
       </c>
@@ -25058,7 +25058,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="117"/>
+      <c r="A107" s="121"/>
       <c r="B107" s="1">
         <v>9</v>
       </c>
@@ -25069,7 +25069,7 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="118"/>
+      <c r="A108" s="122"/>
       <c r="B108" s="1">
         <v>10</v>
       </c>
@@ -25104,7 +25104,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="116">
+      <c r="A111" s="120">
         <v>10</v>
       </c>
       <c r="B111" s="1">
@@ -25119,7 +25119,7 @@
       <c r="E111" s="81"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="117"/>
+      <c r="A112" s="121"/>
       <c r="B112" s="1">
         <v>2</v>
       </c>
@@ -25134,7 +25134,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="117"/>
+      <c r="A113" s="121"/>
       <c r="B113" s="1">
         <v>3</v>
       </c>
@@ -25149,7 +25149,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="117"/>
+      <c r="A114" s="121"/>
       <c r="B114" s="1">
         <v>4</v>
       </c>
@@ -25164,7 +25164,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="117"/>
+      <c r="A115" s="121"/>
       <c r="B115" s="1">
         <v>5</v>
       </c>
@@ -25179,7 +25179,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="117"/>
+      <c r="A116" s="121"/>
       <c r="B116" s="1">
         <v>6</v>
       </c>
@@ -25194,7 +25194,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="117"/>
+      <c r="A117" s="121"/>
       <c r="B117" s="1">
         <v>7</v>
       </c>
@@ -25209,7 +25209,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="117"/>
+      <c r="A118" s="121"/>
       <c r="B118" s="1">
         <v>8</v>
       </c>
@@ -25224,7 +25224,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="117"/>
+      <c r="A119" s="121"/>
       <c r="B119" s="1">
         <v>9</v>
       </c>
@@ -25235,7 +25235,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="118"/>
+      <c r="A120" s="122"/>
       <c r="B120" s="1">
         <v>10</v>
       </c>
@@ -25270,7 +25270,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="116">
+      <c r="A123" s="120">
         <v>11</v>
       </c>
       <c r="B123" s="1">
@@ -25285,7 +25285,7 @@
       <c r="E123" s="81"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="117"/>
+      <c r="A124" s="121"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -25300,7 +25300,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="117"/>
+      <c r="A125" s="121"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -25315,7 +25315,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="117"/>
+      <c r="A126" s="121"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -25330,7 +25330,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="117"/>
+      <c r="A127" s="121"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -25345,7 +25345,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="117"/>
+      <c r="A128" s="121"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -25360,7 +25360,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="117"/>
+      <c r="A129" s="121"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -25375,7 +25375,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="117"/>
+      <c r="A130" s="121"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -25386,7 +25386,7 @@
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="117"/>
+      <c r="A131" s="121"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -25397,7 +25397,7 @@
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="118"/>
+      <c r="A132" s="122"/>
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -25432,7 +25432,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="116">
+      <c r="A135" s="120">
         <v>12</v>
       </c>
       <c r="B135" s="1">
@@ -25447,7 +25447,7 @@
       <c r="E135" s="81"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="117"/>
+      <c r="A136" s="121"/>
       <c r="B136" s="1">
         <v>2</v>
       </c>
@@ -25462,7 +25462,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="117"/>
+      <c r="A137" s="121"/>
       <c r="B137" s="1">
         <v>3</v>
       </c>
@@ -25477,7 +25477,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="117"/>
+      <c r="A138" s="121"/>
       <c r="B138" s="1">
         <v>4</v>
       </c>
@@ -25492,7 +25492,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="117"/>
+      <c r="A139" s="121"/>
       <c r="B139" s="1">
         <v>5</v>
       </c>
@@ -25507,7 +25507,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="117"/>
+      <c r="A140" s="121"/>
       <c r="B140" s="1">
         <v>6</v>
       </c>
@@ -25522,7 +25522,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="117"/>
+      <c r="A141" s="121"/>
       <c r="B141" s="1">
         <v>7</v>
       </c>
@@ -25537,7 +25537,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="117"/>
+      <c r="A142" s="121"/>
       <c r="B142" s="1">
         <v>8</v>
       </c>
@@ -25548,7 +25548,7 @@
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="117"/>
+      <c r="A143" s="121"/>
       <c r="B143" s="1">
         <v>9</v>
       </c>
@@ -25559,7 +25559,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="118"/>
+      <c r="A144" s="122"/>
       <c r="B144" s="1">
         <v>10</v>
       </c>
@@ -25594,7 +25594,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="122">
+      <c r="A147" s="117">
         <v>13</v>
       </c>
       <c r="B147" s="1">
@@ -25607,7 +25607,7 @@
       <c r="E147" s="81"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="122"/>
+      <c r="A148" s="117"/>
       <c r="B148" s="1">
         <v>2</v>
       </c>
@@ -25620,7 +25620,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="122"/>
+      <c r="A149" s="117"/>
       <c r="B149" s="1">
         <v>3</v>
       </c>
@@ -25633,7 +25633,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="122"/>
+      <c r="A150" s="117"/>
       <c r="B150" s="1">
         <v>4</v>
       </c>
@@ -25646,7 +25646,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="122"/>
+      <c r="A151" s="117"/>
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -25659,7 +25659,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="122"/>
+      <c r="A152" s="117"/>
       <c r="B152" s="1">
         <v>6</v>
       </c>
@@ -25685,7 +25685,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="122">
+      <c r="A155" s="117">
         <v>14</v>
       </c>
       <c r="B155" s="1">
@@ -25698,7 +25698,7 @@
       <c r="E155" s="81"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="122"/>
+      <c r="A156" s="117"/>
       <c r="B156" s="1">
         <v>2</v>
       </c>
@@ -25711,7 +25711,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="122"/>
+      <c r="A157" s="117"/>
       <c r="B157" s="1">
         <v>3</v>
       </c>
@@ -25724,7 +25724,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="122"/>
+      <c r="A158" s="117"/>
       <c r="B158" s="1">
         <v>4</v>
       </c>
@@ -25737,7 +25737,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="122"/>
+      <c r="A159" s="117"/>
       <c r="B159" s="1">
         <v>5</v>
       </c>
@@ -25750,7 +25750,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="122"/>
+      <c r="A160" s="117"/>
       <c r="B160" s="1">
         <v>6</v>
       </c>
@@ -25776,7 +25776,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="122">
+      <c r="A163" s="117">
         <v>15</v>
       </c>
       <c r="B163" s="1">
@@ -25789,7 +25789,7 @@
       <c r="E163" s="81"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="122"/>
+      <c r="A164" s="117"/>
       <c r="B164" s="1">
         <v>2</v>
       </c>
@@ -25802,7 +25802,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="122"/>
+      <c r="A165" s="117"/>
       <c r="B165" s="1">
         <v>3</v>
       </c>
@@ -25815,7 +25815,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="122"/>
+      <c r="A166" s="117"/>
       <c r="B166" s="1">
         <v>4</v>
       </c>
@@ -25828,7 +25828,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="122"/>
+      <c r="A167" s="117"/>
       <c r="B167" s="1">
         <v>5</v>
       </c>
@@ -25841,7 +25841,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="122"/>
+      <c r="A168" s="117"/>
       <c r="B168" s="1">
         <v>6</v>
       </c>
@@ -25867,7 +25867,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="122">
+      <c r="A171" s="117">
         <v>16</v>
       </c>
       <c r="B171" s="1">
@@ -25880,7 +25880,7 @@
       <c r="E171" s="81"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="122"/>
+      <c r="A172" s="117"/>
       <c r="B172" s="1">
         <v>2</v>
       </c>
@@ -25893,7 +25893,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="122"/>
+      <c r="A173" s="117"/>
       <c r="B173" s="1">
         <v>3</v>
       </c>
@@ -25906,7 +25906,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="122"/>
+      <c r="A174" s="117"/>
       <c r="B174" s="1">
         <v>4</v>
       </c>
@@ -25919,7 +25919,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="122"/>
+      <c r="A175" s="117"/>
       <c r="B175" s="1">
         <v>5</v>
       </c>
@@ -25932,7 +25932,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="122"/>
+      <c r="A176" s="117"/>
       <c r="B176" s="1">
         <v>6</v>
       </c>
@@ -25958,7 +25958,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="116">
+      <c r="A179" s="120">
         <v>17</v>
       </c>
       <c r="B179" s="1">
@@ -25973,7 +25973,7 @@
       <c r="E179" s="81"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="117"/>
+      <c r="A180" s="121"/>
       <c r="B180" s="1">
         <v>2</v>
       </c>
@@ -25988,7 +25988,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="117"/>
+      <c r="A181" s="121"/>
       <c r="B181" s="1">
         <v>3</v>
       </c>
@@ -26003,7 +26003,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="117"/>
+      <c r="A182" s="121"/>
       <c r="B182" s="1">
         <v>4</v>
       </c>
@@ -26018,7 +26018,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="117"/>
+      <c r="A183" s="121"/>
       <c r="B183" s="1">
         <v>5</v>
       </c>
@@ -26033,7 +26033,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="117"/>
+      <c r="A184" s="121"/>
       <c r="B184" s="1">
         <v>6</v>
       </c>
@@ -26048,7 +26048,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="117"/>
+      <c r="A185" s="121"/>
       <c r="B185" s="1">
         <v>7</v>
       </c>
@@ -26063,7 +26063,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="117"/>
+      <c r="A186" s="121"/>
       <c r="B186" s="1">
         <v>8</v>
       </c>
@@ -26078,7 +26078,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="117"/>
+      <c r="A187" s="121"/>
       <c r="B187" s="1">
         <v>9</v>
       </c>
@@ -26093,7 +26093,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="118"/>
+      <c r="A188" s="122"/>
       <c r="B188" s="1">
         <v>10</v>
       </c>
@@ -26107,16 +26107,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -26124,6 +26114,16 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="1482">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2633,15 +2633,6 @@
     <t>E1715S</t>
   </si>
   <si>
-    <t>切换器</t>
-  </si>
-  <si>
-    <t>CKL-9138UP（配3米数据线）</t>
-  </si>
-  <si>
-    <t>KVM</t>
-  </si>
-  <si>
     <t>3m</t>
   </si>
   <si>
@@ -5609,6 +5600,10 @@
   </si>
   <si>
     <t>料盘到位光纤，下料，空盘2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频分割器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9759,107 +9754,107 @@
     <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="140" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C2" s="139" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D2" s="83">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="H2" s="140" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="I2" s="139" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="J2" s="139" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="K2" s="83">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="O2" s="140" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="P2" s="139" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="Q2" s="139" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="R2" s="83">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9870,10 +9865,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="H3" s="140"/>
       <c r="I3" s="117"/>
@@ -9882,10 +9877,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="O3" s="140"/>
       <c r="P3" s="117"/>
@@ -9894,10 +9889,10 @@
         <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9908,10 +9903,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="H4" s="140"/>
       <c r="I4" s="117"/>
@@ -9920,10 +9915,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="O4" s="140"/>
       <c r="P4" s="117"/>
@@ -9932,10 +9927,10 @@
         <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
@@ -9946,10 +9941,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="H5" s="140"/>
       <c r="I5" s="117"/>
@@ -10028,10 +10023,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H8" s="140"/>
       <c r="I8" s="117"/>
@@ -10040,10 +10035,10 @@
         <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="O8" s="140"/>
       <c r="P8" s="117"/>
@@ -10052,10 +10047,10 @@
         <v>7</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -10066,10 +10061,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H9" s="140"/>
       <c r="I9" s="117"/>
@@ -10078,10 +10073,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="O9" s="140"/>
       <c r="P9" s="117"/>
@@ -10090,10 +10085,10 @@
         <v>8</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -10104,10 +10099,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="H10" s="140"/>
       <c r="I10" s="117"/>
@@ -10134,10 +10129,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="H11" s="140"/>
       <c r="I11" s="117"/>
@@ -10164,10 +10159,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="H12" s="140"/>
       <c r="I12" s="117"/>
@@ -10194,10 +10189,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="H13" s="140"/>
       <c r="I13" s="117"/>
@@ -10232,10 +10227,10 @@
         <v>13</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="O14" s="140"/>
       <c r="P14" s="117"/>
@@ -10244,10 +10239,10 @@
         <v>13</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -10258,10 +10253,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="H15" s="140"/>
       <c r="I15" s="117"/>
@@ -10270,10 +10265,10 @@
         <v>14</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="O15" s="140"/>
       <c r="P15" s="117"/>
@@ -10282,10 +10277,10 @@
         <v>14</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -10296,10 +10291,10 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="H16" s="140"/>
       <c r="I16" s="117"/>
@@ -10308,10 +10303,10 @@
         <v>15</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="O16" s="140"/>
       <c r="P16" s="117"/>
@@ -10320,10 +10315,10 @@
         <v>15</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -10334,10 +10329,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="H17" s="140"/>
       <c r="I17" s="117"/>
@@ -10346,10 +10341,10 @@
         <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="O17" s="140"/>
       <c r="P17" s="117"/>
@@ -10358,10 +10353,10 @@
         <v>16</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -10372,10 +10367,10 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="H18" s="140"/>
       <c r="I18" s="117"/>
@@ -10384,10 +10379,10 @@
         <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="O18" s="140"/>
       <c r="P18" s="117"/>
@@ -10396,10 +10391,10 @@
         <v>17</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -10410,10 +10405,10 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H19" s="140"/>
       <c r="I19" s="117"/>
@@ -10422,10 +10417,10 @@
         <v>18</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="O19" s="140"/>
       <c r="P19" s="117"/>
@@ -10434,10 +10429,10 @@
         <v>18</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -10448,10 +10443,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H20" s="140"/>
       <c r="I20" s="117"/>
@@ -10460,10 +10455,10 @@
         <v>19</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="O20" s="140"/>
       <c r="P20" s="117"/>
@@ -10472,10 +10467,10 @@
         <v>19</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -10486,10 +10481,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H21" s="140"/>
       <c r="I21" s="117"/>
@@ -10498,10 +10493,10 @@
         <v>20</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="O21" s="140"/>
       <c r="P21" s="117"/>
@@ -10510,10 +10505,10 @@
         <v>20</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -10524,10 +10519,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H22" s="140"/>
       <c r="I22" s="117"/>
@@ -10536,10 +10531,10 @@
         <v>21</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="O22" s="140"/>
       <c r="P22" s="117"/>
@@ -10548,10 +10543,10 @@
         <v>21</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -10570,10 +10565,10 @@
         <v>22</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="O23" s="140"/>
       <c r="P23" s="117"/>
@@ -10582,10 +10577,10 @@
         <v>22</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -10656,10 +10651,10 @@
         <v>25</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="O26" s="140"/>
       <c r="P26" s="117"/>
@@ -10668,48 +10663,48 @@
         <v>25</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="D28" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1">
       <c r="A29" s="140" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B29" s="139" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C29" s="139" t="s">
         <v>1049</v>
-      </c>
-      <c r="B29" s="139" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C29" s="139" t="s">
-        <v>1052</v>
       </c>
       <c r="D29" s="83">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1">
@@ -10720,10 +10715,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" customHeight="1">
@@ -10737,7 +10732,7 @@
         <v>259</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="13.5" customHeight="1">
@@ -10751,7 +10746,7 @@
         <v>261</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
@@ -10765,7 +10760,7 @@
         <v>263</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
@@ -10779,7 +10774,7 @@
         <v>265</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
@@ -10793,7 +10788,7 @@
         <v>267</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
@@ -10807,7 +10802,7 @@
         <v>269</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
@@ -10821,7 +10816,7 @@
         <v>271</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
@@ -10832,10 +10827,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
@@ -10849,7 +10844,7 @@
         <v>309</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
@@ -10863,7 +10858,7 @@
         <v>311</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
@@ -10877,7 +10872,7 @@
         <v>313</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
@@ -10891,7 +10886,7 @@
         <v>315</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
@@ -10905,7 +10900,7 @@
         <v>317</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
@@ -10926,10 +10921,10 @@
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
@@ -10940,10 +10935,10 @@
         <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
@@ -10954,10 +10949,10 @@
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
@@ -10971,7 +10966,7 @@
         <v>275</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
@@ -10985,7 +10980,7 @@
         <v>277</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
@@ -10999,7 +10994,7 @@
         <v>279</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
@@ -11013,7 +11008,7 @@
         <v>281</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
@@ -11027,7 +11022,7 @@
         <v>283</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
@@ -11041,7 +11036,7 @@
         <v>285</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -11055,7 +11050,7 @@
         <v>287</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -11066,10 +11061,10 @@
         <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -11080,10 +11075,10 @@
         <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -11094,10 +11089,10 @@
         <v>29</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -11108,10 +11103,10 @@
         <v>30</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -11122,10 +11117,10 @@
         <v>31</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -11146,10 +11141,10 @@
         <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -11160,10 +11155,10 @@
         <v>34</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -11174,10 +11169,10 @@
         <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -11191,7 +11186,7 @@
         <v>291</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -11205,7 +11200,7 @@
         <v>293</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -11219,7 +11214,7 @@
         <v>295</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -11233,7 +11228,7 @@
         <v>297</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -11247,7 +11242,7 @@
         <v>299</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11261,7 +11256,7 @@
         <v>301</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -11275,7 +11270,7 @@
         <v>303</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -11286,10 +11281,10 @@
         <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11300,10 +11295,10 @@
         <v>44</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -11314,10 +11309,10 @@
         <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11328,10 +11323,10 @@
         <v>46</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11342,10 +11337,10 @@
         <v>47</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11418,36 +11413,36 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="117" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D2" s="117" t="s">
         <v>1179</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D2" s="117" t="s">
-        <v>1182</v>
       </c>
       <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="117"/>
       <c r="B3" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D3" s="117"/>
       <c r="E3" s="80"/>
@@ -11455,10 +11450,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="117"/>
       <c r="B4" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D4" s="117"/>
       <c r="E4" s="80"/>
@@ -11466,23 +11461,23 @@
     <row r="5" spans="1:5">
       <c r="A5" s="117"/>
       <c r="B5" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="117"/>
       <c r="B6" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D6" s="117"/>
       <c r="E6" s="80"/>
@@ -11490,10 +11485,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="117"/>
       <c r="B7" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D7" s="117"/>
       <c r="E7" s="80"/>
@@ -11501,23 +11496,23 @@
     <row r="8" spans="1:5">
       <c r="A8" s="117"/>
       <c r="B8" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1196</v>
-      </c>
       <c r="D8" s="117" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="117"/>
       <c r="B9" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="80"/>
@@ -11525,10 +11520,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="117"/>
       <c r="B10" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1198</v>
       </c>
       <c r="D10" s="117"/>
       <c r="E10" s="80"/>
@@ -11536,23 +11531,23 @@
     <row r="11" spans="1:5">
       <c r="A11" s="117"/>
       <c r="B11" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1202</v>
-      </c>
       <c r="D11" s="117" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="117"/>
       <c r="B12" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1200</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1203</v>
       </c>
       <c r="D12" s="117"/>
       <c r="E12" s="80"/>
@@ -11560,309 +11555,309 @@
     <row r="13" spans="1:5">
       <c r="A13" s="117"/>
       <c r="B13" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1204</v>
       </c>
       <c r="D13" s="117"/>
       <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>1216</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1219</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="78"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="78"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="78"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="78"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="78"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="78"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="78"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="78"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="78"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>1306</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="23" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>1308</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="23" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="87" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="I39" s="87" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="F40" s="87" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="G40" s="87" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" ht="27">
       <c r="F41" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="88" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="2:9">
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="88"/>
     </row>
     <row r="43" spans="2:9" ht="27">
       <c r="F43" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="88" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -11897,34 +11892,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="117" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C1" s="1">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="117"/>
       <c r="B2" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C2" s="1">
         <v>5000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="117"/>
       <c r="B3" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -11934,39 +11929,39 @@
     <row r="4" spans="1:4">
       <c r="A4" s="117"/>
       <c r="B4" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="117" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C6" s="1">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="117"/>
       <c r="B7" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11980,25 +11975,25 @@
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C10" s="1">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="117"/>
       <c r="B11" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C11" s="1">
         <v>10000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12037,11 +12032,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="A1" s="141" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="89" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D1" s="89">
         <v>20170308</v>
@@ -12055,16 +12050,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="90" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C3" s="90" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D3" s="90" t="s">
         <v>1266</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12072,13 +12067,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C4" s="89">
         <v>1</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12086,13 +12081,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C5" s="89">
         <v>1</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12100,13 +12095,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C6" s="89">
         <v>1</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12114,13 +12109,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C7" s="89">
         <v>1</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12128,13 +12123,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C8" s="89">
         <v>2</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12142,13 +12137,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C9" s="89">
         <v>2</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12156,13 +12151,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C10" s="89">
         <v>4</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12170,13 +12165,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C11" s="89">
         <v>4</v>
       </c>
       <c r="D11" s="89" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12184,13 +12179,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C12" s="89">
         <v>1</v>
       </c>
       <c r="D12" s="89" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12198,13 +12193,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C13" s="89">
         <v>1</v>
       </c>
       <c r="D13" s="89" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12271,7 +12266,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="145" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -12285,13 +12280,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="91" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D3" s="115"/>
     </row>
@@ -12300,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C4" s="92"/>
       <c r="D4" s="92">
@@ -12312,7 +12307,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C5" s="92">
         <v>42805</v>
@@ -12326,7 +12321,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C6" s="92">
         <v>42807</v>
@@ -12363,24 +12358,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="90" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B1" s="90" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -12391,10 +12386,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -12405,10 +12400,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -12419,10 +12414,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -12433,16 +12428,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -12457,7 +12452,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12474,14 +12469,14 @@
     <row r="1" spans="1:8" ht="14.25" thickBot="1">
       <c r="A1" s="110"/>
       <c r="B1" s="111" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C1" s="112" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D1" s="112"/>
       <c r="E1" s="112" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F1" s="112"/>
       <c r="G1" s="112"/>
@@ -12495,19 +12490,19 @@
         <v>512</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E2" s="102">
         <v>512</v>
       </c>
       <c r="F2" s="102" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G2" s="107" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="H2" s="146"/>
     </row>
@@ -12519,14 +12514,14 @@
         <v>513</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D3" s="93"/>
       <c r="E3" s="93">
         <v>513</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="G3" s="108"/>
       <c r="H3" s="147"/>
@@ -12539,17 +12534,17 @@
         <v>514</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D4" s="93"/>
       <c r="E4" s="93">
         <v>514</v>
       </c>
       <c r="F4" s="93" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="G4" s="108" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H4" s="147"/>
     </row>
@@ -12561,14 +12556,14 @@
         <v>515</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D5" s="93"/>
       <c r="E5" s="93">
         <v>515</v>
       </c>
       <c r="F5" s="93" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="G5" s="108"/>
       <c r="H5" s="147"/>
@@ -12581,14 +12576,14 @@
         <v>516</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D6" s="93"/>
       <c r="E6" s="93">
         <v>516</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="G6" s="108"/>
       <c r="H6" s="147"/>
@@ -12601,14 +12596,14 @@
         <v>517</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D7" s="93"/>
       <c r="E7" s="93">
         <v>517</v>
       </c>
       <c r="F7" s="93" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="G7" s="108"/>
       <c r="H7" s="147"/>
@@ -12621,14 +12616,14 @@
         <v>518</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="93">
         <v>518</v>
       </c>
       <c r="F8" s="93" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="G8" s="108"/>
       <c r="H8" s="147"/>
@@ -12641,14 +12636,14 @@
         <v>519</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D9" s="93"/>
       <c r="E9" s="93">
         <v>519</v>
       </c>
       <c r="F9" s="93" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="G9" s="108"/>
       <c r="H9" s="147"/>
@@ -12661,17 +12656,17 @@
         <v>520</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D10" s="93"/>
       <c r="E10" s="93">
         <v>520</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="G10" s="108" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="H10" s="147"/>
     </row>
@@ -12683,14 +12678,14 @@
         <v>521</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D11" s="93"/>
       <c r="E11" s="93">
         <v>521</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="G11" s="108"/>
       <c r="H11" s="147"/>
@@ -12703,14 +12698,14 @@
         <v>522</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D12" s="93"/>
       <c r="E12" s="93">
         <v>522</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="G12" s="108"/>
       <c r="H12" s="147"/>
@@ -12723,14 +12718,14 @@
         <v>523</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="93">
         <v>523</v>
       </c>
       <c r="F13" s="93" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="G13" s="108"/>
       <c r="H13" s="147"/>
@@ -12743,16 +12738,16 @@
         <v>524</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E14" s="93">
         <v>524</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="G14" s="108"/>
       <c r="H14" s="147"/>
@@ -12765,14 +12760,14 @@
         <v>525</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D15" s="93"/>
       <c r="E15" s="93">
         <v>525</v>
       </c>
       <c r="F15" s="93" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="147"/>
@@ -12785,14 +12780,14 @@
         <v>526</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D16" s="93"/>
       <c r="E16" s="93">
         <v>526</v>
       </c>
       <c r="F16" s="93" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="G16" s="108"/>
       <c r="H16" s="147"/>
@@ -12805,14 +12800,14 @@
         <v>527</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D17" s="105"/>
       <c r="E17" s="105">
         <v>527</v>
       </c>
       <c r="F17" s="105" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="G17" s="109"/>
       <c r="H17" s="148"/>
@@ -12825,17 +12820,17 @@
         <v>528</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D18" s="102"/>
       <c r="E18" s="102">
         <v>528</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="H18" s="146"/>
     </row>
@@ -12847,17 +12842,17 @@
         <v>529</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D19" s="93"/>
       <c r="E19" s="93">
         <v>529</v>
       </c>
       <c r="F19" s="93" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G19" s="108" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H19" s="147"/>
     </row>
@@ -12869,14 +12864,14 @@
         <v>530</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D20" s="93"/>
       <c r="E20" s="93">
         <v>530</v>
       </c>
       <c r="F20" s="93" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="147"/>
@@ -12889,14 +12884,14 @@
         <v>531</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D21" s="93"/>
       <c r="E21" s="93">
         <v>531</v>
       </c>
       <c r="F21" s="93" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="G21" s="108"/>
       <c r="H21" s="147"/>
@@ -12909,14 +12904,14 @@
         <v>532</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D22" s="93"/>
       <c r="E22" s="93">
         <v>532</v>
       </c>
       <c r="F22" s="93" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="G22" s="108"/>
       <c r="H22" s="147"/>
@@ -12929,14 +12924,14 @@
         <v>533</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D23" s="93"/>
       <c r="E23" s="93">
         <v>533</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G23" s="108"/>
       <c r="H23" s="147"/>
@@ -12949,14 +12944,14 @@
         <v>534</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D24" s="93"/>
       <c r="E24" s="93">
         <v>534</v>
       </c>
       <c r="F24" s="93" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="G24" s="108"/>
       <c r="H24" s="147"/>
@@ -12969,16 +12964,16 @@
         <v>535</v>
       </c>
       <c r="C25" s="93" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="E25" s="93">
         <v>535</v>
       </c>
       <c r="F25" s="93" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="G25" s="108"/>
       <c r="H25" s="147"/>
@@ -12991,16 +12986,16 @@
         <v>536</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E26" s="93">
         <v>536</v>
       </c>
       <c r="F26" s="93" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="G26" s="108"/>
       <c r="H26" s="147"/>
@@ -13013,16 +13008,16 @@
         <v>537</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E27" s="93">
         <v>537</v>
       </c>
       <c r="F27" s="93" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="G27" s="108"/>
       <c r="H27" s="147"/>
@@ -13035,16 +13030,16 @@
         <v>538</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E28" s="93">
         <v>538</v>
       </c>
       <c r="F28" s="93" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="G28" s="108"/>
       <c r="H28" s="147"/>
@@ -13057,16 +13052,16 @@
         <v>539</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E29" s="93">
         <v>539</v>
       </c>
       <c r="F29" s="93" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="G29" s="108"/>
       <c r="H29" s="147"/>
@@ -13079,16 +13074,16 @@
         <v>540</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D30" s="93" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E30" s="93">
         <v>540</v>
       </c>
       <c r="F30" s="93" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G30" s="108"/>
       <c r="H30" s="147"/>
@@ -13101,14 +13096,14 @@
         <v>541</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D31" s="93"/>
       <c r="E31" s="93">
         <v>541</v>
       </c>
       <c r="F31" s="93" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="G31" s="108"/>
       <c r="H31" s="147"/>
@@ -13121,14 +13116,14 @@
         <v>542</v>
       </c>
       <c r="C32" s="93" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D32" s="93"/>
       <c r="E32" s="93">
         <v>542</v>
       </c>
       <c r="F32" s="93" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="147"/>
@@ -13141,14 +13136,14 @@
         <v>543</v>
       </c>
       <c r="C33" s="105" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D33" s="105"/>
       <c r="E33" s="105">
         <v>543</v>
       </c>
       <c r="F33" s="105" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G33" s="109"/>
       <c r="H33" s="148"/>
@@ -13161,14 +13156,14 @@
         <v>544</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D34" s="102"/>
       <c r="E34" s="102">
         <v>544</v>
       </c>
       <c r="F34" s="102" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="G34" s="107"/>
       <c r="H34" s="146"/>
@@ -13181,14 +13176,14 @@
         <v>545</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D35" s="93"/>
       <c r="E35" s="93">
         <v>545</v>
       </c>
       <c r="F35" s="93" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="G35" s="108"/>
       <c r="H35" s="147"/>
@@ -13201,14 +13196,14 @@
         <v>546</v>
       </c>
       <c r="C36" s="93" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D36" s="93"/>
       <c r="E36" s="93">
         <v>546</v>
       </c>
       <c r="F36" s="93" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="G36" s="108"/>
       <c r="H36" s="147"/>
@@ -13221,14 +13216,14 @@
         <v>547</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="D37" s="93"/>
       <c r="E37" s="93">
         <v>547</v>
       </c>
       <c r="F37" s="93" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="G37" s="108"/>
       <c r="H37" s="147"/>
@@ -13241,14 +13236,14 @@
         <v>548</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D38" s="93"/>
       <c r="E38" s="93">
         <v>548</v>
       </c>
       <c r="F38" s="93" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="G38" s="108"/>
       <c r="H38" s="147"/>
@@ -13261,14 +13256,14 @@
         <v>549</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D39" s="93"/>
       <c r="E39" s="93">
         <v>549</v>
       </c>
       <c r="F39" s="93" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G39" s="108"/>
       <c r="H39" s="147"/>
@@ -13281,14 +13276,14 @@
         <v>550</v>
       </c>
       <c r="C40" s="93" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D40" s="93"/>
       <c r="E40" s="93">
         <v>550</v>
       </c>
       <c r="F40" s="93" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="G40" s="108"/>
       <c r="H40" s="147"/>
@@ -13301,14 +13296,14 @@
         <v>551</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D41" s="93"/>
       <c r="E41" s="93">
         <v>551</v>
       </c>
       <c r="F41" s="93" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="G41" s="108"/>
       <c r="H41" s="147"/>
@@ -13321,14 +13316,14 @@
         <v>552</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="D42" s="93"/>
       <c r="E42" s="93">
         <v>552</v>
       </c>
       <c r="F42" s="93" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="G42" s="108"/>
       <c r="H42" s="147"/>
@@ -13341,14 +13336,14 @@
         <v>553</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D43" s="93"/>
       <c r="E43" s="93">
         <v>553</v>
       </c>
       <c r="F43" s="93" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="G43" s="108"/>
       <c r="H43" s="147"/>
@@ -13361,14 +13356,14 @@
         <v>554</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D44" s="93"/>
       <c r="E44" s="93">
         <v>554</v>
       </c>
       <c r="F44" s="93" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G44" s="108"/>
       <c r="H44" s="147"/>
@@ -13381,14 +13376,14 @@
         <v>555</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D45" s="93"/>
       <c r="E45" s="93">
         <v>555</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="G45" s="108"/>
       <c r="H45" s="147"/>
@@ -13401,14 +13396,14 @@
         <v>556</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D46" s="93"/>
       <c r="E46" s="93">
         <v>556</v>
       </c>
       <c r="F46" s="93" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="G46" s="108"/>
       <c r="H46" s="147"/>
@@ -13421,14 +13416,14 @@
         <v>557</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D47" s="93"/>
       <c r="E47" s="93">
         <v>557</v>
       </c>
       <c r="F47" s="93" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="G47" s="108"/>
       <c r="H47" s="147"/>
@@ -13441,14 +13436,14 @@
         <v>558</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="D48" s="93"/>
       <c r="E48" s="93">
         <v>558</v>
       </c>
       <c r="F48" s="93" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G48" s="108"/>
       <c r="H48" s="147"/>
@@ -13461,14 +13456,14 @@
         <v>559</v>
       </c>
       <c r="C49" s="105" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D49" s="105"/>
       <c r="E49" s="105">
         <v>559</v>
       </c>
       <c r="F49" s="105" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="G49" s="109"/>
       <c r="H49" s="148"/>
@@ -13481,14 +13476,14 @@
         <v>560</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="D50" s="102"/>
       <c r="E50" s="102">
         <v>560</v>
       </c>
       <c r="F50" s="102" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="G50" s="107"/>
       <c r="H50" s="146"/>
@@ -13501,14 +13496,14 @@
         <v>561</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="D51" s="93"/>
       <c r="E51" s="93">
         <v>561</v>
       </c>
       <c r="F51" s="93" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G51" s="108"/>
       <c r="H51" s="147"/>
@@ -13521,14 +13516,14 @@
         <v>562</v>
       </c>
       <c r="C52" s="93" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D52" s="93"/>
       <c r="E52" s="93">
         <v>562</v>
       </c>
       <c r="F52" s="93" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G52" s="108"/>
       <c r="H52" s="147"/>
@@ -13541,14 +13536,14 @@
         <v>563</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D53" s="93"/>
       <c r="E53" s="93">
         <v>563</v>
       </c>
       <c r="F53" s="93" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G53" s="108"/>
       <c r="H53" s="147"/>
@@ -13561,14 +13556,14 @@
         <v>564</v>
       </c>
       <c r="C54" s="93" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="D54" s="93"/>
       <c r="E54" s="93">
         <v>564</v>
       </c>
       <c r="F54" s="93" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="G54" s="108"/>
       <c r="H54" s="147"/>
@@ -13581,14 +13576,14 @@
         <v>565</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D55" s="93"/>
       <c r="E55" s="93">
         <v>565</v>
       </c>
       <c r="F55" s="93" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="G55" s="108"/>
       <c r="H55" s="147"/>
@@ -13601,14 +13596,14 @@
         <v>566</v>
       </c>
       <c r="C56" s="93" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D56" s="93"/>
       <c r="E56" s="93">
         <v>566</v>
       </c>
       <c r="F56" s="93" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="G56" s="108"/>
       <c r="H56" s="147"/>
@@ -13621,14 +13616,14 @@
         <v>567</v>
       </c>
       <c r="C57" s="93" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="93">
         <v>567</v>
       </c>
       <c r="F57" s="93" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="G57" s="108"/>
       <c r="H57" s="147"/>
@@ -13641,14 +13636,14 @@
         <v>568</v>
       </c>
       <c r="C58" s="93" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="93">
         <v>568</v>
       </c>
       <c r="F58" s="93" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="G58" s="108"/>
       <c r="H58" s="147"/>
@@ -13661,14 +13656,14 @@
         <v>569</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="93">
         <v>569</v>
       </c>
       <c r="F59" s="93" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="G59" s="108"/>
       <c r="H59" s="147"/>
@@ -13681,14 +13676,14 @@
         <v>570</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="93">
         <v>570</v>
       </c>
       <c r="F60" s="93" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G60" s="108"/>
       <c r="H60" s="147"/>
@@ -13701,14 +13696,14 @@
         <v>571</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="93">
         <v>571</v>
       </c>
       <c r="F61" s="93" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G61" s="108"/>
       <c r="H61" s="147"/>
@@ -13721,14 +13716,14 @@
         <v>572</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="93">
         <v>572</v>
       </c>
       <c r="F62" s="93" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="G62" s="108"/>
       <c r="H62" s="147"/>
@@ -13741,14 +13736,14 @@
         <v>573</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="93">
         <v>573</v>
       </c>
       <c r="F63" s="93" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="G63" s="108"/>
       <c r="H63" s="147"/>
@@ -13761,14 +13756,14 @@
         <v>574</v>
       </c>
       <c r="C64" s="93" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="93">
         <v>574</v>
       </c>
       <c r="F64" s="93" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="G64" s="108"/>
       <c r="H64" s="147"/>
@@ -13781,14 +13776,14 @@
         <v>575</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D65" s="106"/>
       <c r="E65" s="105">
         <v>575</v>
       </c>
       <c r="F65" s="105" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="G65" s="109"/>
       <c r="H65" s="148"/>
@@ -17219,7 +17214,7 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+    <sheetView topLeftCell="B76" workbookViewId="0">
       <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
@@ -17291,7 +17286,7 @@
         <v>257</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -17301,7 +17296,7 @@
         <v>307</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -17315,7 +17310,7 @@
         <v>259</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -17325,7 +17320,7 @@
         <v>309</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -17339,7 +17334,7 @@
         <v>261</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -17349,7 +17344,7 @@
         <v>311</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -17363,7 +17358,7 @@
         <v>263</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -17373,7 +17368,7 @@
         <v>313</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -17387,7 +17382,7 @@
         <v>265</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="1" t="s">
@@ -17397,7 +17392,7 @@
         <v>315</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -17411,7 +17406,7 @@
         <v>267</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="1" t="s">
@@ -17421,7 +17416,7 @@
         <v>317</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -17435,7 +17430,7 @@
         <v>269</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="1" t="s">
@@ -17457,7 +17452,7 @@
         <v>271</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="1" t="s">
@@ -17487,7 +17482,7 @@
         <v>323</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -17509,7 +17504,7 @@
         <v>325</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -17523,7 +17518,7 @@
         <v>277</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="1" t="s">
@@ -17533,7 +17528,7 @@
         <v>327</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -17547,7 +17542,7 @@
         <v>279</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="1" t="s">
@@ -17557,7 +17552,7 @@
         <v>329</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -17571,7 +17566,7 @@
         <v>281</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="1" t="s">
@@ -17581,7 +17576,7 @@
         <v>331</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -17595,7 +17590,7 @@
         <v>283</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="1" t="s">
@@ -17605,7 +17600,7 @@
         <v>333</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -17619,7 +17614,7 @@
         <v>285</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="1" t="s">
@@ -17641,7 +17636,7 @@
         <v>287</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="1" t="s">
@@ -17663,7 +17658,7 @@
         <v>289</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="1"/>
@@ -17681,7 +17676,7 @@
         <v>291</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="1"/>
@@ -17731,7 +17726,7 @@
         <v>297</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="1"/>
@@ -17749,7 +17744,7 @@
         <v>299</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="1"/>
@@ -17767,7 +17762,7 @@
         <v>301</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="1"/>
@@ -17785,7 +17780,7 @@
         <v>303</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="1"/>
@@ -17850,7 +17845,7 @@
         <v>341</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="1" t="s">
@@ -17860,7 +17855,7 @@
         <v>377</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="I32" s="117" t="s">
         <v>537</v>
@@ -17887,7 +17882,7 @@
         <v>378</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I33" s="117"/>
     </row>
@@ -17912,7 +17907,7 @@
         <v>379</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="I34" s="117"/>
     </row>
@@ -17937,7 +17932,7 @@
         <v>380</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="I35" s="117"/>
     </row>
@@ -18008,7 +18003,7 @@
         <v>383</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I38" s="117"/>
     </row>
@@ -18033,7 +18028,7 @@
         <v>384</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="I39" s="117"/>
     </row>
@@ -18058,7 +18053,7 @@
         <v>385</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I40" s="117"/>
     </row>
@@ -18083,7 +18078,7 @@
         <v>386</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="I41" s="117"/>
     </row>
@@ -18108,7 +18103,7 @@
         <v>387</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I42" s="117"/>
     </row>
@@ -18133,7 +18128,7 @@
         <v>388</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="I43" s="117"/>
     </row>
@@ -18148,7 +18143,7 @@
         <v>353</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="1" t="s">
@@ -18158,7 +18153,7 @@
         <v>389</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="I44" s="117"/>
     </row>
@@ -18173,7 +18168,7 @@
         <v>354</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="1" t="s">
@@ -18183,7 +18178,7 @@
         <v>390</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="I45" s="117"/>
     </row>
@@ -18198,7 +18193,7 @@
         <v>355</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="1" t="s">
@@ -18208,7 +18203,7 @@
         <v>391</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="I46" s="117"/>
     </row>
@@ -18223,7 +18218,7 @@
         <v>356</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
@@ -18233,7 +18228,7 @@
         <v>392</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="I47" s="117"/>
     </row>
@@ -18248,7 +18243,7 @@
         <v>357</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
@@ -18258,7 +18253,7 @@
         <v>393</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I48" s="117"/>
     </row>
@@ -18273,7 +18268,7 @@
         <v>358</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
@@ -18283,7 +18278,7 @@
         <v>394</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I49" s="117"/>
     </row>
@@ -18298,7 +18293,7 @@
         <v>359</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
@@ -18308,7 +18303,7 @@
         <v>395</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="I50" s="117"/>
     </row>
@@ -18323,7 +18318,7 @@
         <v>360</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
@@ -18333,7 +18328,7 @@
         <v>396</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I51" s="117"/>
     </row>
@@ -18348,7 +18343,7 @@
         <v>361</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
@@ -18358,7 +18353,7 @@
         <v>397</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I52" s="117"/>
     </row>
@@ -18370,10 +18365,10 @@
         <v>362</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="4" t="s">
@@ -18396,7 +18391,7 @@
         <v>363</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="4" t="s">
@@ -18406,7 +18401,7 @@
         <v>399</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I54" s="117"/>
     </row>
@@ -18421,7 +18416,7 @@
         <v>364</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="4" t="s">
@@ -18431,7 +18426,7 @@
         <v>400</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I55" s="117"/>
     </row>
@@ -18446,7 +18441,7 @@
         <v>365</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="1"/>
@@ -18465,7 +18460,7 @@
         <v>366</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="1"/>
@@ -18484,7 +18479,7 @@
         <v>367</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="1"/>
@@ -18503,7 +18498,7 @@
         <v>368</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="1"/>
@@ -18522,7 +18517,7 @@
         <v>369</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="1"/>
@@ -18541,7 +18536,7 @@
         <v>370</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="1"/>
@@ -18560,7 +18555,7 @@
         <v>371</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="1"/>
@@ -18579,7 +18574,7 @@
         <v>372</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="1"/>
@@ -18598,7 +18593,7 @@
         <v>373</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="1"/>
@@ -18617,7 +18612,7 @@
         <v>374</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="1"/>
@@ -18636,7 +18631,7 @@
         <v>375</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="1"/>
@@ -18655,7 +18650,7 @@
         <v>376</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="1"/>
@@ -18674,7 +18669,7 @@
         <v>452</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="1" t="s">
@@ -18684,7 +18679,7 @@
         <v>419</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="I68" s="117" t="s">
         <v>536</v>
@@ -18701,7 +18696,7 @@
         <v>453</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
@@ -18711,7 +18706,7 @@
         <v>420</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="I69" s="117"/>
     </row>
@@ -18726,7 +18721,7 @@
         <v>454</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
@@ -18736,7 +18731,7 @@
         <v>421</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I70" s="117"/>
     </row>
@@ -18751,7 +18746,7 @@
         <v>455</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
@@ -18761,7 +18756,7 @@
         <v>422</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I71" s="117"/>
     </row>
@@ -18776,7 +18771,7 @@
         <v>456</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
@@ -18786,7 +18781,7 @@
         <v>423</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I72" s="117"/>
     </row>
@@ -18801,7 +18796,7 @@
         <v>457</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -18811,7 +18806,7 @@
         <v>424</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I73" s="117"/>
     </row>
@@ -18826,7 +18821,7 @@
         <v>458</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -18836,7 +18831,7 @@
         <v>425</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I74" s="117"/>
     </row>
@@ -18851,7 +18846,7 @@
         <v>459</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -18874,14 +18869,14 @@
         <v>464</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="117" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -18895,7 +18890,7 @@
         <v>465</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="1"/>
@@ -18914,7 +18909,7 @@
         <v>466</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="1"/>
@@ -18933,7 +18928,7 @@
         <v>467</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="1"/>
@@ -18952,7 +18947,7 @@
         <v>468</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="1"/>
@@ -18988,7 +18983,7 @@
         <v>470</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="1"/>
@@ -19007,7 +19002,7 @@
         <v>471</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="1"/>
@@ -19026,7 +19021,7 @@
         <v>472</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="1"/>
@@ -19045,7 +19040,7 @@
         <v>473</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -19064,7 +19059,7 @@
         <v>474</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="1"/>
@@ -19083,7 +19078,7 @@
         <v>475</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="1"/>
@@ -19102,7 +19097,7 @@
         <v>476</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="1"/>
@@ -19121,7 +19116,7 @@
         <v>477</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="1"/>
@@ -19140,7 +19135,7 @@
         <v>478</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -19159,7 +19154,7 @@
         <v>479</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -19172,20 +19167,20 @@
         <v>61</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="120" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -19193,13 +19188,13 @@
         <v>62</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -19212,13 +19207,13 @@
         <v>63</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -19231,13 +19226,13 @@
         <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -19250,13 +19245,13 @@
         <v>65</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -19269,13 +19264,13 @@
         <v>66</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -19288,10 +19283,10 @@
         <v>67</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -19305,10 +19300,10 @@
         <v>68</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -19322,10 +19317,10 @@
         <v>69</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="24"/>
@@ -19339,10 +19334,10 @@
         <v>70</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="1"/>
@@ -19356,10 +19351,10 @@
         <v>71</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="1"/>
@@ -19373,10 +19368,10 @@
         <v>72</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="1"/>
@@ -19390,10 +19385,10 @@
         <v>73</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D104" s="24"/>
       <c r="E104" s="1"/>
@@ -19407,10 +19402,10 @@
         <v>74</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="1"/>
@@ -19424,10 +19419,10 @@
         <v>75</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -19441,10 +19436,10 @@
         <v>76</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -19525,10 +19520,10 @@
         <v>528</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E113" s="121"/>
       <c r="F113" s="1" t="s">
@@ -19538,7 +19533,7 @@
         <v>532</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I113" s="117"/>
     </row>
@@ -19553,7 +19548,7 @@
         <v>500</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E114" s="121"/>
       <c r="F114" s="1" t="s">
@@ -19563,7 +19558,7 @@
         <v>514</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I114" s="117"/>
     </row>
@@ -19578,7 +19573,7 @@
         <v>501</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E115" s="121"/>
       <c r="F115" s="1" t="s">
@@ -19588,7 +19583,7 @@
         <v>515</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I115" s="117"/>
     </row>
@@ -19603,7 +19598,7 @@
         <v>502</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E116" s="121"/>
       <c r="F116" s="1" t="s">
@@ -19626,7 +19621,7 @@
         <v>503</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E117" s="121"/>
       <c r="F117" s="1" t="s">
@@ -19649,7 +19644,7 @@
         <v>504</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E118" s="121"/>
       <c r="F118" s="1" t="s">
@@ -19672,7 +19667,7 @@
         <v>505</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E119" s="121"/>
       <c r="F119" s="1" t="s">
@@ -19695,7 +19690,7 @@
         <v>506</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E120" s="121"/>
       <c r="F120" s="1" t="s">
@@ -19718,7 +19713,7 @@
         <v>507</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E121" s="121"/>
       <c r="F121" s="1" t="s">
@@ -20244,8 +20239,8 @@
   </sheetPr>
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -20279,7 +20274,7 @@
         <v>586</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="M1" s="35"/>
     </row>
@@ -20449,7 +20444,7 @@
       </c>
       <c r="J8" s="60"/>
       <c r="K8" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L8" s="65" t="s">
         <v>616</v>
@@ -20481,7 +20476,7 @@
       </c>
       <c r="J9" s="60"/>
       <c r="K9" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L9" s="65"/>
       <c r="M9" s="62"/>
@@ -20511,7 +20506,7 @@
       </c>
       <c r="J10" s="60"/>
       <c r="K10" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="62"/>
@@ -20541,7 +20536,7 @@
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="62"/>
@@ -20571,7 +20566,7 @@
       </c>
       <c r="J12" s="68"/>
       <c r="K12" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L12" s="61"/>
       <c r="M12" s="62"/>
@@ -20600,7 +20595,7 @@
       </c>
       <c r="J13" s="60"/>
       <c r="K13" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="62"/>
@@ -20710,7 +20705,7 @@
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L17" s="61"/>
       <c r="M17" s="62"/>
@@ -20789,7 +20784,7 @@
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L20" s="61"/>
       <c r="M20" s="62"/>
@@ -20804,7 +20799,7 @@
         <v>647</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F21" s="62"/>
       <c r="G21" s="60"/>
@@ -20816,7 +20811,7 @@
       </c>
       <c r="J21" s="60"/>
       <c r="K21" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="62"/>
@@ -20845,7 +20840,7 @@
       </c>
       <c r="J22" s="60"/>
       <c r="K22" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L22" s="61"/>
       <c r="M22" s="62"/>
@@ -20874,7 +20869,7 @@
       </c>
       <c r="J23" s="60"/>
       <c r="K23" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L23" s="61"/>
       <c r="M23" s="62"/>
@@ -20903,7 +20898,7 @@
       </c>
       <c r="J24" s="60"/>
       <c r="K24" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L24" s="61"/>
       <c r="M24" s="62"/>
@@ -20932,7 +20927,7 @@
       </c>
       <c r="J25" s="60"/>
       <c r="K25" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L25" s="61"/>
       <c r="M25" s="62"/>
@@ -20944,15 +20939,11 @@
       <c r="B26" s="60"/>
       <c r="C26" s="132"/>
       <c r="D26" s="69" t="s">
-        <v>659</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>660</v>
-      </c>
+        <v>1481</v>
+      </c>
+      <c r="E26" s="61"/>
       <c r="F26" s="62"/>
-      <c r="G26" s="60" t="s">
-        <v>661</v>
-      </c>
+      <c r="G26" s="60"/>
       <c r="H26" s="60">
         <v>1</v>
       </c>
@@ -20961,7 +20952,7 @@
       </c>
       <c r="J26" s="60"/>
       <c r="K26" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L26" s="61"/>
       <c r="M26" s="62"/>
@@ -20973,10 +20964,10 @@
       <c r="B27" s="60"/>
       <c r="C27" s="132"/>
       <c r="D27" s="69" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F27" s="62"/>
       <c r="G27" s="60"/>
@@ -20988,7 +20979,7 @@
       </c>
       <c r="J27" s="60"/>
       <c r="K27" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L27" s="61"/>
       <c r="M27" s="62"/>
@@ -20998,10 +20989,10 @@
       <c r="B28" s="60"/>
       <c r="C28" s="132"/>
       <c r="D28" s="94" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="E28" s="95" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="F28" s="96"/>
       <c r="G28" s="97"/>
@@ -21023,14 +21014,14 @@
       <c r="B29" s="60"/>
       <c r="C29" s="132"/>
       <c r="D29" s="69" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="60" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H29" s="60">
         <v>3</v>
@@ -21040,7 +21031,7 @@
       </c>
       <c r="J29" s="60"/>
       <c r="K29" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="62"/>
@@ -21052,14 +21043,14 @@
       <c r="B30" s="60"/>
       <c r="C30" s="132"/>
       <c r="D30" s="69" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="60" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H30" s="60">
         <v>1</v>
@@ -21079,14 +21070,14 @@
       <c r="B31" s="60"/>
       <c r="C31" s="132"/>
       <c r="D31" s="72" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E31" s="73" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F31" s="74"/>
       <c r="G31" s="68" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H31" s="68">
         <v>1</v>
@@ -21096,7 +21087,7 @@
       </c>
       <c r="J31" s="68"/>
       <c r="K31" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="62"/>
@@ -21108,7 +21099,7 @@
       <c r="B32" s="60"/>
       <c r="C32" s="132"/>
       <c r="D32" s="72" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E32" s="73"/>
       <c r="F32" s="74"/>
@@ -21121,7 +21112,7 @@
       </c>
       <c r="J32" s="68"/>
       <c r="K32" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L32" s="61"/>
       <c r="M32" s="62"/>
@@ -21133,14 +21124,14 @@
       <c r="B33" s="60"/>
       <c r="C33" s="132"/>
       <c r="D33" s="72" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E33" s="73" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F33" s="74"/>
       <c r="G33" s="68" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H33" s="68">
         <v>1</v>
@@ -21150,7 +21141,7 @@
       </c>
       <c r="J33" s="68"/>
       <c r="K33" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L33" s="61"/>
       <c r="M33" s="62"/>
@@ -21161,17 +21152,17 @@
       </c>
       <c r="B34" s="60"/>
       <c r="C34" s="127" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E34" s="73" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F34" s="74"/>
       <c r="G34" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H34" s="68">
         <v>1</v>
@@ -21181,7 +21172,7 @@
       </c>
       <c r="J34" s="68"/>
       <c r="K34" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L34" s="61"/>
       <c r="M34" s="62"/>
@@ -21193,14 +21184,14 @@
       <c r="B35" s="60"/>
       <c r="C35" s="127"/>
       <c r="D35" s="72" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E35" s="73" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F35" s="74"/>
       <c r="G35" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H35" s="68">
         <v>1</v>
@@ -21210,7 +21201,7 @@
       </c>
       <c r="J35" s="68"/>
       <c r="K35" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L35" s="61"/>
       <c r="M35" s="62"/>
@@ -21222,14 +21213,14 @@
       <c r="B36" s="60"/>
       <c r="C36" s="127"/>
       <c r="D36" s="72" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F36" s="74"/>
       <c r="G36" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H36" s="68">
         <v>1</v>
@@ -21239,7 +21230,7 @@
       </c>
       <c r="J36" s="68"/>
       <c r="K36" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L36" s="61"/>
       <c r="M36" s="62"/>
@@ -21251,14 +21242,14 @@
       <c r="B37" s="60"/>
       <c r="C37" s="127"/>
       <c r="D37" s="72" t="s">
+        <v>677</v>
+      </c>
+      <c r="E37" s="73" t="s">
         <v>680</v>
-      </c>
-      <c r="E37" s="73" t="s">
-        <v>683</v>
       </c>
       <c r="F37" s="74"/>
       <c r="G37" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H37" s="68">
         <v>1</v>
@@ -21268,7 +21259,7 @@
       </c>
       <c r="J37" s="68"/>
       <c r="K37" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L37" s="61"/>
       <c r="M37" s="62"/>
@@ -21280,14 +21271,14 @@
       <c r="B38" s="60"/>
       <c r="C38" s="127"/>
       <c r="D38" s="72" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E38" s="73" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F38" s="74"/>
       <c r="G38" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H38" s="68">
         <v>2</v>
@@ -21297,7 +21288,7 @@
       </c>
       <c r="J38" s="68"/>
       <c r="K38" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L38" s="61"/>
       <c r="M38" s="62"/>
@@ -21309,14 +21300,14 @@
       <c r="B39" s="60"/>
       <c r="C39" s="127"/>
       <c r="D39" s="72" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E39" s="73" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F39" s="74"/>
       <c r="G39" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H39" s="68">
         <v>2</v>
@@ -21326,7 +21317,7 @@
       </c>
       <c r="J39" s="68"/>
       <c r="K39" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L39" s="61"/>
       <c r="M39" s="62"/>
@@ -21338,14 +21329,14 @@
       <c r="B40" s="60"/>
       <c r="C40" s="127"/>
       <c r="D40" s="72" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E40" s="73" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F40" s="74"/>
       <c r="G40" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H40" s="68">
         <v>4</v>
@@ -21355,7 +21346,7 @@
       </c>
       <c r="J40" s="68"/>
       <c r="K40" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L40" s="61"/>
       <c r="M40" s="62"/>
@@ -21367,14 +21358,14 @@
       <c r="B41" s="60"/>
       <c r="C41" s="127"/>
       <c r="D41" s="72" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E41" s="73" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F41" s="74"/>
       <c r="G41" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H41" s="68">
         <v>4</v>
@@ -21384,7 +21375,7 @@
       </c>
       <c r="J41" s="68"/>
       <c r="K41" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L41" s="61"/>
       <c r="M41" s="62"/>
@@ -21396,24 +21387,24 @@
       <c r="B42" s="60"/>
       <c r="C42" s="127"/>
       <c r="D42" s="72" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E42" s="73" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="68" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H42" s="68">
         <v>1</v>
       </c>
       <c r="I42" s="71" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J42" s="68"/>
       <c r="K42" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="62"/>
@@ -21425,24 +21416,24 @@
       <c r="B43" s="60"/>
       <c r="C43" s="127"/>
       <c r="D43" s="72" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E43" s="73" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F43" s="74"/>
       <c r="G43" s="68" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H43" s="68">
         <v>1</v>
       </c>
       <c r="I43" s="71" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J43" s="68"/>
       <c r="K43" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L43" s="61"/>
       <c r="M43" s="62"/>
@@ -21454,14 +21445,14 @@
       <c r="B44" s="60"/>
       <c r="C44" s="127"/>
       <c r="D44" s="72" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E44" s="73" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="68" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H44" s="68">
         <v>4</v>
@@ -21471,10 +21462,10 @@
       </c>
       <c r="J44" s="68"/>
       <c r="K44" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L44" s="77" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="M44" s="62"/>
     </row>
@@ -21485,14 +21476,14 @@
       <c r="B45" s="60"/>
       <c r="C45" s="127"/>
       <c r="D45" s="68" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E45" s="73" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F45" s="74"/>
       <c r="G45" s="68" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H45" s="68">
         <v>4</v>
@@ -21502,7 +21493,7 @@
       </c>
       <c r="J45" s="68"/>
       <c r="K45" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="62"/>
@@ -21513,17 +21504,17 @@
       </c>
       <c r="B46" s="60"/>
       <c r="C46" s="128" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E46" s="73" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F46" s="74"/>
       <c r="G46" s="68" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H46" s="68">
         <v>6</v>
@@ -21543,14 +21534,14 @@
       <c r="B47" s="60"/>
       <c r="C47" s="129"/>
       <c r="D47" s="68" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E47" s="73" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F47" s="74"/>
       <c r="G47" s="68" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H47" s="68">
         <v>1</v>
@@ -21570,14 +21561,14 @@
       <c r="B48" s="60"/>
       <c r="C48" s="129"/>
       <c r="D48" s="68" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E48" s="73" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F48" s="74"/>
       <c r="G48" s="68" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H48" s="68">
         <v>1</v>
@@ -21587,7 +21578,7 @@
       </c>
       <c r="J48" s="68"/>
       <c r="K48" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="62"/>
@@ -21599,14 +21590,14 @@
       <c r="B49" s="60"/>
       <c r="C49" s="129"/>
       <c r="D49" s="68" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E49" s="73" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F49" s="74"/>
       <c r="G49" s="68" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H49" s="68">
         <v>1</v>
@@ -21616,7 +21607,7 @@
       </c>
       <c r="J49" s="68"/>
       <c r="K49" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L49" s="61"/>
       <c r="M49" s="62"/>
@@ -21627,17 +21618,17 @@
       </c>
       <c r="B50" s="60"/>
       <c r="C50" s="127" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D50" s="68" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E50" s="73" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F50" s="74"/>
       <c r="G50" s="68" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H50" s="68">
         <v>1</v>
@@ -21657,10 +21648,10 @@
       <c r="B51" s="60"/>
       <c r="C51" s="127"/>
       <c r="D51" s="68" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E51" s="73" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F51" s="74"/>
       <c r="G51" s="68"/>
@@ -21682,14 +21673,14 @@
       <c r="B52" s="60"/>
       <c r="C52" s="127"/>
       <c r="D52" s="68" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E52" s="73" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F52" s="74"/>
       <c r="G52" s="68" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H52" s="68">
         <v>8</v>
@@ -21709,14 +21700,14 @@
       <c r="B53" s="60"/>
       <c r="C53" s="127"/>
       <c r="D53" s="68" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E53" s="73" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F53" s="74"/>
       <c r="G53" s="68" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H53" s="68">
         <v>4</v>
@@ -21736,14 +21727,14 @@
       <c r="B54" s="60"/>
       <c r="C54" s="127"/>
       <c r="D54" s="68" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E54" s="73" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F54" s="74"/>
       <c r="G54" s="68" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H54" s="68">
         <v>4</v>
@@ -21763,7 +21754,7 @@
       <c r="B55" s="60"/>
       <c r="C55" s="127"/>
       <c r="D55" s="68" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E55" s="73"/>
       <c r="F55" s="74"/>
@@ -21786,7 +21777,7 @@
       <c r="B56" s="60"/>
       <c r="C56" s="127"/>
       <c r="D56" s="68" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E56" s="73"/>
       <c r="F56" s="74"/>
@@ -21809,14 +21800,14 @@
       <c r="B57" s="60"/>
       <c r="C57" s="127"/>
       <c r="D57" s="68" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F57" s="74"/>
       <c r="G57" s="68" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H57" s="68">
         <v>1</v>
@@ -21836,7 +21827,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="127"/>
       <c r="D58" s="68" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E58" s="73"/>
       <c r="F58" s="74"/>
@@ -21859,10 +21850,10 @@
       <c r="B59" s="60"/>
       <c r="C59" s="127"/>
       <c r="D59" s="68" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E59" s="73" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F59" s="74"/>
       <c r="G59" s="68"/>
@@ -21874,7 +21865,7 @@
       </c>
       <c r="J59" s="68"/>
       <c r="K59" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L59" s="61"/>
       <c r="M59" s="62"/>
@@ -21886,10 +21877,10 @@
       <c r="B60" s="60"/>
       <c r="C60" s="127"/>
       <c r="D60" s="68" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E60" s="73" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F60" s="74"/>
       <c r="G60" s="68"/>
@@ -21911,10 +21902,10 @@
       <c r="B61" s="60"/>
       <c r="C61" s="127"/>
       <c r="D61" s="68" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E61" s="73" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F61" s="74"/>
       <c r="G61" s="68"/>
@@ -21936,14 +21927,14 @@
       <c r="B62" s="60"/>
       <c r="C62" s="127"/>
       <c r="D62" s="68" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E62" s="73" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F62" s="74"/>
       <c r="G62" s="68" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H62" s="68">
         <v>2</v>
@@ -21953,10 +21944,10 @@
       </c>
       <c r="J62" s="68"/>
       <c r="K62" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L62" s="77" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="M62" s="62"/>
     </row>
@@ -21967,14 +21958,14 @@
       <c r="B63" s="60"/>
       <c r="C63" s="127"/>
       <c r="D63" s="68" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E63" s="73" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F63" s="74"/>
       <c r="G63" s="68" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H63" s="68">
         <v>2</v>
@@ -21994,14 +21985,14 @@
       <c r="B64" s="60"/>
       <c r="C64" s="127"/>
       <c r="D64" s="68" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E64" s="73" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F64" s="74"/>
       <c r="G64" s="68" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H64" s="68">
         <v>4</v>
@@ -22021,14 +22012,14 @@
       <c r="B65" s="60"/>
       <c r="C65" s="127"/>
       <c r="D65" s="68" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E65" s="73" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F65" s="74"/>
       <c r="G65" s="68" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H65" s="68">
         <v>6</v>
@@ -22048,14 +22039,14 @@
       <c r="B66" s="60"/>
       <c r="C66" s="127"/>
       <c r="D66" s="68" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E66" s="73" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F66" s="74"/>
       <c r="G66" s="68" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H66" s="68">
         <v>2</v>
@@ -22075,14 +22066,14 @@
       <c r="B67" s="60"/>
       <c r="C67" s="127"/>
       <c r="D67" s="68" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E67" s="73" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F67" s="74"/>
       <c r="G67" s="68" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H67" s="68">
         <v>2</v>
@@ -22102,10 +22093,10 @@
       <c r="B68" s="60"/>
       <c r="C68" s="127"/>
       <c r="D68" s="68" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E68" s="73" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F68" s="74"/>
       <c r="G68" s="68" t="s">
@@ -22129,10 +22120,10 @@
       <c r="B69" s="60"/>
       <c r="C69" s="127"/>
       <c r="D69" s="68" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E69" s="73" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F69" s="74"/>
       <c r="G69" s="68" t="s">
@@ -22156,14 +22147,14 @@
       <c r="B70" s="60"/>
       <c r="C70" s="127"/>
       <c r="D70" s="68" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E70" s="73" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F70" s="74"/>
       <c r="G70" s="68" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H70" s="68">
         <v>4</v>
@@ -22173,7 +22164,7 @@
       </c>
       <c r="J70" s="68"/>
       <c r="K70" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L70" s="61"/>
       <c r="M70" s="62"/>
@@ -22185,14 +22176,14 @@
       <c r="B71" s="60"/>
       <c r="C71" s="127"/>
       <c r="D71" s="68" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E71" s="73" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F71" s="74"/>
       <c r="G71" s="68" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H71" s="68">
         <v>8</v>
@@ -22202,10 +22193,10 @@
       </c>
       <c r="J71" s="68"/>
       <c r="K71" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L71" s="77" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="M71" s="62"/>
     </row>
@@ -22216,10 +22207,10 @@
       <c r="B72" s="60"/>
       <c r="C72" s="127"/>
       <c r="D72" s="68" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E72" s="73" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F72" s="74"/>
       <c r="G72" s="68"/>
@@ -22241,10 +22232,10 @@
       <c r="B73" s="60"/>
       <c r="C73" s="127"/>
       <c r="D73" s="68" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E73" s="73" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F73" s="74"/>
       <c r="G73" s="68"/>
@@ -22256,7 +22247,7 @@
       </c>
       <c r="J73" s="68"/>
       <c r="K73" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L73" s="61"/>
       <c r="M73" s="62"/>
@@ -22268,10 +22259,10 @@
       <c r="B74" s="60"/>
       <c r="C74" s="127"/>
       <c r="D74" s="68" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E74" s="73" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F74" s="74"/>
       <c r="G74" s="68"/>
@@ -22283,7 +22274,7 @@
       </c>
       <c r="J74" s="68"/>
       <c r="K74" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L74" s="61"/>
       <c r="M74" s="62"/>
@@ -22295,10 +22286,10 @@
       <c r="B75" s="60"/>
       <c r="C75" s="127"/>
       <c r="D75" s="68" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E75" s="73" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F75" s="74"/>
       <c r="G75" s="68"/>
@@ -22310,7 +22301,7 @@
       </c>
       <c r="J75" s="68"/>
       <c r="K75" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L75" s="61"/>
       <c r="M75" s="62"/>
@@ -22322,10 +22313,10 @@
       <c r="B76" s="60"/>
       <c r="C76" s="127"/>
       <c r="D76" s="68" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E76" s="73" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F76" s="74"/>
       <c r="G76" s="68"/>
@@ -22337,7 +22328,7 @@
       </c>
       <c r="J76" s="68"/>
       <c r="K76" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L76" s="61"/>
       <c r="M76" s="62"/>
@@ -22349,10 +22340,10 @@
       <c r="B77" s="60"/>
       <c r="C77" s="127"/>
       <c r="D77" s="97" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E77" s="95" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="F77" s="96"/>
       <c r="G77" s="97"/>
@@ -22364,7 +22355,7 @@
       </c>
       <c r="J77" s="97"/>
       <c r="K77" s="99" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L77" s="95"/>
       <c r="M77" s="96"/>
@@ -22376,10 +22367,10 @@
       <c r="B78" s="60"/>
       <c r="C78" s="127"/>
       <c r="D78" s="97" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E78" s="95" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F78" s="96"/>
       <c r="G78" s="97"/>
@@ -22391,7 +22382,7 @@
       </c>
       <c r="J78" s="97"/>
       <c r="K78" s="99" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L78" s="95"/>
       <c r="M78" s="96"/>
@@ -22403,10 +22394,10 @@
       <c r="B79" s="60"/>
       <c r="C79" s="127"/>
       <c r="D79" s="68" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E79" s="73" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F79" s="74"/>
       <c r="G79" s="68"/>
@@ -22418,7 +22409,7 @@
       </c>
       <c r="J79" s="68"/>
       <c r="K79" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L79" s="61"/>
       <c r="M79" s="62"/>
@@ -22430,14 +22421,14 @@
       <c r="B80" s="60"/>
       <c r="C80" s="127"/>
       <c r="D80" s="68" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E80" s="73" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F80" s="74"/>
       <c r="G80" s="68" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H80" s="68">
         <v>3</v>
@@ -22447,7 +22438,7 @@
       </c>
       <c r="J80" s="68"/>
       <c r="K80" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L80" s="61"/>
       <c r="M80" s="62"/>
@@ -22459,14 +22450,14 @@
       <c r="B81" s="60"/>
       <c r="C81" s="127"/>
       <c r="D81" s="68" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E81" s="73" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F81" s="74"/>
       <c r="G81" s="68" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H81" s="68">
         <v>2</v>
@@ -22476,7 +22467,7 @@
       </c>
       <c r="J81" s="68"/>
       <c r="K81" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L81" s="61"/>
       <c r="M81" s="62"/>
@@ -22488,14 +22479,14 @@
       <c r="B82" s="60"/>
       <c r="C82" s="127"/>
       <c r="D82" s="68" t="s">
+        <v>761</v>
+      </c>
+      <c r="E82" s="73" t="s">
         <v>764</v>
-      </c>
-      <c r="E82" s="73" t="s">
-        <v>767</v>
       </c>
       <c r="F82" s="74"/>
       <c r="G82" s="68" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H82" s="68">
         <v>3</v>
@@ -22505,7 +22496,7 @@
       </c>
       <c r="J82" s="68"/>
       <c r="K82" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L82" s="61"/>
       <c r="M82" s="62"/>
@@ -22517,14 +22508,14 @@
       <c r="B83" s="60"/>
       <c r="C83" s="127"/>
       <c r="D83" s="68" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E83" s="73" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F83" s="74"/>
       <c r="G83" s="68" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H83" s="68">
         <v>1</v>
@@ -22534,7 +22525,7 @@
       </c>
       <c r="J83" s="68"/>
       <c r="K83" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L83" s="61"/>
       <c r="M83" s="62"/>
@@ -22546,14 +22537,14 @@
       <c r="B84" s="60"/>
       <c r="C84" s="127"/>
       <c r="D84" s="68" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E84" s="73" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F84" s="74"/>
       <c r="G84" s="68" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H84" s="68">
         <v>2</v>
@@ -22563,7 +22554,7 @@
       </c>
       <c r="J84" s="68"/>
       <c r="K84" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L84" s="61"/>
       <c r="M84" s="62"/>
@@ -22575,14 +22566,14 @@
       <c r="B85" s="60"/>
       <c r="C85" s="127"/>
       <c r="D85" s="68" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E85" s="73" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F85" s="74"/>
       <c r="G85" s="68" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H85" s="68">
         <v>2</v>
@@ -22592,7 +22583,7 @@
       </c>
       <c r="J85" s="68"/>
       <c r="K85" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L85" s="61"/>
       <c r="M85" s="62"/>
@@ -22604,14 +22595,14 @@
       <c r="B86" s="60"/>
       <c r="C86" s="127"/>
       <c r="D86" s="68" t="s">
+        <v>766</v>
+      </c>
+      <c r="E86" s="73" t="s">
         <v>769</v>
-      </c>
-      <c r="E86" s="73" t="s">
-        <v>772</v>
       </c>
       <c r="F86" s="74"/>
       <c r="G86" s="68" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H86" s="68">
         <v>1</v>
@@ -22621,7 +22612,7 @@
       </c>
       <c r="J86" s="68"/>
       <c r="K86" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L86" s="61"/>
       <c r="M86" s="62"/>
@@ -22633,14 +22624,14 @@
       <c r="B87" s="60"/>
       <c r="C87" s="127"/>
       <c r="D87" s="68" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E87" s="73" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F87" s="74"/>
       <c r="G87" s="68" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H87" s="68">
         <v>3</v>
@@ -22650,10 +22641,10 @@
       </c>
       <c r="J87" s="68"/>
       <c r="K87" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L87" s="65" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M87" s="62"/>
     </row>
@@ -22664,14 +22655,14 @@
       <c r="B88" s="60"/>
       <c r="C88" s="127"/>
       <c r="D88" s="68" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E88" s="73" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F88" s="74"/>
       <c r="G88" s="68" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H88" s="68">
         <v>3</v>
@@ -22681,10 +22672,10 @@
       </c>
       <c r="J88" s="68"/>
       <c r="K88" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L88" s="65" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="M88" s="62"/>
     </row>
@@ -22695,14 +22686,14 @@
       <c r="B89" s="60"/>
       <c r="C89" s="127"/>
       <c r="D89" s="68" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E89" s="73" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F89" s="74"/>
       <c r="G89" s="68" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H89" s="68">
         <v>1</v>
@@ -22712,10 +22703,10 @@
       </c>
       <c r="J89" s="68"/>
       <c r="K89" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L89" s="65" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="M89" s="62"/>
     </row>
@@ -22726,14 +22717,14 @@
       <c r="B90" s="60"/>
       <c r="C90" s="127"/>
       <c r="D90" s="68" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E90" s="75">
         <v>620105</v>
       </c>
       <c r="F90" s="74"/>
       <c r="G90" s="68" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H90" s="68">
         <v>1</v>
@@ -22743,10 +22734,10 @@
       </c>
       <c r="J90" s="68"/>
       <c r="K90" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L90" s="65" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="M90" s="62"/>
     </row>
@@ -22757,12 +22748,12 @@
       <c r="B91" s="60"/>
       <c r="C91" s="127"/>
       <c r="D91" s="68" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E91" s="73"/>
       <c r="F91" s="74"/>
       <c r="G91" s="68" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="H91" s="68">
         <v>4</v>
@@ -22772,10 +22763,10 @@
       </c>
       <c r="J91" s="68"/>
       <c r="K91" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L91" s="65" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="M91" s="62"/>
     </row>
@@ -22785,13 +22776,13 @@
       </c>
       <c r="B92" s="60"/>
       <c r="C92" s="128" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D92" s="68" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E92" s="73" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F92" s="74"/>
       <c r="G92" s="68"/>
@@ -22813,10 +22804,10 @@
       <c r="B93" s="60"/>
       <c r="C93" s="129"/>
       <c r="D93" s="68" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E93" s="73" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F93" s="74"/>
       <c r="G93" s="68"/>
@@ -22838,10 +22829,10 @@
       <c r="B94" s="60"/>
       <c r="C94" s="129"/>
       <c r="D94" s="68" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E94" s="73" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F94" s="74"/>
       <c r="G94" s="68"/>
@@ -22863,10 +22854,10 @@
       <c r="B95" s="60"/>
       <c r="C95" s="129"/>
       <c r="D95" s="68" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E95" s="73" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F95" s="74"/>
       <c r="G95" s="68"/>
@@ -22888,14 +22879,14 @@
       <c r="B96" s="60"/>
       <c r="C96" s="129"/>
       <c r="D96" s="68" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E96" s="73" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F96" s="74"/>
       <c r="G96" s="68" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H96" s="68">
         <v>2</v>
@@ -22915,14 +22906,14 @@
       <c r="B97" s="60"/>
       <c r="C97" s="129"/>
       <c r="D97" s="68" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E97" s="73" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F97" s="74"/>
       <c r="G97" s="68" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H97" s="68">
         <v>9</v>
@@ -22941,13 +22932,13 @@
       </c>
       <c r="B98" s="60"/>
       <c r="C98" s="127" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D98" s="68" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E98" s="73" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F98" s="74"/>
       <c r="G98" s="68"/>
@@ -22969,7 +22960,7 @@
       <c r="B99" s="60"/>
       <c r="C99" s="127"/>
       <c r="D99" s="68" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E99" s="73" t="s">
         <v>648</v>
@@ -22994,10 +22985,10 @@
       <c r="B100" s="60"/>
       <c r="C100" s="127"/>
       <c r="D100" s="68" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E100" s="73" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F100" s="74"/>
       <c r="G100" s="68"/>
@@ -23009,7 +23000,7 @@
       </c>
       <c r="J100" s="68"/>
       <c r="K100" s="64" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L100" s="61"/>
       <c r="M100" s="62"/>
@@ -23019,10 +23010,10 @@
       <c r="B101" s="60"/>
       <c r="C101" s="127"/>
       <c r="D101" s="97" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E101" s="95" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="F101" s="96"/>
       <c r="G101" s="97"/>
@@ -23034,7 +23025,7 @@
       </c>
       <c r="J101" s="97"/>
       <c r="K101" s="99" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L101" s="95"/>
       <c r="M101" s="96"/>
@@ -23046,7 +23037,7 @@
       <c r="B102" s="60"/>
       <c r="C102" s="127"/>
       <c r="D102" s="68" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E102" s="73"/>
       <c r="F102" s="74"/>
@@ -23069,7 +23060,7 @@
       <c r="B103" s="60"/>
       <c r="C103" s="127"/>
       <c r="D103" s="68" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E103" s="73"/>
       <c r="F103" s="74"/>
@@ -23092,14 +23083,14 @@
       <c r="B104" s="60"/>
       <c r="C104" s="127"/>
       <c r="D104" s="68" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E104" s="73"/>
       <c r="F104" s="74"/>
       <c r="G104" s="68"/>
       <c r="H104" s="68"/>
       <c r="I104" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J104" s="68"/>
       <c r="K104" s="64"/>
@@ -23113,14 +23104,14 @@
       <c r="B105" s="60"/>
       <c r="C105" s="127"/>
       <c r="D105" s="68" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E105" s="73"/>
       <c r="F105" s="74"/>
       <c r="G105" s="68"/>
       <c r="H105" s="68"/>
       <c r="I105" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J105" s="68"/>
       <c r="K105" s="64"/>
@@ -23134,14 +23125,14 @@
       <c r="B106" s="60"/>
       <c r="C106" s="127"/>
       <c r="D106" s="68" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E106" s="73"/>
       <c r="F106" s="74"/>
       <c r="G106" s="68"/>
       <c r="H106" s="68"/>
       <c r="I106" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J106" s="68"/>
       <c r="K106" s="64"/>
@@ -23155,14 +23146,14 @@
       <c r="B107" s="60"/>
       <c r="C107" s="127"/>
       <c r="D107" s="68" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E107" s="73"/>
       <c r="F107" s="74"/>
       <c r="G107" s="68"/>
       <c r="H107" s="68"/>
       <c r="I107" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J107" s="68"/>
       <c r="K107" s="64"/>
@@ -23176,14 +23167,14 @@
       <c r="B108" s="60"/>
       <c r="C108" s="127"/>
       <c r="D108" s="68" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E108" s="73"/>
       <c r="F108" s="74"/>
       <c r="G108" s="68"/>
       <c r="H108" s="68"/>
       <c r="I108" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J108" s="68"/>
       <c r="K108" s="64"/>
@@ -23197,14 +23188,14 @@
       <c r="B109" s="60"/>
       <c r="C109" s="127"/>
       <c r="D109" s="68" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E109" s="73"/>
       <c r="F109" s="74"/>
       <c r="G109" s="68"/>
       <c r="H109" s="68"/>
       <c r="I109" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J109" s="68"/>
       <c r="K109" s="64"/>
@@ -23218,14 +23209,14 @@
       <c r="B110" s="60"/>
       <c r="C110" s="127"/>
       <c r="D110" s="68" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E110" s="73"/>
       <c r="F110" s="74"/>
       <c r="G110" s="68"/>
       <c r="H110" s="68"/>
       <c r="I110" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J110" s="68"/>
       <c r="K110" s="64"/>
@@ -23239,7 +23230,7 @@
       <c r="B111" s="60"/>
       <c r="C111" s="127"/>
       <c r="D111" s="68" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E111" s="73"/>
       <c r="F111" s="74"/>
@@ -23260,7 +23251,7 @@
       <c r="B112" s="60"/>
       <c r="C112" s="127"/>
       <c r="D112" s="68" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E112" s="73"/>
       <c r="F112" s="74"/>
@@ -23281,7 +23272,7 @@
       <c r="B113" s="60"/>
       <c r="C113" s="127"/>
       <c r="D113" s="68" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E113" s="73"/>
       <c r="F113" s="74"/>
@@ -23302,7 +23293,7 @@
       <c r="B114" s="60"/>
       <c r="C114" s="127"/>
       <c r="D114" s="68" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E114" s="73"/>
       <c r="F114" s="74"/>
@@ -23323,7 +23314,7 @@
       <c r="B115" s="60"/>
       <c r="C115" s="127"/>
       <c r="D115" s="68" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E115" s="73"/>
       <c r="F115" s="74"/>
@@ -23344,7 +23335,7 @@
       <c r="B116" s="60"/>
       <c r="C116" s="127"/>
       <c r="D116" s="68" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E116" s="73"/>
       <c r="F116" s="74"/>
@@ -23365,14 +23356,14 @@
       <c r="B117" s="60"/>
       <c r="C117" s="127"/>
       <c r="D117" s="68" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E117" s="73"/>
       <c r="F117" s="74"/>
       <c r="G117" s="68"/>
       <c r="H117" s="68"/>
       <c r="I117" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J117" s="68"/>
       <c r="K117" s="64"/>
@@ -23386,14 +23377,14 @@
       <c r="B118" s="60"/>
       <c r="C118" s="127"/>
       <c r="D118" s="68" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E118" s="73"/>
       <c r="F118" s="74"/>
       <c r="G118" s="68"/>
       <c r="H118" s="68"/>
       <c r="I118" s="71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J118" s="68"/>
       <c r="K118" s="64"/>
@@ -23407,7 +23398,7 @@
       <c r="B119" s="60"/>
       <c r="C119" s="127"/>
       <c r="D119" s="68" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E119" s="73"/>
       <c r="F119" s="74"/>
@@ -23487,10 +23478,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="117" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -23499,7 +23490,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="117"/>
       <c r="B2" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -23508,7 +23499,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="117"/>
       <c r="B3" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -23516,10 +23507,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="117" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -23528,7 +23519,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="117"/>
       <c r="B6" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -23537,7 +23528,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="117"/>
       <c r="B7" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -23546,7 +23537,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="117"/>
       <c r="B8" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -23554,10 +23545,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="117" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -23566,7 +23557,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="117"/>
       <c r="B11" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -23612,13 +23603,13 @@
         <v>253</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -23629,10 +23620,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E3" s="81"/>
     </row>
@@ -23642,10 +23633,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>413</v>
@@ -23657,7 +23648,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>363</v>
@@ -23672,7 +23663,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>364</v>
@@ -23687,7 +23678,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>365</v>
@@ -23702,7 +23693,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>366</v>
@@ -23717,7 +23708,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>367</v>
@@ -23732,7 +23723,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -23743,7 +23734,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -23754,10 +23745,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -23774,13 +23765,13 @@
         <v>253</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E14" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -23791,10 +23782,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E15" s="81"/>
     </row>
@@ -23804,13 +23795,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -23819,13 +23810,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -23834,13 +23825,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -23849,13 +23840,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -23864,13 +23855,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -23879,13 +23870,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -23894,7 +23885,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -23905,7 +23896,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -23916,10 +23907,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -23936,13 +23927,13 @@
         <v>253</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -23953,10 +23944,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E27" s="81"/>
     </row>
@@ -23966,7 +23957,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>354</v>
@@ -23981,7 +23972,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>355</v>
@@ -23996,7 +23987,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>464</v>
@@ -24011,7 +24002,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>466</v>
@@ -24026,7 +24017,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>368</v>
@@ -24041,7 +24032,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>369</v>
@@ -24056,7 +24047,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>370</v>
@@ -24071,7 +24062,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="1"/>
@@ -24082,10 +24073,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -24102,13 +24093,13 @@
         <v>253</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -24119,10 +24110,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E39" s="81"/>
     </row>
@@ -24132,13 +24123,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -24147,13 +24138,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -24162,13 +24153,13 @@
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>343</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -24177,7 +24168,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>374</v>
@@ -24192,7 +24183,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>375</v>
@@ -24207,7 +24198,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="24"/>
@@ -24218,7 +24209,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="24"/>
@@ -24229,7 +24220,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="1"/>
@@ -24240,10 +24231,10 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -24260,13 +24251,13 @@
         <v>253</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -24277,10 +24268,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E51" s="81"/>
     </row>
@@ -24290,7 +24281,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>356</v>
@@ -24305,7 +24296,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>357</v>
@@ -24320,7 +24311,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>465</v>
@@ -24335,7 +24326,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>467</v>
@@ -24350,7 +24341,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>371</v>
@@ -24365,7 +24356,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>372</v>
@@ -24380,7 +24371,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>373</v>
@@ -24395,7 +24386,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>453</v>
@@ -24410,10 +24401,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -24430,13 +24421,13 @@
         <v>253</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E62" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -24447,10 +24438,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E63" s="81"/>
     </row>
@@ -24460,13 +24451,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -24475,13 +24466,13 @@
         <v>3</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>345</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -24490,13 +24481,13 @@
         <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>346</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -24505,7 +24496,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>376</v>
@@ -24520,7 +24511,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>452</v>
@@ -24535,7 +24526,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D69" s="32" t="s">
         <v>500</v>
@@ -24550,7 +24541,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>261</v>
@@ -24565,7 +24556,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D71" s="32" t="s">
         <v>263</v>
@@ -24580,10 +24571,10 @@
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -24600,13 +24591,13 @@
         <v>253</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E74" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -24617,10 +24608,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E75" s="81"/>
     </row>
@@ -24630,7 +24621,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>358</v>
@@ -24645,7 +24636,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>359</v>
@@ -24660,7 +24651,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>474</v>
@@ -24675,7 +24666,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>476</v>
@@ -24690,7 +24681,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D80" s="32" t="s">
         <v>503</v>
@@ -24705,7 +24696,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>504</v>
@@ -24720,7 +24711,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>501</v>
@@ -24735,13 +24726,13 @@
         <v>9</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>502</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -24750,10 +24741,10 @@
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E84" s="1"/>
     </row>
@@ -24770,13 +24761,13 @@
         <v>253</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E86" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -24787,10 +24778,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E87" s="81"/>
     </row>
@@ -24800,13 +24791,13 @@
         <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>350</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -24815,13 +24806,13 @@
         <v>3</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -24830,13 +24821,13 @@
         <v>4</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -24845,7 +24836,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D91" s="32" t="s">
         <v>505</v>
@@ -24860,13 +24851,13 @@
         <v>6</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D92" s="85" t="s">
         <v>532</v>
       </c>
       <c r="E92" s="86" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -24875,13 +24866,13 @@
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D93" s="85" t="s">
         <v>514</v>
       </c>
       <c r="E93" s="86" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -24890,7 +24881,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D94" s="32"/>
       <c r="E94" s="1"/>
@@ -24901,7 +24892,7 @@
         <v>9</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="1"/>
@@ -24912,10 +24903,10 @@
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E96" s="1"/>
     </row>
@@ -24932,13 +24923,13 @@
         <v>253</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E98" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -24949,10 +24940,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E99" s="81"/>
     </row>
@@ -24962,7 +24953,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>468</v>
@@ -24977,7 +24968,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>469</v>
@@ -24992,7 +24983,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>470</v>
@@ -25007,7 +24998,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>471</v>
@@ -25022,7 +25013,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>472</v>
@@ -25037,7 +25028,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>473</v>
@@ -25052,7 +25043,7 @@
         <v>8</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D106" s="32"/>
       <c r="E106" s="1"/>
@@ -25063,7 +25054,7 @@
         <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D107" s="32"/>
       <c r="E107" s="1"/>
@@ -25074,10 +25065,10 @@
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E108" s="1"/>
     </row>
@@ -25094,13 +25085,13 @@
         <v>253</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E110" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -25111,10 +25102,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E111" s="81"/>
     </row>
@@ -25124,13 +25115,13 @@
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>347</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -25139,13 +25130,13 @@
         <v>3</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -25154,13 +25145,13 @@
         <v>4</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -25169,7 +25160,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>356</v>
@@ -25184,7 +25175,7 @@
         <v>6</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>357</v>
@@ -25199,7 +25190,7 @@
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>475</v>
@@ -25214,7 +25205,7 @@
         <v>8</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>477</v>
@@ -25229,7 +25220,7 @@
         <v>9</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D119" s="32"/>
       <c r="E119" s="1"/>
@@ -25240,10 +25231,10 @@
         <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E120" s="1"/>
     </row>
@@ -25260,13 +25251,13 @@
         <v>253</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E122" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -25277,10 +25268,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E123" s="81"/>
     </row>
@@ -25290,7 +25281,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>399</v>
@@ -25305,7 +25296,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>400</v>
@@ -25320,7 +25311,7 @@
         <v>4</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>419</v>
@@ -25335,7 +25326,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>420</v>
@@ -25350,7 +25341,7 @@
         <v>6</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>421</v>
@@ -25365,7 +25356,7 @@
         <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>422</v>
@@ -25380,7 +25371,7 @@
         <v>8</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -25391,7 +25382,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D131" s="32"/>
       <c r="E131" s="1"/>
@@ -25402,10 +25393,10 @@
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E132" s="1"/>
     </row>
@@ -25422,13 +25413,13 @@
         <v>253</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E134" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -25439,10 +25430,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E135" s="81"/>
     </row>
@@ -25452,7 +25443,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>454</v>
@@ -25467,7 +25458,7 @@
         <v>3</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>455</v>
@@ -25482,7 +25473,7 @@
         <v>4</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>456</v>
@@ -25497,7 +25488,7 @@
         <v>5</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>457</v>
@@ -25512,7 +25503,7 @@
         <v>6</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>458</v>
@@ -25527,7 +25518,7 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>459</v>
@@ -25542,7 +25533,7 @@
         <v>8</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -25553,7 +25544,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D143" s="32"/>
       <c r="E143" s="1"/>
@@ -25564,10 +25555,10 @@
         <v>10</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E144" s="1"/>
     </row>
@@ -25584,13 +25575,13 @@
         <v>253</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E146" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -25601,7 +25592,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="81"/>
@@ -25612,10 +25603,10 @@
         <v>2</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E148" s="1"/>
     </row>
@@ -25625,10 +25616,10 @@
         <v>3</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E149" s="1"/>
     </row>
@@ -25638,10 +25629,10 @@
         <v>4</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E150" s="1"/>
     </row>
@@ -25651,10 +25642,10 @@
         <v>5</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E151" s="1"/>
     </row>
@@ -25664,7 +25655,7 @@
         <v>6</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="1"/>
@@ -25675,13 +25666,13 @@
         <v>253</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E154" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -25692,7 +25683,7 @@
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="81"/>
@@ -25703,10 +25694,10 @@
         <v>2</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E156" s="1"/>
     </row>
@@ -25716,10 +25707,10 @@
         <v>3</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E157" s="1"/>
     </row>
@@ -25729,10 +25720,10 @@
         <v>4</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E158" s="1"/>
     </row>
@@ -25742,10 +25733,10 @@
         <v>5</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E159" s="1"/>
     </row>
@@ -25755,7 +25746,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="1"/>
@@ -25766,13 +25757,13 @@
         <v>253</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E162" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -25783,7 +25774,7 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="81"/>
@@ -25794,10 +25785,10 @@
         <v>2</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E164" s="1"/>
     </row>
@@ -25807,10 +25798,10 @@
         <v>3</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E165" s="1"/>
     </row>
@@ -25820,10 +25811,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E166" s="1"/>
     </row>
@@ -25833,10 +25824,10 @@
         <v>5</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E167" s="1"/>
     </row>
@@ -25846,7 +25837,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="1"/>
@@ -25857,13 +25848,13 @@
         <v>253</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E170" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -25874,7 +25865,7 @@
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="81"/>
@@ -25885,10 +25876,10 @@
         <v>2</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E172" s="1"/>
     </row>
@@ -25898,10 +25889,10 @@
         <v>3</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E173" s="1"/>
     </row>
@@ -25911,10 +25902,10 @@
         <v>4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E174" s="1"/>
     </row>
@@ -25924,10 +25915,10 @@
         <v>5</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E175" s="1"/>
     </row>
@@ -25937,7 +25928,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="1"/>
@@ -25948,13 +25939,13 @@
         <v>253</v>
       </c>
       <c r="C178" s="83" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D178" s="83" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E178" s="81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -25965,10 +25956,10 @@
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E179" s="81"/>
     </row>
@@ -25978,13 +25969,13 @@
         <v>2</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D180" s="82" t="s">
         <v>257</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -25993,13 +25984,13 @@
         <v>3</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D181" s="82" t="s">
         <v>259</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -26008,13 +25999,13 @@
         <v>4</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D182" s="82" t="s">
         <v>307</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -26023,13 +26014,13 @@
         <v>5</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D183" s="82" t="s">
         <v>309</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -26038,13 +26029,13 @@
         <v>6</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D184" s="82" t="s">
         <v>311</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -26053,13 +26044,13 @@
         <v>7</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D185" s="82" t="s">
         <v>313</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -26068,13 +26059,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D186" s="84" t="s">
         <v>331</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -26083,13 +26074,13 @@
         <v>9</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D187" s="84" t="s">
         <v>333</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -26098,15 +26089,23 @@
         <v>10</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E188" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -26114,16 +26113,8 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A147:A152"/>
     <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -6441,12 +6441,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6454,6 +6448,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6473,9 +6476,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13194,8 +13194,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:I67"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16277,12 +16277,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -16296,10 +16296,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="129"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="29" t="s">
         <v>1290</v>
       </c>
@@ -16313,20 +16313,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="129" t="s">
+      <c r="J3" s="130" t="s">
         <v>1288</v>
       </c>
-      <c r="K3" s="129"/>
+      <c r="K3" s="130"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="129"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="32" t="s">
         <v>1287</v>
       </c>
@@ -16338,18 +16338,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="130" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="129"/>
+      <c r="K4" s="130"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="131" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="131"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -16359,10 +16359,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="130" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="129"/>
+      <c r="K5" s="130"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -16388,14 +16388,14 @@
       <c r="B7" s="43" t="s">
         <v>1284</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="124" t="s">
         <v>1283</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132" t="s">
+      <c r="D7" s="124"/>
+      <c r="E7" s="124" t="s">
         <v>1282</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="124"/>
       <c r="G7" s="106" t="s">
         <v>1281</v>
       </c>
@@ -16411,17 +16411,17 @@
       <c r="K7" s="44" t="s">
         <v>1277</v>
       </c>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="125" t="s">
         <v>1276</v>
       </c>
-      <c r="M7" s="121"/>
+      <c r="M7" s="125"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="126" t="s">
         <v>1275</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -16455,7 +16455,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="122"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="46" t="s">
         <v>1270</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="52" t="s">
         <v>1266</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="122"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="52" t="s">
         <v>1263</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="122"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="52" t="s">
         <v>1263</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="122"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="122"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="122"/>
+      <c r="C15" s="126"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="122"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="122"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="122"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="122"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="122"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="122"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="122"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -16848,7 +16848,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="122"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="122"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="122"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="122"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="54" t="s">
         <v>1258</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="122"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="54" t="s">
         <v>1257</v>
       </c>
@@ -16985,7 +16985,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="122"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="79" t="s">
         <v>1256</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="122"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="54" t="s">
         <v>1253</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="122"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="122"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="122"/>
+      <c r="C32" s="126"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="122"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="121" t="s">
         <v>1251</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -17182,7 +17182,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="123"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="123"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="123"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="123"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="123"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="123"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="123"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="123"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="123"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="123"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="123"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="124" t="s">
+      <c r="C46" s="122" t="s">
         <v>1249</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -17532,7 +17532,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="125"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="125"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="125"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="123" t="s">
+      <c r="C50" s="121" t="s">
         <v>1247</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -17646,7 +17646,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="123"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="123"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="123"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="123"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="123"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="123"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="123"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="123"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="123"/>
+      <c r="C59" s="121"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="123"/>
+      <c r="C60" s="121"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="123"/>
+      <c r="C61" s="121"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="123"/>
+      <c r="C62" s="121"/>
       <c r="D62" s="53" t="s">
         <v>1246</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="123"/>
+      <c r="C63" s="121"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="123"/>
+      <c r="C64" s="121"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="123"/>
+      <c r="C65" s="121"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -18037,7 +18037,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="123"/>
+      <c r="C66" s="121"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="123"/>
+      <c r="C67" s="121"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="123"/>
+      <c r="C68" s="121"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="123"/>
+      <c r="C69" s="121"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="123"/>
+      <c r="C70" s="121"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="123"/>
+      <c r="C71" s="121"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="123"/>
+      <c r="C72" s="121"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="123"/>
+      <c r="C73" s="121"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="123"/>
+      <c r="C74" s="121"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="123"/>
+      <c r="C75" s="121"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="123"/>
+      <c r="C76" s="121"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="123"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="123"/>
+      <c r="C78" s="121"/>
       <c r="D78" s="82" t="s">
         <v>1238</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="123"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="123"/>
+      <c r="C80" s="121"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="123"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="123"/>
+      <c r="C82" s="121"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="123"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="123"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="123"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="123"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="123"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="53" t="s">
         <v>1236</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="123"/>
+      <c r="C88" s="121"/>
       <c r="D88" s="53" t="s">
         <v>1234</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="123"/>
+      <c r="C89" s="121"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="123"/>
+      <c r="C90" s="121"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="123"/>
+      <c r="C91" s="121"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="124" t="s">
+      <c r="C92" s="122" t="s">
         <v>1228</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -18804,7 +18804,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="125"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="125"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="125"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -18879,7 +18879,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="125"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="125"/>
+      <c r="C97" s="123"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="123" t="s">
+      <c r="C98" s="121" t="s">
         <v>1226</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -18960,7 +18960,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="123"/>
+      <c r="C99" s="121"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="123"/>
+      <c r="C100" s="121"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -19010,7 +19010,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="123"/>
+      <c r="C101" s="121"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="123"/>
+      <c r="C102" s="121"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="123"/>
+      <c r="C103" s="121"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="123"/>
+      <c r="C104" s="121"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="123"/>
+      <c r="C105" s="121"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="123"/>
+      <c r="C106" s="121"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="123"/>
+      <c r="C107" s="121"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="123"/>
+      <c r="C108" s="121"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -19190,7 +19190,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="123"/>
+      <c r="C109" s="121"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="123"/>
+      <c r="C110" s="121"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="123"/>
+      <c r="C111" s="121"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="123"/>
+      <c r="C112" s="121"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="123"/>
+      <c r="C113" s="121"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="123"/>
+      <c r="C114" s="121"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="123"/>
+      <c r="C115" s="121"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="123"/>
+      <c r="C116" s="121"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="123"/>
+      <c r="C117" s="121"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="123"/>
+      <c r="C118" s="121"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="123"/>
+      <c r="C119" s="121"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -19425,11 +19425,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -19441,6 +19436,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22105,16 +22105,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -22122,6 +22112,16 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="1442">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4429,19 +4429,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>料盘到位光纤，上料，产品盘2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>料盘到位光纤，上料，空盘2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>料盘到位光纤，下料，产品盘2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>料盘到位光纤，下料，空盘2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5345,6 +5333,38 @@
   </si>
   <si>
     <t>锤子气缸</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘到位光纤，上料，产品盘2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘到位光纤，上料，空盘2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘到位光纤，下料，空盘2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上料吸盘光纤1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>上料吸盘光纤2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>X10209</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>下料吸盘光纤1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>下料吸盘光纤2</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -6441,6 +6461,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6448,15 +6474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6476,6 +6493,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10541,7 +10561,7 @@
         <v>1043</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E2" s="87">
         <v>512</v>
@@ -10550,7 +10570,7 @@
         <v>1082</v>
       </c>
       <c r="G2" s="92" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="H2" s="140"/>
     </row>
@@ -10592,7 +10612,7 @@
         <v>1084</v>
       </c>
       <c r="G4" s="93" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H4" s="141"/>
     </row>
@@ -10789,7 +10809,7 @@
         <v>1055</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E14" s="78">
         <v>524</v>
@@ -12034,127 +12054,127 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1">
       <c r="C1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="107" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D2" s="109" t="s">
         <v>1200</v>
-      </c>
-      <c r="B2" s="108" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C2" s="143" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D2" s="109" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickBot="1">
       <c r="A3" s="110"/>
       <c r="B3" s="91" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C3" s="144"/>
       <c r="D3" s="111" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="107" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C4" s="143" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" thickBot="1">
       <c r="A5" s="110"/>
       <c r="B5" s="91" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C5" s="144"/>
       <c r="D5" s="111" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="107" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C6" s="143" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickBot="1">
       <c r="A7" s="110"/>
       <c r="B7" s="91" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C7" s="144"/>
       <c r="D7" s="111" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="107" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C8" s="143" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" thickBot="1">
       <c r="A9" s="110"/>
       <c r="B9" s="91" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C9" s="144"/>
       <c r="D9" s="111" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="107" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C10" s="143" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" thickBot="1">
       <c r="A11" s="110"/>
       <c r="B11" s="91" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C11" s="144"/>
       <c r="D11" s="111" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
   </sheetData>
@@ -12190,748 +12210,748 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="75" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="71" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B2" s="71" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C2" s="113" t="s">
         <v>1297</v>
       </c>
-      <c r="C2" s="113" t="s">
-        <v>1300</v>
-      </c>
       <c r="D2" s="113" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D8" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D19" s="102" t="s">
         <v>1350</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C19" s="102" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D19" s="102" t="s">
+      <c r="E19" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C20" s="102" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="71" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C25" s="113"/>
       <c r="D25" s="113" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C29" s="102" t="s">
         <v>1380</v>
       </c>
-      <c r="C29" s="102" t="s">
-        <v>1383</v>
-      </c>
       <c r="D29" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D32" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C33" s="102" t="s">
         <v>1399</v>
       </c>
-      <c r="C33" s="102" t="s">
-        <v>1402</v>
-      </c>
       <c r="D33" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C34" s="102" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>1402</v>
-      </c>
-      <c r="D34" s="102" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>1418</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C36" s="102" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D36" s="102" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>1419</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C37" s="102" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D37" s="102" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>1420</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D38" s="102" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D39" s="102" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D40" s="102" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C42" s="102" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D42" s="102" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C43" s="102" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D43" s="102" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>1432</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C44" s="102" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>1435</v>
       </c>
     </row>
   </sheetData>
@@ -13194,8 +13214,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13420,7 +13440,7 @@
         <v>112</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13456,7 +13476,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -13480,7 +13500,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="100" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
@@ -13610,7 +13630,7 @@
         <v>128</v>
       </c>
       <c r="H18" s="101" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13634,7 +13654,7 @@
         <v>130</v>
       </c>
       <c r="H19" s="101" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -14368,7 +14388,7 @@
         <v>191</v>
       </c>
       <c r="H53" s="100" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="I53" s="119"/>
     </row>
@@ -14509,7 +14529,7 @@
         <v>162</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1185</v>
+        <v>1434</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="1"/>
@@ -14566,7 +14586,7 @@
         <v>165</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1186</v>
+        <v>1435</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="1"/>
@@ -14848,7 +14868,7 @@
         <v>218</v>
       </c>
       <c r="H75" s="100" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="I75" s="119"/>
     </row>
@@ -15129,7 +15149,7 @@
         <v>270</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -15148,7 +15168,7 @@
         <v>271</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1188</v>
+        <v>1436</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -15283,7 +15303,7 @@
         <v>569</v>
       </c>
       <c r="D98" s="101" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -15302,7 +15322,7 @@
         <v>570</v>
       </c>
       <c r="D99" s="101" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -15320,7 +15340,9 @@
       <c r="C100" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="4" t="s">
+        <v>1437</v>
+      </c>
       <c r="E100" s="13"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -15335,9 +15357,11 @@
         <v>580</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D101" s="4"/>
+        <v>1439</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>1438</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -15354,7 +15378,9 @@
       <c r="C102" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>1440</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -15371,7 +15397,9 @@
       <c r="C103" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>1441</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -16272,17 +16300,17 @@
         <v>362</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="127" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
+      <c r="A2" s="126" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -16296,12 +16324,12 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="130"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="29" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
@@ -16309,26 +16337,26 @@
         <v>365</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="130" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K3" s="130"/>
+      <c r="J3" s="129" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K3" s="129"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="128" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="130"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="32" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="30"/>
@@ -16338,31 +16366,31 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="130" t="s">
+      <c r="J4" s="129" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="130"/>
+      <c r="K4" s="129"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="130" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="132"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
       <c r="F5" s="105" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="129" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="130"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -16383,52 +16411,52 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C7" s="124" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F7" s="124"/>
+        <v>1281</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F7" s="132"/>
       <c r="G7" s="106" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H7" s="106" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I7" s="106" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="J7" s="106" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>1277</v>
-      </c>
-      <c r="L7" s="125" t="s">
-        <v>1276</v>
-      </c>
-      <c r="M7" s="125"/>
+        <v>1274</v>
+      </c>
+      <c r="L7" s="121" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M7" s="121"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="126" t="s">
-        <v>1275</v>
+      <c r="C8" s="122" t="s">
+        <v>1272</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="46" t="s">
@@ -16438,14 +16466,14 @@
         <v>1</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="M8" s="48"/>
       <c r="Q8" s="51"/>
@@ -16455,26 +16483,26 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="126"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="46" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="46" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="H9" s="46">
         <v>1</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L9" s="50"/>
       <c r="M9" s="48"/>
@@ -16485,26 +16513,26 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="126"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="52" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="46" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="H10" s="46">
         <v>1</v>
       </c>
       <c r="I10" s="103" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="J10" s="46"/>
       <c r="K10" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L10" s="47"/>
       <c r="M10" s="48"/>
@@ -16515,26 +16543,26 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="126"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="52" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="46" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="H11" s="46">
         <v>1</v>
       </c>
       <c r="I11" s="103" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L11" s="47"/>
       <c r="M11" s="48"/>
@@ -16545,26 +16573,26 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="126"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="52" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>372</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="46" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="H12" s="46">
         <v>2</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="48"/>
@@ -16574,7 +16602,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="126"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -16593,7 +16621,7 @@
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L13" s="47"/>
       <c r="M13" s="48"/>
@@ -16603,7 +16631,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="126"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -16630,7 +16658,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="126"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -16657,7 +16685,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="126"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -16684,12 +16712,12 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="126"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="46" t="s">
@@ -16703,7 +16731,7 @@
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L17" s="47"/>
       <c r="M17" s="48"/>
@@ -16713,7 +16741,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="126"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -16740,7 +16768,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="126"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -16765,7 +16793,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="126"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -16782,7 +16810,7 @@
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L20" s="47"/>
       <c r="M20" s="48"/>
@@ -16792,12 +16820,12 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="126"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="46"/>
@@ -16809,7 +16837,7 @@
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L21" s="47"/>
       <c r="M21" s="48"/>
@@ -16819,7 +16847,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="126"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -16838,7 +16866,7 @@
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
@@ -16848,7 +16876,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -16867,7 +16895,7 @@
       </c>
       <c r="J23" s="46"/>
       <c r="K23" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L23" s="47"/>
       <c r="M23" s="48"/>
@@ -16877,7 +16905,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="126"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -16896,7 +16924,7 @@
       </c>
       <c r="J24" s="46"/>
       <c r="K24" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L24" s="47"/>
       <c r="M24" s="48"/>
@@ -16906,7 +16934,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="126"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -16925,7 +16953,7 @@
       </c>
       <c r="J25" s="46"/>
       <c r="K25" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L25" s="47"/>
       <c r="M25" s="48"/>
@@ -16935,9 +16963,9 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="126"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="54" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="48"/>
@@ -16950,7 +16978,7 @@
       </c>
       <c r="J26" s="46"/>
       <c r="K26" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L26" s="47"/>
       <c r="M26" s="48"/>
@@ -16960,9 +16988,9 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="126"/>
+      <c r="C27" s="122"/>
       <c r="D27" s="54" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>403</v>
@@ -16977,7 +17005,7 @@
       </c>
       <c r="J27" s="46"/>
       <c r="K27" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L27" s="47"/>
       <c r="M27" s="48"/>
@@ -16985,12 +17013,12 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="126"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="79" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F28" s="81"/>
       <c r="G28" s="82"/>
@@ -17003,7 +17031,7 @@
       <c r="J28" s="82"/>
       <c r="K28" s="84"/>
       <c r="L28" s="112" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="M28" s="81"/>
     </row>
@@ -17012,12 +17040,12 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="126"/>
+      <c r="C29" s="122"/>
       <c r="D29" s="54" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="46" t="s">
@@ -17031,7 +17059,7 @@
       </c>
       <c r="J29" s="46"/>
       <c r="K29" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
@@ -17041,7 +17069,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="126"/>
+      <c r="C30" s="122"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -17068,7 +17096,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="126"/>
+      <c r="C31" s="122"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -17087,7 +17115,7 @@
       </c>
       <c r="J31" s="53"/>
       <c r="K31" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L31" s="47"/>
       <c r="M31" s="48"/>
@@ -17097,7 +17125,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="126"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -17112,7 +17140,7 @@
       </c>
       <c r="J32" s="53"/>
       <c r="K32" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L32" s="47"/>
       <c r="M32" s="48"/>
@@ -17122,7 +17150,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="126"/>
+      <c r="C33" s="122"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -17141,7 +17169,7 @@
       </c>
       <c r="J33" s="53"/>
       <c r="K33" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L33" s="47"/>
       <c r="M33" s="48"/>
@@ -17151,8 +17179,8 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="121" t="s">
-        <v>1251</v>
+      <c r="C34" s="123" t="s">
+        <v>1248</v>
       </c>
       <c r="D34" s="57" t="s">
         <v>415</v>
@@ -17172,7 +17200,7 @@
       </c>
       <c r="J34" s="53"/>
       <c r="K34" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L34" s="47"/>
       <c r="M34" s="48"/>
@@ -17182,7 +17210,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="121"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -17201,7 +17229,7 @@
       </c>
       <c r="J35" s="53"/>
       <c r="K35" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L35" s="47"/>
       <c r="M35" s="48"/>
@@ -17211,7 +17239,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="121"/>
+      <c r="C36" s="123"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -17230,7 +17258,7 @@
       </c>
       <c r="J36" s="53"/>
       <c r="K36" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L36" s="47"/>
       <c r="M36" s="48"/>
@@ -17240,7 +17268,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="121"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -17259,7 +17287,7 @@
       </c>
       <c r="J37" s="53"/>
       <c r="K37" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L37" s="47"/>
       <c r="M37" s="48"/>
@@ -17269,7 +17297,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="121"/>
+      <c r="C38" s="123"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -17288,7 +17316,7 @@
       </c>
       <c r="J38" s="53"/>
       <c r="K38" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L38" s="47"/>
       <c r="M38" s="48"/>
@@ -17298,7 +17326,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="121"/>
+      <c r="C39" s="123"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -17317,7 +17345,7 @@
       </c>
       <c r="J39" s="53"/>
       <c r="K39" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L39" s="47"/>
       <c r="M39" s="48"/>
@@ -17327,7 +17355,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="121"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -17346,7 +17374,7 @@
       </c>
       <c r="J40" s="53"/>
       <c r="K40" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L40" s="47"/>
       <c r="M40" s="48"/>
@@ -17356,7 +17384,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="121"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -17375,7 +17403,7 @@
       </c>
       <c r="J41" s="53"/>
       <c r="K41" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L41" s="47"/>
       <c r="M41" s="48"/>
@@ -17385,7 +17413,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="121"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -17404,7 +17432,7 @@
       </c>
       <c r="J42" s="53"/>
       <c r="K42" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L42" s="47"/>
       <c r="M42" s="48"/>
@@ -17414,7 +17442,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="121"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -17433,7 +17461,7 @@
       </c>
       <c r="J43" s="53"/>
       <c r="K43" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L43" s="47"/>
       <c r="M43" s="48"/>
@@ -17443,7 +17471,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="121"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -17462,10 +17490,10 @@
       </c>
       <c r="J44" s="53"/>
       <c r="K44" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L44" s="62" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="M44" s="48"/>
     </row>
@@ -17474,7 +17502,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="121"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -17493,7 +17521,7 @@
       </c>
       <c r="J45" s="53"/>
       <c r="K45" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L45" s="47"/>
       <c r="M45" s="48"/>
@@ -17503,8 +17531,8 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="122" t="s">
-        <v>1249</v>
+      <c r="C46" s="124" t="s">
+        <v>1246</v>
       </c>
       <c r="D46" s="53" t="s">
         <v>439</v>
@@ -17532,7 +17560,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="123"/>
+      <c r="C47" s="125"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -17559,12 +17587,12 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="123"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="53" t="s">
@@ -17578,7 +17606,7 @@
       </c>
       <c r="J48" s="53"/>
       <c r="K48" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L48" s="47"/>
       <c r="M48" s="48"/>
@@ -17588,7 +17616,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="123"/>
+      <c r="C49" s="125"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -17607,7 +17635,7 @@
       </c>
       <c r="J49" s="53"/>
       <c r="K49" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L49" s="47"/>
       <c r="M49" s="48"/>
@@ -17617,8 +17645,8 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="121" t="s">
-        <v>1247</v>
+      <c r="C50" s="123" t="s">
+        <v>1244</v>
       </c>
       <c r="D50" s="53" t="s">
         <v>449</v>
@@ -17646,7 +17674,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="121"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -17671,7 +17699,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="121"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -17698,7 +17726,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="121"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -17725,7 +17753,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="121"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -17752,7 +17780,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="121"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -17775,7 +17803,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="121"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -17798,7 +17826,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="121"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -17825,7 +17853,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="121"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -17848,7 +17876,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="121"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -17865,7 +17893,7 @@
       </c>
       <c r="J59" s="53"/>
       <c r="K59" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L59" s="47"/>
       <c r="M59" s="48"/>
@@ -17875,7 +17903,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="121"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -17900,7 +17928,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="121"/>
+      <c r="C61" s="123"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -17925,12 +17953,12 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="121"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="53" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F62" s="59"/>
       <c r="G62" s="53" t="s">
@@ -17944,10 +17972,10 @@
       </c>
       <c r="J62" s="53"/>
       <c r="K62" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L62" s="62" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="M62" s="48"/>
     </row>
@@ -17956,7 +17984,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="121"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -17983,7 +18011,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="121"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -18010,7 +18038,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="121"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -18037,7 +18065,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="121"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -18064,7 +18092,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="121"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -18091,7 +18119,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="121"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -18118,7 +18146,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="121"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -18145,7 +18173,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="121"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -18164,7 +18192,7 @@
       </c>
       <c r="J70" s="53"/>
       <c r="K70" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L70" s="47"/>
       <c r="M70" s="48"/>
@@ -18174,16 +18202,16 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="121"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
       <c r="E71" s="58" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F71" s="59"/>
       <c r="G71" s="53" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="H71" s="53">
         <v>8</v>
@@ -18193,10 +18221,10 @@
       </c>
       <c r="J71" s="53"/>
       <c r="K71" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L71" s="62" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="M71" s="48"/>
     </row>
@@ -18205,7 +18233,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="121"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -18230,7 +18258,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="121"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -18247,7 +18275,7 @@
       </c>
       <c r="J73" s="53"/>
       <c r="K73" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L73" s="47"/>
       <c r="M73" s="48"/>
@@ -18257,7 +18285,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="121"/>
+      <c r="C74" s="123"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -18274,7 +18302,7 @@
       </c>
       <c r="J74" s="53"/>
       <c r="K74" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L74" s="47"/>
       <c r="M74" s="48"/>
@@ -18284,7 +18312,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="121"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -18301,7 +18329,7 @@
       </c>
       <c r="J75" s="53"/>
       <c r="K75" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L75" s="47"/>
       <c r="M75" s="48"/>
@@ -18311,7 +18339,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="121"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -18328,7 +18356,7 @@
       </c>
       <c r="J76" s="53"/>
       <c r="K76" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L76" s="47"/>
       <c r="M76" s="48"/>
@@ -18338,12 +18366,12 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="121"/>
+      <c r="C77" s="123"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F77" s="81"/>
       <c r="G77" s="82"/>
@@ -18355,10 +18383,10 @@
       </c>
       <c r="J77" s="82"/>
       <c r="K77" s="84" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L77" s="112" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="M77" s="81"/>
     </row>
@@ -18367,12 +18395,12 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="121"/>
+      <c r="C78" s="123"/>
       <c r="D78" s="82" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E78" s="80" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="F78" s="81"/>
       <c r="G78" s="82"/>
@@ -18384,7 +18412,7 @@
       </c>
       <c r="J78" s="82"/>
       <c r="K78" s="84" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L78" s="80"/>
       <c r="M78" s="81"/>
@@ -18394,7 +18422,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="121"/>
+      <c r="C79" s="123"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -18411,7 +18439,7 @@
       </c>
       <c r="J79" s="53"/>
       <c r="K79" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L79" s="47"/>
       <c r="M79" s="48"/>
@@ -18421,7 +18449,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="121"/>
+      <c r="C80" s="123"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -18440,7 +18468,7 @@
       </c>
       <c r="J80" s="53"/>
       <c r="K80" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L80" s="47"/>
       <c r="M80" s="48"/>
@@ -18450,7 +18478,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="121"/>
+      <c r="C81" s="123"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -18469,7 +18497,7 @@
       </c>
       <c r="J81" s="53"/>
       <c r="K81" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L81" s="47"/>
       <c r="M81" s="48"/>
@@ -18479,7 +18507,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="121"/>
+      <c r="C82" s="123"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -18498,7 +18526,7 @@
       </c>
       <c r="J82" s="53"/>
       <c r="K82" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L82" s="47"/>
       <c r="M82" s="48"/>
@@ -18508,7 +18536,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="121"/>
+      <c r="C83" s="123"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -18527,7 +18555,7 @@
       </c>
       <c r="J83" s="53"/>
       <c r="K83" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L83" s="47"/>
       <c r="M83" s="48"/>
@@ -18537,7 +18565,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="121"/>
+      <c r="C84" s="123"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -18556,7 +18584,7 @@
       </c>
       <c r="J84" s="53"/>
       <c r="K84" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L84" s="47"/>
       <c r="M84" s="48"/>
@@ -18566,7 +18594,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="121"/>
+      <c r="C85" s="123"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -18585,7 +18613,7 @@
       </c>
       <c r="J85" s="53"/>
       <c r="K85" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L85" s="47"/>
       <c r="M85" s="48"/>
@@ -18595,7 +18623,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="121"/>
+      <c r="C86" s="123"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -18614,7 +18642,7 @@
       </c>
       <c r="J86" s="53"/>
       <c r="K86" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L86" s="47"/>
       <c r="M86" s="48"/>
@@ -18624,9 +18652,9 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="121"/>
+      <c r="C87" s="123"/>
       <c r="D87" s="53" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E87" s="58" t="s">
         <v>509</v>
@@ -18643,10 +18671,10 @@
       </c>
       <c r="J87" s="53"/>
       <c r="K87" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L87" s="50" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="M87" s="48"/>
     </row>
@@ -18655,9 +18683,9 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="121"/>
+      <c r="C88" s="123"/>
       <c r="D88" s="53" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E88" s="58" t="s">
         <v>510</v>
@@ -18674,10 +18702,10 @@
       </c>
       <c r="J88" s="53"/>
       <c r="K88" s="49" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L88" s="50" t="s">
         <v>1230</v>
-      </c>
-      <c r="L88" s="50" t="s">
-        <v>1233</v>
       </c>
       <c r="M88" s="48"/>
     </row>
@@ -18686,7 +18714,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="121"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -18705,10 +18733,10 @@
       </c>
       <c r="J89" s="53"/>
       <c r="K89" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L89" s="50" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="M89" s="48"/>
     </row>
@@ -18717,7 +18745,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="121"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -18736,10 +18764,10 @@
       </c>
       <c r="J90" s="53"/>
       <c r="K90" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L90" s="50" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="M90" s="48"/>
     </row>
@@ -18748,7 +18776,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="121"/>
+      <c r="C91" s="123"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -18765,10 +18793,10 @@
       </c>
       <c r="J91" s="53"/>
       <c r="K91" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L91" s="50" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="M91" s="48"/>
     </row>
@@ -18777,14 +18805,14 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="122" t="s">
-        <v>1228</v>
+      <c r="C92" s="124" t="s">
+        <v>1225</v>
       </c>
       <c r="D92" s="53" t="s">
         <v>517</v>
       </c>
       <c r="E92" s="58" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F92" s="59"/>
       <c r="G92" s="53"/>
@@ -18804,7 +18832,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="123"/>
+      <c r="C93" s="125"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -18829,7 +18857,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="123"/>
+      <c r="C94" s="125"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -18854,7 +18882,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="123"/>
+      <c r="C95" s="125"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -18879,7 +18907,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="123"/>
+      <c r="C96" s="125"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -18906,7 +18934,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="123"/>
+      <c r="C97" s="125"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -18933,8 +18961,8 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="121" t="s">
-        <v>1226</v>
+      <c r="C98" s="123" t="s">
+        <v>1223</v>
       </c>
       <c r="D98" s="53" t="s">
         <v>525</v>
@@ -18960,7 +18988,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="121"/>
+      <c r="C99" s="123"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -18985,7 +19013,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="121"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -19002,7 +19030,7 @@
       </c>
       <c r="J100" s="53"/>
       <c r="K100" s="49" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="L100" s="47"/>
       <c r="M100" s="48"/>
@@ -19010,12 +19038,12 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="121"/>
+      <c r="C101" s="123"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
       <c r="E101" s="80" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F101" s="81"/>
       <c r="G101" s="82"/>
@@ -19027,10 +19055,10 @@
       </c>
       <c r="J101" s="82"/>
       <c r="K101" s="84" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="L101" s="112" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M101" s="81"/>
     </row>
@@ -19039,7 +19067,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="121"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -19062,7 +19090,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="121"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -19085,7 +19113,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="121"/>
+      <c r="C104" s="123"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -19106,7 +19134,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="121"/>
+      <c r="C105" s="123"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -19127,7 +19155,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="121"/>
+      <c r="C106" s="123"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -19148,7 +19176,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="121"/>
+      <c r="C107" s="123"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -19169,7 +19197,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="121"/>
+      <c r="C108" s="123"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -19190,7 +19218,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="121"/>
+      <c r="C109" s="123"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -19211,7 +19239,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="121"/>
+      <c r="C110" s="123"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -19232,7 +19260,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="121"/>
+      <c r="C111" s="123"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -19253,7 +19281,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="121"/>
+      <c r="C112" s="123"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -19274,7 +19302,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="121"/>
+      <c r="C113" s="123"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -19295,7 +19323,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="121"/>
+      <c r="C114" s="123"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -19316,7 +19344,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="121"/>
+      <c r="C115" s="123"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -19337,7 +19365,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="121"/>
+      <c r="C116" s="123"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -19358,7 +19386,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="121"/>
+      <c r="C117" s="123"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -19379,7 +19407,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="121"/>
+      <c r="C118" s="123"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -19400,7 +19428,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="121"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -19425,6 +19453,11 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -19436,11 +19469,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -22105,6 +22133,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -22112,16 +22147,9 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A147:A152"/>
     <mergeCell ref="A155:A160"/>
     <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1499">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5580,6 +5580,22 @@
   </si>
   <si>
     <t>ValveB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass NCuip3;pass NCuip2;pass NCuip1;go ChangeHandL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass NCuip1;pass NCuip2;pass NCuip3;go NCui_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6696,6 +6712,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6703,15 +6725,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6731,6 +6744,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12315,10 +12331,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12452,8 +12468,33 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="107" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C12" s="146" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A13" s="110"/>
+      <c r="B13" s="91" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C13" s="147"/>
+      <c r="D13" s="111" t="s">
+        <v>1497</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
@@ -13240,7 +13281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -14028,7 +14069,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14168,8 +14209,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="A3:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17259,12 +17300,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>1275</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -17278,10 +17319,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="131" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="133"/>
+      <c r="B3" s="132"/>
       <c r="C3" s="29" t="s">
         <v>1274</v>
       </c>
@@ -17295,20 +17336,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="133" t="s">
+      <c r="J3" s="132" t="s">
         <v>1272</v>
       </c>
-      <c r="K3" s="133"/>
+      <c r="K3" s="132"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="133"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="32" t="s">
         <v>1271</v>
       </c>
@@ -17320,18 +17361,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="133" t="s">
+      <c r="J4" s="132" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="133"/>
+      <c r="K4" s="132"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="133" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="135"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -17341,10 +17382,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="132" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="133"/>
+      <c r="K5" s="132"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -17370,14 +17411,14 @@
       <c r="B7" s="43" t="s">
         <v>1268</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="135" t="s">
         <v>1267</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="135"/>
+      <c r="E7" s="135" t="s">
         <v>1266</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="106" t="s">
         <v>1265</v>
       </c>
@@ -17393,17 +17434,17 @@
       <c r="K7" s="44" t="s">
         <v>1261</v>
       </c>
-      <c r="L7" s="128" t="s">
+      <c r="L7" s="124" t="s">
         <v>1260</v>
       </c>
-      <c r="M7" s="128"/>
+      <c r="M7" s="124"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="125" t="s">
         <v>1259</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -17437,7 +17478,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="129"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="46" t="s">
         <v>1254</v>
       </c>
@@ -17467,7 +17508,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="129"/>
+      <c r="C10" s="125"/>
       <c r="D10" s="52" t="s">
         <v>1250</v>
       </c>
@@ -17497,7 +17538,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="129"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="52" t="s">
         <v>1247</v>
       </c>
@@ -17527,7 +17568,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="129"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="52" t="s">
         <v>1247</v>
       </c>
@@ -17556,7 +17597,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="129"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -17585,7 +17626,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="129"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -17612,7 +17653,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="129"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -17639,7 +17680,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="129"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -17666,7 +17707,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="129"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -17695,7 +17736,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="129"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -17722,7 +17763,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="129"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -17747,7 +17788,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="129"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -17774,7 +17815,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="129"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -17801,7 +17842,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="129"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -17830,7 +17871,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="125"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -17859,7 +17900,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="129"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -17888,7 +17929,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="129"/>
+      <c r="C25" s="125"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -17917,7 +17958,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="129"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="54" t="s">
         <v>1242</v>
       </c>
@@ -17942,7 +17983,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="129"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="54" t="s">
         <v>1241</v>
       </c>
@@ -17967,7 +18008,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="129"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="79" t="s">
         <v>1240</v>
       </c>
@@ -17994,7 +18035,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="129"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="54" t="s">
         <v>1237</v>
       </c>
@@ -18023,7 +18064,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="129"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -18050,7 +18091,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="129"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -18079,7 +18120,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="129"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -18104,7 +18145,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="129"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -18133,7 +18174,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="126" t="s">
         <v>1235</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -18164,7 +18205,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="124"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -18193,7 +18234,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="124"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -18222,7 +18263,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="124"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -18251,7 +18292,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="124"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -18280,7 +18321,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="124"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -18309,7 +18350,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="124"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -18338,7 +18379,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="124"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -18367,7 +18408,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="124"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -18396,7 +18437,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="124"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -18425,7 +18466,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="124"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -18456,7 +18497,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="124"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -18485,7 +18526,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="125" t="s">
+      <c r="C46" s="127" t="s">
         <v>1233</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -18514,7 +18555,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="126"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -18541,7 +18582,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="126"/>
+      <c r="C48" s="128"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -18570,7 +18611,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="126"/>
+      <c r="C49" s="128"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -18599,7 +18640,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="124" t="s">
+      <c r="C50" s="126" t="s">
         <v>1231</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -18628,7 +18669,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="124"/>
+      <c r="C51" s="126"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -18653,7 +18694,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="124"/>
+      <c r="C52" s="126"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -18680,7 +18721,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="124"/>
+      <c r="C53" s="126"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -18707,7 +18748,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="124"/>
+      <c r="C54" s="126"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -18734,7 +18775,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="124"/>
+      <c r="C55" s="126"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -18757,7 +18798,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="124"/>
+      <c r="C56" s="126"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -18780,7 +18821,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="124"/>
+      <c r="C57" s="126"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -18807,7 +18848,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="124"/>
+      <c r="C58" s="126"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -18830,7 +18871,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="124"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -18857,7 +18898,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="124"/>
+      <c r="C60" s="126"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -18882,7 +18923,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="124"/>
+      <c r="C61" s="126"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -18907,7 +18948,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="124"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="53" t="s">
         <v>1230</v>
       </c>
@@ -18938,7 +18979,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="124"/>
+      <c r="C63" s="126"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -18965,7 +19006,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="124"/>
+      <c r="C64" s="126"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -18992,7 +19033,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="124"/>
+      <c r="C65" s="126"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -19019,7 +19060,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="124"/>
+      <c r="C66" s="126"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -19046,7 +19087,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="124"/>
+      <c r="C67" s="126"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -19073,7 +19114,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="124"/>
+      <c r="C68" s="126"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -19100,7 +19141,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="124"/>
+      <c r="C69" s="126"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -19127,7 +19168,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="124"/>
+      <c r="C70" s="126"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -19156,7 +19197,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="124"/>
+      <c r="C71" s="126"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -19187,7 +19228,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="124"/>
+      <c r="C72" s="126"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -19212,7 +19253,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="124"/>
+      <c r="C73" s="126"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -19239,7 +19280,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="124"/>
+      <c r="C74" s="126"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -19266,7 +19307,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="124"/>
+      <c r="C75" s="126"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -19293,7 +19334,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="124"/>
+      <c r="C76" s="126"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -19320,7 +19361,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="124"/>
+      <c r="C77" s="126"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -19349,7 +19390,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="124"/>
+      <c r="C78" s="126"/>
       <c r="D78" s="82" t="s">
         <v>1222</v>
       </c>
@@ -19376,7 +19417,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="124"/>
+      <c r="C79" s="126"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -19403,7 +19444,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="124"/>
+      <c r="C80" s="126"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -19432,7 +19473,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="124"/>
+      <c r="C81" s="126"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -19461,7 +19502,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="124"/>
+      <c r="C82" s="126"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -19490,7 +19531,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="124"/>
+      <c r="C83" s="126"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -19519,7 +19560,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="124"/>
+      <c r="C84" s="126"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -19548,7 +19589,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="124"/>
+      <c r="C85" s="126"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -19577,7 +19618,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="124"/>
+      <c r="C86" s="126"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -19606,7 +19647,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="124"/>
+      <c r="C87" s="126"/>
       <c r="D87" s="53" t="s">
         <v>1220</v>
       </c>
@@ -19637,7 +19678,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="124"/>
+      <c r="C88" s="126"/>
       <c r="D88" s="53" t="s">
         <v>1218</v>
       </c>
@@ -19668,7 +19709,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="124"/>
+      <c r="C89" s="126"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -19699,7 +19740,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="124"/>
+      <c r="C90" s="126"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -19730,7 +19771,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="124"/>
+      <c r="C91" s="126"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -19759,7 +19800,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="125" t="s">
+      <c r="C92" s="127" t="s">
         <v>1212</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -19786,7 +19827,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="126"/>
+      <c r="C93" s="128"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -19811,7 +19852,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="126"/>
+      <c r="C94" s="128"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -19836,7 +19877,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="126"/>
+      <c r="C95" s="128"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -19861,7 +19902,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="126"/>
+      <c r="C96" s="128"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -19888,7 +19929,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="126"/>
+      <c r="C97" s="128"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -19915,7 +19956,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="124" t="s">
+      <c r="C98" s="126" t="s">
         <v>1210</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -19942,7 +19983,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="124"/>
+      <c r="C99" s="126"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -19967,7 +20008,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="124"/>
+      <c r="C100" s="126"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -19992,7 +20033,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="124"/>
+      <c r="C101" s="126"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -20021,7 +20062,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="124"/>
+      <c r="C102" s="126"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -20044,7 +20085,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="124"/>
+      <c r="C103" s="126"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -20067,7 +20108,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="124"/>
+      <c r="C104" s="126"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -20088,7 +20129,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="124"/>
+      <c r="C105" s="126"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -20109,7 +20150,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="124"/>
+      <c r="C106" s="126"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -20130,7 +20171,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="124"/>
+      <c r="C107" s="126"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -20151,7 +20192,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="124"/>
+      <c r="C108" s="126"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -20172,7 +20213,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="124"/>
+      <c r="C109" s="126"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -20193,7 +20234,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="124"/>
+      <c r="C110" s="126"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -20214,7 +20255,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="124"/>
+      <c r="C111" s="126"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -20235,7 +20276,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="124"/>
+      <c r="C112" s="126"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -20256,7 +20297,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="124"/>
+      <c r="C113" s="126"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -20277,7 +20318,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="124"/>
+      <c r="C114" s="126"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -20298,7 +20339,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="124"/>
+      <c r="C115" s="126"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -20319,7 +20360,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="124"/>
+      <c r="C116" s="126"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -20340,7 +20381,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="124"/>
+      <c r="C117" s="126"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -20361,7 +20402,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="124"/>
+      <c r="C118" s="126"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -20382,7 +20423,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="124"/>
+      <c r="C119" s="126"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -20407,6 +20448,11 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -20418,11 +20464,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -23087,6 +23128,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A163:A168"/>
     <mergeCell ref="A179:A188"/>
     <mergeCell ref="A99:A108"/>
     <mergeCell ref="A3:A12"/>
@@ -23103,7 +23145,6 @@
     <mergeCell ref="A135:A144"/>
     <mergeCell ref="A147:A152"/>
     <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,23 @@
     <sheet name="随机配送清单" sheetId="13" r:id="rId12"/>
     <sheet name="调试计划" sheetId="14" r:id="rId13"/>
     <sheet name="补物料" sheetId="15" r:id="rId14"/>
-    <sheet name="通信" sheetId="16" r:id="rId15"/>
+    <sheet name="机械手PLC通信" sheetId="16" r:id="rId15"/>
     <sheet name="模组坐标" sheetId="17" r:id="rId16"/>
     <sheet name="机械手命令" sheetId="18" r:id="rId17"/>
     <sheet name="机械手点位说明" sheetId="20" r:id="rId18"/>
     <sheet name="机械手IO说明" sheetId="22" r:id="rId19"/>
     <sheet name="网络IP规划" sheetId="21" r:id="rId20"/>
+    <sheet name="样本程序设计" sheetId="23" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'物料清单 采购格式 (2)'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="1570">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5023,9 +5024,6 @@
     <t>B爪测试机内取放产品位3</t>
   </si>
   <si>
-    <t>B爪测试机内取放产品位4</t>
-  </si>
-  <si>
     <t>P51</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5050,18 +5048,6 @@
   </si>
   <si>
     <t>B_4</t>
-  </si>
-  <si>
-    <t>P80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeHandL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械手收缩姿势</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A1PASS1</t>
@@ -5596,6 +5582,288 @@
   </si>
   <si>
     <t>pass NCuip1;pass NCuip2;pass NCuip3;go NCui_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SamSearchflag = 0
+CmdSend$ = "SamDBSearch,A"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barsamuser_uno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barsamuser_psw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本使用次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已使用次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barsaminfounum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barsaminfopartnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barsaminfobarcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barsaminfongitem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barsaminfostnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleResult,1,OK,OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试机台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTNUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITEM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGITEM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转气缸RST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转气缸SET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B爪测试机内取放产品位4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeHandL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手收缩姿势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleP1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleP2</t>
+  </si>
+  <si>
+    <t>SampleP3</t>
+  </si>
+  <si>
+    <t>SampleP4</t>
+  </si>
+  <si>
+    <t>SampleP1_A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleP2_A</t>
+  </si>
+  <si>
+    <t>SampleP3_A</t>
+  </si>
+  <si>
+    <t>SampleP4_A</t>
+  </si>
+  <si>
+    <t>P121</t>
+  </si>
+  <si>
+    <t>P122</t>
+  </si>
+  <si>
+    <t>P123</t>
+  </si>
+  <si>
+    <t>P124</t>
+  </si>
+  <si>
+    <t>P125</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>P127</t>
+  </si>
+  <si>
+    <t>SamplePass1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SamplePass2</t>
+  </si>
+  <si>
+    <t>P140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P141</t>
+  </si>
+  <si>
+    <t>B爪手样本盘点1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B爪手样本盘点2</t>
+  </si>
+  <si>
+    <t>B爪手样本盘点3</t>
+  </si>
+  <si>
+    <t>B爪手样本盘点4</t>
+  </si>
+  <si>
+    <t>A爪手样本盘点1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A爪手样本盘点2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A爪手样本盘点3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A爪手样本盘点4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去样本盘经过点1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去样本盘经过点2</t>
+  </si>
+  <si>
+    <t>样本盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass SamplePass1;pass SamplePass2;go SampleP1_A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass SamplePass2;pass SamplePass1;go ChangeHandL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转气缸SET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6415,7 +6683,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -6691,6 +6959,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6712,12 +6987,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6725,6 +6994,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6744,9 +7022,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9314,6 +9589,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637571</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="1543050"/>
+          <a:ext cx="4838096" cy="3095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>589931</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>94776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="8477250"/>
+          <a:ext cx="4952381" cy="3790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294697</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="5276850"/>
+          <a:ext cx="4628572" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -9610,20 +10004,20 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9640,7 +10034,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="117"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -9653,7 +10047,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="117"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -9741,7 +10135,7 @@
       <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="125" t="s">
         <v>918</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9750,136 +10144,136 @@
       <c r="C2" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="125" t="s">
         <v>885</v>
       </c>
       <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="122"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="122"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="1" t="s">
         <v>884</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D4" s="122"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="122"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="1" t="s">
         <v>889</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="125" t="s">
         <v>895</v>
       </c>
       <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="122"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="1" t="s">
         <v>891</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="122"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="1" t="s">
         <v>893</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D7" s="122"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="65"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="122"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="1" t="s">
         <v>896</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="125" t="s">
         <v>908</v>
       </c>
       <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="122"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="1" t="s">
         <v>897</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D9" s="122"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="65"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="122"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="1" t="s">
         <v>898</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="D10" s="122"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="65"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="122"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="1" t="s">
         <v>902</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="125" t="s">
         <v>909</v>
       </c>
       <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="1" t="s">
         <v>903</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D12" s="122"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="122"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="1" t="s">
         <v>904</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D13" s="122"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5">
@@ -10214,7 +10608,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>917</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10228,7 +10622,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="122"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="1" t="s">
         <v>911</v>
       </c>
@@ -10240,7 +10634,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="122"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="1" t="s">
         <v>912</v>
       </c>
@@ -10250,7 +10644,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="122"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="1" t="s">
         <v>913</v>
       </c>
@@ -10262,7 +10656,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="125" t="s">
         <v>947</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10276,7 +10670,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="122"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="1" t="s">
         <v>911</v>
       </c>
@@ -10288,9 +10682,9 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="122"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="4" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C8" s="1">
         <f>C6/C7</f>
@@ -10299,20 +10693,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="122"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="1" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C9" s="1">
         <f>C6*50</f>
         <v>800</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="125" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -10326,7 +10720,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="122"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="1" t="s">
         <v>911</v>
       </c>
@@ -10338,9 +10732,9 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="122"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="4" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C13" s="1">
         <f>C11/C12</f>
@@ -10349,16 +10743,16 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="122"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="1" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C14" s="1">
         <f>20*50</f>
         <v>1000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
   </sheetData>
@@ -10390,10 +10784,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>959</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="142"/>
       <c r="C1" s="74" t="s">
         <v>977</v>
       </c>
@@ -10402,8 +10796,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
     </row>
@@ -10624,18 +11018,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="145" t="s">
         <v>985</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="76" t="s">
@@ -10644,10 +11038,10 @@
       <c r="B3" s="76" t="s">
         <v>987</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="121" t="s">
         <v>988</v>
       </c>
-      <c r="D3" s="118"/>
+      <c r="D3" s="121"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="76">
@@ -10810,8 +11204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10863,7 +11257,7 @@
       <c r="G2" s="92" t="s">
         <v>1179</v>
       </c>
-      <c r="H2" s="143"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="88">
@@ -10883,7 +11277,7 @@
         <v>1070</v>
       </c>
       <c r="G3" s="93"/>
-      <c r="H3" s="144"/>
+      <c r="H3" s="147"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="88">
@@ -10905,7 +11299,7 @@
       <c r="G4" s="93" t="s">
         <v>1181</v>
       </c>
-      <c r="H4" s="144"/>
+      <c r="H4" s="147"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="88">
@@ -10925,7 +11319,7 @@
         <v>1072</v>
       </c>
       <c r="G5" s="93"/>
-      <c r="H5" s="144"/>
+      <c r="H5" s="147"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="88">
@@ -10944,8 +11338,10 @@
       <c r="F6" s="78" t="s">
         <v>1073</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="144"/>
+      <c r="G6" s="93" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H6" s="147"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="88">
@@ -10964,8 +11360,10 @@
       <c r="F7" s="78" t="s">
         <v>1074</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="144"/>
+      <c r="G7" s="93" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H7" s="147"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="88">
@@ -10985,7 +11383,7 @@
         <v>1075</v>
       </c>
       <c r="G8" s="93"/>
-      <c r="H8" s="144"/>
+      <c r="H8" s="147"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="88">
@@ -11005,7 +11403,7 @@
         <v>1076</v>
       </c>
       <c r="G9" s="93"/>
-      <c r="H9" s="144"/>
+      <c r="H9" s="147"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="88">
@@ -11027,7 +11425,7 @@
       <c r="G10" s="93" t="s">
         <v>1168</v>
       </c>
-      <c r="H10" s="144"/>
+      <c r="H10" s="147"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="88">
@@ -11047,7 +11445,7 @@
         <v>1078</v>
       </c>
       <c r="G11" s="93"/>
-      <c r="H11" s="144"/>
+      <c r="H11" s="147"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="88">
@@ -11067,7 +11465,7 @@
         <v>1079</v>
       </c>
       <c r="G12" s="93"/>
-      <c r="H12" s="144"/>
+      <c r="H12" s="147"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="88">
@@ -11087,7 +11485,7 @@
         <v>1080</v>
       </c>
       <c r="G13" s="93"/>
-      <c r="H13" s="144"/>
+      <c r="H13" s="147"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="88">
@@ -11109,7 +11507,7 @@
         <v>1081</v>
       </c>
       <c r="G14" s="93"/>
-      <c r="H14" s="144"/>
+      <c r="H14" s="147"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="88">
@@ -11129,7 +11527,7 @@
         <v>1082</v>
       </c>
       <c r="G15" s="93"/>
-      <c r="H15" s="144"/>
+      <c r="H15" s="147"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="88">
@@ -11149,7 +11547,7 @@
         <v>1083</v>
       </c>
       <c r="G16" s="93"/>
-      <c r="H16" s="144"/>
+      <c r="H16" s="147"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" thickBot="1">
       <c r="A17" s="89">
@@ -11169,7 +11567,7 @@
         <v>1084</v>
       </c>
       <c r="G17" s="94"/>
-      <c r="H17" s="145"/>
+      <c r="H17" s="148"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="86">
@@ -11191,7 +11589,7 @@
       <c r="G18" s="92" t="s">
         <v>1169</v>
       </c>
-      <c r="H18" s="143"/>
+      <c r="H18" s="146"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="88">
@@ -11213,7 +11611,7 @@
       <c r="G19" s="93" t="s">
         <v>1170</v>
       </c>
-      <c r="H19" s="144"/>
+      <c r="H19" s="147"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="88">
@@ -11233,7 +11631,7 @@
         <v>1087</v>
       </c>
       <c r="G20" s="93"/>
-      <c r="H20" s="144"/>
+      <c r="H20" s="147"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="88">
@@ -11253,7 +11651,7 @@
         <v>1088</v>
       </c>
       <c r="G21" s="93"/>
-      <c r="H21" s="144"/>
+      <c r="H21" s="147"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="88">
@@ -11273,7 +11671,7 @@
         <v>1089</v>
       </c>
       <c r="G22" s="93"/>
-      <c r="H22" s="144"/>
+      <c r="H22" s="147"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="88">
@@ -11293,7 +11691,7 @@
         <v>1090</v>
       </c>
       <c r="G23" s="93"/>
-      <c r="H23" s="144"/>
+      <c r="H23" s="147"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="88">
@@ -11313,7 +11711,7 @@
         <v>1091</v>
       </c>
       <c r="G24" s="93"/>
-      <c r="H24" s="144"/>
+      <c r="H24" s="147"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="88">
@@ -11335,7 +11733,7 @@
         <v>1092</v>
       </c>
       <c r="G25" s="93"/>
-      <c r="H25" s="144"/>
+      <c r="H25" s="147"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="88">
@@ -11357,7 +11755,7 @@
         <v>1093</v>
       </c>
       <c r="G26" s="93"/>
-      <c r="H26" s="144"/>
+      <c r="H26" s="147"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="88">
@@ -11379,7 +11777,7 @@
         <v>1094</v>
       </c>
       <c r="G27" s="93"/>
-      <c r="H27" s="144"/>
+      <c r="H27" s="147"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="88">
@@ -11401,7 +11799,7 @@
         <v>1095</v>
       </c>
       <c r="G28" s="93"/>
-      <c r="H28" s="144"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="88">
@@ -11423,7 +11821,7 @@
         <v>1096</v>
       </c>
       <c r="G29" s="93"/>
-      <c r="H29" s="144"/>
+      <c r="H29" s="147"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="88">
@@ -11445,7 +11843,7 @@
         <v>1097</v>
       </c>
       <c r="G30" s="93"/>
-      <c r="H30" s="144"/>
+      <c r="H30" s="147"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="88">
@@ -11465,7 +11863,7 @@
         <v>1098</v>
       </c>
       <c r="G31" s="93"/>
-      <c r="H31" s="144"/>
+      <c r="H31" s="147"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="88">
@@ -11485,7 +11883,7 @@
         <v>1099</v>
       </c>
       <c r="G32" s="93"/>
-      <c r="H32" s="144"/>
+      <c r="H32" s="147"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" thickBot="1">
       <c r="A33" s="89">
@@ -11505,7 +11903,7 @@
         <v>1100</v>
       </c>
       <c r="G33" s="94"/>
-      <c r="H33" s="145"/>
+      <c r="H33" s="148"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="86">
@@ -11525,7 +11923,7 @@
         <v>1101</v>
       </c>
       <c r="G34" s="92"/>
-      <c r="H34" s="143"/>
+      <c r="H34" s="146"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="88">
@@ -11545,7 +11943,7 @@
         <v>1102</v>
       </c>
       <c r="G35" s="93"/>
-      <c r="H35" s="144"/>
+      <c r="H35" s="147"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="88">
@@ -11565,7 +11963,7 @@
         <v>1103</v>
       </c>
       <c r="G36" s="93"/>
-      <c r="H36" s="144"/>
+      <c r="H36" s="147"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="88">
@@ -11585,7 +11983,7 @@
         <v>1104</v>
       </c>
       <c r="G37" s="93"/>
-      <c r="H37" s="144"/>
+      <c r="H37" s="147"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="88">
@@ -11605,7 +12003,7 @@
         <v>1105</v>
       </c>
       <c r="G38" s="93"/>
-      <c r="H38" s="144"/>
+      <c r="H38" s="147"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="88">
@@ -11625,7 +12023,7 @@
         <v>1106</v>
       </c>
       <c r="G39" s="93"/>
-      <c r="H39" s="144"/>
+      <c r="H39" s="147"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="88">
@@ -11645,7 +12043,7 @@
         <v>1107</v>
       </c>
       <c r="G40" s="93"/>
-      <c r="H40" s="144"/>
+      <c r="H40" s="147"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="88">
@@ -11665,7 +12063,7 @@
         <v>1108</v>
       </c>
       <c r="G41" s="93"/>
-      <c r="H41" s="144"/>
+      <c r="H41" s="147"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="88">
@@ -11685,7 +12083,7 @@
         <v>1109</v>
       </c>
       <c r="G42" s="93"/>
-      <c r="H42" s="144"/>
+      <c r="H42" s="147"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="88">
@@ -11705,7 +12103,7 @@
         <v>1110</v>
       </c>
       <c r="G43" s="93"/>
-      <c r="H43" s="144"/>
+      <c r="H43" s="147"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="88">
@@ -11725,7 +12123,7 @@
         <v>1111</v>
       </c>
       <c r="G44" s="93"/>
-      <c r="H44" s="144"/>
+      <c r="H44" s="147"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="88">
@@ -11745,7 +12143,7 @@
         <v>1112</v>
       </c>
       <c r="G45" s="93"/>
-      <c r="H45" s="144"/>
+      <c r="H45" s="147"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="88">
@@ -11765,7 +12163,7 @@
         <v>1113</v>
       </c>
       <c r="G46" s="93"/>
-      <c r="H46" s="144"/>
+      <c r="H46" s="147"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="88">
@@ -11785,7 +12183,7 @@
         <v>1114</v>
       </c>
       <c r="G47" s="93"/>
-      <c r="H47" s="144"/>
+      <c r="H47" s="147"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="88">
@@ -11805,7 +12203,7 @@
         <v>1115</v>
       </c>
       <c r="G48" s="93"/>
-      <c r="H48" s="144"/>
+      <c r="H48" s="147"/>
     </row>
     <row r="49" spans="1:8" ht="14.25" thickBot="1">
       <c r="A49" s="89">
@@ -11825,7 +12223,7 @@
         <v>1116</v>
       </c>
       <c r="G49" s="94"/>
-      <c r="H49" s="145"/>
+      <c r="H49" s="148"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="86">
@@ -11845,7 +12243,7 @@
         <v>1117</v>
       </c>
       <c r="G50" s="92"/>
-      <c r="H50" s="143"/>
+      <c r="H50" s="146"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="88">
@@ -11865,7 +12263,7 @@
         <v>1118</v>
       </c>
       <c r="G51" s="93"/>
-      <c r="H51" s="144"/>
+      <c r="H51" s="147"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="88">
@@ -11885,7 +12283,7 @@
         <v>1119</v>
       </c>
       <c r="G52" s="93"/>
-      <c r="H52" s="144"/>
+      <c r="H52" s="147"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="88">
@@ -11905,7 +12303,7 @@
         <v>1120</v>
       </c>
       <c r="G53" s="93"/>
-      <c r="H53" s="144"/>
+      <c r="H53" s="147"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="88">
@@ -11925,7 +12323,7 @@
         <v>1121</v>
       </c>
       <c r="G54" s="93"/>
-      <c r="H54" s="144"/>
+      <c r="H54" s="147"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="88">
@@ -11945,7 +12343,7 @@
         <v>1122</v>
       </c>
       <c r="G55" s="93"/>
-      <c r="H55" s="144"/>
+      <c r="H55" s="147"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="88">
@@ -11965,7 +12363,7 @@
         <v>1123</v>
       </c>
       <c r="G56" s="93"/>
-      <c r="H56" s="144"/>
+      <c r="H56" s="147"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="88">
@@ -11985,7 +12383,7 @@
         <v>1156</v>
       </c>
       <c r="G57" s="93"/>
-      <c r="H57" s="144"/>
+      <c r="H57" s="147"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="88">
@@ -12005,7 +12403,7 @@
         <v>1157</v>
       </c>
       <c r="G58" s="93"/>
-      <c r="H58" s="144"/>
+      <c r="H58" s="147"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="88">
@@ -12025,7 +12423,7 @@
         <v>1158</v>
       </c>
       <c r="G59" s="93"/>
-      <c r="H59" s="144"/>
+      <c r="H59" s="147"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="88">
@@ -12045,7 +12443,7 @@
         <v>1159</v>
       </c>
       <c r="G60" s="93"/>
-      <c r="H60" s="144"/>
+      <c r="H60" s="147"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="88">
@@ -12065,7 +12463,7 @@
         <v>1160</v>
       </c>
       <c r="G61" s="93"/>
-      <c r="H61" s="144"/>
+      <c r="H61" s="147"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="88">
@@ -12085,7 +12483,7 @@
         <v>1161</v>
       </c>
       <c r="G62" s="93"/>
-      <c r="H62" s="144"/>
+      <c r="H62" s="147"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="88">
@@ -12105,7 +12503,7 @@
         <v>1162</v>
       </c>
       <c r="G63" s="93"/>
-      <c r="H63" s="144"/>
+      <c r="H63" s="147"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="88">
@@ -12125,7 +12523,7 @@
         <v>1163</v>
       </c>
       <c r="G64" s="93"/>
-      <c r="H64" s="144"/>
+      <c r="H64" s="147"/>
     </row>
     <row r="65" spans="1:8" ht="14.25" thickBot="1">
       <c r="A65" s="89">
@@ -12145,7 +12543,7 @@
         <v>1164</v>
       </c>
       <c r="G65" s="94"/>
-      <c r="H65" s="145"/>
+      <c r="H65" s="148"/>
     </row>
     <row r="66" spans="1:8">
       <c r="G66" s="85"/>
@@ -12331,10 +12729,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12355,7 +12753,7 @@
       <c r="B2" s="108" t="s">
         <v>1185</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="149" t="s">
         <v>1202</v>
       </c>
       <c r="D2" s="109" t="s">
@@ -12367,7 +12765,7 @@
       <c r="B3" s="91" t="s">
         <v>1186</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="150"/>
       <c r="D3" s="111" t="s">
         <v>1188</v>
       </c>
@@ -12379,7 +12777,7 @@
       <c r="B4" s="108" t="s">
         <v>1185</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="149" t="s">
         <v>1203</v>
       </c>
       <c r="D4" s="109" t="s">
@@ -12391,7 +12789,7 @@
       <c r="B5" s="91" t="s">
         <v>1186</v>
       </c>
-      <c r="C5" s="147"/>
+      <c r="C5" s="150"/>
       <c r="D5" s="111" t="s">
         <v>1194</v>
       </c>
@@ -12403,7 +12801,7 @@
       <c r="B6" s="108" t="s">
         <v>1185</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="149" t="s">
         <v>1204</v>
       </c>
       <c r="D6" s="109" t="s">
@@ -12415,7 +12813,7 @@
       <c r="B7" s="91" t="s">
         <v>1186</v>
       </c>
-      <c r="C7" s="147"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="111" t="s">
         <v>1196</v>
       </c>
@@ -12427,7 +12825,7 @@
       <c r="B8" s="108" t="s">
         <v>1185</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="149" t="s">
         <v>1205</v>
       </c>
       <c r="D8" s="109" t="s">
@@ -12439,7 +12837,7 @@
       <c r="B9" s="91" t="s">
         <v>1186</v>
       </c>
-      <c r="C9" s="147"/>
+      <c r="C9" s="150"/>
       <c r="D9" s="111" t="s">
         <v>1198</v>
       </c>
@@ -12451,7 +12849,7 @@
       <c r="B10" s="108" t="s">
         <v>1185</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="149" t="s">
         <v>1206</v>
       </c>
       <c r="D10" s="109" t="s">
@@ -12463,23 +12861,23 @@
       <c r="B11" s="91" t="s">
         <v>1186</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="150"/>
       <c r="D11" s="111" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="107" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B12" s="108" t="s">
         <v>1185</v>
       </c>
-      <c r="C12" s="146" t="s">
-        <v>1496</v>
+      <c r="C12" s="149" t="s">
+        <v>1492</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" thickBot="1">
@@ -12487,19 +12885,44 @@
       <c r="B13" s="91" t="s">
         <v>1186</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="150"/>
       <c r="D13" s="111" t="s">
-        <v>1497</v>
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="107" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C14" s="149" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A15" s="110"/>
+      <c r="B15" s="91" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C15" s="150"/>
+      <c r="D15" s="111" t="s">
+        <v>1568</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12509,10 +12932,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12866,10 +13289,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C21" s="102" t="s">
         <v>1319</v>
@@ -12883,10 +13306,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C22" s="102" t="s">
         <v>1204</v>
@@ -12900,10 +13323,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C23" s="102" t="s">
         <v>1205</v>
@@ -12917,357 +13340,527 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>1206</v>
+        <v>1529</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>1337</v>
+        <v>1530</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1345</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="71" t="s">
-        <v>1354</v>
+        <v>1532</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>1355</v>
+        <v>1533</v>
       </c>
       <c r="C25" s="113"/>
       <c r="D25" s="113" t="s">
-        <v>1337</v>
+        <v>1530</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>1356</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>1359</v>
+        <v>1535</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C26" s="102" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D26" s="102" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D26" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1361</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>1360</v>
+        <v>1545</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D27" s="102" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D27" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1362</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>1370</v>
+        <v>1546</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C28" s="102" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D28" s="102" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C28" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D28" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1368</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>1371</v>
+        <v>1547</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C29" s="102" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D29" s="102" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C29" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D29" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1369</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1365</v>
+        <v>1548</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C30" s="102" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D30" s="102" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D30" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1376</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>1366</v>
+        <v>1549</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C31" s="102" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D31" s="102" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C31" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D31" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1377</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>1378</v>
+        <v>1550</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C32" s="102" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D32" s="102" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D32" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1387</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>1379</v>
+        <v>1551</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C33" s="102" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D33" s="102" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C33" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D33" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1388</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>1380</v>
+        <v>1554</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C34" s="102" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D34" s="102" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C34" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D34" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1389</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>1381</v>
+        <v>1555</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C35" s="102" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D35" s="102" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C35" s="119" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D35" s="119" t="s">
         <v>1337</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1390</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>1402</v>
+        <v>1355</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1391</v>
+        <v>1353</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>1394</v>
+        <v>1319</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>1395</v>
+        <v>1337</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1405</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>1403</v>
+        <v>1356</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1392</v>
+        <v>1354</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>1394</v>
+        <v>1319</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>1395</v>
+        <v>1337</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1406</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>1404</v>
+        <v>1366</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1393</v>
+        <v>1359</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>1394</v>
+        <v>1363</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>1395</v>
+        <v>1337</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1407</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>1399</v>
+        <v>1367</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1396</v>
+        <v>1360</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>1394</v>
+        <v>1363</v>
       </c>
       <c r="D39" s="102" t="s">
-        <v>1395</v>
+        <v>1337</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1408</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>1400</v>
+        <v>1361</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1397</v>
+        <v>1368</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>1394</v>
+        <v>1370</v>
       </c>
       <c r="D40" s="102" t="s">
-        <v>1395</v>
+        <v>1337</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1409</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>1401</v>
+        <v>1362</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1398</v>
+        <v>1369</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>1394</v>
+        <v>1371</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>1395</v>
+        <v>1337</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1410</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>1414</v>
+        <v>1374</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1411</v>
+        <v>1378</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="D42" s="102" t="s">
         <v>1337</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1417</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>1415</v>
+        <v>1375</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1412</v>
+        <v>1379</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>1395</v>
+        <v>1337</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1418</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>1416</v>
+        <v>1376</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D46" s="102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C48" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D50" s="102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D51" s="102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C52" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D52" s="102" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="C44" s="102" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>1395</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>1419</v>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C53" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D53" s="102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C54" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1415</v>
       </c>
     </row>
   </sheetData>
@@ -13304,7 +13897,7 @@
         <v>47</v>
       </c>
       <c r="C1" s="116" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -13324,7 +13917,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="116" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>634</v>
@@ -13334,7 +13927,7 @@
         <v>99</v>
       </c>
       <c r="G2" s="115" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>712</v>
@@ -13348,7 +13941,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="116" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>719</v>
@@ -13358,7 +13951,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="115" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>713</v>
@@ -13372,7 +13965,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>720</v>
@@ -13382,7 +13975,7 @@
         <v>103</v>
       </c>
       <c r="G4" s="115" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>714</v>
@@ -13396,7 +13989,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>721</v>
@@ -13406,7 +13999,7 @@
         <v>105</v>
       </c>
       <c r="G5" s="115" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>715</v>
@@ -13420,7 +14013,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>616</v>
@@ -13430,7 +14023,7 @@
         <v>107</v>
       </c>
       <c r="G6" s="115" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>716</v>
@@ -13444,7 +14037,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>617</v>
@@ -13454,7 +14047,7 @@
         <v>109</v>
       </c>
       <c r="G7" s="115" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>1171</v>
@@ -13468,7 +14061,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="116" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>615</v>
@@ -13478,10 +14071,10 @@
         <v>111</v>
       </c>
       <c r="G8" s="115" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13492,7 +14085,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>614</v>
@@ -13522,7 +14115,7 @@
         <v>115</v>
       </c>
       <c r="G10" s="115" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>622</v>
@@ -13536,7 +14129,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="116" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D11" s="100" t="s">
         <v>1177</v>
@@ -13546,7 +14139,7 @@
         <v>117</v>
       </c>
       <c r="G11" s="115" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>623</v>
@@ -13560,7 +14153,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>618</v>
@@ -13570,7 +14163,7 @@
         <v>119</v>
       </c>
       <c r="G12" s="115" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>624</v>
@@ -13584,7 +14177,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>619</v>
@@ -13594,7 +14187,7 @@
         <v>121</v>
       </c>
       <c r="G13" s="115" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>625</v>
@@ -13608,7 +14201,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="116" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>620</v>
@@ -13618,7 +14211,7 @@
         <v>123</v>
       </c>
       <c r="G14" s="115" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>717</v>
@@ -13632,7 +14225,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>621</v>
@@ -13642,7 +14235,7 @@
         <v>125</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>718</v>
@@ -13656,7 +14249,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>627</v>
@@ -13680,7 +14273,7 @@
         <v>79</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>629</v>
@@ -13704,7 +14297,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>626</v>
@@ -13722,7 +14315,7 @@
         <v>83</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>628</v>
@@ -13768,7 +14361,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>630</v>
@@ -13786,7 +14379,7 @@
         <v>91</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>631</v>
@@ -13804,7 +14397,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="116" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>632</v>
@@ -13822,7 +14415,7 @@
         <v>95</v>
       </c>
       <c r="C25" s="116" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>633</v>
@@ -14086,88 +14679,88 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
-      <c r="B1" s="118" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="B1" s="121" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F1" s="118" t="s">
-        <v>1452</v>
-      </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I1" s="118"/>
+        <v>1442</v>
+      </c>
+      <c r="F1" s="121" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C2" s="114" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -14182,6 +14775,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="52.375" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27">
+      <c r="A2" s="117" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="I10" t="s">
+        <v>1511</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="I11" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="I12" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J12" s="118" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="I13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J13" s="118" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="I14" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J14" s="118" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="I15" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J15" s="118" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="I16" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10">
+      <c r="I17" t="s">
+        <v>1518</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8">
+      <c r="G59" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8">
+      <c r="G60" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
+      <c r="G61" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8">
+      <c r="G62" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8">
+      <c r="G63" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -14189,8 +14937,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14209,8 +14957,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14227,22 +14975,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -14329,7 +15077,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>720</v>
+        <v>1569</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -14353,7 +15101,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>721</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -14435,7 +15183,7 @@
         <v>112</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14793,12 +15541,12 @@
       <c r="H27" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="22.5">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="18"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -14806,10 +15554,10 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="22.5">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
       <c r="E30" s="18"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -14862,7 +15610,7 @@
       <c r="H32" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="I32" s="122" t="s">
+      <c r="I32" s="125" t="s">
         <v>329</v>
       </c>
     </row>
@@ -14889,7 +15637,7 @@
       <c r="H33" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="I33" s="122"/>
+      <c r="I33" s="125"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
@@ -14914,7 +15662,7 @@
       <c r="H34" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="I34" s="122"/>
+      <c r="I34" s="125"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6">
@@ -14939,7 +15687,7 @@
       <c r="H35" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="I35" s="122"/>
+      <c r="I35" s="125"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6">
@@ -14962,7 +15710,7 @@
         <v>174</v>
       </c>
       <c r="H36" s="13"/>
-      <c r="I36" s="122"/>
+      <c r="I36" s="125"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6">
@@ -14985,7 +15733,7 @@
         <v>175</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="122"/>
+      <c r="I37" s="125"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6">
@@ -15010,7 +15758,7 @@
       <c r="H38" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="I38" s="122"/>
+      <c r="I38" s="125"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6">
@@ -15035,7 +15783,7 @@
       <c r="H39" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="I39" s="122"/>
+      <c r="I39" s="125"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
@@ -15060,7 +15808,7 @@
       <c r="H40" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I40" s="122"/>
+      <c r="I40" s="125"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6">
@@ -15085,7 +15833,7 @@
       <c r="H41" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="I41" s="122"/>
+      <c r="I41" s="125"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6">
@@ -15110,7 +15858,7 @@
       <c r="H42" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="I42" s="122"/>
+      <c r="I42" s="125"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6">
@@ -15135,7 +15883,7 @@
       <c r="H43" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="I43" s="122"/>
+      <c r="I43" s="125"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
@@ -15160,7 +15908,7 @@
       <c r="H44" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="I44" s="122"/>
+      <c r="I44" s="125"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6">
@@ -15185,7 +15933,7 @@
       <c r="H45" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="I45" s="122"/>
+      <c r="I45" s="125"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
@@ -15210,7 +15958,7 @@
       <c r="H46" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="I46" s="122"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6">
@@ -15235,7 +15983,7 @@
       <c r="H47" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="I47" s="122"/>
+      <c r="I47" s="125"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
@@ -15260,7 +16008,7 @@
       <c r="H48" s="13" t="s">
         <v>1167</v>
       </c>
-      <c r="I48" s="122"/>
+      <c r="I48" s="125"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6">
@@ -15285,7 +16033,7 @@
       <c r="H49" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="I49" s="122"/>
+      <c r="I49" s="125"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6">
@@ -15310,7 +16058,7 @@
       <c r="H50" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="I50" s="122"/>
+      <c r="I50" s="125"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6">
@@ -15335,7 +16083,7 @@
       <c r="H51" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="I51" s="122"/>
+      <c r="I51" s="125"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6">
@@ -15360,7 +16108,7 @@
       <c r="H52" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="I52" s="122"/>
+      <c r="I52" s="125"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6">
@@ -15385,7 +16133,7 @@
       <c r="H53" s="100" t="s">
         <v>1174</v>
       </c>
-      <c r="I53" s="122"/>
+      <c r="I53" s="125"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6">
@@ -15410,7 +16158,7 @@
       <c r="H54" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I54" s="122"/>
+      <c r="I54" s="125"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6">
@@ -15435,7 +16183,7 @@
       <c r="H55" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="I55" s="122"/>
+      <c r="I55" s="125"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6">
@@ -15454,7 +16202,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="122"/>
+      <c r="I56" s="125"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6">
@@ -15473,7 +16221,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="122"/>
+      <c r="I57" s="125"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6">
@@ -15492,7 +16240,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="122"/>
+      <c r="I58" s="125"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6">
@@ -15511,7 +16259,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="122"/>
+      <c r="I59" s="125"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6">
@@ -15524,13 +16272,13 @@
         <v>162</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="122"/>
+      <c r="I60" s="125"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6">
@@ -15543,13 +16291,13 @@
         <v>163</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="122"/>
+      <c r="I61" s="125"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6">
@@ -15562,13 +16310,13 @@
         <v>164</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="122"/>
+      <c r="I62" s="125"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6">
@@ -15581,13 +16329,13 @@
         <v>165</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="122"/>
+      <c r="I63" s="125"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6">
@@ -15606,7 +16354,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="122"/>
+      <c r="I64" s="125"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6">
@@ -15625,7 +16373,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="122"/>
+      <c r="I65" s="125"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6">
@@ -15644,7 +16392,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="122"/>
+      <c r="I66" s="125"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6">
@@ -15663,7 +16411,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="122"/>
+      <c r="I67" s="125"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22">
@@ -15688,7 +16436,7 @@
       <c r="H68" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="I68" s="122" t="s">
+      <c r="I68" s="125" t="s">
         <v>328</v>
       </c>
     </row>
@@ -15715,7 +16463,7 @@
       <c r="H69" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="I69" s="122"/>
+      <c r="I69" s="125"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="22">
@@ -15740,7 +16488,7 @@
       <c r="H70" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="I70" s="122"/>
+      <c r="I70" s="125"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
@@ -15765,7 +16513,7 @@
       <c r="H71" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="I71" s="122"/>
+      <c r="I71" s="125"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="22">
@@ -15790,7 +16538,7 @@
       <c r="H72" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="I72" s="122"/>
+      <c r="I72" s="125"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="22">
@@ -15815,7 +16563,7 @@
       <c r="H73" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="I73" s="122"/>
+      <c r="I73" s="125"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="22">
@@ -15840,7 +16588,7 @@
       <c r="H74" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="I74" s="122"/>
+      <c r="I74" s="125"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="22">
@@ -15865,7 +16613,7 @@
       <c r="H75" s="100" t="s">
         <v>1176</v>
       </c>
-      <c r="I75" s="122"/>
+      <c r="I75" s="125"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="22">
@@ -15884,7 +16632,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="122" t="s">
+      <c r="I76" s="125" t="s">
         <v>577</v>
       </c>
     </row>
@@ -15905,7 +16653,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="122"/>
+      <c r="I77" s="125"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="22">
@@ -15924,7 +16672,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="122"/>
+      <c r="I78" s="125"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="22">
@@ -15943,7 +16691,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="122"/>
+      <c r="I79" s="125"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="22">
@@ -15962,7 +16710,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="122"/>
+      <c r="I80" s="125"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="22">
@@ -15979,7 +16727,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="122"/>
+      <c r="I81" s="125"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="22">
@@ -15998,7 +16746,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="122"/>
+      <c r="I82" s="125"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22">
@@ -16017,7 +16765,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="122"/>
+      <c r="I83" s="125"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="22">
@@ -16036,7 +16784,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="122"/>
+      <c r="I84" s="125"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="22">
@@ -16055,7 +16803,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="122"/>
+      <c r="I85" s="125"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="22">
@@ -16074,7 +16822,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="122"/>
+      <c r="I86" s="125"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="22">
@@ -16093,7 +16841,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="122"/>
+      <c r="I87" s="125"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="22">
@@ -16112,7 +16860,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="122"/>
+      <c r="I88" s="125"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="22">
@@ -16131,7 +16879,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="122"/>
+      <c r="I89" s="125"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="22">
@@ -16150,7 +16898,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="122"/>
+      <c r="I90" s="125"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="22">
@@ -16163,13 +16911,13 @@
         <v>271</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="122"/>
+      <c r="I91" s="125"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="22">
@@ -16188,7 +16936,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="119" t="s">
+      <c r="I92" s="122" t="s">
         <v>578</v>
       </c>
     </row>
@@ -16209,7 +16957,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="120"/>
+      <c r="I93" s="123"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="22">
@@ -16228,7 +16976,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="120"/>
+      <c r="I94" s="123"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="22">
@@ -16247,7 +16995,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="120"/>
+      <c r="I95" s="123"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="22">
@@ -16266,7 +17014,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="120"/>
+      <c r="I96" s="123"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="22">
@@ -16285,7 +17033,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="120"/>
+      <c r="I97" s="123"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="22">
@@ -16304,7 +17052,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="120"/>
+      <c r="I98" s="123"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="22">
@@ -16323,26 +17071,26 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="20"/>
-      <c r="I99" s="120"/>
+      <c r="I99" s="123"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="22">
         <v>69</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="120"/>
+      <c r="I100" s="123"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="22">
@@ -16355,13 +17103,13 @@
         <v>579</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="120"/>
+      <c r="I101" s="123"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="22">
@@ -16374,13 +17122,13 @@
         <v>580</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="120"/>
+      <c r="I102" s="123"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="22">
@@ -16393,13 +17141,13 @@
         <v>581</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="120"/>
+      <c r="I103" s="123"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="22">
@@ -16416,7 +17164,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="120"/>
+      <c r="I104" s="123"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="22">
@@ -16433,41 +17181,41 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="120"/>
+      <c r="I105" s="123"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="22">
         <v>75</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="120"/>
+      <c r="I106" s="123"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="22">
         <v>76</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="20"/>
-      <c r="I107" s="121"/>
+      <c r="I107" s="124"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="63"/>
@@ -16481,12 +17229,12 @@
       <c r="I108" s="65"/>
     </row>
     <row r="110" spans="1:9" ht="22.5">
-      <c r="A110" s="123" t="s">
+      <c r="A110" s="126" t="s">
         <v>286</v>
       </c>
-      <c r="B110" s="123"/>
-      <c r="C110" s="123"/>
-      <c r="D110" s="123"/>
+      <c r="B110" s="126"/>
+      <c r="C110" s="126"/>
+      <c r="D110" s="126"/>
       <c r="E110" s="18"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -16494,10 +17242,10 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="22.5">
-      <c r="A111" s="123"/>
-      <c r="B111" s="123"/>
-      <c r="C111" s="123"/>
-      <c r="D111" s="123"/>
+      <c r="A111" s="126"/>
+      <c r="B111" s="126"/>
+      <c r="C111" s="126"/>
+      <c r="D111" s="126"/>
       <c r="E111" s="18"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -16517,7 +17265,7 @@
       <c r="D112" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E112" s="119" t="s">
+      <c r="E112" s="122" t="s">
         <v>326</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -16529,7 +17277,7 @@
       <c r="H112" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I112" s="122" t="s">
+      <c r="I112" s="125" t="s">
         <v>327</v>
       </c>
     </row>
@@ -16544,9 +17292,9 @@
         <v>878</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E113" s="120"/>
+        <v>1427</v>
+      </c>
+      <c r="E113" s="123"/>
       <c r="F113" s="1" t="s">
         <v>322</v>
       </c>
@@ -16554,9 +17302,9 @@
         <v>324</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="I113" s="122"/>
+        <v>1432</v>
+      </c>
+      <c r="I113" s="125"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6">
@@ -16569,9 +17317,9 @@
         <v>292</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E114" s="120"/>
+        <v>1428</v>
+      </c>
+      <c r="E114" s="123"/>
       <c r="F114" s="1" t="s">
         <v>103</v>
       </c>
@@ -16581,7 +17329,7 @@
       <c r="H114" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="I114" s="122"/>
+      <c r="I114" s="125"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6">
@@ -16594,9 +17342,9 @@
         <v>293</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E115" s="120"/>
+        <v>1429</v>
+      </c>
+      <c r="E115" s="123"/>
       <c r="F115" s="1" t="s">
         <v>105</v>
       </c>
@@ -16604,9 +17352,9 @@
         <v>307</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="I115" s="122"/>
+        <v>1433</v>
+      </c>
+      <c r="I115" s="125"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6">
@@ -16619,9 +17367,9 @@
         <v>294</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E116" s="120"/>
+        <v>1430</v>
+      </c>
+      <c r="E116" s="123"/>
       <c r="F116" s="1" t="s">
         <v>107</v>
       </c>
@@ -16629,7 +17377,7 @@
         <v>308</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="122"/>
+      <c r="I116" s="125"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6">
@@ -16642,9 +17390,9 @@
         <v>295</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E117" s="120"/>
+        <v>1431</v>
+      </c>
+      <c r="E117" s="123"/>
       <c r="F117" s="1" t="s">
         <v>109</v>
       </c>
@@ -16652,7 +17400,7 @@
         <v>309</v>
       </c>
       <c r="H117" s="19"/>
-      <c r="I117" s="122"/>
+      <c r="I117" s="125"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6">
@@ -16667,7 +17415,7 @@
       <c r="D118" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E118" s="120"/>
+      <c r="E118" s="123"/>
       <c r="F118" s="1" t="s">
         <v>111</v>
       </c>
@@ -16675,7 +17423,7 @@
         <v>310</v>
       </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="122"/>
+      <c r="I118" s="125"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6">
@@ -16690,7 +17438,7 @@
       <c r="D119" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E119" s="120"/>
+      <c r="E119" s="123"/>
       <c r="F119" s="1" t="s">
         <v>113</v>
       </c>
@@ -16698,7 +17446,7 @@
         <v>311</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="122"/>
+      <c r="I119" s="125"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6">
@@ -16713,7 +17461,7 @@
       <c r="D120" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="E120" s="120"/>
+      <c r="E120" s="123"/>
       <c r="F120" s="1" t="s">
         <v>115</v>
       </c>
@@ -16721,7 +17469,7 @@
         <v>312</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="122"/>
+      <c r="I120" s="125"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6">
@@ -16736,7 +17484,7 @@
       <c r="D121" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="E121" s="120"/>
+      <c r="E121" s="123"/>
       <c r="F121" s="1" t="s">
         <v>117</v>
       </c>
@@ -16744,7 +17492,7 @@
         <v>313</v>
       </c>
       <c r="H121" s="4"/>
-      <c r="I121" s="122"/>
+      <c r="I121" s="125"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6">
@@ -16757,7 +17505,7 @@
         <v>300</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="120"/>
+      <c r="E122" s="123"/>
       <c r="F122" s="1" t="s">
         <v>119</v>
       </c>
@@ -16765,7 +17513,7 @@
         <v>314</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="122"/>
+      <c r="I122" s="125"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6">
@@ -16778,7 +17526,7 @@
         <v>301</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="120"/>
+      <c r="E123" s="123"/>
       <c r="F123" s="1" t="s">
         <v>121</v>
       </c>
@@ -16786,7 +17534,7 @@
         <v>315</v>
       </c>
       <c r="H123" s="4"/>
-      <c r="I123" s="122"/>
+      <c r="I123" s="125"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6">
@@ -16799,7 +17547,7 @@
         <v>302</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="120"/>
+      <c r="E124" s="123"/>
       <c r="F124" s="1" t="s">
         <v>123</v>
       </c>
@@ -16807,7 +17555,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="122"/>
+      <c r="I124" s="125"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6">
@@ -16820,7 +17568,7 @@
         <v>303</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="120"/>
+      <c r="E125" s="123"/>
       <c r="F125" s="1" t="s">
         <v>125</v>
       </c>
@@ -16828,7 +17576,7 @@
         <v>317</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="I125" s="122"/>
+      <c r="I125" s="125"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6">
@@ -16841,7 +17589,7 @@
         <v>304</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="120"/>
+      <c r="E126" s="123"/>
       <c r="F126" s="1" t="s">
         <v>127</v>
       </c>
@@ -16849,7 +17597,7 @@
         <v>318</v>
       </c>
       <c r="H126" s="4"/>
-      <c r="I126" s="122"/>
+      <c r="I126" s="125"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6">
@@ -16862,7 +17610,7 @@
         <v>305</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="120"/>
+      <c r="E127" s="123"/>
       <c r="F127" s="1" t="s">
         <v>129</v>
       </c>
@@ -16870,7 +17618,7 @@
         <v>319</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="122"/>
+      <c r="I127" s="125"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6">
@@ -16883,7 +17631,7 @@
         <v>321</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="121"/>
+      <c r="E128" s="124"/>
       <c r="F128" s="1" t="s">
         <v>323</v>
       </c>
@@ -16891,7 +17639,7 @@
         <v>325</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="122"/>
+      <c r="I128" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17300,12 +18048,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="133" t="s">
         <v>1275</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -17319,10 +18067,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="135" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="132"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="29" t="s">
         <v>1274</v>
       </c>
@@ -17336,20 +18084,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="136" t="s">
         <v>1272</v>
       </c>
-      <c r="K3" s="132"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="135" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="132"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="32" t="s">
         <v>1271</v>
       </c>
@@ -17361,18 +18109,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="132" t="s">
+      <c r="J4" s="136" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="132"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="137" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="134"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -17382,10 +18130,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="132" t="s">
+      <c r="J5" s="136" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="132"/>
+      <c r="K5" s="136"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -17411,14 +18159,14 @@
       <c r="B7" s="43" t="s">
         <v>1268</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="130" t="s">
         <v>1267</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="130" t="s">
         <v>1266</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="106" t="s">
         <v>1265</v>
       </c>
@@ -17434,17 +18182,17 @@
       <c r="K7" s="44" t="s">
         <v>1261</v>
       </c>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="131" t="s">
         <v>1260</v>
       </c>
-      <c r="M7" s="124"/>
+      <c r="M7" s="131"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="132" t="s">
         <v>1259</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -17478,7 +18226,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="125"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="46" t="s">
         <v>1254</v>
       </c>
@@ -17508,7 +18256,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="125"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="52" t="s">
         <v>1250</v>
       </c>
@@ -17538,7 +18286,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="125"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="52" t="s">
         <v>1247</v>
       </c>
@@ -17568,7 +18316,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="125"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="52" t="s">
         <v>1247</v>
       </c>
@@ -17597,7 +18345,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="125"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -17626,7 +18374,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="125"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -17653,7 +18401,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="125"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -17680,7 +18428,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="125"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -17707,7 +18455,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="125"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -17736,7 +18484,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="125"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -17763,7 +18511,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="125"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -17788,7 +18536,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="125"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -17815,7 +18563,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="125"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -17842,7 +18590,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="125"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -17871,7 +18619,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="125"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -17900,7 +18648,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -17929,7 +18677,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="125"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -17958,7 +18706,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="125"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="54" t="s">
         <v>1242</v>
       </c>
@@ -17983,7 +18731,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="125"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="54" t="s">
         <v>1241</v>
       </c>
@@ -18008,7 +18756,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="125"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="79" t="s">
         <v>1240</v>
       </c>
@@ -18035,7 +18783,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="125"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="54" t="s">
         <v>1237</v>
       </c>
@@ -18064,7 +18812,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="125"/>
+      <c r="C30" s="132"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -18091,7 +18839,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="125"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -18120,7 +18868,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="125"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -18145,7 +18893,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="125"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -18174,7 +18922,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="127" t="s">
         <v>1235</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -18205,7 +18953,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="126"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -18234,7 +18982,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="126"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -18263,7 +19011,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="126"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -18292,7 +19040,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="126"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -18321,7 +19069,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="126"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -18350,7 +19098,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="126"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -18379,7 +19127,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="126"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -18408,7 +19156,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="126"/>
+      <c r="C42" s="127"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -18437,7 +19185,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="126"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -18466,7 +19214,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="126"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -18497,7 +19245,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="126"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -18526,7 +19274,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="127" t="s">
+      <c r="C46" s="128" t="s">
         <v>1233</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -18555,7 +19303,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="128"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -18582,7 +19330,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="128"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -18611,7 +19359,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="128"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -18640,7 +19388,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="126" t="s">
+      <c r="C50" s="127" t="s">
         <v>1231</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -18669,7 +19417,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="126"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -18694,7 +19442,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="126"/>
+      <c r="C52" s="127"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -18721,7 +19469,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="126"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -18748,7 +19496,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="126"/>
+      <c r="C54" s="127"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -18775,7 +19523,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="126"/>
+      <c r="C55" s="127"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -18798,7 +19546,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="126"/>
+      <c r="C56" s="127"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -18821,7 +19569,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="126"/>
+      <c r="C57" s="127"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -18848,7 +19596,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="126"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -18871,7 +19619,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="126"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -18898,7 +19646,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="126"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -18923,7 +19671,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="126"/>
+      <c r="C61" s="127"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -18948,7 +19696,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="126"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="53" t="s">
         <v>1230</v>
       </c>
@@ -18979,7 +19727,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="126"/>
+      <c r="C63" s="127"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -19006,7 +19754,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="126"/>
+      <c r="C64" s="127"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -19033,7 +19781,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="126"/>
+      <c r="C65" s="127"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -19060,7 +19808,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="126"/>
+      <c r="C66" s="127"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -19087,7 +19835,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="126"/>
+      <c r="C67" s="127"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -19114,7 +19862,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="126"/>
+      <c r="C68" s="127"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -19141,7 +19889,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="126"/>
+      <c r="C69" s="127"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -19168,7 +19916,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="126"/>
+      <c r="C70" s="127"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -19197,7 +19945,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="126"/>
+      <c r="C71" s="127"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -19228,7 +19976,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="126"/>
+      <c r="C72" s="127"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -19253,7 +20001,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="126"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -19280,7 +20028,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="126"/>
+      <c r="C74" s="127"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -19307,7 +20055,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="126"/>
+      <c r="C75" s="127"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -19334,7 +20082,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="126"/>
+      <c r="C76" s="127"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -19361,7 +20109,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="126"/>
+      <c r="C77" s="127"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -19390,7 +20138,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="126"/>
+      <c r="C78" s="127"/>
       <c r="D78" s="82" t="s">
         <v>1222</v>
       </c>
@@ -19417,7 +20165,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="126"/>
+      <c r="C79" s="127"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -19444,7 +20192,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="126"/>
+      <c r="C80" s="127"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -19473,7 +20221,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="126"/>
+      <c r="C81" s="127"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -19502,7 +20250,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="126"/>
+      <c r="C82" s="127"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -19531,7 +20279,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="126"/>
+      <c r="C83" s="127"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -19560,7 +20308,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="126"/>
+      <c r="C84" s="127"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -19589,7 +20337,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="126"/>
+      <c r="C85" s="127"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -19618,7 +20366,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="126"/>
+      <c r="C86" s="127"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -19647,7 +20395,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="126"/>
+      <c r="C87" s="127"/>
       <c r="D87" s="53" t="s">
         <v>1220</v>
       </c>
@@ -19678,7 +20426,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="126"/>
+      <c r="C88" s="127"/>
       <c r="D88" s="53" t="s">
         <v>1218</v>
       </c>
@@ -19709,7 +20457,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="126"/>
+      <c r="C89" s="127"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -19740,7 +20488,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="126"/>
+      <c r="C90" s="127"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -19771,7 +20519,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="126"/>
+      <c r="C91" s="127"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -19800,7 +20548,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="127" t="s">
+      <c r="C92" s="128" t="s">
         <v>1212</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -19827,7 +20575,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="128"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -19852,7 +20600,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="128"/>
+      <c r="C94" s="129"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -19877,7 +20625,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="128"/>
+      <c r="C95" s="129"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -19902,7 +20650,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="128"/>
+      <c r="C96" s="129"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -19929,7 +20677,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="128"/>
+      <c r="C97" s="129"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -19956,7 +20704,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="126" t="s">
+      <c r="C98" s="127" t="s">
         <v>1210</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -19983,7 +20731,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="126"/>
+      <c r="C99" s="127"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -20008,7 +20756,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="126"/>
+      <c r="C100" s="127"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -20033,7 +20781,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="126"/>
+      <c r="C101" s="127"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -20062,7 +20810,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="126"/>
+      <c r="C102" s="127"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -20085,7 +20833,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="126"/>
+      <c r="C103" s="127"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -20108,7 +20856,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="126"/>
+      <c r="C104" s="127"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -20129,7 +20877,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="126"/>
+      <c r="C105" s="127"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -20150,7 +20898,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="126"/>
+      <c r="C106" s="127"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -20171,7 +20919,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="126"/>
+      <c r="C107" s="127"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -20192,7 +20940,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="126"/>
+      <c r="C108" s="127"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -20213,7 +20961,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="126"/>
+      <c r="C109" s="127"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -20234,7 +20982,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="126"/>
+      <c r="C110" s="127"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -20255,7 +21003,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="126"/>
+      <c r="C111" s="127"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -20276,7 +21024,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="126"/>
+      <c r="C112" s="127"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -20297,7 +21045,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="126"/>
+      <c r="C113" s="127"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -20318,7 +21066,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="126"/>
+      <c r="C114" s="127"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -20339,7 +21087,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="126"/>
+      <c r="C115" s="127"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -20360,7 +21108,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="126"/>
+      <c r="C116" s="127"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -20381,7 +21129,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="126"/>
+      <c r="C117" s="127"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -20402,7 +21150,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="126"/>
+      <c r="C118" s="127"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -20423,7 +21171,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="126"/>
+      <c r="C119" s="127"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -20448,11 +21196,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -20464,6 +21207,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -20507,7 +21255,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>607</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -20518,7 +21266,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="122"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="1" t="s">
         <v>605</v>
       </c>
@@ -20527,7 +21275,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="122"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="1" t="s">
         <v>606</v>
       </c>
@@ -20536,7 +21284,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="125" t="s">
         <v>606</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -20547,7 +21295,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="122"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="1" t="s">
         <v>608</v>
       </c>
@@ -20556,7 +21304,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="122"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="1" t="s">
         <v>609</v>
       </c>
@@ -20565,7 +21313,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="122"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="1" t="s">
         <v>610</v>
       </c>
@@ -20574,7 +21322,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="125" t="s">
         <v>611</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -20585,7 +21333,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="122"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="1" t="s">
         <v>613</v>
       </c>
@@ -20643,7 +21391,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="119">
+      <c r="A3" s="122">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -20658,7 +21406,7 @@
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="120"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -20673,7 +21421,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="120"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -20688,7 +21436,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="120"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -20703,7 +21451,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="120"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -20718,7 +21466,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="120"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -20733,7 +21481,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="120"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -20748,7 +21496,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="120"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -20759,7 +21507,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="120"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -20770,7 +21518,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="121"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -20805,7 +21553,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="119">
+      <c r="A15" s="122">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -20820,7 +21568,7 @@
       <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="120"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -20835,7 +21583,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="120"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -20850,7 +21598,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="120"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -20865,7 +21613,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="120"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -20880,7 +21628,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="120"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -20895,7 +21643,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="120"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -20910,7 +21658,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="120"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -20921,7 +21669,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="120"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -20932,7 +21680,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="121"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -20967,7 +21715,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="119">
+      <c r="A27" s="122">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -20982,7 +21730,7 @@
       <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="120"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -20997,7 +21745,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="120"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -21012,7 +21760,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="120"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -21027,7 +21775,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="120"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -21042,7 +21790,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="120"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -21057,7 +21805,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="120"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -21072,7 +21820,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="120"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -21087,7 +21835,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="120"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -21098,7 +21846,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="121"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -21133,7 +21881,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="119">
+      <c r="A39" s="122">
         <v>4</v>
       </c>
       <c r="B39" s="1">
@@ -21148,7 +21896,7 @@
       <c r="E39" s="66"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="120"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -21163,7 +21911,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="120"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -21178,7 +21926,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="120"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="1">
         <v>4</v>
       </c>
@@ -21193,7 +21941,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="120"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="1">
         <v>5</v>
       </c>
@@ -21208,7 +21956,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="120"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="1">
         <v>6</v>
       </c>
@@ -21223,7 +21971,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="120"/>
+      <c r="A45" s="123"/>
       <c r="B45" s="1">
         <v>7</v>
       </c>
@@ -21234,7 +21982,7 @@
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="120"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -21245,7 +21993,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="120"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -21256,7 +22004,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="121"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="1">
         <v>10</v>
       </c>
@@ -21291,7 +22039,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="119">
+      <c r="A51" s="122">
         <v>5</v>
       </c>
       <c r="B51" s="1">
@@ -21306,7 +22054,7 @@
       <c r="E51" s="66"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="120"/>
+      <c r="A52" s="123"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -21321,7 +22069,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="120"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -21336,7 +22084,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="120"/>
+      <c r="A54" s="123"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -21351,7 +22099,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="120"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -21366,7 +22114,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="120"/>
+      <c r="A56" s="123"/>
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -21381,7 +22129,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="120"/>
+      <c r="A57" s="123"/>
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -21396,7 +22144,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="120"/>
+      <c r="A58" s="123"/>
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -21411,7 +22159,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="120"/>
+      <c r="A59" s="123"/>
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -21426,7 +22174,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="121"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -21461,7 +22209,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="119">
+      <c r="A63" s="122">
         <v>6</v>
       </c>
       <c r="B63" s="1">
@@ -21476,7 +22224,7 @@
       <c r="E63" s="66"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="120"/>
+      <c r="A64" s="123"/>
       <c r="B64" s="1">
         <v>2</v>
       </c>
@@ -21491,7 +22239,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="120"/>
+      <c r="A65" s="123"/>
       <c r="B65" s="1">
         <v>3</v>
       </c>
@@ -21506,7 +22254,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="120"/>
+      <c r="A66" s="123"/>
       <c r="B66" s="1">
         <v>4</v>
       </c>
@@ -21521,7 +22269,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="120"/>
+      <c r="A67" s="123"/>
       <c r="B67" s="1">
         <v>5</v>
       </c>
@@ -21536,7 +22284,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="120"/>
+      <c r="A68" s="123"/>
       <c r="B68" s="1">
         <v>6</v>
       </c>
@@ -21551,7 +22299,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="120"/>
+      <c r="A69" s="123"/>
       <c r="B69" s="1">
         <v>7</v>
       </c>
@@ -21566,7 +22314,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="120"/>
+      <c r="A70" s="123"/>
       <c r="B70" s="1">
         <v>8</v>
       </c>
@@ -21581,7 +22329,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="120"/>
+      <c r="A71" s="123"/>
       <c r="B71" s="1">
         <v>9</v>
       </c>
@@ -21596,7 +22344,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="121"/>
+      <c r="A72" s="124"/>
       <c r="B72" s="1">
         <v>10</v>
       </c>
@@ -21631,7 +22379,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="119">
+      <c r="A75" s="122">
         <v>7</v>
       </c>
       <c r="B75" s="1">
@@ -21646,7 +22394,7 @@
       <c r="E75" s="66"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="120"/>
+      <c r="A76" s="123"/>
       <c r="B76" s="1">
         <v>2</v>
       </c>
@@ -21661,7 +22409,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="120"/>
+      <c r="A77" s="123"/>
       <c r="B77" s="1">
         <v>3</v>
       </c>
@@ -21676,7 +22424,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="120"/>
+      <c r="A78" s="123"/>
       <c r="B78" s="1">
         <v>4</v>
       </c>
@@ -21691,7 +22439,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="120"/>
+      <c r="A79" s="123"/>
       <c r="B79" s="1">
         <v>5</v>
       </c>
@@ -21706,7 +22454,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="120"/>
+      <c r="A80" s="123"/>
       <c r="B80" s="1">
         <v>6</v>
       </c>
@@ -21721,7 +22469,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="120"/>
+      <c r="A81" s="123"/>
       <c r="B81" s="1">
         <v>7</v>
       </c>
@@ -21736,7 +22484,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="120"/>
+      <c r="A82" s="123"/>
       <c r="B82" s="1">
         <v>8</v>
       </c>
@@ -21751,7 +22499,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="120"/>
+      <c r="A83" s="123"/>
       <c r="B83" s="1">
         <v>9</v>
       </c>
@@ -21766,7 +22514,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="121"/>
+      <c r="A84" s="124"/>
       <c r="B84" s="1">
         <v>10</v>
       </c>
@@ -21801,7 +22549,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="119">
+      <c r="A87" s="122">
         <v>8</v>
       </c>
       <c r="B87" s="1">
@@ -21816,7 +22564,7 @@
       <c r="E87" s="66"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="120"/>
+      <c r="A88" s="123"/>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -21831,7 +22579,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="120"/>
+      <c r="A89" s="123"/>
       <c r="B89" s="1">
         <v>3</v>
       </c>
@@ -21846,7 +22594,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="120"/>
+      <c r="A90" s="123"/>
       <c r="B90" s="1">
         <v>4</v>
       </c>
@@ -21861,7 +22609,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="120"/>
+      <c r="A91" s="123"/>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -21876,7 +22624,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="120"/>
+      <c r="A92" s="123"/>
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -21891,7 +22639,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="120"/>
+      <c r="A93" s="123"/>
       <c r="B93" s="1">
         <v>7</v>
       </c>
@@ -21906,7 +22654,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="120"/>
+      <c r="A94" s="123"/>
       <c r="B94" s="1">
         <v>8</v>
       </c>
@@ -21917,7 +22665,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="120"/>
+      <c r="A95" s="123"/>
       <c r="B95" s="1">
         <v>9</v>
       </c>
@@ -21928,7 +22676,7 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="121"/>
+      <c r="A96" s="124"/>
       <c r="B96" s="1">
         <v>10</v>
       </c>
@@ -21963,7 +22711,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="119">
+      <c r="A99" s="122">
         <v>9</v>
       </c>
       <c r="B99" s="1">
@@ -21978,7 +22726,7 @@
       <c r="E99" s="66"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="120"/>
+      <c r="A100" s="123"/>
       <c r="B100" s="1">
         <v>2</v>
       </c>
@@ -21993,7 +22741,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="120"/>
+      <c r="A101" s="123"/>
       <c r="B101" s="1">
         <v>3</v>
       </c>
@@ -22008,7 +22756,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="120"/>
+      <c r="A102" s="123"/>
       <c r="B102" s="1">
         <v>4</v>
       </c>
@@ -22023,7 +22771,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="120"/>
+      <c r="A103" s="123"/>
       <c r="B103" s="1">
         <v>5</v>
       </c>
@@ -22038,7 +22786,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="120"/>
+      <c r="A104" s="123"/>
       <c r="B104" s="1">
         <v>6</v>
       </c>
@@ -22053,7 +22801,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="120"/>
+      <c r="A105" s="123"/>
       <c r="B105" s="1">
         <v>7</v>
       </c>
@@ -22068,7 +22816,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="120"/>
+      <c r="A106" s="123"/>
       <c r="B106" s="1">
         <v>8</v>
       </c>
@@ -22079,7 +22827,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="120"/>
+      <c r="A107" s="123"/>
       <c r="B107" s="1">
         <v>9</v>
       </c>
@@ -22090,7 +22838,7 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="121"/>
+      <c r="A108" s="124"/>
       <c r="B108" s="1">
         <v>10</v>
       </c>
@@ -22125,7 +22873,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="119">
+      <c r="A111" s="122">
         <v>10</v>
       </c>
       <c r="B111" s="1">
@@ -22140,7 +22888,7 @@
       <c r="E111" s="66"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="120"/>
+      <c r="A112" s="123"/>
       <c r="B112" s="1">
         <v>2</v>
       </c>
@@ -22155,7 +22903,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="120"/>
+      <c r="A113" s="123"/>
       <c r="B113" s="1">
         <v>3</v>
       </c>
@@ -22170,7 +22918,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="120"/>
+      <c r="A114" s="123"/>
       <c r="B114" s="1">
         <v>4</v>
       </c>
@@ -22185,7 +22933,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="120"/>
+      <c r="A115" s="123"/>
       <c r="B115" s="1">
         <v>5</v>
       </c>
@@ -22200,7 +22948,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="120"/>
+      <c r="A116" s="123"/>
       <c r="B116" s="1">
         <v>6</v>
       </c>
@@ -22215,7 +22963,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="120"/>
+      <c r="A117" s="123"/>
       <c r="B117" s="1">
         <v>7</v>
       </c>
@@ -22230,7 +22978,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="120"/>
+      <c r="A118" s="123"/>
       <c r="B118" s="1">
         <v>8</v>
       </c>
@@ -22245,7 +22993,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="120"/>
+      <c r="A119" s="123"/>
       <c r="B119" s="1">
         <v>9</v>
       </c>
@@ -22256,7 +23004,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="121"/>
+      <c r="A120" s="124"/>
       <c r="B120" s="1">
         <v>10</v>
       </c>
@@ -22291,7 +23039,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="119">
+      <c r="A123" s="122">
         <v>11</v>
       </c>
       <c r="B123" s="1">
@@ -22306,7 +23054,7 @@
       <c r="E123" s="66"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="120"/>
+      <c r="A124" s="123"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -22321,7 +23069,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="120"/>
+      <c r="A125" s="123"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -22336,7 +23084,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="120"/>
+      <c r="A126" s="123"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -22351,7 +23099,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="120"/>
+      <c r="A127" s="123"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -22366,7 +23114,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="120"/>
+      <c r="A128" s="123"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -22381,7 +23129,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="120"/>
+      <c r="A129" s="123"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -22396,7 +23144,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="120"/>
+      <c r="A130" s="123"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -22407,7 +23155,7 @@
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="120"/>
+      <c r="A131" s="123"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -22418,7 +23166,7 @@
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="121"/>
+      <c r="A132" s="124"/>
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -22453,7 +23201,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="119">
+      <c r="A135" s="122">
         <v>12</v>
       </c>
       <c r="B135" s="1">
@@ -22468,7 +23216,7 @@
       <c r="E135" s="66"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="120"/>
+      <c r="A136" s="123"/>
       <c r="B136" s="1">
         <v>2</v>
       </c>
@@ -22483,7 +23231,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="120"/>
+      <c r="A137" s="123"/>
       <c r="B137" s="1">
         <v>3</v>
       </c>
@@ -22498,7 +23246,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="120"/>
+      <c r="A138" s="123"/>
       <c r="B138" s="1">
         <v>4</v>
       </c>
@@ -22513,7 +23261,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="120"/>
+      <c r="A139" s="123"/>
       <c r="B139" s="1">
         <v>5</v>
       </c>
@@ -22528,7 +23276,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="120"/>
+      <c r="A140" s="123"/>
       <c r="B140" s="1">
         <v>6</v>
       </c>
@@ -22543,7 +23291,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="120"/>
+      <c r="A141" s="123"/>
       <c r="B141" s="1">
         <v>7</v>
       </c>
@@ -22558,7 +23306,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="120"/>
+      <c r="A142" s="123"/>
       <c r="B142" s="1">
         <v>8</v>
       </c>
@@ -22569,7 +23317,7 @@
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="120"/>
+      <c r="A143" s="123"/>
       <c r="B143" s="1">
         <v>9</v>
       </c>
@@ -22580,7 +23328,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="121"/>
+      <c r="A144" s="124"/>
       <c r="B144" s="1">
         <v>10</v>
       </c>
@@ -22615,7 +23363,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="122">
+      <c r="A147" s="125">
         <v>13</v>
       </c>
       <c r="B147" s="1">
@@ -22628,7 +23376,7 @@
       <c r="E147" s="66"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="122"/>
+      <c r="A148" s="125"/>
       <c r="B148" s="1">
         <v>2</v>
       </c>
@@ -22641,7 +23389,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="122"/>
+      <c r="A149" s="125"/>
       <c r="B149" s="1">
         <v>3</v>
       </c>
@@ -22654,7 +23402,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="122"/>
+      <c r="A150" s="125"/>
       <c r="B150" s="1">
         <v>4</v>
       </c>
@@ -22667,7 +23415,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="122"/>
+      <c r="A151" s="125"/>
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -22680,7 +23428,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="122"/>
+      <c r="A152" s="125"/>
       <c r="B152" s="1">
         <v>6</v>
       </c>
@@ -22706,7 +23454,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="122">
+      <c r="A155" s="125">
         <v>14</v>
       </c>
       <c r="B155" s="1">
@@ -22719,7 +23467,7 @@
       <c r="E155" s="66"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="122"/>
+      <c r="A156" s="125"/>
       <c r="B156" s="1">
         <v>2</v>
       </c>
@@ -22732,7 +23480,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="122"/>
+      <c r="A157" s="125"/>
       <c r="B157" s="1">
         <v>3</v>
       </c>
@@ -22745,7 +23493,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="122"/>
+      <c r="A158" s="125"/>
       <c r="B158" s="1">
         <v>4</v>
       </c>
@@ -22758,7 +23506,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="122"/>
+      <c r="A159" s="125"/>
       <c r="B159" s="1">
         <v>5</v>
       </c>
@@ -22771,7 +23519,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="122"/>
+      <c r="A160" s="125"/>
       <c r="B160" s="1">
         <v>6</v>
       </c>
@@ -22797,7 +23545,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="122">
+      <c r="A163" s="125">
         <v>15</v>
       </c>
       <c r="B163" s="1">
@@ -22810,7 +23558,7 @@
       <c r="E163" s="66"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="122"/>
+      <c r="A164" s="125"/>
       <c r="B164" s="1">
         <v>2</v>
       </c>
@@ -22823,7 +23571,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="122"/>
+      <c r="A165" s="125"/>
       <c r="B165" s="1">
         <v>3</v>
       </c>
@@ -22836,7 +23584,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="122"/>
+      <c r="A166" s="125"/>
       <c r="B166" s="1">
         <v>4</v>
       </c>
@@ -22849,7 +23597,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="122"/>
+      <c r="A167" s="125"/>
       <c r="B167" s="1">
         <v>5</v>
       </c>
@@ -22862,7 +23610,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="122"/>
+      <c r="A168" s="125"/>
       <c r="B168" s="1">
         <v>6</v>
       </c>
@@ -22888,7 +23636,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="122">
+      <c r="A171" s="125">
         <v>16</v>
       </c>
       <c r="B171" s="1">
@@ -22901,7 +23649,7 @@
       <c r="E171" s="66"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="122"/>
+      <c r="A172" s="125"/>
       <c r="B172" s="1">
         <v>2</v>
       </c>
@@ -22914,7 +23662,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="122"/>
+      <c r="A173" s="125"/>
       <c r="B173" s="1">
         <v>3</v>
       </c>
@@ -22927,7 +23675,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="122"/>
+      <c r="A174" s="125"/>
       <c r="B174" s="1">
         <v>4</v>
       </c>
@@ -22940,7 +23688,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="122"/>
+      <c r="A175" s="125"/>
       <c r="B175" s="1">
         <v>5</v>
       </c>
@@ -22953,7 +23701,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="122"/>
+      <c r="A176" s="125"/>
       <c r="B176" s="1">
         <v>6</v>
       </c>
@@ -22979,7 +23727,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="119">
+      <c r="A179" s="122">
         <v>17</v>
       </c>
       <c r="B179" s="1">
@@ -22994,7 +23742,7 @@
       <c r="E179" s="66"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="120"/>
+      <c r="A180" s="123"/>
       <c r="B180" s="1">
         <v>2</v>
       </c>
@@ -23009,7 +23757,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="120"/>
+      <c r="A181" s="123"/>
       <c r="B181" s="1">
         <v>3</v>
       </c>
@@ -23024,7 +23772,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="120"/>
+      <c r="A182" s="123"/>
       <c r="B182" s="1">
         <v>4</v>
       </c>
@@ -23039,7 +23787,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="120"/>
+      <c r="A183" s="123"/>
       <c r="B183" s="1">
         <v>5</v>
       </c>
@@ -23054,7 +23802,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="120"/>
+      <c r="A184" s="123"/>
       <c r="B184" s="1">
         <v>6</v>
       </c>
@@ -23069,7 +23817,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="120"/>
+      <c r="A185" s="123"/>
       <c r="B185" s="1">
         <v>7</v>
       </c>
@@ -23084,7 +23832,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="120"/>
+      <c r="A186" s="123"/>
       <c r="B186" s="1">
         <v>8</v>
       </c>
@@ -23099,7 +23847,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="120"/>
+      <c r="A187" s="123"/>
       <c r="B187" s="1">
         <v>9</v>
       </c>
@@ -23114,7 +23862,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="121"/>
+      <c r="A188" s="124"/>
       <c r="B188" s="1">
         <v>10</v>
       </c>
@@ -23128,6 +23876,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
     <mergeCell ref="A163:A168"/>
     <mergeCell ref="A179:A188"/>
     <mergeCell ref="A99:A108"/>
@@ -23143,8 +23893,6 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23232,13 +23980,13 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>744</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="139" t="s">
         <v>724</v>
       </c>
       <c r="D2" s="68">
@@ -23250,13 +23998,13 @@
       <c r="F2" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="140" t="s">
         <v>825</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="139" t="s">
         <v>826</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="139" t="s">
         <v>860</v>
       </c>
       <c r="K2" s="68">
@@ -23268,13 +24016,13 @@
       <c r="M2" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="O2" s="137" t="s">
+      <c r="O2" s="140" t="s">
         <v>859</v>
       </c>
-      <c r="P2" s="136" t="s">
+      <c r="P2" s="139" t="s">
         <v>826</v>
       </c>
-      <c r="Q2" s="136" t="s">
+      <c r="Q2" s="139" t="s">
         <v>861</v>
       </c>
       <c r="R2" s="68">
@@ -23288,9 +24036,9 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="137"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="136"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="139"/>
       <c r="D3" s="68">
         <v>2</v>
       </c>
@@ -23300,9 +24048,9 @@
       <c r="F3" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="136"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="139"/>
       <c r="K3" s="68">
         <v>2</v>
       </c>
@@ -23312,9 +24060,9 @@
       <c r="M3" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="O3" s="137"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="136"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="139"/>
       <c r="R3" s="68">
         <v>2</v>
       </c>
@@ -23326,9 +24074,9 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="137"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="136"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="68">
         <v>3</v>
       </c>
@@ -23338,9 +24086,9 @@
       <c r="F4" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H4" s="137"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="136"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="139"/>
       <c r="K4" s="68">
         <v>3</v>
       </c>
@@ -23350,9 +24098,9 @@
       <c r="M4" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="O4" s="137"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="136"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="139"/>
       <c r="R4" s="68">
         <v>3</v>
       </c>
@@ -23364,9 +24112,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="137"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="136"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="68">
         <v>4</v>
       </c>
@@ -23376,17 +24124,17 @@
       <c r="F5" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H5" s="137"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="136"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="139"/>
       <c r="K5" s="68">
         <v>4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="136"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="139"/>
       <c r="R5" s="68">
         <v>4</v>
       </c>
@@ -23394,25 +24142,25 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="137"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="136"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="68">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="136"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="139"/>
       <c r="K6" s="68">
         <v>5</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="136"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="139"/>
       <c r="R6" s="68">
         <v>5</v>
       </c>
@@ -23420,25 +24168,25 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="137"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="136"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="68">
         <v>6</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="136"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="68">
         <v>6</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="136"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="139"/>
       <c r="R7" s="68">
         <v>6</v>
       </c>
@@ -23446,9 +24194,9 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="137"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="136"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="68">
         <v>7</v>
       </c>
@@ -23458,9 +24206,9 @@
       <c r="F8" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="136"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="139"/>
       <c r="K8" s="68">
         <v>7</v>
       </c>
@@ -23470,9 +24218,9 @@
       <c r="M8" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="O8" s="137"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="136"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="139"/>
       <c r="R8" s="68">
         <v>7</v>
       </c>
@@ -23484,9 +24232,9 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="137"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="136"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="68">
         <v>8</v>
       </c>
@@ -23496,9 +24244,9 @@
       <c r="F9" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="136"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="139"/>
       <c r="K9" s="68">
         <v>8</v>
       </c>
@@ -23508,9 +24256,9 @@
       <c r="M9" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="O9" s="137"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="136"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="139"/>
       <c r="R9" s="68">
         <v>8</v>
       </c>
@@ -23522,9 +24270,9 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="137"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="136"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="68">
         <v>9</v>
       </c>
@@ -23534,17 +24282,17 @@
       <c r="F10" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H10" s="137"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="136"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="139"/>
       <c r="K10" s="68">
         <v>9</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="136"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="139"/>
       <c r="R10" s="68">
         <v>9</v>
       </c>
@@ -23552,9 +24300,9 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="137"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="136"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="68">
         <v>10</v>
       </c>
@@ -23564,17 +24312,17 @@
       <c r="F11" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="136"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="139"/>
       <c r="K11" s="68">
         <v>10</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="136"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="139"/>
       <c r="R11" s="68">
         <v>10</v>
       </c>
@@ -23582,9 +24330,9 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="137"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="136"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="68">
         <v>11</v>
       </c>
@@ -23594,17 +24342,17 @@
       <c r="F12" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H12" s="137"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="136"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="139"/>
       <c r="K12" s="68">
         <v>11</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="136"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="139"/>
       <c r="R12" s="68">
         <v>11</v>
       </c>
@@ -23612,9 +24360,9 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="137"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="136"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="68">
         <v>12</v>
       </c>
@@ -23624,17 +24372,17 @@
       <c r="F13" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="136"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="139"/>
       <c r="K13" s="68">
         <v>12</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="136"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="139"/>
       <c r="R13" s="68">
         <v>12</v>
       </c>
@@ -23642,17 +24390,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="137"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="136"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="68">
         <v>13</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="136"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="139"/>
       <c r="K14" s="68">
         <v>13</v>
       </c>
@@ -23662,9 +24410,9 @@
       <c r="M14" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="O14" s="137"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="136"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="139"/>
       <c r="R14" s="68">
         <v>13</v>
       </c>
@@ -23676,9 +24424,9 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="137"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="136"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="139"/>
       <c r="D15" s="68">
         <v>14</v>
       </c>
@@ -23688,9 +24436,9 @@
       <c r="F15" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="136"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="139"/>
       <c r="K15" s="68">
         <v>14</v>
       </c>
@@ -23700,9 +24448,9 @@
       <c r="M15" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="O15" s="137"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="136"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="139"/>
       <c r="R15" s="68">
         <v>14</v>
       </c>
@@ -23714,9 +24462,9 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="137"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="136"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="68">
         <v>15</v>
       </c>
@@ -23726,9 +24474,9 @@
       <c r="F16" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="136"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="139"/>
       <c r="K16" s="68">
         <v>15</v>
       </c>
@@ -23738,9 +24486,9 @@
       <c r="M16" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="O16" s="137"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="136"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="139"/>
       <c r="R16" s="68">
         <v>15</v>
       </c>
@@ -23752,9 +24500,9 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="137"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="136"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="68">
         <v>16</v>
       </c>
@@ -23764,9 +24512,9 @@
       <c r="F17" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="H17" s="137"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="136"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="139"/>
       <c r="K17" s="68">
         <v>16</v>
       </c>
@@ -23776,9 +24524,9 @@
       <c r="M17" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="O17" s="137"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="136"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="139"/>
       <c r="R17" s="68">
         <v>16</v>
       </c>
@@ -23790,9 +24538,9 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="137"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="136"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="68">
         <v>17</v>
       </c>
@@ -23802,9 +24550,9 @@
       <c r="F18" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H18" s="137"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="136"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="139"/>
       <c r="K18" s="68">
         <v>17</v>
       </c>
@@ -23814,9 +24562,9 @@
       <c r="M18" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="O18" s="137"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="136"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="139"/>
       <c r="R18" s="68">
         <v>17</v>
       </c>
@@ -23828,9 +24576,9 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="137"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="136"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="68">
         <v>18</v>
       </c>
@@ -23840,9 +24588,9 @@
       <c r="F19" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H19" s="137"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="136"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="139"/>
       <c r="K19" s="68">
         <v>18</v>
       </c>
@@ -23852,9 +24600,9 @@
       <c r="M19" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="O19" s="137"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="136"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="139"/>
       <c r="R19" s="68">
         <v>18</v>
       </c>
@@ -23866,9 +24614,9 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="137"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="136"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="139"/>
       <c r="D20" s="68">
         <v>19</v>
       </c>
@@ -23878,9 +24626,9 @@
       <c r="F20" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H20" s="137"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="136"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="139"/>
       <c r="K20" s="68">
         <v>19</v>
       </c>
@@ -23890,9 +24638,9 @@
       <c r="M20" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="O20" s="137"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="136"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="139"/>
       <c r="R20" s="68">
         <v>19</v>
       </c>
@@ -23904,9 +24652,9 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="137"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="136"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="68">
         <v>20</v>
       </c>
@@ -23916,9 +24664,9 @@
       <c r="F21" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="H21" s="137"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="136"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="139"/>
       <c r="K21" s="68">
         <v>20</v>
       </c>
@@ -23928,9 +24676,9 @@
       <c r="M21" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="O21" s="137"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="136"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="139"/>
       <c r="R21" s="68">
         <v>20</v>
       </c>
@@ -23942,9 +24690,9 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="137"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="136"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="68">
         <v>21</v>
       </c>
@@ -23954,9 +24702,9 @@
       <c r="F22" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="H22" s="137"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="136"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="139"/>
       <c r="K22" s="68">
         <v>21</v>
       </c>
@@ -23966,9 +24714,9 @@
       <c r="M22" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="O22" s="137"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="136"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="139"/>
       <c r="R22" s="68">
         <v>21</v>
       </c>
@@ -23980,17 +24728,17 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="137"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="136"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="68">
         <v>22</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="136"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="139"/>
       <c r="K23" s="68">
         <v>22</v>
       </c>
@@ -24000,9 +24748,9 @@
       <c r="M23" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="O23" s="137"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="136"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="139"/>
       <c r="R23" s="68">
         <v>22</v>
       </c>
@@ -24014,25 +24762,25 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="137"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="136"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="139"/>
       <c r="D24" s="68">
         <v>23</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="136"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="139"/>
       <c r="K24" s="68">
         <v>23</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="136"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="139"/>
       <c r="R24" s="68">
         <v>23</v>
       </c>
@@ -24040,25 +24788,25 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="137"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="136"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="68">
         <v>24</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="136"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="139"/>
       <c r="K25" s="68">
         <v>24</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="136"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="139"/>
       <c r="R25" s="68">
         <v>24</v>
       </c>
@@ -24066,17 +24814,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="137"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="136"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="68">
         <v>25</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="136"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="139"/>
       <c r="K26" s="68">
         <v>25</v>
       </c>
@@ -24086,9 +24834,9 @@
       <c r="M26" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="O26" s="137"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="136"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="139"/>
       <c r="R26" s="68">
         <v>25</v>
       </c>
@@ -24118,13 +24866,13 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A29" s="137" t="s">
+      <c r="A29" s="140" t="s">
         <v>759</v>
       </c>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="139" t="s">
         <v>760</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="139" t="s">
         <v>762</v>
       </c>
       <c r="D29" s="68">
@@ -24138,9 +24886,9 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A30" s="137"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="68">
         <v>2</v>
       </c>
@@ -24152,9 +24900,9 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A31" s="137"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
       <c r="D31" s="68">
         <v>3</v>
       </c>
@@ -24166,9 +24914,9 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A32" s="137"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
       <c r="D32" s="68">
         <v>4</v>
       </c>
@@ -24180,9 +24928,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A33" s="137"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="68">
         <v>5</v>
       </c>
@@ -24194,9 +24942,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="137"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
       <c r="D34" s="68">
         <v>6</v>
       </c>
@@ -24208,9 +24956,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="137"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="136"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="139"/>
       <c r="D35" s="68">
         <v>7</v>
       </c>
@@ -24222,9 +24970,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="137"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
       <c r="D36" s="68">
         <v>8</v>
       </c>
@@ -24236,9 +24984,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="137"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="139"/>
       <c r="D37" s="68">
         <v>9</v>
       </c>
@@ -24250,9 +24998,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="137"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
       <c r="D38" s="68">
         <v>10</v>
       </c>
@@ -24264,9 +25012,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="137"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
       <c r="D39" s="68">
         <v>11</v>
       </c>
@@ -24278,9 +25026,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="137"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
       <c r="D40" s="68">
         <v>12</v>
       </c>
@@ -24292,9 +25040,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="137"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
       <c r="D41" s="68">
         <v>13</v>
       </c>
@@ -24306,9 +25054,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="137"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
       <c r="D42" s="68">
         <v>14</v>
       </c>
@@ -24320,9 +25068,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="137"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="68">
         <v>15</v>
       </c>
@@ -24334,9 +25082,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="137"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
       <c r="D44" s="68">
         <v>16</v>
       </c>
@@ -24344,9 +25092,9 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
       <c r="D45" s="68">
         <v>17</v>
       </c>
@@ -24358,9 +25106,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="137"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="139"/>
       <c r="D46" s="68">
         <v>18</v>
       </c>
@@ -24372,9 +25120,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="137"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="139"/>
       <c r="D47" s="68">
         <v>19</v>
       </c>
@@ -24386,9 +25134,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="137"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="139"/>
       <c r="D48" s="68">
         <v>20</v>
       </c>
@@ -24400,9 +25148,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="137"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="139"/>
       <c r="D49" s="68">
         <v>21</v>
       </c>
@@ -24414,9 +25162,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="137"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
       <c r="D50" s="68">
         <v>22</v>
       </c>
@@ -24428,9 +25176,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="137"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
+      <c r="A51" s="140"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="139"/>
       <c r="D51" s="68">
         <v>23</v>
       </c>
@@ -24442,9 +25190,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="137"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="139"/>
       <c r="D52" s="68">
         <v>24</v>
       </c>
@@ -24456,9 +25204,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="137"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
+      <c r="A53" s="140"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="139"/>
       <c r="D53" s="68">
         <v>25</v>
       </c>
@@ -24470,9 +25218,9 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="137"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
       <c r="D54" s="68">
         <v>26</v>
       </c>
@@ -24484,9 +25232,9 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="137"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="139"/>
       <c r="D55" s="68">
         <v>27</v>
       </c>
@@ -24498,9 +25246,9 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="137"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
+      <c r="A56" s="140"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
       <c r="D56" s="68">
         <v>28</v>
       </c>
@@ -24512,9 +25260,9 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="137"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="139"/>
       <c r="D57" s="68">
         <v>29</v>
       </c>
@@ -24526,9 +25274,9 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="137"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="139"/>
       <c r="D58" s="68">
         <v>30</v>
       </c>
@@ -24540,9 +25288,9 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="137"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
+      <c r="A59" s="140"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
       <c r="D59" s="68">
         <v>31</v>
       </c>
@@ -24554,9 +25302,9 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="137"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
+      <c r="A60" s="140"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="139"/>
       <c r="D60" s="68">
         <v>32</v>
       </c>
@@ -24564,9 +25312,9 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="137"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="139"/>
       <c r="D61" s="68">
         <v>33</v>
       </c>
@@ -24578,9 +25326,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="137"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="139"/>
       <c r="D62" s="68">
         <v>34</v>
       </c>
@@ -24592,9 +25340,9 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="137"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
+      <c r="A63" s="140"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="139"/>
       <c r="D63" s="68">
         <v>35</v>
       </c>
@@ -24606,9 +25354,9 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="137"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="136"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="139"/>
       <c r="D64" s="68">
         <v>36</v>
       </c>
@@ -24620,9 +25368,9 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="137"/>
-      <c r="B65" s="136"/>
-      <c r="C65" s="136"/>
+      <c r="A65" s="140"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="139"/>
       <c r="D65" s="68">
         <v>37</v>
       </c>
@@ -24634,9 +25382,9 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="137"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="139"/>
       <c r="D66" s="68">
         <v>38</v>
       </c>
@@ -24648,9 +25396,9 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="137"/>
-      <c r="B67" s="136"/>
-      <c r="C67" s="136"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="139"/>
       <c r="D67" s="68">
         <v>39</v>
       </c>
@@ -24662,9 +25410,9 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="137"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="136"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="139"/>
       <c r="D68" s="68">
         <v>40</v>
       </c>
@@ -24676,9 +25424,9 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="137"/>
-      <c r="B69" s="136"/>
-      <c r="C69" s="136"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="139"/>
       <c r="D69" s="68">
         <v>41</v>
       </c>
@@ -24690,9 +25438,9 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="137"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="136"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="139"/>
+      <c r="C70" s="139"/>
       <c r="D70" s="68">
         <v>42</v>
       </c>
@@ -24704,9 +25452,9 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="137"/>
-      <c r="B71" s="136"/>
-      <c r="C71" s="136"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="139"/>
       <c r="D71" s="68">
         <v>43</v>
       </c>
@@ -24718,9 +25466,9 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="137"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="136"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="139"/>
+      <c r="C72" s="139"/>
       <c r="D72" s="68">
         <v>44</v>
       </c>
@@ -24732,9 +25480,9 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="137"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="139"/>
       <c r="D73" s="68">
         <v>45</v>
       </c>
@@ -24746,9 +25494,9 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="137"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="139"/>
       <c r="D74" s="68">
         <v>46</v>
       </c>
@@ -24760,9 +25508,9 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="137"/>
-      <c r="B75" s="136"/>
-      <c r="C75" s="136"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="139"/>
       <c r="D75" s="68">
         <v>47</v>
       </c>
@@ -24774,9 +25522,9 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="137"/>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="139"/>
       <c r="D76" s="68">
         <v>48</v>
       </c>
@@ -24784,9 +25532,9 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="137"/>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
+      <c r="A77" s="140"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="139"/>
       <c r="D77" s="68">
         <v>49</v>
       </c>
@@ -24794,9 +25542,9 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="137"/>
-      <c r="B78" s="136"/>
-      <c r="C78" s="136"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="139"/>
       <c r="D78" s="68">
         <v>50</v>
       </c>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="1571">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5864,6 +5864,10 @@
   </si>
   <si>
     <t>旋转气缸SET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X758FlexOpened</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6987,6 +6991,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6994,15 +7004,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7022,6 +7023,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11204,7 +11208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -14777,10 +14781,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14920,6 +14924,11 @@
     <row r="75" spans="4:4">
       <c r="D75" t="s">
         <v>1510</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" t="s">
+        <v>1570</v>
       </c>
     </row>
   </sheetData>
@@ -18048,12 +18057,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="132" t="s">
         <v>1275</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -18067,10 +18076,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="134" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="136"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="29" t="s">
         <v>1274</v>
       </c>
@@ -18084,20 +18093,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="135" t="s">
         <v>1272</v>
       </c>
-      <c r="K3" s="136"/>
+      <c r="K3" s="135"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="134" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="136"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="32" t="s">
         <v>1271</v>
       </c>
@@ -18109,18 +18118,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="135" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="136"/>
+      <c r="K4" s="135"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="136" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="138"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -18130,10 +18139,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="136" t="s">
+      <c r="J5" s="135" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="136"/>
+      <c r="K5" s="135"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -18159,14 +18168,14 @@
       <c r="B7" s="43" t="s">
         <v>1268</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="138" t="s">
         <v>1267</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138" t="s">
         <v>1266</v>
       </c>
-      <c r="F7" s="130"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="106" t="s">
         <v>1265</v>
       </c>
@@ -18182,17 +18191,17 @@
       <c r="K7" s="44" t="s">
         <v>1261</v>
       </c>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="127" t="s">
         <v>1260</v>
       </c>
-      <c r="M7" s="131"/>
+      <c r="M7" s="127"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="128" t="s">
         <v>1259</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -18226,7 +18235,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="132"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="46" t="s">
         <v>1254</v>
       </c>
@@ -18256,7 +18265,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="132"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="52" t="s">
         <v>1250</v>
       </c>
@@ -18286,7 +18295,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="132"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="52" t="s">
         <v>1247</v>
       </c>
@@ -18316,7 +18325,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="132"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="52" t="s">
         <v>1247</v>
       </c>
@@ -18345,7 +18354,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="132"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -18374,7 +18383,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="132"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -18401,7 +18410,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="132"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -18428,7 +18437,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="132"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -18455,7 +18464,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="132"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -18484,7 +18493,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="132"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -18511,7 +18520,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="132"/>
+      <c r="C19" s="128"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -18536,7 +18545,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="132"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -18563,7 +18572,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="132"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -18590,7 +18599,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="132"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -18619,7 +18628,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="132"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -18648,7 +18657,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -18677,7 +18686,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="132"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -18706,7 +18715,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="132"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="54" t="s">
         <v>1242</v>
       </c>
@@ -18731,7 +18740,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="132"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="54" t="s">
         <v>1241</v>
       </c>
@@ -18756,7 +18765,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="132"/>
+      <c r="C28" s="128"/>
       <c r="D28" s="79" t="s">
         <v>1240</v>
       </c>
@@ -18783,7 +18792,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="132"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="54" t="s">
         <v>1237</v>
       </c>
@@ -18812,7 +18821,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="132"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -18839,7 +18848,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="132"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -18868,7 +18877,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="132"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -18893,7 +18902,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="132"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -18922,7 +18931,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="129" t="s">
         <v>1235</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -18953,7 +18962,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="127"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -18982,7 +18991,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="127"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -19011,7 +19020,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="127"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -19040,7 +19049,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="127"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -19069,7 +19078,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="127"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -19098,7 +19107,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="127"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -19127,7 +19136,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="127"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -19156,7 +19165,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="127"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -19185,7 +19194,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="127"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -19214,7 +19223,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="127"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -19245,7 +19254,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="127"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -19274,7 +19283,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="130" t="s">
         <v>1233</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -19303,7 +19312,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="129"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -19330,7 +19339,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="129"/>
+      <c r="C48" s="131"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -19359,7 +19368,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="129"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -19388,7 +19397,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="129" t="s">
         <v>1231</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -19417,7 +19426,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="127"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -19442,7 +19451,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="127"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -19469,7 +19478,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="127"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -19496,7 +19505,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="127"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -19523,7 +19532,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="127"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -19546,7 +19555,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="127"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -19569,7 +19578,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="127"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -19596,7 +19605,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="127"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -19619,7 +19628,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="127"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -19646,7 +19655,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="127"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -19671,7 +19680,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="127"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -19696,7 +19705,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="127"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="53" t="s">
         <v>1230</v>
       </c>
@@ -19727,7 +19736,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="127"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -19754,7 +19763,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="127"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -19781,7 +19790,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="127"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -19808,7 +19817,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="127"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -19835,7 +19844,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="127"/>
+      <c r="C67" s="129"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -19862,7 +19871,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="127"/>
+      <c r="C68" s="129"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -19889,7 +19898,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="127"/>
+      <c r="C69" s="129"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -19916,7 +19925,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="127"/>
+      <c r="C70" s="129"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -19945,7 +19954,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="127"/>
+      <c r="C71" s="129"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -19976,7 +19985,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="127"/>
+      <c r="C72" s="129"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -20001,7 +20010,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="127"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -20028,7 +20037,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="127"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -20055,7 +20064,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="127"/>
+      <c r="C75" s="129"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -20082,7 +20091,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="127"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -20109,7 +20118,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="127"/>
+      <c r="C77" s="129"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -20138,7 +20147,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="127"/>
+      <c r="C78" s="129"/>
       <c r="D78" s="82" t="s">
         <v>1222</v>
       </c>
@@ -20165,7 +20174,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="127"/>
+      <c r="C79" s="129"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -20192,7 +20201,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="127"/>
+      <c r="C80" s="129"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -20221,7 +20230,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="127"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -20250,7 +20259,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="127"/>
+      <c r="C82" s="129"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -20279,7 +20288,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="127"/>
+      <c r="C83" s="129"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -20308,7 +20317,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="127"/>
+      <c r="C84" s="129"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -20337,7 +20346,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="127"/>
+      <c r="C85" s="129"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -20366,7 +20375,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="127"/>
+      <c r="C86" s="129"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -20395,7 +20404,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="127"/>
+      <c r="C87" s="129"/>
       <c r="D87" s="53" t="s">
         <v>1220</v>
       </c>
@@ -20426,7 +20435,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="127"/>
+      <c r="C88" s="129"/>
       <c r="D88" s="53" t="s">
         <v>1218</v>
       </c>
@@ -20457,7 +20466,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="127"/>
+      <c r="C89" s="129"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -20488,7 +20497,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="127"/>
+      <c r="C90" s="129"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -20519,7 +20528,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="127"/>
+      <c r="C91" s="129"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -20548,7 +20557,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="128" t="s">
+      <c r="C92" s="130" t="s">
         <v>1212</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -20575,7 +20584,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="129"/>
+      <c r="C93" s="131"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -20600,7 +20609,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="129"/>
+      <c r="C94" s="131"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -20625,7 +20634,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="129"/>
+      <c r="C95" s="131"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -20650,7 +20659,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="129"/>
+      <c r="C96" s="131"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -20677,7 +20686,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="129"/>
+      <c r="C97" s="131"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -20704,7 +20713,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="127" t="s">
+      <c r="C98" s="129" t="s">
         <v>1210</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -20731,7 +20740,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="127"/>
+      <c r="C99" s="129"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -20756,7 +20765,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="127"/>
+      <c r="C100" s="129"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -20781,7 +20790,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="127"/>
+      <c r="C101" s="129"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -20810,7 +20819,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="127"/>
+      <c r="C102" s="129"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -20833,7 +20842,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="127"/>
+      <c r="C103" s="129"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -20856,7 +20865,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="127"/>
+      <c r="C104" s="129"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -20877,7 +20886,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="127"/>
+      <c r="C105" s="129"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -20898,7 +20907,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="127"/>
+      <c r="C106" s="129"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -20919,7 +20928,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="127"/>
+      <c r="C107" s="129"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -20940,7 +20949,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="127"/>
+      <c r="C108" s="129"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -20961,7 +20970,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="127"/>
+      <c r="C109" s="129"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -20982,7 +20991,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="127"/>
+      <c r="C110" s="129"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -21003,7 +21012,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="127"/>
+      <c r="C111" s="129"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -21024,7 +21033,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="127"/>
+      <c r="C112" s="129"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -21045,7 +21054,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="127"/>
+      <c r="C113" s="129"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -21066,7 +21075,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="127"/>
+      <c r="C114" s="129"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -21087,7 +21096,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="127"/>
+      <c r="C115" s="129"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -21108,7 +21117,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="127"/>
+      <c r="C116" s="129"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -21129,7 +21138,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="127"/>
+      <c r="C117" s="129"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -21150,7 +21159,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="127"/>
+      <c r="C118" s="129"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -21171,7 +21180,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="127"/>
+      <c r="C119" s="129"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -21196,6 +21205,11 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -21207,11 +21221,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -23876,16 +23885,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -23893,6 +23892,16 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'物料清单 采购格式 (2)'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="1572">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5868,6 +5868,10 @@
   </si>
   <si>
     <t>X758FlexOpened</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order by testdate desc, testtime desc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6991,12 +6995,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7004,6 +7002,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7023,9 +7030,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14784,7 +14788,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14921,9 +14925,14 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:7">
       <c r="D75" t="s">
         <v>1510</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7">
+      <c r="G79" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="87" spans="10:10">
@@ -14966,8 +14975,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18057,12 +18066,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>1275</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -18076,10 +18085,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="135" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="135"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="29" t="s">
         <v>1274</v>
       </c>
@@ -18093,20 +18102,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="136" t="s">
         <v>1272</v>
       </c>
-      <c r="K3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="135"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="32" t="s">
         <v>1271</v>
       </c>
@@ -18118,18 +18127,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="135" t="s">
+      <c r="J4" s="136" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="135"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="137" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -18139,10 +18148,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="136" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="135"/>
+      <c r="K5" s="136"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -18168,14 +18177,14 @@
       <c r="B7" s="43" t="s">
         <v>1268</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="130" t="s">
         <v>1267</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="130" t="s">
         <v>1266</v>
       </c>
-      <c r="F7" s="138"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="106" t="s">
         <v>1265</v>
       </c>
@@ -18191,17 +18200,17 @@
       <c r="K7" s="44" t="s">
         <v>1261</v>
       </c>
-      <c r="L7" s="127" t="s">
+      <c r="L7" s="131" t="s">
         <v>1260</v>
       </c>
-      <c r="M7" s="127"/>
+      <c r="M7" s="131"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="132" t="s">
         <v>1259</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -18235,7 +18244,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="128"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="46" t="s">
         <v>1254</v>
       </c>
@@ -18265,7 +18274,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="52" t="s">
         <v>1250</v>
       </c>
@@ -18295,7 +18304,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="128"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="52" t="s">
         <v>1247</v>
       </c>
@@ -18325,7 +18334,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="128"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="52" t="s">
         <v>1247</v>
       </c>
@@ -18354,7 +18363,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="128"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -18383,7 +18392,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="128"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -18410,7 +18419,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -18437,7 +18446,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="128"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -18464,7 +18473,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="128"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -18493,7 +18502,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="128"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -18520,7 +18529,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="128"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -18545,7 +18554,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="128"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -18572,7 +18581,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="128"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -18599,7 +18608,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="128"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -18628,7 +18637,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="128"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -18657,7 +18666,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="128"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -18686,7 +18695,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="128"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -18715,7 +18724,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="128"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="54" t="s">
         <v>1242</v>
       </c>
@@ -18740,7 +18749,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="128"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="54" t="s">
         <v>1241</v>
       </c>
@@ -18765,7 +18774,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="128"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="79" t="s">
         <v>1240</v>
       </c>
@@ -18792,7 +18801,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="128"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="54" t="s">
         <v>1237</v>
       </c>
@@ -18821,7 +18830,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="128"/>
+      <c r="C30" s="132"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -18848,7 +18857,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="128"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -18877,7 +18886,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="128"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -18902,7 +18911,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="128"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -18931,7 +18940,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="127" t="s">
         <v>1235</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -18962,7 +18971,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="129"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -18991,7 +19000,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="129"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -19020,7 +19029,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="129"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -19049,7 +19058,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="129"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -19078,7 +19087,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="129"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -19107,7 +19116,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="129"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -19136,7 +19145,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="129"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -19165,7 +19174,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="129"/>
+      <c r="C42" s="127"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -19194,7 +19203,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="129"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -19223,7 +19232,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="129"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -19254,7 +19263,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="129"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -19283,7 +19292,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="128" t="s">
         <v>1233</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -19312,7 +19321,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="131"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -19339,7 +19348,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="131"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -19368,7 +19377,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="131"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -19397,7 +19406,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="129" t="s">
+      <c r="C50" s="127" t="s">
         <v>1231</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -19426,7 +19435,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="129"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -19451,7 +19460,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="129"/>
+      <c r="C52" s="127"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -19478,7 +19487,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="129"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -19505,7 +19514,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="129"/>
+      <c r="C54" s="127"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -19532,7 +19541,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="129"/>
+      <c r="C55" s="127"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -19555,7 +19564,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="129"/>
+      <c r="C56" s="127"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -19578,7 +19587,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="129"/>
+      <c r="C57" s="127"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -19605,7 +19614,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="129"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -19628,7 +19637,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="129"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -19655,7 +19664,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="129"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -19680,7 +19689,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="129"/>
+      <c r="C61" s="127"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -19705,7 +19714,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="129"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="53" t="s">
         <v>1230</v>
       </c>
@@ -19736,7 +19745,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="129"/>
+      <c r="C63" s="127"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -19763,7 +19772,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="129"/>
+      <c r="C64" s="127"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -19790,7 +19799,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="129"/>
+      <c r="C65" s="127"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -19817,7 +19826,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="129"/>
+      <c r="C66" s="127"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -19844,7 +19853,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="129"/>
+      <c r="C67" s="127"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -19871,7 +19880,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="129"/>
+      <c r="C68" s="127"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -19898,7 +19907,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="129"/>
+      <c r="C69" s="127"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -19925,7 +19934,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="129"/>
+      <c r="C70" s="127"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -19954,7 +19963,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="129"/>
+      <c r="C71" s="127"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -19985,7 +19994,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="129"/>
+      <c r="C72" s="127"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -20010,7 +20019,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="129"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -20037,7 +20046,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="129"/>
+      <c r="C74" s="127"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -20064,7 +20073,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="129"/>
+      <c r="C75" s="127"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -20091,7 +20100,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="129"/>
+      <c r="C76" s="127"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -20118,7 +20127,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="129"/>
+      <c r="C77" s="127"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -20147,7 +20156,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="129"/>
+      <c r="C78" s="127"/>
       <c r="D78" s="82" t="s">
         <v>1222</v>
       </c>
@@ -20174,7 +20183,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="129"/>
+      <c r="C79" s="127"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -20201,7 +20210,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="129"/>
+      <c r="C80" s="127"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -20230,7 +20239,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="129"/>
+      <c r="C81" s="127"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -20259,7 +20268,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="129"/>
+      <c r="C82" s="127"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -20288,7 +20297,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="129"/>
+      <c r="C83" s="127"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -20317,7 +20326,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="129"/>
+      <c r="C84" s="127"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -20346,7 +20355,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="129"/>
+      <c r="C85" s="127"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -20375,7 +20384,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="129"/>
+      <c r="C86" s="127"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -20404,7 +20413,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="129"/>
+      <c r="C87" s="127"/>
       <c r="D87" s="53" t="s">
         <v>1220</v>
       </c>
@@ -20435,7 +20444,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="129"/>
+      <c r="C88" s="127"/>
       <c r="D88" s="53" t="s">
         <v>1218</v>
       </c>
@@ -20466,7 +20475,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="129"/>
+      <c r="C89" s="127"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -20497,7 +20506,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="129"/>
+      <c r="C90" s="127"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -20528,7 +20537,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="129"/>
+      <c r="C91" s="127"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -20557,7 +20566,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="130" t="s">
+      <c r="C92" s="128" t="s">
         <v>1212</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -20584,7 +20593,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="131"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -20609,7 +20618,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="131"/>
+      <c r="C94" s="129"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -20634,7 +20643,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="131"/>
+      <c r="C95" s="129"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -20659,7 +20668,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="131"/>
+      <c r="C96" s="129"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -20686,7 +20695,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="131"/>
+      <c r="C97" s="129"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -20713,7 +20722,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="129" t="s">
+      <c r="C98" s="127" t="s">
         <v>1210</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -20740,7 +20749,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="129"/>
+      <c r="C99" s="127"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -20765,7 +20774,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="129"/>
+      <c r="C100" s="127"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -20790,7 +20799,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="129"/>
+      <c r="C101" s="127"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -20819,7 +20828,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="129"/>
+      <c r="C102" s="127"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -20842,7 +20851,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="129"/>
+      <c r="C103" s="127"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -20865,7 +20874,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="129"/>
+      <c r="C104" s="127"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -20886,7 +20895,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="129"/>
+      <c r="C105" s="127"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -20907,7 +20916,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="129"/>
+      <c r="C106" s="127"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -20928,7 +20937,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="129"/>
+      <c r="C107" s="127"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -20949,7 +20958,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="129"/>
+      <c r="C108" s="127"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -20970,7 +20979,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="129"/>
+      <c r="C109" s="127"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -20991,7 +21000,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="129"/>
+      <c r="C110" s="127"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -21012,7 +21021,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="129"/>
+      <c r="C111" s="127"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -21033,7 +21042,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="129"/>
+      <c r="C112" s="127"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -21054,7 +21063,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="129"/>
+      <c r="C113" s="127"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -21075,7 +21084,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="129"/>
+      <c r="C114" s="127"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -21096,7 +21105,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="129"/>
+      <c r="C115" s="127"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -21117,7 +21126,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="129"/>
+      <c r="C116" s="127"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -21138,7 +21147,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="129"/>
+      <c r="C117" s="127"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -21159,7 +21168,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="129"/>
+      <c r="C118" s="127"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -21180,7 +21189,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="129"/>
+      <c r="C119" s="127"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -21205,11 +21214,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -21221,6 +21225,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -23885,6 +23894,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -23892,16 +23908,9 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A147:A152"/>
     <mergeCell ref="A155:A160"/>
     <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="1571">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2419,10 +2419,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>电磁铁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>三色灯-红</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5393,19 +5389,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Mini主机A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mini主机B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.10.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5872,6 +5860,14 @@
   </si>
   <si>
     <t>order by testdate desc, testtime desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.10.50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.50.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10134,36 +10130,36 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="125" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D2" s="125" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="125"/>
       <c r="B3" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D3" s="125"/>
       <c r="E3" s="65"/>
@@ -10171,10 +10167,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="125"/>
       <c r="B4" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="65"/>
@@ -10182,23 +10178,23 @@
     <row r="5" spans="1:5">
       <c r="A5" s="125"/>
       <c r="B5" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>890</v>
-      </c>
       <c r="D5" s="125" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="125"/>
       <c r="B6" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="D6" s="125"/>
       <c r="E6" s="65"/>
@@ -10206,10 +10202,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="125"/>
       <c r="B7" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="D7" s="125"/>
       <c r="E7" s="65"/>
@@ -10217,23 +10213,23 @@
     <row r="8" spans="1:5">
       <c r="A8" s="125"/>
       <c r="B8" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D8" s="125" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="125"/>
       <c r="B9" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D9" s="125"/>
       <c r="E9" s="65"/>
@@ -10241,10 +10237,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="125"/>
       <c r="B10" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D10" s="125"/>
       <c r="E10" s="65"/>
@@ -10252,23 +10248,23 @@
     <row r="11" spans="1:5">
       <c r="A11" s="125"/>
       <c r="B11" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="125"/>
       <c r="B12" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D12" s="125"/>
       <c r="E12" s="65"/>
@@ -10276,258 +10272,258 @@
     <row r="13" spans="1:5">
       <c r="A13" s="125"/>
       <c r="B13" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D13" s="125"/>
       <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>922</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>923</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>924</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>927</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="63"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="63"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>942</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>943</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="63"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>945</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>946</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="63"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>949</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>950</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="63"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>953</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="63"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>955</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>956</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="63"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>979</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>980</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>981</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>982</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>983</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>984</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>992</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>993</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>994</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>995</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>1002</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1003</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>998</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>999</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>1005</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>1006</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>1008</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>1011</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>1012</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>1165</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1166</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -10535,54 +10531,54 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="72" t="s">
+        <v>936</v>
+      </c>
+      <c r="I39" s="72" t="s">
         <v>937</v>
-      </c>
-      <c r="I39" s="72" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="F40" s="72" t="s">
+        <v>932</v>
+      </c>
+      <c r="G40" s="72" t="s">
         <v>933</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>934</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="27">
       <c r="F41" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="73" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9">
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:9" ht="27">
       <c r="F43" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="73" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -10617,34 +10613,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="125" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C1" s="1">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="125"/>
       <c r="B2" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C2" s="1">
         <v>5000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="125"/>
       <c r="B3" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -10654,45 +10650,45 @@
     <row r="4" spans="1:4">
       <c r="A4" s="125"/>
       <c r="B4" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="125" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C6" s="1">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="125"/>
       <c r="B7" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="125"/>
       <c r="B8" s="4" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C8" s="1">
         <f>C6/C7</f>
@@ -10703,14 +10699,14 @@
     <row r="9" spans="1:4">
       <c r="A9" s="125"/>
       <c r="B9" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C9" s="1">
         <f>C6*50</f>
         <v>800</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10718,31 +10714,31 @@
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C11" s="1">
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="125"/>
       <c r="B12" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C12" s="1">
         <v>10000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="125"/>
       <c r="B13" s="4" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C13" s="1">
         <f>C11/C12</f>
@@ -10753,14 +10749,14 @@
     <row r="14" spans="1:4">
       <c r="A14" s="125"/>
       <c r="B14" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C14" s="1">
         <f>20*50</f>
         <v>1000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -10793,11 +10789,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="A1" s="141" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="74" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D1" s="74">
         <v>20170308</v>
@@ -10811,16 +10807,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="75" t="s">
+        <v>964</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>965</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="C3" s="75" t="s">
         <v>966</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>967</v>
-      </c>
       <c r="D3" s="75" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10828,13 +10824,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C4" s="74">
         <v>1</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10842,13 +10838,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C5" s="74">
         <v>1</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10856,13 +10852,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C6" s="74">
         <v>1</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10870,13 +10866,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C7" s="74">
         <v>1</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10884,13 +10880,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C8" s="74">
         <v>2</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10898,13 +10894,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C9" s="74">
         <v>2</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10912,13 +10908,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C10" s="74">
         <v>4</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10926,13 +10922,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C11" s="74">
         <v>4</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10940,13 +10936,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C12" s="74">
         <v>1</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10954,13 +10950,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C13" s="74">
         <v>1</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11027,7 +11023,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="145" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -11041,13 +11037,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="76" t="s">
+        <v>985</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>986</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="C3" s="121" t="s">
         <v>987</v>
-      </c>
-      <c r="C3" s="121" t="s">
-        <v>988</v>
       </c>
       <c r="D3" s="121"/>
     </row>
@@ -11056,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77">
@@ -11068,7 +11064,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C5" s="77">
         <v>42805</v>
@@ -11082,7 +11078,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C6" s="77">
         <v>42807</v>
@@ -11119,24 +11115,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="75" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>1013</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C1" s="75" t="s">
+      <c r="D1" s="75" t="s">
         <v>1014</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1022</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -11147,10 +11143,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1017</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -11161,10 +11157,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -11175,10 +11171,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -11189,16 +11185,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -11230,14 +11226,14 @@
     <row r="1" spans="1:8" ht="14.25" thickBot="1">
       <c r="A1" s="95"/>
       <c r="B1" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1" s="97" t="s">
         <v>1028</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>1029</v>
       </c>
       <c r="D1" s="97"/>
       <c r="E1" s="97" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
@@ -11251,19 +11247,19 @@
         <v>512</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E2" s="87">
         <v>512</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G2" s="92" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H2" s="146"/>
     </row>
@@ -11275,14 +11271,14 @@
         <v>513</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="78">
         <v>513</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G3" s="93"/>
       <c r="H3" s="147"/>
@@ -11295,17 +11291,17 @@
         <v>514</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="78">
         <v>514</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G4" s="93" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H4" s="147"/>
     </row>
@@ -11317,14 +11313,14 @@
         <v>515</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="78">
         <v>515</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G5" s="93"/>
       <c r="H5" s="147"/>
@@ -11337,17 +11333,17 @@
         <v>516</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="78">
         <v>516</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="H6" s="147"/>
     </row>
@@ -11359,17 +11355,17 @@
         <v>517</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="78">
         <v>517</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G7" s="93" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="H7" s="147"/>
     </row>
@@ -11381,14 +11377,14 @@
         <v>518</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="78">
         <v>518</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="147"/>
@@ -11401,14 +11397,14 @@
         <v>519</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="78">
         <v>519</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G9" s="93"/>
       <c r="H9" s="147"/>
@@ -11421,17 +11417,17 @@
         <v>520</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D10" s="78"/>
       <c r="E10" s="78">
         <v>520</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H10" s="147"/>
     </row>
@@ -11443,14 +11439,14 @@
         <v>521</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D11" s="78"/>
       <c r="E11" s="78">
         <v>521</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G11" s="93"/>
       <c r="H11" s="147"/>
@@ -11463,14 +11459,14 @@
         <v>522</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="78">
         <v>522</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G12" s="93"/>
       <c r="H12" s="147"/>
@@ -11483,14 +11479,14 @@
         <v>523</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D13" s="78"/>
       <c r="E13" s="78">
         <v>523</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G13" s="93"/>
       <c r="H13" s="147"/>
@@ -11503,16 +11499,16 @@
         <v>524</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E14" s="78">
         <v>524</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G14" s="93"/>
       <c r="H14" s="147"/>
@@ -11525,14 +11521,14 @@
         <v>525</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="78">
         <v>525</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G15" s="93"/>
       <c r="H15" s="147"/>
@@ -11545,14 +11541,14 @@
         <v>526</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="78">
         <v>526</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G16" s="93"/>
       <c r="H16" s="147"/>
@@ -11565,14 +11561,14 @@
         <v>527</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90">
         <v>527</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G17" s="94"/>
       <c r="H17" s="148"/>
@@ -11585,17 +11581,17 @@
         <v>528</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D18" s="87"/>
       <c r="E18" s="87">
         <v>528</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G18" s="92" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H18" s="146"/>
     </row>
@@ -11607,17 +11603,17 @@
         <v>529</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="78">
         <v>529</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H19" s="147"/>
     </row>
@@ -11629,14 +11625,14 @@
         <v>530</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D20" s="78"/>
       <c r="E20" s="78">
         <v>530</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G20" s="93"/>
       <c r="H20" s="147"/>
@@ -11649,14 +11645,14 @@
         <v>531</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78">
         <v>531</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G21" s="93"/>
       <c r="H21" s="147"/>
@@ -11669,14 +11665,14 @@
         <v>532</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="78">
         <v>532</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G22" s="93"/>
       <c r="H22" s="147"/>
@@ -11689,14 +11685,14 @@
         <v>533</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78">
         <v>533</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G23" s="93"/>
       <c r="H23" s="147"/>
@@ -11709,14 +11705,14 @@
         <v>534</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78">
         <v>534</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G24" s="93"/>
       <c r="H24" s="147"/>
@@ -11729,16 +11725,16 @@
         <v>535</v>
       </c>
       <c r="C25" s="78" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E25" s="78">
         <v>535</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G25" s="93"/>
       <c r="H25" s="147"/>
@@ -11751,16 +11747,16 @@
         <v>536</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E26" s="78">
         <v>536</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G26" s="93"/>
       <c r="H26" s="147"/>
@@ -11773,16 +11769,16 @@
         <v>537</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D27" s="78" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E27" s="78">
         <v>537</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G27" s="93"/>
       <c r="H27" s="147"/>
@@ -11795,16 +11791,16 @@
         <v>538</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E28" s="78">
         <v>538</v>
       </c>
       <c r="F28" s="78" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G28" s="93"/>
       <c r="H28" s="147"/>
@@ -11817,16 +11813,16 @@
         <v>539</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E29" s="78">
         <v>539</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G29" s="93"/>
       <c r="H29" s="147"/>
@@ -11839,16 +11835,16 @@
         <v>540</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E30" s="78">
         <v>540</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G30" s="93"/>
       <c r="H30" s="147"/>
@@ -11861,14 +11857,14 @@
         <v>541</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D31" s="78"/>
       <c r="E31" s="78">
         <v>541</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G31" s="93"/>
       <c r="H31" s="147"/>
@@ -11881,14 +11877,14 @@
         <v>542</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D32" s="78"/>
       <c r="E32" s="78">
         <v>542</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G32" s="93"/>
       <c r="H32" s="147"/>
@@ -11901,14 +11897,14 @@
         <v>543</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D33" s="90"/>
       <c r="E33" s="90">
         <v>543</v>
       </c>
       <c r="F33" s="90" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G33" s="94"/>
       <c r="H33" s="148"/>
@@ -11921,14 +11917,14 @@
         <v>544</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D34" s="87"/>
       <c r="E34" s="87">
         <v>544</v>
       </c>
       <c r="F34" s="87" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G34" s="92"/>
       <c r="H34" s="146"/>
@@ -11941,14 +11937,14 @@
         <v>545</v>
       </c>
       <c r="C35" s="78" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D35" s="78"/>
       <c r="E35" s="78">
         <v>545</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G35" s="93"/>
       <c r="H35" s="147"/>
@@ -11961,14 +11957,14 @@
         <v>546</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D36" s="78"/>
       <c r="E36" s="78">
         <v>546</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G36" s="93"/>
       <c r="H36" s="147"/>
@@ -11981,14 +11977,14 @@
         <v>547</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D37" s="78"/>
       <c r="E37" s="78">
         <v>547</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G37" s="93"/>
       <c r="H37" s="147"/>
@@ -12001,14 +11997,14 @@
         <v>548</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="78">
         <v>548</v>
       </c>
       <c r="F38" s="78" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G38" s="93"/>
       <c r="H38" s="147"/>
@@ -12021,14 +12017,14 @@
         <v>549</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D39" s="78"/>
       <c r="E39" s="78">
         <v>549</v>
       </c>
       <c r="F39" s="78" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G39" s="93"/>
       <c r="H39" s="147"/>
@@ -12041,14 +12037,14 @@
         <v>550</v>
       </c>
       <c r="C40" s="78" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D40" s="78"/>
       <c r="E40" s="78">
         <v>550</v>
       </c>
       <c r="F40" s="78" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G40" s="93"/>
       <c r="H40" s="147"/>
@@ -12061,14 +12057,14 @@
         <v>551</v>
       </c>
       <c r="C41" s="78" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D41" s="78"/>
       <c r="E41" s="78">
         <v>551</v>
       </c>
       <c r="F41" s="78" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G41" s="93"/>
       <c r="H41" s="147"/>
@@ -12081,14 +12077,14 @@
         <v>552</v>
       </c>
       <c r="C42" s="78" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D42" s="78"/>
       <c r="E42" s="78">
         <v>552</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G42" s="93"/>
       <c r="H42" s="147"/>
@@ -12101,14 +12097,14 @@
         <v>553</v>
       </c>
       <c r="C43" s="78" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D43" s="78"/>
       <c r="E43" s="78">
         <v>553</v>
       </c>
       <c r="F43" s="78" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G43" s="93"/>
       <c r="H43" s="147"/>
@@ -12121,14 +12117,14 @@
         <v>554</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="78">
         <v>554</v>
       </c>
       <c r="F44" s="78" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G44" s="93"/>
       <c r="H44" s="147"/>
@@ -12141,14 +12137,14 @@
         <v>555</v>
       </c>
       <c r="C45" s="78" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D45" s="78"/>
       <c r="E45" s="78">
         <v>555</v>
       </c>
       <c r="F45" s="78" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G45" s="93"/>
       <c r="H45" s="147"/>
@@ -12161,14 +12157,14 @@
         <v>556</v>
       </c>
       <c r="C46" s="78" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D46" s="78"/>
       <c r="E46" s="78">
         <v>556</v>
       </c>
       <c r="F46" s="78" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G46" s="93"/>
       <c r="H46" s="147"/>
@@ -12181,14 +12177,14 @@
         <v>557</v>
       </c>
       <c r="C47" s="78" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D47" s="78"/>
       <c r="E47" s="78">
         <v>557</v>
       </c>
       <c r="F47" s="78" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G47" s="93"/>
       <c r="H47" s="147"/>
@@ -12201,14 +12197,14 @@
         <v>558</v>
       </c>
       <c r="C48" s="78" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D48" s="78"/>
       <c r="E48" s="78">
         <v>558</v>
       </c>
       <c r="F48" s="78" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G48" s="93"/>
       <c r="H48" s="147"/>
@@ -12221,14 +12217,14 @@
         <v>559</v>
       </c>
       <c r="C49" s="90" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D49" s="90"/>
       <c r="E49" s="90">
         <v>559</v>
       </c>
       <c r="F49" s="90" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G49" s="94"/>
       <c r="H49" s="148"/>
@@ -12241,14 +12237,14 @@
         <v>560</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D50" s="87"/>
       <c r="E50" s="87">
         <v>560</v>
       </c>
       <c r="F50" s="87" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G50" s="92"/>
       <c r="H50" s="146"/>
@@ -12261,14 +12257,14 @@
         <v>561</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D51" s="78"/>
       <c r="E51" s="78">
         <v>561</v>
       </c>
       <c r="F51" s="78" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G51" s="93"/>
       <c r="H51" s="147"/>
@@ -12281,14 +12277,14 @@
         <v>562</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78">
         <v>562</v>
       </c>
       <c r="F52" s="78" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G52" s="93"/>
       <c r="H52" s="147"/>
@@ -12301,14 +12297,14 @@
         <v>563</v>
       </c>
       <c r="C53" s="78" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D53" s="78"/>
       <c r="E53" s="78">
         <v>563</v>
       </c>
       <c r="F53" s="78" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G53" s="93"/>
       <c r="H53" s="147"/>
@@ -12321,14 +12317,14 @@
         <v>564</v>
       </c>
       <c r="C54" s="78" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78">
         <v>564</v>
       </c>
       <c r="F54" s="78" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G54" s="93"/>
       <c r="H54" s="147"/>
@@ -12341,14 +12337,14 @@
         <v>565</v>
       </c>
       <c r="C55" s="78" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D55" s="78"/>
       <c r="E55" s="78">
         <v>565</v>
       </c>
       <c r="F55" s="78" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G55" s="93"/>
       <c r="H55" s="147"/>
@@ -12361,14 +12357,14 @@
         <v>566</v>
       </c>
       <c r="C56" s="78" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78">
         <v>566</v>
       </c>
       <c r="F56" s="78" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G56" s="93"/>
       <c r="H56" s="147"/>
@@ -12381,14 +12377,14 @@
         <v>567</v>
       </c>
       <c r="C57" s="78" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="78">
         <v>567</v>
       </c>
       <c r="F57" s="78" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G57" s="93"/>
       <c r="H57" s="147"/>
@@ -12401,14 +12397,14 @@
         <v>568</v>
       </c>
       <c r="C58" s="78" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="78">
         <v>568</v>
       </c>
       <c r="F58" s="78" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G58" s="93"/>
       <c r="H58" s="147"/>
@@ -12421,14 +12417,14 @@
         <v>569</v>
       </c>
       <c r="C59" s="78" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="78">
         <v>569</v>
       </c>
       <c r="F59" s="78" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="147"/>
@@ -12441,14 +12437,14 @@
         <v>570</v>
       </c>
       <c r="C60" s="78" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="78">
         <v>570</v>
       </c>
       <c r="F60" s="78" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="147"/>
@@ -12461,14 +12457,14 @@
         <v>571</v>
       </c>
       <c r="C61" s="78" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="78">
         <v>571</v>
       </c>
       <c r="F61" s="78" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G61" s="93"/>
       <c r="H61" s="147"/>
@@ -12481,14 +12477,14 @@
         <v>572</v>
       </c>
       <c r="C62" s="78" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="78">
         <v>572</v>
       </c>
       <c r="F62" s="78" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G62" s="93"/>
       <c r="H62" s="147"/>
@@ -12501,14 +12497,14 @@
         <v>573</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="78">
         <v>573</v>
       </c>
       <c r="F63" s="78" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G63" s="93"/>
       <c r="H63" s="147"/>
@@ -12521,14 +12517,14 @@
         <v>574</v>
       </c>
       <c r="C64" s="78" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="78">
         <v>574</v>
       </c>
       <c r="F64" s="78" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G64" s="93"/>
       <c r="H64" s="147"/>
@@ -12541,14 +12537,14 @@
         <v>575</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D65" s="91"/>
       <c r="E65" s="90">
         <v>575</v>
       </c>
       <c r="F65" s="90" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G65" s="94"/>
       <c r="H65" s="148"/>
@@ -12751,175 +12747,175 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1">
       <c r="C1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="107" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B2" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="B2" s="108" t="s">
-        <v>1185</v>
-      </c>
       <c r="C2" s="149" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickBot="1">
       <c r="A3" s="110"/>
       <c r="B3" s="91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C3" s="150"/>
       <c r="D3" s="111" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="107" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C4" s="149" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" thickBot="1">
       <c r="A5" s="110"/>
       <c r="B5" s="91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C5" s="150"/>
       <c r="D5" s="111" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="107" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C6" s="149" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickBot="1">
       <c r="A7" s="110"/>
       <c r="B7" s="91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C7" s="150"/>
       <c r="D7" s="111" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="107" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C8" s="149" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" thickBot="1">
       <c r="A9" s="110"/>
       <c r="B9" s="91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C9" s="150"/>
       <c r="D9" s="111" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="107" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C10" s="149" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" thickBot="1">
       <c r="A11" s="110"/>
       <c r="B11" s="91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C11" s="150"/>
       <c r="D11" s="111" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="107" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C12" s="149" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D12" s="109" t="s">
         <v>1491</v>
-      </c>
-      <c r="B12" s="108" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C12" s="149" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" thickBot="1">
       <c r="A13" s="110"/>
       <c r="B13" s="91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="111" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="107" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C14" s="149" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" thickBot="1">
       <c r="A15" s="110"/>
       <c r="B15" s="91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C15" s="150"/>
       <c r="D15" s="111" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
   </sheetData>
@@ -12957,918 +12953,918 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="75" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1278</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="C1" s="75" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>1279</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="71" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B2" s="71" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E2" s="71" t="s">
         <v>1281</v>
-      </c>
-      <c r="C2" s="113" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D8" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C9" s="102" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D17" s="102" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C19" s="102" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C20" s="102" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="71" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C25" s="113"/>
       <c r="D25" s="113" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C26" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D26" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C27" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D27" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C28" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D28" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C29" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D29" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C30" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D31" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C32" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D32" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C33" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D33" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C34" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D34" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C35" s="119" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D35" s="119" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C38" s="102" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="D38" s="102" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D39" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D40" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C42" s="102" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="D42" s="102" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C45" s="102" t="s">
         <v>1381</v>
       </c>
-      <c r="C45" s="102" t="s">
-        <v>1382</v>
-      </c>
       <c r="D45" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C46" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D46" s="102" t="s">
         <v>1390</v>
       </c>
-      <c r="D46" s="102" t="s">
-        <v>1391</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C47" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D47" s="102" t="s">
         <v>1390</v>
       </c>
-      <c r="D47" s="102" t="s">
-        <v>1391</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C48" s="102" t="s">
         <v>1389</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="D48" s="102" t="s">
         <v>1390</v>
       </c>
-      <c r="D48" s="102" t="s">
-        <v>1391</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C49" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D49" s="102" t="s">
         <v>1390</v>
       </c>
-      <c r="D49" s="102" t="s">
-        <v>1391</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C50" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D50" s="102" t="s">
         <v>1390</v>
       </c>
-      <c r="D50" s="102" t="s">
-        <v>1391</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C51" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D51" s="102" t="s">
         <v>1390</v>
       </c>
-      <c r="D51" s="102" t="s">
-        <v>1391</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C52" s="102" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D52" s="102" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C53" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D53" s="102" t="s">
         <v>1390</v>
       </c>
-      <c r="D53" s="102" t="s">
-        <v>1391</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C54" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D54" s="102" t="s">
         <v>1390</v>
       </c>
-      <c r="D54" s="102" t="s">
-        <v>1391</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -13905,7 +13901,7 @@
         <v>47</v>
       </c>
       <c r="C1" s="116" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -13925,7 +13921,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="116" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>634</v>
@@ -13935,10 +13931,10 @@
         <v>99</v>
       </c>
       <c r="G2" s="115" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13949,20 +13945,20 @@
         <v>51</v>
       </c>
       <c r="C3" s="116" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G3" s="115" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13973,20 +13969,20 @@
         <v>53</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G4" s="115" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13997,20 +13993,20 @@
         <v>55</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G5" s="115" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14021,7 +14017,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>616</v>
@@ -14031,10 +14027,10 @@
         <v>107</v>
       </c>
       <c r="G6" s="115" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14045,7 +14041,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>617</v>
@@ -14055,10 +14051,10 @@
         <v>109</v>
       </c>
       <c r="G7" s="115" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14069,7 +14065,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="116" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>615</v>
@@ -14079,10 +14075,10 @@
         <v>111</v>
       </c>
       <c r="G8" s="115" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14093,7 +14089,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>614</v>
@@ -14113,17 +14109,17 @@
         <v>65</v>
       </c>
       <c r="C10" s="116" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D10" s="100" t="s">
         <v>1173</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>1174</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G10" s="115" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>622</v>
@@ -14137,17 +14133,17 @@
         <v>67</v>
       </c>
       <c r="C11" s="116" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D11" s="100" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G11" s="115" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>623</v>
@@ -14161,7 +14157,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>618</v>
@@ -14171,7 +14167,7 @@
         <v>119</v>
       </c>
       <c r="G12" s="115" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>624</v>
@@ -14185,7 +14181,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>619</v>
@@ -14195,7 +14191,7 @@
         <v>121</v>
       </c>
       <c r="G13" s="115" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>625</v>
@@ -14209,7 +14205,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="116" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>620</v>
@@ -14219,10 +14215,10 @@
         <v>123</v>
       </c>
       <c r="G14" s="115" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14233,7 +14229,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>621</v>
@@ -14243,10 +14239,10 @@
         <v>125</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14257,7 +14253,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>627</v>
@@ -14267,10 +14263,10 @@
         <v>127</v>
       </c>
       <c r="G16" s="115" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H16" s="101" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14281,7 +14277,7 @@
         <v>79</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>629</v>
@@ -14291,10 +14287,10 @@
         <v>129</v>
       </c>
       <c r="G17" s="115" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H17" s="101" t="s">
         <v>1181</v>
-      </c>
-      <c r="H17" s="101" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14305,7 +14301,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>626</v>
@@ -14323,7 +14319,7 @@
         <v>83</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>628</v>
@@ -14369,7 +14365,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>630</v>
@@ -14387,7 +14383,7 @@
         <v>91</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>631</v>
@@ -14405,7 +14401,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="116" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>632</v>
@@ -14423,7 +14419,7 @@
         <v>95</v>
       </c>
       <c r="C25" s="116" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>633</v>
@@ -14670,7 +14666,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14688,87 +14684,87 @@
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="121" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C1" s="121"/>
       <c r="D1" s="121"/>
       <c r="E1" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F1" s="121" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G1" s="121"/>
       <c r="H1" s="121" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C2" s="114" t="s">
         <v>1436</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="D2" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1438</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1445</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>1446</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>1445</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1447</v>
+        <v>1569</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>1450</v>
+        <v>1570</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -14787,7 +14783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
@@ -14800,144 +14796,144 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B1" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27">
       <c r="A2" s="117" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="I10" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="J10" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="I11" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="J11" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="I12" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="J12" s="118" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="I13" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="J13" s="118" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="I14" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="J14" s="118" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="I15" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="J15" s="118" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="I16" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="J16" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="17" spans="9:10">
       <c r="I17" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="J17" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="38" spans="10:10">
       <c r="J38" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="39" spans="10:10">
       <c r="J39" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="59" spans="7:8">
       <c r="G59" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H59" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="60" spans="7:8">
       <c r="G60" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H60" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="61" spans="7:8">
       <c r="G61" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="H61" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="62" spans="7:8">
       <c r="G62" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="H62" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="63" spans="7:8">
       <c r="G63" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H63" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="75" spans="4:7">
       <c r="D75" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="79" spans="4:7">
       <c r="G79" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="87" spans="10:10">
       <c r="J87" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
   </sheetData>
@@ -14975,8 +14971,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15057,7 +15053,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -15071,7 +15067,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -15081,7 +15077,7 @@
         <v>102</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -15095,7 +15091,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -15105,7 +15101,7 @@
         <v>104</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -15129,7 +15125,7 @@
         <v>106</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -15153,7 +15149,7 @@
         <v>108</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -15177,7 +15173,7 @@
         <v>110</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -15201,7 +15197,7 @@
         <v>112</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15237,7 +15233,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -15261,7 +15257,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="100" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
@@ -15343,7 +15339,7 @@
         <v>124</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -15367,7 +15363,7 @@
         <v>126</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -15391,7 +15387,7 @@
         <v>128</v>
       </c>
       <c r="H18" s="101" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -15415,7 +15411,7 @@
         <v>130</v>
       </c>
       <c r="H19" s="101" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -15616,7 +15612,7 @@
         <v>134</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="1" t="s">
@@ -15898,9 +15894,7 @@
       <c r="G43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H43" s="14" t="s">
-        <v>644</v>
-      </c>
+      <c r="H43" s="14"/>
       <c r="I43" s="125"/>
     </row>
     <row r="44" spans="1:9">
@@ -15914,7 +15908,7 @@
         <v>146</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="1" t="s">
@@ -15924,7 +15918,7 @@
         <v>182</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I44" s="125"/>
     </row>
@@ -15939,7 +15933,7 @@
         <v>147</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="1" t="s">
@@ -15949,7 +15943,7 @@
         <v>183</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I45" s="125"/>
     </row>
@@ -15964,7 +15958,7 @@
         <v>148</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="1" t="s">
@@ -15974,7 +15968,7 @@
         <v>184</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I46" s="125"/>
     </row>
@@ -15989,7 +15983,7 @@
         <v>149</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
@@ -15999,7 +15993,7 @@
         <v>185</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I47" s="125"/>
     </row>
@@ -16014,7 +16008,7 @@
         <v>150</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
@@ -16024,7 +16018,7 @@
         <v>186</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I48" s="125"/>
     </row>
@@ -16039,7 +16033,7 @@
         <v>151</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
@@ -16049,7 +16043,7 @@
         <v>187</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I49" s="125"/>
     </row>
@@ -16064,7 +16058,7 @@
         <v>152</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
@@ -16074,7 +16068,7 @@
         <v>188</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I50" s="125"/>
     </row>
@@ -16089,7 +16083,7 @@
         <v>153</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
@@ -16099,7 +16093,7 @@
         <v>189</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I51" s="125"/>
     </row>
@@ -16114,7 +16108,7 @@
         <v>154</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
@@ -16124,7 +16118,7 @@
         <v>190</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I52" s="125"/>
     </row>
@@ -16139,7 +16133,7 @@
         <v>561</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="4" t="s">
@@ -16149,7 +16143,7 @@
         <v>191</v>
       </c>
       <c r="H53" s="100" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I53" s="125"/>
     </row>
@@ -16164,7 +16158,7 @@
         <v>156</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="4" t="s">
@@ -16174,7 +16168,7 @@
         <v>192</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I54" s="125"/>
     </row>
@@ -16189,7 +16183,7 @@
         <v>157</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="4" t="s">
@@ -16199,7 +16193,7 @@
         <v>193</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I55" s="125"/>
     </row>
@@ -16214,7 +16208,7 @@
         <v>158</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="1"/>
@@ -16233,7 +16227,7 @@
         <v>159</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="1"/>
@@ -16252,7 +16246,7 @@
         <v>160</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="1"/>
@@ -16271,7 +16265,7 @@
         <v>161</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="1"/>
@@ -16290,7 +16284,7 @@
         <v>162</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="1"/>
@@ -16309,7 +16303,7 @@
         <v>163</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="1"/>
@@ -16328,7 +16322,7 @@
         <v>164</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="1"/>
@@ -16347,7 +16341,7 @@
         <v>165</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="1"/>
@@ -16366,7 +16360,7 @@
         <v>166</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="1"/>
@@ -16385,7 +16379,7 @@
         <v>167</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="1"/>
@@ -16404,7 +16398,7 @@
         <v>168</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="1"/>
@@ -16423,7 +16417,7 @@
         <v>169</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="1"/>
@@ -16442,7 +16436,7 @@
         <v>244</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="1" t="s">
@@ -16452,7 +16446,7 @@
         <v>211</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I68" s="125" t="s">
         <v>328</v>
@@ -16469,7 +16463,7 @@
         <v>245</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
@@ -16479,7 +16473,7 @@
         <v>212</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I69" s="125"/>
     </row>
@@ -16494,7 +16488,7 @@
         <v>246</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
@@ -16504,7 +16498,7 @@
         <v>213</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I70" s="125"/>
     </row>
@@ -16519,7 +16513,7 @@
         <v>247</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
@@ -16529,7 +16523,7 @@
         <v>214</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I71" s="125"/>
     </row>
@@ -16544,7 +16538,7 @@
         <v>248</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
@@ -16554,7 +16548,7 @@
         <v>215</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I72" s="125"/>
     </row>
@@ -16569,7 +16563,7 @@
         <v>249</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -16579,7 +16573,7 @@
         <v>216</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I73" s="125"/>
     </row>
@@ -16594,7 +16588,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -16604,7 +16598,7 @@
         <v>217</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I74" s="125"/>
     </row>
@@ -16619,7 +16613,7 @@
         <v>251</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -16629,7 +16623,7 @@
         <v>218</v>
       </c>
       <c r="H75" s="100" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I75" s="125"/>
     </row>
@@ -16644,7 +16638,7 @@
         <v>256</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="1"/>
@@ -16665,7 +16659,7 @@
         <v>257</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="1"/>
@@ -16684,7 +16678,7 @@
         <v>258</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="1"/>
@@ -16703,7 +16697,7 @@
         <v>259</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="1"/>
@@ -16722,7 +16716,7 @@
         <v>260</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="1"/>
@@ -16758,7 +16752,7 @@
         <v>262</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="1"/>
@@ -16777,7 +16771,7 @@
         <v>263</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="1"/>
@@ -16796,7 +16790,7 @@
         <v>264</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="1"/>
@@ -16815,7 +16809,7 @@
         <v>265</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -16834,7 +16828,7 @@
         <v>266</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="1"/>
@@ -16853,7 +16847,7 @@
         <v>267</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="1"/>
@@ -16872,7 +16866,7 @@
         <v>268</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="1"/>
@@ -16891,7 +16885,7 @@
         <v>269</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="1"/>
@@ -16910,7 +16904,7 @@
         <v>270</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -16929,7 +16923,7 @@
         <v>271</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -16948,7 +16942,7 @@
         <v>563</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="1"/>
@@ -16969,7 +16963,7 @@
         <v>564</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -16988,7 +16982,7 @@
         <v>565</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -17007,7 +17001,7 @@
         <v>566</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -17026,7 +17020,7 @@
         <v>567</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -17045,7 +17039,7 @@
         <v>568</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -17064,7 +17058,7 @@
         <v>569</v>
       </c>
       <c r="D98" s="101" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -17083,7 +17077,7 @@
         <v>570</v>
       </c>
       <c r="D99" s="101" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -17096,13 +17090,13 @@
         <v>69</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="1"/>
@@ -17121,7 +17115,7 @@
         <v>579</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -17140,7 +17134,7 @@
         <v>580</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -17159,7 +17153,7 @@
         <v>581</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -17206,10 +17200,10 @@
         <v>75</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -17223,10 +17217,10 @@
         <v>76</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -17307,10 +17301,10 @@
         <v>320</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E113" s="123"/>
       <c r="F113" s="1" t="s">
@@ -17320,7 +17314,7 @@
         <v>324</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I113" s="125"/>
     </row>
@@ -17335,7 +17329,7 @@
         <v>292</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E114" s="123"/>
       <c r="F114" s="1" t="s">
@@ -17345,7 +17339,7 @@
         <v>306</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I114" s="125"/>
     </row>
@@ -17360,7 +17354,7 @@
         <v>293</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E115" s="123"/>
       <c r="F115" s="1" t="s">
@@ -17370,7 +17364,7 @@
         <v>307</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I115" s="125"/>
     </row>
@@ -17385,7 +17379,7 @@
         <v>294</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E116" s="123"/>
       <c r="F116" s="1" t="s">
@@ -17408,7 +17402,7 @@
         <v>295</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E117" s="123"/>
       <c r="F117" s="1" t="s">
@@ -17477,7 +17471,7 @@
         <v>298</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E120" s="123"/>
       <c r="F120" s="1" t="s">
@@ -17500,7 +17494,7 @@
         <v>299</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E121" s="123"/>
       <c r="F121" s="1" t="s">
@@ -18061,13 +18055,13 @@
         <v>362</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
       <c r="A2" s="133" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B2" s="134"/>
       <c r="C2" s="134"/>
@@ -18090,7 +18084,7 @@
       </c>
       <c r="B3" s="136"/>
       <c r="C3" s="29" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
@@ -18098,12 +18092,12 @@
         <v>365</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="136" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="K3" s="136"/>
       <c r="L3" s="32">
@@ -18117,7 +18111,7 @@
       </c>
       <c r="B4" s="136"/>
       <c r="C4" s="32" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="30"/>
@@ -18143,7 +18137,7 @@
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
       <c r="F5" s="105" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
@@ -18172,36 +18166,36 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D7" s="130"/>
       <c r="E7" s="130" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F7" s="130"/>
       <c r="G7" s="106" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H7" s="106" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I7" s="106" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="J7" s="106" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L7" s="131" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="M7" s="131"/>
     </row>
@@ -18211,13 +18205,13 @@
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="132" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="46" t="s">
@@ -18227,14 +18221,14 @@
         <v>1</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M8" s="48"/>
       <c r="Q8" s="51"/>
@@ -18246,24 +18240,24 @@
       <c r="B9" s="46"/>
       <c r="C9" s="132"/>
       <c r="D9" s="46" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="46" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H9" s="46">
         <v>1</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L9" s="50"/>
       <c r="M9" s="48"/>
@@ -18276,24 +18270,24 @@
       <c r="B10" s="46"/>
       <c r="C10" s="132"/>
       <c r="D10" s="52" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H10" s="46">
         <v>1</v>
       </c>
       <c r="I10" s="103" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J10" s="46"/>
       <c r="K10" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L10" s="47"/>
       <c r="M10" s="48"/>
@@ -18306,24 +18300,24 @@
       <c r="B11" s="46"/>
       <c r="C11" s="132"/>
       <c r="D11" s="52" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>1247</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>1248</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H11" s="46">
         <v>1</v>
       </c>
       <c r="I11" s="103" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L11" s="47"/>
       <c r="M11" s="48"/>
@@ -18336,24 +18330,24 @@
       <c r="B12" s="46"/>
       <c r="C12" s="132"/>
       <c r="D12" s="52" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>372</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="46" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H12" s="46">
         <v>2</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="48"/>
@@ -18382,7 +18376,7 @@
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L13" s="47"/>
       <c r="M13" s="48"/>
@@ -18478,7 +18472,7 @@
         <v>384</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="46" t="s">
@@ -18492,7 +18486,7 @@
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L17" s="47"/>
       <c r="M17" s="48"/>
@@ -18571,7 +18565,7 @@
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L20" s="47"/>
       <c r="M20" s="48"/>
@@ -18586,7 +18580,7 @@
         <v>391</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="46"/>
@@ -18598,7 +18592,7 @@
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L21" s="47"/>
       <c r="M21" s="48"/>
@@ -18627,7 +18621,7 @@
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
@@ -18656,7 +18650,7 @@
       </c>
       <c r="J23" s="46"/>
       <c r="K23" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L23" s="47"/>
       <c r="M23" s="48"/>
@@ -18685,7 +18679,7 @@
       </c>
       <c r="J24" s="46"/>
       <c r="K24" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L24" s="47"/>
       <c r="M24" s="48"/>
@@ -18714,7 +18708,7 @@
       </c>
       <c r="J25" s="46"/>
       <c r="K25" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L25" s="47"/>
       <c r="M25" s="48"/>
@@ -18726,7 +18720,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="132"/>
       <c r="D26" s="54" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="48"/>
@@ -18739,7 +18733,7 @@
       </c>
       <c r="J26" s="46"/>
       <c r="K26" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L26" s="47"/>
       <c r="M26" s="48"/>
@@ -18751,7 +18745,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="132"/>
       <c r="D27" s="54" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>403</v>
@@ -18766,7 +18760,7 @@
       </c>
       <c r="J27" s="46"/>
       <c r="K27" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L27" s="47"/>
       <c r="M27" s="48"/>
@@ -18776,10 +18770,10 @@
       <c r="B28" s="46"/>
       <c r="C28" s="132"/>
       <c r="D28" s="79" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F28" s="81"/>
       <c r="G28" s="82"/>
@@ -18792,7 +18786,7 @@
       <c r="J28" s="82"/>
       <c r="K28" s="84"/>
       <c r="L28" s="112" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="M28" s="81"/>
     </row>
@@ -18803,10 +18797,10 @@
       <c r="B29" s="46"/>
       <c r="C29" s="132"/>
       <c r="D29" s="54" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="46" t="s">
@@ -18820,7 +18814,7 @@
       </c>
       <c r="J29" s="46"/>
       <c r="K29" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
@@ -18876,7 +18870,7 @@
       </c>
       <c r="J31" s="53"/>
       <c r="K31" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L31" s="47"/>
       <c r="M31" s="48"/>
@@ -18901,7 +18895,7 @@
       </c>
       <c r="J32" s="53"/>
       <c r="K32" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L32" s="47"/>
       <c r="M32" s="48"/>
@@ -18930,7 +18924,7 @@
       </c>
       <c r="J33" s="53"/>
       <c r="K33" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L33" s="47"/>
       <c r="M33" s="48"/>
@@ -18941,7 +18935,7 @@
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="127" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D34" s="57" t="s">
         <v>415</v>
@@ -18961,7 +18955,7 @@
       </c>
       <c r="J34" s="53"/>
       <c r="K34" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L34" s="47"/>
       <c r="M34" s="48"/>
@@ -18990,7 +18984,7 @@
       </c>
       <c r="J35" s="53"/>
       <c r="K35" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L35" s="47"/>
       <c r="M35" s="48"/>
@@ -19019,7 +19013,7 @@
       </c>
       <c r="J36" s="53"/>
       <c r="K36" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L36" s="47"/>
       <c r="M36" s="48"/>
@@ -19048,7 +19042,7 @@
       </c>
       <c r="J37" s="53"/>
       <c r="K37" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L37" s="47"/>
       <c r="M37" s="48"/>
@@ -19077,7 +19071,7 @@
       </c>
       <c r="J38" s="53"/>
       <c r="K38" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L38" s="47"/>
       <c r="M38" s="48"/>
@@ -19106,7 +19100,7 @@
       </c>
       <c r="J39" s="53"/>
       <c r="K39" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L39" s="47"/>
       <c r="M39" s="48"/>
@@ -19135,7 +19129,7 @@
       </c>
       <c r="J40" s="53"/>
       <c r="K40" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L40" s="47"/>
       <c r="M40" s="48"/>
@@ -19164,7 +19158,7 @@
       </c>
       <c r="J41" s="53"/>
       <c r="K41" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L41" s="47"/>
       <c r="M41" s="48"/>
@@ -19193,7 +19187,7 @@
       </c>
       <c r="J42" s="53"/>
       <c r="K42" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L42" s="47"/>
       <c r="M42" s="48"/>
@@ -19222,7 +19216,7 @@
       </c>
       <c r="J43" s="53"/>
       <c r="K43" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L43" s="47"/>
       <c r="M43" s="48"/>
@@ -19251,10 +19245,10 @@
       </c>
       <c r="J44" s="53"/>
       <c r="K44" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L44" s="62" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="M44" s="48"/>
     </row>
@@ -19282,7 +19276,7 @@
       </c>
       <c r="J45" s="53"/>
       <c r="K45" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L45" s="47"/>
       <c r="M45" s="48"/>
@@ -19293,7 +19287,7 @@
       </c>
       <c r="B46" s="46"/>
       <c r="C46" s="128" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D46" s="53" t="s">
         <v>439</v>
@@ -19353,7 +19347,7 @@
         <v>444</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="53" t="s">
@@ -19367,7 +19361,7 @@
       </c>
       <c r="J48" s="53"/>
       <c r="K48" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L48" s="47"/>
       <c r="M48" s="48"/>
@@ -19396,7 +19390,7 @@
       </c>
       <c r="J49" s="53"/>
       <c r="K49" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L49" s="47"/>
       <c r="M49" s="48"/>
@@ -19407,7 +19401,7 @@
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="127" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D50" s="53" t="s">
         <v>449</v>
@@ -19654,7 +19648,7 @@
       </c>
       <c r="J59" s="53"/>
       <c r="K59" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L59" s="47"/>
       <c r="M59" s="48"/>
@@ -19716,10 +19710,10 @@
       <c r="B62" s="46"/>
       <c r="C62" s="127"/>
       <c r="D62" s="53" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F62" s="59"/>
       <c r="G62" s="53" t="s">
@@ -19733,10 +19727,10 @@
       </c>
       <c r="J62" s="53"/>
       <c r="K62" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L62" s="62" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="M62" s="48"/>
     </row>
@@ -19953,7 +19947,7 @@
       </c>
       <c r="J70" s="53"/>
       <c r="K70" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L70" s="47"/>
       <c r="M70" s="48"/>
@@ -19968,11 +19962,11 @@
         <v>488</v>
       </c>
       <c r="E71" s="58" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F71" s="59"/>
       <c r="G71" s="53" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H71" s="53">
         <v>8</v>
@@ -19982,10 +19976,10 @@
       </c>
       <c r="J71" s="53"/>
       <c r="K71" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L71" s="62" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="M71" s="48"/>
     </row>
@@ -20036,7 +20030,7 @@
       </c>
       <c r="J73" s="53"/>
       <c r="K73" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L73" s="47"/>
       <c r="M73" s="48"/>
@@ -20063,7 +20057,7 @@
       </c>
       <c r="J74" s="53"/>
       <c r="K74" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L74" s="47"/>
       <c r="M74" s="48"/>
@@ -20090,7 +20084,7 @@
       </c>
       <c r="J75" s="53"/>
       <c r="K75" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L75" s="47"/>
       <c r="M75" s="48"/>
@@ -20117,7 +20111,7 @@
       </c>
       <c r="J76" s="53"/>
       <c r="K76" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L76" s="47"/>
       <c r="M76" s="48"/>
@@ -20132,7 +20126,7 @@
         <v>496</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F77" s="81"/>
       <c r="G77" s="82"/>
@@ -20144,10 +20138,10 @@
       </c>
       <c r="J77" s="82"/>
       <c r="K77" s="84" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L77" s="112" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M77" s="81"/>
     </row>
@@ -20158,10 +20152,10 @@
       <c r="B78" s="46"/>
       <c r="C78" s="127"/>
       <c r="D78" s="82" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E78" s="80" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F78" s="81"/>
       <c r="G78" s="82"/>
@@ -20173,7 +20167,7 @@
       </c>
       <c r="J78" s="82"/>
       <c r="K78" s="84" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L78" s="80"/>
       <c r="M78" s="81"/>
@@ -20200,7 +20194,7 @@
       </c>
       <c r="J79" s="53"/>
       <c r="K79" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L79" s="47"/>
       <c r="M79" s="48"/>
@@ -20229,7 +20223,7 @@
       </c>
       <c r="J80" s="53"/>
       <c r="K80" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L80" s="47"/>
       <c r="M80" s="48"/>
@@ -20258,7 +20252,7 @@
       </c>
       <c r="J81" s="53"/>
       <c r="K81" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L81" s="47"/>
       <c r="M81" s="48"/>
@@ -20287,7 +20281,7 @@
       </c>
       <c r="J82" s="53"/>
       <c r="K82" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L82" s="47"/>
       <c r="M82" s="48"/>
@@ -20316,7 +20310,7 @@
       </c>
       <c r="J83" s="53"/>
       <c r="K83" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L83" s="47"/>
       <c r="M83" s="48"/>
@@ -20345,7 +20339,7 @@
       </c>
       <c r="J84" s="53"/>
       <c r="K84" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L84" s="47"/>
       <c r="M84" s="48"/>
@@ -20374,7 +20368,7 @@
       </c>
       <c r="J85" s="53"/>
       <c r="K85" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L85" s="47"/>
       <c r="M85" s="48"/>
@@ -20403,7 +20397,7 @@
       </c>
       <c r="J86" s="53"/>
       <c r="K86" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L86" s="47"/>
       <c r="M86" s="48"/>
@@ -20415,7 +20409,7 @@
       <c r="B87" s="46"/>
       <c r="C87" s="127"/>
       <c r="D87" s="53" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E87" s="58" t="s">
         <v>509</v>
@@ -20432,10 +20426,10 @@
       </c>
       <c r="J87" s="53"/>
       <c r="K87" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L87" s="50" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="M87" s="48"/>
     </row>
@@ -20446,7 +20440,7 @@
       <c r="B88" s="46"/>
       <c r="C88" s="127"/>
       <c r="D88" s="53" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E88" s="58" t="s">
         <v>510</v>
@@ -20463,10 +20457,10 @@
       </c>
       <c r="J88" s="53"/>
       <c r="K88" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L88" s="50" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="M88" s="48"/>
     </row>
@@ -20494,10 +20488,10 @@
       </c>
       <c r="J89" s="53"/>
       <c r="K89" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L89" s="50" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M89" s="48"/>
     </row>
@@ -20525,10 +20519,10 @@
       </c>
       <c r="J90" s="53"/>
       <c r="K90" s="49" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L90" s="50" t="s">
         <v>1214</v>
-      </c>
-      <c r="L90" s="50" t="s">
-        <v>1215</v>
       </c>
       <c r="M90" s="48"/>
     </row>
@@ -20554,10 +20548,10 @@
       </c>
       <c r="J91" s="53"/>
       <c r="K91" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L91" s="50" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="M91" s="48"/>
     </row>
@@ -20567,13 +20561,13 @@
       </c>
       <c r="B92" s="46"/>
       <c r="C92" s="128" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D92" s="53" t="s">
         <v>517</v>
       </c>
       <c r="E92" s="58" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F92" s="59"/>
       <c r="G92" s="53"/>
@@ -20598,7 +20592,7 @@
         <v>517</v>
       </c>
       <c r="E93" s="58" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F93" s="59"/>
       <c r="G93" s="53"/>
@@ -20723,7 +20717,7 @@
       </c>
       <c r="B98" s="46"/>
       <c r="C98" s="127" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D98" s="53" t="s">
         <v>525</v>
@@ -20791,7 +20785,7 @@
       </c>
       <c r="J100" s="53"/>
       <c r="K100" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L100" s="47"/>
       <c r="M100" s="48"/>
@@ -20804,7 +20798,7 @@
         <v>527</v>
       </c>
       <c r="E101" s="80" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F101" s="81"/>
       <c r="G101" s="82"/>
@@ -20816,10 +20810,10 @@
       </c>
       <c r="J101" s="82"/>
       <c r="K101" s="84" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L101" s="112" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="M101" s="81"/>
     </row>
@@ -22653,7 +22647,7 @@
         <v>324</v>
       </c>
       <c r="E92" s="71" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -22668,7 +22662,7 @@
         <v>306</v>
       </c>
       <c r="E93" s="71" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -23786,7 +23780,7 @@
         <v>52</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -23801,7 +23795,7 @@
         <v>100</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -23816,7 +23810,7 @@
         <v>102</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -23831,7 +23825,7 @@
         <v>104</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -23846,7 +23840,7 @@
         <v>106</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -23861,7 +23855,7 @@
         <v>124</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -23876,7 +23870,7 @@
         <v>126</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -23894,6 +23888,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
     <mergeCell ref="A179:A188"/>
     <mergeCell ref="A99:A108"/>
     <mergeCell ref="A3:A12"/>
@@ -23909,8 +23905,6 @@
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
     <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23950,107 +23944,107 @@
     <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="140" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C2" s="139" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D2" s="68">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2" s="140" t="s">
+        <v>824</v>
+      </c>
+      <c r="I2" s="139" t="s">
         <v>825</v>
       </c>
-      <c r="I2" s="139" t="s">
-        <v>826</v>
-      </c>
       <c r="J2" s="139" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K2" s="68">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O2" s="140" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P2" s="139" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q2" s="139" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R2" s="68">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -24061,10 +24055,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H3" s="140"/>
       <c r="I3" s="125"/>
@@ -24073,10 +24067,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O3" s="140"/>
       <c r="P3" s="125"/>
@@ -24085,10 +24079,10 @@
         <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -24099,10 +24093,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H4" s="140"/>
       <c r="I4" s="125"/>
@@ -24111,10 +24105,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O4" s="140"/>
       <c r="P4" s="125"/>
@@ -24123,10 +24117,10 @@
         <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
@@ -24137,10 +24131,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H5" s="140"/>
       <c r="I5" s="125"/>
@@ -24219,10 +24213,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H8" s="140"/>
       <c r="I8" s="125"/>
@@ -24231,10 +24225,10 @@
         <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O8" s="140"/>
       <c r="P8" s="125"/>
@@ -24243,10 +24237,10 @@
         <v>7</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -24257,10 +24251,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H9" s="140"/>
       <c r="I9" s="125"/>
@@ -24269,10 +24263,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O9" s="140"/>
       <c r="P9" s="125"/>
@@ -24281,10 +24275,10 @@
         <v>8</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -24295,10 +24289,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H10" s="140"/>
       <c r="I10" s="125"/>
@@ -24325,10 +24319,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H11" s="140"/>
       <c r="I11" s="125"/>
@@ -24355,10 +24349,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H12" s="140"/>
       <c r="I12" s="125"/>
@@ -24385,10 +24379,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H13" s="140"/>
       <c r="I13" s="125"/>
@@ -24423,10 +24417,10 @@
         <v>13</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O14" s="140"/>
       <c r="P14" s="125"/>
@@ -24435,10 +24429,10 @@
         <v>13</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -24449,10 +24443,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H15" s="140"/>
       <c r="I15" s="125"/>
@@ -24461,10 +24455,10 @@
         <v>14</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O15" s="140"/>
       <c r="P15" s="125"/>
@@ -24473,10 +24467,10 @@
         <v>14</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -24487,10 +24481,10 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H16" s="140"/>
       <c r="I16" s="125"/>
@@ -24499,10 +24493,10 @@
         <v>15</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O16" s="140"/>
       <c r="P16" s="125"/>
@@ -24511,10 +24505,10 @@
         <v>15</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -24525,10 +24519,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H17" s="140"/>
       <c r="I17" s="125"/>
@@ -24537,10 +24531,10 @@
         <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O17" s="140"/>
       <c r="P17" s="125"/>
@@ -24549,10 +24543,10 @@
         <v>16</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -24563,10 +24557,10 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H18" s="140"/>
       <c r="I18" s="125"/>
@@ -24575,10 +24569,10 @@
         <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O18" s="140"/>
       <c r="P18" s="125"/>
@@ -24587,10 +24581,10 @@
         <v>17</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -24601,10 +24595,10 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H19" s="140"/>
       <c r="I19" s="125"/>
@@ -24613,10 +24607,10 @@
         <v>18</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O19" s="140"/>
       <c r="P19" s="125"/>
@@ -24625,10 +24619,10 @@
         <v>18</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -24639,10 +24633,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H20" s="140"/>
       <c r="I20" s="125"/>
@@ -24651,10 +24645,10 @@
         <v>19</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O20" s="140"/>
       <c r="P20" s="125"/>
@@ -24663,10 +24657,10 @@
         <v>19</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -24677,10 +24671,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H21" s="140"/>
       <c r="I21" s="125"/>
@@ -24689,10 +24683,10 @@
         <v>20</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O21" s="140"/>
       <c r="P21" s="125"/>
@@ -24701,10 +24695,10 @@
         <v>20</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -24715,10 +24709,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H22" s="140"/>
       <c r="I22" s="125"/>
@@ -24727,10 +24721,10 @@
         <v>21</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O22" s="140"/>
       <c r="P22" s="125"/>
@@ -24739,10 +24733,10 @@
         <v>21</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -24761,10 +24755,10 @@
         <v>22</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O23" s="140"/>
       <c r="P23" s="125"/>
@@ -24773,10 +24767,10 @@
         <v>22</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -24847,10 +24841,10 @@
         <v>25</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O26" s="140"/>
       <c r="P26" s="125"/>
@@ -24859,48 +24853,48 @@
         <v>25</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1">
       <c r="A29" s="140" t="s">
+        <v>758</v>
+      </c>
+      <c r="B29" s="139" t="s">
         <v>759</v>
       </c>
-      <c r="B29" s="139" t="s">
-        <v>760</v>
-      </c>
       <c r="C29" s="139" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D29" s="68">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1">
@@ -24911,10 +24905,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" customHeight="1">
@@ -24928,7 +24922,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="13.5" customHeight="1">
@@ -24942,7 +24936,7 @@
         <v>54</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
@@ -24956,7 +24950,7 @@
         <v>56</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
@@ -24970,7 +24964,7 @@
         <v>58</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
@@ -24984,7 +24978,7 @@
         <v>60</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
@@ -24998,7 +24992,7 @@
         <v>62</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
@@ -25012,7 +25006,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
@@ -25023,10 +25017,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
@@ -25040,7 +25034,7 @@
         <v>102</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
@@ -25054,7 +25048,7 @@
         <v>104</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
@@ -25068,7 +25062,7 @@
         <v>106</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
@@ -25082,7 +25076,7 @@
         <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
@@ -25096,7 +25090,7 @@
         <v>110</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
@@ -25117,10 +25111,10 @@
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
@@ -25131,10 +25125,10 @@
         <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
@@ -25145,10 +25139,10 @@
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
@@ -25162,7 +25156,7 @@
         <v>68</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
@@ -25176,7 +25170,7 @@
         <v>70</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
@@ -25190,7 +25184,7 @@
         <v>72</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
@@ -25204,7 +25198,7 @@
         <v>74</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
@@ -25218,7 +25212,7 @@
         <v>76</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
@@ -25232,7 +25226,7 @@
         <v>78</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -25246,7 +25240,7 @@
         <v>80</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -25257,10 +25251,10 @@
         <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -25271,10 +25265,10 @@
         <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -25285,10 +25279,10 @@
         <v>29</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -25299,10 +25293,10 @@
         <v>30</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -25313,10 +25307,10 @@
         <v>31</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -25337,10 +25331,10 @@
         <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -25351,10 +25345,10 @@
         <v>34</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -25365,10 +25359,10 @@
         <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -25382,7 +25376,7 @@
         <v>84</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -25396,7 +25390,7 @@
         <v>86</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -25410,7 +25404,7 @@
         <v>88</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -25424,7 +25418,7 @@
         <v>90</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -25438,7 +25432,7 @@
         <v>92</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -25452,7 +25446,7 @@
         <v>94</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -25466,7 +25460,7 @@
         <v>96</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -25477,10 +25471,10 @@
         <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -25491,10 +25485,10 @@
         <v>44</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -25505,10 +25499,10 @@
         <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -25519,10 +25513,10 @@
         <v>46</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -25533,10 +25527,10 @@
         <v>47</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="76" spans="1:6">

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="机械手IO说明" sheetId="22" r:id="rId19"/>
     <sheet name="网络IP规划" sheetId="21" r:id="rId20"/>
     <sheet name="样本程序设计" sheetId="23" r:id="rId21"/>
+    <sheet name="条码保存设计" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'物料清单 采购格式 (2)'!$A$7:$M$7</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1577">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5868,6 +5869,30 @@
   </si>
   <si>
     <t>192.168.50.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:/barcode/20170420/Hole120170420</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:/barcode/20170420/Hole220170420</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:/barcode/20170420/Hole320170420</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:/barcode/20170420/Hole420170420</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:/barcode/20170420/Scan20170420</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from fluke_data where barcode = 'G5Y7163B01SHP1953ZM5' AND TESTDATE = '20170420' ORDER BY TESTTIME DESC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9597,82 +9622,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>637571</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9138</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4676775" y="1543050"/>
-          <a:ext cx="4838096" cy="3095238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1685925</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>589931</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>94776</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1685925" y="8477250"/>
-          <a:ext cx="4952381" cy="3790476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -9692,7 +9641,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9701,6 +9650,120 @@
         <a:xfrm>
           <a:off x="4543425" y="5276850"/>
           <a:ext cx="4628572" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>532780</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>56693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="16116300"/>
+          <a:ext cx="4961905" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170887</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>94793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="8610600"/>
+          <a:ext cx="4504762" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142332</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="1371600"/>
+          <a:ext cx="4342857" cy="3000000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14781,10 +14844,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14936,11 +14999,61 @@
         <v>1567</v>
       </c>
     </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>1576</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="136.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14971,7 +15084,7 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
@@ -23888,15 +24001,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -23904,7 +24008,16 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="15" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1578">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5893,6 +5893,10 @@
   </si>
   <si>
     <t>select * from fluke_data where barcode = 'G5Y7163B01SHP1953ZM5' AND TESTDATE = '20170420' ORDER BY TESTTIME DESC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseCMD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7016,6 +7020,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7023,15 +7033,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7051,6 +7052,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9474,6 +9478,109 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="17449800"/>
+          <a:ext cx="2895600" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1362075" y="17430750"/>
+          <a:ext cx="2933700" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -9618,7 +9725,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11271,8 +11378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11524,7 +11631,9 @@
       <c r="C12" s="78" t="s">
         <v>1039</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="78" t="s">
+        <v>1577</v>
+      </c>
       <c r="E12" s="78">
         <v>522</v>
       </c>
@@ -13941,8 +14050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14846,8 +14955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15017,7 +15126,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15084,8 +15193,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17781,6 +17890,7 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18173,12 +18283,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="132" t="s">
         <v>1274</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -18192,10 +18302,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="134" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="136"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="29" t="s">
         <v>1273</v>
       </c>
@@ -18209,20 +18319,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="135" t="s">
         <v>1271</v>
       </c>
-      <c r="K3" s="136"/>
+      <c r="K3" s="135"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="134" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="136"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="32" t="s">
         <v>1270</v>
       </c>
@@ -18234,18 +18344,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="135" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="136"/>
+      <c r="K4" s="135"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="136" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="138"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -18255,10 +18365,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="136" t="s">
+      <c r="J5" s="135" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="136"/>
+      <c r="K5" s="135"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -18284,14 +18394,14 @@
       <c r="B7" s="43" t="s">
         <v>1267</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="138" t="s">
         <v>1266</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138" t="s">
         <v>1265</v>
       </c>
-      <c r="F7" s="130"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="106" t="s">
         <v>1264</v>
       </c>
@@ -18307,17 +18417,17 @@
       <c r="K7" s="44" t="s">
         <v>1260</v>
       </c>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="127" t="s">
         <v>1259</v>
       </c>
-      <c r="M7" s="131"/>
+      <c r="M7" s="127"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="128" t="s">
         <v>1258</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -18351,7 +18461,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="132"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="46" t="s">
         <v>1253</v>
       </c>
@@ -18381,7 +18491,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="132"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="52" t="s">
         <v>1249</v>
       </c>
@@ -18411,7 +18521,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="132"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="52" t="s">
         <v>1246</v>
       </c>
@@ -18441,7 +18551,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="132"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="52" t="s">
         <v>1246</v>
       </c>
@@ -18470,7 +18580,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="132"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -18499,7 +18609,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="132"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -18526,7 +18636,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="132"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -18553,7 +18663,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="132"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -18580,7 +18690,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="132"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -18609,7 +18719,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="132"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -18636,7 +18746,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="132"/>
+      <c r="C19" s="128"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -18661,7 +18771,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="132"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -18688,7 +18798,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="132"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -18715,7 +18825,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="132"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -18744,7 +18854,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="132"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -18773,7 +18883,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -18802,7 +18912,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="132"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -18831,7 +18941,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="132"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="54" t="s">
         <v>1241</v>
       </c>
@@ -18856,7 +18966,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="132"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="54" t="s">
         <v>1240</v>
       </c>
@@ -18881,7 +18991,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="132"/>
+      <c r="C28" s="128"/>
       <c r="D28" s="79" t="s">
         <v>1239</v>
       </c>
@@ -18908,7 +19018,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="132"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="54" t="s">
         <v>1236</v>
       </c>
@@ -18937,7 +19047,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="132"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -18964,7 +19074,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="132"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -18993,7 +19103,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="132"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -19018,7 +19128,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="132"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -19047,7 +19157,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="129" t="s">
         <v>1234</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -19078,7 +19188,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="127"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -19107,7 +19217,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="127"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -19136,7 +19246,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="127"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -19165,7 +19275,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="127"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -19194,7 +19304,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="127"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -19223,7 +19333,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="127"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -19252,7 +19362,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="127"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -19281,7 +19391,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="127"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -19310,7 +19420,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="127"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -19339,7 +19449,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="127"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -19370,7 +19480,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="127"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -19399,7 +19509,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="130" t="s">
         <v>1232</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -19428,7 +19538,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="129"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -19455,7 +19565,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="129"/>
+      <c r="C48" s="131"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -19484,7 +19594,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="129"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -19513,7 +19623,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="129" t="s">
         <v>1230</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -19542,7 +19652,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="127"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -19567,7 +19677,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="127"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -19594,7 +19704,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="127"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -19621,7 +19731,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="127"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -19648,7 +19758,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="127"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -19671,7 +19781,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="127"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -19694,7 +19804,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="127"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -19721,7 +19831,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="127"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -19744,7 +19854,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="127"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -19771,7 +19881,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="127"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -19796,7 +19906,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="127"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -19821,7 +19931,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="127"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="53" t="s">
         <v>1229</v>
       </c>
@@ -19852,7 +19962,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="127"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -19879,7 +19989,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="127"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -19906,7 +20016,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="127"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -19933,7 +20043,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="127"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -19960,7 +20070,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="127"/>
+      <c r="C67" s="129"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -19987,7 +20097,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="127"/>
+      <c r="C68" s="129"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -20014,7 +20124,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="127"/>
+      <c r="C69" s="129"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -20041,7 +20151,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="127"/>
+      <c r="C70" s="129"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -20070,7 +20180,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="127"/>
+      <c r="C71" s="129"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -20101,7 +20211,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="127"/>
+      <c r="C72" s="129"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -20126,7 +20236,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="127"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -20153,7 +20263,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="127"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -20180,7 +20290,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="127"/>
+      <c r="C75" s="129"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -20207,7 +20317,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="127"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -20234,7 +20344,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="127"/>
+      <c r="C77" s="129"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -20263,7 +20373,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="127"/>
+      <c r="C78" s="129"/>
       <c r="D78" s="82" t="s">
         <v>1221</v>
       </c>
@@ -20290,7 +20400,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="127"/>
+      <c r="C79" s="129"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -20317,7 +20427,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="127"/>
+      <c r="C80" s="129"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -20346,7 +20456,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="127"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -20375,7 +20485,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="127"/>
+      <c r="C82" s="129"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -20404,7 +20514,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="127"/>
+      <c r="C83" s="129"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -20433,7 +20543,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="127"/>
+      <c r="C84" s="129"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -20462,7 +20572,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="127"/>
+      <c r="C85" s="129"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -20491,7 +20601,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="127"/>
+      <c r="C86" s="129"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -20520,7 +20630,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="127"/>
+      <c r="C87" s="129"/>
       <c r="D87" s="53" t="s">
         <v>1219</v>
       </c>
@@ -20551,7 +20661,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="127"/>
+      <c r="C88" s="129"/>
       <c r="D88" s="53" t="s">
         <v>1217</v>
       </c>
@@ -20582,7 +20692,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="127"/>
+      <c r="C89" s="129"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -20613,7 +20723,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="127"/>
+      <c r="C90" s="129"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -20644,7 +20754,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="127"/>
+      <c r="C91" s="129"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -20673,7 +20783,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="128" t="s">
+      <c r="C92" s="130" t="s">
         <v>1211</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -20700,7 +20810,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="129"/>
+      <c r="C93" s="131"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -20725,7 +20835,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="129"/>
+      <c r="C94" s="131"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -20750,7 +20860,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="129"/>
+      <c r="C95" s="131"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -20775,7 +20885,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="129"/>
+      <c r="C96" s="131"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -20802,7 +20912,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="129"/>
+      <c r="C97" s="131"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -20829,7 +20939,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="127" t="s">
+      <c r="C98" s="129" t="s">
         <v>1209</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -20856,7 +20966,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="127"/>
+      <c r="C99" s="129"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -20881,7 +20991,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="127"/>
+      <c r="C100" s="129"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -20906,7 +21016,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="127"/>
+      <c r="C101" s="129"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -20935,7 +21045,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="127"/>
+      <c r="C102" s="129"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -20958,7 +21068,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="127"/>
+      <c r="C103" s="129"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -20981,7 +21091,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="127"/>
+      <c r="C104" s="129"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -21002,7 +21112,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="127"/>
+      <c r="C105" s="129"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -21023,7 +21133,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="127"/>
+      <c r="C106" s="129"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -21044,7 +21154,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="127"/>
+      <c r="C107" s="129"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -21065,7 +21175,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="127"/>
+      <c r="C108" s="129"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -21086,7 +21196,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="127"/>
+      <c r="C109" s="129"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -21107,7 +21217,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="127"/>
+      <c r="C110" s="129"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -21128,7 +21238,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="127"/>
+      <c r="C111" s="129"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -21149,7 +21259,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="127"/>
+      <c r="C112" s="129"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -21170,7 +21280,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="127"/>
+      <c r="C113" s="129"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -21191,7 +21301,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="127"/>
+      <c r="C114" s="129"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -21212,7 +21322,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="127"/>
+      <c r="C115" s="129"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -21233,7 +21343,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="127"/>
+      <c r="C116" s="129"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -21254,7 +21364,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="127"/>
+      <c r="C117" s="129"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -21275,7 +21385,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="127"/>
+      <c r="C118" s="129"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -21296,7 +21406,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="127"/>
+      <c r="C119" s="129"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -21321,6 +21431,11 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -21332,11 +21447,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -24001,6 +24111,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -24008,16 +24125,9 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A147:A152"/>
     <mergeCell ref="A155:A160"/>
     <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="网络IP规划" sheetId="21" r:id="rId20"/>
     <sheet name="样本程序设计" sheetId="23" r:id="rId21"/>
     <sheet name="条码保存设计" sheetId="24" r:id="rId22"/>
+    <sheet name="软件版本说明" sheetId="25" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'物料清单 采购格式 (2)'!$A$7:$M$7</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="1588">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5897,6 +5898,52 @@
   </si>
   <si>
     <t>CloseCMD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、提前合矫正气缸，合2次
+2、上料盘不再送矫正气缸，吸取失败松开再吸取
+3、抛料治具真空后打开；第1次抛料失败，断治具真空再压一下，持续1秒
+4、吸取时间加长，吸取失败retry3次，每次时间增加0.3秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·Epson
+·PLC
+·触摸屏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝程序包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170421X758in05.rar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、样本查询不良项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·Epson
+·上位机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170422X758in02.rar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6716,7 +6763,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -6999,6 +7046,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7020,12 +7079,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7033,6 +7086,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7052,9 +7114,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10178,20 +10237,20 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10208,7 +10267,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="120"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -10221,7 +10280,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="120"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10309,7 +10368,7 @@
       <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>917</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10318,136 +10377,136 @@
       <c r="C2" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="129" t="s">
         <v>884</v>
       </c>
       <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="125"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="1" t="s">
         <v>882</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="125"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D4" s="125"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="125"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="1" t="s">
         <v>888</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="129" t="s">
         <v>894</v>
       </c>
       <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="125"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="1" t="s">
         <v>890</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="125"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="1" t="s">
         <v>892</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D7" s="125"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="65"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="125"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="1" t="s">
         <v>895</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="129" t="s">
         <v>907</v>
       </c>
       <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="125"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="1" t="s">
         <v>896</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D9" s="125"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="65"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="125"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="1" t="s">
         <v>897</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="65"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="125"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="1" t="s">
         <v>901</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="129" t="s">
         <v>908</v>
       </c>
       <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="125"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="1" t="s">
         <v>902</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D12" s="125"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="125"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="1" t="s">
         <v>903</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5">
@@ -10782,7 +10841,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="129" t="s">
         <v>916</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10796,7 +10855,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="125"/>
+      <c r="A2" s="129"/>
       <c r="B2" s="1" t="s">
         <v>910</v>
       </c>
@@ -10808,7 +10867,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="125"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="1" t="s">
         <v>911</v>
       </c>
@@ -10818,7 +10877,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="125"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="1" t="s">
         <v>912</v>
       </c>
@@ -10830,7 +10889,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="129" t="s">
         <v>946</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10844,7 +10903,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="125"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="1" t="s">
         <v>910</v>
       </c>
@@ -10856,7 +10915,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="125"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="4" t="s">
         <v>1450</v>
       </c>
@@ -10867,7 +10926,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="125"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="1" t="s">
         <v>1449</v>
       </c>
@@ -10880,7 +10939,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="129" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -10894,7 +10953,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="125"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="1" t="s">
         <v>910</v>
       </c>
@@ -10906,7 +10965,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="125"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="4" t="s">
         <v>1450</v>
       </c>
@@ -10917,7 +10976,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="125"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="1" t="s">
         <v>1449</v>
       </c>
@@ -10958,10 +11017,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="145" t="s">
         <v>958</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="74" t="s">
         <v>976</v>
       </c>
@@ -10970,8 +11029,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
     </row>
@@ -11192,18 +11251,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="149" t="s">
         <v>984</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="76" t="s">
@@ -11212,10 +11271,10 @@
       <c r="B3" s="76" t="s">
         <v>986</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="125" t="s">
         <v>987</v>
       </c>
-      <c r="D3" s="121"/>
+      <c r="D3" s="125"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="76">
@@ -11378,7 +11437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -11431,7 +11490,7 @@
       <c r="G2" s="92" t="s">
         <v>1178</v>
       </c>
-      <c r="H2" s="146"/>
+      <c r="H2" s="150"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="88">
@@ -11451,7 +11510,7 @@
         <v>1069</v>
       </c>
       <c r="G3" s="93"/>
-      <c r="H3" s="147"/>
+      <c r="H3" s="151"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="88">
@@ -11473,7 +11532,7 @@
       <c r="G4" s="93" t="s">
         <v>1180</v>
       </c>
-      <c r="H4" s="147"/>
+      <c r="H4" s="151"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="88">
@@ -11493,7 +11552,7 @@
         <v>1071</v>
       </c>
       <c r="G5" s="93"/>
-      <c r="H5" s="147"/>
+      <c r="H5" s="151"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="88">
@@ -11515,7 +11574,7 @@
       <c r="G6" s="93" t="s">
         <v>1525</v>
       </c>
-      <c r="H6" s="147"/>
+      <c r="H6" s="151"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="88">
@@ -11537,7 +11596,7 @@
       <c r="G7" s="93" t="s">
         <v>1524</v>
       </c>
-      <c r="H7" s="147"/>
+      <c r="H7" s="151"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="88">
@@ -11557,7 +11616,7 @@
         <v>1074</v>
       </c>
       <c r="G8" s="93"/>
-      <c r="H8" s="147"/>
+      <c r="H8" s="151"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="88">
@@ -11577,7 +11636,7 @@
         <v>1075</v>
       </c>
       <c r="G9" s="93"/>
-      <c r="H9" s="147"/>
+      <c r="H9" s="151"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="88">
@@ -11599,7 +11658,7 @@
       <c r="G10" s="93" t="s">
         <v>1167</v>
       </c>
-      <c r="H10" s="147"/>
+      <c r="H10" s="151"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="88">
@@ -11619,7 +11678,7 @@
         <v>1077</v>
       </c>
       <c r="G11" s="93"/>
-      <c r="H11" s="147"/>
+      <c r="H11" s="151"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="88">
@@ -11641,7 +11700,7 @@
         <v>1078</v>
       </c>
       <c r="G12" s="93"/>
-      <c r="H12" s="147"/>
+      <c r="H12" s="151"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="88">
@@ -11661,7 +11720,7 @@
         <v>1079</v>
       </c>
       <c r="G13" s="93"/>
-      <c r="H13" s="147"/>
+      <c r="H13" s="151"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="88">
@@ -11683,7 +11742,7 @@
         <v>1080</v>
       </c>
       <c r="G14" s="93"/>
-      <c r="H14" s="147"/>
+      <c r="H14" s="151"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="88">
@@ -11703,7 +11762,7 @@
         <v>1081</v>
       </c>
       <c r="G15" s="93"/>
-      <c r="H15" s="147"/>
+      <c r="H15" s="151"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="88">
@@ -11723,7 +11782,7 @@
         <v>1082</v>
       </c>
       <c r="G16" s="93"/>
-      <c r="H16" s="147"/>
+      <c r="H16" s="151"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" thickBot="1">
       <c r="A17" s="89">
@@ -11743,7 +11802,7 @@
         <v>1083</v>
       </c>
       <c r="G17" s="94"/>
-      <c r="H17" s="148"/>
+      <c r="H17" s="152"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="86">
@@ -11765,7 +11824,7 @@
       <c r="G18" s="92" t="s">
         <v>1168</v>
       </c>
-      <c r="H18" s="146"/>
+      <c r="H18" s="150"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="88">
@@ -11787,7 +11846,7 @@
       <c r="G19" s="93" t="s">
         <v>1169</v>
       </c>
-      <c r="H19" s="147"/>
+      <c r="H19" s="151"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="88">
@@ -11807,7 +11866,7 @@
         <v>1086</v>
       </c>
       <c r="G20" s="93"/>
-      <c r="H20" s="147"/>
+      <c r="H20" s="151"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="88">
@@ -11827,7 +11886,7 @@
         <v>1087</v>
       </c>
       <c r="G21" s="93"/>
-      <c r="H21" s="147"/>
+      <c r="H21" s="151"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="88">
@@ -11847,7 +11906,7 @@
         <v>1088</v>
       </c>
       <c r="G22" s="93"/>
-      <c r="H22" s="147"/>
+      <c r="H22" s="151"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="88">
@@ -11867,7 +11926,7 @@
         <v>1089</v>
       </c>
       <c r="G23" s="93"/>
-      <c r="H23" s="147"/>
+      <c r="H23" s="151"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="88">
@@ -11887,7 +11946,7 @@
         <v>1090</v>
       </c>
       <c r="G24" s="93"/>
-      <c r="H24" s="147"/>
+      <c r="H24" s="151"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="88">
@@ -11909,7 +11968,7 @@
         <v>1091</v>
       </c>
       <c r="G25" s="93"/>
-      <c r="H25" s="147"/>
+      <c r="H25" s="151"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="88">
@@ -11931,7 +11990,7 @@
         <v>1092</v>
       </c>
       <c r="G26" s="93"/>
-      <c r="H26" s="147"/>
+      <c r="H26" s="151"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="88">
@@ -11953,7 +12012,7 @@
         <v>1093</v>
       </c>
       <c r="G27" s="93"/>
-      <c r="H27" s="147"/>
+      <c r="H27" s="151"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="88">
@@ -11975,7 +12034,7 @@
         <v>1094</v>
       </c>
       <c r="G28" s="93"/>
-      <c r="H28" s="147"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="88">
@@ -11997,7 +12056,7 @@
         <v>1095</v>
       </c>
       <c r="G29" s="93"/>
-      <c r="H29" s="147"/>
+      <c r="H29" s="151"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="88">
@@ -12019,7 +12078,7 @@
         <v>1096</v>
       </c>
       <c r="G30" s="93"/>
-      <c r="H30" s="147"/>
+      <c r="H30" s="151"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="88">
@@ -12039,7 +12098,7 @@
         <v>1097</v>
       </c>
       <c r="G31" s="93"/>
-      <c r="H31" s="147"/>
+      <c r="H31" s="151"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="88">
@@ -12059,7 +12118,7 @@
         <v>1098</v>
       </c>
       <c r="G32" s="93"/>
-      <c r="H32" s="147"/>
+      <c r="H32" s="151"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" thickBot="1">
       <c r="A33" s="89">
@@ -12079,7 +12138,7 @@
         <v>1099</v>
       </c>
       <c r="G33" s="94"/>
-      <c r="H33" s="148"/>
+      <c r="H33" s="152"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="86">
@@ -12099,7 +12158,7 @@
         <v>1100</v>
       </c>
       <c r="G34" s="92"/>
-      <c r="H34" s="146"/>
+      <c r="H34" s="150"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="88">
@@ -12119,7 +12178,7 @@
         <v>1101</v>
       </c>
       <c r="G35" s="93"/>
-      <c r="H35" s="147"/>
+      <c r="H35" s="151"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="88">
@@ -12139,7 +12198,7 @@
         <v>1102</v>
       </c>
       <c r="G36" s="93"/>
-      <c r="H36" s="147"/>
+      <c r="H36" s="151"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="88">
@@ -12159,7 +12218,7 @@
         <v>1103</v>
       </c>
       <c r="G37" s="93"/>
-      <c r="H37" s="147"/>
+      <c r="H37" s="151"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="88">
@@ -12179,7 +12238,7 @@
         <v>1104</v>
       </c>
       <c r="G38" s="93"/>
-      <c r="H38" s="147"/>
+      <c r="H38" s="151"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="88">
@@ -12199,7 +12258,7 @@
         <v>1105</v>
       </c>
       <c r="G39" s="93"/>
-      <c r="H39" s="147"/>
+      <c r="H39" s="151"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="88">
@@ -12219,7 +12278,7 @@
         <v>1106</v>
       </c>
       <c r="G40" s="93"/>
-      <c r="H40" s="147"/>
+      <c r="H40" s="151"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="88">
@@ -12239,7 +12298,7 @@
         <v>1107</v>
       </c>
       <c r="G41" s="93"/>
-      <c r="H41" s="147"/>
+      <c r="H41" s="151"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="88">
@@ -12259,7 +12318,7 @@
         <v>1108</v>
       </c>
       <c r="G42" s="93"/>
-      <c r="H42" s="147"/>
+      <c r="H42" s="151"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="88">
@@ -12279,7 +12338,7 @@
         <v>1109</v>
       </c>
       <c r="G43" s="93"/>
-      <c r="H43" s="147"/>
+      <c r="H43" s="151"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="88">
@@ -12299,7 +12358,7 @@
         <v>1110</v>
       </c>
       <c r="G44" s="93"/>
-      <c r="H44" s="147"/>
+      <c r="H44" s="151"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="88">
@@ -12319,7 +12378,7 @@
         <v>1111</v>
       </c>
       <c r="G45" s="93"/>
-      <c r="H45" s="147"/>
+      <c r="H45" s="151"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="88">
@@ -12339,7 +12398,7 @@
         <v>1112</v>
       </c>
       <c r="G46" s="93"/>
-      <c r="H46" s="147"/>
+      <c r="H46" s="151"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="88">
@@ -12359,7 +12418,7 @@
         <v>1113</v>
       </c>
       <c r="G47" s="93"/>
-      <c r="H47" s="147"/>
+      <c r="H47" s="151"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="88">
@@ -12379,7 +12438,7 @@
         <v>1114</v>
       </c>
       <c r="G48" s="93"/>
-      <c r="H48" s="147"/>
+      <c r="H48" s="151"/>
     </row>
     <row r="49" spans="1:8" ht="14.25" thickBot="1">
       <c r="A49" s="89">
@@ -12399,7 +12458,7 @@
         <v>1115</v>
       </c>
       <c r="G49" s="94"/>
-      <c r="H49" s="148"/>
+      <c r="H49" s="152"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="86">
@@ -12419,7 +12478,7 @@
         <v>1116</v>
       </c>
       <c r="G50" s="92"/>
-      <c r="H50" s="146"/>
+      <c r="H50" s="150"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="88">
@@ -12439,7 +12498,7 @@
         <v>1117</v>
       </c>
       <c r="G51" s="93"/>
-      <c r="H51" s="147"/>
+      <c r="H51" s="151"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="88">
@@ -12459,7 +12518,7 @@
         <v>1118</v>
       </c>
       <c r="G52" s="93"/>
-      <c r="H52" s="147"/>
+      <c r="H52" s="151"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="88">
@@ -12479,7 +12538,7 @@
         <v>1119</v>
       </c>
       <c r="G53" s="93"/>
-      <c r="H53" s="147"/>
+      <c r="H53" s="151"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="88">
@@ -12499,7 +12558,7 @@
         <v>1120</v>
       </c>
       <c r="G54" s="93"/>
-      <c r="H54" s="147"/>
+      <c r="H54" s="151"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="88">
@@ -12519,7 +12578,7 @@
         <v>1121</v>
       </c>
       <c r="G55" s="93"/>
-      <c r="H55" s="147"/>
+      <c r="H55" s="151"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="88">
@@ -12539,7 +12598,7 @@
         <v>1122</v>
       </c>
       <c r="G56" s="93"/>
-      <c r="H56" s="147"/>
+      <c r="H56" s="151"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="88">
@@ -12559,7 +12618,7 @@
         <v>1155</v>
       </c>
       <c r="G57" s="93"/>
-      <c r="H57" s="147"/>
+      <c r="H57" s="151"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="88">
@@ -12579,7 +12638,7 @@
         <v>1156</v>
       </c>
       <c r="G58" s="93"/>
-      <c r="H58" s="147"/>
+      <c r="H58" s="151"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="88">
@@ -12599,7 +12658,7 @@
         <v>1157</v>
       </c>
       <c r="G59" s="93"/>
-      <c r="H59" s="147"/>
+      <c r="H59" s="151"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="88">
@@ -12619,7 +12678,7 @@
         <v>1158</v>
       </c>
       <c r="G60" s="93"/>
-      <c r="H60" s="147"/>
+      <c r="H60" s="151"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="88">
@@ -12639,7 +12698,7 @@
         <v>1159</v>
       </c>
       <c r="G61" s="93"/>
-      <c r="H61" s="147"/>
+      <c r="H61" s="151"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="88">
@@ -12659,7 +12718,7 @@
         <v>1160</v>
       </c>
       <c r="G62" s="93"/>
-      <c r="H62" s="147"/>
+      <c r="H62" s="151"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="88">
@@ -12679,7 +12738,7 @@
         <v>1161</v>
       </c>
       <c r="G63" s="93"/>
-      <c r="H63" s="147"/>
+      <c r="H63" s="151"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="88">
@@ -12699,7 +12758,7 @@
         <v>1162</v>
       </c>
       <c r="G64" s="93"/>
-      <c r="H64" s="147"/>
+      <c r="H64" s="151"/>
     </row>
     <row r="65" spans="1:8" ht="14.25" thickBot="1">
       <c r="A65" s="89">
@@ -12719,7 +12778,7 @@
         <v>1163</v>
       </c>
       <c r="G65" s="94"/>
-      <c r="H65" s="148"/>
+      <c r="H65" s="152"/>
     </row>
     <row r="66" spans="1:8">
       <c r="G66" s="85"/>
@@ -12929,7 +12988,7 @@
       <c r="B2" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="153" t="s">
         <v>1201</v>
       </c>
       <c r="D2" s="109" t="s">
@@ -12941,7 +13000,7 @@
       <c r="B3" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C3" s="150"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="111" t="s">
         <v>1187</v>
       </c>
@@ -12953,7 +13012,7 @@
       <c r="B4" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="153" t="s">
         <v>1202</v>
       </c>
       <c r="D4" s="109" t="s">
@@ -12965,7 +13024,7 @@
       <c r="B5" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C5" s="150"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="111" t="s">
         <v>1193</v>
       </c>
@@ -12977,7 +13036,7 @@
       <c r="B6" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="153" t="s">
         <v>1203</v>
       </c>
       <c r="D6" s="109" t="s">
@@ -12989,7 +13048,7 @@
       <c r="B7" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C7" s="150"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="111" t="s">
         <v>1195</v>
       </c>
@@ -13001,7 +13060,7 @@
       <c r="B8" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C8" s="149" t="s">
+      <c r="C8" s="153" t="s">
         <v>1204</v>
       </c>
       <c r="D8" s="109" t="s">
@@ -13013,7 +13072,7 @@
       <c r="B9" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C9" s="150"/>
+      <c r="C9" s="154"/>
       <c r="D9" s="111" t="s">
         <v>1197</v>
       </c>
@@ -13025,7 +13084,7 @@
       <c r="B10" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C10" s="149" t="s">
+      <c r="C10" s="153" t="s">
         <v>1205</v>
       </c>
       <c r="D10" s="109" t="s">
@@ -13037,7 +13096,7 @@
       <c r="B11" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C11" s="150"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="111" t="s">
         <v>1199</v>
       </c>
@@ -13049,7 +13108,7 @@
       <c r="B12" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="153" t="s">
         <v>1489</v>
       </c>
       <c r="D12" s="109" t="s">
@@ -13061,7 +13120,7 @@
       <c r="B13" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C13" s="150"/>
+      <c r="C13" s="154"/>
       <c r="D13" s="111" t="s">
         <v>1490</v>
       </c>
@@ -13073,7 +13132,7 @@
       <c r="B14" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="153" t="s">
         <v>1563</v>
       </c>
       <c r="D14" s="109" t="s">
@@ -13085,7 +13144,7 @@
       <c r="B15" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C15" s="150"/>
+      <c r="C15" s="154"/>
       <c r="D15" s="111" t="s">
         <v>1565</v>
       </c>
@@ -14855,22 +14914,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="125" t="s">
         <v>1434</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="125" t="s">
         <v>1446</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121" t="s">
+      <c r="G1" s="125"/>
+      <c r="H1" s="125" t="s">
         <v>1447</v>
       </c>
-      <c r="I1" s="121"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
@@ -14955,8 +15014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15157,6 +15216,71 @@
     <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>1574</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="85" customFormat="1">
+      <c r="A1" s="123" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="67.5">
+      <c r="A2" s="120">
+        <v>42846</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D2" s="122" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27">
+      <c r="A3" s="120">
+        <v>42847</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>1587</v>
       </c>
     </row>
   </sheetData>
@@ -15211,22 +15335,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -15777,12 +15901,12 @@
       <c r="H27" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="22.5">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="18"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -15790,10 +15914,10 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="22.5">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="18"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -15846,7 +15970,7 @@
       <c r="H32" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="I32" s="125" t="s">
+      <c r="I32" s="129" t="s">
         <v>329</v>
       </c>
     </row>
@@ -15873,7 +15997,7 @@
       <c r="H33" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="I33" s="125"/>
+      <c r="I33" s="129"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
@@ -15898,7 +16022,7 @@
       <c r="H34" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="I34" s="125"/>
+      <c r="I34" s="129"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6">
@@ -15923,7 +16047,7 @@
       <c r="H35" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="I35" s="125"/>
+      <c r="I35" s="129"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6">
@@ -15946,7 +16070,7 @@
         <v>174</v>
       </c>
       <c r="H36" s="13"/>
-      <c r="I36" s="125"/>
+      <c r="I36" s="129"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6">
@@ -15969,7 +16093,7 @@
         <v>175</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="125"/>
+      <c r="I37" s="129"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6">
@@ -15994,7 +16118,7 @@
       <c r="H38" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="I38" s="125"/>
+      <c r="I38" s="129"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6">
@@ -16019,7 +16143,7 @@
       <c r="H39" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="I39" s="125"/>
+      <c r="I39" s="129"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
@@ -16044,7 +16168,7 @@
       <c r="H40" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I40" s="125"/>
+      <c r="I40" s="129"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6">
@@ -16069,7 +16193,7 @@
       <c r="H41" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="I41" s="125"/>
+      <c r="I41" s="129"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6">
@@ -16094,7 +16218,7 @@
       <c r="H42" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="I42" s="125"/>
+      <c r="I42" s="129"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6">
@@ -16117,7 +16241,7 @@
         <v>181</v>
       </c>
       <c r="H43" s="14"/>
-      <c r="I43" s="125"/>
+      <c r="I43" s="129"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
@@ -16142,7 +16266,7 @@
       <c r="H44" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="I44" s="125"/>
+      <c r="I44" s="129"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6">
@@ -16167,7 +16291,7 @@
       <c r="H45" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="I45" s="125"/>
+      <c r="I45" s="129"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
@@ -16192,7 +16316,7 @@
       <c r="H46" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="I46" s="125"/>
+      <c r="I46" s="129"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6">
@@ -16217,7 +16341,7 @@
       <c r="H47" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="I47" s="125"/>
+      <c r="I47" s="129"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
@@ -16242,7 +16366,7 @@
       <c r="H48" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="I48" s="125"/>
+      <c r="I48" s="129"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6">
@@ -16267,7 +16391,7 @@
       <c r="H49" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="I49" s="125"/>
+      <c r="I49" s="129"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6">
@@ -16292,7 +16416,7 @@
       <c r="H50" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="I50" s="125"/>
+      <c r="I50" s="129"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6">
@@ -16317,7 +16441,7 @@
       <c r="H51" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="I51" s="125"/>
+      <c r="I51" s="129"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6">
@@ -16342,7 +16466,7 @@
       <c r="H52" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="I52" s="125"/>
+      <c r="I52" s="129"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6">
@@ -16367,7 +16491,7 @@
       <c r="H53" s="100" t="s">
         <v>1173</v>
       </c>
-      <c r="I53" s="125"/>
+      <c r="I53" s="129"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6">
@@ -16392,7 +16516,7 @@
       <c r="H54" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="I54" s="125"/>
+      <c r="I54" s="129"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6">
@@ -16417,7 +16541,7 @@
       <c r="H55" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I55" s="125"/>
+      <c r="I55" s="129"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6">
@@ -16436,7 +16560,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="125"/>
+      <c r="I56" s="129"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6">
@@ -16455,7 +16579,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="125"/>
+      <c r="I57" s="129"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6">
@@ -16474,7 +16598,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="125"/>
+      <c r="I58" s="129"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6">
@@ -16493,7 +16617,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="125"/>
+      <c r="I59" s="129"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6">
@@ -16512,7 +16636,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="125"/>
+      <c r="I60" s="129"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6">
@@ -16531,7 +16655,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="125"/>
+      <c r="I61" s="129"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6">
@@ -16550,7 +16674,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="125"/>
+      <c r="I62" s="129"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6">
@@ -16569,7 +16693,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="125"/>
+      <c r="I63" s="129"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6">
@@ -16588,7 +16712,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="125"/>
+      <c r="I64" s="129"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6">
@@ -16607,7 +16731,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="125"/>
+      <c r="I65" s="129"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6">
@@ -16626,7 +16750,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="125"/>
+      <c r="I66" s="129"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6">
@@ -16645,7 +16769,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="125"/>
+      <c r="I67" s="129"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22">
@@ -16670,7 +16794,7 @@
       <c r="H68" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I68" s="125" t="s">
+      <c r="I68" s="129" t="s">
         <v>328</v>
       </c>
     </row>
@@ -16697,7 +16821,7 @@
       <c r="H69" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="I69" s="125"/>
+      <c r="I69" s="129"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="22">
@@ -16722,7 +16846,7 @@
       <c r="H70" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="I70" s="125"/>
+      <c r="I70" s="129"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
@@ -16747,7 +16871,7 @@
       <c r="H71" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="I71" s="125"/>
+      <c r="I71" s="129"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="22">
@@ -16772,7 +16896,7 @@
       <c r="H72" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="I72" s="125"/>
+      <c r="I72" s="129"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="22">
@@ -16797,7 +16921,7 @@
       <c r="H73" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="I73" s="125"/>
+      <c r="I73" s="129"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="22">
@@ -16822,7 +16946,7 @@
       <c r="H74" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="I74" s="125"/>
+      <c r="I74" s="129"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="22">
@@ -16847,7 +16971,7 @@
       <c r="H75" s="100" t="s">
         <v>1175</v>
       </c>
-      <c r="I75" s="125"/>
+      <c r="I75" s="129"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="22">
@@ -16866,7 +16990,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="125" t="s">
+      <c r="I76" s="129" t="s">
         <v>577</v>
       </c>
     </row>
@@ -16887,7 +17011,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="125"/>
+      <c r="I77" s="129"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="22">
@@ -16906,7 +17030,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="125"/>
+      <c r="I78" s="129"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="22">
@@ -16925,7 +17049,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="125"/>
+      <c r="I79" s="129"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="22">
@@ -16944,7 +17068,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="125"/>
+      <c r="I80" s="129"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="22">
@@ -16961,7 +17085,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="125"/>
+      <c r="I81" s="129"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="22">
@@ -16980,7 +17104,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="125"/>
+      <c r="I82" s="129"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22">
@@ -16999,7 +17123,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="125"/>
+      <c r="I83" s="129"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="22">
@@ -17018,7 +17142,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="125"/>
+      <c r="I84" s="129"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="22">
@@ -17037,7 +17161,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="125"/>
+      <c r="I85" s="129"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="22">
@@ -17056,7 +17180,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="125"/>
+      <c r="I86" s="129"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="22">
@@ -17075,7 +17199,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="125"/>
+      <c r="I87" s="129"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="22">
@@ -17094,7 +17218,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="125"/>
+      <c r="I88" s="129"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="22">
@@ -17113,7 +17237,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="125"/>
+      <c r="I89" s="129"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="22">
@@ -17132,7 +17256,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="125"/>
+      <c r="I90" s="129"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="22">
@@ -17151,7 +17275,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="125"/>
+      <c r="I91" s="129"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="22">
@@ -17170,7 +17294,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="122" t="s">
+      <c r="I92" s="126" t="s">
         <v>578</v>
       </c>
     </row>
@@ -17191,7 +17315,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="123"/>
+      <c r="I93" s="127"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="22">
@@ -17210,7 +17334,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="123"/>
+      <c r="I94" s="127"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="22">
@@ -17229,7 +17353,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="123"/>
+      <c r="I95" s="127"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="22">
@@ -17248,7 +17372,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="123"/>
+      <c r="I96" s="127"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="22">
@@ -17267,7 +17391,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="123"/>
+      <c r="I97" s="127"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="22">
@@ -17286,7 +17410,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="123"/>
+      <c r="I98" s="127"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="22">
@@ -17305,7 +17429,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="20"/>
-      <c r="I99" s="123"/>
+      <c r="I99" s="127"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="22">
@@ -17324,7 +17448,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="123"/>
+      <c r="I100" s="127"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="22">
@@ -17343,7 +17467,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="123"/>
+      <c r="I101" s="127"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="22">
@@ -17362,7 +17486,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="123"/>
+      <c r="I102" s="127"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="22">
@@ -17381,7 +17505,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="123"/>
+      <c r="I103" s="127"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="22">
@@ -17398,7 +17522,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="123"/>
+      <c r="I104" s="127"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="22">
@@ -17415,7 +17539,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="123"/>
+      <c r="I105" s="127"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="22">
@@ -17432,7 +17556,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="123"/>
+      <c r="I106" s="127"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="22">
@@ -17449,7 +17573,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="20"/>
-      <c r="I107" s="124"/>
+      <c r="I107" s="128"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="63"/>
@@ -17463,12 +17587,12 @@
       <c r="I108" s="65"/>
     </row>
     <row r="110" spans="1:9" ht="22.5">
-      <c r="A110" s="126" t="s">
+      <c r="A110" s="130" t="s">
         <v>286</v>
       </c>
-      <c r="B110" s="126"/>
-      <c r="C110" s="126"/>
-      <c r="D110" s="126"/>
+      <c r="B110" s="130"/>
+      <c r="C110" s="130"/>
+      <c r="D110" s="130"/>
       <c r="E110" s="18"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -17476,10 +17600,10 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="22.5">
-      <c r="A111" s="126"/>
-      <c r="B111" s="126"/>
-      <c r="C111" s="126"/>
-      <c r="D111" s="126"/>
+      <c r="A111" s="130"/>
+      <c r="B111" s="130"/>
+      <c r="C111" s="130"/>
+      <c r="D111" s="130"/>
       <c r="E111" s="18"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -17499,7 +17623,7 @@
       <c r="D112" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E112" s="122" t="s">
+      <c r="E112" s="126" t="s">
         <v>326</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -17511,7 +17635,7 @@
       <c r="H112" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I112" s="125" t="s">
+      <c r="I112" s="129" t="s">
         <v>327</v>
       </c>
     </row>
@@ -17528,7 +17652,7 @@
       <c r="D113" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="E113" s="123"/>
+      <c r="E113" s="127"/>
       <c r="F113" s="1" t="s">
         <v>322</v>
       </c>
@@ -17538,7 +17662,7 @@
       <c r="H113" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="I113" s="125"/>
+      <c r="I113" s="129"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6">
@@ -17553,7 +17677,7 @@
       <c r="D114" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="E114" s="123"/>
+      <c r="E114" s="127"/>
       <c r="F114" s="1" t="s">
         <v>103</v>
       </c>
@@ -17563,7 +17687,7 @@
       <c r="H114" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="I114" s="125"/>
+      <c r="I114" s="129"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6">
@@ -17578,7 +17702,7 @@
       <c r="D115" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="E115" s="123"/>
+      <c r="E115" s="127"/>
       <c r="F115" s="1" t="s">
         <v>105</v>
       </c>
@@ -17588,7 +17712,7 @@
       <c r="H115" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="I115" s="125"/>
+      <c r="I115" s="129"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6">
@@ -17603,7 +17727,7 @@
       <c r="D116" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="E116" s="123"/>
+      <c r="E116" s="127"/>
       <c r="F116" s="1" t="s">
         <v>107</v>
       </c>
@@ -17611,7 +17735,7 @@
         <v>308</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="125"/>
+      <c r="I116" s="129"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6">
@@ -17626,7 +17750,7 @@
       <c r="D117" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="E117" s="123"/>
+      <c r="E117" s="127"/>
       <c r="F117" s="1" t="s">
         <v>109</v>
       </c>
@@ -17634,7 +17758,7 @@
         <v>309</v>
       </c>
       <c r="H117" s="19"/>
-      <c r="I117" s="125"/>
+      <c r="I117" s="129"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6">
@@ -17649,7 +17773,7 @@
       <c r="D118" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E118" s="123"/>
+      <c r="E118" s="127"/>
       <c r="F118" s="1" t="s">
         <v>111</v>
       </c>
@@ -17657,7 +17781,7 @@
         <v>310</v>
       </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="125"/>
+      <c r="I118" s="129"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6">
@@ -17672,7 +17796,7 @@
       <c r="D119" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E119" s="123"/>
+      <c r="E119" s="127"/>
       <c r="F119" s="1" t="s">
         <v>113</v>
       </c>
@@ -17680,7 +17804,7 @@
         <v>311</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="125"/>
+      <c r="I119" s="129"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6">
@@ -17695,7 +17819,7 @@
       <c r="D120" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E120" s="123"/>
+      <c r="E120" s="127"/>
       <c r="F120" s="1" t="s">
         <v>115</v>
       </c>
@@ -17703,7 +17827,7 @@
         <v>312</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="125"/>
+      <c r="I120" s="129"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6">
@@ -17718,7 +17842,7 @@
       <c r="D121" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="E121" s="123"/>
+      <c r="E121" s="127"/>
       <c r="F121" s="1" t="s">
         <v>117</v>
       </c>
@@ -17726,7 +17850,7 @@
         <v>313</v>
       </c>
       <c r="H121" s="4"/>
-      <c r="I121" s="125"/>
+      <c r="I121" s="129"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6">
@@ -17739,7 +17863,7 @@
         <v>300</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="123"/>
+      <c r="E122" s="127"/>
       <c r="F122" s="1" t="s">
         <v>119</v>
       </c>
@@ -17747,7 +17871,7 @@
         <v>314</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="125"/>
+      <c r="I122" s="129"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6">
@@ -17760,7 +17884,7 @@
         <v>301</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="123"/>
+      <c r="E123" s="127"/>
       <c r="F123" s="1" t="s">
         <v>121</v>
       </c>
@@ -17768,7 +17892,7 @@
         <v>315</v>
       </c>
       <c r="H123" s="4"/>
-      <c r="I123" s="125"/>
+      <c r="I123" s="129"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6">
@@ -17781,7 +17905,7 @@
         <v>302</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="123"/>
+      <c r="E124" s="127"/>
       <c r="F124" s="1" t="s">
         <v>123</v>
       </c>
@@ -17789,7 +17913,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="125"/>
+      <c r="I124" s="129"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6">
@@ -17802,7 +17926,7 @@
         <v>303</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="123"/>
+      <c r="E125" s="127"/>
       <c r="F125" s="1" t="s">
         <v>125</v>
       </c>
@@ -17810,7 +17934,7 @@
         <v>317</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="I125" s="125"/>
+      <c r="I125" s="129"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6">
@@ -17823,7 +17947,7 @@
         <v>304</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="123"/>
+      <c r="E126" s="127"/>
       <c r="F126" s="1" t="s">
         <v>127</v>
       </c>
@@ -17831,7 +17955,7 @@
         <v>318</v>
       </c>
       <c r="H126" s="4"/>
-      <c r="I126" s="125"/>
+      <c r="I126" s="129"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6">
@@ -17844,7 +17968,7 @@
         <v>305</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="123"/>
+      <c r="E127" s="127"/>
       <c r="F127" s="1" t="s">
         <v>129</v>
       </c>
@@ -17852,7 +17976,7 @@
         <v>319</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="125"/>
+      <c r="I127" s="129"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6">
@@ -17865,7 +17989,7 @@
         <v>321</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="124"/>
+      <c r="E128" s="128"/>
       <c r="F128" s="1" t="s">
         <v>323</v>
       </c>
@@ -17873,7 +17997,7 @@
         <v>325</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="125"/>
+      <c r="I128" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -18283,12 +18407,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="137" t="s">
         <v>1274</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -18302,10 +18426,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="135"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="29" t="s">
         <v>1273</v>
       </c>
@@ -18319,20 +18443,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="140" t="s">
         <v>1271</v>
       </c>
-      <c r="K3" s="135"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="139" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="135"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="32" t="s">
         <v>1270</v>
       </c>
@@ -18344,18 +18468,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="135" t="s">
+      <c r="J4" s="140" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="135"/>
+      <c r="K4" s="140"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="141" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -18365,10 +18489,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="140" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="135"/>
+      <c r="K5" s="140"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -18394,14 +18518,14 @@
       <c r="B7" s="43" t="s">
         <v>1267</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="134" t="s">
         <v>1266</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134" t="s">
         <v>1265</v>
       </c>
-      <c r="F7" s="138"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="106" t="s">
         <v>1264</v>
       </c>
@@ -18417,17 +18541,17 @@
       <c r="K7" s="44" t="s">
         <v>1260</v>
       </c>
-      <c r="L7" s="127" t="s">
+      <c r="L7" s="135" t="s">
         <v>1259</v>
       </c>
-      <c r="M7" s="127"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="136" t="s">
         <v>1258</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -18461,7 +18585,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="128"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="46" t="s">
         <v>1253</v>
       </c>
@@ -18491,7 +18615,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="128"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="52" t="s">
         <v>1249</v>
       </c>
@@ -18521,7 +18645,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="128"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="52" t="s">
         <v>1246</v>
       </c>
@@ -18551,7 +18675,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="128"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="52" t="s">
         <v>1246</v>
       </c>
@@ -18580,7 +18704,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="128"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -18609,7 +18733,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="128"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -18636,7 +18760,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="128"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -18663,7 +18787,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="128"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -18690,7 +18814,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="128"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -18719,7 +18843,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="128"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -18746,7 +18870,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="128"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -18771,7 +18895,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="128"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -18798,7 +18922,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="128"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -18825,7 +18949,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="128"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -18854,7 +18978,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="128"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -18883,7 +19007,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="128"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -18912,7 +19036,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="128"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -18941,7 +19065,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="128"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="54" t="s">
         <v>1241</v>
       </c>
@@ -18966,7 +19090,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="128"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="54" t="s">
         <v>1240</v>
       </c>
@@ -18991,7 +19115,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="128"/>
+      <c r="C28" s="136"/>
       <c r="D28" s="79" t="s">
         <v>1239</v>
       </c>
@@ -19018,7 +19142,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="128"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="54" t="s">
         <v>1236</v>
       </c>
@@ -19047,7 +19171,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="128"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -19074,7 +19198,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="128"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -19103,7 +19227,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="128"/>
+      <c r="C32" s="136"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -19128,7 +19252,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="128"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -19157,7 +19281,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="131" t="s">
         <v>1234</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -19188,7 +19312,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="129"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -19217,7 +19341,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="129"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -19246,7 +19370,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="129"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -19275,7 +19399,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="129"/>
+      <c r="C38" s="131"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -19304,7 +19428,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="129"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -19333,7 +19457,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="129"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -19362,7 +19486,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="129"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -19391,7 +19515,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="129"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -19420,7 +19544,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="129"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -19449,7 +19573,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="129"/>
+      <c r="C44" s="131"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -19480,7 +19604,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="129"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -19509,7 +19633,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="132" t="s">
         <v>1232</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -19538,7 +19662,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="131"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -19565,7 +19689,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="131"/>
+      <c r="C48" s="133"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -19594,7 +19718,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="131"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -19623,7 +19747,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="129" t="s">
+      <c r="C50" s="131" t="s">
         <v>1230</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -19652,7 +19776,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="129"/>
+      <c r="C51" s="131"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -19677,7 +19801,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="129"/>
+      <c r="C52" s="131"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -19704,7 +19828,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="129"/>
+      <c r="C53" s="131"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -19731,7 +19855,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="129"/>
+      <c r="C54" s="131"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -19758,7 +19882,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="129"/>
+      <c r="C55" s="131"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -19781,7 +19905,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="129"/>
+      <c r="C56" s="131"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -19804,7 +19928,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="129"/>
+      <c r="C57" s="131"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -19831,7 +19955,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="129"/>
+      <c r="C58" s="131"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -19854,7 +19978,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="129"/>
+      <c r="C59" s="131"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -19881,7 +20005,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="129"/>
+      <c r="C60" s="131"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -19906,7 +20030,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="129"/>
+      <c r="C61" s="131"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -19931,7 +20055,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="129"/>
+      <c r="C62" s="131"/>
       <c r="D62" s="53" t="s">
         <v>1229</v>
       </c>
@@ -19962,7 +20086,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="129"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -19989,7 +20113,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="129"/>
+      <c r="C64" s="131"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -20016,7 +20140,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="129"/>
+      <c r="C65" s="131"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -20043,7 +20167,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="129"/>
+      <c r="C66" s="131"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -20070,7 +20194,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="129"/>
+      <c r="C67" s="131"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -20097,7 +20221,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="129"/>
+      <c r="C68" s="131"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -20124,7 +20248,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="129"/>
+      <c r="C69" s="131"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -20151,7 +20275,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="129"/>
+      <c r="C70" s="131"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -20180,7 +20304,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="129"/>
+      <c r="C71" s="131"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -20211,7 +20335,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="129"/>
+      <c r="C72" s="131"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -20236,7 +20360,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="129"/>
+      <c r="C73" s="131"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -20263,7 +20387,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="129"/>
+      <c r="C74" s="131"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -20290,7 +20414,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="129"/>
+      <c r="C75" s="131"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -20317,7 +20441,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="129"/>
+      <c r="C76" s="131"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -20344,7 +20468,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="129"/>
+      <c r="C77" s="131"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -20373,7 +20497,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="129"/>
+      <c r="C78" s="131"/>
       <c r="D78" s="82" t="s">
         <v>1221</v>
       </c>
@@ -20400,7 +20524,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="129"/>
+      <c r="C79" s="131"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -20427,7 +20551,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="129"/>
+      <c r="C80" s="131"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -20456,7 +20580,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="129"/>
+      <c r="C81" s="131"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -20485,7 +20609,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="129"/>
+      <c r="C82" s="131"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -20514,7 +20638,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="129"/>
+      <c r="C83" s="131"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -20543,7 +20667,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="129"/>
+      <c r="C84" s="131"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -20572,7 +20696,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="129"/>
+      <c r="C85" s="131"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -20601,7 +20725,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="129"/>
+      <c r="C86" s="131"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -20630,7 +20754,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="129"/>
+      <c r="C87" s="131"/>
       <c r="D87" s="53" t="s">
         <v>1219</v>
       </c>
@@ -20661,7 +20785,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="129"/>
+      <c r="C88" s="131"/>
       <c r="D88" s="53" t="s">
         <v>1217</v>
       </c>
@@ -20692,7 +20816,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="129"/>
+      <c r="C89" s="131"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -20723,7 +20847,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="129"/>
+      <c r="C90" s="131"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -20754,7 +20878,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="129"/>
+      <c r="C91" s="131"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -20783,7 +20907,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="130" t="s">
+      <c r="C92" s="132" t="s">
         <v>1211</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -20810,7 +20934,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="131"/>
+      <c r="C93" s="133"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -20835,7 +20959,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="131"/>
+      <c r="C94" s="133"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -20860,7 +20984,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="131"/>
+      <c r="C95" s="133"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -20885,7 +21009,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="131"/>
+      <c r="C96" s="133"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -20912,7 +21036,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="131"/>
+      <c r="C97" s="133"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -20939,7 +21063,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="129" t="s">
+      <c r="C98" s="131" t="s">
         <v>1209</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -20966,7 +21090,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="129"/>
+      <c r="C99" s="131"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -20991,7 +21115,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="129"/>
+      <c r="C100" s="131"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -21016,7 +21140,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="129"/>
+      <c r="C101" s="131"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -21045,7 +21169,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="129"/>
+      <c r="C102" s="131"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -21068,7 +21192,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="129"/>
+      <c r="C103" s="131"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -21091,7 +21215,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="129"/>
+      <c r="C104" s="131"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -21112,7 +21236,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="129"/>
+      <c r="C105" s="131"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -21133,7 +21257,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="129"/>
+      <c r="C106" s="131"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -21154,7 +21278,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="129"/>
+      <c r="C107" s="131"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -21175,7 +21299,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="129"/>
+      <c r="C108" s="131"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -21196,7 +21320,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="129"/>
+      <c r="C109" s="131"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -21217,7 +21341,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="129"/>
+      <c r="C110" s="131"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -21238,7 +21362,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="129"/>
+      <c r="C111" s="131"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -21259,7 +21383,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="129"/>
+      <c r="C112" s="131"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -21280,7 +21404,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="129"/>
+      <c r="C113" s="131"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -21301,7 +21425,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="129"/>
+      <c r="C114" s="131"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -21322,7 +21446,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="129"/>
+      <c r="C115" s="131"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -21343,7 +21467,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="129"/>
+      <c r="C116" s="131"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -21364,7 +21488,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="129"/>
+      <c r="C117" s="131"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -21385,7 +21509,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="129"/>
+      <c r="C118" s="131"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -21406,7 +21530,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="129"/>
+      <c r="C119" s="131"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -21431,11 +21555,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -21447,6 +21566,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -21490,7 +21614,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="129" t="s">
         <v>607</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -21501,7 +21625,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="125"/>
+      <c r="A2" s="129"/>
       <c r="B2" s="1" t="s">
         <v>605</v>
       </c>
@@ -21510,7 +21634,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="125"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="1" t="s">
         <v>606</v>
       </c>
@@ -21519,7 +21643,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="129" t="s">
         <v>606</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -21530,7 +21654,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="125"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="1" t="s">
         <v>608</v>
       </c>
@@ -21539,7 +21663,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="125"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="1" t="s">
         <v>609</v>
       </c>
@@ -21548,7 +21672,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="125"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="1" t="s">
         <v>610</v>
       </c>
@@ -21557,7 +21681,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="129" t="s">
         <v>611</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -21568,7 +21692,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="125"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="1" t="s">
         <v>613</v>
       </c>
@@ -21626,7 +21750,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="122">
+      <c r="A3" s="126">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -21641,7 +21765,7 @@
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="123"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -21656,7 +21780,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="123"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -21671,7 +21795,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="123"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -21686,7 +21810,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="123"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -21701,7 +21825,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="123"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -21716,7 +21840,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="123"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -21731,7 +21855,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="123"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -21742,7 +21866,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="123"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -21753,7 +21877,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="124"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -21788,7 +21912,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="122">
+      <c r="A15" s="126">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -21803,7 +21927,7 @@
       <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="123"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -21818,7 +21942,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="123"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -21833,7 +21957,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="123"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -21848,7 +21972,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="123"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -21863,7 +21987,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="123"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -21878,7 +22002,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="123"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -21893,7 +22017,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="123"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -21904,7 +22028,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="123"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -21915,7 +22039,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="124"/>
+      <c r="A24" s="128"/>
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -21950,7 +22074,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="122">
+      <c r="A27" s="126">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -21965,7 +22089,7 @@
       <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="123"/>
+      <c r="A28" s="127"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -21980,7 +22104,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="123"/>
+      <c r="A29" s="127"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -21995,7 +22119,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="123"/>
+      <c r="A30" s="127"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -22010,7 +22134,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="123"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -22025,7 +22149,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="123"/>
+      <c r="A32" s="127"/>
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -22040,7 +22164,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="123"/>
+      <c r="A33" s="127"/>
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -22055,7 +22179,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="123"/>
+      <c r="A34" s="127"/>
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -22070,7 +22194,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="123"/>
+      <c r="A35" s="127"/>
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -22081,7 +22205,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="124"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -22116,7 +22240,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="122">
+      <c r="A39" s="126">
         <v>4</v>
       </c>
       <c r="B39" s="1">
@@ -22131,7 +22255,7 @@
       <c r="E39" s="66"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="123"/>
+      <c r="A40" s="127"/>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -22146,7 +22270,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="123"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -22161,7 +22285,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="123"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="1">
         <v>4</v>
       </c>
@@ -22176,7 +22300,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="123"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="1">
         <v>5</v>
       </c>
@@ -22191,7 +22315,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="123"/>
+      <c r="A44" s="127"/>
       <c r="B44" s="1">
         <v>6</v>
       </c>
@@ -22206,7 +22330,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="123"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="1">
         <v>7</v>
       </c>
@@ -22217,7 +22341,7 @@
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="123"/>
+      <c r="A46" s="127"/>
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -22228,7 +22352,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="123"/>
+      <c r="A47" s="127"/>
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -22239,7 +22363,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="124"/>
+      <c r="A48" s="128"/>
       <c r="B48" s="1">
         <v>10</v>
       </c>
@@ -22274,7 +22398,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="122">
+      <c r="A51" s="126">
         <v>5</v>
       </c>
       <c r="B51" s="1">
@@ -22289,7 +22413,7 @@
       <c r="E51" s="66"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="123"/>
+      <c r="A52" s="127"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -22304,7 +22428,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="123"/>
+      <c r="A53" s="127"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -22319,7 +22443,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="123"/>
+      <c r="A54" s="127"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -22334,7 +22458,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="123"/>
+      <c r="A55" s="127"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -22349,7 +22473,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="123"/>
+      <c r="A56" s="127"/>
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -22364,7 +22488,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="123"/>
+      <c r="A57" s="127"/>
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -22379,7 +22503,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="123"/>
+      <c r="A58" s="127"/>
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -22394,7 +22518,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="123"/>
+      <c r="A59" s="127"/>
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -22409,7 +22533,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="124"/>
+      <c r="A60" s="128"/>
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -22444,7 +22568,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="122">
+      <c r="A63" s="126">
         <v>6</v>
       </c>
       <c r="B63" s="1">
@@ -22459,7 +22583,7 @@
       <c r="E63" s="66"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="123"/>
+      <c r="A64" s="127"/>
       <c r="B64" s="1">
         <v>2</v>
       </c>
@@ -22474,7 +22598,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="123"/>
+      <c r="A65" s="127"/>
       <c r="B65" s="1">
         <v>3</v>
       </c>
@@ -22489,7 +22613,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="123"/>
+      <c r="A66" s="127"/>
       <c r="B66" s="1">
         <v>4</v>
       </c>
@@ -22504,7 +22628,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="123"/>
+      <c r="A67" s="127"/>
       <c r="B67" s="1">
         <v>5</v>
       </c>
@@ -22519,7 +22643,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="123"/>
+      <c r="A68" s="127"/>
       <c r="B68" s="1">
         <v>6</v>
       </c>
@@ -22534,7 +22658,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="123"/>
+      <c r="A69" s="127"/>
       <c r="B69" s="1">
         <v>7</v>
       </c>
@@ -22549,7 +22673,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="123"/>
+      <c r="A70" s="127"/>
       <c r="B70" s="1">
         <v>8</v>
       </c>
@@ -22564,7 +22688,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="123"/>
+      <c r="A71" s="127"/>
       <c r="B71" s="1">
         <v>9</v>
       </c>
@@ -22579,7 +22703,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="124"/>
+      <c r="A72" s="128"/>
       <c r="B72" s="1">
         <v>10</v>
       </c>
@@ -22614,7 +22738,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="122">
+      <c r="A75" s="126">
         <v>7</v>
       </c>
       <c r="B75" s="1">
@@ -22629,7 +22753,7 @@
       <c r="E75" s="66"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="123"/>
+      <c r="A76" s="127"/>
       <c r="B76" s="1">
         <v>2</v>
       </c>
@@ -22644,7 +22768,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="123"/>
+      <c r="A77" s="127"/>
       <c r="B77" s="1">
         <v>3</v>
       </c>
@@ -22659,7 +22783,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="123"/>
+      <c r="A78" s="127"/>
       <c r="B78" s="1">
         <v>4</v>
       </c>
@@ -22674,7 +22798,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="123"/>
+      <c r="A79" s="127"/>
       <c r="B79" s="1">
         <v>5</v>
       </c>
@@ -22689,7 +22813,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="123"/>
+      <c r="A80" s="127"/>
       <c r="B80" s="1">
         <v>6</v>
       </c>
@@ -22704,7 +22828,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="123"/>
+      <c r="A81" s="127"/>
       <c r="B81" s="1">
         <v>7</v>
       </c>
@@ -22719,7 +22843,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="123"/>
+      <c r="A82" s="127"/>
       <c r="B82" s="1">
         <v>8</v>
       </c>
@@ -22734,7 +22858,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="123"/>
+      <c r="A83" s="127"/>
       <c r="B83" s="1">
         <v>9</v>
       </c>
@@ -22749,7 +22873,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="124"/>
+      <c r="A84" s="128"/>
       <c r="B84" s="1">
         <v>10</v>
       </c>
@@ -22784,7 +22908,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="122">
+      <c r="A87" s="126">
         <v>8</v>
       </c>
       <c r="B87" s="1">
@@ -22799,7 +22923,7 @@
       <c r="E87" s="66"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="123"/>
+      <c r="A88" s="127"/>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -22814,7 +22938,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="123"/>
+      <c r="A89" s="127"/>
       <c r="B89" s="1">
         <v>3</v>
       </c>
@@ -22829,7 +22953,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="123"/>
+      <c r="A90" s="127"/>
       <c r="B90" s="1">
         <v>4</v>
       </c>
@@ -22844,7 +22968,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="123"/>
+      <c r="A91" s="127"/>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -22859,7 +22983,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="123"/>
+      <c r="A92" s="127"/>
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -22874,7 +22998,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="123"/>
+      <c r="A93" s="127"/>
       <c r="B93" s="1">
         <v>7</v>
       </c>
@@ -22889,7 +23013,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="123"/>
+      <c r="A94" s="127"/>
       <c r="B94" s="1">
         <v>8</v>
       </c>
@@ -22900,7 +23024,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="123"/>
+      <c r="A95" s="127"/>
       <c r="B95" s="1">
         <v>9</v>
       </c>
@@ -22911,7 +23035,7 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="124"/>
+      <c r="A96" s="128"/>
       <c r="B96" s="1">
         <v>10</v>
       </c>
@@ -22946,7 +23070,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="122">
+      <c r="A99" s="126">
         <v>9</v>
       </c>
       <c r="B99" s="1">
@@ -22961,7 +23085,7 @@
       <c r="E99" s="66"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="123"/>
+      <c r="A100" s="127"/>
       <c r="B100" s="1">
         <v>2</v>
       </c>
@@ -22976,7 +23100,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="123"/>
+      <c r="A101" s="127"/>
       <c r="B101" s="1">
         <v>3</v>
       </c>
@@ -22991,7 +23115,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="123"/>
+      <c r="A102" s="127"/>
       <c r="B102" s="1">
         <v>4</v>
       </c>
@@ -23006,7 +23130,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="123"/>
+      <c r="A103" s="127"/>
       <c r="B103" s="1">
         <v>5</v>
       </c>
@@ -23021,7 +23145,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="123"/>
+      <c r="A104" s="127"/>
       <c r="B104" s="1">
         <v>6</v>
       </c>
@@ -23036,7 +23160,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="123"/>
+      <c r="A105" s="127"/>
       <c r="B105" s="1">
         <v>7</v>
       </c>
@@ -23051,7 +23175,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="123"/>
+      <c r="A106" s="127"/>
       <c r="B106" s="1">
         <v>8</v>
       </c>
@@ -23062,7 +23186,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="123"/>
+      <c r="A107" s="127"/>
       <c r="B107" s="1">
         <v>9</v>
       </c>
@@ -23073,7 +23197,7 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="124"/>
+      <c r="A108" s="128"/>
       <c r="B108" s="1">
         <v>10</v>
       </c>
@@ -23108,7 +23232,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="122">
+      <c r="A111" s="126">
         <v>10</v>
       </c>
       <c r="B111" s="1">
@@ -23123,7 +23247,7 @@
       <c r="E111" s="66"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="123"/>
+      <c r="A112" s="127"/>
       <c r="B112" s="1">
         <v>2</v>
       </c>
@@ -23138,7 +23262,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="123"/>
+      <c r="A113" s="127"/>
       <c r="B113" s="1">
         <v>3</v>
       </c>
@@ -23153,7 +23277,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="123"/>
+      <c r="A114" s="127"/>
       <c r="B114" s="1">
         <v>4</v>
       </c>
@@ -23168,7 +23292,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="123"/>
+      <c r="A115" s="127"/>
       <c r="B115" s="1">
         <v>5</v>
       </c>
@@ -23183,7 +23307,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="123"/>
+      <c r="A116" s="127"/>
       <c r="B116" s="1">
         <v>6</v>
       </c>
@@ -23198,7 +23322,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="123"/>
+      <c r="A117" s="127"/>
       <c r="B117" s="1">
         <v>7</v>
       </c>
@@ -23213,7 +23337,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="123"/>
+      <c r="A118" s="127"/>
       <c r="B118" s="1">
         <v>8</v>
       </c>
@@ -23228,7 +23352,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="123"/>
+      <c r="A119" s="127"/>
       <c r="B119" s="1">
         <v>9</v>
       </c>
@@ -23239,7 +23363,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="124"/>
+      <c r="A120" s="128"/>
       <c r="B120" s="1">
         <v>10</v>
       </c>
@@ -23274,7 +23398,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="122">
+      <c r="A123" s="126">
         <v>11</v>
       </c>
       <c r="B123" s="1">
@@ -23289,7 +23413,7 @@
       <c r="E123" s="66"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="123"/>
+      <c r="A124" s="127"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -23304,7 +23428,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="123"/>
+      <c r="A125" s="127"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -23319,7 +23443,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="123"/>
+      <c r="A126" s="127"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -23334,7 +23458,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="123"/>
+      <c r="A127" s="127"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -23349,7 +23473,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="123"/>
+      <c r="A128" s="127"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -23364,7 +23488,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="123"/>
+      <c r="A129" s="127"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -23379,7 +23503,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="123"/>
+      <c r="A130" s="127"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -23390,7 +23514,7 @@
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="123"/>
+      <c r="A131" s="127"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -23401,7 +23525,7 @@
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="124"/>
+      <c r="A132" s="128"/>
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -23436,7 +23560,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="122">
+      <c r="A135" s="126">
         <v>12</v>
       </c>
       <c r="B135" s="1">
@@ -23451,7 +23575,7 @@
       <c r="E135" s="66"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="123"/>
+      <c r="A136" s="127"/>
       <c r="B136" s="1">
         <v>2</v>
       </c>
@@ -23466,7 +23590,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="123"/>
+      <c r="A137" s="127"/>
       <c r="B137" s="1">
         <v>3</v>
       </c>
@@ -23481,7 +23605,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="123"/>
+      <c r="A138" s="127"/>
       <c r="B138" s="1">
         <v>4</v>
       </c>
@@ -23496,7 +23620,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="123"/>
+      <c r="A139" s="127"/>
       <c r="B139" s="1">
         <v>5</v>
       </c>
@@ -23511,7 +23635,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="123"/>
+      <c r="A140" s="127"/>
       <c r="B140" s="1">
         <v>6</v>
       </c>
@@ -23526,7 +23650,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="123"/>
+      <c r="A141" s="127"/>
       <c r="B141" s="1">
         <v>7</v>
       </c>
@@ -23541,7 +23665,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="123"/>
+      <c r="A142" s="127"/>
       <c r="B142" s="1">
         <v>8</v>
       </c>
@@ -23552,7 +23676,7 @@
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="123"/>
+      <c r="A143" s="127"/>
       <c r="B143" s="1">
         <v>9</v>
       </c>
@@ -23563,7 +23687,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="124"/>
+      <c r="A144" s="128"/>
       <c r="B144" s="1">
         <v>10</v>
       </c>
@@ -23598,7 +23722,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="125">
+      <c r="A147" s="129">
         <v>13</v>
       </c>
       <c r="B147" s="1">
@@ -23611,7 +23735,7 @@
       <c r="E147" s="66"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="125"/>
+      <c r="A148" s="129"/>
       <c r="B148" s="1">
         <v>2</v>
       </c>
@@ -23624,7 +23748,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="125"/>
+      <c r="A149" s="129"/>
       <c r="B149" s="1">
         <v>3</v>
       </c>
@@ -23637,7 +23761,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="125"/>
+      <c r="A150" s="129"/>
       <c r="B150" s="1">
         <v>4</v>
       </c>
@@ -23650,7 +23774,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="125"/>
+      <c r="A151" s="129"/>
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -23663,7 +23787,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="125"/>
+      <c r="A152" s="129"/>
       <c r="B152" s="1">
         <v>6</v>
       </c>
@@ -23689,7 +23813,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="125">
+      <c r="A155" s="129">
         <v>14</v>
       </c>
       <c r="B155" s="1">
@@ -23702,7 +23826,7 @@
       <c r="E155" s="66"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="125"/>
+      <c r="A156" s="129"/>
       <c r="B156" s="1">
         <v>2</v>
       </c>
@@ -23715,7 +23839,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="125"/>
+      <c r="A157" s="129"/>
       <c r="B157" s="1">
         <v>3</v>
       </c>
@@ -23728,7 +23852,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="125"/>
+      <c r="A158" s="129"/>
       <c r="B158" s="1">
         <v>4</v>
       </c>
@@ -23741,7 +23865,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="125"/>
+      <c r="A159" s="129"/>
       <c r="B159" s="1">
         <v>5</v>
       </c>
@@ -23754,7 +23878,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="125"/>
+      <c r="A160" s="129"/>
       <c r="B160" s="1">
         <v>6</v>
       </c>
@@ -23780,7 +23904,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="125">
+      <c r="A163" s="129">
         <v>15</v>
       </c>
       <c r="B163" s="1">
@@ -23793,7 +23917,7 @@
       <c r="E163" s="66"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="125"/>
+      <c r="A164" s="129"/>
       <c r="B164" s="1">
         <v>2</v>
       </c>
@@ -23806,7 +23930,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="125"/>
+      <c r="A165" s="129"/>
       <c r="B165" s="1">
         <v>3</v>
       </c>
@@ -23819,7 +23943,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="125"/>
+      <c r="A166" s="129"/>
       <c r="B166" s="1">
         <v>4</v>
       </c>
@@ -23832,7 +23956,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="125"/>
+      <c r="A167" s="129"/>
       <c r="B167" s="1">
         <v>5</v>
       </c>
@@ -23845,7 +23969,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="125"/>
+      <c r="A168" s="129"/>
       <c r="B168" s="1">
         <v>6</v>
       </c>
@@ -23871,7 +23995,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="125">
+      <c r="A171" s="129">
         <v>16</v>
       </c>
       <c r="B171" s="1">
@@ -23884,7 +24008,7 @@
       <c r="E171" s="66"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="125"/>
+      <c r="A172" s="129"/>
       <c r="B172" s="1">
         <v>2</v>
       </c>
@@ -23897,7 +24021,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="125"/>
+      <c r="A173" s="129"/>
       <c r="B173" s="1">
         <v>3</v>
       </c>
@@ -23910,7 +24034,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="125"/>
+      <c r="A174" s="129"/>
       <c r="B174" s="1">
         <v>4</v>
       </c>
@@ -23923,7 +24047,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="125"/>
+      <c r="A175" s="129"/>
       <c r="B175" s="1">
         <v>5</v>
       </c>
@@ -23936,7 +24060,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="125"/>
+      <c r="A176" s="129"/>
       <c r="B176" s="1">
         <v>6</v>
       </c>
@@ -23962,7 +24086,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="122">
+      <c r="A179" s="126">
         <v>17</v>
       </c>
       <c r="B179" s="1">
@@ -23977,7 +24101,7 @@
       <c r="E179" s="66"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="123"/>
+      <c r="A180" s="127"/>
       <c r="B180" s="1">
         <v>2</v>
       </c>
@@ -23992,7 +24116,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="123"/>
+      <c r="A181" s="127"/>
       <c r="B181" s="1">
         <v>3</v>
       </c>
@@ -24007,7 +24131,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="123"/>
+      <c r="A182" s="127"/>
       <c r="B182" s="1">
         <v>4</v>
       </c>
@@ -24022,7 +24146,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="123"/>
+      <c r="A183" s="127"/>
       <c r="B183" s="1">
         <v>5</v>
       </c>
@@ -24037,7 +24161,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="123"/>
+      <c r="A184" s="127"/>
       <c r="B184" s="1">
         <v>6</v>
       </c>
@@ -24052,7 +24176,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="123"/>
+      <c r="A185" s="127"/>
       <c r="B185" s="1">
         <v>7</v>
       </c>
@@ -24067,7 +24191,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="123"/>
+      <c r="A186" s="127"/>
       <c r="B186" s="1">
         <v>8</v>
       </c>
@@ -24082,7 +24206,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="123"/>
+      <c r="A187" s="127"/>
       <c r="B187" s="1">
         <v>9</v>
       </c>
@@ -24097,7 +24221,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="124"/>
+      <c r="A188" s="128"/>
       <c r="B188" s="1">
         <v>10</v>
       </c>
@@ -24111,6 +24235,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
     <mergeCell ref="A179:A188"/>
     <mergeCell ref="A99:A108"/>
     <mergeCell ref="A3:A12"/>
@@ -24125,9 +24252,6 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24215,13 +24339,13 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="144" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="143" t="s">
         <v>760</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="143" t="s">
         <v>723</v>
       </c>
       <c r="D2" s="68">
@@ -24233,13 +24357,13 @@
       <c r="F2" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="144" t="s">
         <v>824</v>
       </c>
-      <c r="I2" s="139" t="s">
+      <c r="I2" s="143" t="s">
         <v>825</v>
       </c>
-      <c r="J2" s="139" t="s">
+      <c r="J2" s="143" t="s">
         <v>859</v>
       </c>
       <c r="K2" s="68">
@@ -24251,13 +24375,13 @@
       <c r="M2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="O2" s="140" t="s">
+      <c r="O2" s="144" t="s">
         <v>858</v>
       </c>
-      <c r="P2" s="139" t="s">
+      <c r="P2" s="143" t="s">
         <v>825</v>
       </c>
-      <c r="Q2" s="139" t="s">
+      <c r="Q2" s="143" t="s">
         <v>860</v>
       </c>
       <c r="R2" s="68">
@@ -24271,9 +24395,9 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="140"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="139"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="143"/>
       <c r="D3" s="68">
         <v>2</v>
       </c>
@@ -24283,9 +24407,9 @@
       <c r="F3" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="139"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="68">
         <v>2</v>
       </c>
@@ -24295,9 +24419,9 @@
       <c r="M3" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="O3" s="140"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="139"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="143"/>
       <c r="R3" s="68">
         <v>2</v>
       </c>
@@ -24309,9 +24433,9 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="140"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="139"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="68">
         <v>3</v>
       </c>
@@ -24321,9 +24445,9 @@
       <c r="F4" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H4" s="140"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="139"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="68">
         <v>3</v>
       </c>
@@ -24333,9 +24457,9 @@
       <c r="M4" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="O4" s="140"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="139"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="143"/>
       <c r="R4" s="68">
         <v>3</v>
       </c>
@@ -24347,9 +24471,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="139"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="68">
         <v>4</v>
       </c>
@@ -24359,17 +24483,17 @@
       <c r="F5" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H5" s="140"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="139"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="143"/>
       <c r="K5" s="68">
         <v>4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="139"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="143"/>
       <c r="R5" s="68">
         <v>4</v>
       </c>
@@ -24377,25 +24501,25 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="140"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="139"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="68">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="139"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="143"/>
       <c r="K6" s="68">
         <v>5</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="139"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="143"/>
       <c r="R6" s="68">
         <v>5</v>
       </c>
@@ -24403,25 +24527,25 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="140"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="68">
         <v>6</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="139"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="143"/>
       <c r="K7" s="68">
         <v>6</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="139"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="143"/>
       <c r="R7" s="68">
         <v>6</v>
       </c>
@@ -24429,9 +24553,9 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="140"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="68">
         <v>7</v>
       </c>
@@ -24441,9 +24565,9 @@
       <c r="F8" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="139"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="143"/>
       <c r="K8" s="68">
         <v>7</v>
       </c>
@@ -24453,9 +24577,9 @@
       <c r="M8" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="O8" s="140"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="139"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="143"/>
       <c r="R8" s="68">
         <v>7</v>
       </c>
@@ -24467,9 +24591,9 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="140"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="139"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="143"/>
       <c r="D9" s="68">
         <v>8</v>
       </c>
@@ -24479,9 +24603,9 @@
       <c r="F9" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="H9" s="140"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="139"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="143"/>
       <c r="K9" s="68">
         <v>8</v>
       </c>
@@ -24491,9 +24615,9 @@
       <c r="M9" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="O9" s="140"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="139"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="143"/>
       <c r="R9" s="68">
         <v>8</v>
       </c>
@@ -24505,9 +24629,9 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="140"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="139"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="68">
         <v>9</v>
       </c>
@@ -24517,17 +24641,17 @@
       <c r="F10" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H10" s="140"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="139"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="143"/>
       <c r="K10" s="68">
         <v>9</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="139"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="143"/>
       <c r="R10" s="68">
         <v>9</v>
       </c>
@@ -24535,9 +24659,9 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="140"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="139"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="68">
         <v>10</v>
       </c>
@@ -24547,17 +24671,17 @@
       <c r="F11" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H11" s="140"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="139"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="143"/>
       <c r="K11" s="68">
         <v>10</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="139"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="143"/>
       <c r="R11" s="68">
         <v>10</v>
       </c>
@@ -24565,9 +24689,9 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="140"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="139"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="68">
         <v>11</v>
       </c>
@@ -24577,17 +24701,17 @@
       <c r="F12" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H12" s="140"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="139"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="143"/>
       <c r="K12" s="68">
         <v>11</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="139"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="143"/>
       <c r="R12" s="68">
         <v>11</v>
       </c>
@@ -24595,9 +24719,9 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="140"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="139"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="143"/>
       <c r="D13" s="68">
         <v>12</v>
       </c>
@@ -24607,17 +24731,17 @@
       <c r="F13" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H13" s="140"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="139"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="143"/>
       <c r="K13" s="68">
         <v>12</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="139"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="143"/>
       <c r="R13" s="68">
         <v>12</v>
       </c>
@@ -24625,17 +24749,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="140"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="139"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="68">
         <v>13</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="139"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="143"/>
       <c r="K14" s="68">
         <v>13</v>
       </c>
@@ -24645,9 +24769,9 @@
       <c r="M14" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="O14" s="140"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="139"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="143"/>
       <c r="R14" s="68">
         <v>13</v>
       </c>
@@ -24659,9 +24783,9 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="140"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="139"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="143"/>
       <c r="D15" s="68">
         <v>14</v>
       </c>
@@ -24671,9 +24795,9 @@
       <c r="F15" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H15" s="140"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="139"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="143"/>
       <c r="K15" s="68">
         <v>14</v>
       </c>
@@ -24683,9 +24807,9 @@
       <c r="M15" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="O15" s="140"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="139"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="143"/>
       <c r="R15" s="68">
         <v>14</v>
       </c>
@@ -24697,9 +24821,9 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="140"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="139"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="68">
         <v>15</v>
       </c>
@@ -24709,9 +24833,9 @@
       <c r="F16" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H16" s="140"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="139"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="143"/>
       <c r="K16" s="68">
         <v>15</v>
       </c>
@@ -24721,9 +24845,9 @@
       <c r="M16" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="O16" s="140"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="139"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="143"/>
       <c r="R16" s="68">
         <v>15</v>
       </c>
@@ -24735,9 +24859,9 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="140"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="139"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="68">
         <v>16</v>
       </c>
@@ -24747,9 +24871,9 @@
       <c r="F17" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H17" s="140"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="139"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="143"/>
       <c r="K17" s="68">
         <v>16</v>
       </c>
@@ -24759,9 +24883,9 @@
       <c r="M17" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="O17" s="140"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="139"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="143"/>
       <c r="R17" s="68">
         <v>16</v>
       </c>
@@ -24773,9 +24897,9 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="140"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="139"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="68">
         <v>17</v>
       </c>
@@ -24785,9 +24909,9 @@
       <c r="F18" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="139"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="143"/>
       <c r="K18" s="68">
         <v>17</v>
       </c>
@@ -24797,9 +24921,9 @@
       <c r="M18" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="O18" s="140"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="139"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="143"/>
       <c r="R18" s="68">
         <v>17</v>
       </c>
@@ -24811,9 +24935,9 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="140"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="139"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="68">
         <v>18</v>
       </c>
@@ -24823,9 +24947,9 @@
       <c r="F19" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="139"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="143"/>
       <c r="K19" s="68">
         <v>18</v>
       </c>
@@ -24835,9 +24959,9 @@
       <c r="M19" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="O19" s="140"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="139"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="143"/>
       <c r="R19" s="68">
         <v>18</v>
       </c>
@@ -24849,9 +24973,9 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="140"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="139"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="68">
         <v>19</v>
       </c>
@@ -24861,9 +24985,9 @@
       <c r="F20" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H20" s="140"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="139"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="143"/>
       <c r="K20" s="68">
         <v>19</v>
       </c>
@@ -24873,9 +24997,9 @@
       <c r="M20" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="O20" s="140"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="139"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="143"/>
       <c r="R20" s="68">
         <v>19</v>
       </c>
@@ -24887,9 +25011,9 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="140"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="139"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="68">
         <v>20</v>
       </c>
@@ -24899,9 +25023,9 @@
       <c r="F21" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H21" s="140"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="139"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="143"/>
       <c r="K21" s="68">
         <v>20</v>
       </c>
@@ -24911,9 +25035,9 @@
       <c r="M21" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="O21" s="140"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="139"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="143"/>
       <c r="R21" s="68">
         <v>20</v>
       </c>
@@ -24925,9 +25049,9 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="140"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="139"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="68">
         <v>21</v>
       </c>
@@ -24937,9 +25061,9 @@
       <c r="F22" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="H22" s="140"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="139"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="143"/>
       <c r="K22" s="68">
         <v>21</v>
       </c>
@@ -24949,9 +25073,9 @@
       <c r="M22" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="O22" s="140"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="139"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="143"/>
       <c r="R22" s="68">
         <v>21</v>
       </c>
@@ -24963,17 +25087,17 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="140"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="139"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="68">
         <v>22</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="139"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="143"/>
       <c r="K23" s="68">
         <v>22</v>
       </c>
@@ -24983,9 +25107,9 @@
       <c r="M23" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="O23" s="140"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="139"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="143"/>
       <c r="R23" s="68">
         <v>22</v>
       </c>
@@ -24997,25 +25121,25 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="140"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="139"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="68">
         <v>23</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="139"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="143"/>
       <c r="K24" s="68">
         <v>23</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="139"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="143"/>
       <c r="R24" s="68">
         <v>23</v>
       </c>
@@ -25023,25 +25147,25 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="140"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="139"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="68">
         <v>24</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="139"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="143"/>
       <c r="K25" s="68">
         <v>24</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="139"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="143"/>
       <c r="R25" s="68">
         <v>24</v>
       </c>
@@ -25049,17 +25173,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="140"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="139"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="68">
         <v>25</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="139"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="143"/>
       <c r="K26" s="68">
         <v>25</v>
       </c>
@@ -25069,9 +25193,9 @@
       <c r="M26" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="O26" s="140"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="139"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="143"/>
       <c r="R26" s="68">
         <v>25</v>
       </c>
@@ -25101,13 +25225,13 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="144" t="s">
         <v>758</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="143" t="s">
         <v>759</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="143" t="s">
         <v>761</v>
       </c>
       <c r="D29" s="68">
@@ -25121,9 +25245,9 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A30" s="140"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="68">
         <v>2</v>
       </c>
@@ -25135,9 +25259,9 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A31" s="140"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
       <c r="D31" s="68">
         <v>3</v>
       </c>
@@ -25149,9 +25273,9 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A32" s="140"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
       <c r="D32" s="68">
         <v>4</v>
       </c>
@@ -25163,9 +25287,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A33" s="140"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
       <c r="D33" s="68">
         <v>5</v>
       </c>
@@ -25177,9 +25301,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="140"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
       <c r="D34" s="68">
         <v>6</v>
       </c>
@@ -25191,9 +25315,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="140"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="139"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
       <c r="D35" s="68">
         <v>7</v>
       </c>
@@ -25205,9 +25329,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="139"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
       <c r="D36" s="68">
         <v>8</v>
       </c>
@@ -25219,9 +25343,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="140"/>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
       <c r="D37" s="68">
         <v>9</v>
       </c>
@@ -25233,9 +25357,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="140"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
       <c r="D38" s="68">
         <v>10</v>
       </c>
@@ -25247,9 +25371,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="140"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
       <c r="D39" s="68">
         <v>11</v>
       </c>
@@ -25261,9 +25385,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="140"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
+      <c r="A40" s="144"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
       <c r="D40" s="68">
         <v>12</v>
       </c>
@@ -25275,9 +25399,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="140"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
+      <c r="A41" s="144"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="68">
         <v>13</v>
       </c>
@@ -25289,9 +25413,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="140"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
       <c r="D42" s="68">
         <v>14</v>
       </c>
@@ -25303,9 +25427,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="140"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="139"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
       <c r="D43" s="68">
         <v>15</v>
       </c>
@@ -25317,9 +25441,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="140"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
       <c r="D44" s="68">
         <v>16</v>
       </c>
@@ -25327,9 +25451,9 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="140"/>
-      <c r="B45" s="139"/>
-      <c r="C45" s="139"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
       <c r="D45" s="68">
         <v>17</v>
       </c>
@@ -25341,9 +25465,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="140"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="139"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
       <c r="D46" s="68">
         <v>18</v>
       </c>
@@ -25355,9 +25479,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="140"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
       <c r="D47" s="68">
         <v>19</v>
       </c>
@@ -25369,9 +25493,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="140"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="139"/>
+      <c r="A48" s="144"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
       <c r="D48" s="68">
         <v>20</v>
       </c>
@@ -25383,9 +25507,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="139"/>
+      <c r="A49" s="144"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
       <c r="D49" s="68">
         <v>21</v>
       </c>
@@ -25397,9 +25521,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="140"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
+      <c r="A50" s="144"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
       <c r="D50" s="68">
         <v>22</v>
       </c>
@@ -25411,9 +25535,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="140"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="139"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
       <c r="D51" s="68">
         <v>23</v>
       </c>
@@ -25425,9 +25549,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="140"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
+      <c r="A52" s="144"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="68">
         <v>24</v>
       </c>
@@ -25439,9 +25563,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="140"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="139"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
       <c r="D53" s="68">
         <v>25</v>
       </c>
@@ -25453,9 +25577,9 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="140"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="139"/>
+      <c r="A54" s="144"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
       <c r="D54" s="68">
         <v>26</v>
       </c>
@@ -25467,9 +25591,9 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="140"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="139"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
       <c r="D55" s="68">
         <v>27</v>
       </c>
@@ -25481,9 +25605,9 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="140"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="139"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
       <c r="D56" s="68">
         <v>28</v>
       </c>
@@ -25495,9 +25619,9 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="140"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="139"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
       <c r="D57" s="68">
         <v>29</v>
       </c>
@@ -25509,9 +25633,9 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="140"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="139"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
       <c r="D58" s="68">
         <v>30</v>
       </c>
@@ -25523,9 +25647,9 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="140"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="139"/>
+      <c r="A59" s="144"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
       <c r="D59" s="68">
         <v>31</v>
       </c>
@@ -25537,9 +25661,9 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="140"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="139"/>
+      <c r="A60" s="144"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
       <c r="D60" s="68">
         <v>32</v>
       </c>
@@ -25547,9 +25671,9 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="140"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="139"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
       <c r="D61" s="68">
         <v>33</v>
       </c>
@@ -25561,9 +25685,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="140"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="139"/>
+      <c r="A62" s="144"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
       <c r="D62" s="68">
         <v>34</v>
       </c>
@@ -25575,9 +25699,9 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="140"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="139"/>
+      <c r="A63" s="144"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
       <c r="D63" s="68">
         <v>35</v>
       </c>
@@ -25589,9 +25713,9 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="140"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="139"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
       <c r="D64" s="68">
         <v>36</v>
       </c>
@@ -25603,9 +25727,9 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="140"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="139"/>
+      <c r="A65" s="144"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="143"/>
       <c r="D65" s="68">
         <v>37</v>
       </c>
@@ -25617,9 +25741,9 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="140"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="139"/>
+      <c r="A66" s="144"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="143"/>
       <c r="D66" s="68">
         <v>38</v>
       </c>
@@ -25631,9 +25755,9 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="140"/>
-      <c r="B67" s="139"/>
-      <c r="C67" s="139"/>
+      <c r="A67" s="144"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
       <c r="D67" s="68">
         <v>39</v>
       </c>
@@ -25645,9 +25769,9 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="140"/>
-      <c r="B68" s="139"/>
-      <c r="C68" s="139"/>
+      <c r="A68" s="144"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
       <c r="D68" s="68">
         <v>40</v>
       </c>
@@ -25659,9 +25783,9 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="140"/>
-      <c r="B69" s="139"/>
-      <c r="C69" s="139"/>
+      <c r="A69" s="144"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="143"/>
       <c r="D69" s="68">
         <v>41</v>
       </c>
@@ -25673,9 +25797,9 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="140"/>
-      <c r="B70" s="139"/>
-      <c r="C70" s="139"/>
+      <c r="A70" s="144"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="143"/>
       <c r="D70" s="68">
         <v>42</v>
       </c>
@@ -25687,9 +25811,9 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="140"/>
-      <c r="B71" s="139"/>
-      <c r="C71" s="139"/>
+      <c r="A71" s="144"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="143"/>
       <c r="D71" s="68">
         <v>43</v>
       </c>
@@ -25701,9 +25825,9 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="140"/>
-      <c r="B72" s="139"/>
-      <c r="C72" s="139"/>
+      <c r="A72" s="144"/>
+      <c r="B72" s="143"/>
+      <c r="C72" s="143"/>
       <c r="D72" s="68">
         <v>44</v>
       </c>
@@ -25715,9 +25839,9 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="140"/>
-      <c r="B73" s="139"/>
-      <c r="C73" s="139"/>
+      <c r="A73" s="144"/>
+      <c r="B73" s="143"/>
+      <c r="C73" s="143"/>
       <c r="D73" s="68">
         <v>45</v>
       </c>
@@ -25729,9 +25853,9 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="140"/>
-      <c r="B74" s="139"/>
-      <c r="C74" s="139"/>
+      <c r="A74" s="144"/>
+      <c r="B74" s="143"/>
+      <c r="C74" s="143"/>
       <c r="D74" s="68">
         <v>46</v>
       </c>
@@ -25743,9 +25867,9 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="140"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="139"/>
+      <c r="A75" s="144"/>
+      <c r="B75" s="143"/>
+      <c r="C75" s="143"/>
       <c r="D75" s="68">
         <v>47</v>
       </c>
@@ -25757,9 +25881,9 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="140"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="139"/>
+      <c r="A76" s="144"/>
+      <c r="B76" s="143"/>
+      <c r="C76" s="143"/>
       <c r="D76" s="68">
         <v>48</v>
       </c>
@@ -25767,9 +25891,9 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="140"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="139"/>
+      <c r="A77" s="144"/>
+      <c r="B77" s="143"/>
+      <c r="C77" s="143"/>
       <c r="D77" s="68">
         <v>49</v>
       </c>
@@ -25777,9 +25901,9 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="140"/>
-      <c r="B78" s="139"/>
-      <c r="C78" s="139"/>
+      <c r="A78" s="144"/>
+      <c r="B78" s="143"/>
+      <c r="C78" s="143"/>
       <c r="D78" s="68">
         <v>50</v>
       </c>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="16" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1618">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5822,18 +5822,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A爪手样本盘点2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A爪手样本盘点3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A爪手样本盘点4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>去样本盘经过点1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5866,10 +5854,6 @@
   </si>
   <si>
     <t>192.168.10.50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.50.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5944,6 +5928,115 @@
   </si>
   <si>
     <t>20170422X758in02.rar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>P129</t>
+  </si>
+  <si>
+    <t>P130</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>P132</t>
+  </si>
+  <si>
+    <t>P133</t>
+  </si>
+  <si>
+    <t>P134</t>
+  </si>
+  <si>
+    <t>P135</t>
+  </si>
+  <si>
+    <t>SampleP5</t>
+  </si>
+  <si>
+    <t>SampleP6</t>
+  </si>
+  <si>
+    <t>SampleP7</t>
+  </si>
+  <si>
+    <t>SampleP8</t>
+  </si>
+  <si>
+    <t>SampleP5_A</t>
+  </si>
+  <si>
+    <t>SampleP6_A</t>
+  </si>
+  <si>
+    <t>SampleP7_A</t>
+  </si>
+  <si>
+    <t>SampleP8_A</t>
+  </si>
+  <si>
+    <t>A爪手样本盘点2</t>
+  </si>
+  <si>
+    <t>A爪手样本盘点3</t>
+  </si>
+  <si>
+    <t>A爪手样本盘点4</t>
+  </si>
+  <si>
+    <t>A爪手样本盘点5</t>
+  </si>
+  <si>
+    <t>A爪手样本盘点6</t>
+  </si>
+  <si>
+    <t>A爪手样本盘点7</t>
+  </si>
+  <si>
+    <t>A爪手样本盘点8</t>
+  </si>
+  <si>
+    <t>B爪手样本盘点5</t>
+  </si>
+  <si>
+    <t>B爪手样本盘点6</t>
+  </si>
+  <si>
+    <t>B爪手样本盘点7</t>
+  </si>
+  <si>
+    <t>B爪手样本盘点8</t>
+  </si>
+  <si>
+    <t>192.168.10.51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网卡3（PCI）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络相机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.11.111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.11.112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GigE相机</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5951,7 +6044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6181,6 +6274,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6763,7 +6862,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -7059,6 +7158,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7079,6 +7181,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7086,15 +7194,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7114,6 +7213,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7151,6 +7253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="差_302" xfId="3"/>
@@ -7577,16 +7680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7595,7 +7698,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="11420476"/>
+          <a:off x="0" y="13125451"/>
           <a:ext cx="1762125" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -7764,15 +7867,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7781,7 +7884,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181100" y="6219825"/>
+          <a:off x="733425" y="4010025"/>
           <a:ext cx="1762125" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -8007,16 +8110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8025,7 +8128,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8543925" y="11477625"/>
+          <a:off x="10982325" y="13887450"/>
           <a:ext cx="1762125" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -8193,16 +8296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8211,7 +8314,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581900" y="5962650"/>
+          <a:off x="9315450" y="4276725"/>
           <a:ext cx="1762125" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -8434,15 +8537,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8451,7 +8554,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3838576" y="12430126"/>
+          <a:off x="3895726" y="14478001"/>
           <a:ext cx="1009650" cy="514349"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -9378,16 +9481,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>105099</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9396,7 +9499,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2705100" y="13135299"/>
+          <a:off x="6057900" y="16288074"/>
           <a:ext cx="3800475" cy="4819326"/>
           <a:chOff x="3228975" y="13440099"/>
           <a:chExt cx="3800475" cy="4819326"/>
@@ -10237,20 +10340,20 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10267,7 +10370,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="124"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -10280,7 +10383,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="124"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10368,7 +10471,7 @@
       <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="130" t="s">
         <v>917</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10377,136 +10480,136 @@
       <c r="C2" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="130" t="s">
         <v>884</v>
       </c>
       <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="129"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="1" t="s">
         <v>882</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="D3" s="129"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="129"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D4" s="129"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="129"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="1" t="s">
         <v>888</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="130" t="s">
         <v>894</v>
       </c>
       <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="129"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="1" t="s">
         <v>890</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D6" s="129"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="129"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="1" t="s">
         <v>892</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="65"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="1" t="s">
         <v>895</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="130" t="s">
         <v>907</v>
       </c>
       <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="129"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="1" t="s">
         <v>896</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D9" s="129"/>
+      <c r="D9" s="130"/>
       <c r="E9" s="65"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="129"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="1" t="s">
         <v>897</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D10" s="129"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="65"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="129"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="1" t="s">
         <v>901</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="130" t="s">
         <v>908</v>
       </c>
       <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="129"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="1" t="s">
         <v>902</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D12" s="129"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="129"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="1" t="s">
         <v>903</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D13" s="129"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5">
@@ -10841,7 +10944,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>916</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10855,7 +10958,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="129"/>
+      <c r="A2" s="130"/>
       <c r="B2" s="1" t="s">
         <v>910</v>
       </c>
@@ -10867,7 +10970,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="129"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="1" t="s">
         <v>911</v>
       </c>
@@ -10877,7 +10980,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="129"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="1" t="s">
         <v>912</v>
       </c>
@@ -10889,7 +10992,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="130" t="s">
         <v>946</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10903,7 +11006,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="129"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="1" t="s">
         <v>910</v>
       </c>
@@ -10915,7 +11018,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="4" t="s">
         <v>1450</v>
       </c>
@@ -10926,7 +11029,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="129"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="1" t="s">
         <v>1449</v>
       </c>
@@ -10939,7 +11042,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="130" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -10953,7 +11056,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="129"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="1" t="s">
         <v>910</v>
       </c>
@@ -10965,7 +11068,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="129"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="4" t="s">
         <v>1450</v>
       </c>
@@ -10976,7 +11079,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="129"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="1" t="s">
         <v>1449</v>
       </c>
@@ -11017,10 +11120,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>958</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="74" t="s">
         <v>976</v>
       </c>
@@ -11029,8 +11132,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
     </row>
@@ -11251,18 +11354,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>984</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="76" t="s">
@@ -11271,10 +11374,10 @@
       <c r="B3" s="76" t="s">
         <v>986</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="126" t="s">
         <v>987</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="126"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="76">
@@ -11490,7 +11593,7 @@
       <c r="G2" s="92" t="s">
         <v>1178</v>
       </c>
-      <c r="H2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="88">
@@ -11510,7 +11613,7 @@
         <v>1069</v>
       </c>
       <c r="G3" s="93"/>
-      <c r="H3" s="151"/>
+      <c r="H3" s="152"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="88">
@@ -11532,7 +11635,7 @@
       <c r="G4" s="93" t="s">
         <v>1180</v>
       </c>
-      <c r="H4" s="151"/>
+      <c r="H4" s="152"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="88">
@@ -11552,7 +11655,7 @@
         <v>1071</v>
       </c>
       <c r="G5" s="93"/>
-      <c r="H5" s="151"/>
+      <c r="H5" s="152"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="88">
@@ -11574,7 +11677,7 @@
       <c r="G6" s="93" t="s">
         <v>1525</v>
       </c>
-      <c r="H6" s="151"/>
+      <c r="H6" s="152"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="88">
@@ -11596,7 +11699,7 @@
       <c r="G7" s="93" t="s">
         <v>1524</v>
       </c>
-      <c r="H7" s="151"/>
+      <c r="H7" s="152"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="88">
@@ -11616,7 +11719,7 @@
         <v>1074</v>
       </c>
       <c r="G8" s="93"/>
-      <c r="H8" s="151"/>
+      <c r="H8" s="152"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="88">
@@ -11636,7 +11739,7 @@
         <v>1075</v>
       </c>
       <c r="G9" s="93"/>
-      <c r="H9" s="151"/>
+      <c r="H9" s="152"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="88">
@@ -11658,7 +11761,7 @@
       <c r="G10" s="93" t="s">
         <v>1167</v>
       </c>
-      <c r="H10" s="151"/>
+      <c r="H10" s="152"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="88">
@@ -11678,7 +11781,7 @@
         <v>1077</v>
       </c>
       <c r="G11" s="93"/>
-      <c r="H11" s="151"/>
+      <c r="H11" s="152"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="88">
@@ -11691,7 +11794,7 @@
         <v>1039</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E12" s="78">
         <v>522</v>
@@ -11700,7 +11803,7 @@
         <v>1078</v>
       </c>
       <c r="G12" s="93"/>
-      <c r="H12" s="151"/>
+      <c r="H12" s="152"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="88">
@@ -11720,7 +11823,7 @@
         <v>1079</v>
       </c>
       <c r="G13" s="93"/>
-      <c r="H13" s="151"/>
+      <c r="H13" s="152"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="88">
@@ -11742,7 +11845,7 @@
         <v>1080</v>
       </c>
       <c r="G14" s="93"/>
-      <c r="H14" s="151"/>
+      <c r="H14" s="152"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="88">
@@ -11762,7 +11865,7 @@
         <v>1081</v>
       </c>
       <c r="G15" s="93"/>
-      <c r="H15" s="151"/>
+      <c r="H15" s="152"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="88">
@@ -11782,7 +11885,7 @@
         <v>1082</v>
       </c>
       <c r="G16" s="93"/>
-      <c r="H16" s="151"/>
+      <c r="H16" s="152"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" thickBot="1">
       <c r="A17" s="89">
@@ -11802,7 +11905,7 @@
         <v>1083</v>
       </c>
       <c r="G17" s="94"/>
-      <c r="H17" s="152"/>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="86">
@@ -11824,7 +11927,7 @@
       <c r="G18" s="92" t="s">
         <v>1168</v>
       </c>
-      <c r="H18" s="150"/>
+      <c r="H18" s="151"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="88">
@@ -11846,7 +11949,7 @@
       <c r="G19" s="93" t="s">
         <v>1169</v>
       </c>
-      <c r="H19" s="151"/>
+      <c r="H19" s="152"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="88">
@@ -11866,7 +11969,7 @@
         <v>1086</v>
       </c>
       <c r="G20" s="93"/>
-      <c r="H20" s="151"/>
+      <c r="H20" s="152"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="88">
@@ -11886,7 +11989,7 @@
         <v>1087</v>
       </c>
       <c r="G21" s="93"/>
-      <c r="H21" s="151"/>
+      <c r="H21" s="152"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="88">
@@ -11906,7 +12009,7 @@
         <v>1088</v>
       </c>
       <c r="G22" s="93"/>
-      <c r="H22" s="151"/>
+      <c r="H22" s="152"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="88">
@@ -11926,7 +12029,7 @@
         <v>1089</v>
       </c>
       <c r="G23" s="93"/>
-      <c r="H23" s="151"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="88">
@@ -11946,7 +12049,7 @@
         <v>1090</v>
       </c>
       <c r="G24" s="93"/>
-      <c r="H24" s="151"/>
+      <c r="H24" s="152"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="88">
@@ -11968,7 +12071,7 @@
         <v>1091</v>
       </c>
       <c r="G25" s="93"/>
-      <c r="H25" s="151"/>
+      <c r="H25" s="152"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="88">
@@ -11990,7 +12093,7 @@
         <v>1092</v>
       </c>
       <c r="G26" s="93"/>
-      <c r="H26" s="151"/>
+      <c r="H26" s="152"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="88">
@@ -12012,7 +12115,7 @@
         <v>1093</v>
       </c>
       <c r="G27" s="93"/>
-      <c r="H27" s="151"/>
+      <c r="H27" s="152"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="88">
@@ -12034,7 +12137,7 @@
         <v>1094</v>
       </c>
       <c r="G28" s="93"/>
-      <c r="H28" s="151"/>
+      <c r="H28" s="152"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="88">
@@ -12056,7 +12159,7 @@
         <v>1095</v>
       </c>
       <c r="G29" s="93"/>
-      <c r="H29" s="151"/>
+      <c r="H29" s="152"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="88">
@@ -12078,7 +12181,7 @@
         <v>1096</v>
       </c>
       <c r="G30" s="93"/>
-      <c r="H30" s="151"/>
+      <c r="H30" s="152"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="88">
@@ -12098,7 +12201,7 @@
         <v>1097</v>
       </c>
       <c r="G31" s="93"/>
-      <c r="H31" s="151"/>
+      <c r="H31" s="152"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="88">
@@ -12118,7 +12221,7 @@
         <v>1098</v>
       </c>
       <c r="G32" s="93"/>
-      <c r="H32" s="151"/>
+      <c r="H32" s="152"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" thickBot="1">
       <c r="A33" s="89">
@@ -12138,7 +12241,7 @@
         <v>1099</v>
       </c>
       <c r="G33" s="94"/>
-      <c r="H33" s="152"/>
+      <c r="H33" s="153"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="86">
@@ -12158,7 +12261,7 @@
         <v>1100</v>
       </c>
       <c r="G34" s="92"/>
-      <c r="H34" s="150"/>
+      <c r="H34" s="151"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="88">
@@ -12178,7 +12281,7 @@
         <v>1101</v>
       </c>
       <c r="G35" s="93"/>
-      <c r="H35" s="151"/>
+      <c r="H35" s="152"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="88">
@@ -12198,7 +12301,7 @@
         <v>1102</v>
       </c>
       <c r="G36" s="93"/>
-      <c r="H36" s="151"/>
+      <c r="H36" s="152"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="88">
@@ -12218,7 +12321,7 @@
         <v>1103</v>
       </c>
       <c r="G37" s="93"/>
-      <c r="H37" s="151"/>
+      <c r="H37" s="152"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="88">
@@ -12238,7 +12341,7 @@
         <v>1104</v>
       </c>
       <c r="G38" s="93"/>
-      <c r="H38" s="151"/>
+      <c r="H38" s="152"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="88">
@@ -12258,7 +12361,7 @@
         <v>1105</v>
       </c>
       <c r="G39" s="93"/>
-      <c r="H39" s="151"/>
+      <c r="H39" s="152"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="88">
@@ -12278,7 +12381,7 @@
         <v>1106</v>
       </c>
       <c r="G40" s="93"/>
-      <c r="H40" s="151"/>
+      <c r="H40" s="152"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="88">
@@ -12298,7 +12401,7 @@
         <v>1107</v>
       </c>
       <c r="G41" s="93"/>
-      <c r="H41" s="151"/>
+      <c r="H41" s="152"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="88">
@@ -12318,7 +12421,7 @@
         <v>1108</v>
       </c>
       <c r="G42" s="93"/>
-      <c r="H42" s="151"/>
+      <c r="H42" s="152"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="88">
@@ -12338,7 +12441,7 @@
         <v>1109</v>
       </c>
       <c r="G43" s="93"/>
-      <c r="H43" s="151"/>
+      <c r="H43" s="152"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="88">
@@ -12358,7 +12461,7 @@
         <v>1110</v>
       </c>
       <c r="G44" s="93"/>
-      <c r="H44" s="151"/>
+      <c r="H44" s="152"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="88">
@@ -12378,7 +12481,7 @@
         <v>1111</v>
       </c>
       <c r="G45" s="93"/>
-      <c r="H45" s="151"/>
+      <c r="H45" s="152"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="88">
@@ -12398,7 +12501,7 @@
         <v>1112</v>
       </c>
       <c r="G46" s="93"/>
-      <c r="H46" s="151"/>
+      <c r="H46" s="152"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="88">
@@ -12418,7 +12521,7 @@
         <v>1113</v>
       </c>
       <c r="G47" s="93"/>
-      <c r="H47" s="151"/>
+      <c r="H47" s="152"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="88">
@@ -12438,7 +12541,7 @@
         <v>1114</v>
       </c>
       <c r="G48" s="93"/>
-      <c r="H48" s="151"/>
+      <c r="H48" s="152"/>
     </row>
     <row r="49" spans="1:8" ht="14.25" thickBot="1">
       <c r="A49" s="89">
@@ -12458,7 +12561,7 @@
         <v>1115</v>
       </c>
       <c r="G49" s="94"/>
-      <c r="H49" s="152"/>
+      <c r="H49" s="153"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="86">
@@ -12478,7 +12581,7 @@
         <v>1116</v>
       </c>
       <c r="G50" s="92"/>
-      <c r="H50" s="150"/>
+      <c r="H50" s="151"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="88">
@@ -12498,7 +12601,7 @@
         <v>1117</v>
       </c>
       <c r="G51" s="93"/>
-      <c r="H51" s="151"/>
+      <c r="H51" s="152"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="88">
@@ -12518,7 +12621,7 @@
         <v>1118</v>
       </c>
       <c r="G52" s="93"/>
-      <c r="H52" s="151"/>
+      <c r="H52" s="152"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="88">
@@ -12538,7 +12641,7 @@
         <v>1119</v>
       </c>
       <c r="G53" s="93"/>
-      <c r="H53" s="151"/>
+      <c r="H53" s="152"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="88">
@@ -12558,7 +12661,7 @@
         <v>1120</v>
       </c>
       <c r="G54" s="93"/>
-      <c r="H54" s="151"/>
+      <c r="H54" s="152"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="88">
@@ -12578,7 +12681,7 @@
         <v>1121</v>
       </c>
       <c r="G55" s="93"/>
-      <c r="H55" s="151"/>
+      <c r="H55" s="152"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="88">
@@ -12598,7 +12701,7 @@
         <v>1122</v>
       </c>
       <c r="G56" s="93"/>
-      <c r="H56" s="151"/>
+      <c r="H56" s="152"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="88">
@@ -12618,7 +12721,7 @@
         <v>1155</v>
       </c>
       <c r="G57" s="93"/>
-      <c r="H57" s="151"/>
+      <c r="H57" s="152"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="88">
@@ -12638,7 +12741,7 @@
         <v>1156</v>
       </c>
       <c r="G58" s="93"/>
-      <c r="H58" s="151"/>
+      <c r="H58" s="152"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="88">
@@ -12658,7 +12761,7 @@
         <v>1157</v>
       </c>
       <c r="G59" s="93"/>
-      <c r="H59" s="151"/>
+      <c r="H59" s="152"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="88">
@@ -12678,7 +12781,7 @@
         <v>1158</v>
       </c>
       <c r="G60" s="93"/>
-      <c r="H60" s="151"/>
+      <c r="H60" s="152"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="88">
@@ -12698,7 +12801,7 @@
         <v>1159</v>
       </c>
       <c r="G61" s="93"/>
-      <c r="H61" s="151"/>
+      <c r="H61" s="152"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="88">
@@ -12718,7 +12821,7 @@
         <v>1160</v>
       </c>
       <c r="G62" s="93"/>
-      <c r="H62" s="151"/>
+      <c r="H62" s="152"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="88">
@@ -12738,7 +12841,7 @@
         <v>1161</v>
       </c>
       <c r="G63" s="93"/>
-      <c r="H63" s="151"/>
+      <c r="H63" s="152"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="88">
@@ -12758,7 +12861,7 @@
         <v>1162</v>
       </c>
       <c r="G64" s="93"/>
-      <c r="H64" s="151"/>
+      <c r="H64" s="152"/>
     </row>
     <row r="65" spans="1:8" ht="14.25" thickBot="1">
       <c r="A65" s="89">
@@ -12778,7 +12881,7 @@
         <v>1163</v>
       </c>
       <c r="G65" s="94"/>
-      <c r="H65" s="152"/>
+      <c r="H65" s="153"/>
     </row>
     <row r="66" spans="1:8">
       <c r="G66" s="85"/>
@@ -12967,13 +13070,15 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="92.5" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1">
@@ -12988,7 +13093,7 @@
       <c r="B2" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="154" t="s">
         <v>1201</v>
       </c>
       <c r="D2" s="109" t="s">
@@ -13000,7 +13105,7 @@
       <c r="B3" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="155"/>
       <c r="D3" s="111" t="s">
         <v>1187</v>
       </c>
@@ -13012,7 +13117,7 @@
       <c r="B4" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="154" t="s">
         <v>1202</v>
       </c>
       <c r="D4" s="109" t="s">
@@ -13024,7 +13129,7 @@
       <c r="B5" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="155"/>
       <c r="D5" s="111" t="s">
         <v>1193</v>
       </c>
@@ -13036,7 +13141,7 @@
       <c r="B6" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="154" t="s">
         <v>1203</v>
       </c>
       <c r="D6" s="109" t="s">
@@ -13048,7 +13153,7 @@
       <c r="B7" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C7" s="154"/>
+      <c r="C7" s="155"/>
       <c r="D7" s="111" t="s">
         <v>1195</v>
       </c>
@@ -13060,7 +13165,7 @@
       <c r="B8" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="154" t="s">
         <v>1204</v>
       </c>
       <c r="D8" s="109" t="s">
@@ -13072,7 +13177,7 @@
       <c r="B9" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C9" s="154"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="111" t="s">
         <v>1197</v>
       </c>
@@ -13084,7 +13189,7 @@
       <c r="B10" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="154" t="s">
         <v>1205</v>
       </c>
       <c r="D10" s="109" t="s">
@@ -13096,7 +13201,7 @@
       <c r="B11" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C11" s="154"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="111" t="s">
         <v>1199</v>
       </c>
@@ -13108,7 +13213,7 @@
       <c r="B12" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="154" t="s">
         <v>1489</v>
       </c>
       <c r="D12" s="109" t="s">
@@ -13120,7 +13225,7 @@
       <c r="B13" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C13" s="154"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="111" t="s">
         <v>1490</v>
       </c>
@@ -13132,11 +13237,11 @@
       <c r="B14" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C14" s="153" t="s">
-        <v>1563</v>
+      <c r="C14" s="154" t="s">
+        <v>1560</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" thickBot="1">
@@ -13144,9 +13249,9 @@
       <c r="B15" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C15" s="154"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="111" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
   </sheetData>
@@ -13167,10 +13272,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13678,7 +13783,7 @@
         <v>1545</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1538</v>
+        <v>1592</v>
       </c>
       <c r="C30" s="119" t="s">
         <v>1533</v>
@@ -13687,7 +13792,7 @@
         <v>1336</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1557</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -13695,7 +13800,7 @@
         <v>1546</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1539</v>
+        <v>1593</v>
       </c>
       <c r="C31" s="119" t="s">
         <v>1533</v>
@@ -13704,7 +13809,7 @@
         <v>1336</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1558</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -13712,7 +13817,7 @@
         <v>1547</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1540</v>
+        <v>1594</v>
       </c>
       <c r="C32" s="119" t="s">
         <v>1533</v>
@@ -13721,7 +13826,7 @@
         <v>1336</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1559</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -13729,7 +13834,7 @@
         <v>1548</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1541</v>
+        <v>1595</v>
       </c>
       <c r="C33" s="119" t="s">
         <v>1533</v>
@@ -13738,355 +13843,355 @@
         <v>1336</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1560</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>1551</v>
+        <v>1584</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C34" s="119" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C34" s="124" t="s">
         <v>1533</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="124" t="s">
         <v>1336</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>1552</v>
+        <v>1585</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C35" s="119" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C35" s="124" t="s">
         <v>1533</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="124" t="s">
         <v>1336</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1562</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>1354</v>
+        <v>1586</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C36" s="102" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D36" s="102" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D36" s="124" t="s">
         <v>1336</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1356</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>1355</v>
+        <v>1587</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C37" s="102" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D37" s="102" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C37" s="124" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D37" s="124" t="s">
         <v>1336</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1357</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>1365</v>
+        <v>1588</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D38" s="102" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C38" s="124" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D38" s="124" t="s">
         <v>1336</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1363</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>1366</v>
+        <v>1589</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C39" s="102" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D39" s="102" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C39" s="124" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D39" s="124" t="s">
         <v>1336</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1364</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>1360</v>
+        <v>1590</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C40" s="102" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D40" s="102" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C40" s="124" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D40" s="124" t="s">
         <v>1336</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1371</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>1361</v>
+        <v>1591</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C41" s="102" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D41" s="102" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C41" s="124" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D41" s="124" t="s">
         <v>1336</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1372</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>1373</v>
+        <v>1551</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C42" s="102" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D42" s="102" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C42" s="119" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D42" s="119" t="s">
         <v>1336</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1382</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>1374</v>
+        <v>1552</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C43" s="102" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D43" s="102" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C43" s="119" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D43" s="119" t="s">
         <v>1336</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1383</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1379</v>
+        <v>1352</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>1381</v>
+        <v>1318</v>
       </c>
       <c r="D44" s="102" t="s">
         <v>1336</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1384</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1380</v>
+        <v>1353</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>1381</v>
+        <v>1318</v>
       </c>
       <c r="D45" s="102" t="s">
         <v>1336</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1385</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>1397</v>
+        <v>1365</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1386</v>
+        <v>1358</v>
       </c>
       <c r="C46" s="102" t="s">
-        <v>1389</v>
+        <v>1362</v>
       </c>
       <c r="D46" s="102" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1400</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>1398</v>
+        <v>1366</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1387</v>
+        <v>1359</v>
       </c>
       <c r="C47" s="102" t="s">
-        <v>1389</v>
+        <v>1362</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1401</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>1399</v>
+        <v>1360</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="C48" s="102" t="s">
-        <v>1389</v>
+        <v>1369</v>
       </c>
       <c r="D48" s="102" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1402</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>1394</v>
+        <v>1361</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1391</v>
+        <v>1368</v>
       </c>
       <c r="C49" s="102" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1403</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1395</v>
+        <v>1373</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="D50" s="102" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1404</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1396</v>
+        <v>1374</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="D51" s="102" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1405</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1409</v>
+        <v>1375</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1406</v>
+        <v>1379</v>
       </c>
       <c r="C52" s="102" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="D52" s="102" t="s">
         <v>1336</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1412</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1410</v>
+        <v>1376</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1407</v>
+        <v>1380</v>
       </c>
       <c r="C53" s="102" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="D53" s="102" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1413</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1408</v>
+        <v>1386</v>
       </c>
       <c r="C54" s="102" t="s">
         <v>1389</v>
@@ -14095,6 +14200,142 @@
         <v>1390</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C56" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C57" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D57" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C58" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D58" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C59" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D59" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C60" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D60" s="102" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C61" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D61" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C62" s="102" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D62" s="102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
@@ -14109,8 +14350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14894,10 +15135,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14905,33 +15146,39 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>1434</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="H1" s="126" t="s">
         <v>1446</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125" t="s">
+      <c r="I1" s="126"/>
+      <c r="J1" s="126" t="s">
         <v>1447</v>
       </c>
-      <c r="I1" s="125"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="126"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1435</v>
@@ -14939,17 +15186,17 @@
       <c r="C2" s="114" t="s">
         <v>1436</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="156" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1442</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1445</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1444</v>
@@ -14957,8 +15204,14 @@
       <c r="I2" s="4" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1433</v>
       </c>
@@ -14967,42 +15220,65 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1569</v>
-      </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>1440</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>1440</v>
       </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15014,8 +15290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15159,17 +15435,17 @@
     </row>
     <row r="79" spans="4:7">
       <c r="G79" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="87" spans="10:10">
       <c r="J87" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
   </sheetData>
@@ -15195,27 +15471,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
   </sheetData>
@@ -15229,8 +15505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15243,16 +15519,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="85" customFormat="1">
       <c r="A1" s="123" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="B1" s="123" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D1" s="123" t="s">
         <v>1579</v>
-      </c>
-      <c r="C1" s="123" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D1" s="123" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="67.5">
@@ -15260,13 +15536,13 @@
         <v>42846</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D2" s="122" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27">
@@ -15274,13 +15550,13 @@
         <v>42847</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D3" s="122" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
   </sheetData>
@@ -15297,8 +15573,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15317,8 +15593,8 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54:H55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15335,22 +15611,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -15437,7 +15713,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -15901,12 +16177,12 @@
       <c r="H27" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="22.5">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
       <c r="E29" s="18"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -15914,10 +16190,10 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="22.5">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
       <c r="E30" s="18"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -15970,7 +16246,7 @@
       <c r="H32" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="I32" s="129" t="s">
+      <c r="I32" s="130" t="s">
         <v>329</v>
       </c>
     </row>
@@ -15997,7 +16273,7 @@
       <c r="H33" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="I33" s="129"/>
+      <c r="I33" s="130"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
@@ -16022,7 +16298,7 @@
       <c r="H34" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="I34" s="129"/>
+      <c r="I34" s="130"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6">
@@ -16047,7 +16323,7 @@
       <c r="H35" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="I35" s="129"/>
+      <c r="I35" s="130"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6">
@@ -16070,7 +16346,7 @@
         <v>174</v>
       </c>
       <c r="H36" s="13"/>
-      <c r="I36" s="129"/>
+      <c r="I36" s="130"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6">
@@ -16093,7 +16369,7 @@
         <v>175</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="129"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6">
@@ -16118,7 +16394,7 @@
       <c r="H38" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="I38" s="129"/>
+      <c r="I38" s="130"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6">
@@ -16143,7 +16419,7 @@
       <c r="H39" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="I39" s="129"/>
+      <c r="I39" s="130"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
@@ -16168,7 +16444,7 @@
       <c r="H40" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I40" s="129"/>
+      <c r="I40" s="130"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6">
@@ -16193,7 +16469,7 @@
       <c r="H41" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="I41" s="129"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6">
@@ -16218,7 +16494,7 @@
       <c r="H42" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="I42" s="129"/>
+      <c r="I42" s="130"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6">
@@ -16241,7 +16517,7 @@
         <v>181</v>
       </c>
       <c r="H43" s="14"/>
-      <c r="I43" s="129"/>
+      <c r="I43" s="130"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
@@ -16266,7 +16542,7 @@
       <c r="H44" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="I44" s="129"/>
+      <c r="I44" s="130"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6">
@@ -16291,7 +16567,7 @@
       <c r="H45" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="I45" s="129"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
@@ -16316,7 +16592,7 @@
       <c r="H46" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="I46" s="129"/>
+      <c r="I46" s="130"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6">
@@ -16341,7 +16617,7 @@
       <c r="H47" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="I47" s="129"/>
+      <c r="I47" s="130"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
@@ -16366,7 +16642,7 @@
       <c r="H48" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="I48" s="129"/>
+      <c r="I48" s="130"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6">
@@ -16391,7 +16667,7 @@
       <c r="H49" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="I49" s="129"/>
+      <c r="I49" s="130"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6">
@@ -16416,7 +16692,7 @@
       <c r="H50" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="I50" s="129"/>
+      <c r="I50" s="130"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6">
@@ -16441,7 +16717,7 @@
       <c r="H51" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="I51" s="129"/>
+      <c r="I51" s="130"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6">
@@ -16466,7 +16742,7 @@
       <c r="H52" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="I52" s="129"/>
+      <c r="I52" s="130"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6">
@@ -16491,7 +16767,7 @@
       <c r="H53" s="100" t="s">
         <v>1173</v>
       </c>
-      <c r="I53" s="129"/>
+      <c r="I53" s="130"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6">
@@ -16516,7 +16792,7 @@
       <c r="H54" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="I54" s="129"/>
+      <c r="I54" s="130"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6">
@@ -16541,7 +16817,7 @@
       <c r="H55" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I55" s="129"/>
+      <c r="I55" s="130"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6">
@@ -16560,7 +16836,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="129"/>
+      <c r="I56" s="130"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6">
@@ -16579,7 +16855,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="129"/>
+      <c r="I57" s="130"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6">
@@ -16598,7 +16874,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="129"/>
+      <c r="I58" s="130"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6">
@@ -16617,7 +16893,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="129"/>
+      <c r="I59" s="130"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6">
@@ -16636,7 +16912,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="129"/>
+      <c r="I60" s="130"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6">
@@ -16655,7 +16931,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="129"/>
+      <c r="I61" s="130"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6">
@@ -16674,7 +16950,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="129"/>
+      <c r="I62" s="130"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6">
@@ -16693,7 +16969,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="129"/>
+      <c r="I63" s="130"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6">
@@ -16712,7 +16988,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="129"/>
+      <c r="I64" s="130"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6">
@@ -16731,7 +17007,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="129"/>
+      <c r="I65" s="130"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6">
@@ -16750,7 +17026,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="129"/>
+      <c r="I66" s="130"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6">
@@ -16769,7 +17045,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="129"/>
+      <c r="I67" s="130"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22">
@@ -16794,7 +17070,7 @@
       <c r="H68" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I68" s="129" t="s">
+      <c r="I68" s="130" t="s">
         <v>328</v>
       </c>
     </row>
@@ -16821,7 +17097,7 @@
       <c r="H69" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="I69" s="129"/>
+      <c r="I69" s="130"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="22">
@@ -16846,7 +17122,7 @@
       <c r="H70" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="I70" s="129"/>
+      <c r="I70" s="130"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
@@ -16871,7 +17147,7 @@
       <c r="H71" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="I71" s="129"/>
+      <c r="I71" s="130"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="22">
@@ -16896,7 +17172,7 @@
       <c r="H72" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="I72" s="129"/>
+      <c r="I72" s="130"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="22">
@@ -16921,7 +17197,7 @@
       <c r="H73" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="I73" s="129"/>
+      <c r="I73" s="130"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="22">
@@ -16946,7 +17222,7 @@
       <c r="H74" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="I74" s="129"/>
+      <c r="I74" s="130"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="22">
@@ -16971,7 +17247,7 @@
       <c r="H75" s="100" t="s">
         <v>1175</v>
       </c>
-      <c r="I75" s="129"/>
+      <c r="I75" s="130"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="22">
@@ -16990,7 +17266,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="129" t="s">
+      <c r="I76" s="130" t="s">
         <v>577</v>
       </c>
     </row>
@@ -17011,7 +17287,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="129"/>
+      <c r="I77" s="130"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="22">
@@ -17030,7 +17306,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="129"/>
+      <c r="I78" s="130"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="22">
@@ -17049,7 +17325,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="129"/>
+      <c r="I79" s="130"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="22">
@@ -17068,7 +17344,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="129"/>
+      <c r="I80" s="130"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="22">
@@ -17085,7 +17361,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="129"/>
+      <c r="I81" s="130"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="22">
@@ -17104,7 +17380,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="129"/>
+      <c r="I82" s="130"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22">
@@ -17123,7 +17399,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="129"/>
+      <c r="I83" s="130"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="22">
@@ -17142,7 +17418,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="129"/>
+      <c r="I84" s="130"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="22">
@@ -17161,7 +17437,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="129"/>
+      <c r="I85" s="130"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="22">
@@ -17180,7 +17456,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="129"/>
+      <c r="I86" s="130"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="22">
@@ -17199,7 +17475,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="129"/>
+      <c r="I87" s="130"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="22">
@@ -17218,7 +17494,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="129"/>
+      <c r="I88" s="130"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="22">
@@ -17237,7 +17513,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="129"/>
+      <c r="I89" s="130"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="22">
@@ -17256,7 +17532,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="129"/>
+      <c r="I90" s="130"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="22">
@@ -17275,7 +17551,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="129"/>
+      <c r="I91" s="130"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="22">
@@ -17294,7 +17570,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="126" t="s">
+      <c r="I92" s="127" t="s">
         <v>578</v>
       </c>
     </row>
@@ -17315,7 +17591,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="127"/>
+      <c r="I93" s="128"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="22">
@@ -17334,7 +17610,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="127"/>
+      <c r="I94" s="128"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="22">
@@ -17353,7 +17629,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="127"/>
+      <c r="I95" s="128"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="22">
@@ -17372,7 +17648,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="127"/>
+      <c r="I96" s="128"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="22">
@@ -17391,7 +17667,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="127"/>
+      <c r="I97" s="128"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="22">
@@ -17410,7 +17686,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="127"/>
+      <c r="I98" s="128"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="22">
@@ -17429,7 +17705,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="20"/>
-      <c r="I99" s="127"/>
+      <c r="I99" s="128"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="22">
@@ -17448,7 +17724,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="127"/>
+      <c r="I100" s="128"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="22">
@@ -17467,7 +17743,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="127"/>
+      <c r="I101" s="128"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="22">
@@ -17486,7 +17762,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="127"/>
+      <c r="I102" s="128"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="22">
@@ -17505,7 +17781,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="127"/>
+      <c r="I103" s="128"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="22">
@@ -17522,7 +17798,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="127"/>
+      <c r="I104" s="128"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="22">
@@ -17539,7 +17815,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="127"/>
+      <c r="I105" s="128"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="22">
@@ -17556,7 +17832,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="127"/>
+      <c r="I106" s="128"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="22">
@@ -17573,7 +17849,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="20"/>
-      <c r="I107" s="128"/>
+      <c r="I107" s="129"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="63"/>
@@ -17587,12 +17863,12 @@
       <c r="I108" s="65"/>
     </row>
     <row r="110" spans="1:9" ht="22.5">
-      <c r="A110" s="130" t="s">
+      <c r="A110" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="B110" s="130"/>
-      <c r="C110" s="130"/>
-      <c r="D110" s="130"/>
+      <c r="B110" s="131"/>
+      <c r="C110" s="131"/>
+      <c r="D110" s="131"/>
       <c r="E110" s="18"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -17600,10 +17876,10 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="22.5">
-      <c r="A111" s="130"/>
-      <c r="B111" s="130"/>
-      <c r="C111" s="130"/>
-      <c r="D111" s="130"/>
+      <c r="A111" s="131"/>
+      <c r="B111" s="131"/>
+      <c r="C111" s="131"/>
+      <c r="D111" s="131"/>
       <c r="E111" s="18"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -17623,7 +17899,7 @@
       <c r="D112" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E112" s="126" t="s">
+      <c r="E112" s="127" t="s">
         <v>326</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -17635,7 +17911,7 @@
       <c r="H112" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I112" s="129" t="s">
+      <c r="I112" s="130" t="s">
         <v>327</v>
       </c>
     </row>
@@ -17652,7 +17928,7 @@
       <c r="D113" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="E113" s="127"/>
+      <c r="E113" s="128"/>
       <c r="F113" s="1" t="s">
         <v>322</v>
       </c>
@@ -17662,7 +17938,7 @@
       <c r="H113" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="I113" s="129"/>
+      <c r="I113" s="130"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6">
@@ -17677,7 +17953,7 @@
       <c r="D114" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="E114" s="127"/>
+      <c r="E114" s="128"/>
       <c r="F114" s="1" t="s">
         <v>103</v>
       </c>
@@ -17687,7 +17963,7 @@
       <c r="H114" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="I114" s="129"/>
+      <c r="I114" s="130"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6">
@@ -17702,7 +17978,7 @@
       <c r="D115" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="E115" s="127"/>
+      <c r="E115" s="128"/>
       <c r="F115" s="1" t="s">
         <v>105</v>
       </c>
@@ -17712,7 +17988,7 @@
       <c r="H115" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="I115" s="129"/>
+      <c r="I115" s="130"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6">
@@ -17727,7 +18003,7 @@
       <c r="D116" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="E116" s="127"/>
+      <c r="E116" s="128"/>
       <c r="F116" s="1" t="s">
         <v>107</v>
       </c>
@@ -17735,7 +18011,7 @@
         <v>308</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="129"/>
+      <c r="I116" s="130"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6">
@@ -17750,7 +18026,7 @@
       <c r="D117" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="E117" s="127"/>
+      <c r="E117" s="128"/>
       <c r="F117" s="1" t="s">
         <v>109</v>
       </c>
@@ -17758,7 +18034,7 @@
         <v>309</v>
       </c>
       <c r="H117" s="19"/>
-      <c r="I117" s="129"/>
+      <c r="I117" s="130"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6">
@@ -17773,7 +18049,7 @@
       <c r="D118" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E118" s="127"/>
+      <c r="E118" s="128"/>
       <c r="F118" s="1" t="s">
         <v>111</v>
       </c>
@@ -17781,7 +18057,7 @@
         <v>310</v>
       </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="129"/>
+      <c r="I118" s="130"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6">
@@ -17796,7 +18072,7 @@
       <c r="D119" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E119" s="127"/>
+      <c r="E119" s="128"/>
       <c r="F119" s="1" t="s">
         <v>113</v>
       </c>
@@ -17804,7 +18080,7 @@
         <v>311</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="129"/>
+      <c r="I119" s="130"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6">
@@ -17819,7 +18095,7 @@
       <c r="D120" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E120" s="127"/>
+      <c r="E120" s="128"/>
       <c r="F120" s="1" t="s">
         <v>115</v>
       </c>
@@ -17827,7 +18103,7 @@
         <v>312</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="129"/>
+      <c r="I120" s="130"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6">
@@ -17842,7 +18118,7 @@
       <c r="D121" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="E121" s="127"/>
+      <c r="E121" s="128"/>
       <c r="F121" s="1" t="s">
         <v>117</v>
       </c>
@@ -17850,7 +18126,7 @@
         <v>313</v>
       </c>
       <c r="H121" s="4"/>
-      <c r="I121" s="129"/>
+      <c r="I121" s="130"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6">
@@ -17863,7 +18139,7 @@
         <v>300</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="127"/>
+      <c r="E122" s="128"/>
       <c r="F122" s="1" t="s">
         <v>119</v>
       </c>
@@ -17871,7 +18147,7 @@
         <v>314</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="129"/>
+      <c r="I122" s="130"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6">
@@ -17884,7 +18160,7 @@
         <v>301</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="127"/>
+      <c r="E123" s="128"/>
       <c r="F123" s="1" t="s">
         <v>121</v>
       </c>
@@ -17892,7 +18168,7 @@
         <v>315</v>
       </c>
       <c r="H123" s="4"/>
-      <c r="I123" s="129"/>
+      <c r="I123" s="130"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6">
@@ -17905,7 +18181,7 @@
         <v>302</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="127"/>
+      <c r="E124" s="128"/>
       <c r="F124" s="1" t="s">
         <v>123</v>
       </c>
@@ -17913,7 +18189,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="129"/>
+      <c r="I124" s="130"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6">
@@ -17926,7 +18202,7 @@
         <v>303</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="127"/>
+      <c r="E125" s="128"/>
       <c r="F125" s="1" t="s">
         <v>125</v>
       </c>
@@ -17934,7 +18210,7 @@
         <v>317</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="I125" s="129"/>
+      <c r="I125" s="130"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6">
@@ -17947,7 +18223,7 @@
         <v>304</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="127"/>
+      <c r="E126" s="128"/>
       <c r="F126" s="1" t="s">
         <v>127</v>
       </c>
@@ -17955,7 +18231,7 @@
         <v>318</v>
       </c>
       <c r="H126" s="4"/>
-      <c r="I126" s="129"/>
+      <c r="I126" s="130"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6">
@@ -17968,7 +18244,7 @@
         <v>305</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="127"/>
+      <c r="E127" s="128"/>
       <c r="F127" s="1" t="s">
         <v>129</v>
       </c>
@@ -17976,7 +18252,7 @@
         <v>319</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="129"/>
+      <c r="I127" s="130"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6">
@@ -17989,7 +18265,7 @@
         <v>321</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="128"/>
+      <c r="E128" s="129"/>
       <c r="F128" s="1" t="s">
         <v>323</v>
       </c>
@@ -17997,7 +18273,7 @@
         <v>325</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="129"/>
+      <c r="I128" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -18518,14 +18794,14 @@
       <c r="B7" s="43" t="s">
         <v>1267</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="143" t="s">
         <v>1266</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134" t="s">
+      <c r="D7" s="143"/>
+      <c r="E7" s="143" t="s">
         <v>1265</v>
       </c>
-      <c r="F7" s="134"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="106" t="s">
         <v>1264</v>
       </c>
@@ -18541,17 +18817,17 @@
       <c r="K7" s="44" t="s">
         <v>1260</v>
       </c>
-      <c r="L7" s="135" t="s">
+      <c r="L7" s="132" t="s">
         <v>1259</v>
       </c>
-      <c r="M7" s="135"/>
+      <c r="M7" s="132"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="133" t="s">
         <v>1258</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -18585,7 +18861,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="136"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="46" t="s">
         <v>1253</v>
       </c>
@@ -18615,7 +18891,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="136"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="52" t="s">
         <v>1249</v>
       </c>
@@ -18645,7 +18921,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="136"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="52" t="s">
         <v>1246</v>
       </c>
@@ -18675,7 +18951,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="136"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="52" t="s">
         <v>1246</v>
       </c>
@@ -18704,7 +18980,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="136"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -18733,7 +19009,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="136"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -18760,7 +19036,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="136"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -18787,7 +19063,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="136"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -18814,7 +19090,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="136"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -18843,7 +19119,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="136"/>
+      <c r="C18" s="133"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -18870,7 +19146,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="136"/>
+      <c r="C19" s="133"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -18895,7 +19171,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="136"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -18922,7 +19198,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="136"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -18949,7 +19225,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="136"/>
+      <c r="C22" s="133"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -18978,7 +19254,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="136"/>
+      <c r="C23" s="133"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -19007,7 +19283,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -19036,7 +19312,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="136"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -19065,7 +19341,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="136"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="54" t="s">
         <v>1241</v>
       </c>
@@ -19090,7 +19366,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="136"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="54" t="s">
         <v>1240</v>
       </c>
@@ -19115,7 +19391,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="136"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="79" t="s">
         <v>1239</v>
       </c>
@@ -19142,7 +19418,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="136"/>
+      <c r="C29" s="133"/>
       <c r="D29" s="54" t="s">
         <v>1236</v>
       </c>
@@ -19171,7 +19447,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="136"/>
+      <c r="C30" s="133"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -19198,7 +19474,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="136"/>
+      <c r="C31" s="133"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -19227,7 +19503,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="136"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -19252,7 +19528,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="136"/>
+      <c r="C33" s="133"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -19281,7 +19557,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="134" t="s">
         <v>1234</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -19312,7 +19588,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="131"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -19341,7 +19617,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="131"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -19370,7 +19646,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="131"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -19399,7 +19675,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="131"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -19428,7 +19704,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="131"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -19457,7 +19733,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="131"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -19486,7 +19762,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="131"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -19515,7 +19791,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="131"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -19544,7 +19820,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="131"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -19573,7 +19849,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="131"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -19604,7 +19880,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="131"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -19633,7 +19909,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="132" t="s">
+      <c r="C46" s="135" t="s">
         <v>1232</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -19662,7 +19938,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="133"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -19689,7 +19965,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="133"/>
+      <c r="C48" s="136"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -19718,7 +19994,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="133"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -19747,7 +20023,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="131" t="s">
+      <c r="C50" s="134" t="s">
         <v>1230</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -19776,7 +20052,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="131"/>
+      <c r="C51" s="134"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -19801,7 +20077,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="131"/>
+      <c r="C52" s="134"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -19828,7 +20104,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="131"/>
+      <c r="C53" s="134"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -19855,7 +20131,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="131"/>
+      <c r="C54" s="134"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -19882,7 +20158,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="131"/>
+      <c r="C55" s="134"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -19905,7 +20181,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="131"/>
+      <c r="C56" s="134"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -19928,7 +20204,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="131"/>
+      <c r="C57" s="134"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -19955,7 +20231,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="131"/>
+      <c r="C58" s="134"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -19978,7 +20254,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="131"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -20005,7 +20281,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="131"/>
+      <c r="C60" s="134"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -20030,7 +20306,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="131"/>
+      <c r="C61" s="134"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -20055,7 +20331,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="131"/>
+      <c r="C62" s="134"/>
       <c r="D62" s="53" t="s">
         <v>1229</v>
       </c>
@@ -20086,7 +20362,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="131"/>
+      <c r="C63" s="134"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -20113,7 +20389,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="131"/>
+      <c r="C64" s="134"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -20140,7 +20416,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="131"/>
+      <c r="C65" s="134"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -20167,7 +20443,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="131"/>
+      <c r="C66" s="134"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -20194,7 +20470,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="131"/>
+      <c r="C67" s="134"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -20221,7 +20497,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="131"/>
+      <c r="C68" s="134"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -20248,7 +20524,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="131"/>
+      <c r="C69" s="134"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -20275,7 +20551,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="131"/>
+      <c r="C70" s="134"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -20304,7 +20580,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="131"/>
+      <c r="C71" s="134"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -20335,7 +20611,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="131"/>
+      <c r="C72" s="134"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -20360,7 +20636,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="131"/>
+      <c r="C73" s="134"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -20387,7 +20663,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="131"/>
+      <c r="C74" s="134"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -20414,7 +20690,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="131"/>
+      <c r="C75" s="134"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -20441,7 +20717,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="131"/>
+      <c r="C76" s="134"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -20468,7 +20744,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="131"/>
+      <c r="C77" s="134"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -20497,7 +20773,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="131"/>
+      <c r="C78" s="134"/>
       <c r="D78" s="82" t="s">
         <v>1221</v>
       </c>
@@ -20524,7 +20800,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="131"/>
+      <c r="C79" s="134"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -20551,7 +20827,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="131"/>
+      <c r="C80" s="134"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -20580,7 +20856,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="131"/>
+      <c r="C81" s="134"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -20609,7 +20885,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="131"/>
+      <c r="C82" s="134"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -20638,7 +20914,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="131"/>
+      <c r="C83" s="134"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -20667,7 +20943,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="131"/>
+      <c r="C84" s="134"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -20696,7 +20972,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="131"/>
+      <c r="C85" s="134"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -20725,7 +21001,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="131"/>
+      <c r="C86" s="134"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -20754,7 +21030,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="131"/>
+      <c r="C87" s="134"/>
       <c r="D87" s="53" t="s">
         <v>1219</v>
       </c>
@@ -20785,7 +21061,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="131"/>
+      <c r="C88" s="134"/>
       <c r="D88" s="53" t="s">
         <v>1217</v>
       </c>
@@ -20816,7 +21092,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="131"/>
+      <c r="C89" s="134"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -20847,7 +21123,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="131"/>
+      <c r="C90" s="134"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -20878,7 +21154,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="131"/>
+      <c r="C91" s="134"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -20907,7 +21183,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="132" t="s">
+      <c r="C92" s="135" t="s">
         <v>1211</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -20934,7 +21210,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="133"/>
+      <c r="C93" s="136"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -20959,7 +21235,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="133"/>
+      <c r="C94" s="136"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -20984,7 +21260,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="133"/>
+      <c r="C95" s="136"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -21009,7 +21285,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="133"/>
+      <c r="C96" s="136"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -21036,7 +21312,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="133"/>
+      <c r="C97" s="136"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -21063,7 +21339,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="131" t="s">
+      <c r="C98" s="134" t="s">
         <v>1209</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -21090,7 +21366,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="131"/>
+      <c r="C99" s="134"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -21115,7 +21391,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="131"/>
+      <c r="C100" s="134"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -21140,7 +21416,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="131"/>
+      <c r="C101" s="134"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -21169,7 +21445,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="131"/>
+      <c r="C102" s="134"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -21192,7 +21468,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="131"/>
+      <c r="C103" s="134"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -21215,7 +21491,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="131"/>
+      <c r="C104" s="134"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -21236,7 +21512,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="131"/>
+      <c r="C105" s="134"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -21257,7 +21533,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="131"/>
+      <c r="C106" s="134"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -21278,7 +21554,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="131"/>
+      <c r="C107" s="134"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -21299,7 +21575,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="131"/>
+      <c r="C108" s="134"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -21320,7 +21596,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="131"/>
+      <c r="C109" s="134"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -21341,7 +21617,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="131"/>
+      <c r="C110" s="134"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -21362,7 +21638,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="131"/>
+      <c r="C111" s="134"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -21383,7 +21659,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="131"/>
+      <c r="C112" s="134"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -21404,7 +21680,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="131"/>
+      <c r="C113" s="134"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -21425,7 +21701,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="131"/>
+      <c r="C114" s="134"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -21446,7 +21722,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="131"/>
+      <c r="C115" s="134"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -21467,7 +21743,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="131"/>
+      <c r="C116" s="134"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -21488,7 +21764,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="131"/>
+      <c r="C117" s="134"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -21509,7 +21785,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="131"/>
+      <c r="C118" s="134"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -21530,7 +21806,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="131"/>
+      <c r="C119" s="134"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -21555,6 +21831,11 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -21566,11 +21847,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -21614,7 +21890,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>607</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -21625,7 +21901,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="129"/>
+      <c r="A2" s="130"/>
       <c r="B2" s="1" t="s">
         <v>605</v>
       </c>
@@ -21634,7 +21910,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="129"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="1" t="s">
         <v>606</v>
       </c>
@@ -21643,7 +21919,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="130" t="s">
         <v>606</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -21654,7 +21930,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="129"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="1" t="s">
         <v>608</v>
       </c>
@@ -21663,7 +21939,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="129"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="1" t="s">
         <v>609</v>
       </c>
@@ -21672,7 +21948,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="1" t="s">
         <v>610</v>
       </c>
@@ -21681,7 +21957,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="130" t="s">
         <v>611</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -21692,7 +21968,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="129"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="1" t="s">
         <v>613</v>
       </c>
@@ -21750,7 +22026,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="126">
+      <c r="A3" s="127">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -21765,7 +22041,7 @@
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="127"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -21780,7 +22056,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="127"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -21795,7 +22071,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="127"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -21810,7 +22086,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="127"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -21825,7 +22101,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="127"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -21840,7 +22116,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="127"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -21855,7 +22131,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="127"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -21866,7 +22142,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="127"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -21877,7 +22153,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="128"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -21912,7 +22188,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="126">
+      <c r="A15" s="127">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -21927,7 +22203,7 @@
       <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="127"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -21942,7 +22218,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="127"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -21957,7 +22233,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="127"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -21972,7 +22248,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="127"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -21987,7 +22263,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="127"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -22002,7 +22278,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="127"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -22017,7 +22293,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="127"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -22028,7 +22304,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="127"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -22039,7 +22315,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="128"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -22074,7 +22350,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="126">
+      <c r="A27" s="127">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -22089,7 +22365,7 @@
       <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="127"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -22104,7 +22380,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="127"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -22119,7 +22395,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="127"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -22134,7 +22410,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="127"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -22149,7 +22425,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="127"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -22164,7 +22440,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="127"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -22179,7 +22455,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="127"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -22194,7 +22470,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="127"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -22205,7 +22481,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="128"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -22240,7 +22516,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="126">
+      <c r="A39" s="127">
         <v>4</v>
       </c>
       <c r="B39" s="1">
@@ -22255,7 +22531,7 @@
       <c r="E39" s="66"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="127"/>
+      <c r="A40" s="128"/>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -22270,7 +22546,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="127"/>
+      <c r="A41" s="128"/>
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -22285,7 +22561,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="127"/>
+      <c r="A42" s="128"/>
       <c r="B42" s="1">
         <v>4</v>
       </c>
@@ -22300,7 +22576,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="127"/>
+      <c r="A43" s="128"/>
       <c r="B43" s="1">
         <v>5</v>
       </c>
@@ -22315,7 +22591,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="127"/>
+      <c r="A44" s="128"/>
       <c r="B44" s="1">
         <v>6</v>
       </c>
@@ -22330,7 +22606,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="127"/>
+      <c r="A45" s="128"/>
       <c r="B45" s="1">
         <v>7</v>
       </c>
@@ -22341,7 +22617,7 @@
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="127"/>
+      <c r="A46" s="128"/>
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -22352,7 +22628,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="127"/>
+      <c r="A47" s="128"/>
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -22363,7 +22639,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="128"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="1">
         <v>10</v>
       </c>
@@ -22398,7 +22674,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="126">
+      <c r="A51" s="127">
         <v>5</v>
       </c>
       <c r="B51" s="1">
@@ -22413,7 +22689,7 @@
       <c r="E51" s="66"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="127"/>
+      <c r="A52" s="128"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -22428,7 +22704,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="127"/>
+      <c r="A53" s="128"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -22443,7 +22719,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="127"/>
+      <c r="A54" s="128"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -22458,7 +22734,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="127"/>
+      <c r="A55" s="128"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -22473,7 +22749,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="127"/>
+      <c r="A56" s="128"/>
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -22488,7 +22764,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="127"/>
+      <c r="A57" s="128"/>
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -22503,7 +22779,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="127"/>
+      <c r="A58" s="128"/>
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -22518,7 +22794,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="127"/>
+      <c r="A59" s="128"/>
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -22533,7 +22809,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="128"/>
+      <c r="A60" s="129"/>
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -22568,7 +22844,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="126">
+      <c r="A63" s="127">
         <v>6</v>
       </c>
       <c r="B63" s="1">
@@ -22583,7 +22859,7 @@
       <c r="E63" s="66"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="127"/>
+      <c r="A64" s="128"/>
       <c r="B64" s="1">
         <v>2</v>
       </c>
@@ -22598,7 +22874,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="127"/>
+      <c r="A65" s="128"/>
       <c r="B65" s="1">
         <v>3</v>
       </c>
@@ -22613,7 +22889,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="127"/>
+      <c r="A66" s="128"/>
       <c r="B66" s="1">
         <v>4</v>
       </c>
@@ -22628,7 +22904,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="127"/>
+      <c r="A67" s="128"/>
       <c r="B67" s="1">
         <v>5</v>
       </c>
@@ -22643,7 +22919,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="127"/>
+      <c r="A68" s="128"/>
       <c r="B68" s="1">
         <v>6</v>
       </c>
@@ -22658,7 +22934,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="127"/>
+      <c r="A69" s="128"/>
       <c r="B69" s="1">
         <v>7</v>
       </c>
@@ -22673,7 +22949,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="127"/>
+      <c r="A70" s="128"/>
       <c r="B70" s="1">
         <v>8</v>
       </c>
@@ -22688,7 +22964,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="127"/>
+      <c r="A71" s="128"/>
       <c r="B71" s="1">
         <v>9</v>
       </c>
@@ -22703,7 +22979,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="128"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="1">
         <v>10</v>
       </c>
@@ -22738,7 +23014,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="126">
+      <c r="A75" s="127">
         <v>7</v>
       </c>
       <c r="B75" s="1">
@@ -22753,7 +23029,7 @@
       <c r="E75" s="66"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="127"/>
+      <c r="A76" s="128"/>
       <c r="B76" s="1">
         <v>2</v>
       </c>
@@ -22768,7 +23044,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="127"/>
+      <c r="A77" s="128"/>
       <c r="B77" s="1">
         <v>3</v>
       </c>
@@ -22783,7 +23059,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="127"/>
+      <c r="A78" s="128"/>
       <c r="B78" s="1">
         <v>4</v>
       </c>
@@ -22798,7 +23074,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="127"/>
+      <c r="A79" s="128"/>
       <c r="B79" s="1">
         <v>5</v>
       </c>
@@ -22813,7 +23089,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="127"/>
+      <c r="A80" s="128"/>
       <c r="B80" s="1">
         <v>6</v>
       </c>
@@ -22828,7 +23104,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="127"/>
+      <c r="A81" s="128"/>
       <c r="B81" s="1">
         <v>7</v>
       </c>
@@ -22843,7 +23119,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="127"/>
+      <c r="A82" s="128"/>
       <c r="B82" s="1">
         <v>8</v>
       </c>
@@ -22858,7 +23134,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="127"/>
+      <c r="A83" s="128"/>
       <c r="B83" s="1">
         <v>9</v>
       </c>
@@ -22873,7 +23149,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="128"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="1">
         <v>10</v>
       </c>
@@ -22908,7 +23184,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="126">
+      <c r="A87" s="127">
         <v>8</v>
       </c>
       <c r="B87" s="1">
@@ -22923,7 +23199,7 @@
       <c r="E87" s="66"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="127"/>
+      <c r="A88" s="128"/>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -22938,7 +23214,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="127"/>
+      <c r="A89" s="128"/>
       <c r="B89" s="1">
         <v>3</v>
       </c>
@@ -22953,7 +23229,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="127"/>
+      <c r="A90" s="128"/>
       <c r="B90" s="1">
         <v>4</v>
       </c>
@@ -22968,7 +23244,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="127"/>
+      <c r="A91" s="128"/>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -22983,7 +23259,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="127"/>
+      <c r="A92" s="128"/>
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -22998,7 +23274,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="127"/>
+      <c r="A93" s="128"/>
       <c r="B93" s="1">
         <v>7</v>
       </c>
@@ -23013,7 +23289,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="127"/>
+      <c r="A94" s="128"/>
       <c r="B94" s="1">
         <v>8</v>
       </c>
@@ -23024,7 +23300,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="127"/>
+      <c r="A95" s="128"/>
       <c r="B95" s="1">
         <v>9</v>
       </c>
@@ -23035,7 +23311,7 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="128"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="1">
         <v>10</v>
       </c>
@@ -23070,7 +23346,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="126">
+      <c r="A99" s="127">
         <v>9</v>
       </c>
       <c r="B99" s="1">
@@ -23085,7 +23361,7 @@
       <c r="E99" s="66"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="127"/>
+      <c r="A100" s="128"/>
       <c r="B100" s="1">
         <v>2</v>
       </c>
@@ -23100,7 +23376,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="127"/>
+      <c r="A101" s="128"/>
       <c r="B101" s="1">
         <v>3</v>
       </c>
@@ -23115,7 +23391,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="127"/>
+      <c r="A102" s="128"/>
       <c r="B102" s="1">
         <v>4</v>
       </c>
@@ -23130,7 +23406,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="127"/>
+      <c r="A103" s="128"/>
       <c r="B103" s="1">
         <v>5</v>
       </c>
@@ -23145,7 +23421,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="127"/>
+      <c r="A104" s="128"/>
       <c r="B104" s="1">
         <v>6</v>
       </c>
@@ -23160,7 +23436,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="127"/>
+      <c r="A105" s="128"/>
       <c r="B105" s="1">
         <v>7</v>
       </c>
@@ -23175,7 +23451,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="127"/>
+      <c r="A106" s="128"/>
       <c r="B106" s="1">
         <v>8</v>
       </c>
@@ -23186,7 +23462,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="127"/>
+      <c r="A107" s="128"/>
       <c r="B107" s="1">
         <v>9</v>
       </c>
@@ -23197,7 +23473,7 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="128"/>
+      <c r="A108" s="129"/>
       <c r="B108" s="1">
         <v>10</v>
       </c>
@@ -23232,7 +23508,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="126">
+      <c r="A111" s="127">
         <v>10</v>
       </c>
       <c r="B111" s="1">
@@ -23247,7 +23523,7 @@
       <c r="E111" s="66"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="127"/>
+      <c r="A112" s="128"/>
       <c r="B112" s="1">
         <v>2</v>
       </c>
@@ -23262,7 +23538,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="127"/>
+      <c r="A113" s="128"/>
       <c r="B113" s="1">
         <v>3</v>
       </c>
@@ -23277,7 +23553,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="127"/>
+      <c r="A114" s="128"/>
       <c r="B114" s="1">
         <v>4</v>
       </c>
@@ -23292,7 +23568,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="127"/>
+      <c r="A115" s="128"/>
       <c r="B115" s="1">
         <v>5</v>
       </c>
@@ -23307,7 +23583,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="127"/>
+      <c r="A116" s="128"/>
       <c r="B116" s="1">
         <v>6</v>
       </c>
@@ -23322,7 +23598,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="127"/>
+      <c r="A117" s="128"/>
       <c r="B117" s="1">
         <v>7</v>
       </c>
@@ -23337,7 +23613,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="127"/>
+      <c r="A118" s="128"/>
       <c r="B118" s="1">
         <v>8</v>
       </c>
@@ -23352,7 +23628,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="127"/>
+      <c r="A119" s="128"/>
       <c r="B119" s="1">
         <v>9</v>
       </c>
@@ -23363,7 +23639,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="128"/>
+      <c r="A120" s="129"/>
       <c r="B120" s="1">
         <v>10</v>
       </c>
@@ -23398,7 +23674,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="126">
+      <c r="A123" s="127">
         <v>11</v>
       </c>
       <c r="B123" s="1">
@@ -23413,7 +23689,7 @@
       <c r="E123" s="66"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="127"/>
+      <c r="A124" s="128"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -23428,7 +23704,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="127"/>
+      <c r="A125" s="128"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -23443,7 +23719,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="127"/>
+      <c r="A126" s="128"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -23458,7 +23734,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="127"/>
+      <c r="A127" s="128"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -23473,7 +23749,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="127"/>
+      <c r="A128" s="128"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -23488,7 +23764,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="127"/>
+      <c r="A129" s="128"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -23503,7 +23779,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="127"/>
+      <c r="A130" s="128"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -23514,7 +23790,7 @@
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="127"/>
+      <c r="A131" s="128"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -23525,7 +23801,7 @@
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="128"/>
+      <c r="A132" s="129"/>
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -23560,7 +23836,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="126">
+      <c r="A135" s="127">
         <v>12</v>
       </c>
       <c r="B135" s="1">
@@ -23575,7 +23851,7 @@
       <c r="E135" s="66"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="127"/>
+      <c r="A136" s="128"/>
       <c r="B136" s="1">
         <v>2</v>
       </c>
@@ -23590,7 +23866,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="127"/>
+      <c r="A137" s="128"/>
       <c r="B137" s="1">
         <v>3</v>
       </c>
@@ -23605,7 +23881,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="127"/>
+      <c r="A138" s="128"/>
       <c r="B138" s="1">
         <v>4</v>
       </c>
@@ -23620,7 +23896,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="127"/>
+      <c r="A139" s="128"/>
       <c r="B139" s="1">
         <v>5</v>
       </c>
@@ -23635,7 +23911,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="127"/>
+      <c r="A140" s="128"/>
       <c r="B140" s="1">
         <v>6</v>
       </c>
@@ -23650,7 +23926,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="127"/>
+      <c r="A141" s="128"/>
       <c r="B141" s="1">
         <v>7</v>
       </c>
@@ -23665,7 +23941,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="127"/>
+      <c r="A142" s="128"/>
       <c r="B142" s="1">
         <v>8</v>
       </c>
@@ -23676,7 +23952,7 @@
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="127"/>
+      <c r="A143" s="128"/>
       <c r="B143" s="1">
         <v>9</v>
       </c>
@@ -23687,7 +23963,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="128"/>
+      <c r="A144" s="129"/>
       <c r="B144" s="1">
         <v>10</v>
       </c>
@@ -23722,7 +23998,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="129">
+      <c r="A147" s="130">
         <v>13</v>
       </c>
       <c r="B147" s="1">
@@ -23735,7 +24011,7 @@
       <c r="E147" s="66"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="129"/>
+      <c r="A148" s="130"/>
       <c r="B148" s="1">
         <v>2</v>
       </c>
@@ -23748,7 +24024,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="129"/>
+      <c r="A149" s="130"/>
       <c r="B149" s="1">
         <v>3</v>
       </c>
@@ -23761,7 +24037,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="129"/>
+      <c r="A150" s="130"/>
       <c r="B150" s="1">
         <v>4</v>
       </c>
@@ -23774,7 +24050,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="129"/>
+      <c r="A151" s="130"/>
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -23787,7 +24063,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="129"/>
+      <c r="A152" s="130"/>
       <c r="B152" s="1">
         <v>6</v>
       </c>
@@ -23813,7 +24089,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="129">
+      <c r="A155" s="130">
         <v>14</v>
       </c>
       <c r="B155" s="1">
@@ -23826,7 +24102,7 @@
       <c r="E155" s="66"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="129"/>
+      <c r="A156" s="130"/>
       <c r="B156" s="1">
         <v>2</v>
       </c>
@@ -23839,7 +24115,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="129"/>
+      <c r="A157" s="130"/>
       <c r="B157" s="1">
         <v>3</v>
       </c>
@@ -23852,7 +24128,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="129"/>
+      <c r="A158" s="130"/>
       <c r="B158" s="1">
         <v>4</v>
       </c>
@@ -23865,7 +24141,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="129"/>
+      <c r="A159" s="130"/>
       <c r="B159" s="1">
         <v>5</v>
       </c>
@@ -23878,7 +24154,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="129"/>
+      <c r="A160" s="130"/>
       <c r="B160" s="1">
         <v>6</v>
       </c>
@@ -23904,7 +24180,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="129">
+      <c r="A163" s="130">
         <v>15</v>
       </c>
       <c r="B163" s="1">
@@ -23917,7 +24193,7 @@
       <c r="E163" s="66"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="129"/>
+      <c r="A164" s="130"/>
       <c r="B164" s="1">
         <v>2</v>
       </c>
@@ -23930,7 +24206,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="129"/>
+      <c r="A165" s="130"/>
       <c r="B165" s="1">
         <v>3</v>
       </c>
@@ -23943,7 +24219,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="129"/>
+      <c r="A166" s="130"/>
       <c r="B166" s="1">
         <v>4</v>
       </c>
@@ -23956,7 +24232,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="129"/>
+      <c r="A167" s="130"/>
       <c r="B167" s="1">
         <v>5</v>
       </c>
@@ -23969,7 +24245,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="129"/>
+      <c r="A168" s="130"/>
       <c r="B168" s="1">
         <v>6</v>
       </c>
@@ -23995,7 +24271,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="129">
+      <c r="A171" s="130">
         <v>16</v>
       </c>
       <c r="B171" s="1">
@@ -24008,7 +24284,7 @@
       <c r="E171" s="66"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="129"/>
+      <c r="A172" s="130"/>
       <c r="B172" s="1">
         <v>2</v>
       </c>
@@ -24021,7 +24297,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="129"/>
+      <c r="A173" s="130"/>
       <c r="B173" s="1">
         <v>3</v>
       </c>
@@ -24034,7 +24310,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="129"/>
+      <c r="A174" s="130"/>
       <c r="B174" s="1">
         <v>4</v>
       </c>
@@ -24047,7 +24323,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="129"/>
+      <c r="A175" s="130"/>
       <c r="B175" s="1">
         <v>5</v>
       </c>
@@ -24060,7 +24336,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="129"/>
+      <c r="A176" s="130"/>
       <c r="B176" s="1">
         <v>6</v>
       </c>
@@ -24086,7 +24362,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="126">
+      <c r="A179" s="127">
         <v>17</v>
       </c>
       <c r="B179" s="1">
@@ -24101,7 +24377,7 @@
       <c r="E179" s="66"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="127"/>
+      <c r="A180" s="128"/>
       <c r="B180" s="1">
         <v>2</v>
       </c>
@@ -24116,7 +24392,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="127"/>
+      <c r="A181" s="128"/>
       <c r="B181" s="1">
         <v>3</v>
       </c>
@@ -24131,7 +24407,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="127"/>
+      <c r="A182" s="128"/>
       <c r="B182" s="1">
         <v>4</v>
       </c>
@@ -24146,7 +24422,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="127"/>
+      <c r="A183" s="128"/>
       <c r="B183" s="1">
         <v>5</v>
       </c>
@@ -24161,7 +24437,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="127"/>
+      <c r="A184" s="128"/>
       <c r="B184" s="1">
         <v>6</v>
       </c>
@@ -24176,7 +24452,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="127"/>
+      <c r="A185" s="128"/>
       <c r="B185" s="1">
         <v>7</v>
       </c>
@@ -24191,7 +24467,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="127"/>
+      <c r="A186" s="128"/>
       <c r="B186" s="1">
         <v>8</v>
       </c>
@@ -24206,7 +24482,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="127"/>
+      <c r="A187" s="128"/>
       <c r="B187" s="1">
         <v>9</v>
       </c>
@@ -24221,7 +24497,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="128"/>
+      <c r="A188" s="129"/>
       <c r="B188" s="1">
         <v>10</v>
       </c>
@@ -24235,16 +24511,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -24252,6 +24518,16 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24339,13 +24615,13 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="145" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="144" t="s">
         <v>760</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="144" t="s">
         <v>723</v>
       </c>
       <c r="D2" s="68">
@@ -24357,13 +24633,13 @@
       <c r="F2" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="145" t="s">
         <v>824</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="I2" s="144" t="s">
         <v>825</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="144" t="s">
         <v>859</v>
       </c>
       <c r="K2" s="68">
@@ -24375,13 +24651,13 @@
       <c r="M2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="O2" s="144" t="s">
+      <c r="O2" s="145" t="s">
         <v>858</v>
       </c>
-      <c r="P2" s="143" t="s">
+      <c r="P2" s="144" t="s">
         <v>825</v>
       </c>
-      <c r="Q2" s="143" t="s">
+      <c r="Q2" s="144" t="s">
         <v>860</v>
       </c>
       <c r="R2" s="68">
@@ -24395,9 +24671,9 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="144"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="143"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="144"/>
       <c r="D3" s="68">
         <v>2</v>
       </c>
@@ -24407,9 +24683,9 @@
       <c r="F3" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="143"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="144"/>
       <c r="K3" s="68">
         <v>2</v>
       </c>
@@ -24419,9 +24695,9 @@
       <c r="M3" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="143"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="144"/>
       <c r="R3" s="68">
         <v>2</v>
       </c>
@@ -24433,9 +24709,9 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="144"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="143"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="144"/>
       <c r="D4" s="68">
         <v>3</v>
       </c>
@@ -24445,9 +24721,9 @@
       <c r="F4" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="143"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="144"/>
       <c r="K4" s="68">
         <v>3</v>
       </c>
@@ -24457,9 +24733,9 @@
       <c r="M4" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="O4" s="144"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="143"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="144"/>
       <c r="R4" s="68">
         <v>3</v>
       </c>
@@ -24471,9 +24747,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="144"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="143"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="68">
         <v>4</v>
       </c>
@@ -24483,17 +24759,17 @@
       <c r="F5" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="143"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="68">
         <v>4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="143"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="144"/>
       <c r="R5" s="68">
         <v>4</v>
       </c>
@@ -24501,25 +24777,25 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="144"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="143"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="68">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="143"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="68">
         <v>5</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="143"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="144"/>
       <c r="R6" s="68">
         <v>5</v>
       </c>
@@ -24527,25 +24803,25 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="144"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="143"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="68">
         <v>6</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="143"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="68">
         <v>6</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="143"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="144"/>
       <c r="R7" s="68">
         <v>6</v>
       </c>
@@ -24553,9 +24829,9 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="144"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="143"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="68">
         <v>7</v>
       </c>
@@ -24565,9 +24841,9 @@
       <c r="F8" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="143"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="144"/>
       <c r="K8" s="68">
         <v>7</v>
       </c>
@@ -24577,9 +24853,9 @@
       <c r="M8" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="O8" s="144"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="143"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="144"/>
       <c r="R8" s="68">
         <v>7</v>
       </c>
@@ -24591,9 +24867,9 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="144"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="143"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="68">
         <v>8</v>
       </c>
@@ -24603,9 +24879,9 @@
       <c r="F9" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="143"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="144"/>
       <c r="K9" s="68">
         <v>8</v>
       </c>
@@ -24615,9 +24891,9 @@
       <c r="M9" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="O9" s="144"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="143"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="144"/>
       <c r="R9" s="68">
         <v>8</v>
       </c>
@@ -24629,9 +24905,9 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="144"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="143"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="68">
         <v>9</v>
       </c>
@@ -24641,17 +24917,17 @@
       <c r="F10" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="143"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="144"/>
       <c r="K10" s="68">
         <v>9</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="143"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="144"/>
       <c r="R10" s="68">
         <v>9</v>
       </c>
@@ -24659,9 +24935,9 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="144"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="143"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="68">
         <v>10</v>
       </c>
@@ -24671,17 +24947,17 @@
       <c r="F11" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="143"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="144"/>
       <c r="K11" s="68">
         <v>10</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="143"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="144"/>
       <c r="R11" s="68">
         <v>10</v>
       </c>
@@ -24689,9 +24965,9 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="144"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="143"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="68">
         <v>11</v>
       </c>
@@ -24701,17 +24977,17 @@
       <c r="F12" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="143"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="144"/>
       <c r="K12" s="68">
         <v>11</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="143"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="144"/>
       <c r="R12" s="68">
         <v>11</v>
       </c>
@@ -24719,9 +24995,9 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="144"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="143"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="68">
         <v>12</v>
       </c>
@@ -24731,17 +25007,17 @@
       <c r="F13" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="143"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="68">
         <v>12</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="143"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="144"/>
       <c r="R13" s="68">
         <v>12</v>
       </c>
@@ -24749,17 +25025,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="144"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="143"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="68">
         <v>13</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="143"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="144"/>
       <c r="K14" s="68">
         <v>13</v>
       </c>
@@ -24769,9 +25045,9 @@
       <c r="M14" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="O14" s="144"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="143"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="144"/>
       <c r="R14" s="68">
         <v>13</v>
       </c>
@@ -24783,9 +25059,9 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="144"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="143"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="68">
         <v>14</v>
       </c>
@@ -24795,9 +25071,9 @@
       <c r="F15" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="143"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="144"/>
       <c r="K15" s="68">
         <v>14</v>
       </c>
@@ -24807,9 +25083,9 @@
       <c r="M15" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="O15" s="144"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="143"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="144"/>
       <c r="R15" s="68">
         <v>14</v>
       </c>
@@ -24821,9 +25097,9 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="144"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="143"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="68">
         <v>15</v>
       </c>
@@ -24833,9 +25109,9 @@
       <c r="F16" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H16" s="144"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="143"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="68">
         <v>15</v>
       </c>
@@ -24845,9 +25121,9 @@
       <c r="M16" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="O16" s="144"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="143"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="144"/>
       <c r="R16" s="68">
         <v>15</v>
       </c>
@@ -24859,9 +25135,9 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="144"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="143"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="68">
         <v>16</v>
       </c>
@@ -24871,9 +25147,9 @@
       <c r="F17" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="143"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="144"/>
       <c r="K17" s="68">
         <v>16</v>
       </c>
@@ -24883,9 +25159,9 @@
       <c r="M17" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="O17" s="144"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="143"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="144"/>
       <c r="R17" s="68">
         <v>16</v>
       </c>
@@ -24897,9 +25173,9 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="144"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="143"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="68">
         <v>17</v>
       </c>
@@ -24909,9 +25185,9 @@
       <c r="F18" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="143"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="68">
         <v>17</v>
       </c>
@@ -24921,9 +25197,9 @@
       <c r="M18" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="O18" s="144"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="143"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="144"/>
       <c r="R18" s="68">
         <v>17</v>
       </c>
@@ -24935,9 +25211,9 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="144"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="143"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="68">
         <v>18</v>
       </c>
@@ -24947,9 +25223,9 @@
       <c r="F19" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="143"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="144"/>
       <c r="K19" s="68">
         <v>18</v>
       </c>
@@ -24959,9 +25235,9 @@
       <c r="M19" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="O19" s="144"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="143"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="144"/>
       <c r="R19" s="68">
         <v>18</v>
       </c>
@@ -24973,9 +25249,9 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="144"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="143"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="68">
         <v>19</v>
       </c>
@@ -24985,9 +25261,9 @@
       <c r="F20" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H20" s="144"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="143"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="144"/>
       <c r="K20" s="68">
         <v>19</v>
       </c>
@@ -24997,9 +25273,9 @@
       <c r="M20" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="O20" s="144"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="143"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="144"/>
       <c r="R20" s="68">
         <v>19</v>
       </c>
@@ -25011,9 +25287,9 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="144"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="143"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="68">
         <v>20</v>
       </c>
@@ -25023,9 +25299,9 @@
       <c r="F21" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="143"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="144"/>
       <c r="K21" s="68">
         <v>20</v>
       </c>
@@ -25035,9 +25311,9 @@
       <c r="M21" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="O21" s="144"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="143"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="144"/>
       <c r="R21" s="68">
         <v>20</v>
       </c>
@@ -25049,9 +25325,9 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="144"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="143"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="68">
         <v>21</v>
       </c>
@@ -25061,9 +25337,9 @@
       <c r="F22" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="H22" s="144"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="143"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="144"/>
       <c r="K22" s="68">
         <v>21</v>
       </c>
@@ -25073,9 +25349,9 @@
       <c r="M22" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="O22" s="144"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="143"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="144"/>
       <c r="R22" s="68">
         <v>21</v>
       </c>
@@ -25087,17 +25363,17 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="144"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="143"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="68">
         <v>22</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="143"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="144"/>
       <c r="K23" s="68">
         <v>22</v>
       </c>
@@ -25107,9 +25383,9 @@
       <c r="M23" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="O23" s="144"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="143"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="144"/>
       <c r="R23" s="68">
         <v>22</v>
       </c>
@@ -25121,25 +25397,25 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="144"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="143"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="144"/>
       <c r="D24" s="68">
         <v>23</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="143"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="68">
         <v>23</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="143"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="144"/>
       <c r="R24" s="68">
         <v>23</v>
       </c>
@@ -25147,25 +25423,25 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="144"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="143"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="68">
         <v>24</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="143"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="144"/>
       <c r="K25" s="68">
         <v>24</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="143"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="144"/>
       <c r="R25" s="68">
         <v>24</v>
       </c>
@@ -25173,17 +25449,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="144"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="143"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="68">
         <v>25</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="143"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="144"/>
       <c r="K26" s="68">
         <v>25</v>
       </c>
@@ -25193,9 +25469,9 @@
       <c r="M26" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="O26" s="144"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="143"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="144"/>
       <c r="R26" s="68">
         <v>25</v>
       </c>
@@ -25225,13 +25501,13 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="145" t="s">
         <v>758</v>
       </c>
-      <c r="B29" s="143" t="s">
+      <c r="B29" s="144" t="s">
         <v>759</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="144" t="s">
         <v>761</v>
       </c>
       <c r="D29" s="68">
@@ -25245,9 +25521,9 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A30" s="144"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="68">
         <v>2</v>
       </c>
@@ -25259,9 +25535,9 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A31" s="144"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="68">
         <v>3</v>
       </c>
@@ -25273,9 +25549,9 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A32" s="144"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="68">
         <v>4</v>
       </c>
@@ -25287,9 +25563,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A33" s="144"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="68">
         <v>5</v>
       </c>
@@ -25301,9 +25577,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="144"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
       <c r="D34" s="68">
         <v>6</v>
       </c>
@@ -25315,9 +25591,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="144"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
       <c r="D35" s="68">
         <v>7</v>
       </c>
@@ -25329,9 +25605,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="144"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
+      <c r="A36" s="145"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
       <c r="D36" s="68">
         <v>8</v>
       </c>
@@ -25343,9 +25619,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="144"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
       <c r="D37" s="68">
         <v>9</v>
       </c>
@@ -25357,9 +25633,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="144"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
       <c r="D38" s="68">
         <v>10</v>
       </c>
@@ -25371,9 +25647,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="144"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
+      <c r="A39" s="145"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="144"/>
       <c r="D39" s="68">
         <v>11</v>
       </c>
@@ -25385,9 +25661,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="144"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="143"/>
+      <c r="A40" s="145"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="144"/>
       <c r="D40" s="68">
         <v>12</v>
       </c>
@@ -25399,9 +25675,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="144"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
       <c r="D41" s="68">
         <v>13</v>
       </c>
@@ -25413,9 +25689,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="144"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
+      <c r="A42" s="145"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="68">
         <v>14</v>
       </c>
@@ -25427,9 +25703,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="144"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
+      <c r="A43" s="145"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
       <c r="D43" s="68">
         <v>15</v>
       </c>
@@ -25441,9 +25717,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="144"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="144"/>
       <c r="D44" s="68">
         <v>16</v>
       </c>
@@ -25451,9 +25727,9 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="144"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
       <c r="D45" s="68">
         <v>17</v>
       </c>
@@ -25465,9 +25741,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="144"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="144"/>
       <c r="D46" s="68">
         <v>18</v>
       </c>
@@ -25479,9 +25755,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="144"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
       <c r="D47" s="68">
         <v>19</v>
       </c>
@@ -25493,9 +25769,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="144"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
       <c r="D48" s="68">
         <v>20</v>
       </c>
@@ -25507,9 +25783,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="144"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
+      <c r="A49" s="145"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="144"/>
       <c r="D49" s="68">
         <v>21</v>
       </c>
@@ -25521,9 +25797,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="144"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
+      <c r="A50" s="145"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
       <c r="D50" s="68">
         <v>22</v>
       </c>
@@ -25535,9 +25811,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="144"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
       <c r="D51" s="68">
         <v>23</v>
       </c>
@@ -25549,9 +25825,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="144"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
+      <c r="A52" s="145"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="144"/>
       <c r="D52" s="68">
         <v>24</v>
       </c>
@@ -25563,9 +25839,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="144"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
+      <c r="A53" s="145"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="144"/>
       <c r="D53" s="68">
         <v>25</v>
       </c>
@@ -25577,9 +25853,9 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="144"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
+      <c r="A54" s="145"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="144"/>
       <c r="D54" s="68">
         <v>26</v>
       </c>
@@ -25591,9 +25867,9 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="144"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
+      <c r="A55" s="145"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="144"/>
       <c r="D55" s="68">
         <v>27</v>
       </c>
@@ -25605,9 +25881,9 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="144"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
+      <c r="A56" s="145"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
       <c r="D56" s="68">
         <v>28</v>
       </c>
@@ -25619,9 +25895,9 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="144"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
+      <c r="A57" s="145"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="144"/>
       <c r="D57" s="68">
         <v>29</v>
       </c>
@@ -25633,9 +25909,9 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="144"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
+      <c r="A58" s="145"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="144"/>
       <c r="D58" s="68">
         <v>30</v>
       </c>
@@ -25647,9 +25923,9 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="144"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
+      <c r="A59" s="145"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="144"/>
       <c r="D59" s="68">
         <v>31</v>
       </c>
@@ -25661,9 +25937,9 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="144"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
+      <c r="A60" s="145"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="144"/>
       <c r="D60" s="68">
         <v>32</v>
       </c>
@@ -25671,9 +25947,9 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="144"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
+      <c r="A61" s="145"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="144"/>
       <c r="D61" s="68">
         <v>33</v>
       </c>
@@ -25685,9 +25961,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="144"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
+      <c r="A62" s="145"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="144"/>
       <c r="D62" s="68">
         <v>34</v>
       </c>
@@ -25699,9 +25975,9 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="144"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
+      <c r="A63" s="145"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="144"/>
       <c r="D63" s="68">
         <v>35</v>
       </c>
@@ -25713,9 +25989,9 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="144"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
+      <c r="A64" s="145"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="144"/>
       <c r="D64" s="68">
         <v>36</v>
       </c>
@@ -25727,9 +26003,9 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="144"/>
-      <c r="B65" s="143"/>
-      <c r="C65" s="143"/>
+      <c r="A65" s="145"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="144"/>
       <c r="D65" s="68">
         <v>37</v>
       </c>
@@ -25741,9 +26017,9 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="144"/>
-      <c r="B66" s="143"/>
-      <c r="C66" s="143"/>
+      <c r="A66" s="145"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="144"/>
       <c r="D66" s="68">
         <v>38</v>
       </c>
@@ -25755,9 +26031,9 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="144"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
+      <c r="A67" s="145"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="144"/>
       <c r="D67" s="68">
         <v>39</v>
       </c>
@@ -25769,9 +26045,9 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="144"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
+      <c r="A68" s="145"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="144"/>
       <c r="D68" s="68">
         <v>40</v>
       </c>
@@ -25783,9 +26059,9 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="144"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="143"/>
+      <c r="A69" s="145"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
       <c r="D69" s="68">
         <v>41</v>
       </c>
@@ -25797,9 +26073,9 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="144"/>
-      <c r="B70" s="143"/>
-      <c r="C70" s="143"/>
+      <c r="A70" s="145"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="144"/>
       <c r="D70" s="68">
         <v>42</v>
       </c>
@@ -25811,9 +26087,9 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="144"/>
-      <c r="B71" s="143"/>
-      <c r="C71" s="143"/>
+      <c r="A71" s="145"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="144"/>
       <c r="D71" s="68">
         <v>43</v>
       </c>
@@ -25825,9 +26101,9 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="144"/>
-      <c r="B72" s="143"/>
-      <c r="C72" s="143"/>
+      <c r="A72" s="145"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="144"/>
       <c r="D72" s="68">
         <v>44</v>
       </c>
@@ -25839,9 +26115,9 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="144"/>
-      <c r="B73" s="143"/>
-      <c r="C73" s="143"/>
+      <c r="A73" s="145"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="144"/>
       <c r="D73" s="68">
         <v>45</v>
       </c>
@@ -25853,9 +26129,9 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="144"/>
-      <c r="B74" s="143"/>
-      <c r="C74" s="143"/>
+      <c r="A74" s="145"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="144"/>
       <c r="D74" s="68">
         <v>46</v>
       </c>
@@ -25867,9 +26143,9 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="144"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="143"/>
+      <c r="A75" s="145"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="144"/>
       <c r="D75" s="68">
         <v>47</v>
       </c>
@@ -25881,9 +26157,9 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="144"/>
-      <c r="B76" s="143"/>
-      <c r="C76" s="143"/>
+      <c r="A76" s="145"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="144"/>
       <c r="D76" s="68">
         <v>48</v>
       </c>
@@ -25891,9 +26167,9 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="144"/>
-      <c r="B77" s="143"/>
-      <c r="C77" s="143"/>
+      <c r="A77" s="145"/>
+      <c r="B77" s="144"/>
+      <c r="C77" s="144"/>
       <c r="D77" s="68">
         <v>49</v>
       </c>
@@ -25901,9 +26177,9 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="144"/>
-      <c r="B78" s="143"/>
-      <c r="C78" s="143"/>
+      <c r="A78" s="145"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="144"/>
       <c r="D78" s="68">
         <v>50</v>
       </c>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7275" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="设计规划" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1626">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6037,6 +6037,46 @@
   </si>
   <si>
     <t>GigE相机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改抛料高度：2.5-&gt;4
+2、修改从矫正盘吸取动作：第一次失败，松夹爪；第二次失败，不放真空，报警。
+3、修改每日凌晨清空报警数据。
+4、截取样本测试时，插入数据TRES项数据长度未20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·Epson
+·上位机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170424X758in02.rar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改报警清空时机为8:00和20:00
+2、锤子气缸功能试验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170425X758in01.rar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170425X758in02.rar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改吸取失败，排料导致撞机bug
+2、延长吸取时间0.3-&gt;0.4
+3、修改拍照处理置位气缸Y20，不受排料信号影响。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·Epson
+·PLC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7160,6 +7200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7181,12 +7222,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7194,6 +7229,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7213,9 +7257,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7253,7 +7294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="差_302" xfId="3"/>
@@ -10340,20 +10380,20 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10370,7 +10410,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="125"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -10383,7 +10423,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="125"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10471,7 +10511,7 @@
       <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="131" t="s">
         <v>917</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10480,136 +10520,136 @@
       <c r="C2" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="131" t="s">
         <v>884</v>
       </c>
       <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="130"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="1" t="s">
         <v>882</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="D3" s="130"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="130"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D4" s="130"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="130"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="1" t="s">
         <v>888</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="131" t="s">
         <v>894</v>
       </c>
       <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="130"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="1" t="s">
         <v>890</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D6" s="130"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="130"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="1" t="s">
         <v>892</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D7" s="130"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="65"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="130"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="1" t="s">
         <v>895</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="131" t="s">
         <v>907</v>
       </c>
       <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="130"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="1" t="s">
         <v>896</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D9" s="130"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="65"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="130"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="1" t="s">
         <v>897</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D10" s="130"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="65"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="1" t="s">
         <v>901</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="131" t="s">
         <v>908</v>
       </c>
       <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="1" t="s">
         <v>902</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D12" s="130"/>
+      <c r="D12" s="131"/>
       <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="1" t="s">
         <v>903</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D13" s="130"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5">
@@ -10944,7 +10984,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>916</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10958,7 +10998,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="130"/>
+      <c r="A2" s="131"/>
       <c r="B2" s="1" t="s">
         <v>910</v>
       </c>
@@ -10970,7 +11010,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="130"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="1" t="s">
         <v>911</v>
       </c>
@@ -10980,7 +11020,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="130"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="1" t="s">
         <v>912</v>
       </c>
@@ -10992,7 +11032,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="131" t="s">
         <v>946</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11006,7 +11046,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="130"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="1" t="s">
         <v>910</v>
       </c>
@@ -11018,7 +11058,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="130"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="4" t="s">
         <v>1450</v>
       </c>
@@ -11029,7 +11069,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="130"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="1" t="s">
         <v>1449</v>
       </c>
@@ -11042,7 +11082,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="131" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -11056,7 +11096,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="1" t="s">
         <v>910</v>
       </c>
@@ -11068,7 +11108,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="4" t="s">
         <v>1450</v>
       </c>
@@ -11079,7 +11119,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="130"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="1" t="s">
         <v>1449</v>
       </c>
@@ -11120,10 +11160,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>958</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="148"/>
       <c r="C1" s="74" t="s">
         <v>976</v>
       </c>
@@ -11132,8 +11172,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
     </row>
@@ -11354,18 +11394,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>984</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="76" t="s">
@@ -11374,10 +11414,10 @@
       <c r="B3" s="76" t="s">
         <v>986</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="127" t="s">
         <v>987</v>
       </c>
-      <c r="D3" s="126"/>
+      <c r="D3" s="127"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="76">
@@ -11593,7 +11633,7 @@
       <c r="G2" s="92" t="s">
         <v>1178</v>
       </c>
-      <c r="H2" s="151"/>
+      <c r="H2" s="152"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="88">
@@ -11613,7 +11653,7 @@
         <v>1069</v>
       </c>
       <c r="G3" s="93"/>
-      <c r="H3" s="152"/>
+      <c r="H3" s="153"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="88">
@@ -11635,7 +11675,7 @@
       <c r="G4" s="93" t="s">
         <v>1180</v>
       </c>
-      <c r="H4" s="152"/>
+      <c r="H4" s="153"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="88">
@@ -11655,7 +11695,7 @@
         <v>1071</v>
       </c>
       <c r="G5" s="93"/>
-      <c r="H5" s="152"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="88">
@@ -11677,7 +11717,7 @@
       <c r="G6" s="93" t="s">
         <v>1525</v>
       </c>
-      <c r="H6" s="152"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="88">
@@ -11699,7 +11739,7 @@
       <c r="G7" s="93" t="s">
         <v>1524</v>
       </c>
-      <c r="H7" s="152"/>
+      <c r="H7" s="153"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="88">
@@ -11719,7 +11759,7 @@
         <v>1074</v>
       </c>
       <c r="G8" s="93"/>
-      <c r="H8" s="152"/>
+      <c r="H8" s="153"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="88">
@@ -11739,7 +11779,7 @@
         <v>1075</v>
       </c>
       <c r="G9" s="93"/>
-      <c r="H9" s="152"/>
+      <c r="H9" s="153"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="88">
@@ -11761,7 +11801,7 @@
       <c r="G10" s="93" t="s">
         <v>1167</v>
       </c>
-      <c r="H10" s="152"/>
+      <c r="H10" s="153"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="88">
@@ -11781,7 +11821,7 @@
         <v>1077</v>
       </c>
       <c r="G11" s="93"/>
-      <c r="H11" s="152"/>
+      <c r="H11" s="153"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="88">
@@ -11803,7 +11843,7 @@
         <v>1078</v>
       </c>
       <c r="G12" s="93"/>
-      <c r="H12" s="152"/>
+      <c r="H12" s="153"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="88">
@@ -11823,7 +11863,7 @@
         <v>1079</v>
       </c>
       <c r="G13" s="93"/>
-      <c r="H13" s="152"/>
+      <c r="H13" s="153"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="88">
@@ -11845,7 +11885,7 @@
         <v>1080</v>
       </c>
       <c r="G14" s="93"/>
-      <c r="H14" s="152"/>
+      <c r="H14" s="153"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="88">
@@ -11865,7 +11905,7 @@
         <v>1081</v>
       </c>
       <c r="G15" s="93"/>
-      <c r="H15" s="152"/>
+      <c r="H15" s="153"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="88">
@@ -11885,7 +11925,7 @@
         <v>1082</v>
       </c>
       <c r="G16" s="93"/>
-      <c r="H16" s="152"/>
+      <c r="H16" s="153"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" thickBot="1">
       <c r="A17" s="89">
@@ -11905,7 +11945,7 @@
         <v>1083</v>
       </c>
       <c r="G17" s="94"/>
-      <c r="H17" s="153"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="86">
@@ -11927,7 +11967,7 @@
       <c r="G18" s="92" t="s">
         <v>1168</v>
       </c>
-      <c r="H18" s="151"/>
+      <c r="H18" s="152"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="88">
@@ -11949,7 +11989,7 @@
       <c r="G19" s="93" t="s">
         <v>1169</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="153"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="88">
@@ -11969,7 +12009,7 @@
         <v>1086</v>
       </c>
       <c r="G20" s="93"/>
-      <c r="H20" s="152"/>
+      <c r="H20" s="153"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="88">
@@ -11989,7 +12029,7 @@
         <v>1087</v>
       </c>
       <c r="G21" s="93"/>
-      <c r="H21" s="152"/>
+      <c r="H21" s="153"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="88">
@@ -12009,7 +12049,7 @@
         <v>1088</v>
       </c>
       <c r="G22" s="93"/>
-      <c r="H22" s="152"/>
+      <c r="H22" s="153"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="88">
@@ -12029,7 +12069,7 @@
         <v>1089</v>
       </c>
       <c r="G23" s="93"/>
-      <c r="H23" s="152"/>
+      <c r="H23" s="153"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="88">
@@ -12049,7 +12089,7 @@
         <v>1090</v>
       </c>
       <c r="G24" s="93"/>
-      <c r="H24" s="152"/>
+      <c r="H24" s="153"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="88">
@@ -12071,7 +12111,7 @@
         <v>1091</v>
       </c>
       <c r="G25" s="93"/>
-      <c r="H25" s="152"/>
+      <c r="H25" s="153"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="88">
@@ -12093,7 +12133,7 @@
         <v>1092</v>
       </c>
       <c r="G26" s="93"/>
-      <c r="H26" s="152"/>
+      <c r="H26" s="153"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="88">
@@ -12115,7 +12155,7 @@
         <v>1093</v>
       </c>
       <c r="G27" s="93"/>
-      <c r="H27" s="152"/>
+      <c r="H27" s="153"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="88">
@@ -12137,7 +12177,7 @@
         <v>1094</v>
       </c>
       <c r="G28" s="93"/>
-      <c r="H28" s="152"/>
+      <c r="H28" s="153"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="88">
@@ -12159,7 +12199,7 @@
         <v>1095</v>
       </c>
       <c r="G29" s="93"/>
-      <c r="H29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="88">
@@ -12181,7 +12221,7 @@
         <v>1096</v>
       </c>
       <c r="G30" s="93"/>
-      <c r="H30" s="152"/>
+      <c r="H30" s="153"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="88">
@@ -12201,7 +12241,7 @@
         <v>1097</v>
       </c>
       <c r="G31" s="93"/>
-      <c r="H31" s="152"/>
+      <c r="H31" s="153"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="88">
@@ -12221,7 +12261,7 @@
         <v>1098</v>
       </c>
       <c r="G32" s="93"/>
-      <c r="H32" s="152"/>
+      <c r="H32" s="153"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" thickBot="1">
       <c r="A33" s="89">
@@ -12241,7 +12281,7 @@
         <v>1099</v>
       </c>
       <c r="G33" s="94"/>
-      <c r="H33" s="153"/>
+      <c r="H33" s="154"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="86">
@@ -12261,7 +12301,7 @@
         <v>1100</v>
       </c>
       <c r="G34" s="92"/>
-      <c r="H34" s="151"/>
+      <c r="H34" s="152"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="88">
@@ -12281,7 +12321,7 @@
         <v>1101</v>
       </c>
       <c r="G35" s="93"/>
-      <c r="H35" s="152"/>
+      <c r="H35" s="153"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="88">
@@ -12301,7 +12341,7 @@
         <v>1102</v>
       </c>
       <c r="G36" s="93"/>
-      <c r="H36" s="152"/>
+      <c r="H36" s="153"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="88">
@@ -12321,7 +12361,7 @@
         <v>1103</v>
       </c>
       <c r="G37" s="93"/>
-      <c r="H37" s="152"/>
+      <c r="H37" s="153"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="88">
@@ -12341,7 +12381,7 @@
         <v>1104</v>
       </c>
       <c r="G38" s="93"/>
-      <c r="H38" s="152"/>
+      <c r="H38" s="153"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="88">
@@ -12361,7 +12401,7 @@
         <v>1105</v>
       </c>
       <c r="G39" s="93"/>
-      <c r="H39" s="152"/>
+      <c r="H39" s="153"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="88">
@@ -12381,7 +12421,7 @@
         <v>1106</v>
       </c>
       <c r="G40" s="93"/>
-      <c r="H40" s="152"/>
+      <c r="H40" s="153"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="88">
@@ -12401,7 +12441,7 @@
         <v>1107</v>
       </c>
       <c r="G41" s="93"/>
-      <c r="H41" s="152"/>
+      <c r="H41" s="153"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="88">
@@ -12421,7 +12461,7 @@
         <v>1108</v>
       </c>
       <c r="G42" s="93"/>
-      <c r="H42" s="152"/>
+      <c r="H42" s="153"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="88">
@@ -12441,7 +12481,7 @@
         <v>1109</v>
       </c>
       <c r="G43" s="93"/>
-      <c r="H43" s="152"/>
+      <c r="H43" s="153"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="88">
@@ -12461,7 +12501,7 @@
         <v>1110</v>
       </c>
       <c r="G44" s="93"/>
-      <c r="H44" s="152"/>
+      <c r="H44" s="153"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="88">
@@ -12481,7 +12521,7 @@
         <v>1111</v>
       </c>
       <c r="G45" s="93"/>
-      <c r="H45" s="152"/>
+      <c r="H45" s="153"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="88">
@@ -12501,7 +12541,7 @@
         <v>1112</v>
       </c>
       <c r="G46" s="93"/>
-      <c r="H46" s="152"/>
+      <c r="H46" s="153"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="88">
@@ -12521,7 +12561,7 @@
         <v>1113</v>
       </c>
       <c r="G47" s="93"/>
-      <c r="H47" s="152"/>
+      <c r="H47" s="153"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="88">
@@ -12541,7 +12581,7 @@
         <v>1114</v>
       </c>
       <c r="G48" s="93"/>
-      <c r="H48" s="152"/>
+      <c r="H48" s="153"/>
     </row>
     <row r="49" spans="1:8" ht="14.25" thickBot="1">
       <c r="A49" s="89">
@@ -12561,7 +12601,7 @@
         <v>1115</v>
       </c>
       <c r="G49" s="94"/>
-      <c r="H49" s="153"/>
+      <c r="H49" s="154"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="86">
@@ -12581,7 +12621,7 @@
         <v>1116</v>
       </c>
       <c r="G50" s="92"/>
-      <c r="H50" s="151"/>
+      <c r="H50" s="152"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="88">
@@ -12601,7 +12641,7 @@
         <v>1117</v>
       </c>
       <c r="G51" s="93"/>
-      <c r="H51" s="152"/>
+      <c r="H51" s="153"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="88">
@@ -12621,7 +12661,7 @@
         <v>1118</v>
       </c>
       <c r="G52" s="93"/>
-      <c r="H52" s="152"/>
+      <c r="H52" s="153"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="88">
@@ -12641,7 +12681,7 @@
         <v>1119</v>
       </c>
       <c r="G53" s="93"/>
-      <c r="H53" s="152"/>
+      <c r="H53" s="153"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="88">
@@ -12661,7 +12701,7 @@
         <v>1120</v>
       </c>
       <c r="G54" s="93"/>
-      <c r="H54" s="152"/>
+      <c r="H54" s="153"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="88">
@@ -12681,7 +12721,7 @@
         <v>1121</v>
       </c>
       <c r="G55" s="93"/>
-      <c r="H55" s="152"/>
+      <c r="H55" s="153"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="88">
@@ -12701,7 +12741,7 @@
         <v>1122</v>
       </c>
       <c r="G56" s="93"/>
-      <c r="H56" s="152"/>
+      <c r="H56" s="153"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="88">
@@ -12721,7 +12761,7 @@
         <v>1155</v>
       </c>
       <c r="G57" s="93"/>
-      <c r="H57" s="152"/>
+      <c r="H57" s="153"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="88">
@@ -12741,7 +12781,7 @@
         <v>1156</v>
       </c>
       <c r="G58" s="93"/>
-      <c r="H58" s="152"/>
+      <c r="H58" s="153"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="88">
@@ -12761,7 +12801,7 @@
         <v>1157</v>
       </c>
       <c r="G59" s="93"/>
-      <c r="H59" s="152"/>
+      <c r="H59" s="153"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="88">
@@ -12781,7 +12821,7 @@
         <v>1158</v>
       </c>
       <c r="G60" s="93"/>
-      <c r="H60" s="152"/>
+      <c r="H60" s="153"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="88">
@@ -12801,7 +12841,7 @@
         <v>1159</v>
       </c>
       <c r="G61" s="93"/>
-      <c r="H61" s="152"/>
+      <c r="H61" s="153"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="88">
@@ -12821,7 +12861,7 @@
         <v>1160</v>
       </c>
       <c r="G62" s="93"/>
-      <c r="H62" s="152"/>
+      <c r="H62" s="153"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="88">
@@ -12841,7 +12881,7 @@
         <v>1161</v>
       </c>
       <c r="G63" s="93"/>
-      <c r="H63" s="152"/>
+      <c r="H63" s="153"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="88">
@@ -12861,7 +12901,7 @@
         <v>1162</v>
       </c>
       <c r="G64" s="93"/>
-      <c r="H64" s="152"/>
+      <c r="H64" s="153"/>
     </row>
     <row r="65" spans="1:8" ht="14.25" thickBot="1">
       <c r="A65" s="89">
@@ -12881,7 +12921,7 @@
         <v>1163</v>
       </c>
       <c r="G65" s="94"/>
-      <c r="H65" s="153"/>
+      <c r="H65" s="154"/>
     </row>
     <row r="66" spans="1:8">
       <c r="G66" s="85"/>
@@ -13093,7 +13133,7 @@
       <c r="B2" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="155" t="s">
         <v>1201</v>
       </c>
       <c r="D2" s="109" t="s">
@@ -13105,7 +13145,7 @@
       <c r="B3" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C3" s="155"/>
+      <c r="C3" s="156"/>
       <c r="D3" s="111" t="s">
         <v>1187</v>
       </c>
@@ -13117,7 +13157,7 @@
       <c r="B4" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="155" t="s">
         <v>1202</v>
       </c>
       <c r="D4" s="109" t="s">
@@ -13129,7 +13169,7 @@
       <c r="B5" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C5" s="155"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="111" t="s">
         <v>1193</v>
       </c>
@@ -13141,7 +13181,7 @@
       <c r="B6" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="155" t="s">
         <v>1203</v>
       </c>
       <c r="D6" s="109" t="s">
@@ -13153,7 +13193,7 @@
       <c r="B7" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C7" s="155"/>
+      <c r="C7" s="156"/>
       <c r="D7" s="111" t="s">
         <v>1195</v>
       </c>
@@ -13165,7 +13205,7 @@
       <c r="B8" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="155" t="s">
         <v>1204</v>
       </c>
       <c r="D8" s="109" t="s">
@@ -13177,7 +13217,7 @@
       <c r="B9" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C9" s="155"/>
+      <c r="C9" s="156"/>
       <c r="D9" s="111" t="s">
         <v>1197</v>
       </c>
@@ -13189,7 +13229,7 @@
       <c r="B10" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="155" t="s">
         <v>1205</v>
       </c>
       <c r="D10" s="109" t="s">
@@ -13201,7 +13241,7 @@
       <c r="B11" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C11" s="155"/>
+      <c r="C11" s="156"/>
       <c r="D11" s="111" t="s">
         <v>1199</v>
       </c>
@@ -13213,7 +13253,7 @@
       <c r="B12" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="155" t="s">
         <v>1489</v>
       </c>
       <c r="D12" s="109" t="s">
@@ -13225,7 +13265,7 @@
       <c r="B13" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C13" s="155"/>
+      <c r="C13" s="156"/>
       <c r="D13" s="111" t="s">
         <v>1490</v>
       </c>
@@ -13237,7 +13277,7 @@
       <c r="B14" s="108" t="s">
         <v>1184</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="155" t="s">
         <v>1560</v>
       </c>
       <c r="D14" s="109" t="s">
@@ -13249,7 +13289,7 @@
       <c r="B15" s="91" t="s">
         <v>1185</v>
       </c>
-      <c r="C15" s="155"/>
+      <c r="C15" s="156"/>
       <c r="D15" s="111" t="s">
         <v>1562</v>
       </c>
@@ -15157,26 +15197,26 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>1434</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="1" t="s">
         <v>1614</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="127" t="s">
         <v>1446</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126" t="s">
+      <c r="I1" s="127"/>
+      <c r="J1" s="127" t="s">
         <v>1447</v>
       </c>
-      <c r="K1" s="126"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
@@ -15186,7 +15226,7 @@
       <c r="C2" s="114" t="s">
         <v>1436</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="125" t="s">
         <v>1612</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -15503,10 +15543,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15557,6 +15597,48 @@
       </c>
       <c r="D3" s="122" t="s">
         <v>1583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="67.5">
+      <c r="A4" s="120">
+        <v>42849</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27">
+      <c r="A5" s="120">
+        <v>42850</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D5" s="122" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5">
+      <c r="A6" s="120">
+        <v>42850</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D6" s="122" t="s">
+        <v>1623</v>
       </c>
     </row>
   </sheetData>
@@ -15573,7 +15655,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
@@ -15611,22 +15693,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -16177,12 +16259,12 @@
       <c r="H27" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="22.5">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="18"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -16190,10 +16272,10 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="22.5">
-      <c r="A30" s="131"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
+      <c r="A30" s="132"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="18"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -16246,7 +16328,7 @@
       <c r="H32" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="I32" s="130" t="s">
+      <c r="I32" s="131" t="s">
         <v>329</v>
       </c>
     </row>
@@ -16273,7 +16355,7 @@
       <c r="H33" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="I33" s="130"/>
+      <c r="I33" s="131"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
@@ -16298,7 +16380,7 @@
       <c r="H34" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="I34" s="130"/>
+      <c r="I34" s="131"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6">
@@ -16323,7 +16405,7 @@
       <c r="H35" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="I35" s="130"/>
+      <c r="I35" s="131"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6">
@@ -16346,7 +16428,7 @@
         <v>174</v>
       </c>
       <c r="H36" s="13"/>
-      <c r="I36" s="130"/>
+      <c r="I36" s="131"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6">
@@ -16369,7 +16451,7 @@
         <v>175</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="130"/>
+      <c r="I37" s="131"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6">
@@ -16394,7 +16476,7 @@
       <c r="H38" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="I38" s="130"/>
+      <c r="I38" s="131"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6">
@@ -16419,7 +16501,7 @@
       <c r="H39" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="I39" s="130"/>
+      <c r="I39" s="131"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
@@ -16444,7 +16526,7 @@
       <c r="H40" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I40" s="130"/>
+      <c r="I40" s="131"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6">
@@ -16469,7 +16551,7 @@
       <c r="H41" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="I41" s="130"/>
+      <c r="I41" s="131"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6">
@@ -16494,7 +16576,7 @@
       <c r="H42" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="I42" s="130"/>
+      <c r="I42" s="131"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6">
@@ -16517,7 +16599,7 @@
         <v>181</v>
       </c>
       <c r="H43" s="14"/>
-      <c r="I43" s="130"/>
+      <c r="I43" s="131"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
@@ -16542,7 +16624,7 @@
       <c r="H44" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="I44" s="130"/>
+      <c r="I44" s="131"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6">
@@ -16567,7 +16649,7 @@
       <c r="H45" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="I45" s="130"/>
+      <c r="I45" s="131"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
@@ -16592,7 +16674,7 @@
       <c r="H46" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="I46" s="130"/>
+      <c r="I46" s="131"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6">
@@ -16617,7 +16699,7 @@
       <c r="H47" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="I47" s="130"/>
+      <c r="I47" s="131"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
@@ -16642,7 +16724,7 @@
       <c r="H48" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="I48" s="130"/>
+      <c r="I48" s="131"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6">
@@ -16667,7 +16749,7 @@
       <c r="H49" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="I49" s="130"/>
+      <c r="I49" s="131"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6">
@@ -16692,7 +16774,7 @@
       <c r="H50" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="I50" s="130"/>
+      <c r="I50" s="131"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6">
@@ -16717,7 +16799,7 @@
       <c r="H51" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="I51" s="130"/>
+      <c r="I51" s="131"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6">
@@ -16742,7 +16824,7 @@
       <c r="H52" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="I52" s="130"/>
+      <c r="I52" s="131"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6">
@@ -16767,7 +16849,7 @@
       <c r="H53" s="100" t="s">
         <v>1173</v>
       </c>
-      <c r="I53" s="130"/>
+      <c r="I53" s="131"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6">
@@ -16792,7 +16874,7 @@
       <c r="H54" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="I54" s="130"/>
+      <c r="I54" s="131"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6">
@@ -16817,7 +16899,7 @@
       <c r="H55" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I55" s="130"/>
+      <c r="I55" s="131"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6">
@@ -16836,7 +16918,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="130"/>
+      <c r="I56" s="131"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6">
@@ -16855,7 +16937,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="130"/>
+      <c r="I57" s="131"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6">
@@ -16874,7 +16956,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="130"/>
+      <c r="I58" s="131"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6">
@@ -16893,7 +16975,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="130"/>
+      <c r="I59" s="131"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6">
@@ -16912,7 +16994,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="130"/>
+      <c r="I60" s="131"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6">
@@ -16931,7 +17013,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="130"/>
+      <c r="I61" s="131"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6">
@@ -16950,7 +17032,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="130"/>
+      <c r="I62" s="131"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6">
@@ -16969,7 +17051,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="130"/>
+      <c r="I63" s="131"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6">
@@ -16988,7 +17070,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="130"/>
+      <c r="I64" s="131"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6">
@@ -17007,7 +17089,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="130"/>
+      <c r="I65" s="131"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6">
@@ -17026,7 +17108,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="130"/>
+      <c r="I66" s="131"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6">
@@ -17045,7 +17127,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="130"/>
+      <c r="I67" s="131"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22">
@@ -17070,7 +17152,7 @@
       <c r="H68" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I68" s="130" t="s">
+      <c r="I68" s="131" t="s">
         <v>328</v>
       </c>
     </row>
@@ -17097,7 +17179,7 @@
       <c r="H69" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="I69" s="130"/>
+      <c r="I69" s="131"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="22">
@@ -17122,7 +17204,7 @@
       <c r="H70" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="I70" s="130"/>
+      <c r="I70" s="131"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
@@ -17147,7 +17229,7 @@
       <c r="H71" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="I71" s="130"/>
+      <c r="I71" s="131"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="22">
@@ -17172,7 +17254,7 @@
       <c r="H72" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="I72" s="130"/>
+      <c r="I72" s="131"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="22">
@@ -17197,7 +17279,7 @@
       <c r="H73" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="I73" s="130"/>
+      <c r="I73" s="131"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="22">
@@ -17222,7 +17304,7 @@
       <c r="H74" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="I74" s="130"/>
+      <c r="I74" s="131"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="22">
@@ -17247,7 +17329,7 @@
       <c r="H75" s="100" t="s">
         <v>1175</v>
       </c>
-      <c r="I75" s="130"/>
+      <c r="I75" s="131"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="22">
@@ -17266,7 +17348,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="130" t="s">
+      <c r="I76" s="131" t="s">
         <v>577</v>
       </c>
     </row>
@@ -17287,7 +17369,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="130"/>
+      <c r="I77" s="131"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="22">
@@ -17306,7 +17388,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="130"/>
+      <c r="I78" s="131"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="22">
@@ -17325,7 +17407,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="130"/>
+      <c r="I79" s="131"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="22">
@@ -17344,7 +17426,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="130"/>
+      <c r="I80" s="131"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="22">
@@ -17361,7 +17443,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="130"/>
+      <c r="I81" s="131"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="22">
@@ -17380,7 +17462,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="130"/>
+      <c r="I82" s="131"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22">
@@ -17399,7 +17481,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="130"/>
+      <c r="I83" s="131"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="22">
@@ -17418,7 +17500,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="130"/>
+      <c r="I84" s="131"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="22">
@@ -17437,7 +17519,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="130"/>
+      <c r="I85" s="131"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="22">
@@ -17456,7 +17538,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="130"/>
+      <c r="I86" s="131"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="22">
@@ -17475,7 +17557,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="130"/>
+      <c r="I87" s="131"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="22">
@@ -17494,7 +17576,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="130"/>
+      <c r="I88" s="131"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="22">
@@ -17513,7 +17595,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="130"/>
+      <c r="I89" s="131"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="22">
@@ -17532,7 +17614,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="130"/>
+      <c r="I90" s="131"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="22">
@@ -17551,7 +17633,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="130"/>
+      <c r="I91" s="131"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="22">
@@ -17570,7 +17652,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="127" t="s">
+      <c r="I92" s="128" t="s">
         <v>578</v>
       </c>
     </row>
@@ -17591,7 +17673,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="128"/>
+      <c r="I93" s="129"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="22">
@@ -17610,7 +17692,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="128"/>
+      <c r="I94" s="129"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="22">
@@ -17629,7 +17711,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="128"/>
+      <c r="I95" s="129"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="22">
@@ -17648,7 +17730,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="128"/>
+      <c r="I96" s="129"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="22">
@@ -17667,7 +17749,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="128"/>
+      <c r="I97" s="129"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="22">
@@ -17686,7 +17768,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="128"/>
+      <c r="I98" s="129"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="22">
@@ -17705,7 +17787,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="20"/>
-      <c r="I99" s="128"/>
+      <c r="I99" s="129"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="22">
@@ -17724,7 +17806,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="128"/>
+      <c r="I100" s="129"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="22">
@@ -17743,7 +17825,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="128"/>
+      <c r="I101" s="129"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="22">
@@ -17762,7 +17844,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="128"/>
+      <c r="I102" s="129"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="22">
@@ -17781,7 +17863,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="128"/>
+      <c r="I103" s="129"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="22">
@@ -17798,7 +17880,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="128"/>
+      <c r="I104" s="129"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="22">
@@ -17815,7 +17897,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="128"/>
+      <c r="I105" s="129"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="22">
@@ -17832,7 +17914,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="128"/>
+      <c r="I106" s="129"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="22">
@@ -17849,7 +17931,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="20"/>
-      <c r="I107" s="129"/>
+      <c r="I107" s="130"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="63"/>
@@ -17863,12 +17945,12 @@
       <c r="I108" s="65"/>
     </row>
     <row r="110" spans="1:9" ht="22.5">
-      <c r="A110" s="131" t="s">
+      <c r="A110" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="B110" s="131"/>
-      <c r="C110" s="131"/>
-      <c r="D110" s="131"/>
+      <c r="B110" s="132"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="132"/>
       <c r="E110" s="18"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -17876,10 +17958,10 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="22.5">
-      <c r="A111" s="131"/>
-      <c r="B111" s="131"/>
-      <c r="C111" s="131"/>
-      <c r="D111" s="131"/>
+      <c r="A111" s="132"/>
+      <c r="B111" s="132"/>
+      <c r="C111" s="132"/>
+      <c r="D111" s="132"/>
       <c r="E111" s="18"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -17899,7 +17981,7 @@
       <c r="D112" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E112" s="127" t="s">
+      <c r="E112" s="128" t="s">
         <v>326</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -17911,7 +17993,7 @@
       <c r="H112" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I112" s="130" t="s">
+      <c r="I112" s="131" t="s">
         <v>327</v>
       </c>
     </row>
@@ -17928,7 +18010,7 @@
       <c r="D113" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="E113" s="128"/>
+      <c r="E113" s="129"/>
       <c r="F113" s="1" t="s">
         <v>322</v>
       </c>
@@ -17938,7 +18020,7 @@
       <c r="H113" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="I113" s="130"/>
+      <c r="I113" s="131"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6">
@@ -17953,7 +18035,7 @@
       <c r="D114" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="E114" s="128"/>
+      <c r="E114" s="129"/>
       <c r="F114" s="1" t="s">
         <v>103</v>
       </c>
@@ -17963,7 +18045,7 @@
       <c r="H114" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="I114" s="130"/>
+      <c r="I114" s="131"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6">
@@ -17978,7 +18060,7 @@
       <c r="D115" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="E115" s="128"/>
+      <c r="E115" s="129"/>
       <c r="F115" s="1" t="s">
         <v>105</v>
       </c>
@@ -17988,7 +18070,7 @@
       <c r="H115" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="I115" s="130"/>
+      <c r="I115" s="131"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6">
@@ -18003,7 +18085,7 @@
       <c r="D116" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="E116" s="128"/>
+      <c r="E116" s="129"/>
       <c r="F116" s="1" t="s">
         <v>107</v>
       </c>
@@ -18011,7 +18093,7 @@
         <v>308</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="130"/>
+      <c r="I116" s="131"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6">
@@ -18026,7 +18108,7 @@
       <c r="D117" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="E117" s="128"/>
+      <c r="E117" s="129"/>
       <c r="F117" s="1" t="s">
         <v>109</v>
       </c>
@@ -18034,7 +18116,7 @@
         <v>309</v>
       </c>
       <c r="H117" s="19"/>
-      <c r="I117" s="130"/>
+      <c r="I117" s="131"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6">
@@ -18049,7 +18131,7 @@
       <c r="D118" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E118" s="128"/>
+      <c r="E118" s="129"/>
       <c r="F118" s="1" t="s">
         <v>111</v>
       </c>
@@ -18057,7 +18139,7 @@
         <v>310</v>
       </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="130"/>
+      <c r="I118" s="131"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6">
@@ -18072,7 +18154,7 @@
       <c r="D119" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E119" s="128"/>
+      <c r="E119" s="129"/>
       <c r="F119" s="1" t="s">
         <v>113</v>
       </c>
@@ -18080,7 +18162,7 @@
         <v>311</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="130"/>
+      <c r="I119" s="131"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6">
@@ -18095,7 +18177,7 @@
       <c r="D120" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E120" s="128"/>
+      <c r="E120" s="129"/>
       <c r="F120" s="1" t="s">
         <v>115</v>
       </c>
@@ -18103,7 +18185,7 @@
         <v>312</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="130"/>
+      <c r="I120" s="131"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6">
@@ -18118,7 +18200,7 @@
       <c r="D121" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="E121" s="128"/>
+      <c r="E121" s="129"/>
       <c r="F121" s="1" t="s">
         <v>117</v>
       </c>
@@ -18126,7 +18208,7 @@
         <v>313</v>
       </c>
       <c r="H121" s="4"/>
-      <c r="I121" s="130"/>
+      <c r="I121" s="131"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6">
@@ -18139,7 +18221,7 @@
         <v>300</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="128"/>
+      <c r="E122" s="129"/>
       <c r="F122" s="1" t="s">
         <v>119</v>
       </c>
@@ -18147,7 +18229,7 @@
         <v>314</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="130"/>
+      <c r="I122" s="131"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6">
@@ -18160,7 +18242,7 @@
         <v>301</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="128"/>
+      <c r="E123" s="129"/>
       <c r="F123" s="1" t="s">
         <v>121</v>
       </c>
@@ -18168,7 +18250,7 @@
         <v>315</v>
       </c>
       <c r="H123" s="4"/>
-      <c r="I123" s="130"/>
+      <c r="I123" s="131"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6">
@@ -18181,7 +18263,7 @@
         <v>302</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="128"/>
+      <c r="E124" s="129"/>
       <c r="F124" s="1" t="s">
         <v>123</v>
       </c>
@@ -18189,7 +18271,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="130"/>
+      <c r="I124" s="131"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6">
@@ -18202,7 +18284,7 @@
         <v>303</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="128"/>
+      <c r="E125" s="129"/>
       <c r="F125" s="1" t="s">
         <v>125</v>
       </c>
@@ -18210,7 +18292,7 @@
         <v>317</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="I125" s="130"/>
+      <c r="I125" s="131"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6">
@@ -18223,7 +18305,7 @@
         <v>304</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="128"/>
+      <c r="E126" s="129"/>
       <c r="F126" s="1" t="s">
         <v>127</v>
       </c>
@@ -18231,7 +18313,7 @@
         <v>318</v>
       </c>
       <c r="H126" s="4"/>
-      <c r="I126" s="130"/>
+      <c r="I126" s="131"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6">
@@ -18244,7 +18326,7 @@
         <v>305</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="128"/>
+      <c r="E127" s="129"/>
       <c r="F127" s="1" t="s">
         <v>129</v>
       </c>
@@ -18252,7 +18334,7 @@
         <v>319</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="130"/>
+      <c r="I127" s="131"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6">
@@ -18265,7 +18347,7 @@
         <v>321</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="129"/>
+      <c r="E128" s="130"/>
       <c r="F128" s="1" t="s">
         <v>323</v>
       </c>
@@ -18273,7 +18355,7 @@
         <v>325</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="130"/>
+      <c r="I128" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -18683,12 +18765,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="139" t="s">
         <v>1274</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -18702,10 +18784,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="140"/>
+      <c r="B3" s="142"/>
       <c r="C3" s="29" t="s">
         <v>1273</v>
       </c>
@@ -18719,20 +18801,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="142" t="s">
         <v>1271</v>
       </c>
-      <c r="K3" s="140"/>
+      <c r="K3" s="142"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="140"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="32" t="s">
         <v>1270</v>
       </c>
@@ -18744,18 +18826,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="140" t="s">
+      <c r="J4" s="142" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="140"/>
+      <c r="K4" s="142"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="143" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="142"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -18765,10 +18847,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="142" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="140"/>
+      <c r="K5" s="142"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -18794,14 +18876,14 @@
       <c r="B7" s="43" t="s">
         <v>1267</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="136" t="s">
         <v>1266</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143" t="s">
+      <c r="D7" s="136"/>
+      <c r="E7" s="136" t="s">
         <v>1265</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="106" t="s">
         <v>1264</v>
       </c>
@@ -18817,17 +18899,17 @@
       <c r="K7" s="44" t="s">
         <v>1260</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="137" t="s">
         <v>1259</v>
       </c>
-      <c r="M7" s="132"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="138" t="s">
         <v>1258</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -18861,7 +18943,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="133"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="46" t="s">
         <v>1253</v>
       </c>
@@ -18891,7 +18973,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="133"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="52" t="s">
         <v>1249</v>
       </c>
@@ -18921,7 +19003,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="133"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="52" t="s">
         <v>1246</v>
       </c>
@@ -18951,7 +19033,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="133"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="52" t="s">
         <v>1246</v>
       </c>
@@ -18980,7 +19062,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="133"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -19009,7 +19091,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="133"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -19036,7 +19118,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="133"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -19063,7 +19145,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="133"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -19090,7 +19172,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="133"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -19119,7 +19201,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="133"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -19146,7 +19228,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="133"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -19171,7 +19253,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="133"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -19198,7 +19280,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="133"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -19225,7 +19307,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="133"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -19254,7 +19336,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="133"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -19283,7 +19365,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="133"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -19312,7 +19394,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="133"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -19341,7 +19423,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="133"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="54" t="s">
         <v>1241</v>
       </c>
@@ -19366,7 +19448,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="133"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="54" t="s">
         <v>1240</v>
       </c>
@@ -19391,7 +19473,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="133"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="79" t="s">
         <v>1239</v>
       </c>
@@ -19418,7 +19500,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="133"/>
+      <c r="C29" s="138"/>
       <c r="D29" s="54" t="s">
         <v>1236</v>
       </c>
@@ -19447,7 +19529,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="133"/>
+      <c r="C30" s="138"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -19474,7 +19556,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="133"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -19503,7 +19585,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="133"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -19528,7 +19610,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="133"/>
+      <c r="C33" s="138"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -19557,7 +19639,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="134" t="s">
+      <c r="C34" s="133" t="s">
         <v>1234</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -19588,7 +19670,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="134"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -19617,7 +19699,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="134"/>
+      <c r="C36" s="133"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -19646,7 +19728,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="134"/>
+      <c r="C37" s="133"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -19675,7 +19757,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="134"/>
+      <c r="C38" s="133"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -19704,7 +19786,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="134"/>
+      <c r="C39" s="133"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -19733,7 +19815,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="134"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -19762,7 +19844,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="134"/>
+      <c r="C41" s="133"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -19791,7 +19873,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="134"/>
+      <c r="C42" s="133"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -19820,7 +19902,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="134"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -19849,7 +19931,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="134"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -19880,7 +19962,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="134"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -19909,7 +19991,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="135" t="s">
+      <c r="C46" s="134" t="s">
         <v>1232</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -19938,7 +20020,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="136"/>
+      <c r="C47" s="135"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -19965,7 +20047,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="136"/>
+      <c r="C48" s="135"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -19994,7 +20076,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="136"/>
+      <c r="C49" s="135"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -20023,7 +20105,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="134" t="s">
+      <c r="C50" s="133" t="s">
         <v>1230</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -20052,7 +20134,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="134"/>
+      <c r="C51" s="133"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -20077,7 +20159,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="134"/>
+      <c r="C52" s="133"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -20104,7 +20186,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="134"/>
+      <c r="C53" s="133"/>
       <c r="D53" s="53" t="s">
         <v>453</v>
       </c>
@@ -20131,7 +20213,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="46"/>
-      <c r="C54" s="134"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="53" t="s">
         <v>456</v>
       </c>
@@ -20158,7 +20240,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="46"/>
-      <c r="C55" s="134"/>
+      <c r="C55" s="133"/>
       <c r="D55" s="53" t="s">
         <v>458</v>
       </c>
@@ -20181,7 +20263,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="46"/>
-      <c r="C56" s="134"/>
+      <c r="C56" s="133"/>
       <c r="D56" s="53" t="s">
         <v>459</v>
       </c>
@@ -20204,7 +20286,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="46"/>
-      <c r="C57" s="134"/>
+      <c r="C57" s="133"/>
       <c r="D57" s="53" t="s">
         <v>460</v>
       </c>
@@ -20231,7 +20313,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="46"/>
-      <c r="C58" s="134"/>
+      <c r="C58" s="133"/>
       <c r="D58" s="53" t="s">
         <v>462</v>
       </c>
@@ -20254,7 +20336,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="46"/>
-      <c r="C59" s="134"/>
+      <c r="C59" s="133"/>
       <c r="D59" s="53" t="s">
         <v>463</v>
       </c>
@@ -20281,7 +20363,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="46"/>
-      <c r="C60" s="134"/>
+      <c r="C60" s="133"/>
       <c r="D60" s="53" t="s">
         <v>465</v>
       </c>
@@ -20306,7 +20388,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="46"/>
-      <c r="C61" s="134"/>
+      <c r="C61" s="133"/>
       <c r="D61" s="53" t="s">
         <v>467</v>
       </c>
@@ -20331,7 +20413,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="46"/>
-      <c r="C62" s="134"/>
+      <c r="C62" s="133"/>
       <c r="D62" s="53" t="s">
         <v>1229</v>
       </c>
@@ -20362,7 +20444,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="134"/>
+      <c r="C63" s="133"/>
       <c r="D63" s="53" t="s">
         <v>469</v>
       </c>
@@ -20389,7 +20471,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="46"/>
-      <c r="C64" s="134"/>
+      <c r="C64" s="133"/>
       <c r="D64" s="53" t="s">
         <v>472</v>
       </c>
@@ -20416,7 +20498,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="46"/>
-      <c r="C65" s="134"/>
+      <c r="C65" s="133"/>
       <c r="D65" s="53" t="s">
         <v>475</v>
       </c>
@@ -20443,7 +20525,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="46"/>
-      <c r="C66" s="134"/>
+      <c r="C66" s="133"/>
       <c r="D66" s="53" t="s">
         <v>477</v>
       </c>
@@ -20470,7 +20552,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="46"/>
-      <c r="C67" s="134"/>
+      <c r="C67" s="133"/>
       <c r="D67" s="53" t="s">
         <v>479</v>
       </c>
@@ -20497,7 +20579,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="46"/>
-      <c r="C68" s="134"/>
+      <c r="C68" s="133"/>
       <c r="D68" s="53" t="s">
         <v>481</v>
       </c>
@@ -20524,7 +20606,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="46"/>
-      <c r="C69" s="134"/>
+      <c r="C69" s="133"/>
       <c r="D69" s="53" t="s">
         <v>483</v>
       </c>
@@ -20551,7 +20633,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="134"/>
+      <c r="C70" s="133"/>
       <c r="D70" s="53" t="s">
         <v>485</v>
       </c>
@@ -20580,7 +20662,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="134"/>
+      <c r="C71" s="133"/>
       <c r="D71" s="53" t="s">
         <v>488</v>
       </c>
@@ -20611,7 +20693,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="46"/>
-      <c r="C72" s="134"/>
+      <c r="C72" s="133"/>
       <c r="D72" s="53" t="s">
         <v>489</v>
       </c>
@@ -20636,7 +20718,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="46"/>
-      <c r="C73" s="134"/>
+      <c r="C73" s="133"/>
       <c r="D73" s="53" t="s">
         <v>491</v>
       </c>
@@ -20663,7 +20745,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="46"/>
-      <c r="C74" s="134"/>
+      <c r="C74" s="133"/>
       <c r="D74" s="53" t="s">
         <v>493</v>
       </c>
@@ -20690,7 +20772,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="134"/>
+      <c r="C75" s="133"/>
       <c r="D75" s="53" t="s">
         <v>494</v>
       </c>
@@ -20717,7 +20799,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="46"/>
-      <c r="C76" s="134"/>
+      <c r="C76" s="133"/>
       <c r="D76" s="53" t="s">
         <v>496</v>
       </c>
@@ -20744,7 +20826,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="46"/>
-      <c r="C77" s="134"/>
+      <c r="C77" s="133"/>
       <c r="D77" s="82" t="s">
         <v>496</v>
       </c>
@@ -20773,7 +20855,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="46"/>
-      <c r="C78" s="134"/>
+      <c r="C78" s="133"/>
       <c r="D78" s="82" t="s">
         <v>1221</v>
       </c>
@@ -20800,7 +20882,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="134"/>
+      <c r="C79" s="133"/>
       <c r="D79" s="53" t="s">
         <v>493</v>
       </c>
@@ -20827,7 +20909,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="46"/>
-      <c r="C80" s="134"/>
+      <c r="C80" s="133"/>
       <c r="D80" s="53" t="s">
         <v>498</v>
       </c>
@@ -20856,7 +20938,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="46"/>
-      <c r="C81" s="134"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="53" t="s">
         <v>500</v>
       </c>
@@ -20885,7 +20967,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="46"/>
-      <c r="C82" s="134"/>
+      <c r="C82" s="133"/>
       <c r="D82" s="53" t="s">
         <v>500</v>
       </c>
@@ -20914,7 +20996,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="46"/>
-      <c r="C83" s="134"/>
+      <c r="C83" s="133"/>
       <c r="D83" s="53" t="s">
         <v>500</v>
       </c>
@@ -20943,7 +21025,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="46"/>
-      <c r="C84" s="134"/>
+      <c r="C84" s="133"/>
       <c r="D84" s="53" t="s">
         <v>505</v>
       </c>
@@ -20972,7 +21054,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="46"/>
-      <c r="C85" s="134"/>
+      <c r="C85" s="133"/>
       <c r="D85" s="53" t="s">
         <v>505</v>
       </c>
@@ -21001,7 +21083,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="46"/>
-      <c r="C86" s="134"/>
+      <c r="C86" s="133"/>
       <c r="D86" s="53" t="s">
         <v>505</v>
       </c>
@@ -21030,7 +21112,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="134"/>
+      <c r="C87" s="133"/>
       <c r="D87" s="53" t="s">
         <v>1219</v>
       </c>
@@ -21061,7 +21143,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="46"/>
-      <c r="C88" s="134"/>
+      <c r="C88" s="133"/>
       <c r="D88" s="53" t="s">
         <v>1217</v>
       </c>
@@ -21092,7 +21174,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="46"/>
-      <c r="C89" s="134"/>
+      <c r="C89" s="133"/>
       <c r="D89" s="53" t="s">
         <v>511</v>
       </c>
@@ -21123,7 +21205,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="46"/>
-      <c r="C90" s="134"/>
+      <c r="C90" s="133"/>
       <c r="D90" s="53" t="s">
         <v>514</v>
       </c>
@@ -21154,7 +21236,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="46"/>
-      <c r="C91" s="134"/>
+      <c r="C91" s="133"/>
       <c r="D91" s="53" t="s">
         <v>515</v>
       </c>
@@ -21183,7 +21265,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="46"/>
-      <c r="C92" s="135" t="s">
+      <c r="C92" s="134" t="s">
         <v>1211</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -21210,7 +21292,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="46"/>
-      <c r="C93" s="136"/>
+      <c r="C93" s="135"/>
       <c r="D93" s="53" t="s">
         <v>517</v>
       </c>
@@ -21235,7 +21317,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="46"/>
-      <c r="C94" s="136"/>
+      <c r="C94" s="135"/>
       <c r="D94" s="53" t="s">
         <v>517</v>
       </c>
@@ -21260,7 +21342,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="46"/>
-      <c r="C95" s="136"/>
+      <c r="C95" s="135"/>
       <c r="D95" s="53" t="s">
         <v>517</v>
       </c>
@@ -21285,7 +21367,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="46"/>
-      <c r="C96" s="136"/>
+      <c r="C96" s="135"/>
       <c r="D96" s="53" t="s">
         <v>520</v>
       </c>
@@ -21312,7 +21394,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="46"/>
-      <c r="C97" s="136"/>
+      <c r="C97" s="135"/>
       <c r="D97" s="53" t="s">
         <v>522</v>
       </c>
@@ -21339,7 +21421,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="46"/>
-      <c r="C98" s="134" t="s">
+      <c r="C98" s="133" t="s">
         <v>1209</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -21366,7 +21448,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="46"/>
-      <c r="C99" s="134"/>
+      <c r="C99" s="133"/>
       <c r="D99" s="53" t="s">
         <v>525</v>
       </c>
@@ -21391,7 +21473,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="46"/>
-      <c r="C100" s="134"/>
+      <c r="C100" s="133"/>
       <c r="D100" s="53" t="s">
         <v>527</v>
       </c>
@@ -21416,7 +21498,7 @@
     <row r="101" spans="1:13" ht="13.5">
       <c r="A101" s="45"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="134"/>
+      <c r="C101" s="133"/>
       <c r="D101" s="82" t="s">
         <v>527</v>
       </c>
@@ -21445,7 +21527,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="46"/>
-      <c r="C102" s="134"/>
+      <c r="C102" s="133"/>
       <c r="D102" s="53" t="s">
         <v>528</v>
       </c>
@@ -21468,7 +21550,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="134"/>
+      <c r="C103" s="133"/>
       <c r="D103" s="53" t="s">
         <v>529</v>
       </c>
@@ -21491,7 +21573,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="46"/>
-      <c r="C104" s="134"/>
+      <c r="C104" s="133"/>
       <c r="D104" s="53" t="s">
         <v>530</v>
       </c>
@@ -21512,7 +21594,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="46"/>
-      <c r="C105" s="134"/>
+      <c r="C105" s="133"/>
       <c r="D105" s="53" t="s">
         <v>532</v>
       </c>
@@ -21533,7 +21615,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="46"/>
-      <c r="C106" s="134"/>
+      <c r="C106" s="133"/>
       <c r="D106" s="53" t="s">
         <v>533</v>
       </c>
@@ -21554,7 +21636,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="46"/>
-      <c r="C107" s="134"/>
+      <c r="C107" s="133"/>
       <c r="D107" s="53" t="s">
         <v>534</v>
       </c>
@@ -21575,7 +21657,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="46"/>
-      <c r="C108" s="134"/>
+      <c r="C108" s="133"/>
       <c r="D108" s="53" t="s">
         <v>535</v>
       </c>
@@ -21596,7 +21678,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="46"/>
-      <c r="C109" s="134"/>
+      <c r="C109" s="133"/>
       <c r="D109" s="53" t="s">
         <v>536</v>
       </c>
@@ -21617,7 +21699,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="46"/>
-      <c r="C110" s="134"/>
+      <c r="C110" s="133"/>
       <c r="D110" s="53" t="s">
         <v>537</v>
       </c>
@@ -21638,7 +21720,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="46"/>
-      <c r="C111" s="134"/>
+      <c r="C111" s="133"/>
       <c r="D111" s="53" t="s">
         <v>538</v>
       </c>
@@ -21659,7 +21741,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="46"/>
-      <c r="C112" s="134"/>
+      <c r="C112" s="133"/>
       <c r="D112" s="53" t="s">
         <v>539</v>
       </c>
@@ -21680,7 +21762,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="46"/>
-      <c r="C113" s="134"/>
+      <c r="C113" s="133"/>
       <c r="D113" s="53" t="s">
         <v>540</v>
       </c>
@@ -21701,7 +21783,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="46"/>
-      <c r="C114" s="134"/>
+      <c r="C114" s="133"/>
       <c r="D114" s="53" t="s">
         <v>541</v>
       </c>
@@ -21722,7 +21804,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="46"/>
-      <c r="C115" s="134"/>
+      <c r="C115" s="133"/>
       <c r="D115" s="53" t="s">
         <v>542</v>
       </c>
@@ -21743,7 +21825,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="46"/>
-      <c r="C116" s="134"/>
+      <c r="C116" s="133"/>
       <c r="D116" s="53" t="s">
         <v>543</v>
       </c>
@@ -21764,7 +21846,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="46"/>
-      <c r="C117" s="134"/>
+      <c r="C117" s="133"/>
       <c r="D117" s="53" t="s">
         <v>544</v>
       </c>
@@ -21785,7 +21867,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="46"/>
-      <c r="C118" s="134"/>
+      <c r="C118" s="133"/>
       <c r="D118" s="53" t="s">
         <v>545</v>
       </c>
@@ -21806,7 +21888,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="46"/>
-      <c r="C119" s="134"/>
+      <c r="C119" s="133"/>
       <c r="D119" s="53" t="s">
         <v>546</v>
       </c>
@@ -21831,11 +21913,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="C50:C91"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="C98:C119"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C33"/>
     <mergeCell ref="C34:C45"/>
@@ -21847,6 +21924,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C50:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="C98:C119"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -21890,7 +21972,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>607</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -21901,7 +21983,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="130"/>
+      <c r="A2" s="131"/>
       <c r="B2" s="1" t="s">
         <v>605</v>
       </c>
@@ -21910,7 +21992,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="130"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="1" t="s">
         <v>606</v>
       </c>
@@ -21919,7 +22001,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="131" t="s">
         <v>606</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -21930,7 +22012,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="130"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="1" t="s">
         <v>608</v>
       </c>
@@ -21939,7 +22021,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="130"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="1" t="s">
         <v>609</v>
       </c>
@@ -21948,7 +22030,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="130"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="1" t="s">
         <v>610</v>
       </c>
@@ -21957,7 +22039,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="131" t="s">
         <v>611</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -21968,7 +22050,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="1" t="s">
         <v>613</v>
       </c>
@@ -22026,7 +22108,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="127">
+      <c r="A3" s="128">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -22041,7 +22123,7 @@
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="128"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -22056,7 +22138,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="128"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -22071,7 +22153,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="128"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -22086,7 +22168,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="128"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -22101,7 +22183,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="128"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -22116,7 +22198,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="128"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -22131,7 +22213,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="128"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -22142,7 +22224,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="128"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -22153,7 +22235,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="129"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -22188,7 +22270,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="127">
+      <c r="A15" s="128">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -22203,7 +22285,7 @@
       <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="128"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -22218,7 +22300,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="128"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -22233,7 +22315,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="128"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -22248,7 +22330,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="128"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -22263,7 +22345,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="128"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -22278,7 +22360,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="128"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -22293,7 +22375,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="128"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -22304,7 +22386,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="128"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -22315,7 +22397,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="129"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -22350,7 +22432,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="127">
+      <c r="A27" s="128">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -22365,7 +22447,7 @@
       <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="128"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -22380,7 +22462,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="128"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -22395,7 +22477,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="128"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -22410,7 +22492,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="128"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -22425,7 +22507,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="128"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -22440,7 +22522,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="128"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -22455,7 +22537,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="128"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -22470,7 +22552,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="128"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -22481,7 +22563,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="129"/>
+      <c r="A36" s="130"/>
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -22516,7 +22598,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="127">
+      <c r="A39" s="128">
         <v>4</v>
       </c>
       <c r="B39" s="1">
@@ -22531,7 +22613,7 @@
       <c r="E39" s="66"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="128"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -22546,7 +22628,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="128"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -22561,7 +22643,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="128"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="1">
         <v>4</v>
       </c>
@@ -22576,7 +22658,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="128"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="1">
         <v>5</v>
       </c>
@@ -22591,7 +22673,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="128"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="1">
         <v>6</v>
       </c>
@@ -22606,7 +22688,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="128"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="1">
         <v>7</v>
       </c>
@@ -22617,7 +22699,7 @@
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="128"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -22628,7 +22710,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="128"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -22639,7 +22721,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="129"/>
+      <c r="A48" s="130"/>
       <c r="B48" s="1">
         <v>10</v>
       </c>
@@ -22674,7 +22756,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="127">
+      <c r="A51" s="128">
         <v>5</v>
       </c>
       <c r="B51" s="1">
@@ -22689,7 +22771,7 @@
       <c r="E51" s="66"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="128"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -22704,7 +22786,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="128"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -22719,7 +22801,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="128"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -22734,7 +22816,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="128"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -22749,7 +22831,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="128"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -22764,7 +22846,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="128"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -22779,7 +22861,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="128"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -22794,7 +22876,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="128"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -22809,7 +22891,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="129"/>
+      <c r="A60" s="130"/>
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -22844,7 +22926,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="127">
+      <c r="A63" s="128">
         <v>6</v>
       </c>
       <c r="B63" s="1">
@@ -22859,7 +22941,7 @@
       <c r="E63" s="66"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="128"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="1">
         <v>2</v>
       </c>
@@ -22874,7 +22956,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="128"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="1">
         <v>3</v>
       </c>
@@ -22889,7 +22971,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="128"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="1">
         <v>4</v>
       </c>
@@ -22904,7 +22986,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="128"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="1">
         <v>5</v>
       </c>
@@ -22919,7 +23001,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="128"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="1">
         <v>6</v>
       </c>
@@ -22934,7 +23016,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="128"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="1">
         <v>7</v>
       </c>
@@ -22949,7 +23031,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="128"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="1">
         <v>8</v>
       </c>
@@ -22964,7 +23046,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="128"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="1">
         <v>9</v>
       </c>
@@ -22979,7 +23061,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="129"/>
+      <c r="A72" s="130"/>
       <c r="B72" s="1">
         <v>10</v>
       </c>
@@ -23014,7 +23096,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="127">
+      <c r="A75" s="128">
         <v>7</v>
       </c>
       <c r="B75" s="1">
@@ -23029,7 +23111,7 @@
       <c r="E75" s="66"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="128"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="1">
         <v>2</v>
       </c>
@@ -23044,7 +23126,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="128"/>
+      <c r="A77" s="129"/>
       <c r="B77" s="1">
         <v>3</v>
       </c>
@@ -23059,7 +23141,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="128"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="1">
         <v>4</v>
       </c>
@@ -23074,7 +23156,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="128"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="1">
         <v>5</v>
       </c>
@@ -23089,7 +23171,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="128"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="1">
         <v>6</v>
       </c>
@@ -23104,7 +23186,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="128"/>
+      <c r="A81" s="129"/>
       <c r="B81" s="1">
         <v>7</v>
       </c>
@@ -23119,7 +23201,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="128"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="1">
         <v>8</v>
       </c>
@@ -23134,7 +23216,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="128"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="1">
         <v>9</v>
       </c>
@@ -23149,7 +23231,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="129"/>
+      <c r="A84" s="130"/>
       <c r="B84" s="1">
         <v>10</v>
       </c>
@@ -23184,7 +23266,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="127">
+      <c r="A87" s="128">
         <v>8</v>
       </c>
       <c r="B87" s="1">
@@ -23199,7 +23281,7 @@
       <c r="E87" s="66"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="128"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="1">
         <v>2</v>
       </c>
@@ -23214,7 +23296,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="128"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="1">
         <v>3</v>
       </c>
@@ -23229,7 +23311,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="128"/>
+      <c r="A90" s="129"/>
       <c r="B90" s="1">
         <v>4</v>
       </c>
@@ -23244,7 +23326,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="128"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -23259,7 +23341,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="128"/>
+      <c r="A92" s="129"/>
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -23274,7 +23356,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="128"/>
+      <c r="A93" s="129"/>
       <c r="B93" s="1">
         <v>7</v>
       </c>
@@ -23289,7 +23371,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="128"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="1">
         <v>8</v>
       </c>
@@ -23300,7 +23382,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="128"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="1">
         <v>9</v>
       </c>
@@ -23311,7 +23393,7 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="129"/>
+      <c r="A96" s="130"/>
       <c r="B96" s="1">
         <v>10</v>
       </c>
@@ -23346,7 +23428,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="127">
+      <c r="A99" s="128">
         <v>9</v>
       </c>
       <c r="B99" s="1">
@@ -23361,7 +23443,7 @@
       <c r="E99" s="66"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="128"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="1">
         <v>2</v>
       </c>
@@ -23376,7 +23458,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="128"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="1">
         <v>3</v>
       </c>
@@ -23391,7 +23473,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="128"/>
+      <c r="A102" s="129"/>
       <c r="B102" s="1">
         <v>4</v>
       </c>
@@ -23406,7 +23488,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="128"/>
+      <c r="A103" s="129"/>
       <c r="B103" s="1">
         <v>5</v>
       </c>
@@ -23421,7 +23503,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="128"/>
+      <c r="A104" s="129"/>
       <c r="B104" s="1">
         <v>6</v>
       </c>
@@ -23436,7 +23518,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="128"/>
+      <c r="A105" s="129"/>
       <c r="B105" s="1">
         <v>7</v>
       </c>
@@ -23451,7 +23533,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="128"/>
+      <c r="A106" s="129"/>
       <c r="B106" s="1">
         <v>8</v>
       </c>
@@ -23462,7 +23544,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="128"/>
+      <c r="A107" s="129"/>
       <c r="B107" s="1">
         <v>9</v>
       </c>
@@ -23473,7 +23555,7 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="129"/>
+      <c r="A108" s="130"/>
       <c r="B108" s="1">
         <v>10</v>
       </c>
@@ -23508,7 +23590,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="127">
+      <c r="A111" s="128">
         <v>10</v>
       </c>
       <c r="B111" s="1">
@@ -23523,7 +23605,7 @@
       <c r="E111" s="66"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="128"/>
+      <c r="A112" s="129"/>
       <c r="B112" s="1">
         <v>2</v>
       </c>
@@ -23538,7 +23620,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="128"/>
+      <c r="A113" s="129"/>
       <c r="B113" s="1">
         <v>3</v>
       </c>
@@ -23553,7 +23635,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="128"/>
+      <c r="A114" s="129"/>
       <c r="B114" s="1">
         <v>4</v>
       </c>
@@ -23568,7 +23650,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="128"/>
+      <c r="A115" s="129"/>
       <c r="B115" s="1">
         <v>5</v>
       </c>
@@ -23583,7 +23665,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="128"/>
+      <c r="A116" s="129"/>
       <c r="B116" s="1">
         <v>6</v>
       </c>
@@ -23598,7 +23680,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="128"/>
+      <c r="A117" s="129"/>
       <c r="B117" s="1">
         <v>7</v>
       </c>
@@ -23613,7 +23695,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="128"/>
+      <c r="A118" s="129"/>
       <c r="B118" s="1">
         <v>8</v>
       </c>
@@ -23628,7 +23710,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="128"/>
+      <c r="A119" s="129"/>
       <c r="B119" s="1">
         <v>9</v>
       </c>
@@ -23639,7 +23721,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="129"/>
+      <c r="A120" s="130"/>
       <c r="B120" s="1">
         <v>10</v>
       </c>
@@ -23674,7 +23756,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="127">
+      <c r="A123" s="128">
         <v>11</v>
       </c>
       <c r="B123" s="1">
@@ -23689,7 +23771,7 @@
       <c r="E123" s="66"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="128"/>
+      <c r="A124" s="129"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -23704,7 +23786,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="128"/>
+      <c r="A125" s="129"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -23719,7 +23801,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="128"/>
+      <c r="A126" s="129"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -23734,7 +23816,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="128"/>
+      <c r="A127" s="129"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -23749,7 +23831,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="128"/>
+      <c r="A128" s="129"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -23764,7 +23846,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="128"/>
+      <c r="A129" s="129"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -23779,7 +23861,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="128"/>
+      <c r="A130" s="129"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -23790,7 +23872,7 @@
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="128"/>
+      <c r="A131" s="129"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -23801,7 +23883,7 @@
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="129"/>
+      <c r="A132" s="130"/>
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -23836,7 +23918,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="127">
+      <c r="A135" s="128">
         <v>12</v>
       </c>
       <c r="B135" s="1">
@@ -23851,7 +23933,7 @@
       <c r="E135" s="66"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="128"/>
+      <c r="A136" s="129"/>
       <c r="B136" s="1">
         <v>2</v>
       </c>
@@ -23866,7 +23948,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="128"/>
+      <c r="A137" s="129"/>
       <c r="B137" s="1">
         <v>3</v>
       </c>
@@ -23881,7 +23963,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="128"/>
+      <c r="A138" s="129"/>
       <c r="B138" s="1">
         <v>4</v>
       </c>
@@ -23896,7 +23978,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="128"/>
+      <c r="A139" s="129"/>
       <c r="B139" s="1">
         <v>5</v>
       </c>
@@ -23911,7 +23993,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="128"/>
+      <c r="A140" s="129"/>
       <c r="B140" s="1">
         <v>6</v>
       </c>
@@ -23926,7 +24008,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="128"/>
+      <c r="A141" s="129"/>
       <c r="B141" s="1">
         <v>7</v>
       </c>
@@ -23941,7 +24023,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="128"/>
+      <c r="A142" s="129"/>
       <c r="B142" s="1">
         <v>8</v>
       </c>
@@ -23952,7 +24034,7 @@
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="128"/>
+      <c r="A143" s="129"/>
       <c r="B143" s="1">
         <v>9</v>
       </c>
@@ -23963,7 +24045,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="129"/>
+      <c r="A144" s="130"/>
       <c r="B144" s="1">
         <v>10</v>
       </c>
@@ -23998,7 +24080,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="130">
+      <c r="A147" s="131">
         <v>13</v>
       </c>
       <c r="B147" s="1">
@@ -24011,7 +24093,7 @@
       <c r="E147" s="66"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="130"/>
+      <c r="A148" s="131"/>
       <c r="B148" s="1">
         <v>2</v>
       </c>
@@ -24024,7 +24106,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="130"/>
+      <c r="A149" s="131"/>
       <c r="B149" s="1">
         <v>3</v>
       </c>
@@ -24037,7 +24119,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="130"/>
+      <c r="A150" s="131"/>
       <c r="B150" s="1">
         <v>4</v>
       </c>
@@ -24050,7 +24132,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="130"/>
+      <c r="A151" s="131"/>
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -24063,7 +24145,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="130"/>
+      <c r="A152" s="131"/>
       <c r="B152" s="1">
         <v>6</v>
       </c>
@@ -24089,7 +24171,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="130">
+      <c r="A155" s="131">
         <v>14</v>
       </c>
       <c r="B155" s="1">
@@ -24102,7 +24184,7 @@
       <c r="E155" s="66"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="130"/>
+      <c r="A156" s="131"/>
       <c r="B156" s="1">
         <v>2</v>
       </c>
@@ -24115,7 +24197,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="130"/>
+      <c r="A157" s="131"/>
       <c r="B157" s="1">
         <v>3</v>
       </c>
@@ -24128,7 +24210,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="130"/>
+      <c r="A158" s="131"/>
       <c r="B158" s="1">
         <v>4</v>
       </c>
@@ -24141,7 +24223,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="130"/>
+      <c r="A159" s="131"/>
       <c r="B159" s="1">
         <v>5</v>
       </c>
@@ -24154,7 +24236,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="130"/>
+      <c r="A160" s="131"/>
       <c r="B160" s="1">
         <v>6</v>
       </c>
@@ -24180,7 +24262,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="130">
+      <c r="A163" s="131">
         <v>15</v>
       </c>
       <c r="B163" s="1">
@@ -24193,7 +24275,7 @@
       <c r="E163" s="66"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="130"/>
+      <c r="A164" s="131"/>
       <c r="B164" s="1">
         <v>2</v>
       </c>
@@ -24206,7 +24288,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="130"/>
+      <c r="A165" s="131"/>
       <c r="B165" s="1">
         <v>3</v>
       </c>
@@ -24219,7 +24301,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="130"/>
+      <c r="A166" s="131"/>
       <c r="B166" s="1">
         <v>4</v>
       </c>
@@ -24232,7 +24314,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="130"/>
+      <c r="A167" s="131"/>
       <c r="B167" s="1">
         <v>5</v>
       </c>
@@ -24245,7 +24327,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="130"/>
+      <c r="A168" s="131"/>
       <c r="B168" s="1">
         <v>6</v>
       </c>
@@ -24271,7 +24353,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="130">
+      <c r="A171" s="131">
         <v>16</v>
       </c>
       <c r="B171" s="1">
@@ -24284,7 +24366,7 @@
       <c r="E171" s="66"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="130"/>
+      <c r="A172" s="131"/>
       <c r="B172" s="1">
         <v>2</v>
       </c>
@@ -24297,7 +24379,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="130"/>
+      <c r="A173" s="131"/>
       <c r="B173" s="1">
         <v>3</v>
       </c>
@@ -24310,7 +24392,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="130"/>
+      <c r="A174" s="131"/>
       <c r="B174" s="1">
         <v>4</v>
       </c>
@@ -24323,7 +24405,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="130"/>
+      <c r="A175" s="131"/>
       <c r="B175" s="1">
         <v>5</v>
       </c>
@@ -24336,7 +24418,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="130"/>
+      <c r="A176" s="131"/>
       <c r="B176" s="1">
         <v>6</v>
       </c>
@@ -24362,7 +24444,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="127">
+      <c r="A179" s="128">
         <v>17</v>
       </c>
       <c r="B179" s="1">
@@ -24377,7 +24459,7 @@
       <c r="E179" s="66"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="128"/>
+      <c r="A180" s="129"/>
       <c r="B180" s="1">
         <v>2</v>
       </c>
@@ -24392,7 +24474,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="128"/>
+      <c r="A181" s="129"/>
       <c r="B181" s="1">
         <v>3</v>
       </c>
@@ -24407,7 +24489,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="128"/>
+      <c r="A182" s="129"/>
       <c r="B182" s="1">
         <v>4</v>
       </c>
@@ -24422,7 +24504,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="128"/>
+      <c r="A183" s="129"/>
       <c r="B183" s="1">
         <v>5</v>
       </c>
@@ -24437,7 +24519,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="128"/>
+      <c r="A184" s="129"/>
       <c r="B184" s="1">
         <v>6</v>
       </c>
@@ -24452,7 +24534,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="128"/>
+      <c r="A185" s="129"/>
       <c r="B185" s="1">
         <v>7</v>
       </c>
@@ -24467,7 +24549,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="128"/>
+      <c r="A186" s="129"/>
       <c r="B186" s="1">
         <v>8</v>
       </c>
@@ -24482,7 +24564,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="128"/>
+      <c r="A187" s="129"/>
       <c r="B187" s="1">
         <v>9</v>
       </c>
@@ -24497,7 +24579,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="129"/>
+      <c r="A188" s="130"/>
       <c r="B188" s="1">
         <v>10</v>
       </c>
@@ -24511,6 +24593,15 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -24518,16 +24609,7 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24615,13 +24697,13 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>760</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="145" t="s">
         <v>723</v>
       </c>
       <c r="D2" s="68">
@@ -24633,13 +24715,13 @@
       <c r="F2" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="146" t="s">
         <v>824</v>
       </c>
-      <c r="I2" s="144" t="s">
+      <c r="I2" s="145" t="s">
         <v>825</v>
       </c>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="145" t="s">
         <v>859</v>
       </c>
       <c r="K2" s="68">
@@ -24651,13 +24733,13 @@
       <c r="M2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="O2" s="145" t="s">
+      <c r="O2" s="146" t="s">
         <v>858</v>
       </c>
-      <c r="P2" s="144" t="s">
+      <c r="P2" s="145" t="s">
         <v>825</v>
       </c>
-      <c r="Q2" s="144" t="s">
+      <c r="Q2" s="145" t="s">
         <v>860</v>
       </c>
       <c r="R2" s="68">
@@ -24671,9 +24753,9 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="145"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="144"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="145"/>
       <c r="D3" s="68">
         <v>2</v>
       </c>
@@ -24683,9 +24765,9 @@
       <c r="F3" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="144"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="145"/>
       <c r="K3" s="68">
         <v>2</v>
       </c>
@@ -24695,9 +24777,9 @@
       <c r="M3" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="O3" s="145"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="144"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="145"/>
       <c r="R3" s="68">
         <v>2</v>
       </c>
@@ -24709,9 +24791,9 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="145"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="144"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="68">
         <v>3</v>
       </c>
@@ -24721,9 +24803,9 @@
       <c r="F4" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H4" s="145"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="144"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="145"/>
       <c r="K4" s="68">
         <v>3</v>
       </c>
@@ -24733,9 +24815,9 @@
       <c r="M4" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="O4" s="145"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="144"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="145"/>
       <c r="R4" s="68">
         <v>3</v>
       </c>
@@ -24747,9 +24829,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="144"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="68">
         <v>4</v>
       </c>
@@ -24759,17 +24841,17 @@
       <c r="F5" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H5" s="145"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="144"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="145"/>
       <c r="K5" s="68">
         <v>4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="144"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="145"/>
       <c r="R5" s="68">
         <v>4</v>
       </c>
@@ -24777,25 +24859,25 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="145"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="144"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="68">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="144"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="145"/>
       <c r="K6" s="68">
         <v>5</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="144"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="145"/>
       <c r="R6" s="68">
         <v>5</v>
       </c>
@@ -24803,25 +24885,25 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="145"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="68">
         <v>6</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="144"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="145"/>
       <c r="K7" s="68">
         <v>6</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="144"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="145"/>
       <c r="R7" s="68">
         <v>6</v>
       </c>
@@ -24829,9 +24911,9 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="145"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="68">
         <v>7</v>
       </c>
@@ -24841,9 +24923,9 @@
       <c r="F8" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H8" s="145"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="144"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="145"/>
       <c r="K8" s="68">
         <v>7</v>
       </c>
@@ -24853,9 +24935,9 @@
       <c r="M8" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="O8" s="145"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="144"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="145"/>
       <c r="R8" s="68">
         <v>7</v>
       </c>
@@ -24867,9 +24949,9 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="145"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="144"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="68">
         <v>8</v>
       </c>
@@ -24879,9 +24961,9 @@
       <c r="F9" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="144"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="145"/>
       <c r="K9" s="68">
         <v>8</v>
       </c>
@@ -24891,9 +24973,9 @@
       <c r="M9" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="O9" s="145"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="144"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="145"/>
       <c r="R9" s="68">
         <v>8</v>
       </c>
@@ -24905,9 +24987,9 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="145"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="144"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="68">
         <v>9</v>
       </c>
@@ -24917,17 +24999,17 @@
       <c r="F10" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H10" s="145"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="144"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="145"/>
       <c r="K10" s="68">
         <v>9</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="144"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="145"/>
       <c r="R10" s="68">
         <v>9</v>
       </c>
@@ -24935,9 +25017,9 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="145"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="144"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="68">
         <v>10</v>
       </c>
@@ -24947,17 +25029,17 @@
       <c r="F11" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H11" s="145"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="144"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="145"/>
       <c r="K11" s="68">
         <v>10</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="144"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="145"/>
       <c r="R11" s="68">
         <v>10</v>
       </c>
@@ -24965,9 +25047,9 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="145"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="144"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="68">
         <v>11</v>
       </c>
@@ -24977,17 +25059,17 @@
       <c r="F12" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H12" s="145"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="144"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="145"/>
       <c r="K12" s="68">
         <v>11</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="144"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="145"/>
       <c r="R12" s="68">
         <v>11</v>
       </c>
@@ -24995,9 +25077,9 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="145"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="144"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="68">
         <v>12</v>
       </c>
@@ -25007,17 +25089,17 @@
       <c r="F13" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H13" s="145"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="144"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="145"/>
       <c r="K13" s="68">
         <v>12</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="144"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="145"/>
       <c r="R13" s="68">
         <v>12</v>
       </c>
@@ -25025,17 +25107,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="145"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="144"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="68">
         <v>13</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="144"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="145"/>
       <c r="K14" s="68">
         <v>13</v>
       </c>
@@ -25045,9 +25127,9 @@
       <c r="M14" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="O14" s="145"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="144"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="145"/>
       <c r="R14" s="68">
         <v>13</v>
       </c>
@@ -25059,9 +25141,9 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="145"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="144"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="68">
         <v>14</v>
       </c>
@@ -25071,9 +25153,9 @@
       <c r="F15" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H15" s="145"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="144"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="145"/>
       <c r="K15" s="68">
         <v>14</v>
       </c>
@@ -25083,9 +25165,9 @@
       <c r="M15" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="O15" s="145"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="144"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="145"/>
       <c r="R15" s="68">
         <v>14</v>
       </c>
@@ -25097,9 +25179,9 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="145"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="144"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="68">
         <v>15</v>
       </c>
@@ -25109,9 +25191,9 @@
       <c r="F16" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="144"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="145"/>
       <c r="K16" s="68">
         <v>15</v>
       </c>
@@ -25121,9 +25203,9 @@
       <c r="M16" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="O16" s="145"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="144"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="145"/>
       <c r="R16" s="68">
         <v>15</v>
       </c>
@@ -25135,9 +25217,9 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="145"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="144"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="68">
         <v>16</v>
       </c>
@@ -25147,9 +25229,9 @@
       <c r="F17" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H17" s="145"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="144"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="145"/>
       <c r="K17" s="68">
         <v>16</v>
       </c>
@@ -25159,9 +25241,9 @@
       <c r="M17" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="O17" s="145"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="144"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="145"/>
       <c r="R17" s="68">
         <v>16</v>
       </c>
@@ -25173,9 +25255,9 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="145"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="144"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="145"/>
       <c r="D18" s="68">
         <v>17</v>
       </c>
@@ -25185,9 +25267,9 @@
       <c r="F18" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="144"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="145"/>
       <c r="K18" s="68">
         <v>17</v>
       </c>
@@ -25197,9 +25279,9 @@
       <c r="M18" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="O18" s="145"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="144"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="145"/>
       <c r="R18" s="68">
         <v>17</v>
       </c>
@@ -25211,9 +25293,9 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="145"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="144"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="68">
         <v>18</v>
       </c>
@@ -25223,9 +25305,9 @@
       <c r="F19" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="144"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="145"/>
       <c r="K19" s="68">
         <v>18</v>
       </c>
@@ -25235,9 +25317,9 @@
       <c r="M19" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="O19" s="145"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="144"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="145"/>
       <c r="R19" s="68">
         <v>18</v>
       </c>
@@ -25249,9 +25331,9 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="145"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="144"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="145"/>
       <c r="D20" s="68">
         <v>19</v>
       </c>
@@ -25261,9 +25343,9 @@
       <c r="F20" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H20" s="145"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="144"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="145"/>
       <c r="K20" s="68">
         <v>19</v>
       </c>
@@ -25273,9 +25355,9 @@
       <c r="M20" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="O20" s="145"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="144"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="145"/>
       <c r="R20" s="68">
         <v>19</v>
       </c>
@@ -25287,9 +25369,9 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="145"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="144"/>
+      <c r="A21" s="146"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="68">
         <v>20</v>
       </c>
@@ -25299,9 +25381,9 @@
       <c r="F21" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H21" s="145"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="144"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="145"/>
       <c r="K21" s="68">
         <v>20</v>
       </c>
@@ -25311,9 +25393,9 @@
       <c r="M21" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="O21" s="145"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="144"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="145"/>
       <c r="R21" s="68">
         <v>20</v>
       </c>
@@ -25325,9 +25407,9 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="145"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="144"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="68">
         <v>21</v>
       </c>
@@ -25337,9 +25419,9 @@
       <c r="F22" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="H22" s="145"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="144"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="145"/>
       <c r="K22" s="68">
         <v>21</v>
       </c>
@@ -25349,9 +25431,9 @@
       <c r="M22" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="O22" s="145"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="144"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="145"/>
       <c r="R22" s="68">
         <v>21</v>
       </c>
@@ -25363,17 +25445,17 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="145"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="144"/>
+      <c r="A23" s="146"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="68">
         <v>22</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="144"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="145"/>
       <c r="K23" s="68">
         <v>22</v>
       </c>
@@ -25383,9 +25465,9 @@
       <c r="M23" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="O23" s="145"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="144"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="145"/>
       <c r="R23" s="68">
         <v>22</v>
       </c>
@@ -25397,25 +25479,25 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="145"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="144"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="68">
         <v>23</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="144"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="145"/>
       <c r="K24" s="68">
         <v>23</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="144"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="145"/>
       <c r="R24" s="68">
         <v>23</v>
       </c>
@@ -25423,25 +25505,25 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="145"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="144"/>
+      <c r="A25" s="146"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="68">
         <v>24</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="144"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="145"/>
       <c r="K25" s="68">
         <v>24</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="144"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="145"/>
       <c r="R25" s="68">
         <v>24</v>
       </c>
@@ -25449,17 +25531,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="145"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="144"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="68">
         <v>25</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="144"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="145"/>
       <c r="K26" s="68">
         <v>25</v>
       </c>
@@ -25469,9 +25551,9 @@
       <c r="M26" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="O26" s="145"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="144"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="145"/>
       <c r="R26" s="68">
         <v>25</v>
       </c>
@@ -25501,13 +25583,13 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="146" t="s">
         <v>758</v>
       </c>
-      <c r="B29" s="144" t="s">
+      <c r="B29" s="145" t="s">
         <v>759</v>
       </c>
-      <c r="C29" s="144" t="s">
+      <c r="C29" s="145" t="s">
         <v>761</v>
       </c>
       <c r="D29" s="68">
@@ -25521,9 +25603,9 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A30" s="145"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
       <c r="D30" s="68">
         <v>2</v>
       </c>
@@ -25535,9 +25617,9 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A31" s="145"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
       <c r="D31" s="68">
         <v>3</v>
       </c>
@@ -25549,9 +25631,9 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A32" s="145"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
+      <c r="A32" s="146"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
       <c r="D32" s="68">
         <v>4</v>
       </c>
@@ -25563,9 +25645,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A33" s="145"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
       <c r="D33" s="68">
         <v>5</v>
       </c>
@@ -25577,9 +25659,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="145"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
+      <c r="A34" s="146"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
       <c r="D34" s="68">
         <v>6</v>
       </c>
@@ -25591,9 +25673,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="145"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
       <c r="D35" s="68">
         <v>7</v>
       </c>
@@ -25605,9 +25687,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="145"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
       <c r="D36" s="68">
         <v>8</v>
       </c>
@@ -25619,9 +25701,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="145"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
+      <c r="A37" s="146"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
       <c r="D37" s="68">
         <v>9</v>
       </c>
@@ -25633,9 +25715,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
+      <c r="A38" s="146"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
       <c r="D38" s="68">
         <v>10</v>
       </c>
@@ -25647,9 +25729,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="145"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
+      <c r="A39" s="146"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
       <c r="D39" s="68">
         <v>11</v>
       </c>
@@ -25661,9 +25743,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="145"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
+      <c r="A40" s="146"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="145"/>
       <c r="D40" s="68">
         <v>12</v>
       </c>
@@ -25675,9 +25757,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="145"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
+      <c r="A41" s="146"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
       <c r="D41" s="68">
         <v>13</v>
       </c>
@@ -25689,9 +25771,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="145"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
+      <c r="A42" s="146"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
       <c r="D42" s="68">
         <v>14</v>
       </c>
@@ -25703,9 +25785,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="145"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
+      <c r="A43" s="146"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
       <c r="D43" s="68">
         <v>15</v>
       </c>
@@ -25717,9 +25799,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="145"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="144"/>
+      <c r="A44" s="146"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
       <c r="D44" s="68">
         <v>16</v>
       </c>
@@ -25727,9 +25809,9 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="145"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
+      <c r="A45" s="146"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="68">
         <v>17</v>
       </c>
@@ -25741,9 +25823,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="145"/>
-      <c r="B46" s="144"/>
-      <c r="C46" s="144"/>
+      <c r="A46" s="146"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
       <c r="D46" s="68">
         <v>18</v>
       </c>
@@ -25755,9 +25837,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="145"/>
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
       <c r="D47" s="68">
         <v>19</v>
       </c>
@@ -25769,9 +25851,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="145"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="144"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
       <c r="D48" s="68">
         <v>20</v>
       </c>
@@ -25783,9 +25865,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="145"/>
-      <c r="B49" s="144"/>
-      <c r="C49" s="144"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
       <c r="D49" s="68">
         <v>21</v>
       </c>
@@ -25797,9 +25879,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="145"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="68">
         <v>22</v>
       </c>
@@ -25811,9 +25893,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="145"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
       <c r="D51" s="68">
         <v>23</v>
       </c>
@@ -25825,9 +25907,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="145"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
       <c r="D52" s="68">
         <v>24</v>
       </c>
@@ -25839,9 +25921,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="145"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
       <c r="D53" s="68">
         <v>25</v>
       </c>
@@ -25853,9 +25935,9 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="145"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="144"/>
+      <c r="A54" s="146"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
       <c r="D54" s="68">
         <v>26</v>
       </c>
@@ -25867,9 +25949,9 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="145"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="144"/>
+      <c r="A55" s="146"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
       <c r="D55" s="68">
         <v>27</v>
       </c>
@@ -25881,9 +25963,9 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="145"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="144"/>
+      <c r="A56" s="146"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
       <c r="D56" s="68">
         <v>28</v>
       </c>
@@ -25895,9 +25977,9 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="145"/>
-      <c r="B57" s="144"/>
-      <c r="C57" s="144"/>
+      <c r="A57" s="146"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
       <c r="D57" s="68">
         <v>29</v>
       </c>
@@ -25909,9 +25991,9 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="145"/>
-      <c r="B58" s="144"/>
-      <c r="C58" s="144"/>
+      <c r="A58" s="146"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
       <c r="D58" s="68">
         <v>30</v>
       </c>
@@ -25923,9 +26005,9 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="145"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="144"/>
+      <c r="A59" s="146"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
       <c r="D59" s="68">
         <v>31</v>
       </c>
@@ -25937,9 +26019,9 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="145"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="144"/>
+      <c r="A60" s="146"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
       <c r="D60" s="68">
         <v>32</v>
       </c>
@@ -25947,9 +26029,9 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="145"/>
-      <c r="B61" s="144"/>
-      <c r="C61" s="144"/>
+      <c r="A61" s="146"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
       <c r="D61" s="68">
         <v>33</v>
       </c>
@@ -25961,9 +26043,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="145"/>
-      <c r="B62" s="144"/>
-      <c r="C62" s="144"/>
+      <c r="A62" s="146"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
       <c r="D62" s="68">
         <v>34</v>
       </c>
@@ -25975,9 +26057,9 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="145"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="144"/>
+      <c r="A63" s="146"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
       <c r="D63" s="68">
         <v>35</v>
       </c>
@@ -25989,9 +26071,9 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="145"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="144"/>
+      <c r="A64" s="146"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
       <c r="D64" s="68">
         <v>36</v>
       </c>
@@ -26003,9 +26085,9 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="145"/>
-      <c r="B65" s="144"/>
-      <c r="C65" s="144"/>
+      <c r="A65" s="146"/>
+      <c r="B65" s="145"/>
+      <c r="C65" s="145"/>
       <c r="D65" s="68">
         <v>37</v>
       </c>
@@ -26017,9 +26099,9 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="145"/>
-      <c r="B66" s="144"/>
-      <c r="C66" s="144"/>
+      <c r="A66" s="146"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="145"/>
       <c r="D66" s="68">
         <v>38</v>
       </c>
@@ -26031,9 +26113,9 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="145"/>
-      <c r="B67" s="144"/>
-      <c r="C67" s="144"/>
+      <c r="A67" s="146"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
       <c r="D67" s="68">
         <v>39</v>
       </c>
@@ -26045,9 +26127,9 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="145"/>
-      <c r="B68" s="144"/>
-      <c r="C68" s="144"/>
+      <c r="A68" s="146"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
       <c r="D68" s="68">
         <v>40</v>
       </c>
@@ -26059,9 +26141,9 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="145"/>
-      <c r="B69" s="144"/>
-      <c r="C69" s="144"/>
+      <c r="A69" s="146"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="145"/>
       <c r="D69" s="68">
         <v>41</v>
       </c>
@@ -26073,9 +26155,9 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="145"/>
-      <c r="B70" s="144"/>
-      <c r="C70" s="144"/>
+      <c r="A70" s="146"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="145"/>
       <c r="D70" s="68">
         <v>42</v>
       </c>
@@ -26087,9 +26169,9 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="145"/>
-      <c r="B71" s="144"/>
-      <c r="C71" s="144"/>
+      <c r="A71" s="146"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="145"/>
       <c r="D71" s="68">
         <v>43</v>
       </c>
@@ -26101,9 +26183,9 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="145"/>
-      <c r="B72" s="144"/>
-      <c r="C72" s="144"/>
+      <c r="A72" s="146"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
       <c r="D72" s="68">
         <v>44</v>
       </c>
@@ -26115,9 +26197,9 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="145"/>
-      <c r="B73" s="144"/>
-      <c r="C73" s="144"/>
+      <c r="A73" s="146"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="145"/>
       <c r="D73" s="68">
         <v>45</v>
       </c>
@@ -26129,9 +26211,9 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="145"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="144"/>
+      <c r="A74" s="146"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="145"/>
       <c r="D74" s="68">
         <v>46</v>
       </c>
@@ -26143,9 +26225,9 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="145"/>
-      <c r="B75" s="144"/>
-      <c r="C75" s="144"/>
+      <c r="A75" s="146"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="145"/>
       <c r="D75" s="68">
         <v>47</v>
       </c>
@@ -26157,9 +26239,9 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="145"/>
-      <c r="B76" s="144"/>
-      <c r="C76" s="144"/>
+      <c r="A76" s="146"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
       <c r="D76" s="68">
         <v>48</v>
       </c>
@@ -26167,9 +26249,9 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="145"/>
-      <c r="B77" s="144"/>
-      <c r="C77" s="144"/>
+      <c r="A77" s="146"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
       <c r="D77" s="68">
         <v>49</v>
       </c>
@@ -26177,9 +26259,9 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="145"/>
-      <c r="B78" s="144"/>
-      <c r="C78" s="144"/>
+      <c r="A78" s="146"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="145"/>
       <c r="D78" s="68">
         <v>50</v>
       </c>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1629">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6065,10 +6065,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20170425X758in02.rar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1、修改吸取失败，排料导致撞机bug
 2、延长吸取时间0.3-&gt;0.4
 3、修改拍照处理置位气缸Y20，不受排料信号影响。</t>
@@ -6077,6 +6073,27 @@
   <si>
     <t>·Epson
 ·PLC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170425X758in03.rar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·Epson
+·PLC
+·上位机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、判断上料盘是否有料，判断多pcs，节约时间。
+2、上料盘吸取失败，需要将产品放好，再吸取原来位置。
+3、将相机拍摄的信号反馈给机械手，而不是采用吸盘真空信号。
+4、取消“Leader”Logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170427X758in01.rar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11580,8 +11597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15543,10 +15560,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15632,13 +15649,27 @@
         <v>42850</v>
       </c>
       <c r="B6" s="73" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C6" s="121" t="s">
         <v>1624</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="D6" s="122" t="s">
         <v>1625</v>
       </c>
-      <c r="D6" s="122" t="s">
-        <v>1623</v>
+    </row>
+    <row r="7" spans="1:4" ht="67.5">
+      <c r="A7" s="120">
+        <v>42852</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
@@ -24593,15 +24624,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="A75:A84"/>
     <mergeCell ref="A87:A96"/>
@@ -24609,7 +24631,16 @@
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="A99:A108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/X758资料.xlsx
+++ b/X758资料.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1632">
   <si>
     <t>燕麦测试机线路归纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6094,6 +6094,20 @@
   </si>
   <si>
     <t>20170427X758in01.rar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·Epson
+·PLC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170427X758in03.rar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、提前打开扫码
+2、上料空盘无杆气缸复位1.5秒，触发拍照</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7239,6 +7253,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7246,15 +7266,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7274,6 +7285,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15560,10 +15574,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15620,7 +15634,7 @@
       <c r="A4" s="120">
         <v>42849</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="121" t="s">
         <v>1618</v>
       </c>
       <c r="C4" s="121" t="s">
@@ -15634,7 +15648,7 @@
       <c r="A5" s="120">
         <v>42850</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="121" t="s">
         <v>1621</v>
       </c>
       <c r="C5" s="121" t="s">
@@ -15648,7 +15662,7 @@
       <c r="A6" s="120">
         <v>42850</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="121" t="s">
         <v>1623</v>
       </c>
       <c r="C6" s="121" t="s">
@@ -15662,7 +15676,7 @@
       <c r="A7" s="120">
         <v>42852</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="121" t="s">
         <v>1627</v>
       </c>
       <c r="C7" s="121" t="s">
@@ -15670,6 +15684,20 @@
       </c>
       <c r="D7" s="122" t="s">
         <v>1628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="120">
+        <v>42852</v>
+      </c>
+      <c r="B8" s="121" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D8" s="122" t="s">
+        <v>1630</v>
       </c>
     </row>
   </sheetData>
@@ -18796,12 +18824,12 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="138" t="s">
         <v>1274</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -18815,10 +18843,10 @@
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="140" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="142"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="29" t="s">
         <v>1273</v>
       </c>
@@ -18832,20 +18860,20 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="142" t="s">
+      <c r="J3" s="141" t="s">
         <v>1271</v>
       </c>
-      <c r="K3" s="142"/>
+      <c r="K3" s="141"/>
       <c r="L3" s="32">
         <v>20170323</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="140" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="142"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="32" t="s">
         <v>1270</v>
       </c>
@@ -18857,18 +18885,18 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="142" t="s">
+      <c r="J4" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="K4" s="142"/>
+      <c r="K4" s="141"/>
       <c r="L4" s="30"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="142" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="144"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -18878,10 +18906,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="142" t="s">
+      <c r="J5" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="142"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="36"/>
       <c r="M5" s="39"/>
     </row>
@@ -18907,14 +18935,14 @@
       <c r="B7" s="43" t="s">
         <v>1267</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="144" t="s">
         <v>1266</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136" t="s">
+      <c r="D7" s="144"/>
+      <c r="E7" s="144" t="s">
         <v>1265</v>
       </c>
-      <c r="F7" s="136"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="106" t="s">
         <v>1264</v>
       </c>
@@ -18930,17 +18958,17 @@
       <c r="K7" s="44" t="s">
         <v>1260</v>
       </c>
-      <c r="L7" s="137" t="s">
+      <c r="L7" s="133" t="s">
         <v>1259</v>
       </c>
-      <c r="M7" s="137"/>
+      <c r="M7" s="133"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="45">
         <v>1</v>
       </c>
       <c r="B8" s="46"/>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="134" t="s">
         <v>1258</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -18974,7 +19002,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="138"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="46" t="s">
         <v>1253</v>
       </c>
@@ -19004,7 +19032,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="138"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="52" t="s">
         <v>1249</v>
       </c>
@@ -19034,7 +19062,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="138"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="52" t="s">
         <v>1246</v>
       </c>
@@ -19064,7 +19092,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="138"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="52" t="s">
         <v>1246</v>
       </c>
@@ -19093,7 +19121,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="46"/>
-      <c r="C13" s="138"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="46" t="s">
         <v>373</v>
       </c>
@@ -19122,7 +19150,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="138"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="46" t="s">
         <v>377</v>
       </c>
@@ -19149,7 +19177,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="138"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="46" t="s">
         <v>380</v>
       </c>
@@ -19176,7 +19204,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="138"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="46" t="s">
         <v>382</v>
       </c>
@@ -19203,7 +19231,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="138"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="46" t="s">
         <v>384</v>
       </c>
@@ -19232,7 +19260,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="138"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="54" t="s">
         <v>386</v>
       </c>
@@ -19259,7 +19287,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="138"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="54" t="s">
         <v>388</v>
       </c>
@@ -19284,7 +19312,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="138"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="54" t="s">
         <v>391</v>
       </c>
@@ -19311,7 +19339,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="138"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="54" t="s">
         <v>391</v>
       </c>
@@ -19338,7 +19366,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="138"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="55" t="s">
         <v>393</v>
       </c>
@@ -19367,7 +19395,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="138"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="54" t="s">
         <v>396</v>
       </c>
@@ -19396,7 +19424,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="138"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="54" t="s">
         <v>398</v>
       </c>
@@ -19425,7 +19453,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="138"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="54" t="s">
         <v>401</v>
       </c>
@@ -19454,7 +19482,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="138"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="54" t="s">
         <v>1241</v>
       </c>
@@ -19479,7 +19507,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="138"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="54" t="s">
         <v>1240</v>
       </c>
@@ -19504,7 +19532,7 @@
     <row r="28" spans="1:13" ht="13.5">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="138"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="79" t="s">
         <v>1239</v>
       </c>
@@ -19531,7 +19559,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="138"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="54" t="s">
         <v>1236</v>
       </c>
@@ -19560,7 +19588,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="138"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="54" t="s">
         <v>405</v>
       </c>
@@ -19587,7 +19615,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="138"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="57" t="s">
         <v>408</v>
       </c>
@@ -19616,7 +19644,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="138"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="57" t="s">
         <v>411</v>
       </c>
@@ -19641,7 +19669,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="138"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="57" t="s">
         <v>412</v>
       </c>
@@ -19670,7 +19698,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="133" t="s">
+      <c r="C34" s="135" t="s">
         <v>1234</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -19701,7 +19729,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="133"/>
+      <c r="C35" s="135"/>
       <c r="D35" s="57" t="s">
         <v>418</v>
       </c>
@@ -19730,7 +19758,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="133"/>
+      <c r="C36" s="135"/>
       <c r="D36" s="57" t="s">
         <v>415</v>
       </c>
@@ -19759,7 +19787,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="46"/>
-      <c r="C37" s="133"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="57" t="s">
         <v>418</v>
       </c>
@@ -19788,7 +19816,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="46"/>
-      <c r="C38" s="133"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="57" t="s">
         <v>415</v>
       </c>
@@ -19817,7 +19845,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="133"/>
+      <c r="C39" s="135"/>
       <c r="D39" s="57" t="s">
         <v>418</v>
       </c>
@@ -19846,7 +19874,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="133"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="57" t="s">
         <v>424</v>
       </c>
@@ -19875,7 +19903,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="46"/>
-      <c r="C41" s="133"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="57" t="s">
         <v>426</v>
       </c>
@@ -19904,7 +19932,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="46"/>
-      <c r="C42" s="133"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="57" t="s">
         <v>428</v>
       </c>
@@ -19933,7 +19961,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="46"/>
-      <c r="C43" s="133"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="57" t="s">
         <v>432</v>
       </c>
@@ -19962,7 +19990,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="46"/>
-      <c r="C44" s="133"/>
+      <c r="C44" s="135"/>
       <c r="D44" s="57" t="s">
         <v>434</v>
       </c>
@@ -19993,7 +20021,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="46"/>
-      <c r="C45" s="133"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="53" t="s">
         <v>437</v>
       </c>
@@ -20022,7 +20050,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="46"/>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="136" t="s">
         <v>1232</v>
       </c>
       <c r="D46" s="53" t="s">
@@ -20051,7 +20079,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="46"/>
-      <c r="C47" s="135"/>
+      <c r="C47" s="137"/>
       <c r="D47" s="53" t="s">
         <v>442</v>
       </c>
@@ -20078,7 +20106,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="46"/>
-      <c r="C48" s="135"/>
+      <c r="C48" s="137"/>
       <c r="D48" s="53" t="s">
         <v>444</v>
       </c>
@@ -20107,7 +20135,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="135"/>
+      <c r="C49" s="137"/>
       <c r="D49" s="53" t="s">
         <v>446</v>
       </c>
@@ -20136,7 +20164,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="133" t="s">
+      <c r="C50" s="135" t="s">
         <v>1230</v>
       </c>
       <c r="D50" s="53" t="s">
@@ -20165,7 +20193,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="46"/>
-      <c r="C51" s="133"/>
+      <c r="C51" s="135"/>
       <c r="D51" s="53" t="s">
         <v>451</v>
       </c>
@@ -20190,7 +20218,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="46"/>
-      <c r="C52" s="133"/>
+      <c r="C52" s="135"/>
       <c r="D52" s="53" t="s">
         <v>453</v>
       </c>
@@ -20217,7 +20245,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="46"/>
-      <c r="C53" s="133"/>
+      <c r="C53" s="135"/>
       <c r="